--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B30E0D-8654-4244-BD22-38DC73A8E13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDE207D-1AF6-4454-A491-32B3D0C347D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{698D59E6-5A07-4E81-910D-208892AA3176}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{698D59E6-5A07-4E81-910D-208892AA3176}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="30">
   <si>
     <t>Start Date</t>
   </si>
@@ -124,6 +124,12 @@
   <si>
     <t>SPUSTBTR Index</t>
   </si>
+  <si>
+    <t>CQ42007</t>
+  </si>
+  <si>
+    <t>CQ12022</t>
+  </si>
 </sst>
 </file>
 
@@ -181,65 +187,121 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3937892459</v>
+        <stp/>
+        <stp>BDH|16966274998426780016</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3424716316</v>
+        <stp/>
+        <stp>BDH|15246957857869102973</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3994550059</v>
+        <stp/>
+        <stp>BDH|14562959200000594053</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3488135795</v>
+        <stp/>
+        <stp>BDH|12002745001575456229</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4278386242</v>
+        <stp/>
+        <stp>BDH|12880863666069230645</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3732456034</v>
+        <stp/>
+        <stp>BDH|16183120774712813409</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3389576903</v>
+        <stp/>
+        <stp>BDH|17121256906916053704</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4061934915</v>
+        <stp/>
+        <stp>BDH|11342002158122404301</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+    </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C2</stp>
@@ -247,94 +309,222 @@
         <tr r="B5" s="1"/>
       </tp>
     </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...1481516777</v>
+        <stp/>
+        <stp>BDH|8320802999444240183</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2310121473</v>
+        <stp/>
+        <stp>BDH|9932436974854626349</stp>
+        <tr r="W7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3735033632</v>
+        <stp/>
+        <stp>BDH|1593901460290567372</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2089682958</v>
+        <stp/>
+        <stp>BDH|3342976430485133247</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+    </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C20</stp>
         <stp>PX_LAST</stp>
         <tr r="T5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C21</stp>
+        <stp>PX_LAST</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C22</stp>
+        <stp>PX_LAST</stp>
+        <tr r="V5" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C23</stp>
+        <stp>PX_LAST</stp>
+        <tr r="W5" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C24</stp>
+        <stp>PX_LAST</stp>
+        <tr r="X5" s="1"/>
+      </tp>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C19</stp>
         <stp>PX_LAST</stp>
         <tr r="S5" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...4186248904</v>
+        <stp/>
+        <stp>BDH|8369673424471014288</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2063909809</v>
+        <stp/>
+        <stp>BDH|8299274914961615377</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...1347489764</v>
+        <stp/>
+        <stp>BDH|9399487195533047378</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3529983990</v>
+        <stp/>
+        <stp>BDH|3086322756300417001</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1578010909</v>
+        <stp/>
+        <stp>BDH|5885204776312745490</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3109534160</v>
+        <stp/>
+        <stp>BDH|3441223880640491915</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2327316540</v>
+        <stp/>
+        <stp>BDH|7811534762680457559</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...861585740</v>
+        <stp/>
+        <stp>BDH|8029435155978753058</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2249894342</v>
+        <stp/>
+        <stp>BDH|6982236615763937494</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...958154813</v>
+        <stp/>
+        <stp>BDH|1546345364254999319</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3044234379</v>
+        <stp/>
+        <stp>BDH|1250713242851293069</stp>
+        <tr r="S7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -638,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0160D1B-C8A1-4D43-805B-E7A085818AA4}">
-  <dimension ref="A1:X172"/>
+  <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C140" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:X178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,16 +856,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>39447</v>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44469</v>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -826,21 +1016,21 @@
         <f>_xll.BFieldInfo(T$6)</f>
         <v>Last Price</v>
       </c>
-      <c r="U5" t="e">
-        <f ca="1">_xll.BFieldInfo(U$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V5" t="e">
-        <f ca="1">_xll.BFieldInfo(V$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W5" t="e">
-        <f ca="1">_xll.BFieldInfo(W$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X5" t="e">
-        <f ca="1">_xll.BFieldInfo(X$6)</f>
-        <v>#NAME?</v>
+      <c r="U5" t="str">
+        <f>_xll.BFieldInfo(U$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="V5" t="str">
+        <f>_xll.BFieldInfo(V$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="W5" t="str">
+        <f>_xll.BFieldInfo(W$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="X5" t="str">
+        <f>_xll.BFieldInfo(X$6)</f>
+        <v>Last Price</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -918,100 +1108,100 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="e">
-        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=166")</f>
-        <v>#NAME?</v>
+      <c r="A7" s="1">
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=172")</f>
+        <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="e">
-        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" t="e">
-        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" t="e">
-        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" t="e">
-        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" t="e">
-        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" t="e">
-        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" t="e">
-        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" t="e">
-        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L7" t="e">
-        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M7" t="e">
-        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" t="e">
-        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" t="e">
-        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P7" t="e">
-        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q7" t="e">
-        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R7" t="e">
-        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S7" t="e">
-        <f ca="1">_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T7" t="e">
-        <f ca="1">_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U7" t="e">
-        <f ca="1">_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V7" t="e">
-        <f ca="1">_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W7" t="e">
-        <f ca="1">_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X7" t="e">
-        <f ca="1">_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=166")</f>
-        <v>#NAME?</v>
+      <c r="C7">
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>1902.17</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="E7">
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>1468.36</v>
+      </c>
+      <c r="F7">
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>403.25</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>766.03700000000003</v>
+      </c>
+      <c r="H7">
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>2253.36</v>
+      </c>
+      <c r="I7">
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>1245.5899999999999</v>
+      </c>
+      <c r="J7">
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>270.02620000000002</v>
+      </c>
+      <c r="K7">
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>590.78</v>
+      </c>
+      <c r="L7">
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>1294.82</v>
+      </c>
+      <c r="M7">
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>12335.221</v>
+      </c>
+      <c r="N7">
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>1915.1320000000001</v>
+      </c>
+      <c r="O7">
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>1389.21</v>
+      </c>
+      <c r="P7">
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>255.67</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>141.76349999999999</v>
+      </c>
+      <c r="R7">
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>3.1589900000000002</v>
+      </c>
+      <c r="S7">
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>3.33792826</v>
+      </c>
+      <c r="T7">
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>1412.28</v>
+      </c>
+      <c r="U7">
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>996.96</v>
+      </c>
+      <c r="V7">
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>849.221</v>
+      </c>
+      <c r="W7" t="str">
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="X7">
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <v>221.59</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1440,7 +1630,7 @@
         <v>1.77118</v>
       </c>
       <c r="S13">
-        <v>1.9091693159999998</v>
+        <v>1.9091693160000001</v>
       </c>
       <c r="T13">
         <v>1431.13</v>
@@ -2307,7 +2497,7 @@
         <v>562.6</v>
       </c>
       <c r="L25">
-        <v>1285.95</v>
+        <v>1285.96</v>
       </c>
       <c r="M25">
         <v>13109.794</v>
@@ -2825,7 +3015,7 @@
         <v>695.36</v>
       </c>
       <c r="L32">
-        <v>1224.44</v>
+        <v>1224.45</v>
       </c>
       <c r="M32">
         <v>13229.0828</v>
@@ -4971,7 +5161,7 @@
         <v>881.89</v>
       </c>
       <c r="L61">
-        <v>1145</v>
+        <v>1144.99</v>
       </c>
       <c r="M61">
         <v>13849.6605</v>
@@ -9802,7 +9992,7 @@
         <v>1.20272</v>
       </c>
       <c r="S126">
-        <v>1.2891875320000001</v>
+        <v>1.2891875319999999</v>
       </c>
       <c r="T126">
         <v>3342.44</v>
@@ -9950,7 +10140,7 @@
         <v>1.40642</v>
       </c>
       <c r="S128">
-        <v>1.4301515249999999</v>
+        <v>1.4301515250000001</v>
       </c>
       <c r="T128">
         <v>3410.06</v>
@@ -10021,10 +10211,10 @@
         <v>153.51939999999999</v>
       </c>
       <c r="R129">
-        <v>1.6076899999999998</v>
+        <v>1.6076900000000001</v>
       </c>
       <c r="S129">
-        <v>1.6518687920000001</v>
+        <v>1.6518687919999999</v>
       </c>
       <c r="T129">
         <v>3410.06</v>
@@ -10246,7 +10436,7 @@
         <v>1.8595600000000001</v>
       </c>
       <c r="S132">
-        <v>1.9041210039999998</v>
+        <v>1.9041210040000001</v>
       </c>
       <c r="T132">
         <v>3484.56</v>
@@ -10320,7 +10510,7 @@
         <v>1.89941</v>
       </c>
       <c r="S133">
-        <v>1.9091693159999998</v>
+        <v>1.9091693160000001</v>
       </c>
       <c r="T133">
         <v>3569.63</v>
@@ -10616,7 +10806,7 @@
         <v>2.25685</v>
       </c>
       <c r="S137">
-        <v>2.3185088560000002</v>
+        <v>2.3185088559999998</v>
       </c>
       <c r="T137">
         <v>3654.68</v>
@@ -11649,10 +11839,10 @@
         <v>160.4391</v>
       </c>
       <c r="R151">
-        <v>1.4926300000000001</v>
+        <v>1.4926299999999999</v>
       </c>
       <c r="S151">
-        <v>1.5258627040000001</v>
+        <v>1.5258627039999999</v>
       </c>
       <c r="T151">
         <v>4017.15</v>
@@ -13188,7 +13378,7 @@
         <v>1231.8599999999999</v>
       </c>
       <c r="M172">
-        <v>17420.617999999999</v>
+        <v>17413.007000000001</v>
       </c>
       <c r="N172">
         <v>3078.9229999999998</v>
@@ -13209,7 +13399,7 @@
         <v>3.5003096999999997E-2</v>
       </c>
       <c r="T172">
-        <v>4546.97</v>
+        <v>4668.7700000000004</v>
       </c>
       <c r="U172">
         <v>1811.62</v>
@@ -13222,6 +13412,450 @@
       </c>
       <c r="X172">
         <v>452.54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B173">
+        <v>211</v>
+      </c>
+      <c r="C173">
+        <v>5235.3900000000003</v>
+      </c>
+      <c r="D173">
+        <v>248.9957</v>
+      </c>
+      <c r="E173">
+        <v>4605.38</v>
+      </c>
+      <c r="F173">
+        <v>745.23</v>
+      </c>
+      <c r="G173">
+        <v>2297.1909999999998</v>
+      </c>
+      <c r="H173">
+        <v>2335.5300000000002</v>
+      </c>
+      <c r="I173">
+        <v>1264.75</v>
+      </c>
+      <c r="J173">
+        <v>497.9812</v>
+      </c>
+      <c r="K173">
+        <v>1565.68</v>
+      </c>
+      <c r="L173">
+        <v>1244.81</v>
+      </c>
+      <c r="M173">
+        <v>17615.245999999999</v>
+      </c>
+      <c r="N173">
+        <v>3174.8629999999998</v>
+      </c>
+      <c r="O173">
+        <v>1809.76</v>
+      </c>
+      <c r="P173">
+        <v>474.5</v>
+      </c>
+      <c r="Q173">
+        <v>161.73089999999999</v>
+      </c>
+      <c r="R173">
+        <v>4.6690000000000002E-2</v>
+      </c>
+      <c r="S173">
+        <v>5.5007647999999999E-2</v>
+      </c>
+      <c r="T173">
+        <v>4668.7700000000004</v>
+      </c>
+      <c r="U173">
+        <v>1898.51</v>
+      </c>
+      <c r="V173">
+        <v>2730.6550000000002</v>
+      </c>
+      <c r="W173">
+        <v>196.40625</v>
+      </c>
+      <c r="X173">
+        <v>457.18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B174">
+        <v>218.69</v>
+      </c>
+      <c r="C174">
+        <v>5256.08</v>
+      </c>
+      <c r="D174">
+        <v>254.8236</v>
+      </c>
+      <c r="E174">
+        <v>4567</v>
+      </c>
+      <c r="F174">
+        <v>726.53</v>
+      </c>
+      <c r="G174">
+        <v>2198.9079999999999</v>
+      </c>
+      <c r="H174">
+        <v>2223.6999999999998</v>
+      </c>
+      <c r="I174">
+        <v>1212.42</v>
+      </c>
+      <c r="J174">
+        <v>497.22050000000002</v>
+      </c>
+      <c r="K174">
+        <v>1549.64</v>
+      </c>
+      <c r="L174">
+        <v>1210.92</v>
+      </c>
+      <c r="M174">
+        <v>17208.339</v>
+      </c>
+      <c r="N174">
+        <v>3024.6669999999999</v>
+      </c>
+      <c r="O174">
+        <v>1801.2</v>
+      </c>
+      <c r="P174">
+        <v>468.99</v>
+      </c>
+      <c r="Q174">
+        <v>161.7533</v>
+      </c>
+      <c r="R174">
+        <v>3.3849999999999998E-2</v>
+      </c>
+      <c r="S174">
+        <v>5.000632E-2</v>
+      </c>
+      <c r="T174">
+        <v>4668.7700000000004</v>
+      </c>
+      <c r="U174">
+        <v>1845.71</v>
+      </c>
+      <c r="V174">
+        <v>2685.5439999999999</v>
+      </c>
+      <c r="W174">
+        <v>201.0625</v>
+      </c>
+      <c r="X174">
+        <v>465.39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B175">
+        <v>214.08</v>
+      </c>
+      <c r="C175">
+        <v>5233.6899999999996</v>
+      </c>
+      <c r="D175">
+        <v>250.45609999999999</v>
+      </c>
+      <c r="E175">
+        <v>4766.18</v>
+      </c>
+      <c r="F175">
+        <v>754.83</v>
+      </c>
+      <c r="G175">
+        <v>2245.3130000000001</v>
+      </c>
+      <c r="H175">
+        <v>2336.0700000000002</v>
+      </c>
+      <c r="I175">
+        <v>1232.01</v>
+      </c>
+      <c r="J175">
+        <v>500.34989999999999</v>
+      </c>
+      <c r="K175">
+        <v>1578.79</v>
+      </c>
+      <c r="L175">
+        <v>1221.1199999999999</v>
+      </c>
+      <c r="M175">
+        <v>17352.34</v>
+      </c>
+      <c r="N175">
+        <v>3039.386</v>
+      </c>
+      <c r="O175">
+        <v>1826.78</v>
+      </c>
+      <c r="P175">
+        <v>511.42</v>
+      </c>
+      <c r="Q175">
+        <v>161.78190000000001</v>
+      </c>
+      <c r="R175">
+        <v>3.8309999999999997E-2</v>
+      </c>
+      <c r="S175">
+        <v>8.5018266999999995E-2</v>
+      </c>
+      <c r="T175">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U175">
+        <v>1916.98</v>
+      </c>
+      <c r="V175">
+        <v>2788.1370000000002</v>
+      </c>
+      <c r="W175">
+        <v>197.125</v>
+      </c>
+      <c r="X175">
+        <v>460.57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B176">
+        <v>202.91</v>
+      </c>
+      <c r="C176">
+        <v>4939.84</v>
+      </c>
+      <c r="D176">
+        <v>240.05350000000001</v>
+      </c>
+      <c r="E176">
+        <v>4515.55</v>
+      </c>
+      <c r="F176">
+        <v>717.38</v>
+      </c>
+      <c r="G176">
+        <v>2028.453</v>
+      </c>
+      <c r="H176">
+        <v>2222.4499999999998</v>
+      </c>
+      <c r="I176">
+        <v>1208.23</v>
+      </c>
+      <c r="J176">
+        <v>502.14269999999999</v>
+      </c>
+      <c r="K176">
+        <v>1535.39</v>
+      </c>
+      <c r="L176">
+        <v>1199.92</v>
+      </c>
+      <c r="M176">
+        <v>17491.125</v>
+      </c>
+      <c r="N176">
+        <v>3145.723</v>
+      </c>
+      <c r="O176">
+        <v>1759.42</v>
+      </c>
+      <c r="P176">
+        <v>470.09</v>
+      </c>
+      <c r="Q176">
+        <v>161.8167</v>
+      </c>
+      <c r="R176">
+        <v>0.18622</v>
+      </c>
+      <c r="S176">
+        <v>0.240145688</v>
+      </c>
+      <c r="T176">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U176">
+        <v>1816.57</v>
+      </c>
+      <c r="V176">
+        <v>2621.9740000000002</v>
+      </c>
+      <c r="W176">
+        <v>188.9375</v>
+      </c>
+      <c r="X176">
+        <v>446.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B177">
+        <v>198.43</v>
+      </c>
+      <c r="C177">
+        <v>4768.99</v>
+      </c>
+      <c r="D177">
+        <v>234.13550000000001</v>
+      </c>
+      <c r="E177">
+        <v>4373.9399999999996</v>
+      </c>
+      <c r="F177">
+        <v>698.02</v>
+      </c>
+      <c r="G177">
+        <v>2048.0889999999999</v>
+      </c>
+      <c r="H177">
+        <v>2179.1</v>
+      </c>
+      <c r="I177">
+        <v>1171.31</v>
+      </c>
+      <c r="J177">
+        <v>499.65269999999998</v>
+      </c>
+      <c r="K177">
+        <v>1521.6</v>
+      </c>
+      <c r="L177">
+        <v>1194.8599999999999</v>
+      </c>
+      <c r="M177">
+        <v>17708.370999999999</v>
+      </c>
+      <c r="N177">
+        <v>3261.558</v>
+      </c>
+      <c r="O177">
+        <v>1779.61</v>
+      </c>
+      <c r="P177">
+        <v>451.08</v>
+      </c>
+      <c r="Q177">
+        <v>161.87129999999999</v>
+      </c>
+      <c r="R177">
+        <v>0.32255</v>
+      </c>
+      <c r="S177">
+        <v>0.36032789799999998</v>
+      </c>
+      <c r="T177">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U177">
+        <v>1772.97</v>
+      </c>
+      <c r="V177">
+        <v>2552.4180000000001</v>
+      </c>
+      <c r="W177">
+        <v>184.03125</v>
+      </c>
+      <c r="X177">
+        <v>445.14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B178">
+        <v>185.88</v>
+      </c>
+      <c r="C178">
+        <v>4636.45</v>
+      </c>
+      <c r="D178">
+        <v>223.0386</v>
+      </c>
+      <c r="E178">
+        <v>4530.41</v>
+      </c>
+      <c r="F178">
+        <v>711.56</v>
+      </c>
+      <c r="G178">
+        <v>2070.125</v>
+      </c>
+      <c r="H178">
+        <v>2181.63</v>
+      </c>
+      <c r="I178">
+        <v>1141.79</v>
+      </c>
+      <c r="J178">
+        <v>499.84949999999998</v>
+      </c>
+      <c r="K178">
+        <v>1507.53</v>
+      </c>
+      <c r="L178">
+        <v>1231.8699999999999</v>
+      </c>
+      <c r="M178">
+        <v>18513.787</v>
+      </c>
+      <c r="N178">
+        <v>3576.8649999999998</v>
+      </c>
+      <c r="O178">
+        <v>1708.65</v>
+      </c>
+      <c r="P178">
+        <v>480.44</v>
+      </c>
+      <c r="Q178">
+        <v>161.9863</v>
+      </c>
+      <c r="R178">
+        <v>0.51615999999999995</v>
+      </c>
+      <c r="S178">
+        <v>0.60592664699999998</v>
+      </c>
+      <c r="T178">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U178">
+        <v>1805.11</v>
+      </c>
+      <c r="V178">
+        <v>2631.7249999999999</v>
+      </c>
+      <c r="W178">
+        <v>177.125</v>
+      </c>
+      <c r="X178">
+        <v>426.48</v>
       </c>
     </row>
   </sheetData>
@@ -13231,15 +13865,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9233B736-3BC3-4102-ADFB-03CD21AF7937}">
-  <dimension ref="A1:X167"/>
+  <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y167"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -13256,7 +13888,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -25577,7 +26209,7 @@
         <v>1231.8599999999999</v>
       </c>
       <c r="M167">
-        <v>17420.617999999999</v>
+        <v>17413.007000000001</v>
       </c>
       <c r="N167">
         <v>3078.9229999999998</v>
@@ -25598,7 +26230,7 @@
         <v>3.5003096999999997E-2</v>
       </c>
       <c r="T167">
-        <v>4546.97</v>
+        <v>4668.7700000000004</v>
       </c>
       <c r="U167">
         <v>1811.62</v>
@@ -25611,6 +26243,450 @@
       </c>
       <c r="X167">
         <v>452.54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B168">
+        <v>211</v>
+      </c>
+      <c r="C168">
+        <v>5235.3900000000003</v>
+      </c>
+      <c r="D168">
+        <v>248.9957</v>
+      </c>
+      <c r="E168">
+        <v>4605.38</v>
+      </c>
+      <c r="F168">
+        <v>745.23</v>
+      </c>
+      <c r="G168">
+        <v>2297.1909999999998</v>
+      </c>
+      <c r="H168">
+        <v>2335.5300000000002</v>
+      </c>
+      <c r="I168">
+        <v>1264.75</v>
+      </c>
+      <c r="J168">
+        <v>497.9812</v>
+      </c>
+      <c r="K168">
+        <v>1565.68</v>
+      </c>
+      <c r="L168">
+        <v>1244.81</v>
+      </c>
+      <c r="M168">
+        <v>17615.245999999999</v>
+      </c>
+      <c r="N168">
+        <v>3174.8629999999998</v>
+      </c>
+      <c r="O168">
+        <v>1809.76</v>
+      </c>
+      <c r="P168">
+        <v>474.5</v>
+      </c>
+      <c r="Q168">
+        <v>161.73089999999999</v>
+      </c>
+      <c r="R168">
+        <v>4.6690000000000002E-2</v>
+      </c>
+      <c r="S168">
+        <v>5.5007647999999999E-2</v>
+      </c>
+      <c r="T168">
+        <v>4668.7700000000004</v>
+      </c>
+      <c r="U168">
+        <v>1898.51</v>
+      </c>
+      <c r="V168">
+        <v>2730.6550000000002</v>
+      </c>
+      <c r="W168">
+        <v>196.40625</v>
+      </c>
+      <c r="X168">
+        <v>457.18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B169">
+        <v>218.69</v>
+      </c>
+      <c r="C169">
+        <v>5256.08</v>
+      </c>
+      <c r="D169">
+        <v>254.8236</v>
+      </c>
+      <c r="E169">
+        <v>4567</v>
+      </c>
+      <c r="F169">
+        <v>726.53</v>
+      </c>
+      <c r="G169">
+        <v>2198.9079999999999</v>
+      </c>
+      <c r="H169">
+        <v>2223.6999999999998</v>
+      </c>
+      <c r="I169">
+        <v>1212.42</v>
+      </c>
+      <c r="J169">
+        <v>497.22050000000002</v>
+      </c>
+      <c r="K169">
+        <v>1549.64</v>
+      </c>
+      <c r="L169">
+        <v>1210.92</v>
+      </c>
+      <c r="M169">
+        <v>17208.339</v>
+      </c>
+      <c r="N169">
+        <v>3024.6669999999999</v>
+      </c>
+      <c r="O169">
+        <v>1801.2</v>
+      </c>
+      <c r="P169">
+        <v>468.99</v>
+      </c>
+      <c r="Q169">
+        <v>161.7533</v>
+      </c>
+      <c r="R169">
+        <v>3.3849999999999998E-2</v>
+      </c>
+      <c r="S169">
+        <v>5.000632E-2</v>
+      </c>
+      <c r="T169">
+        <v>4668.7700000000004</v>
+      </c>
+      <c r="U169">
+        <v>1845.71</v>
+      </c>
+      <c r="V169">
+        <v>2685.5439999999999</v>
+      </c>
+      <c r="W169">
+        <v>201.0625</v>
+      </c>
+      <c r="X169">
+        <v>465.39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B170">
+        <v>214.08</v>
+      </c>
+      <c r="C170">
+        <v>5233.6899999999996</v>
+      </c>
+      <c r="D170">
+        <v>250.45609999999999</v>
+      </c>
+      <c r="E170">
+        <v>4766.18</v>
+      </c>
+      <c r="F170">
+        <v>754.83</v>
+      </c>
+      <c r="G170">
+        <v>2245.3130000000001</v>
+      </c>
+      <c r="H170">
+        <v>2336.0700000000002</v>
+      </c>
+      <c r="I170">
+        <v>1232.01</v>
+      </c>
+      <c r="J170">
+        <v>500.34989999999999</v>
+      </c>
+      <c r="K170">
+        <v>1578.79</v>
+      </c>
+      <c r="L170">
+        <v>1221.1199999999999</v>
+      </c>
+      <c r="M170">
+        <v>17352.34</v>
+      </c>
+      <c r="N170">
+        <v>3039.386</v>
+      </c>
+      <c r="O170">
+        <v>1826.78</v>
+      </c>
+      <c r="P170">
+        <v>511.42</v>
+      </c>
+      <c r="Q170">
+        <v>161.78190000000001</v>
+      </c>
+      <c r="R170">
+        <v>3.8309999999999997E-2</v>
+      </c>
+      <c r="S170">
+        <v>8.5018266999999995E-2</v>
+      </c>
+      <c r="T170">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U170">
+        <v>1916.98</v>
+      </c>
+      <c r="V170">
+        <v>2788.1370000000002</v>
+      </c>
+      <c r="W170">
+        <v>197.125</v>
+      </c>
+      <c r="X170">
+        <v>460.57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B171">
+        <v>202.91</v>
+      </c>
+      <c r="C171">
+        <v>4939.84</v>
+      </c>
+      <c r="D171">
+        <v>240.05350000000001</v>
+      </c>
+      <c r="E171">
+        <v>4515.55</v>
+      </c>
+      <c r="F171">
+        <v>717.38</v>
+      </c>
+      <c r="G171">
+        <v>2028.453</v>
+      </c>
+      <c r="H171">
+        <v>2222.4499999999998</v>
+      </c>
+      <c r="I171">
+        <v>1208.23</v>
+      </c>
+      <c r="J171">
+        <v>502.14269999999999</v>
+      </c>
+      <c r="K171">
+        <v>1535.39</v>
+      </c>
+      <c r="L171">
+        <v>1199.92</v>
+      </c>
+      <c r="M171">
+        <v>17491.125</v>
+      </c>
+      <c r="N171">
+        <v>3145.723</v>
+      </c>
+      <c r="O171">
+        <v>1759.42</v>
+      </c>
+      <c r="P171">
+        <v>470.09</v>
+      </c>
+      <c r="Q171">
+        <v>161.8167</v>
+      </c>
+      <c r="R171">
+        <v>0.18622</v>
+      </c>
+      <c r="S171">
+        <v>0.240145688</v>
+      </c>
+      <c r="T171">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U171">
+        <v>1816.57</v>
+      </c>
+      <c r="V171">
+        <v>2621.9740000000002</v>
+      </c>
+      <c r="W171">
+        <v>188.9375</v>
+      </c>
+      <c r="X171">
+        <v>446.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B172">
+        <v>198.43</v>
+      </c>
+      <c r="C172">
+        <v>4768.99</v>
+      </c>
+      <c r="D172">
+        <v>234.13550000000001</v>
+      </c>
+      <c r="E172">
+        <v>4373.9399999999996</v>
+      </c>
+      <c r="F172">
+        <v>698.02</v>
+      </c>
+      <c r="G172">
+        <v>2048.0889999999999</v>
+      </c>
+      <c r="H172">
+        <v>2179.1</v>
+      </c>
+      <c r="I172">
+        <v>1171.31</v>
+      </c>
+      <c r="J172">
+        <v>499.65269999999998</v>
+      </c>
+      <c r="K172">
+        <v>1521.6</v>
+      </c>
+      <c r="L172">
+        <v>1194.8599999999999</v>
+      </c>
+      <c r="M172">
+        <v>17708.370999999999</v>
+      </c>
+      <c r="N172">
+        <v>3261.558</v>
+      </c>
+      <c r="O172">
+        <v>1779.61</v>
+      </c>
+      <c r="P172">
+        <v>451.08</v>
+      </c>
+      <c r="Q172">
+        <v>161.87129999999999</v>
+      </c>
+      <c r="R172">
+        <v>0.32255</v>
+      </c>
+      <c r="S172">
+        <v>0.36032789799999998</v>
+      </c>
+      <c r="T172">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U172">
+        <v>1772.97</v>
+      </c>
+      <c r="V172">
+        <v>2552.4180000000001</v>
+      </c>
+      <c r="W172">
+        <v>184.03125</v>
+      </c>
+      <c r="X172">
+        <v>445.14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B173">
+        <v>185.88</v>
+      </c>
+      <c r="C173">
+        <v>4636.45</v>
+      </c>
+      <c r="D173">
+        <v>223.0386</v>
+      </c>
+      <c r="E173">
+        <v>4530.41</v>
+      </c>
+      <c r="F173">
+        <v>711.56</v>
+      </c>
+      <c r="G173">
+        <v>2070.125</v>
+      </c>
+      <c r="H173">
+        <v>2181.63</v>
+      </c>
+      <c r="I173">
+        <v>1141.79</v>
+      </c>
+      <c r="J173">
+        <v>499.84949999999998</v>
+      </c>
+      <c r="K173">
+        <v>1507.53</v>
+      </c>
+      <c r="L173">
+        <v>1231.8699999999999</v>
+      </c>
+      <c r="M173">
+        <v>18513.787</v>
+      </c>
+      <c r="N173">
+        <v>3576.8649999999998</v>
+      </c>
+      <c r="O173">
+        <v>1708.65</v>
+      </c>
+      <c r="P173">
+        <v>480.44</v>
+      </c>
+      <c r="Q173">
+        <v>161.9863</v>
+      </c>
+      <c r="R173">
+        <v>0.51615999999999995</v>
+      </c>
+      <c r="S173">
+        <v>0.60592664699999998</v>
+      </c>
+      <c r="T173">
+        <v>4778.1000000000004</v>
+      </c>
+      <c r="U173">
+        <v>1805.11</v>
+      </c>
+      <c r="V173">
+        <v>2631.7249999999999</v>
+      </c>
+      <c r="W173">
+        <v>177.125</v>
+      </c>
+      <c r="X173">
+        <v>426.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0976C572-7257-4CE8-8B60-CB2459972E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFCDEA-000D-4D72-87FA-72D07FFE0CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{698D59E6-5A07-4E81-910D-208892AA3176}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
-    <definedName name="SpreadsheetBuilder_1" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_2" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,10 +126,10 @@
     <t>SPUSTBTR Index</t>
   </si>
   <si>
-    <t>CQ42007</t>
+    <t>CQ4 2007</t>
   </si>
   <si>
-    <t>CQ12022</t>
+    <t>CQ3 2022</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -183,7 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,48 +497,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0160D1B-C8A1-4D43-805B-E7A085818AA4}">
-  <dimension ref="A1:X178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:X178"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="e">
         <f ca="1">_xll.BFieldInfo(B$6)</f>
         <v>#NAME?</v>
@@ -703,7 +703,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -777,104 +777,104 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="e">
-        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=172")</f>
+        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="e">
-        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="D7" t="e">
-        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="E7" t="e">
-        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="F7" t="e">
-        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="G7" t="e">
-        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="H7" t="e">
-        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="I7" t="e">
-        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="J7" t="e">
-        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="K7" t="e">
-        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="L7" t="e">
-        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="M7" t="e">
-        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="N7" t="e">
-        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="O7" t="e">
-        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="P7" t="e">
-        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="Q7" t="e">
-        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="R7" t="e">
-        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="S7" t="e">
-        <f ca="1">_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="T7" t="e">
-        <f ca="1">_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="U7" t="e">
-        <f ca="1">_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="V7" t="e">
-        <f ca="1">_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="W7" t="e">
-        <f ca="1">_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
       <c r="X7" t="e">
-        <f ca="1">_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=172")</f>
+        <f ca="1">_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39478</v>
       </c>
@@ -948,7 +948,7 @@
         <v>227.77</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39507</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>228.89</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39538</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>229.84</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39568</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>226.4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39598</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39629</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>225.95</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39660</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>226.1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39689</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>231.7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39721</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>231.67</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39752</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>223.83</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39780</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>254.45</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39813</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>275.52</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39843</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>252.9</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39871</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>248.78</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39903</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>261.64</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39933</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>247.27</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39962</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39994</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>241.93</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40025</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>243.28</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40056</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>247.28</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40086</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>251.11</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40116</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>248.6</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40147</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>255.21</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40178</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>240.89</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40207</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>248.08</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40235</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>248.88</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40268</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>245.69</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40298</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>251.94</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40329</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>260.77</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40359</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>271.02</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40389</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>273.64999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40421</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>290.10000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40451</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>287.45999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40480</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>281.51</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40512</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>276.77</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40543</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>265.92</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40574</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>262.69</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40602</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>265.58</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40633</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>265.16000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40662</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40694</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>278.36</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40724</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>274.33</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40753</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>285.69</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40786</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>306.13</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40816</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>320.97000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40847</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>312.89</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40877</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>318.52</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40907</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>326.26</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40939</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>327.68</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40968</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>322.39999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40998</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>313.52999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41029</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>325.22000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41060</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>342.13</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41089</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>338.15</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41121</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>345.18</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41152</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>344.19</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41180</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>339.6</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41213</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>339.49</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41243</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>344.21</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41274</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>338.35</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41305</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>329.13</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41333</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>333.3</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41362</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>334.92</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41394</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41425</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>326.89999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41453</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>317.14</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41486</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>312.99</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41516</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>311.27</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41547</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>314.74</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41578</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>318.14999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41607</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>312.02999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41639</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>306.23</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41670</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>318.85000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41698</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>321.19</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41729</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>321.58</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41759</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>325.74</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41789</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41820</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>332.99</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41851</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>333.53</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41880</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>343.56</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41912</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>338.2</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41943</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>346.02</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41971</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>353.34</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42004</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>358.15</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>374.8</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42062</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>362.28</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42094</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>366.83</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42124</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>357.26</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42153</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>351.82</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42185</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>341.01</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42216</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>352.54</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42247</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>352.97</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42277</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>359.19</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42307</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>357.13</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42338</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>354.81</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42369</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>354.31</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42398</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>371.17</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42429</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>382.41</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42460</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42489</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>379.75</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42521</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>383.05</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42551</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>404.33</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42580</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>409.33</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42613</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>403.28</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42643</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>398.14</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42674</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>385.37</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42704</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>361.58</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42734</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>360.24</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42766</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>360.86</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42794</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>365.93</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42825</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>364.2</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>369.56</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42886</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42916</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42947</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>373.55</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42978</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>384.51</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43007</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>376.74</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43039</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43069</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>377.46</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43098</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>381.05</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43131</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>368.62</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43159</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>360.64</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43189</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>369.16</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43220</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>362.73</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43251</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>368.71</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43280</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>368.96</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43312</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>364.43</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43343</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>370.18</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43371</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>361.23</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43404</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>355.86</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43434</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>362.77</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43465</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>379.35</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43496</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>381.93</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43524</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>378.48</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43553</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>392.83</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43585</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>387.91</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43616</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>406.85</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43644</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>412.53</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43677</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>413.33</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43707</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>441.78</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43738</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>434.65</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43769</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>432.77</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43798</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>428.94</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43830</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>421.26</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43861</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>442.44</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43889</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>463.94</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43921</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>488.19</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43951</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>493.62</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43980</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>490.71</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44012</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>491.3</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44043</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>501.59</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44074</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>488.11</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44104</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>489.71</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44134</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>479.16</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44165</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>482.66</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44196</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>477.95</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44225</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>465.65</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44253</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>443.72</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44286</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>430.85</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44316</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>438.26</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44347</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>440.6</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44377</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>452.49</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44407</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>463.68</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44439</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>463.19</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44469</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>452.54</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44498</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>457.18</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44530</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>465.39</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44561</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>460.57</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44592</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>446.8</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44620</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>445.14</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44651</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>0.60592664699999998</v>
       </c>
       <c r="T178">
-        <v>4778.1000000000004</v>
+        <v>4862.16</v>
       </c>
       <c r="U178">
         <v>1805.11</v>
@@ -13526,6 +13526,228 @@
       </c>
       <c r="X178">
         <v>426.48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B179">
+        <v>163.63</v>
+      </c>
+      <c r="C179">
+        <v>4183.7</v>
+      </c>
+      <c r="D179">
+        <v>202.02549999999999</v>
+      </c>
+      <c r="E179">
+        <v>4131.93</v>
+      </c>
+      <c r="F179">
+        <v>653.66999999999996</v>
+      </c>
+      <c r="G179">
+        <v>1864.1030000000001</v>
+      </c>
+      <c r="H179">
+        <v>2033.7</v>
+      </c>
+      <c r="I179">
+        <v>1076.19</v>
+      </c>
+      <c r="J179">
+        <v>500.70659999999998</v>
+      </c>
+      <c r="K179">
+        <v>1452.69</v>
+      </c>
+      <c r="L179">
+        <v>1255.32</v>
+      </c>
+      <c r="M179">
+        <v>19027.263999999999</v>
+      </c>
+      <c r="N179">
+        <v>3829.3380000000002</v>
+      </c>
+      <c r="O179">
+        <v>1718.69</v>
+      </c>
+      <c r="P179">
+        <v>461.93</v>
+      </c>
+      <c r="Q179">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="R179">
+        <v>0.81928999999999996</v>
+      </c>
+      <c r="S179">
+        <v>0.89200676700000003</v>
+      </c>
+      <c r="T179">
+        <v>4862.16</v>
+      </c>
+      <c r="U179">
+        <v>1659.38</v>
+      </c>
+      <c r="V179">
+        <v>2393.6280000000002</v>
+      </c>
+      <c r="W179">
+        <v>160.4375</v>
+      </c>
+      <c r="X179">
+        <v>400.08</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B180">
+        <v>157.94999999999999</v>
+      </c>
+      <c r="C180">
+        <v>4225.6499999999996</v>
+      </c>
+      <c r="D180">
+        <v>196.23920000000001</v>
+      </c>
+      <c r="E180">
+        <v>4132.1499999999996</v>
+      </c>
+      <c r="F180">
+        <v>652.80999999999995</v>
+      </c>
+      <c r="G180">
+        <v>1864.0429999999999</v>
+      </c>
+      <c r="H180">
+        <v>2037.87</v>
+      </c>
+      <c r="I180">
+        <v>1077.67</v>
+      </c>
+      <c r="J180">
+        <v>488.13490000000002</v>
+      </c>
+      <c r="K180">
+        <v>1456.32</v>
+      </c>
+      <c r="L180">
+        <v>1243.99</v>
+      </c>
+      <c r="M180">
+        <v>18991.223000000002</v>
+      </c>
+      <c r="N180">
+        <v>3821.6329999999998</v>
+      </c>
+      <c r="O180">
+        <v>1718.69</v>
+      </c>
+      <c r="P180">
+        <v>439.75</v>
+      </c>
+      <c r="Q180">
+        <v>162.33709999999999</v>
+      </c>
+      <c r="R180">
+        <v>1.05785</v>
+      </c>
+      <c r="S180">
+        <v>1.1231798500000001</v>
+      </c>
+      <c r="T180">
+        <v>4862.16</v>
+      </c>
+      <c r="U180">
+        <v>1656.26</v>
+      </c>
+      <c r="V180">
+        <v>2386.317</v>
+      </c>
+      <c r="W180">
+        <v>156.09375</v>
+      </c>
+      <c r="X180">
+        <v>399.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B181">
+        <v>155.53</v>
+      </c>
+      <c r="C181">
+        <v>4043.14</v>
+      </c>
+      <c r="D181">
+        <v>194.4674</v>
+      </c>
+      <c r="E181">
+        <v>3785.38</v>
+      </c>
+      <c r="F181">
+        <v>596.77</v>
+      </c>
+      <c r="G181">
+        <v>1707.99</v>
+      </c>
+      <c r="H181">
+        <v>1846.28</v>
+      </c>
+      <c r="I181">
+        <v>1000.67</v>
+      </c>
+      <c r="J181">
+        <v>478.0942</v>
+      </c>
+      <c r="K181">
+        <v>1357.2</v>
+      </c>
+      <c r="L181">
+        <v>1261.07</v>
+      </c>
+      <c r="M181">
+        <v>18910.812000000002</v>
+      </c>
+      <c r="N181">
+        <v>3919.7820000000002</v>
+      </c>
+      <c r="O181">
+        <v>1718.69</v>
+      </c>
+      <c r="P181">
+        <v>405.99</v>
+      </c>
+      <c r="Q181">
+        <v>162.4709</v>
+      </c>
+      <c r="R181">
+        <v>1.6830700000000001</v>
+      </c>
+      <c r="S181">
+        <v>1.7577757199999999</v>
+      </c>
+      <c r="T181">
+        <v>4862.16</v>
+      </c>
+      <c r="U181">
+        <v>1510.77</v>
+      </c>
+      <c r="V181">
+        <v>2183.431</v>
+      </c>
+      <c r="W181">
+        <v>154.34375</v>
+      </c>
+      <c r="X181">
+        <v>397.76</v>
       </c>
     </row>
   </sheetData>
@@ -13534,32 +13756,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9233B736-3BC3-4102-ADFB-03CD21AF7937}">
-  <dimension ref="A1:X173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A176" sqref="A174:A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -13633,7 +13855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39447</v>
       </c>
@@ -13707,7 +13929,7 @@
         <v>221.59</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39478</v>
       </c>
@@ -13781,7 +14003,7 @@
         <v>227.77</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39507</v>
       </c>
@@ -13855,7 +14077,7 @@
         <v>228.89</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39538</v>
       </c>
@@ -13929,7 +14151,7 @@
         <v>229.84</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39568</v>
       </c>
@@ -14003,7 +14225,7 @@
         <v>226.4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39598</v>
       </c>
@@ -14077,7 +14299,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39629</v>
       </c>
@@ -14151,7 +14373,7 @@
         <v>225.95</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39660</v>
       </c>
@@ -14225,7 +14447,7 @@
         <v>226.1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39689</v>
       </c>
@@ -14299,7 +14521,7 @@
         <v>231.7</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39721</v>
       </c>
@@ -14373,7 +14595,7 @@
         <v>231.67</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39752</v>
       </c>
@@ -14447,7 +14669,7 @@
         <v>223.83</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39780</v>
       </c>
@@ -14521,7 +14743,7 @@
         <v>254.45</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39813</v>
       </c>
@@ -14595,7 +14817,7 @@
         <v>275.52</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39843</v>
       </c>
@@ -14669,7 +14891,7 @@
         <v>252.9</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39871</v>
       </c>
@@ -14743,7 +14965,7 @@
         <v>248.78</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39903</v>
       </c>
@@ -14817,7 +15039,7 @@
         <v>261.64</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39933</v>
       </c>
@@ -14891,7 +15113,7 @@
         <v>247.27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39962</v>
       </c>
@@ -14965,7 +15187,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39994</v>
       </c>
@@ -15039,7 +15261,7 @@
         <v>241.93</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40025</v>
       </c>
@@ -15113,7 +15335,7 @@
         <v>243.28</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40056</v>
       </c>
@@ -15187,7 +15409,7 @@
         <v>247.28</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40086</v>
       </c>
@@ -15261,7 +15483,7 @@
         <v>251.11</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40116</v>
       </c>
@@ -15335,7 +15557,7 @@
         <v>248.6</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40147</v>
       </c>
@@ -15409,7 +15631,7 @@
         <v>255.21</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40178</v>
       </c>
@@ -15483,7 +15705,7 @@
         <v>240.89</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40207</v>
       </c>
@@ -15557,7 +15779,7 @@
         <v>248.08</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40235</v>
       </c>
@@ -15631,7 +15853,7 @@
         <v>248.88</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40268</v>
       </c>
@@ -15705,7 +15927,7 @@
         <v>245.69</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40298</v>
       </c>
@@ -15779,7 +16001,7 @@
         <v>251.94</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40329</v>
       </c>
@@ -15853,7 +16075,7 @@
         <v>260.77</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40359</v>
       </c>
@@ -15927,7 +16149,7 @@
         <v>271.02</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40389</v>
       </c>
@@ -16001,7 +16223,7 @@
         <v>273.64999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40421</v>
       </c>
@@ -16075,7 +16297,7 @@
         <v>290.10000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40451</v>
       </c>
@@ -16149,7 +16371,7 @@
         <v>287.45999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40480</v>
       </c>
@@ -16223,7 +16445,7 @@
         <v>281.51</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40512</v>
       </c>
@@ -16297,7 +16519,7 @@
         <v>276.77</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40543</v>
       </c>
@@ -16371,7 +16593,7 @@
         <v>265.92</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40574</v>
       </c>
@@ -16445,7 +16667,7 @@
         <v>262.69</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40602</v>
       </c>
@@ -16519,7 +16741,7 @@
         <v>265.58</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40633</v>
       </c>
@@ -16593,7 +16815,7 @@
         <v>265.16000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40662</v>
       </c>
@@ -16667,7 +16889,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40694</v>
       </c>
@@ -16741,7 +16963,7 @@
         <v>278.36</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40724</v>
       </c>
@@ -16815,7 +17037,7 @@
         <v>274.33</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40753</v>
       </c>
@@ -16889,7 +17111,7 @@
         <v>285.69</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40786</v>
       </c>
@@ -16963,7 +17185,7 @@
         <v>306.13</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40816</v>
       </c>
@@ -17037,7 +17259,7 @@
         <v>320.97000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40847</v>
       </c>
@@ -17111,7 +17333,7 @@
         <v>312.89</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40877</v>
       </c>
@@ -17185,7 +17407,7 @@
         <v>318.52</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40907</v>
       </c>
@@ -17259,7 +17481,7 @@
         <v>326.26</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40939</v>
       </c>
@@ -17333,7 +17555,7 @@
         <v>327.68</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40968</v>
       </c>
@@ -17407,7 +17629,7 @@
         <v>322.39999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40998</v>
       </c>
@@ -17481,7 +17703,7 @@
         <v>313.52999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41029</v>
       </c>
@@ -17555,7 +17777,7 @@
         <v>325.22000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41060</v>
       </c>
@@ -17629,7 +17851,7 @@
         <v>342.13</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41089</v>
       </c>
@@ -17703,7 +17925,7 @@
         <v>338.15</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41121</v>
       </c>
@@ -17777,7 +17999,7 @@
         <v>345.18</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41152</v>
       </c>
@@ -17851,7 +18073,7 @@
         <v>344.19</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41180</v>
       </c>
@@ -17925,7 +18147,7 @@
         <v>339.6</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41213</v>
       </c>
@@ -17999,7 +18221,7 @@
         <v>339.49</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41243</v>
       </c>
@@ -18073,7 +18295,7 @@
         <v>344.21</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41274</v>
       </c>
@@ -18147,7 +18369,7 @@
         <v>338.35</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41305</v>
       </c>
@@ -18221,7 +18443,7 @@
         <v>329.13</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41333</v>
       </c>
@@ -18295,7 +18517,7 @@
         <v>333.3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41362</v>
       </c>
@@ -18369,7 +18591,7 @@
         <v>334.92</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41394</v>
       </c>
@@ -18443,7 +18665,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41425</v>
       </c>
@@ -18517,7 +18739,7 @@
         <v>326.89999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41453</v>
       </c>
@@ -18591,7 +18813,7 @@
         <v>317.14</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41486</v>
       </c>
@@ -18665,7 +18887,7 @@
         <v>312.99</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41516</v>
       </c>
@@ -18739,7 +18961,7 @@
         <v>311.27</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41547</v>
       </c>
@@ -18813,7 +19035,7 @@
         <v>314.74</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41578</v>
       </c>
@@ -18887,7 +19109,7 @@
         <v>318.14999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41607</v>
       </c>
@@ -18961,7 +19183,7 @@
         <v>312.02999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41639</v>
       </c>
@@ -19035,7 +19257,7 @@
         <v>306.23</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41670</v>
       </c>
@@ -19109,7 +19331,7 @@
         <v>318.85000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41698</v>
       </c>
@@ -19183,7 +19405,7 @@
         <v>321.19</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41729</v>
       </c>
@@ -19257,7 +19479,7 @@
         <v>321.58</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41759</v>
       </c>
@@ -19331,7 +19553,7 @@
         <v>325.74</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41789</v>
       </c>
@@ -19405,7 +19627,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41820</v>
       </c>
@@ -19479,7 +19701,7 @@
         <v>332.99</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41851</v>
       </c>
@@ -19553,7 +19775,7 @@
         <v>333.53</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41880</v>
       </c>
@@ -19627,7 +19849,7 @@
         <v>343.56</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41912</v>
       </c>
@@ -19701,7 +19923,7 @@
         <v>338.2</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41943</v>
       </c>
@@ -19775,7 +19997,7 @@
         <v>346.02</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41971</v>
       </c>
@@ -19849,7 +20071,7 @@
         <v>353.34</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42004</v>
       </c>
@@ -19923,7 +20145,7 @@
         <v>358.15</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42034</v>
       </c>
@@ -19997,7 +20219,7 @@
         <v>374.8</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42062</v>
       </c>
@@ -20071,7 +20293,7 @@
         <v>362.28</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42094</v>
       </c>
@@ -20145,7 +20367,7 @@
         <v>366.83</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42124</v>
       </c>
@@ -20219,7 +20441,7 @@
         <v>357.26</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42153</v>
       </c>
@@ -20293,7 +20515,7 @@
         <v>351.82</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42185</v>
       </c>
@@ -20367,7 +20589,7 @@
         <v>341.01</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42216</v>
       </c>
@@ -20441,7 +20663,7 @@
         <v>352.54</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42247</v>
       </c>
@@ -20515,7 +20737,7 @@
         <v>352.97</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42277</v>
       </c>
@@ -20589,7 +20811,7 @@
         <v>359.19</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42307</v>
       </c>
@@ -20663,7 +20885,7 @@
         <v>357.13</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42338</v>
       </c>
@@ -20737,7 +20959,7 @@
         <v>354.81</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42369</v>
       </c>
@@ -20811,7 +21033,7 @@
         <v>354.31</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42398</v>
       </c>
@@ -20885,7 +21107,7 @@
         <v>371.17</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42429</v>
       </c>
@@ -20959,7 +21181,7 @@
         <v>382.41</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42460</v>
       </c>
@@ -21033,7 +21255,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42489</v>
       </c>
@@ -21107,7 +21329,7 @@
         <v>379.75</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42521</v>
       </c>
@@ -21181,7 +21403,7 @@
         <v>383.05</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42551</v>
       </c>
@@ -21255,7 +21477,7 @@
         <v>404.33</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42580</v>
       </c>
@@ -21329,7 +21551,7 @@
         <v>409.33</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42613</v>
       </c>
@@ -21403,7 +21625,7 @@
         <v>403.28</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42643</v>
       </c>
@@ -21477,7 +21699,7 @@
         <v>398.14</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42674</v>
       </c>
@@ -21551,7 +21773,7 @@
         <v>385.37</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42704</v>
       </c>
@@ -21625,7 +21847,7 @@
         <v>361.58</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42734</v>
       </c>
@@ -21699,7 +21921,7 @@
         <v>360.24</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42766</v>
       </c>
@@ -21773,7 +21995,7 @@
         <v>360.86</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42794</v>
       </c>
@@ -21847,7 +22069,7 @@
         <v>365.93</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42825</v>
       </c>
@@ -21921,7 +22143,7 @@
         <v>364.2</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42853</v>
       </c>
@@ -21995,7 +22217,7 @@
         <v>369.56</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42886</v>
       </c>
@@ -22069,7 +22291,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42916</v>
       </c>
@@ -22143,7 +22365,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42947</v>
       </c>
@@ -22217,7 +22439,7 @@
         <v>373.55</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42978</v>
       </c>
@@ -22291,7 +22513,7 @@
         <v>384.51</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43007</v>
       </c>
@@ -22365,7 +22587,7 @@
         <v>376.74</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43039</v>
       </c>
@@ -22439,7 +22661,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43069</v>
       </c>
@@ -22513,7 +22735,7 @@
         <v>377.46</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43098</v>
       </c>
@@ -22587,7 +22809,7 @@
         <v>381.05</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43131</v>
       </c>
@@ -22661,7 +22883,7 @@
         <v>368.62</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43159</v>
       </c>
@@ -22735,7 +22957,7 @@
         <v>360.64</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43189</v>
       </c>
@@ -22809,7 +23031,7 @@
         <v>369.16</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43220</v>
       </c>
@@ -22883,7 +23105,7 @@
         <v>362.73</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43251</v>
       </c>
@@ -22957,7 +23179,7 @@
         <v>368.71</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43280</v>
       </c>
@@ -23031,7 +23253,7 @@
         <v>368.96</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43312</v>
       </c>
@@ -23105,7 +23327,7 @@
         <v>364.43</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43343</v>
       </c>
@@ -23179,7 +23401,7 @@
         <v>370.18</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43371</v>
       </c>
@@ -23253,7 +23475,7 @@
         <v>361.23</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43404</v>
       </c>
@@ -23327,7 +23549,7 @@
         <v>355.86</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43434</v>
       </c>
@@ -23401,7 +23623,7 @@
         <v>362.77</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43465</v>
       </c>
@@ -23475,7 +23697,7 @@
         <v>379.35</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43496</v>
       </c>
@@ -23549,7 +23771,7 @@
         <v>381.93</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43524</v>
       </c>
@@ -23623,7 +23845,7 @@
         <v>378.48</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43553</v>
       </c>
@@ -23697,7 +23919,7 @@
         <v>392.83</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43585</v>
       </c>
@@ -23771,7 +23993,7 @@
         <v>387.91</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43616</v>
       </c>
@@ -23845,7 +24067,7 @@
         <v>406.85</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43644</v>
       </c>
@@ -23919,7 +24141,7 @@
         <v>412.53</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43677</v>
       </c>
@@ -23993,7 +24215,7 @@
         <v>413.33</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43707</v>
       </c>
@@ -24067,7 +24289,7 @@
         <v>441.78</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43738</v>
       </c>
@@ -24141,7 +24363,7 @@
         <v>434.65</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43769</v>
       </c>
@@ -24215,7 +24437,7 @@
         <v>432.77</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43798</v>
       </c>
@@ -24289,7 +24511,7 @@
         <v>428.94</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43830</v>
       </c>
@@ -24363,7 +24585,7 @@
         <v>421.26</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43861</v>
       </c>
@@ -24437,7 +24659,7 @@
         <v>442.44</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43889</v>
       </c>
@@ -24511,7 +24733,7 @@
         <v>463.94</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43921</v>
       </c>
@@ -24585,7 +24807,7 @@
         <v>488.19</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43951</v>
       </c>
@@ -24659,7 +24881,7 @@
         <v>493.62</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43980</v>
       </c>
@@ -24733,7 +24955,7 @@
         <v>490.71</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44012</v>
       </c>
@@ -24807,7 +25029,7 @@
         <v>491.3</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44043</v>
       </c>
@@ -24881,7 +25103,7 @@
         <v>501.59</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44074</v>
       </c>
@@ -24955,7 +25177,7 @@
         <v>488.11</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44104</v>
       </c>
@@ -25029,7 +25251,7 @@
         <v>489.71</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44134</v>
       </c>
@@ -25103,7 +25325,7 @@
         <v>479.16</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44165</v>
       </c>
@@ -25177,7 +25399,7 @@
         <v>482.66</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44196</v>
       </c>
@@ -25251,7 +25473,7 @@
         <v>477.95</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44225</v>
       </c>
@@ -25325,7 +25547,7 @@
         <v>465.65</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44253</v>
       </c>
@@ -25399,7 +25621,7 @@
         <v>443.72</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44286</v>
       </c>
@@ -25473,7 +25695,7 @@
         <v>430.85</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44316</v>
       </c>
@@ -25547,7 +25769,7 @@
         <v>438.26</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44347</v>
       </c>
@@ -25621,7 +25843,7 @@
         <v>440.6</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44377</v>
       </c>
@@ -25695,7 +25917,7 @@
         <v>452.49</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44407</v>
       </c>
@@ -25769,7 +25991,7 @@
         <v>463.68</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44439</v>
       </c>
@@ -25843,7 +26065,7 @@
         <v>463.19</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44469</v>
       </c>
@@ -25917,7 +26139,7 @@
         <v>452.54</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44498</v>
       </c>
@@ -25991,7 +26213,7 @@
         <v>457.18</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44530</v>
       </c>
@@ -26065,7 +26287,7 @@
         <v>465.39</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44561</v>
       </c>
@@ -26139,7 +26361,7 @@
         <v>460.57</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44592</v>
       </c>
@@ -26213,7 +26435,7 @@
         <v>446.8</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44620</v>
       </c>
@@ -26287,7 +26509,7 @@
         <v>445.14</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44651</v>
       </c>
@@ -26359,6 +26581,228 @@
       </c>
       <c r="X173">
         <v>426.48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B174">
+        <v>163.63</v>
+      </c>
+      <c r="C174">
+        <v>4183.7</v>
+      </c>
+      <c r="D174">
+        <v>202.02549999999999</v>
+      </c>
+      <c r="E174">
+        <v>4131.93</v>
+      </c>
+      <c r="F174">
+        <v>653.66999999999996</v>
+      </c>
+      <c r="G174">
+        <v>1864.1030000000001</v>
+      </c>
+      <c r="H174">
+        <v>2033.7</v>
+      </c>
+      <c r="I174">
+        <v>1076.19</v>
+      </c>
+      <c r="J174">
+        <v>500.70659999999998</v>
+      </c>
+      <c r="K174">
+        <v>1452.69</v>
+      </c>
+      <c r="L174">
+        <v>1255.32</v>
+      </c>
+      <c r="M174">
+        <v>19027.263999999999</v>
+      </c>
+      <c r="N174">
+        <v>3829.3380000000002</v>
+      </c>
+      <c r="O174">
+        <v>1718.69</v>
+      </c>
+      <c r="P174">
+        <v>461.93</v>
+      </c>
+      <c r="Q174">
+        <v>162.12700000000001</v>
+      </c>
+      <c r="R174">
+        <v>0.81928999999999996</v>
+      </c>
+      <c r="S174">
+        <v>0.89200676700000003</v>
+      </c>
+      <c r="T174">
+        <v>4862.16</v>
+      </c>
+      <c r="U174">
+        <v>1659.38</v>
+      </c>
+      <c r="V174">
+        <v>2393.6280000000002</v>
+      </c>
+      <c r="W174">
+        <v>160.4375</v>
+      </c>
+      <c r="X174">
+        <v>400.08</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B175">
+        <v>157.94999999999999</v>
+      </c>
+      <c r="C175">
+        <v>4225.6499999999996</v>
+      </c>
+      <c r="D175">
+        <v>196.23920000000001</v>
+      </c>
+      <c r="E175">
+        <v>4132.1499999999996</v>
+      </c>
+      <c r="F175">
+        <v>652.80999999999995</v>
+      </c>
+      <c r="G175">
+        <v>1864.0429999999999</v>
+      </c>
+      <c r="H175">
+        <v>2037.87</v>
+      </c>
+      <c r="I175">
+        <v>1077.67</v>
+      </c>
+      <c r="J175">
+        <v>488.13490000000002</v>
+      </c>
+      <c r="K175">
+        <v>1456.32</v>
+      </c>
+      <c r="L175">
+        <v>1243.99</v>
+      </c>
+      <c r="M175">
+        <v>18991.223000000002</v>
+      </c>
+      <c r="N175">
+        <v>3821.6329999999998</v>
+      </c>
+      <c r="O175">
+        <v>1718.69</v>
+      </c>
+      <c r="P175">
+        <v>439.75</v>
+      </c>
+      <c r="Q175">
+        <v>162.33709999999999</v>
+      </c>
+      <c r="R175">
+        <v>1.05785</v>
+      </c>
+      <c r="S175">
+        <v>1.1231798500000001</v>
+      </c>
+      <c r="T175">
+        <v>4862.16</v>
+      </c>
+      <c r="U175">
+        <v>1656.26</v>
+      </c>
+      <c r="V175">
+        <v>2386.317</v>
+      </c>
+      <c r="W175">
+        <v>156.09375</v>
+      </c>
+      <c r="X175">
+        <v>399.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B176">
+        <v>155.53</v>
+      </c>
+      <c r="C176">
+        <v>4043.14</v>
+      </c>
+      <c r="D176">
+        <v>194.4674</v>
+      </c>
+      <c r="E176">
+        <v>3785.38</v>
+      </c>
+      <c r="F176">
+        <v>596.77</v>
+      </c>
+      <c r="G176">
+        <v>1707.99</v>
+      </c>
+      <c r="H176">
+        <v>1846.28</v>
+      </c>
+      <c r="I176">
+        <v>1000.67</v>
+      </c>
+      <c r="J176">
+        <v>478.0942</v>
+      </c>
+      <c r="K176">
+        <v>1357.2</v>
+      </c>
+      <c r="L176">
+        <v>1261.07</v>
+      </c>
+      <c r="M176">
+        <v>18910.812000000002</v>
+      </c>
+      <c r="N176">
+        <v>3919.7820000000002</v>
+      </c>
+      <c r="O176">
+        <v>1718.69</v>
+      </c>
+      <c r="P176">
+        <v>405.99</v>
+      </c>
+      <c r="Q176">
+        <v>162.4709</v>
+      </c>
+      <c r="R176">
+        <v>1.6830700000000001</v>
+      </c>
+      <c r="S176">
+        <v>1.7577757199999999</v>
+      </c>
+      <c r="T176">
+        <v>4862.16</v>
+      </c>
+      <c r="U176">
+        <v>1510.77</v>
+      </c>
+      <c r="V176">
+        <v>2183.431</v>
+      </c>
+      <c r="W176">
+        <v>154.34375</v>
+      </c>
+      <c r="X176">
+        <v>397.76</v>
       </c>
     </row>
   </sheetData>
@@ -26367,33 +26811,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A360A7-6EC1-417F-9A4F-33537A9128DC}">
-  <dimension ref="A1:X173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -26467,7 +26911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>39447</v>
       </c>
@@ -26495,7 +26939,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39478</v>
       </c>
@@ -26592,7 +27036,7 @@
         <v>2.7889345187057213E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39507</v>
       </c>
@@ -26689,7 +27133,7 @@
         <v>4.917241076524359E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>39538</v>
       </c>
@@ -26786,7 +27230,7 @@
         <v>4.1504652890034244E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39568</v>
       </c>
@@ -26883,7 +27327,7 @@
         <v>-1.4966933518969716E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39598</v>
       </c>
@@ -26980,7 +27424,7 @@
         <v>-1.9302120141342805E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>39629</v>
       </c>
@@ -27077,7 +27521,7 @@
         <v>1.7655271810115725E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39660</v>
       </c>
@@ -27174,7 +27618,7 @@
         <v>6.6386368665627415E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39689</v>
       </c>
@@ -27271,7 +27715,7 @@
         <v>2.4767801857585203E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>39721</v>
       </c>
@@ -27368,7 +27812,7 @@
         <v>-1.2947777298233376E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>39752</v>
       </c>
@@ -27465,7 +27909,7 @@
         <v>-3.3841239694392788E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>39780</v>
       </c>
@@ -27562,7 +28006,7 @@
         <v>0.13680025018987618</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>39813</v>
       </c>
@@ -27659,7 +28103,7 @@
         <v>8.2806052269601027E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>39843</v>
       </c>
@@ -27756,7 +28200,7 @@
         <v>-8.2099303135888424E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>39871</v>
       </c>
@@ -27853,7 +28297,7 @@
         <v>-1.6291024120205666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>39903</v>
       </c>
@@ -27950,7 +28394,7 @@
         <v>5.1692258220114029E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39933</v>
       </c>
@@ -28047,7 +28491,7 @@
         <v>-5.4922794679712506E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39962</v>
       </c>
@@ -28144,7 +28588,7 @@
         <v>-2.8187810894973131E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39994</v>
       </c>
@@ -28241,7 +28685,7 @@
         <v>6.7831876820640957E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40025</v>
       </c>
@@ -28338,7 +28782,7 @@
         <v>5.5801264828669872E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40056</v>
       </c>
@@ -28435,7 +28879,7 @@
         <v>1.6441959881617896E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40086</v>
       </c>
@@ -28532,7 +28976,7 @@
         <v>1.5488515043675211E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40116</v>
       </c>
@@ -28629,7 +29073,7 @@
         <v>-9.9956194496436668E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40147</v>
       </c>
@@ -28726,7 +29170,7 @@
         <v>2.6588897827835911E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40178</v>
       </c>
@@ -28823,7 +29267,7 @@
         <v>-5.6110653971239488E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40207</v>
       </c>
@@ -28920,7 +29364,7 @@
         <v>2.9847648304205388E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40235</v>
       </c>
@@ -29017,7 +29461,7 @@
         <v>3.2247662044500025E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40268</v>
       </c>
@@ -29114,7 +29558,7 @@
         <v>-1.2817422050787508E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40298</v>
       </c>
@@ -29211,7 +29655,7 @@
         <v>2.5438560787984787E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>40329</v>
       </c>
@@ -29308,7 +29752,7 @@
         <v>3.5048027308089091E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>40359</v>
       </c>
@@ -29405,7 +29849,7 @@
         <v>3.9306668711891701E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>40389</v>
       </c>
@@ -29502,7 +29946,7 @@
         <v>9.7040808796398093E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>40421</v>
       </c>
@@ -29599,7 +30043,7 @@
         <v>6.0113283391193262E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>40451</v>
       </c>
@@ -29696,7 +30140,7 @@
         <v>-9.1003102378491851E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>40480</v>
       </c>
@@ -29793,7 +30237,7 @@
         <v>-2.0698531969665313E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>40512</v>
       </c>
@@ -29890,7 +30334,7 @@
         <v>-1.6837767752477695E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>40543</v>
       </c>
@@ -29987,7 +30431,7 @@
         <v>-3.9202225674747848E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>40574</v>
       </c>
@@ -30084,7 +30528,7 @@
         <v>-1.2146510228640217E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>40602</v>
       </c>
@@ -30181,7 +30625,7 @@
         <v>1.1001560775057984E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40633</v>
       </c>
@@ -30278,7 +30722,7 @@
         <v>-1.581444385872266E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40662</v>
       </c>
@@ -30375,7 +30819,7 @@
         <v>1.8253130185548194E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40694</v>
       </c>
@@ -30472,7 +30916,7 @@
         <v>3.0962962962963081E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40724</v>
       </c>
@@ -30569,7 +31013,7 @@
         <v>-1.4477654835464926E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40753</v>
       </c>
@@ -30666,7 +31110,7 @@
         <v>4.1409980680202629E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>40786</v>
       </c>
@@ -30763,7 +31207,7 @@
         <v>7.1546081416920426E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>40816</v>
       </c>
@@ -30860,7 +31304,7 @@
         <v>4.847613758860625E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40847</v>
       </c>
@@ -30957,7 +31401,7 @@
         <v>-2.5173692245381352E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40877</v>
       </c>
@@ -31054,7 +31498,7 @@
         <v>1.7993544057016919E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40907</v>
       </c>
@@ -31151,7 +31595,7 @@
         <v>2.4299886977269924E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>40939</v>
       </c>
@@ -31248,7 +31692,7 @@
         <v>4.3523570158769953E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>40968</v>
       </c>
@@ -31345,7 +31789,7 @@
         <v>-1.6113281250000111E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>40998</v>
       </c>
@@ -31442,7 +31886,7 @@
         <v>-2.7512406947890811E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41029</v>
       </c>
@@ -31539,7 +31983,7 @@
         <v>3.7285108283099166E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41060</v>
       </c>
@@ -31636,7 +32080,7 @@
         <v>5.1995572228030085E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41089</v>
       </c>
@@ -31733,7 +32177,7 @@
         <v>-1.163300499810016E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41121</v>
       </c>
@@ -31830,7 +32274,7 @@
         <v>2.0789590418453407E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41152</v>
       </c>
@@ -31927,7 +32371,7 @@
         <v>-2.8680688336519822E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41180</v>
       </c>
@@ -32024,7 +32468,7 @@
         <v>-1.3335657630959563E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41213</v>
       </c>
@@ -32121,7 +32565,7 @@
         <v>-3.2391048292113034E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41243</v>
       </c>
@@ -32218,7 +32662,7 @@
         <v>1.3903207752805624E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41274</v>
       </c>
@@ -32315,7 +32759,7 @@
         <v>-1.7024490863135733E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41305</v>
       </c>
@@ -32412,7 +32856,7 @@
         <v>-2.7249889168021402E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41333</v>
       </c>
@@ -32509,7 +32953,7 @@
         <v>1.2669765746057937E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41362</v>
       </c>
@@ -32606,7 +33050,7 @@
         <v>4.8604860486047841E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41394</v>
       </c>
@@ -32703,7 +33147,7 @@
         <v>2.7110951869103062E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41425</v>
       </c>
@@ -32800,7 +33244,7 @@
         <v>-4.9709302325581461E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41453</v>
       </c>
@@ -32897,7 +33341,7 @@
         <v>-2.9856225145304394E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41486</v>
       </c>
@@ -32994,7 +33438,7 @@
         <v>-1.3085703474805976E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41516</v>
       </c>
@@ -33091,7 +33535,7 @@
         <v>-5.4953832390811641E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41547</v>
       </c>
@@ -33188,7 +33632,7 @@
         <v>1.1147878047996995E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41578</v>
       </c>
@@ -33285,7 +33729,7 @@
         <v>1.0834339454788067E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41607</v>
       </c>
@@ -33382,7 +33826,7 @@
         <v>-1.9236209335219301E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41639</v>
       </c>
@@ -33479,7 +33923,7 @@
         <v>-1.8587956286254426E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41670</v>
       </c>
@@ -33576,7 +34020,7 @@
         <v>4.1210854586422041E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41698</v>
       </c>
@@ -33673,7 +34117,7 @@
         <v>7.3388740787203588E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41729</v>
       </c>
@@ -33770,7 +34214,7 @@
         <v>1.2142345652106368E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41759</v>
       </c>
@@ -33867,7 +34311,7 @@
         <v>1.2936127868648617E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41789</v>
       </c>
@@ -33964,7 +34408,7 @@
         <v>2.431386995763507E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41820</v>
       </c>
@@ -34061,7 +34505,7 @@
         <v>-2.0080321285140812E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41851</v>
       </c>
@@ -34158,7 +34602,7 @@
         <v>1.6216703204299243E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41880</v>
       </c>
@@ -34255,7 +34699,7 @@
         <v>3.0072257368152888E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41912</v>
       </c>
@@ -34352,7 +34796,7 @@
         <v>-1.560135056467582E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41943</v>
       </c>
@@ -34449,7 +34893,7 @@
         <v>2.3122412773506795E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>41971</v>
       </c>
@@ -34546,7 +34990,7 @@
         <v>2.1154846540662353E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42004</v>
       </c>
@@ -34643,7 +35087,7 @@
         <v>1.3612950699043447E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42034</v>
       </c>
@@ -34740,7 +35184,7 @@
         <v>4.6488901298338714E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42062</v>
       </c>
@@ -34837,7 +35281,7 @@
         <v>-3.3404482390608448E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42094</v>
       </c>
@@ -34934,7 +35378,7 @@
         <v>1.2559346361930013E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42124</v>
       </c>
@@ -35031,7 +35475,7 @@
         <v>-2.6088378813074131E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42153</v>
       </c>
@@ -35128,7 +35572,7 @@
         <v>-1.5227005542182148E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42185</v>
       </c>
@@ -35225,7 +35669,7 @@
         <v>-3.0725939400830016E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42216</v>
       </c>
@@ -35322,7 +35766,7 @@
         <v>3.3811325181079877E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42247</v>
       </c>
@@ -35419,7 +35863,7 @@
         <v>1.2197197481136346E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42277</v>
       </c>
@@ -35516,7 +35960,7 @@
         <v>1.7621894211972577E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42307</v>
       </c>
@@ -35613,7 +36057,7 @@
         <v>-5.7351262562989058E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42338</v>
       </c>
@@ -35710,7 +36154,7 @@
         <v>-6.4962338644191098E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42369</v>
       </c>
@@ -35807,7 +36251,7 @@
         <v>-1.4092049265804762E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42398</v>
       </c>
@@ -35904,7 +36348,7 @@
         <v>4.7585447771725464E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42429</v>
       </c>
@@ -36001,7 +36445,7 @@
         <v>3.0282619823800427E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42460</v>
       </c>
@@ -36098,7 +36542,7 @@
         <v>-2.8764938155390052E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42489</v>
       </c>
@@ -36195,7 +36639,7 @@
         <v>-6.6701543290609289E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42521</v>
       </c>
@@ -36292,7 +36736,7 @@
         <v>8.6899275839369405E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42551</v>
       </c>
@@ -36389,7 +36833,7 @@
         <v>5.5554105208197369E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42580</v>
       </c>
@@ -36486,7 +36930,7 @@
         <v>1.2366136571612341E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42613</v>
       </c>
@@ -36583,7 +37027,7 @@
         <v>-1.4780250653506966E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42643</v>
       </c>
@@ -36680,7 +37124,7 @@
         <v>-1.2745487006546319E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42674</v>
       </c>
@@ -36777,7 +37221,7 @@
         <v>-3.2074144773195368E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42704</v>
       </c>
@@ -36874,7 +37318,7 @@
         <v>-6.1732880089264919E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42734</v>
       </c>
@@ -36971,7 +37415,7 @@
         <v>-3.7059571878974573E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42766</v>
       </c>
@@ -37068,7 +37512,7 @@
         <v>1.721074838996195E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42794</v>
       </c>
@@ -37165,7 +37609,7 @@
         <v>1.4049769993903505E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42825</v>
       </c>
@@ -37262,7 +37706,7 @@
         <v>-4.7276801574072103E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42853</v>
       </c>
@@ -37359,7 +37803,7 @@
         <v>1.471718835804503E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42886</v>
       </c>
@@ -37456,7 +37900,7 @@
         <v>1.458491178698984E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42916</v>
       </c>
@@ -37553,7 +37997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42947</v>
       </c>
@@ -37650,7 +38094,7 @@
         <v>-3.7338311774902655E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42978</v>
       </c>
@@ -37747,7 +38191,7 @@
         <v>2.9340115111765375E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43007</v>
       </c>
@@ -37844,7 +38288,7 @@
         <v>-2.0207536865101017E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43039</v>
       </c>
@@ -37941,7 +38385,7 @@
         <v>-1.3006317354143926E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43069</v>
       </c>
@@ -38038,7 +38482,7 @@
         <v>3.2159468438537342E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43098</v>
       </c>
@@ -38135,7 +38579,7 @@
         <v>9.5109415567213862E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43131</v>
       </c>
@@ -38232,7 +38676,7 @@
         <v>-3.2620391024799966E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43159</v>
       </c>
@@ -38329,7 +38773,7 @@
         <v>-2.1648309912647212E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43189</v>
       </c>
@@ -38426,7 +38870,7 @@
         <v>2.3624667258207666E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43220</v>
       </c>
@@ -38523,7 +38967,7 @@
         <v>-1.7417921768338895E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43251</v>
       </c>
@@ -38620,7 +39064,7 @@
         <v>1.648609158327119E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43280</v>
       </c>
@@ -38717,7 +39161,7 @@
         <v>6.7803965175894376E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43312</v>
       </c>
@@ -38814,7 +39258,7 @@
         <v>-1.2277753686036341E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43343</v>
       </c>
@@ -38911,7 +39355,7 @@
         <v>1.5778064374502687E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43371</v>
       </c>
@@ -39008,7 +39452,7 @@
         <v>-2.4177427197579537E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43404</v>
       </c>
@@ -39105,7 +39549,7 @@
         <v>-1.4865874927331602E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43434</v>
       </c>
@@ -39202,7 +39646,7 @@
         <v>1.9417748552801539E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43465</v>
       </c>
@@ -39299,7 +39743,7 @@
         <v>4.5703889516773843E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43496</v>
       </c>
@@ -39396,7 +39840,7 @@
         <v>6.8011071569789028E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43524</v>
       </c>
@@ -39493,7 +39937,7 @@
         <v>-9.0330688869687537E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43553</v>
       </c>
@@ -39590,7 +40034,7 @@
         <v>3.7914817163390291E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43585</v>
       </c>
@@ -39687,7 +40131,7 @@
         <v>-1.2524501692844137E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43616</v>
       </c>
@@ -39784,7 +40228,7 @@
         <v>4.8825758552241583E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43644</v>
       </c>
@@ -39881,7 +40325,7 @@
         <v>1.3960919257711479E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43677</v>
       </c>
@@ -39978,7 +40422,7 @@
         <v>1.9392529028192662E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43707</v>
       </c>
@@ -40075,7 +40519,7 @@
         <v>6.8831200251614932E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43738</v>
       </c>
@@ -40172,7 +40616,7 @@
         <v>-1.6139254832722161E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43769</v>
       </c>
@@ -40269,7 +40713,7 @@
         <v>-4.325319222362789E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43798</v>
       </c>
@@ -40366,7 +40810,7 @@
         <v>-8.8499664949048817E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43830</v>
       </c>
@@ -40463,7 +40907,7 @@
         <v>-1.7904602042243645E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43861</v>
       </c>
@@ -40560,7 +41004,7 @@
         <v>5.0277738213929668E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43889</v>
       </c>
@@ -40657,7 +41101,7 @@
         <v>4.8594159660066971E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43921</v>
       </c>
@@ -40754,7 +41198,7 @@
         <v>5.2269690046126582E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43951</v>
       </c>
@@ -40851,7 +41295,7 @@
         <v>1.1122718613654436E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43980</v>
       </c>
@@ -40948,7 +41392,7 @@
         <v>-5.8952230460678212E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44012</v>
       </c>
@@ -41045,7 +41489,7 @@
         <v>1.2023394673026377E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44043</v>
       </c>
@@ -41142,7 +41586,7 @@
         <v>2.0944433136576457E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44074</v>
       </c>
@@ -41239,7 +41683,7 @@
         <v>-2.6874538966087713E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44104</v>
       </c>
@@ -41336,7 +41780,7 @@
         <v>3.2779496424986121E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44134</v>
       </c>
@@ -41433,7 +41877,7 @@
         <v>-2.1543362398153909E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44165</v>
       </c>
@@ -41530,7 +41974,7 @@
         <v>7.3044494532097382E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44196</v>
       </c>
@@ -41627,7 +42071,7 @@
         <v>-9.758422077653095E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44225</v>
       </c>
@@ -41724,7 +42168,7 @@
         <v>-2.5734909509362969E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44253</v>
       </c>
@@ -41821,7 +42265,7 @@
         <v>-4.7095457961988552E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44286</v>
       </c>
@@ -41918,7 +42362,7 @@
         <v>-2.9004777787794089E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44316</v>
       </c>
@@ -42015,7 +42459,7 @@
         <v>1.7198560984101219E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44347</v>
       </c>
@@ -42112,7 +42556,7 @@
         <v>5.3392963081275724E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44377</v>
       </c>
@@ -42209,7 +42653,7 @@
         <v>2.6985928279618765E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44407</v>
       </c>
@@ -42306,7 +42750,7 @@
         <v>2.4729828283498012E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44439</v>
       </c>
@@ -42403,7 +42847,7 @@
         <v>-1.0567632850241315E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44469</v>
       </c>
@@ -42500,7 +42944,7 @@
         <v>-2.2992724367969952E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44498</v>
       </c>
@@ -42597,7 +43041,7 @@
         <v>1.0253237282892069E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44530</v>
       </c>
@@ -42694,7 +43138,7 @@
         <v>1.7957915919331491E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>44561</v>
       </c>
@@ -42791,7 +43235,7 @@
         <v>-1.0356904961430158E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>44592</v>
       </c>
@@ -42888,7 +43332,7 @@
         <v>-2.9897735414811999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>44620</v>
       </c>
@@ -42985,7 +43429,7 @@
         <v>-3.7153088630260678E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44651</v>
       </c>
@@ -43080,6 +43524,297 @@
       <c r="X173" s="6">
         <f>data!X173/data!X172-1</f>
         <v>-4.1919396145032928E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B174" s="6">
+        <f>data!B174/data!B173-1</f>
+        <v>-0.11970088228964926</v>
+      </c>
+      <c r="C174" s="6">
+        <f>data!C174/data!C173-1</f>
+        <v>-9.765014181108389E-2</v>
+      </c>
+      <c r="D174" s="6">
+        <f>data!D174/data!D173-1</f>
+        <v>-9.4212840288631639E-2</v>
+      </c>
+      <c r="E174" s="6">
+        <f>data!E174/data!E173-1</f>
+        <v>-8.7956719149039353E-2</v>
+      </c>
+      <c r="F174" s="6">
+        <f>data!F174/data!F173-1</f>
+        <v>-8.1356456237000385E-2</v>
+      </c>
+      <c r="G174" s="6">
+        <f>data!G174/data!G173-1</f>
+        <v>-9.9521526477869715E-2</v>
+      </c>
+      <c r="H174" s="6">
+        <f>data!H174/data!H173-1</f>
+        <v>-6.7807098362233753E-2</v>
+      </c>
+      <c r="I174" s="6">
+        <f>data!I174/data!I173-1</f>
+        <v>-5.7453647343206682E-2</v>
+      </c>
+      <c r="J174" s="6">
+        <f>data!J174/data!J173-1</f>
+        <v>1.7147161295549829E-3</v>
+      </c>
+      <c r="K174" s="6">
+        <f>data!K174/data!K173-1</f>
+        <v>-3.6377385524666073E-2</v>
+      </c>
+      <c r="L174" s="6">
+        <f>data!L174/data!L173-1</f>
+        <v>1.9036099588430666E-2</v>
+      </c>
+      <c r="M174" s="6">
+        <f>data!M174/data!M173-1</f>
+        <v>2.7734844308190398E-2</v>
+      </c>
+      <c r="N174" s="6">
+        <f>data!N174/data!N173-1</f>
+        <v>7.0584995519819893E-2</v>
+      </c>
+      <c r="O174" s="6">
+        <f>data!O174/data!O173-1</f>
+        <v>5.8759839639481726E-3</v>
+      </c>
+      <c r="P174" s="6">
+        <f>data!P174/data!P173-1</f>
+        <v>-3.852718341520267E-2</v>
+      </c>
+      <c r="Q174" s="6">
+        <f>data!Q174/data!Q173-1</f>
+        <v>8.6859197351873974E-4</v>
+      </c>
+      <c r="R174" s="6">
+        <f>data!R174/data!R173-1</f>
+        <v>0.58727913825170508</v>
+      </c>
+      <c r="S174" s="6">
+        <f>data!S174/data!S173-1</f>
+        <v>0.47213655549959666</v>
+      </c>
+      <c r="T174" s="6">
+        <f>data!T174/data!T173-1</f>
+        <v>1.7592766999434906E-2</v>
+      </c>
+      <c r="U174" s="6">
+        <f>data!U174/data!U173-1</f>
+        <v>-8.073192215432845E-2</v>
+      </c>
+      <c r="V174" s="6">
+        <f>data!V174/data!V173-1</f>
+        <v>-9.0471838812945737E-2</v>
+      </c>
+      <c r="W174" s="6">
+        <f>data!W174/data!W173-1</f>
+        <v>-9.4213126323218099E-2</v>
+      </c>
+      <c r="X174" s="6">
+        <f>data!X174/data!X173-1</f>
+        <v>-6.1902082160945504E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B175" s="6">
+        <f>data!B175/data!B174-1</f>
+        <v>-3.4712461040151577E-2</v>
+      </c>
+      <c r="C175" s="6">
+        <f>data!C175/data!C174-1</f>
+        <v>1.002700958481717E-2</v>
+      </c>
+      <c r="D175" s="6">
+        <f>data!D175/data!D174-1</f>
+        <v>-2.8641433878396461E-2</v>
+      </c>
+      <c r="E175" s="6">
+        <f>data!E175/data!E174-1</f>
+        <v>5.3243883608722342E-5</v>
+      </c>
+      <c r="F175" s="6">
+        <f>data!F175/data!F174-1</f>
+        <v>-1.3156485688496922E-3</v>
+      </c>
+      <c r="G175" s="6">
+        <f>data!G175/data!G174-1</f>
+        <v>-3.2187062624866591E-5</v>
+      </c>
+      <c r="H175" s="6">
+        <f>data!H175/data!H174-1</f>
+        <v>2.0504499188669367E-3</v>
+      </c>
+      <c r="I175" s="6">
+        <f>data!I175/data!I174-1</f>
+        <v>1.3752218474432087E-3</v>
+      </c>
+      <c r="J175" s="6">
+        <f>data!J175/data!J174-1</f>
+        <v>-2.5107917491001608E-2</v>
+      </c>
+      <c r="K175" s="6">
+        <f>data!K175/data!K174-1</f>
+        <v>2.4988125477560796E-3</v>
+      </c>
+      <c r="L175" s="6">
+        <f>data!L175/data!L174-1</f>
+        <v>-9.0255871012968614E-3</v>
+      </c>
+      <c r="M175" s="6">
+        <f>data!M175/data!M174-1</f>
+        <v>-1.8941766929810866E-3</v>
+      </c>
+      <c r="N175" s="6">
+        <f>data!N175/data!N174-1</f>
+        <v>-2.0120971301045287E-3</v>
+      </c>
+      <c r="O175" s="6">
+        <f>data!O175/data!O174-1</f>
+        <v>0</v>
+      </c>
+      <c r="P175" s="6">
+        <f>data!P175/data!P174-1</f>
+        <v>-4.8015933150044376E-2</v>
+      </c>
+      <c r="Q175" s="6">
+        <f>data!Q175/data!Q174-1</f>
+        <v>1.2958976604759975E-3</v>
+      </c>
+      <c r="R175" s="6">
+        <f>data!R175/data!R174-1</f>
+        <v>0.29117894762538299</v>
+      </c>
+      <c r="S175" s="6">
+        <f>data!S175/data!S174-1</f>
+        <v>0.25916068302652251</v>
+      </c>
+      <c r="T175" s="6">
+        <f>data!T175/data!T174-1</f>
+        <v>0</v>
+      </c>
+      <c r="U175" s="6">
+        <f>data!U175/data!U174-1</f>
+        <v>-1.880220323253301E-3</v>
+      </c>
+      <c r="V175" s="6">
+        <f>data!V175/data!V174-1</f>
+        <v>-3.0543593240053291E-3</v>
+      </c>
+      <c r="W175" s="6">
+        <f>data!W175/data!W174-1</f>
+        <v>-2.7074405921308942E-2</v>
+      </c>
+      <c r="X175" s="6">
+        <f>data!X175/data!X174-1</f>
+        <v>-1.1997600479902726E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B176" s="6">
+        <f>data!B176/data!B175-1</f>
+        <v>-1.5321304210193065E-2</v>
+      </c>
+      <c r="C176" s="6">
+        <f>data!C176/data!C175-1</f>
+        <v>-4.3190988368653316E-2</v>
+      </c>
+      <c r="D176" s="6">
+        <f>data!D176/data!D175-1</f>
+        <v>-9.0287771250596727E-3</v>
+      </c>
+      <c r="E176" s="6">
+        <f>data!E176/data!E175-1</f>
+        <v>-8.3919993223866451E-2</v>
+      </c>
+      <c r="F176" s="6">
+        <f>data!F176/data!F175-1</f>
+        <v>-8.5844273218853795E-2</v>
+      </c>
+      <c r="G176" s="6">
+        <f>data!G176/data!G175-1</f>
+        <v>-8.3717489349762753E-2</v>
+      </c>
+      <c r="H176" s="6">
+        <f>data!H176/data!H175-1</f>
+        <v>-9.4014829208928896E-2</v>
+      </c>
+      <c r="I176" s="6">
+        <f>data!I176/data!I175-1</f>
+        <v>-7.1450444013473557E-2</v>
+      </c>
+      <c r="J176" s="6">
+        <f>data!J176/data!J175-1</f>
+        <v>-2.0569518794906982E-2</v>
+      </c>
+      <c r="K176" s="6">
+        <f>data!K176/data!K175-1</f>
+        <v>-6.806196440342771E-2</v>
+      </c>
+      <c r="L176" s="6">
+        <f>data!L176/data!L175-1</f>
+        <v>1.3730013906864125E-2</v>
+      </c>
+      <c r="M176" s="6">
+        <f>data!M176/data!M175-1</f>
+        <v>-4.2341138324794025E-3</v>
+      </c>
+      <c r="N176" s="6">
+        <f>data!N176/data!N175-1</f>
+        <v>2.5682476574804713E-2</v>
+      </c>
+      <c r="O176" s="6">
+        <f>data!O176/data!O175-1</f>
+        <v>0</v>
+      </c>
+      <c r="P176" s="6">
+        <f>data!P176/data!P175-1</f>
+        <v>-7.6770892552586623E-2</v>
+      </c>
+      <c r="Q176" s="6">
+        <f>data!Q176/data!Q175-1</f>
+        <v>8.2421085506645397E-4</v>
+      </c>
+      <c r="R176" s="6">
+        <f>data!R176/data!R175-1</f>
+        <v>0.59102897386207887</v>
+      </c>
+      <c r="S176" s="6">
+        <f>data!S176/data!S175-1</f>
+        <v>0.56499933648204226</v>
+      </c>
+      <c r="T176" s="6">
+        <f>data!T176/data!T175-1</f>
+        <v>0</v>
+      </c>
+      <c r="U176" s="6">
+        <f>data!U176/data!U175-1</f>
+        <v>-8.7842488498182658E-2</v>
+      </c>
+      <c r="V176" s="6">
+        <f>data!V176/data!V175-1</f>
+        <v>-8.5020556782690604E-2</v>
+      </c>
+      <c r="W176" s="6">
+        <f>data!W176/data!W175-1</f>
+        <v>-1.1211211211211158E-2</v>
+      </c>
+      <c r="X176" s="6">
+        <f>data!X176/data!X175-1</f>
+        <v>-4.6046046046046563E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFCDEA-000D-4D72-87FA-72D07FFE0CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -19,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
-    <definedName name="SpreadsheetBuilder_2" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_3" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -199,6 +198,345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17756811446414357569</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14478703787085727709</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13815888761426858427</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15004030932752525945</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17819063220388356049</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11271612319935224006</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14828346563495437489</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14678220304163479466</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16519727929220132260</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17513182276264513311</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C9</stp>
+        <stp>PX_LAST</stp>
+        <tr r="I5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C8</stp>
+        <stp>PX_LAST</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C7</stp>
+        <stp>PX_LAST</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C6</stp>
+        <stp>PX_LAST</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C5</stp>
+        <stp>PX_LAST</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C4</stp>
+        <stp>PX_LAST</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C3</stp>
+        <stp>PX_LAST</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C2</stp>
+        <stp>PX_LAST</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1412932256220826188</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5284263092846678588</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C20</stp>
+        <stp>PX_LAST</stp>
+        <tr r="T5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C21</stp>
+        <stp>PX_LAST</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C22</stp>
+        <stp>PX_LAST</stp>
+        <tr r="V5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C23</stp>
+        <stp>PX_LAST</stp>
+        <tr r="W5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C24</stp>
+        <stp>PX_LAST</stp>
+        <tr r="X5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C10</stp>
+        <stp>PX_LAST</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C11</stp>
+        <stp>PX_LAST</stp>
+        <tr r="K5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C12</stp>
+        <stp>PX_LAST</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C13</stp>
+        <stp>PX_LAST</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C14</stp>
+        <stp>PX_LAST</stp>
+        <tr r="N5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C15</stp>
+        <stp>PX_LAST</stp>
+        <tr r="O5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C16</stp>
+        <stp>PX_LAST</stp>
+        <tr r="P5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C17</stp>
+        <stp>PX_LAST</stp>
+        <tr r="Q5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C18</stp>
+        <stp>PX_LAST</stp>
+        <tr r="R5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C19</stp>
+        <stp>PX_LAST</stp>
+        <tr r="S5" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9267762036197239593</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4894437190455507656</stp>
+        <tr r="W7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5969627947817866579</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9612275717389600596</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5610231099479285766</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2408755238463440597</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8082410388994285277</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3301401577121921262</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9070852227126959680</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|354516066486120050</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|455234425919013484</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,11 +835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView topLeftCell="B153" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182:X182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,97 +948,97 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B5" t="e">
-        <f ca="1">_xll.BFieldInfo(B$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" t="e">
-        <f ca="1">_xll.BFieldInfo(C$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" t="e">
-        <f ca="1">_xll.BFieldInfo(D$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" t="e">
-        <f ca="1">_xll.BFieldInfo(E$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" t="e">
-        <f ca="1">_xll.BFieldInfo(F$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" t="e">
-        <f ca="1">_xll.BFieldInfo(G$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" t="e">
-        <f ca="1">_xll.BFieldInfo(H$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" t="e">
-        <f ca="1">_xll.BFieldInfo(I$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" t="e">
-        <f ca="1">_xll.BFieldInfo(J$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" t="e">
-        <f ca="1">_xll.BFieldInfo(K$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L5" t="e">
-        <f ca="1">_xll.BFieldInfo(L$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M5" t="e">
-        <f ca="1">_xll.BFieldInfo(M$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" t="e">
-        <f ca="1">_xll.BFieldInfo(N$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" t="e">
-        <f ca="1">_xll.BFieldInfo(O$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P5" t="e">
-        <f ca="1">_xll.BFieldInfo(P$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q5" t="e">
-        <f ca="1">_xll.BFieldInfo(Q$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R5" t="e">
-        <f ca="1">_xll.BFieldInfo(R$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S5" t="e">
-        <f ca="1">_xll.BFieldInfo(S$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T5" t="e">
-        <f ca="1">_xll.BFieldInfo(T$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U5" t="e">
-        <f ca="1">_xll.BFieldInfo(U$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V5" t="e">
-        <f ca="1">_xll.BFieldInfo(V$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W5" t="e">
-        <f ca="1">_xll.BFieldInfo(W$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X5" t="e">
-        <f ca="1">_xll.BFieldInfo(X$6)</f>
-        <v>#NAME?</v>
+      <c r="B5" t="str">
+        <f>_xll.BFieldInfo(B$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xll.BFieldInfo(C$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xll.BFieldInfo(D$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xll.BFieldInfo(E$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xll.BFieldInfo(F$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.BFieldInfo(G$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xll.BFieldInfo(H$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xll.BFieldInfo(I$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xll.BFieldInfo(J$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="K5" t="str">
+        <f>_xll.BFieldInfo(K$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="L5" t="str">
+        <f>_xll.BFieldInfo(L$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="M5" t="str">
+        <f>_xll.BFieldInfo(M$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="N5" t="str">
+        <f>_xll.BFieldInfo(N$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="O5" t="str">
+        <f>_xll.BFieldInfo(O$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xll.BFieldInfo(P$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>_xll.BFieldInfo(Q$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="R5" t="str">
+        <f>_xll.BFieldInfo(R$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="S5" t="str">
+        <f>_xll.BFieldInfo(S$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="T5" t="str">
+        <f>_xll.BFieldInfo(T$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="U5" t="str">
+        <f>_xll.BFieldInfo(U$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="V5" t="str">
+        <f>_xll.BFieldInfo(V$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="W5" t="str">
+        <f>_xll.BFieldInfo(W$6)</f>
+        <v>#N/A Requesting Data...</v>
+      </c>
+      <c r="X5" t="str">
+        <f>_xll.BFieldInfo(X$6)</f>
+        <v>#N/A Requesting Data...</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -778,100 +1116,100 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="e">
-        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=178")</f>
-        <v>#NAME?</v>
+      <c r="A7" s="1">
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=178")</f>
+        <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="e">
-        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" t="e">
-        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" t="e">
-        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" t="e">
-        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" t="e">
-        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" t="e">
-        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" t="e">
-        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" t="e">
-        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L7" t="e">
-        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M7" t="e">
-        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" t="e">
-        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" t="e">
-        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P7" t="e">
-        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q7" t="e">
-        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R7" t="e">
-        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S7" t="e">
-        <f ca="1">_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T7" t="e">
-        <f ca="1">_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U7" t="e">
-        <f ca="1">_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V7" t="e">
-        <f ca="1">_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W7" t="e">
-        <f ca="1">_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X7" t="e">
-        <f ca="1">_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
-        <v>#NAME?</v>
+      <c r="C7">
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>1902.17</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="E7">
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>1468.36</v>
+      </c>
+      <c r="F7">
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>403.25</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>766.03700000000003</v>
+      </c>
+      <c r="H7">
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>2253.36</v>
+      </c>
+      <c r="I7">
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>1245.5899999999999</v>
+      </c>
+      <c r="J7">
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>270.02620000000002</v>
+      </c>
+      <c r="K7">
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>590.78</v>
+      </c>
+      <c r="L7">
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>1294.82</v>
+      </c>
+      <c r="M7">
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>12335.221</v>
+      </c>
+      <c r="N7">
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>1915.1320000000001</v>
+      </c>
+      <c r="O7">
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>1389.21</v>
+      </c>
+      <c r="P7">
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>255.67</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>141.76349999999999</v>
+      </c>
+      <c r="R7">
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>3.1589900000000002</v>
+      </c>
+      <c r="S7">
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>3.33792826</v>
+      </c>
+      <c r="T7">
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>1412.28</v>
+      </c>
+      <c r="U7">
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>996.96</v>
+      </c>
+      <c r="V7">
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>849.221</v>
+      </c>
+      <c r="W7" t="str">
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="X7">
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <v>221.59</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -13714,7 +14052,7 @@
         <v>1261.07</v>
       </c>
       <c r="M181">
-        <v>18910.812000000002</v>
+        <v>18830.867999999999</v>
       </c>
       <c r="N181">
         <v>3919.7820000000002</v>
@@ -13748,6 +14086,228 @@
       </c>
       <c r="X181">
         <v>397.76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B182">
+        <v>159.32</v>
+      </c>
+      <c r="C182">
+        <v>4237.74</v>
+      </c>
+      <c r="D182">
+        <v>199.46789999999999</v>
+      </c>
+      <c r="E182">
+        <v>4130.29</v>
+      </c>
+      <c r="F182">
+        <v>637.72</v>
+      </c>
+      <c r="G182">
+        <v>1885.23</v>
+      </c>
+      <c r="H182">
+        <v>1937.26</v>
+      </c>
+      <c r="I182">
+        <v>993.78</v>
+      </c>
+      <c r="J182">
+        <v>487.01679999999999</v>
+      </c>
+      <c r="K182">
+        <v>1438.94</v>
+      </c>
+      <c r="L182">
+        <v>1242.3499999999999</v>
+      </c>
+      <c r="M182">
+        <v>18830.867999999999</v>
+      </c>
+      <c r="N182">
+        <v>3747.0189999999998</v>
+      </c>
+      <c r="O182">
+        <v>1718.69</v>
+      </c>
+      <c r="P182">
+        <v>440.08</v>
+      </c>
+      <c r="Q182">
+        <v>162.4709</v>
+      </c>
+      <c r="R182">
+        <v>2.3563399999999999</v>
+      </c>
+      <c r="S182">
+        <v>2.5361553099999998</v>
+      </c>
+      <c r="T182">
+        <v>4862.16</v>
+      </c>
+      <c r="U182">
+        <v>1616.84</v>
+      </c>
+      <c r="V182">
+        <v>2386.009</v>
+      </c>
+      <c r="W182">
+        <v>158.3125</v>
+      </c>
+      <c r="X182">
+        <v>413.89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B183">
+        <v>164.16</v>
+      </c>
+      <c r="C183">
+        <v>4277.07</v>
+      </c>
+      <c r="D183">
+        <v>199.42850000000001</v>
+      </c>
+      <c r="E183">
+        <v>4149.24</v>
+      </c>
+      <c r="F183">
+        <v>639</v>
+      </c>
+      <c r="G183">
+        <v>1911.184</v>
+      </c>
+      <c r="H183">
+        <v>1923.94</v>
+      </c>
+      <c r="I183">
+        <v>985.81</v>
+      </c>
+      <c r="J183">
+        <v>488.46100000000001</v>
+      </c>
+      <c r="K183">
+        <v>1445.57</v>
+      </c>
+      <c r="L183">
+        <v>1239.02</v>
+      </c>
+      <c r="M183">
+        <v>18830.867999999999</v>
+      </c>
+      <c r="N183">
+        <v>3740.8789999999999</v>
+      </c>
+      <c r="O183">
+        <v>1718.69</v>
+      </c>
+      <c r="P183">
+        <v>431.63</v>
+      </c>
+      <c r="Q183">
+        <v>162.4709</v>
+      </c>
+      <c r="R183">
+        <v>2.3879100000000002</v>
+      </c>
+      <c r="S183">
+        <v>2.5057717500000001</v>
+      </c>
+      <c r="T183">
+        <v>4862.16</v>
+      </c>
+      <c r="U183">
+        <v>1619.75</v>
+      </c>
+      <c r="V183">
+        <v>2404.6550000000002</v>
+      </c>
+      <c r="W183">
+        <v>158.8125</v>
+      </c>
+      <c r="X183">
+        <v>410.71</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B184">
+        <v>164.16</v>
+      </c>
+      <c r="C184">
+        <v>4277.07</v>
+      </c>
+      <c r="D184">
+        <v>199.42850000000001</v>
+      </c>
+      <c r="E184">
+        <v>4149.24</v>
+      </c>
+      <c r="F184">
+        <v>639</v>
+      </c>
+      <c r="G184">
+        <v>1911.184</v>
+      </c>
+      <c r="H184">
+        <v>1923.94</v>
+      </c>
+      <c r="I184">
+        <v>985.81</v>
+      </c>
+      <c r="J184">
+        <v>488.46100000000001</v>
+      </c>
+      <c r="K184">
+        <v>1445.57</v>
+      </c>
+      <c r="L184">
+        <v>1239.02</v>
+      </c>
+      <c r="M184">
+        <v>18830.867999999999</v>
+      </c>
+      <c r="N184">
+        <v>3740.8789999999999</v>
+      </c>
+      <c r="O184">
+        <v>1718.69</v>
+      </c>
+      <c r="P184">
+        <v>431.63</v>
+      </c>
+      <c r="Q184">
+        <v>162.4709</v>
+      </c>
+      <c r="R184">
+        <v>2.3879100000000002</v>
+      </c>
+      <c r="S184">
+        <v>2.5057717500000001</v>
+      </c>
+      <c r="T184">
+        <v>4862.16</v>
+      </c>
+      <c r="U184">
+        <v>1619.75</v>
+      </c>
+      <c r="V184">
+        <v>2404.6550000000002</v>
+      </c>
+      <c r="W184">
+        <v>158.8125</v>
+      </c>
+      <c r="X184">
+        <v>410.71</v>
       </c>
     </row>
   </sheetData>
@@ -13756,11 +14316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X177"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A176" sqref="A174:A176"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26805,17 +27365,91 @@
         <v>397.76</v>
       </c>
     </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B177">
+        <v>159.32</v>
+      </c>
+      <c r="C177">
+        <v>4237.74</v>
+      </c>
+      <c r="D177">
+        <v>199.46789999999999</v>
+      </c>
+      <c r="E177">
+        <v>4130.29</v>
+      </c>
+      <c r="F177">
+        <v>637.72</v>
+      </c>
+      <c r="G177">
+        <v>1885.23</v>
+      </c>
+      <c r="H177">
+        <v>1937.26</v>
+      </c>
+      <c r="I177">
+        <v>993.78</v>
+      </c>
+      <c r="J177">
+        <v>487.01679999999999</v>
+      </c>
+      <c r="K177">
+        <v>1438.94</v>
+      </c>
+      <c r="L177">
+        <v>1242.3499999999999</v>
+      </c>
+      <c r="M177">
+        <v>18830.867999999999</v>
+      </c>
+      <c r="N177">
+        <v>3747.0189999999998</v>
+      </c>
+      <c r="O177">
+        <v>1718.69</v>
+      </c>
+      <c r="P177">
+        <v>440.08</v>
+      </c>
+      <c r="Q177">
+        <v>162.4709</v>
+      </c>
+      <c r="R177">
+        <v>2.3563399999999999</v>
+      </c>
+      <c r="S177">
+        <v>2.5361553099999998</v>
+      </c>
+      <c r="T177">
+        <v>4862.16</v>
+      </c>
+      <c r="U177">
+        <v>1616.84</v>
+      </c>
+      <c r="V177">
+        <v>2386.009</v>
+      </c>
+      <c r="W177">
+        <v>158.3125</v>
+      </c>
+      <c r="X177">
+        <v>413.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
-    <definedName name="SpreadsheetBuilder_3" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_5" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -267,7 +267,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C9</stp>
@@ -275,7 +275,7 @@
         <tr r="I5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C8</stp>
@@ -283,7 +283,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C7</stp>
@@ -291,7 +291,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C6</stp>
@@ -299,7 +299,7 @@
         <tr r="F5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C5</stp>
@@ -307,7 +307,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C4</stp>
@@ -315,7 +315,7 @@
         <tr r="D5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C3</stp>
@@ -323,7 +323,7 @@
         <tr r="C5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C2</stp>
@@ -346,40 +346,40 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C20</stp>
         <stp>PX_LAST</stp>
         <tr r="T5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C21</stp>
         <stp>PX_LAST</stp>
         <tr r="U5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C22</stp>
         <stp>PX_LAST</stp>
         <tr r="V5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C23</stp>
         <stp>PX_LAST</stp>
         <tr r="W5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C24</stp>
@@ -387,7 +387,7 @@
         <tr r="X5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C10</stp>
@@ -395,7 +395,7 @@
         <tr r="J5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C11</stp>
@@ -403,7 +403,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C12</stp>
@@ -411,7 +411,7 @@
         <tr r="L5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C13</stp>
@@ -419,7 +419,7 @@
         <tr r="M5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C14</stp>
@@ -427,7 +427,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C15</stp>
@@ -435,31 +435,31 @@
         <tr r="O5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C19</stp>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView topLeftCell="B153" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:X182"/>
+    <sheetView topLeftCell="B147" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:X183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,63 +950,63 @@
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>_xll.BFieldInfo(B$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="C5" t="str">
         <f>_xll.BFieldInfo(C$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="D5" t="str">
         <f>_xll.BFieldInfo(D$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="E5" t="str">
         <f>_xll.BFieldInfo(E$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="F5" t="str">
         <f>_xll.BFieldInfo(F$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="G5" t="str">
         <f>_xll.BFieldInfo(G$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="H5" t="str">
         <f>_xll.BFieldInfo(H$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="I5" t="str">
         <f>_xll.BFieldInfo(I$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="J5" t="str">
         <f>_xll.BFieldInfo(J$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="K5" t="str">
         <f>_xll.BFieldInfo(K$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="L5" t="str">
         <f>_xll.BFieldInfo(L$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="M5" t="str">
         <f>_xll.BFieldInfo(M$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="N5" t="str">
         <f>_xll.BFieldInfo(N$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="O5" t="str">
         <f>_xll.BFieldInfo(O$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="P5" t="str">
         <f>_xll.BFieldInfo(P$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Last Price</v>
       </c>
       <c r="Q5" t="str">
         <f>_xll.BFieldInfo(Q$6)</f>
@@ -14073,7 +14073,7 @@
         <v>1.7577757199999999</v>
       </c>
       <c r="T181">
-        <v>4862.16</v>
+        <v>4887.8999999999996</v>
       </c>
       <c r="U181">
         <v>1510.77</v>
@@ -14126,10 +14126,10 @@
         <v>1242.3499999999999</v>
       </c>
       <c r="M182">
-        <v>18830.867999999999</v>
+        <v>18679.645</v>
       </c>
       <c r="N182">
-        <v>3747.0189999999998</v>
+        <v>3747.0160000000001</v>
       </c>
       <c r="O182">
         <v>1718.69</v>
@@ -14147,7 +14147,7 @@
         <v>2.5361553099999998</v>
       </c>
       <c r="T182">
-        <v>4862.16</v>
+        <v>4887.8999999999996</v>
       </c>
       <c r="U182">
         <v>1616.84</v>
@@ -14167,73 +14167,73 @@
         <v>44804</v>
       </c>
       <c r="B183">
-        <v>164.16</v>
+        <v>151.47</v>
       </c>
       <c r="C183">
-        <v>4277.07</v>
+        <v>4046.99</v>
       </c>
       <c r="D183">
-        <v>199.42850000000001</v>
+        <v>188.60050000000001</v>
       </c>
       <c r="E183">
-        <v>4149.24</v>
+        <v>3955</v>
       </c>
       <c r="F183">
-        <v>639</v>
+        <v>613.11</v>
       </c>
       <c r="G183">
-        <v>1911.184</v>
+        <v>1844.115</v>
       </c>
       <c r="H183">
-        <v>1923.94</v>
+        <v>1840.5</v>
       </c>
       <c r="I183">
-        <v>985.81</v>
+        <v>994.11</v>
       </c>
       <c r="J183">
-        <v>488.46100000000001</v>
+        <v>494.48860000000002</v>
       </c>
       <c r="K183">
-        <v>1445.57</v>
+        <v>1404.48</v>
       </c>
       <c r="L183">
-        <v>1239.02</v>
+        <v>1257.82</v>
       </c>
       <c r="M183">
-        <v>18830.867999999999</v>
+        <v>18679.645</v>
       </c>
       <c r="N183">
-        <v>3740.8789999999999</v>
+        <v>3896.5830000000001</v>
       </c>
       <c r="O183">
         <v>1718.69</v>
       </c>
       <c r="P183">
-        <v>431.63</v>
+        <v>413.74</v>
       </c>
       <c r="Q183">
         <v>162.4709</v>
       </c>
       <c r="R183">
-        <v>2.3879100000000002</v>
+        <v>2.76871</v>
       </c>
       <c r="S183">
-        <v>2.5057717500000001</v>
+        <v>2.9011201600000001</v>
       </c>
       <c r="T183">
-        <v>4862.16</v>
+        <v>4887.8999999999996</v>
       </c>
       <c r="U183">
-        <v>1619.75</v>
+        <v>1556.63</v>
       </c>
       <c r="V183">
-        <v>2404.6550000000002</v>
+        <v>2293.2109999999998</v>
       </c>
       <c r="W183">
-        <v>158.8125</v>
+        <v>149.6875</v>
       </c>
       <c r="X183">
-        <v>410.71</v>
+        <v>392.91</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
@@ -14241,73 +14241,73 @@
         <v>44834</v>
       </c>
       <c r="B184">
-        <v>164.16</v>
+        <v>148.54</v>
       </c>
       <c r="C184">
-        <v>4277.07</v>
+        <v>4001.25</v>
       </c>
       <c r="D184">
-        <v>199.42850000000001</v>
+        <v>185.36779999999999</v>
       </c>
       <c r="E184">
-        <v>4149.24</v>
+        <v>3934.18</v>
       </c>
       <c r="F184">
-        <v>639</v>
+        <v>604.92999999999995</v>
       </c>
       <c r="G184">
-        <v>1911.184</v>
+        <v>1809.748</v>
       </c>
       <c r="H184">
-        <v>1923.94</v>
+        <v>1802.23</v>
       </c>
       <c r="I184">
-        <v>985.81</v>
+        <v>967.8</v>
       </c>
       <c r="J184">
-        <v>488.46100000000001</v>
+        <v>493.4624</v>
       </c>
       <c r="K184">
-        <v>1445.57</v>
+        <v>1402.73</v>
       </c>
       <c r="L184">
-        <v>1239.02</v>
+        <v>1261.57</v>
       </c>
       <c r="M184">
-        <v>18830.867999999999</v>
+        <v>18679.645</v>
       </c>
       <c r="N184">
-        <v>3740.8789999999999</v>
+        <v>3919.9630000000002</v>
       </c>
       <c r="O184">
         <v>1718.69</v>
       </c>
       <c r="P184">
-        <v>431.63</v>
+        <v>411.85</v>
       </c>
       <c r="Q184">
         <v>162.4709</v>
       </c>
       <c r="R184">
-        <v>2.3879100000000002</v>
+        <v>2.7999900000000002</v>
       </c>
       <c r="S184">
-        <v>2.5057717500000001</v>
+        <v>2.9011201600000001</v>
       </c>
       <c r="T184">
-        <v>4862.16</v>
+        <v>4887.8999999999996</v>
       </c>
       <c r="U184">
-        <v>1619.75</v>
+        <v>1534.36</v>
       </c>
       <c r="V184">
-        <v>2404.6550000000002</v>
+        <v>2271.6570000000002</v>
       </c>
       <c r="W184">
-        <v>158.8125</v>
+        <v>145.3125</v>
       </c>
       <c r="X184">
-        <v>410.71</v>
+        <v>389.35</v>
       </c>
     </row>
   </sheetData>
@@ -14317,10 +14317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X177"/>
+  <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A178" sqref="A177:A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27439,6 +27439,80 @@
         <v>413.89</v>
       </c>
     </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B178">
+        <v>151.47</v>
+      </c>
+      <c r="C178">
+        <v>4046.99</v>
+      </c>
+      <c r="D178">
+        <v>188.60050000000001</v>
+      </c>
+      <c r="E178">
+        <v>3955</v>
+      </c>
+      <c r="F178">
+        <v>613.11</v>
+      </c>
+      <c r="G178">
+        <v>1844.115</v>
+      </c>
+      <c r="H178">
+        <v>1840.5</v>
+      </c>
+      <c r="I178">
+        <v>994.11</v>
+      </c>
+      <c r="J178">
+        <v>494.48860000000002</v>
+      </c>
+      <c r="K178">
+        <v>1404.48</v>
+      </c>
+      <c r="L178">
+        <v>1257.82</v>
+      </c>
+      <c r="M178">
+        <v>18679.645</v>
+      </c>
+      <c r="N178">
+        <v>3896.5830000000001</v>
+      </c>
+      <c r="O178">
+        <v>1718.69</v>
+      </c>
+      <c r="P178">
+        <v>413.74</v>
+      </c>
+      <c r="Q178">
+        <v>162.4709</v>
+      </c>
+      <c r="R178">
+        <v>2.76871</v>
+      </c>
+      <c r="S178">
+        <v>2.9011201600000001</v>
+      </c>
+      <c r="T178">
+        <v>4887.8999999999996</v>
+      </c>
+      <c r="U178">
+        <v>1556.63</v>
+      </c>
+      <c r="V178">
+        <v>2293.2109999999998</v>
+      </c>
+      <c r="W178">
+        <v>149.6875</v>
+      </c>
+      <c r="X178">
+        <v>392.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27446,11 +27520,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X176"/>
+  <dimension ref="A1:X178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H178" sqref="H178"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44451,6 +44525,200 @@
         <v>-4.6046046046046563E-3</v>
       </c>
     </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B177" s="6">
+        <f>data!B177/data!B176-1</f>
+        <v>2.4368289076062366E-2</v>
+      </c>
+      <c r="C177" s="6">
+        <f>data!C177/data!C176-1</f>
+        <v>4.8130908155542551E-2</v>
+      </c>
+      <c r="D177" s="6">
+        <f>data!D177/data!D176-1</f>
+        <v>2.5713821442565621E-2</v>
+      </c>
+      <c r="E177" s="6">
+        <f>data!E177/data!E176-1</f>
+        <v>9.1116347632205885E-2</v>
+      </c>
+      <c r="F177" s="6">
+        <f>data!F177/data!F176-1</f>
+        <v>6.8619401109305089E-2</v>
+      </c>
+      <c r="G177" s="6">
+        <f>data!G177/data!G176-1</f>
+        <v>0.10377109936240836</v>
+      </c>
+      <c r="H177" s="6">
+        <f>data!H177/data!H176-1</f>
+        <v>4.9277466039820528E-2</v>
+      </c>
+      <c r="I177" s="6">
+        <f>data!I177/data!I176-1</f>
+        <v>-6.8853867908501565E-3</v>
+      </c>
+      <c r="J177" s="6">
+        <f>data!J177/data!J176-1</f>
+        <v>1.8662849287859995E-2</v>
+      </c>
+      <c r="K177" s="6">
+        <f>data!K177/data!K176-1</f>
+        <v>6.022693781314481E-2</v>
+      </c>
+      <c r="L177" s="6">
+        <f>data!L177/data!L176-1</f>
+        <v>-1.484453678225639E-2</v>
+      </c>
+      <c r="M177" s="6">
+        <f>data!M177/data!M176-1</f>
+        <v>-4.2274229155259135E-3</v>
+      </c>
+      <c r="N177" s="6">
+        <f>data!N177/data!N176-1</f>
+        <v>-4.4074644967500798E-2</v>
+      </c>
+      <c r="O177" s="6">
+        <f>data!O177/data!O176-1</f>
+        <v>0</v>
+      </c>
+      <c r="P177" s="6">
+        <f>data!P177/data!P176-1</f>
+        <v>8.3967585408507572E-2</v>
+      </c>
+      <c r="Q177" s="6">
+        <f>data!Q177/data!Q176-1</f>
+        <v>0</v>
+      </c>
+      <c r="R177" s="6">
+        <f>data!R177/data!R176-1</f>
+        <v>0.40002495439880681</v>
+      </c>
+      <c r="S177" s="6">
+        <f>data!S177/data!S176-1</f>
+        <v>0.44282076555250183</v>
+      </c>
+      <c r="T177" s="6">
+        <f>data!T177/data!T176-1</f>
+        <v>0</v>
+      </c>
+      <c r="U177" s="6">
+        <f>data!U177/data!U176-1</f>
+        <v>7.0209231054362942E-2</v>
+      </c>
+      <c r="V177" s="6">
+        <f>data!V177/data!V176-1</f>
+        <v>9.2779666497361246E-2</v>
+      </c>
+      <c r="W177" s="6">
+        <f>data!W177/data!W176-1</f>
+        <v>2.5713707228183891E-2</v>
+      </c>
+      <c r="X177" s="6">
+        <f>data!X177/data!X176-1</f>
+        <v>4.0552091713596194E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B178" s="6">
+        <f>data!B178/data!B177-1</f>
+        <v>-4.9271905598794796E-2</v>
+      </c>
+      <c r="C178" s="6">
+        <f>data!C178/data!C177-1</f>
+        <v>-4.5012199899002736E-2</v>
+      </c>
+      <c r="D178" s="6">
+        <f>data!D178/data!D177-1</f>
+        <v>-5.4481949225915427E-2</v>
+      </c>
+      <c r="E178" s="6">
+        <f>data!E178/data!E177-1</f>
+        <v>-4.2440119216810457E-2</v>
+      </c>
+      <c r="F178" s="6">
+        <f>data!F178/data!F177-1</f>
+        <v>-3.8590604026845665E-2</v>
+      </c>
+      <c r="G178" s="6">
+        <f>data!G178/data!G177-1</f>
+        <v>-2.180901004121516E-2</v>
+      </c>
+      <c r="H178" s="6">
+        <f>data!H178/data!H177-1</f>
+        <v>-4.9946832123721085E-2</v>
+      </c>
+      <c r="I178" s="6">
+        <f>data!I178/data!I177-1</f>
+        <v>3.3206544708086483E-4</v>
+      </c>
+      <c r="J178" s="6">
+        <f>data!J178/data!J177-1</f>
+        <v>1.5341975882556813E-2</v>
+      </c>
+      <c r="K178" s="6">
+        <f>data!K178/data!K177-1</f>
+        <v>-2.394818407994781E-2</v>
+      </c>
+      <c r="L178" s="6">
+        <f>data!L178/data!L177-1</f>
+        <v>1.24522075099609E-2</v>
+      </c>
+      <c r="M178" s="6">
+        <f>data!M178/data!M177-1</f>
+        <v>-8.0305910486971888E-3</v>
+      </c>
+      <c r="N178" s="6">
+        <f>data!N178/data!N177-1</f>
+        <v>3.9915463465757695E-2</v>
+      </c>
+      <c r="O178" s="6">
+        <f>data!O178/data!O177-1</f>
+        <v>0</v>
+      </c>
+      <c r="P178" s="6">
+        <f>data!P178/data!P177-1</f>
+        <v>-5.9852754044719125E-2</v>
+      </c>
+      <c r="Q178" s="6">
+        <f>data!Q178/data!Q177-1</f>
+        <v>0</v>
+      </c>
+      <c r="R178" s="6">
+        <f>data!R178/data!R177-1</f>
+        <v>0.17500445606321668</v>
+      </c>
+      <c r="S178" s="6">
+        <f>data!S178/data!S177-1</f>
+        <v>0.14390477135250856</v>
+      </c>
+      <c r="T178" s="6">
+        <f>data!T178/data!T177-1</f>
+        <v>5.2939434325485202E-3</v>
+      </c>
+      <c r="U178" s="6">
+        <f>data!U178/data!U177-1</f>
+        <v>-3.7239306301179997E-2</v>
+      </c>
+      <c r="V178" s="6">
+        <f>data!V178/data!V177-1</f>
+        <v>-3.8892560757314953E-2</v>
+      </c>
+      <c r="W178" s="6">
+        <f>data!W178/data!W177-1</f>
+        <v>-5.4480852743782116E-2</v>
+      </c>
+      <c r="X178" s="6">
+        <f>data!X178/data!X177-1</f>
+        <v>-5.0689796805914566E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
-    <definedName name="SpreadsheetBuilder_5" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_6" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView topLeftCell="B147" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183:X183"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14200,10 +14200,10 @@
         <v>1257.82</v>
       </c>
       <c r="M183">
-        <v>18679.645</v>
+        <v>18922.542000000001</v>
       </c>
       <c r="N183">
-        <v>3896.5830000000001</v>
+        <v>3896.473</v>
       </c>
       <c r="O183">
         <v>1718.69</v>
@@ -14241,73 +14241,73 @@
         <v>44834</v>
       </c>
       <c r="B184">
-        <v>148.54</v>
+        <v>135.82</v>
       </c>
       <c r="C184">
-        <v>4001.25</v>
+        <v>3693.33</v>
       </c>
       <c r="D184">
-        <v>185.36779999999999</v>
+        <v>172.8312</v>
       </c>
       <c r="E184">
-        <v>3934.18</v>
+        <v>3585.62</v>
       </c>
       <c r="F184">
-        <v>604.92999999999995</v>
+        <v>553.37</v>
       </c>
       <c r="G184">
-        <v>1809.748</v>
+        <v>1664.7159999999999</v>
       </c>
       <c r="H184">
-        <v>1802.23</v>
+        <v>1661.48</v>
       </c>
       <c r="I184">
-        <v>967.8</v>
+        <v>875.79</v>
       </c>
       <c r="J184">
-        <v>493.4624</v>
+        <v>483.77879999999999</v>
       </c>
       <c r="K184">
-        <v>1402.73</v>
+        <v>1348</v>
       </c>
       <c r="L184">
-        <v>1261.57</v>
+        <v>1295.3699999999999</v>
       </c>
       <c r="M184">
-        <v>18679.645</v>
+        <v>19245.985000000001</v>
       </c>
       <c r="N184">
-        <v>3919.9630000000002</v>
+        <v>4120.9750000000004</v>
       </c>
       <c r="O184">
         <v>1718.69</v>
       </c>
       <c r="P184">
-        <v>411.85</v>
+        <v>358.95</v>
       </c>
       <c r="Q184">
         <v>162.4709</v>
       </c>
       <c r="R184">
-        <v>2.7999900000000002</v>
+        <v>3.1993</v>
       </c>
       <c r="S184">
-        <v>2.9011201600000001</v>
+        <v>3.2972545599999998</v>
       </c>
       <c r="T184">
         <v>4887.8999999999996</v>
       </c>
       <c r="U184">
-        <v>1534.36</v>
+        <v>1403.68</v>
       </c>
       <c r="V184">
-        <v>2271.6570000000002</v>
+        <v>2077.61</v>
       </c>
       <c r="W184">
-        <v>145.3125</v>
+        <v>137</v>
       </c>
       <c r="X184">
-        <v>389.35</v>
+        <v>366.56</v>
       </c>
     </row>
   </sheetData>
@@ -14317,10 +14317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X178"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A178" sqref="A177:A178"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B184" sqref="B183:B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27513,6 +27513,80 @@
         <v>392.91</v>
       </c>
     </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B179">
+        <v>135.82</v>
+      </c>
+      <c r="C179">
+        <v>3693.33</v>
+      </c>
+      <c r="D179">
+        <v>172.8312</v>
+      </c>
+      <c r="E179">
+        <v>3585.62</v>
+      </c>
+      <c r="F179">
+        <v>553.37</v>
+      </c>
+      <c r="G179">
+        <v>1664.7159999999999</v>
+      </c>
+      <c r="H179">
+        <v>1661.48</v>
+      </c>
+      <c r="I179">
+        <v>875.79</v>
+      </c>
+      <c r="J179">
+        <v>483.77879999999999</v>
+      </c>
+      <c r="K179">
+        <v>1348</v>
+      </c>
+      <c r="L179">
+        <v>1295.3699999999999</v>
+      </c>
+      <c r="M179">
+        <v>19245.985000000001</v>
+      </c>
+      <c r="N179">
+        <v>4120.9750000000004</v>
+      </c>
+      <c r="O179">
+        <v>1718.69</v>
+      </c>
+      <c r="P179">
+        <v>358.95</v>
+      </c>
+      <c r="Q179">
+        <v>162.4709</v>
+      </c>
+      <c r="R179">
+        <v>3.1993</v>
+      </c>
+      <c r="S179">
+        <v>3.2972545599999998</v>
+      </c>
+      <c r="T179">
+        <v>4887.8999999999996</v>
+      </c>
+      <c r="U179">
+        <v>1403.68</v>
+      </c>
+      <c r="V179">
+        <v>2077.61</v>
+      </c>
+      <c r="W179">
+        <v>137</v>
+      </c>
+      <c r="X179">
+        <v>366.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27520,11 +27594,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X178"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K183" sqref="K183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B3:B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44719,6 +44793,103 @@
         <v>-5.0689796805914566E-2</v>
       </c>
     </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B179" s="6">
+        <f>data!B179/data!B178-1</f>
+        <v>-0.10332078959529944</v>
+      </c>
+      <c r="C179" s="6">
+        <f>data!C179/data!C178-1</f>
+        <v>-8.7388404715603385E-2</v>
+      </c>
+      <c r="D179" s="6">
+        <f>data!D179/data!D178-1</f>
+        <v>-8.3612185545637541E-2</v>
+      </c>
+      <c r="E179" s="6">
+        <f>data!E179/data!E178-1</f>
+        <v>-9.3395701643489315E-2</v>
+      </c>
+      <c r="F179" s="6">
+        <f>data!F179/data!F178-1</f>
+        <v>-9.743765392833259E-2</v>
+      </c>
+      <c r="G179" s="6">
+        <f>data!G179/data!G178-1</f>
+        <v>-9.7281894025047277E-2</v>
+      </c>
+      <c r="H179" s="6">
+        <f>data!H179/data!H178-1</f>
+        <v>-9.7267046998098294E-2</v>
+      </c>
+      <c r="I179" s="6">
+        <f>data!I179/data!I178-1</f>
+        <v>-0.11902103388960983</v>
+      </c>
+      <c r="J179" s="6">
+        <f>data!J179/data!J178-1</f>
+        <v>-2.1658335500555626E-2</v>
+      </c>
+      <c r="K179" s="6">
+        <f>data!K179/data!K178-1</f>
+        <v>-4.0214171793119147E-2</v>
+      </c>
+      <c r="L179" s="6">
+        <f>data!L179/data!L178-1</f>
+        <v>2.9853238142182548E-2</v>
+      </c>
+      <c r="M179" s="6">
+        <f>data!M179/data!M178-1</f>
+        <v>3.0318563334581494E-2</v>
+      </c>
+      <c r="N179" s="6">
+        <f>data!N179/data!N178-1</f>
+        <v>5.7586865209851901E-2</v>
+      </c>
+      <c r="O179" s="6">
+        <f>data!O179/data!O178-1</f>
+        <v>0</v>
+      </c>
+      <c r="P179" s="6">
+        <f>data!P179/data!P178-1</f>
+        <v>-0.13242616135737428</v>
+      </c>
+      <c r="Q179" s="6">
+        <f>data!Q179/data!Q178-1</f>
+        <v>0</v>
+      </c>
+      <c r="R179" s="6">
+        <f>data!R179/data!R178-1</f>
+        <v>0.15552007974833049</v>
+      </c>
+      <c r="S179" s="6">
+        <f>data!S179/data!S178-1</f>
+        <v>0.1365453266851242</v>
+      </c>
+      <c r="T179" s="6">
+        <f>data!T179/data!T178-1</f>
+        <v>0</v>
+      </c>
+      <c r="U179" s="6">
+        <f>data!U179/data!U178-1</f>
+        <v>-9.8257132394981461E-2</v>
+      </c>
+      <c r="V179" s="6">
+        <f>data!V179/data!V178-1</f>
+        <v>-9.4017079108725587E-2</v>
+      </c>
+      <c r="W179" s="6">
+        <f>data!W179/data!W178-1</f>
+        <v>-8.4759916492693099E-2</v>
+      </c>
+      <c r="X179" s="6">
+        <f>data!X179/data!X178-1</f>
+        <v>-6.7063704156168136E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D4A0A-2977-4886-9FE7-3C4B0D444E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="3630" yWindow="920" windowWidth="15670" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
-    <definedName name="SpreadsheetBuilder_6" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
   <si>
     <t>Start Date</t>
   </si>
@@ -124,17 +127,11 @@
   <si>
     <t>SPUSTBTR Index</t>
   </si>
-  <si>
-    <t>CQ4 2007</t>
-  </si>
-  <si>
-    <t>CQ3 2022</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -207,62 +204,38 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17756811446414357569</stp>
-        <tr r="G7" s="1"/>
+        <stp>BDH|15391177109235035820</stp>
+        <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14478703787085727709</stp>
+        <stp>BDH|14309177196172688359</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16841319149829204575</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16559791485255285162</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16010634124229847813</stp>
         <tr r="U7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13815888761426858427</stp>
-        <tr r="A7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15004030932752525945</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17819063220388356049</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11271612319935224006</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14828346563495437489</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14678220304163479466</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16519727929220132260</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17513182276264513311</stp>
-        <tr r="X7" s="1"/>
+        <stp>BDH|16466284545796995026</stp>
+        <tr r="F7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -335,14 +308,20 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1412932256220826188</stp>
+        <stp>BDH|1876933372882949014</stp>
+        <tr r="W7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6678966189993658993</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5284263092846678588</stp>
-        <tr r="H7" s="1"/>
+        <stp>BDH|5914862928754717559</stp>
+        <tr r="C7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -471,68 +450,90 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9267762036197239593</stp>
+        <stp>BDH|9477214532556026147</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|36292386659241103</stp>
         <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4894437190455507656</stp>
-        <tr r="W7" s="1"/>
+        <stp>BDH|9896719964680467082</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8623315304807624694</stp>
+        <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5969627947817866579</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|1008198799575830707</stp>
+        <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9612275717389600596</stp>
-        <tr r="T7" s="1"/>
+        <stp>BDH|7035392656159871322</stp>
+        <tr r="E7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5610231099479285766</stp>
+        <stp>BDH|9722384114934577972</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3584399528085967195</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6737116125103358117</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6311698408087231725</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6295339182207942854</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7767777114126087591</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|159754737960912633</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2408755238463440597</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8082410388994285277</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3301401577121921262</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9070852227126959680</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|354516066486120050</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|455234425919013484</stp>
-        <tr r="P7" s="1"/>
+        <stp>BDH|207830744321886275</stp>
+        <tr r="S7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -835,11 +836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X185"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView topLeftCell="C161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185:X185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,16 +865,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
+      <c r="B1" s="1">
+        <v>39447</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
+      <c r="B2" s="1">
+        <v>44865</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1008,37 +1009,37 @@
         <f>_xll.BFieldInfo(P$6)</f>
         <v>Last Price</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5" t="e">
         <f>_xll.BFieldInfo(Q$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="R5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R5" t="e">
         <f>_xll.BFieldInfo(R$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="S5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" t="e">
         <f>_xll.BFieldInfo(S$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="T5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" t="e">
         <f>_xll.BFieldInfo(T$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="U5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" t="e">
         <f>_xll.BFieldInfo(U$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="V5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="e">
         <f>_xll.BFieldInfo(V$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="W5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W5" t="e">
         <f>_xll.BFieldInfo(W$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="X5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X5" t="e">
         <f>_xll.BFieldInfo(X$6)</f>
-        <v>#N/A Requesting Data...</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1117,98 +1118,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=178")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=179")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=178")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -13685,7 +13686,7 @@
         <v>17491.125</v>
       </c>
       <c r="N176">
-        <v>3145.723</v>
+        <v>3145.7220000000002</v>
       </c>
       <c r="O176">
         <v>1759.42</v>
@@ -13759,7 +13760,7 @@
         <v>17708.370999999999</v>
       </c>
       <c r="N177">
-        <v>3261.558</v>
+        <v>3261.5569999999998</v>
       </c>
       <c r="O177">
         <v>1779.61</v>
@@ -13907,7 +13908,7 @@
         <v>19027.263999999999</v>
       </c>
       <c r="N179">
-        <v>3829.3380000000002</v>
+        <v>3829.3389999999999</v>
       </c>
       <c r="O179">
         <v>1718.69</v>
@@ -14055,7 +14056,7 @@
         <v>18830.867999999999</v>
       </c>
       <c r="N181">
-        <v>3919.7820000000002</v>
+        <v>3919.7809999999999</v>
       </c>
       <c r="O181">
         <v>1718.69</v>
@@ -14274,7 +14275,7 @@
         <v>1295.3699999999999</v>
       </c>
       <c r="M184">
-        <v>19245.985000000001</v>
+        <v>19166.885999999999</v>
       </c>
       <c r="N184">
         <v>4120.9750000000004</v>
@@ -14308,6 +14309,80 @@
       </c>
       <c r="X184">
         <v>366.56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B185">
+        <v>124.25</v>
+      </c>
+      <c r="C185">
+        <v>3610.31</v>
+      </c>
+      <c r="D185">
+        <v>161.0437</v>
+      </c>
+      <c r="E185">
+        <v>3871.98</v>
+      </c>
+      <c r="F185">
+        <v>586.37</v>
+      </c>
+      <c r="G185">
+        <v>1846.8630000000001</v>
+      </c>
+      <c r="H185">
+        <v>1750</v>
+      </c>
+      <c r="I185">
+        <v>848.16</v>
+      </c>
+      <c r="J185">
+        <v>487.8895</v>
+      </c>
+      <c r="K185">
+        <v>1386.37</v>
+      </c>
+      <c r="L185">
+        <v>1297.27</v>
+      </c>
+      <c r="M185">
+        <v>19349.467000000001</v>
+      </c>
+      <c r="N185">
+        <v>4128.7719999999999</v>
+      </c>
+      <c r="O185">
+        <v>1718.69</v>
+      </c>
+      <c r="P185">
+        <v>370.74</v>
+      </c>
+      <c r="Q185">
+        <v>162.4709</v>
+      </c>
+      <c r="R185">
+        <v>3.9648099999999999</v>
+      </c>
+      <c r="S185">
+        <v>4.11230765</v>
+      </c>
+      <c r="T185">
+        <v>4887.8999999999996</v>
+      </c>
+      <c r="U185">
+        <v>1489.05</v>
+      </c>
+      <c r="V185">
+        <v>2245.8090000000002</v>
+      </c>
+      <c r="W185">
+        <v>127.65625</v>
+      </c>
+      <c r="X185">
+        <v>350.53</v>
       </c>
     </row>
   </sheetData>
@@ -14316,11 +14391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B184" sqref="B183:B184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27587,16 +27662,90 @@
         <v>366.56</v>
       </c>
     </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B180">
+        <v>124.25</v>
+      </c>
+      <c r="C180">
+        <v>3610.31</v>
+      </c>
+      <c r="D180">
+        <v>161.0437</v>
+      </c>
+      <c r="E180">
+        <v>3871.98</v>
+      </c>
+      <c r="F180">
+        <v>586.37</v>
+      </c>
+      <c r="G180">
+        <v>1846.8630000000001</v>
+      </c>
+      <c r="H180">
+        <v>1750</v>
+      </c>
+      <c r="I180">
+        <v>848.16</v>
+      </c>
+      <c r="J180">
+        <v>487.8895</v>
+      </c>
+      <c r="K180">
+        <v>1386.37</v>
+      </c>
+      <c r="L180">
+        <v>1297.27</v>
+      </c>
+      <c r="M180">
+        <v>19349.467000000001</v>
+      </c>
+      <c r="N180">
+        <v>4128.7719999999999</v>
+      </c>
+      <c r="O180">
+        <v>1718.69</v>
+      </c>
+      <c r="P180">
+        <v>370.74</v>
+      </c>
+      <c r="Q180">
+        <v>162.4709</v>
+      </c>
+      <c r="R180">
+        <v>3.9648099999999999</v>
+      </c>
+      <c r="S180">
+        <v>4.11230765</v>
+      </c>
+      <c r="T180">
+        <v>4887.8999999999996</v>
+      </c>
+      <c r="U180">
+        <v>1489.05</v>
+      </c>
+      <c r="V180">
+        <v>2245.8090000000002</v>
+      </c>
+      <c r="W180">
+        <v>127.65625</v>
+      </c>
+      <c r="X180">
+        <v>350.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B179" sqref="B3:B179"/>
     </sheetView>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloombweg\Documents\GitHub\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvg9hxp\Documents\Projects\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED80F06-161A-4856-A4D9-8C2CB0AA6AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
     <definedName name="SpreadsheetBuilder_1" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -201,359 +202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10489591119778519551</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12826669280462334791</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17136920901564149452</stp>
-        <tr r="Y7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13913917434486249009</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16888978502565609787</stp>
-        <tr r="T7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12529801424113364952</stp>
-        <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17284769740317232353</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12040704164480250224</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14751258047162291450</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12103917511058166714</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14975408459717179755</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C9</stp>
-        <stp>PX_LAST</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C8</stp>
-        <stp>PX_LAST</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C7</stp>
-        <stp>PX_LAST</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C6</stp>
-        <stp>PX_LAST</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C5</stp>
-        <stp>PX_LAST</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C4</stp>
-        <stp>PX_LAST</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C3</stp>
-        <stp>PX_LAST</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C2</stp>
-        <stp>PX_LAST</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7731208633619313276</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C20</stp>
-        <stp>PX_LAST</stp>
-        <tr r="T5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C21</stp>
-        <stp>PX_LAST</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C22</stp>
-        <stp>PX_LAST</stp>
-        <tr r="V5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C23</stp>
-        <stp>PX_LAST</stp>
-        <tr r="W5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C24</stp>
-        <stp>PX_LAST</stp>
-        <tr r="X5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C25</stp>
-        <stp>PX_LAST</stp>
-        <tr r="Y5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C10</stp>
-        <stp>PX_LAST</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C11</stp>
-        <stp>PX_LAST</stp>
-        <tr r="K5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C12</stp>
-        <stp>PX_LAST</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C13</stp>
-        <stp>PX_LAST</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C14</stp>
-        <stp>PX_LAST</stp>
-        <tr r="N5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C15</stp>
-        <stp>PX_LAST</stp>
-        <tr r="O5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C16</stp>
-        <stp>PX_LAST</stp>
-        <tr r="P5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C17</stp>
-        <stp>PX_LAST</stp>
-        <tr r="Q5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C18</stp>
-        <stp>PX_LAST</stp>
-        <tr r="R5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C19</stp>
-        <stp>PX_LAST</stp>
-        <tr r="S5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4448973318605603182</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8978238127517699526</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6946538690401124124</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4773887786157182980</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7899446333863518818</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6356253580356292117</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8908595396953342132</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3643535068639366904</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8734910087458302000</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1866107997012713909</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|904632522909595961</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|960304017636403582</stp>
-        <tr r="A7" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,32 +500,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y187"/>
   <sheetViews>
-    <sheetView topLeftCell="B150" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179:Y185"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -893,7 +541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -967,105 +615,105 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f>_xll.BFieldInfo(B$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="C5" t="str">
-        <f>_xll.BFieldInfo(C$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D5" t="str">
-        <f>_xll.BFieldInfo(D$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E5" t="str">
-        <f>_xll.BFieldInfo(E$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="F5" t="str">
-        <f>_xll.BFieldInfo(F$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xll.BFieldInfo(G$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="H5" t="str">
-        <f>_xll.BFieldInfo(H$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="I5" t="str">
-        <f>_xll.BFieldInfo(I$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="J5" t="str">
-        <f>_xll.BFieldInfo(J$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="K5" t="str">
-        <f>_xll.BFieldInfo(K$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="L5" t="str">
-        <f>_xll.BFieldInfo(L$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="M5" t="str">
-        <f>_xll.BFieldInfo(M$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="N5" t="str">
-        <f>_xll.BFieldInfo(N$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="O5" t="str">
-        <f>_xll.BFieldInfo(O$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="P5" t="str">
-        <f>_xll.BFieldInfo(P$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="Q5" t="str">
-        <f>_xll.BFieldInfo(Q$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="R5" t="str">
-        <f>_xll.BFieldInfo(R$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="S5" t="str">
-        <f>_xll.BFieldInfo(S$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="T5" t="str">
-        <f>_xll.BFieldInfo(T$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="U5" t="str">
-        <f>_xll.BFieldInfo(U$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="V5" t="str">
-        <f>_xll.BFieldInfo(V$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="W5" t="str">
-        <f>_xll.BFieldInfo(W$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="X5" t="str">
-        <f>_xll.BFieldInfo(X$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="Y5" t="str">
-        <f>_xll.BFieldInfo(Y$6)</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B5" t="e">
+        <f ca="1">_xll.BFieldInfo(B$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" t="e">
+        <f ca="1">_xll.BFieldInfo(C$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" t="e">
+        <f ca="1">_xll.BFieldInfo(D$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e">
+        <f ca="1">_xll.BFieldInfo(E$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <f ca="1">_xll.BFieldInfo(F$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">_xll.BFieldInfo(G$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" t="e">
+        <f ca="1">_xll.BFieldInfo(H$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" t="e">
+        <f ca="1">_xll.BFieldInfo(I$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" t="e">
+        <f ca="1">_xll.BFieldInfo(J$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" t="e">
+        <f ca="1">_xll.BFieldInfo(K$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L5" t="e">
+        <f ca="1">_xll.BFieldInfo(L$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M5" t="e">
+        <f ca="1">_xll.BFieldInfo(M$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" t="e">
+        <f ca="1">_xll.BFieldInfo(N$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" t="e">
+        <f ca="1">_xll.BFieldInfo(O$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P5" t="e">
+        <f ca="1">_xll.BFieldInfo(P$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q5" t="e">
+        <f ca="1">_xll.BFieldInfo(Q$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R5" t="e">
+        <f ca="1">_xll.BFieldInfo(R$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S5" t="e">
+        <f ca="1">_xll.BFieldInfo(S$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T5" t="e">
+        <f ca="1">_xll.BFieldInfo(T$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U5" t="e">
+        <f ca="1">_xll.BFieldInfo(U$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V5" t="e">
+        <f ca="1">_xll.BFieldInfo(V$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W5" t="e">
+        <f ca="1">_xll.BFieldInfo(W$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X5" t="e">
+        <f ca="1">_xll.BFieldInfo(X$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y5" t="e">
+        <f ca="1">_xll.BFieldInfo(Y$6)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1142,108 +790,108 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=181")</f>
-        <v>39447</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="e">
+        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=181")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1902.17</v>
-      </c>
-      <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#N/A N/A</v>
-      </c>
-      <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1468.36</v>
-      </c>
-      <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>403.25</v>
-      </c>
-      <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>766.03700000000003</v>
-      </c>
-      <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>2253.36</v>
-      </c>
-      <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1245.5899999999999</v>
-      </c>
-      <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>270.02620000000002</v>
-      </c>
-      <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>590.78</v>
-      </c>
-      <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1294.82</v>
-      </c>
-      <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>12335.221</v>
-      </c>
-      <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1915.1320000000001</v>
-      </c>
-      <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1389.21</v>
-      </c>
-      <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>255.67</v>
-      </c>
-      <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>141.76349999999999</v>
-      </c>
-      <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>3.1589900000000002</v>
-      </c>
-      <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>3.33792826</v>
-      </c>
-      <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1412.28</v>
-      </c>
-      <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>996.96</v>
-      </c>
-      <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>849.221</v>
-      </c>
-      <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#N/A N/A</v>
-      </c>
-      <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>221.59</v>
-      </c>
-      <c r="Y7">
-        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1174.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C7" t="e">
+        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" t="e">
+        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" t="e">
+        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" t="e">
+        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" t="e">
+        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" t="e">
+        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" t="e">
+        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" t="e">
+        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" t="e">
+        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" t="e">
+        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P7" t="e">
+        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q7" t="e">
+        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R7" t="e">
+        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S7" t="e">
+        <f ca="1">_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T7" t="e">
+        <f ca="1">_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U7" t="e">
+        <f ca="1">_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V7" t="e">
+        <f ca="1">_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W7" t="e">
+        <f ca="1">_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X7" t="e">
+        <f ca="1">_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y7" t="e">
+        <f ca="1">_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>39478</v>
       </c>
@@ -1320,7 +968,7 @@
         <v>1175.0899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>39507</v>
       </c>
@@ -1397,7 +1045,7 @@
         <v>1169.46</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>39538</v>
       </c>
@@ -1474,7 +1122,7 @@
         <v>1141.77</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>39568</v>
       </c>
@@ -1551,7 +1199,7 @@
         <v>1146.51</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>39598</v>
       </c>
@@ -1628,7 +1276,7 @@
         <v>1160.96</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>39629</v>
       </c>
@@ -1705,7 +1353,7 @@
         <v>1160.32</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>39660</v>
       </c>
@@ -1782,7 +1430,7 @@
         <v>1147.95</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>39689</v>
       </c>
@@ -1859,7 +1507,7 @@
         <v>1156.26</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>39721</v>
       </c>
@@ -1936,7 +1584,7 @@
         <v>1113.49</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>39752</v>
       </c>
@@ -2013,7 +1661,7 @@
         <v>1064.58</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>39780</v>
       </c>
@@ -2090,7 +1738,7 @@
         <v>1045.5999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>39813</v>
       </c>
@@ -2167,7 +1815,7 @@
         <v>1020.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>39843</v>
       </c>
@@ -2244,7 +1892,7 @@
         <v>1023.76</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>39871</v>
       </c>
@@ -2321,7 +1969,7 @@
         <v>1021.84</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>39903</v>
       </c>
@@ -2398,7 +2046,7 @@
         <v>1015.49</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>39933</v>
       </c>
@@ -2475,7 +2123,7 @@
         <v>1010.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>39962</v>
       </c>
@@ -2552,7 +2200,7 @@
         <v>1006.6</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>39994</v>
       </c>
@@ -2629,7 +2277,7 @@
         <v>994.61</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>40025</v>
       </c>
@@ -2706,7 +2354,7 @@
         <v>988.83</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>40056</v>
       </c>
@@ -2783,7 +2431,7 @@
         <v>983.18</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>40086</v>
       </c>
@@ -2860,7 +2508,7 @@
         <v>982.21</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>40116</v>
       </c>
@@ -2937,7 +2585,7 @@
         <v>976.26</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>40147</v>
       </c>
@@ -3014,7 +2662,7 @@
         <v>982.75</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>40178</v>
       </c>
@@ -3091,7 +2739,7 @@
         <v>984.28</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>40207</v>
       </c>
@@ -3168,7 +2816,7 @@
         <v>985.57</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>40235</v>
       </c>
@@ -3245,7 +2893,7 @@
         <v>987.78</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>40268</v>
       </c>
@@ -3322,7 +2970,7 @@
         <v>971.42</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>40298</v>
       </c>
@@ -3399,7 +3047,7 @@
         <v>977.05</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>40329</v>
       </c>
@@ -3476,7 +3124,7 @@
         <v>970.98</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>40359</v>
       </c>
@@ -3553,7 +3201,7 @@
         <v>964.77</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>40389</v>
       </c>
@@ -3630,7 +3278,7 @@
         <v>971.39</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>40421</v>
       </c>
@@ -3707,7 +3355,7 @@
         <v>963.26</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40451</v>
       </c>
@@ -3784,7 +3432,7 @@
         <v>976.53</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40480</v>
       </c>
@@ -3861,7 +3509,7 @@
         <v>982.52</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40512</v>
       </c>
@@ -3938,7 +3586,7 @@
         <v>978.64</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40543</v>
       </c>
@@ -4015,7 +3663,7 @@
         <v>983.07</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40574</v>
       </c>
@@ -4092,7 +3740,7 @@
         <v>986.17</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>40602</v>
       </c>
@@ -4169,7 +3817,7 @@
         <v>987.89</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>40633</v>
       </c>
@@ -4246,7 +3894,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>40662</v>
       </c>
@@ -4323,7 +3971,7 @@
         <v>988.91</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>40694</v>
       </c>
@@ -4400,7 +4048,7 @@
         <v>981.82</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>40724</v>
       </c>
@@ -4477,7 +4125,7 @@
         <v>968.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>40753</v>
       </c>
@@ -4554,7 +4202,7 @@
         <v>962.9</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>40786</v>
       </c>
@@ -4631,7 +4279,7 @@
         <v>953.87</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>40816</v>
       </c>
@@ -4708,7 +4356,7 @@
         <v>945.45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>40847</v>
       </c>
@@ -4785,7 +4433,7 @@
         <v>953.56</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>40877</v>
       </c>
@@ -4862,7 +4510,7 @@
         <v>947.78</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>40907</v>
       </c>
@@ -4939,7 +4587,7 @@
         <v>946.55</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>40939</v>
       </c>
@@ -5016,7 +4664,7 @@
         <v>951.83</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>40968</v>
       </c>
@@ -5093,7 +4741,7 @@
         <v>956.32</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>40998</v>
       </c>
@@ -5170,7 +4818,7 @@
         <v>952.02</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>41029</v>
       </c>
@@ -5247,7 +4895,7 @@
         <v>949.37</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>41060</v>
       </c>
@@ -5324,7 +4972,7 @@
         <v>947.08</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>41089</v>
       </c>
@@ -5401,7 +5049,7 @@
         <v>947.75</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>41121</v>
       </c>
@@ -5478,7 +5126,7 @@
         <v>945.54</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>41152</v>
       </c>
@@ -5555,7 +5203,7 @@
         <v>948.05</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>41180</v>
       </c>
@@ -5632,7 +5280,7 @@
         <v>946.65</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>41213</v>
       </c>
@@ -5709,7 +5357,7 @@
         <v>944.09</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>41243</v>
       </c>
@@ -5786,7 +5434,7 @@
         <v>949.92</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>41274</v>
       </c>
@@ -5863,7 +5511,7 @@
         <v>954.86</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>41305</v>
       </c>
@@ -5940,7 +5588,7 @@
         <v>957.4</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>41333</v>
       </c>
@@ -6017,7 +5665,7 @@
         <v>960.14</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>41362</v>
       </c>
@@ -6094,7 +5742,7 @@
         <v>961.61</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>41394</v>
       </c>
@@ -6171,7 +5819,7 @@
         <v>962.97</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>41425</v>
       </c>
@@ -6248,7 +5896,7 @@
         <v>971.45</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>41453</v>
       </c>
@@ -6325,7 +5973,7 @@
         <v>971.23</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>41486</v>
       </c>
@@ -6402,7 +6050,7 @@
         <v>977.25</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>41516</v>
       </c>
@@ -6479,7 +6127,7 @@
         <v>970.23</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>41547</v>
       </c>
@@ -6556,7 +6204,7 @@
         <v>972.33</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>41578</v>
       </c>
@@ -6633,7 +6281,7 @@
         <v>981.77</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>41607</v>
       </c>
@@ -6710,7 +6358,7 @@
         <v>986.18</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>41639</v>
       </c>
@@ -6787,7 +6435,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>41670</v>
       </c>
@@ -6864,7 +6512,7 @@
         <v>995.73</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>41698</v>
       </c>
@@ -6941,7 +6589,7 @@
         <v>1001.92</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>41729</v>
       </c>
@@ -7018,7 +6666,7 @@
         <v>1001.99</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>41759</v>
       </c>
@@ -7095,7 +6743,7 @@
         <v>999.33</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>41789</v>
       </c>
@@ -7172,7 +6820,7 @@
         <v>1000.28</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>41820</v>
       </c>
@@ -7249,7 +6897,7 @@
         <v>1007.02</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>41851</v>
       </c>
@@ -7326,7 +6974,7 @@
         <v>1001.15</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>41880</v>
       </c>
@@ -7403,7 +7051,7 @@
         <v>1008.67</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>41912</v>
       </c>
@@ -7480,7 +7128,7 @@
         <v>1006.78</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>41943</v>
       </c>
@@ -7557,7 +7205,7 @@
         <v>1003.23</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>41971</v>
       </c>
@@ -7634,7 +7282,7 @@
         <v>1003.29</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42004</v>
       </c>
@@ -7711,7 +7359,7 @@
         <v>996.78</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -7788,7 +7436,7 @@
         <v>1002.84</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42062</v>
       </c>
@@ -7865,7 +7513,7 @@
         <v>1009.67</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42094</v>
       </c>
@@ -7942,7 +7590,7 @@
         <v>1013.49</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42124</v>
       </c>
@@ -8019,7 +7667,7 @@
         <v>1014.72</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42153</v>
       </c>
@@ -8096,7 +7744,7 @@
         <v>1020.72</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42185</v>
       </c>
@@ -8173,7 +7821,7 @@
         <v>1016.84</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42216</v>
       </c>
@@ -8250,7 +7898,7 @@
         <v>1019.27</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42247</v>
       </c>
@@ -8327,7 +7975,7 @@
         <v>1020.55</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42277</v>
       </c>
@@ -8404,7 +8052,7 @@
         <v>1023.04</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42307</v>
       </c>
@@ -8481,7 +8129,7 @@
         <v>1034.8399999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42338</v>
       </c>
@@ -8558,7 +8206,7 @@
         <v>1029.6099999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42369</v>
       </c>
@@ -8635,7 +8283,7 @@
         <v>1025.31</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>42398</v>
       </c>
@@ -8712,7 +8360,7 @@
         <v>1025.8699999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42429</v>
       </c>
@@ -8789,7 +8437,7 @@
         <v>1022.32</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42460</v>
       </c>
@@ -8866,7 +8514,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42489</v>
       </c>
@@ -8943,7 +8591,7 @@
         <v>1020.07</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42521</v>
       </c>
@@ -9020,7 +8668,7 @@
         <v>1024.72</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42551</v>
       </c>
@@ -9097,7 +8745,7 @@
         <v>1022.94</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42580</v>
       </c>
@@ -9174,7 +8822,7 @@
         <v>1029.23</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42613</v>
       </c>
@@ -9251,7 +8899,7 @@
         <v>1028.6300000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42643</v>
       </c>
@@ -9328,7 +8976,7 @@
         <v>1032.06</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42674</v>
       </c>
@@ -9405,7 +9053,7 @@
         <v>1028.01</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42704</v>
       </c>
@@ -9482,7 +9130,7 @@
         <v>1026.3800000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42734</v>
       </c>
@@ -9559,7 +9207,7 @@
         <v>1028.46</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42766</v>
       </c>
@@ -9636,7 +9284,7 @@
         <v>1031.5</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42794</v>
       </c>
@@ -9713,7 +9361,7 @@
         <v>1032.6099999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42825</v>
       </c>
@@ -9790,7 +9438,7 @@
         <v>1035.1500000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -9867,7 +9515,7 @@
         <v>1038.31</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42886</v>
       </c>
@@ -9944,7 +9592,7 @@
         <v>1041.6099999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42916</v>
       </c>
@@ -10021,7 +9669,7 @@
         <v>1042.6300000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42947</v>
       </c>
@@ -10098,7 +9746,7 @@
         <v>1047.6300000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42978</v>
       </c>
@@ -10175,7 +9823,7 @@
         <v>1054.49</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43007</v>
       </c>
@@ -10252,7 +9900,7 @@
         <v>1061.95</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43039</v>
       </c>
@@ -10329,7 +9977,7 @@
         <v>1066.3800000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43069</v>
       </c>
@@ -10406,7 +10054,7 @@
         <v>1060.29</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43098</v>
       </c>
@@ -10483,7 +10131,7 @@
         <v>1063.28</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43131</v>
       </c>
@@ -10560,7 +10208,7 @@
         <v>1071.8599999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43159</v>
       </c>
@@ -10637,7 +10285,7 @@
         <v>1068.06</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43189</v>
       </c>
@@ -10714,7 +10362,7 @@
         <v>1066.47</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43220</v>
       </c>
@@ -10791,7 +10439,7 @@
         <v>1067.4000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43251</v>
       </c>
@@ -10868,7 +10516,7 @@
         <v>1072.23</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43280</v>
       </c>
@@ -10945,7 +10593,7 @@
         <v>1074.3699999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43312</v>
       </c>
@@ -11022,7 +10670,7 @@
         <v>1073.81</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43343</v>
       </c>
@@ -11099,7 +10747,7 @@
         <v>1077.75</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43371</v>
       </c>
@@ -11176,7 +10824,7 @@
         <v>1073.93</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43404</v>
       </c>
@@ -11253,7 +10901,7 @@
         <v>1072.71</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43434</v>
       </c>
@@ -11330,7 +10978,7 @@
         <v>1068.3699999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43465</v>
       </c>
@@ -11407,7 +11055,7 @@
         <v>1058.08</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43496</v>
       </c>
@@ -11484,7 +11132,7 @@
         <v>1071.04</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43524</v>
       </c>
@@ -11561,7 +11209,7 @@
         <v>1069.99</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43553</v>
       </c>
@@ -11638,7 +11286,7 @@
         <v>1064.01</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43585</v>
       </c>
@@ -11715,7 +11363,7 @@
         <v>1067.04</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43616</v>
       </c>
@@ -11792,7 +11440,7 @@
         <v>1067.57</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43644</v>
       </c>
@@ -11869,7 +11517,7 @@
         <v>1075.5999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43677</v>
       </c>
@@ -11946,7 +11594,7 @@
         <v>1078.04</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43707</v>
       </c>
@@ -12023,7 +11671,7 @@
         <v>1082.76</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43738</v>
       </c>
@@ -12100,7 +11748,7 @@
         <v>1087.17</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43769</v>
       </c>
@@ -12177,7 +11825,7 @@
         <v>1092.23</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43798</v>
       </c>
@@ -12254,7 +11902,7 @@
         <v>1097.28</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43830</v>
       </c>
@@ -12331,7 +11979,7 @@
         <v>1104.27</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43861</v>
       </c>
@@ -12408,7 +12056,7 @@
         <v>1104.3399999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43889</v>
       </c>
@@ -12485,7 +12133,7 @@
         <v>1100.98</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43921</v>
       </c>
@@ -12562,7 +12210,7 @@
         <v>1040.2</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43951</v>
       </c>
@@ -12639,7 +12287,7 @@
         <v>1061.3800000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43980</v>
       </c>
@@ -12716,7 +12364,7 @@
         <v>1075.1300000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44012</v>
       </c>
@@ -12793,7 +12441,7 @@
         <v>1089.92</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44043</v>
       </c>
@@ -12870,7 +12518,7 @@
         <v>1100.1400000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44074</v>
       </c>
@@ -12947,7 +12595,7 @@
         <v>1104.95</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44104</v>
       </c>
@@ -13024,7 +12672,7 @@
         <v>1109.43</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44134</v>
       </c>
@@ -13101,7 +12749,7 @@
         <v>1110.24</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44165</v>
       </c>
@@ -13178,7 +12826,7 @@
         <v>1119.74</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44196</v>
       </c>
@@ -13255,7 +12903,7 @@
         <v>1134.32</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44225</v>
       </c>
@@ -13332,7 +12980,7 @@
         <v>1132.45</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44253</v>
       </c>
@@ -13409,7 +13057,7 @@
         <v>1138.6600000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44286</v>
       </c>
@@ -13486,7 +13134,7 @@
         <v>1141.6400000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44316</v>
       </c>
@@ -13563,7 +13211,7 @@
         <v>1157.2</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44347</v>
       </c>
@@ -13640,7 +13288,7 @@
         <v>1155.47</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44377</v>
       </c>
@@ -13717,7 +13365,7 @@
         <v>1162.21</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44407</v>
       </c>
@@ -13794,7 +13442,7 @@
         <v>1156.17</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44439</v>
       </c>
@@ -13871,7 +13519,7 @@
         <v>1157.75</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44469</v>
       </c>
@@ -13948,7 +13596,7 @@
         <v>1154.97</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44498</v>
       </c>
@@ -14025,7 +13673,7 @@
         <v>1156.98</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44530</v>
       </c>
@@ -14102,7 +13750,7 @@
         <v>1147.25</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44561</v>
       </c>
@@ -14179,7 +13827,7 @@
         <v>1158.1099999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44592</v>
       </c>
@@ -14256,7 +13904,7 @@
         <v>1147.98</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44620</v>
       </c>
@@ -14333,7 +13981,7 @@
         <v>1147.68</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44651</v>
       </c>
@@ -14410,7 +14058,7 @@
         <v>1159.4100000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44680</v>
       </c>
@@ -14487,7 +14135,7 @@
         <v>1168.8800000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44712</v>
       </c>
@@ -14564,7 +14212,7 @@
         <v>1157.98</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44742</v>
       </c>
@@ -14641,7 +14289,7 @@
         <v>1147.06</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44771</v>
       </c>
@@ -14718,7 +14366,7 @@
         <v>1136.73</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44804</v>
       </c>
@@ -14795,7 +14443,7 @@
         <v>1142.8599999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44834</v>
       </c>
@@ -14872,7 +14520,7 @@
         <v>1171.55</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44865</v>
       </c>
@@ -14949,7 +14597,7 @@
         <v>1172.21</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44895</v>
       </c>
@@ -15026,7 +14674,7 @@
         <v>1158.76</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44925</v>
       </c>
@@ -15109,32 +14757,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y180"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:Y180"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -15211,7 +14859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>39447</v>
       </c>
@@ -15288,8 +14936,9 @@
         <v>1174.52</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <f>EOMONTH(A2,1)</f>
         <v>39478</v>
       </c>
       <c r="B3" t="s">
@@ -15365,8 +15014,9 @@
         <v>1175.0899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="0">EOMONTH(A3,1)</f>
         <v>39507</v>
       </c>
       <c r="B4" t="s">
@@ -15442,8 +15092,9 @@
         <v>1169.46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" si="0"/>
         <v>39538</v>
       </c>
       <c r="B5" t="s">
@@ -15519,8 +15170,9 @@
         <v>1141.77</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>39568</v>
       </c>
       <c r="B6" t="s">
@@ -15596,9 +15248,10 @@
         <v>1146.51</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>39598</v>
+        <f t="shared" si="0"/>
+        <v>39599</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -15673,8 +15326,9 @@
         <v>1160.96</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>39629</v>
       </c>
       <c r="B8" t="s">
@@ -15750,8 +15404,9 @@
         <v>1160.32</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="0"/>
         <v>39660</v>
       </c>
       <c r="B9" t="s">
@@ -15827,9 +15482,10 @@
         <v>1147.95</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>39689</v>
+        <f t="shared" si="0"/>
+        <v>39691</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -15904,8 +15560,9 @@
         <v>1156.26</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="0"/>
         <v>39721</v>
       </c>
       <c r="B11" t="s">
@@ -15981,8 +15638,9 @@
         <v>1113.49</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="0"/>
         <v>39752</v>
       </c>
       <c r="B12" t="s">
@@ -16058,9 +15716,10 @@
         <v>1064.58</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>39780</v>
+        <f t="shared" si="0"/>
+        <v>39782</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -16135,8 +15794,9 @@
         <v>1045.5999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="0"/>
         <v>39813</v>
       </c>
       <c r="B14" t="s">
@@ -16212,9 +15872,10 @@
         <v>1020.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>39843</v>
+        <f t="shared" si="0"/>
+        <v>39844</v>
       </c>
       <c r="B15">
         <v>82.74</v>
@@ -16289,9 +15950,10 @@
         <v>1023.76</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>39871</v>
+        <f t="shared" si="0"/>
+        <v>39872</v>
       </c>
       <c r="B16">
         <v>80.760000000000005</v>
@@ -16366,8 +16028,9 @@
         <v>1021.84</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>39903</v>
       </c>
       <c r="B17">
@@ -16443,8 +16106,9 @@
         <v>1015.49</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>39933</v>
       </c>
       <c r="B18">
@@ -16520,9 +16184,10 @@
         <v>1010.4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>39962</v>
+        <f t="shared" si="0"/>
+        <v>39964</v>
       </c>
       <c r="B19">
         <v>73.77</v>
@@ -16597,8 +16262,9 @@
         <v>1006.6</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="0"/>
         <v>39994</v>
       </c>
       <c r="B20">
@@ -16674,8 +16340,9 @@
         <v>994.61</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="0"/>
         <v>40025</v>
       </c>
       <c r="B21">
@@ -16751,8 +16418,9 @@
         <v>988.83</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="0"/>
         <v>40056</v>
       </c>
       <c r="B22">
@@ -16828,8 +16496,9 @@
         <v>983.18</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="0"/>
         <v>40086</v>
       </c>
       <c r="B23">
@@ -16905,9 +16574,10 @@
         <v>982.21</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>40116</v>
+        <f t="shared" si="0"/>
+        <v>40117</v>
       </c>
       <c r="B24">
         <v>76.849999999999994</v>
@@ -16982,8 +16652,9 @@
         <v>976.26</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="0"/>
         <v>40147</v>
       </c>
       <c r="B25">
@@ -17059,8 +16730,9 @@
         <v>982.75</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="0"/>
         <v>40178</v>
       </c>
       <c r="B26">
@@ -17136,9 +16808,10 @@
         <v>984.28</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>40207</v>
+        <f t="shared" si="0"/>
+        <v>40209</v>
       </c>
       <c r="B27">
         <v>73.89</v>
@@ -17213,9 +16886,10 @@
         <v>985.57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>40235</v>
+        <f t="shared" si="0"/>
+        <v>40237</v>
       </c>
       <c r="B28">
         <v>73.849999999999994</v>
@@ -17290,8 +16964,9 @@
         <v>987.78</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="0"/>
         <v>40268</v>
       </c>
       <c r="B29">
@@ -17367,8 +17042,9 @@
         <v>971.42</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="0"/>
         <v>40298</v>
       </c>
       <c r="B30">
@@ -17444,8 +17120,9 @@
         <v>977.05</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="0"/>
         <v>40329</v>
       </c>
       <c r="B31">
@@ -17521,8 +17198,9 @@
         <v>970.98</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="0"/>
         <v>40359</v>
       </c>
       <c r="B32">
@@ -17598,9 +17276,10 @@
         <v>964.77</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>40389</v>
+        <f t="shared" si="0"/>
+        <v>40390</v>
       </c>
       <c r="B33">
         <v>85.56</v>
@@ -17675,8 +17354,9 @@
         <v>971.39</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <f t="shared" si="0"/>
         <v>40421</v>
       </c>
       <c r="B34">
@@ -17752,8 +17432,9 @@
         <v>963.26</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="0"/>
         <v>40451</v>
       </c>
       <c r="B35">
@@ -17829,9 +17510,10 @@
         <v>976.53</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>40480</v>
+        <f t="shared" si="0"/>
+        <v>40482</v>
       </c>
       <c r="B36">
         <v>85.47</v>
@@ -17906,8 +17588,9 @@
         <v>982.52</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <f t="shared" si="0"/>
         <v>40512</v>
       </c>
       <c r="B37">
@@ -17983,8 +17666,9 @@
         <v>978.64</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="0"/>
         <v>40543</v>
       </c>
       <c r="B38">
@@ -18060,8 +17744,9 @@
         <v>983.07</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <f t="shared" si="0"/>
         <v>40574</v>
       </c>
       <c r="B39">
@@ -18137,8 +17822,9 @@
         <v>986.17</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
+        <f t="shared" si="0"/>
         <v>40602</v>
       </c>
       <c r="B40">
@@ -18214,8 +17900,9 @@
         <v>987.89</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
+        <f t="shared" si="0"/>
         <v>40633</v>
       </c>
       <c r="B41">
@@ -18291,9 +17978,10 @@
         <v>988</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40662</v>
+        <f t="shared" si="0"/>
+        <v>40663</v>
       </c>
       <c r="B42">
         <v>79.92</v>
@@ -18368,8 +18056,9 @@
         <v>988.91</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
+        <f t="shared" si="0"/>
         <v>40694</v>
       </c>
       <c r="B43">
@@ -18445,8 +18134,9 @@
         <v>981.82</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
+        <f t="shared" si="0"/>
         <v>40724</v>
       </c>
       <c r="B44">
@@ -18522,9 +18212,10 @@
         <v>968.5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>40753</v>
+        <f t="shared" si="0"/>
+        <v>40755</v>
       </c>
       <c r="B45">
         <v>86.19</v>
@@ -18599,8 +18290,9 @@
         <v>962.9</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
+        <f t="shared" si="0"/>
         <v>40786</v>
       </c>
       <c r="B46">
@@ -18676,8 +18368,9 @@
         <v>953.87</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
+        <f t="shared" si="0"/>
         <v>40816</v>
       </c>
       <c r="B47">
@@ -18753,8 +18446,9 @@
         <v>945.45</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
+        <f t="shared" si="0"/>
         <v>40847</v>
       </c>
       <c r="B48">
@@ -18830,8 +18524,9 @@
         <v>953.56</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
+        <f t="shared" si="0"/>
         <v>40877</v>
       </c>
       <c r="B49">
@@ -18907,9 +18602,10 @@
         <v>947.78</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>40907</v>
+        <f t="shared" si="0"/>
+        <v>40908</v>
       </c>
       <c r="B50">
         <v>120.88</v>
@@ -18984,8 +18680,9 @@
         <v>946.55</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
+        <f t="shared" si="0"/>
         <v>40939</v>
       </c>
       <c r="B51">
@@ -19061,8 +18758,9 @@
         <v>951.83</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
+        <f t="shared" si="0"/>
         <v>40968</v>
       </c>
       <c r="B52">
@@ -19138,9 +18836,10 @@
         <v>956.32</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>40998</v>
+        <f t="shared" si="0"/>
+        <v>40999</v>
       </c>
       <c r="B53">
         <v>108.75</v>
@@ -19215,8 +18914,9 @@
         <v>952.02</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
+        <f t="shared" si="0"/>
         <v>41029</v>
       </c>
       <c r="B54">
@@ -19292,8 +18992,9 @@
         <v>949.37</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
+        <f t="shared" si="0"/>
         <v>41060</v>
       </c>
       <c r="B55">
@@ -19369,9 +19070,10 @@
         <v>947.08</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>41089</v>
+        <f t="shared" si="0"/>
+        <v>41090</v>
       </c>
       <c r="B56">
         <v>127.39</v>
@@ -19446,8 +19148,9 @@
         <v>947.75</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
+        <f t="shared" si="0"/>
         <v>41121</v>
       </c>
       <c r="B57">
@@ -19523,8 +19226,9 @@
         <v>945.54</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
+        <f t="shared" si="0"/>
         <v>41152</v>
       </c>
       <c r="B58">
@@ -19600,9 +19304,10 @@
         <v>948.05</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>41180</v>
+        <f t="shared" si="0"/>
+        <v>41182</v>
       </c>
       <c r="B59">
         <v>126.87</v>
@@ -19677,8 +19382,9 @@
         <v>946.65</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
+        <f t="shared" si="0"/>
         <v>41213</v>
       </c>
       <c r="B60">
@@ -19754,8 +19460,9 @@
         <v>944.09</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
+        <f t="shared" si="0"/>
         <v>41243</v>
       </c>
       <c r="B61">
@@ -19831,8 +19538,9 @@
         <v>949.92</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
+        <f t="shared" si="0"/>
         <v>41274</v>
       </c>
       <c r="B62">
@@ -19908,8 +19616,9 @@
         <v>954.86</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
+        <f t="shared" si="0"/>
         <v>41305</v>
       </c>
       <c r="B63">
@@ -19985,8 +19694,9 @@
         <v>957.4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
+        <f t="shared" si="0"/>
         <v>41333</v>
       </c>
       <c r="B64">
@@ -20062,9 +19772,10 @@
         <v>960.14</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>41362</v>
+        <f t="shared" si="0"/>
+        <v>41364</v>
       </c>
       <c r="B65">
         <v>119.18</v>
@@ -20139,8 +19850,9 @@
         <v>961.61</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
+        <f t="shared" si="0"/>
         <v>41394</v>
       </c>
       <c r="B66">
@@ -20216,8 +19928,9 @@
         <v>962.97</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
+        <f t="shared" si="0"/>
         <v>41425</v>
       </c>
       <c r="B67">
@@ -20293,9 +20006,10 @@
         <v>971.45</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>41453</v>
+        <f t="shared" ref="A68:A131" si="1">EOMONTH(A67,1)</f>
+        <v>41455</v>
       </c>
       <c r="B68">
         <v>110.27</v>
@@ -20370,8 +20084,9 @@
         <v>971.23</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
+        <f t="shared" si="1"/>
         <v>41486</v>
       </c>
       <c r="B69">
@@ -20447,9 +20162,10 @@
         <v>977.25</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>41516</v>
+        <f t="shared" si="1"/>
+        <v>41517</v>
       </c>
       <c r="B70">
         <v>105.79</v>
@@ -20524,8 +20240,9 @@
         <v>970.23</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
+        <f t="shared" si="1"/>
         <v>41547</v>
       </c>
       <c r="B71">
@@ -20601,8 +20318,9 @@
         <v>972.33</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
+        <f t="shared" si="1"/>
         <v>41578</v>
       </c>
       <c r="B72">
@@ -20678,9 +20396,10 @@
         <v>981.77</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>41607</v>
+        <f t="shared" si="1"/>
+        <v>41608</v>
       </c>
       <c r="B73">
         <v>103.01</v>
@@ -20755,8 +20474,9 @@
         <v>986.18</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
+        <f t="shared" si="1"/>
         <v>41639</v>
       </c>
       <c r="B74">
@@ -20832,8 +20552,9 @@
         <v>989</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
+        <f t="shared" si="1"/>
         <v>41670</v>
       </c>
       <c r="B75">
@@ -20909,8 +20630,9 @@
         <v>995.73</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
+        <f t="shared" si="1"/>
         <v>41698</v>
       </c>
       <c r="B76">
@@ -20986,8 +20708,9 @@
         <v>1001.92</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
+        <f t="shared" si="1"/>
         <v>41729</v>
       </c>
       <c r="B77">
@@ -21063,8 +20786,9 @@
         <v>1001.99</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
+        <f t="shared" si="1"/>
         <v>41759</v>
       </c>
       <c r="B78">
@@ -21140,9 +20864,10 @@
         <v>999.33</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>41789</v>
+        <f t="shared" si="1"/>
+        <v>41790</v>
       </c>
       <c r="B79">
         <v>120.76</v>
@@ -21217,8 +20942,9 @@
         <v>1000.28</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
+        <f t="shared" si="1"/>
         <v>41820</v>
       </c>
       <c r="B80">
@@ -21294,8 +21020,9 @@
         <v>1007.02</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
+        <f t="shared" si="1"/>
         <v>41851</v>
       </c>
       <c r="B81">
@@ -21371,9 +21098,10 @@
         <v>1001.15</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>41880</v>
+        <f t="shared" si="1"/>
+        <v>41882</v>
       </c>
       <c r="B82">
         <v>130.26</v>
@@ -21448,8 +21176,9 @@
         <v>1008.67</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
+        <f t="shared" si="1"/>
         <v>41912</v>
       </c>
       <c r="B83">
@@ -21525,8 +21254,9 @@
         <v>1006.78</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
+        <f t="shared" si="1"/>
         <v>41943</v>
       </c>
       <c r="B84">
@@ -21602,9 +21332,10 @@
         <v>1003.23</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>41971</v>
+        <f t="shared" si="1"/>
+        <v>41973</v>
       </c>
       <c r="B85">
         <v>136.76</v>
@@ -21679,8 +21410,9 @@
         <v>1003.29</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
+        <f t="shared" si="1"/>
         <v>42004</v>
       </c>
       <c r="B86">
@@ -21756,9 +21488,10 @@
         <v>996.78</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>42034</v>
+        <f t="shared" si="1"/>
+        <v>42035</v>
       </c>
       <c r="B87">
         <v>161.68</v>
@@ -21833,9 +21566,10 @@
         <v>1002.84</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>42062</v>
+        <f t="shared" si="1"/>
+        <v>42063</v>
       </c>
       <c r="B88">
         <v>148.97999999999999</v>
@@ -21910,8 +21644,9 @@
         <v>1009.67</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
+        <f t="shared" si="1"/>
         <v>42094</v>
       </c>
       <c r="B89">
@@ -21987,8 +21722,9 @@
         <v>1013.49</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
+        <f t="shared" si="1"/>
         <v>42124</v>
       </c>
       <c r="B90">
@@ -22064,9 +21800,10 @@
         <v>1014.72</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>42153</v>
+        <f t="shared" si="1"/>
+        <v>42155</v>
       </c>
       <c r="B91">
         <v>139.33000000000001</v>
@@ -22141,8 +21878,9 @@
         <v>1020.72</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
+        <f t="shared" si="1"/>
         <v>42185</v>
       </c>
       <c r="B92">
@@ -22218,8 +21956,9 @@
         <v>1016.84</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
+        <f t="shared" si="1"/>
         <v>42216</v>
       </c>
       <c r="B93">
@@ -22295,8 +22034,9 @@
         <v>1019.27</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
+        <f t="shared" si="1"/>
         <v>42247</v>
       </c>
       <c r="B94">
@@ -22372,8 +22112,9 @@
         <v>1020.55</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
+        <f t="shared" si="1"/>
         <v>42277</v>
       </c>
       <c r="B95">
@@ -22449,9 +22190,10 @@
         <v>1023.04</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>42307</v>
+        <f t="shared" si="1"/>
+        <v>42308</v>
       </c>
       <c r="B96">
         <v>140.13999999999999</v>
@@ -22526,8 +22268,9 @@
         <v>1034.8399999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
+        <f t="shared" si="1"/>
         <v>42338</v>
       </c>
       <c r="B97">
@@ -22603,8 +22346,9 @@
         <v>1029.6099999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
+        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="B98">
@@ -22680,9 +22424,10 @@
         <v>1025.31</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>42398</v>
+        <f t="shared" si="1"/>
+        <v>42400</v>
       </c>
       <c r="B99">
         <v>148.25</v>
@@ -22757,8 +22502,9 @@
         <v>1025.8699999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
+        <f t="shared" si="1"/>
         <v>42429</v>
       </c>
       <c r="B100">
@@ -22834,8 +22580,9 @@
         <v>1022.32</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
+        <f t="shared" si="1"/>
         <v>42460</v>
       </c>
       <c r="B101">
@@ -22911,9 +22658,10 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>42489</v>
+        <f t="shared" si="1"/>
+        <v>42490</v>
       </c>
       <c r="B102">
         <v>153.12</v>
@@ -22988,8 +22736,9 @@
         <v>1020.07</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
+        <f t="shared" si="1"/>
         <v>42521</v>
       </c>
       <c r="B103">
@@ -23065,8 +22814,9 @@
         <v>1024.72</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
+        <f t="shared" si="1"/>
         <v>42551</v>
       </c>
       <c r="B104">
@@ -23142,9 +22892,10 @@
         <v>1022.94</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>42580</v>
+        <f t="shared" si="1"/>
+        <v>42582</v>
       </c>
       <c r="B105">
         <v>174.37</v>
@@ -23219,8 +22970,9 @@
         <v>1029.23</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
+        <f t="shared" si="1"/>
         <v>42613</v>
       </c>
       <c r="B106">
@@ -23296,8 +23048,9 @@
         <v>1028.6300000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
+        <f t="shared" si="1"/>
         <v>42643</v>
       </c>
       <c r="B107">
@@ -23373,8 +23126,9 @@
         <v>1032.06</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
+        <f t="shared" si="1"/>
         <v>42674</v>
       </c>
       <c r="B108">
@@ -23450,8 +23204,9 @@
         <v>1028.01</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
+        <f t="shared" si="1"/>
         <v>42704</v>
       </c>
       <c r="B109">
@@ -23527,9 +23282,10 @@
         <v>1026.3800000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>42734</v>
+        <f t="shared" si="1"/>
+        <v>42735</v>
       </c>
       <c r="B110">
         <v>141.04</v>
@@ -23604,8 +23360,9 @@
         <v>1028.46</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
+        <f t="shared" si="1"/>
         <v>42766</v>
       </c>
       <c r="B111">
@@ -23681,8 +23438,9 @@
         <v>1031.5</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
+        <f t="shared" si="1"/>
         <v>42794</v>
       </c>
       <c r="B112">
@@ -23758,8 +23516,9 @@
         <v>1032.6099999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
+        <f t="shared" si="1"/>
         <v>42825</v>
       </c>
       <c r="B113">
@@ -23835,9 +23594,10 @@
         <v>1035.1500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>42853</v>
+        <f t="shared" si="1"/>
+        <v>42855</v>
       </c>
       <c r="B114">
         <v>146.21</v>
@@ -23912,8 +23672,9 @@
         <v>1038.31</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
+        <f t="shared" si="1"/>
         <v>42886</v>
       </c>
       <c r="B115">
@@ -23989,8 +23750,9 @@
         <v>1041.6099999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
+        <f t="shared" si="1"/>
         <v>42916</v>
       </c>
       <c r="B116">
@@ -24066,8 +23828,9 @@
         <v>1042.6300000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
+        <f t="shared" si="1"/>
         <v>42947</v>
       </c>
       <c r="B117">
@@ -24143,8 +23906,9 @@
         <v>1047.6300000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
+        <f t="shared" si="1"/>
         <v>42978</v>
       </c>
       <c r="B118">
@@ -24220,9 +23984,10 @@
         <v>1054.49</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>43007</v>
+        <f t="shared" si="1"/>
+        <v>43008</v>
       </c>
       <c r="B119">
         <v>152.82</v>
@@ -24297,8 +24062,9 @@
         <v>1061.95</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
+        <f t="shared" si="1"/>
         <v>43039</v>
       </c>
       <c r="B120">
@@ -24374,8 +24140,9 @@
         <v>1066.3800000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
+        <f t="shared" si="1"/>
         <v>43069</v>
       </c>
       <c r="B121">
@@ -24451,9 +24218,10 @@
         <v>1060.29</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>43098</v>
+        <f t="shared" si="1"/>
+        <v>43100</v>
       </c>
       <c r="B122">
         <v>158.96</v>
@@ -24528,8 +24296,9 @@
         <v>1063.28</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
+        <f t="shared" si="1"/>
         <v>43131</v>
       </c>
       <c r="B123">
@@ -24605,8 +24374,9 @@
         <v>1071.8599999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
+        <f t="shared" si="1"/>
         <v>43159</v>
       </c>
       <c r="B124">
@@ -24682,9 +24452,10 @@
         <v>1068.06</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>43189</v>
+        <f t="shared" si="1"/>
+        <v>43190</v>
       </c>
       <c r="B125">
         <v>151.97</v>
@@ -24759,8 +24530,9 @@
         <v>1066.47</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
+        <f t="shared" si="1"/>
         <v>43220</v>
       </c>
       <c r="B126">
@@ -24836,8 +24608,9 @@
         <v>1067.4000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
+        <f t="shared" si="1"/>
         <v>43251</v>
       </c>
       <c r="B127">
@@ -24913,9 +24686,10 @@
         <v>1072.23</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>43280</v>
+        <f t="shared" si="1"/>
+        <v>43281</v>
       </c>
       <c r="B128">
         <v>153.04</v>
@@ -24990,8 +24764,9 @@
         <v>1074.3699999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
+        <f t="shared" si="1"/>
         <v>43312</v>
       </c>
       <c r="B129">
@@ -25067,8 +24842,9 @@
         <v>1073.81</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
+        <f t="shared" si="1"/>
         <v>43343</v>
       </c>
       <c r="B130">
@@ -25144,9 +24920,10 @@
         <v>1077.75</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>43371</v>
+        <f t="shared" si="1"/>
+        <v>43373</v>
       </c>
       <c r="B131">
         <v>146.29</v>
@@ -25221,8 +24998,9 @@
         <v>1073.93</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
+        <f t="shared" ref="A132:A180" si="2">EOMONTH(A131,1)</f>
         <v>43404</v>
       </c>
       <c r="B132">
@@ -25298,8 +25076,9 @@
         <v>1072.71</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
+        <f t="shared" si="2"/>
         <v>43434</v>
       </c>
       <c r="B133">
@@ -25375,8 +25154,9 @@
         <v>1068.3699999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
+        <f t="shared" si="2"/>
         <v>43465</v>
       </c>
       <c r="B134">
@@ -25452,8 +25232,9 @@
         <v>1058.08</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
+        <f t="shared" si="2"/>
         <v>43496</v>
       </c>
       <c r="B135">
@@ -25529,8 +25310,9 @@
         <v>1071.04</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
+        <f t="shared" si="2"/>
         <v>43524</v>
       </c>
       <c r="B136">
@@ -25606,9 +25388,10 @@
         <v>1069.99</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>43553</v>
+        <f t="shared" si="2"/>
+        <v>43555</v>
       </c>
       <c r="B137">
         <v>162.38999999999999</v>
@@ -25683,8 +25466,9 @@
         <v>1064.01</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
+        <f t="shared" si="2"/>
         <v>43585</v>
       </c>
       <c r="B138">
@@ -25760,8 +25544,9 @@
         <v>1067.04</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
+        <f t="shared" si="2"/>
         <v>43616</v>
       </c>
       <c r="B139">
@@ -25837,9 +25622,10 @@
         <v>1067.57</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>43644</v>
+        <f t="shared" si="2"/>
+        <v>43646</v>
       </c>
       <c r="B140">
         <v>174.84</v>
@@ -25914,8 +25700,9 @@
         <v>1075.5999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
+        <f t="shared" si="2"/>
         <v>43677</v>
       </c>
       <c r="B141">
@@ -25991,9 +25778,10 @@
         <v>1078.04</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>43707</v>
+        <f t="shared" si="2"/>
+        <v>43708</v>
       </c>
       <c r="B142">
         <v>201.15</v>
@@ -26068,8 +25856,9 @@
         <v>1082.76</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
+        <f t="shared" si="2"/>
         <v>43738</v>
       </c>
       <c r="B143">
@@ -26145,8 +25934,9 @@
         <v>1087.17</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
+        <f t="shared" si="2"/>
         <v>43769</v>
       </c>
       <c r="B144">
@@ -26222,9 +26012,10 @@
         <v>1092.23</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>43798</v>
+        <f t="shared" si="2"/>
+        <v>43799</v>
       </c>
       <c r="B145">
         <v>190.96</v>
@@ -26299,8 +26090,9 @@
         <v>1097.28</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
+        <f t="shared" si="2"/>
         <v>43830</v>
       </c>
       <c r="B146">
@@ -26376,8 +26168,9 @@
         <v>1104.27</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
+        <f t="shared" si="2"/>
         <v>43861</v>
       </c>
       <c r="B147">
@@ -26453,9 +26246,10 @@
         <v>1104.3399999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>43889</v>
+        <f t="shared" si="2"/>
+        <v>43890</v>
       </c>
       <c r="B148">
         <v>217.92</v>
@@ -26530,8 +26324,9 @@
         <v>1100.98</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
+        <f t="shared" si="2"/>
         <v>43921</v>
       </c>
       <c r="B149">
@@ -26607,8 +26402,9 @@
         <v>1040.2</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
+        <f t="shared" si="2"/>
         <v>43951</v>
       </c>
       <c r="B150">
@@ -26684,9 +26480,10 @@
         <v>1061.3800000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>43980</v>
+        <f t="shared" si="2"/>
+        <v>43982</v>
       </c>
       <c r="B151">
         <v>233.89</v>
@@ -26761,8 +26558,9 @@
         <v>1075.1300000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
+        <f t="shared" si="2"/>
         <v>44012</v>
       </c>
       <c r="B152">
@@ -26838,8 +26636,9 @@
         <v>1089.92</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
+        <f t="shared" si="2"/>
         <v>44043</v>
       </c>
       <c r="B153">
@@ -26915,8 +26714,9 @@
         <v>1100.1400000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
+        <f t="shared" si="2"/>
         <v>44074</v>
       </c>
       <c r="B154">
@@ -26992,8 +26792,9 @@
         <v>1104.95</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
+        <f t="shared" si="2"/>
         <v>44104</v>
       </c>
       <c r="B155">
@@ -27069,9 +26870,10 @@
         <v>1109.43</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>44134</v>
+        <f t="shared" si="2"/>
+        <v>44135</v>
       </c>
       <c r="B156">
         <v>225.53</v>
@@ -27146,8 +26948,9 @@
         <v>1110.24</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
+        <f t="shared" si="2"/>
         <v>44165</v>
       </c>
       <c r="B157">
@@ -27223,8 +27026,9 @@
         <v>1119.74</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
+        <f t="shared" si="2"/>
         <v>44196</v>
       </c>
       <c r="B158">
@@ -27300,9 +27104,10 @@
         <v>1134.32</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>44225</v>
+        <f t="shared" si="2"/>
+        <v>44227</v>
       </c>
       <c r="B159">
         <v>214.57</v>
@@ -27377,9 +27182,10 @@
         <v>1132.45</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>44253</v>
+        <f t="shared" si="2"/>
+        <v>44255</v>
       </c>
       <c r="B160">
         <v>199.02</v>
@@ -27454,8 +27260,9 @@
         <v>1138.6600000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
+        <f t="shared" si="2"/>
         <v>44286</v>
       </c>
       <c r="B161">
@@ -27531,8 +27338,9 @@
         <v>1141.6400000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
+        <f t="shared" si="2"/>
         <v>44316</v>
       </c>
       <c r="B162">
@@ -27608,8 +27416,9 @@
         <v>1157.2</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
+        <f t="shared" si="2"/>
         <v>44347</v>
       </c>
       <c r="B163">
@@ -27685,8 +27494,9 @@
         <v>1155.47</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
+        <f t="shared" si="2"/>
         <v>44377</v>
       </c>
       <c r="B164">
@@ -27762,9 +27572,10 @@
         <v>1162.21</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44407</v>
+        <f t="shared" si="2"/>
+        <v>44408</v>
       </c>
       <c r="B165">
         <v>212.22</v>
@@ -27839,8 +27650,9 @@
         <v>1156.17</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
+        <f t="shared" si="2"/>
         <v>44439</v>
       </c>
       <c r="B166">
@@ -27916,8 +27728,9 @@
         <v>1157.75</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
+        <f t="shared" si="2"/>
         <v>44469</v>
       </c>
       <c r="B167">
@@ -27993,9 +27806,10 @@
         <v>1154.97</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44498</v>
+        <f t="shared" si="2"/>
+        <v>44500</v>
       </c>
       <c r="B168">
         <v>211</v>
@@ -28070,8 +27884,9 @@
         <v>1156.98</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
+        <f t="shared" si="2"/>
         <v>44530</v>
       </c>
       <c r="B169">
@@ -28147,8 +27962,9 @@
         <v>1147.25</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
+        <f t="shared" si="2"/>
         <v>44561</v>
       </c>
       <c r="B170">
@@ -28224,8 +28040,9 @@
         <v>1158.1099999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
+        <f t="shared" si="2"/>
         <v>44592</v>
       </c>
       <c r="B171">
@@ -28301,8 +28118,9 @@
         <v>1147.98</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
+        <f t="shared" si="2"/>
         <v>44620</v>
       </c>
       <c r="B172">
@@ -28378,8 +28196,9 @@
         <v>1147.68</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
+        <f t="shared" si="2"/>
         <v>44651</v>
       </c>
       <c r="B173">
@@ -28455,9 +28274,10 @@
         <v>1159.4100000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44680</v>
+        <f t="shared" si="2"/>
+        <v>44681</v>
       </c>
       <c r="B174">
         <v>163.63</v>
@@ -28532,8 +28352,9 @@
         <v>1168.8800000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
+        <f t="shared" si="2"/>
         <v>44712</v>
       </c>
       <c r="B175">
@@ -28609,8 +28430,9 @@
         <v>1157.98</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
+        <f t="shared" si="2"/>
         <v>44742</v>
       </c>
       <c r="B176">
@@ -28686,9 +28508,10 @@
         <v>1147.06</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44771</v>
+        <f t="shared" si="2"/>
+        <v>44773</v>
       </c>
       <c r="B177">
         <v>159.32</v>
@@ -28763,8 +28586,9 @@
         <v>1136.73</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
+        <f t="shared" si="2"/>
         <v>44804</v>
       </c>
       <c r="B178">
@@ -28840,8 +28664,9 @@
         <v>1142.8599999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
+        <f t="shared" si="2"/>
         <v>44834</v>
       </c>
       <c r="B179">
@@ -28917,8 +28742,9 @@
         <v>1171.55</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
+        <f t="shared" si="2"/>
         <v>44865</v>
       </c>
       <c r="B180">
@@ -28992,16 +28818,6 @@
       </c>
       <c r="Y180">
         <v>1172.21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Y181">
-        <v>1158.76</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Y182">
-        <v>1158.76</v>
       </c>
     </row>
   </sheetData>
@@ -29010,7 +28826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -29018,25 +28834,25 @@
       <selection pane="bottomLeft" activeCell="B173" sqref="B173:Y180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -29113,7 +28929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>39447</v>
       </c>
@@ -29141,7 +28957,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>39478</v>
       </c>
@@ -29242,7 +29058,7 @@
         <v>4.8530463508500432E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>39507</v>
       </c>
@@ -29343,7 +29159,7 @@
         <v>-4.7911223821153204E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>39538</v>
       </c>
@@ -29444,7 +29260,7 @@
         <v>-2.3677594787337775E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>39568</v>
       </c>
@@ -29545,7 +29361,7 @@
         <v>4.1514490659240177E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>39598</v>
       </c>
@@ -29646,7 +29462,7 @@
         <v>1.2603466171250188E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>39629</v>
       </c>
@@ -29747,7 +29563,7 @@
         <v>-5.5126791620740967E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>39660</v>
       </c>
@@ -29848,7 +29664,7 @@
         <v>-1.0660852178709268E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>39689</v>
       </c>
@@ -29949,7 +29765,7 @@
         <v>7.2389912452632821E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>39721</v>
       </c>
@@ -30050,7 +29866,7 @@
         <v>-3.6989950357186108E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>39752</v>
       </c>
@@ -30151,7 +29967,7 @@
         <v>-4.3924956667774406E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>39780</v>
       </c>
@@ -30252,7 +30068,7 @@
         <v>-1.7828627252061913E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>39813</v>
       </c>
@@ -30353,7 +30169,7 @@
         <v>-2.3718439173680106E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>39843</v>
       </c>
@@ -30454,7 +30270,7 @@
         <v>2.89968652037631E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>39871</v>
       </c>
@@ -30555,7 +30371,7 @@
         <v>-1.8754395561458859E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>39903</v>
       </c>
@@ -30656,7 +30472,7 @@
         <v>-6.2142801221326538E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>39933</v>
       </c>
@@ -30757,7 +30573,7 @@
         <v>-5.0123585658155001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>39962</v>
       </c>
@@ -30858,7 +30674,7 @@
         <v>-3.7608867775138499E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>39994</v>
       </c>
@@ -30959,7 +30775,7 @@
         <v>-1.191138485992449E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>40025</v>
       </c>
@@ -31060,7 +30876,7 @@
         <v>-5.8113230311378494E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>40056</v>
       </c>
@@ -31161,7 +30977,7 @@
         <v>-5.7138234074614047E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>40086</v>
       </c>
@@ -31262,7 +31078,7 @@
         <v>-9.8659451982330282E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>40116</v>
       </c>
@@ -31363,7 +31179,7 @@
         <v>-6.0577676871544917E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>40147</v>
       </c>
@@ -31464,7 +31280,7 @@
         <v>6.6478192284842308E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>40178</v>
       </c>
@@ -31565,7 +31381,7 @@
         <v>1.5568557618925727E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>40207</v>
       </c>
@@ -31666,7 +31482,7 @@
         <v>1.3106026740359322E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>40235</v>
       </c>
@@ -31767,7 +31583,7 @@
         <v>2.2423572146066384E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>40268</v>
       </c>
@@ -31868,7 +31684,7 @@
         <v>-1.6562392435562567E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>40298</v>
       </c>
@@ -31969,7 +31785,7 @@
         <v>5.7956393732885303E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>40329</v>
       </c>
@@ -32070,7 +31886,7 @@
         <v>-6.212578680722558E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>40359</v>
       </c>
@@ -32171,7 +31987,7 @@
         <v>-6.3956003213249124E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>40389</v>
       </c>
@@ -32272,7 +32088,7 @@
         <v>6.8617390673424428E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>40421</v>
       </c>
@@ -32373,7 +32189,7 @@
         <v>-8.3694499634544561E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>40451</v>
       </c>
@@ -32474,7 +32290,7 @@
         <v>1.377613520752452E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>40480</v>
       </c>
@@ -32575,7 +32391,7 @@
         <v>6.1339641383264532E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>40512</v>
       </c>
@@ -32676,7 +32492,7 @@
         <v>-3.9490290273989093E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>40543</v>
       </c>
@@ -32777,7 +32593,7 @@
         <v>4.5266901005478477E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>40574</v>
       </c>
@@ -32878,7 +32694,7 @@
         <v>3.153386839187311E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>40602</v>
       </c>
@@ -32979,7 +32795,7 @@
         <v>1.744121196142645E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40633</v>
       </c>
@@ -33080,7 +32896,7 @@
         <v>1.1134842948101742E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40662</v>
       </c>
@@ -33181,7 +32997,7 @@
         <v>9.2105263157882256E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40694</v>
       </c>
@@ -33282,7 +33098,7 @@
         <v>-7.1695098643960176E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>40724</v>
       </c>
@@ -33383,7 +33199,7 @@
         <v>-1.3566641543256486E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>40753</v>
       </c>
@@ -33484,7 +33300,7 @@
         <v>-5.7821373257614939E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>40786</v>
       </c>
@@ -33585,7 +33401,7 @@
         <v>-9.3779208640564216E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>40816</v>
       </c>
@@ -33686,7 +33502,7 @@
         <v>-8.8271986748718057E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>40847</v>
       </c>
@@ -33787,7 +33603,7 @@
         <v>8.5779258554126159E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>40877</v>
       </c>
@@ -33888,7 +33704,7 @@
         <v>-6.0614958681152187E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>40907</v>
       </c>
@@ -33989,7 +33805,7 @@
         <v>-1.2977695245732779E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>40939</v>
       </c>
@@ -34090,7 +33906,7 @@
         <v>5.5781522370714764E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>40968</v>
       </c>
@@ -34191,7 +34007,7 @@
         <v>4.7172289169283843E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>40998</v>
       </c>
@@ -34292,7 +34108,7 @@
         <v>-4.4964028776979248E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>41029</v>
       </c>
@@ -34393,7 +34209,7 @@
         <v>-2.7835549673326243E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>41060</v>
       </c>
@@ -34494,7 +34310,7 @@
         <v>-2.412125936147036E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>41089</v>
       </c>
@@ -34595,7 +34411,7 @@
         <v>7.0743759766855874E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>41121</v>
       </c>
@@ -34696,7 +34512,7 @@
         <v>-2.3318385650225038E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>41152</v>
       </c>
@@ -34797,7 +34613,7 @@
         <v>2.65456776022166E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>41180</v>
       </c>
@@ -34898,7 +34714,7 @@
         <v>-1.4767153631137786E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>41213</v>
       </c>
@@ -34999,7 +34815,7 @@
         <v>-2.7042729625520456E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>41243</v>
       </c>
@@ -35100,7 +34916,7 @@
         <v>6.1752587147410054E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>41274</v>
       </c>
@@ -35201,7 +35017,7 @@
         <v>5.2004379316152871E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>41305</v>
       </c>
@@ -35302,7 +35118,7 @@
         <v>2.6600758226336119E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>41333</v>
       </c>
@@ -35403,7 +35219,7 @@
         <v>2.8619176937538793E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>41362</v>
       </c>
@@ -35504,7 +35320,7 @@
         <v>1.53102672526928E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>41394</v>
       </c>
@@ -35605,7 +35421,7 @@
         <v>1.4142947764685943E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>41425</v>
       </c>
@@ -35706,7 +35522,7 @@
         <v>8.8060894939614442E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>41453</v>
       </c>
@@ -35807,7 +35623,7 @@
         <v>-2.2646559267081035E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>41486</v>
       </c>
@@ -35908,7 +35724,7 @@
         <v>6.1983258342512837E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>41516</v>
       </c>
@@ -36009,7 +35825,7 @@
         <v>-7.183422870299272E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>41547</v>
       </c>
@@ -36110,7 +35926,7 @@
         <v>2.1644352370056019E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>41578</v>
       </c>
@@ -36211,7 +36027,7 @@
         <v>9.7086380138429185E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>41607</v>
       </c>
@@ -36312,7 +36128,7 @@
         <v>4.4918871018670981E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>41639</v>
       </c>
@@ -36413,7 +36229,7 @@
         <v>2.8595185463100581E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>41670</v>
       </c>
@@ -36514,7 +36330,7 @@
         <v>6.8048533872597794E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>41698</v>
       </c>
@@ -36615,7 +36431,7 @@
         <v>6.2165446456368123E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>41729</v>
       </c>
@@ -36716,7 +36532,7 @@
         <v>6.9865857553530475E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>41759</v>
       </c>
@@ -36817,7 +36633,7 @@
         <v>-2.6547171129451819E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>41789</v>
       </c>
@@ -36918,7 +36734,7 @@
         <v>9.5063692674091094E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>41820</v>
       </c>
@@ -37019,7 +36835,7 @@
         <v>6.7381133282680139E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>41851</v>
       </c>
@@ -37120,7 +36936,7 @@
         <v>-5.8290798593870763E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>41880</v>
       </c>
@@ -37221,7 +37037,7 @@
         <v>7.5113619337761062E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>41912</v>
       </c>
@@ -37322,7 +37138,7 @@
         <v>-1.8737545480682627E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>41943</v>
       </c>
@@ -37423,7 +37239,7 @@
         <v>-3.5260930888575404E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>41971</v>
       </c>
@@ -37524,7 +37340,7 @@
         <v>5.9806823958563626E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>42004</v>
       </c>
@@ -37625,7 +37441,7 @@
         <v>-6.4886523338216762E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>42034</v>
       </c>
@@ -37726,7 +37542,7 @@
         <v>6.07957623547839E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>42062</v>
       </c>
@@ -37827,7 +37643,7 @@
         <v>6.8106577320410366E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>42094</v>
       </c>
@@ -37928,7 +37744,7 @@
         <v>3.7834143829171829E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>42124</v>
       </c>
@@ -38029,7 +37845,7 @@
         <v>1.2136281561732076E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>42153</v>
       </c>
@@ -38130,7 +37946,7 @@
         <v>5.91296121097451E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>42185</v>
       </c>
@@ -38231,7 +38047,7 @@
         <v>-3.8012383415627626E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>42216</v>
       </c>
@@ -38332,7 +38148,7 @@
         <v>2.3897565005310817E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>42247</v>
       </c>
@@ -38433,7 +38249,7 @@
         <v>1.2558007201231014E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>42277</v>
       </c>
@@ -38534,7 +38350,7 @@
         <v>2.4398608593405591E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>42307</v>
       </c>
@@ -38635,7 +38451,7 @@
         <v>1.153425086018145E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>42338</v>
       </c>
@@ -38736,7 +38552,7 @@
         <v>-5.0539213791503945E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>42369</v>
       </c>
@@ -38837,7 +38653,7 @@
         <v>-4.1763386136497438E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>42398</v>
       </c>
@@ -38938,7 +38754,7 @@
         <v>5.4617627839381733E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>42429</v>
       </c>
@@ -39039,7 +38855,7 @@
         <v>-3.4604774484094936E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>42460</v>
       </c>
@@ -39140,7 +38956,7 @@
         <v>-2.8562485327491283E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>42489</v>
       </c>
@@ -39241,7 +39057,7 @@
         <v>6.5724936236999376E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>42521</v>
       </c>
@@ -39342,7 +39158,7 @@
         <v>4.5585106904428851E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>42551</v>
       </c>
@@ -39443,7 +39259,7 @@
         <v>-1.7370598797720183E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>42580</v>
       </c>
@@ -39544,7 +39360,7 @@
         <v>6.14894324202786E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>42613</v>
       </c>
@@ -39645,7 +39461,7 @@
         <v>-5.829600769506893E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>42643</v>
       </c>
@@ -39746,7 +39562,7 @@
         <v>3.3345323391305026E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>42674</v>
       </c>
@@ -39847,7 +39663,7 @@
         <v>-3.9241904540433525E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>42704</v>
       </c>
@@ -39948,7 +39764,7 @@
         <v>-1.5855876888355436E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>42734</v>
       </c>
@@ -40049,7 +39865,7 @@
         <v>2.026539878017708E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>42766</v>
       </c>
@@ -40150,7 +39966,7 @@
         <v>2.9558757754311049E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>42794</v>
       </c>
@@ -40251,7 +40067,7 @@
         <v>1.0761027629664355E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>42825</v>
       </c>
@@ -40352,7 +40168,7 @@
         <v>2.4597863665858366E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>42853</v>
       </c>
@@ -40453,7 +40269,7 @@
         <v>3.0526976766651615E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>42886</v>
       </c>
@@ -40554,7 +40370,7 @@
         <v>3.178241565620965E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>42916</v>
       </c>
@@ -40655,7 +40471,7 @@
         <v>9.7925327137815543E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>42947</v>
       </c>
@@ -40756,7 +40572,7 @@
         <v>4.7955650614310841E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>42978</v>
       </c>
@@ -40857,7 +40673,7 @@
         <v>6.548113360632879E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>43007</v>
       </c>
@@ -40958,7 +40774,7 @@
         <v>7.0745099526785538E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>43039</v>
       </c>
@@ -41059,7 +40875,7 @@
         <v>4.171571166250887E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>43069</v>
       </c>
@@ -41160,7 +40976,7 @@
         <v>-5.7109098070107223E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>43098</v>
       </c>
@@ -41261,7 +41077,7 @@
         <v>2.8199832121400537E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>43131</v>
       </c>
@@ -41362,7 +41178,7 @@
         <v>8.0693702505454379E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>43159</v>
       </c>
@@ -41463,7 +41279,7 @@
         <v>-3.5452391170488484E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>43189</v>
       </c>
@@ -41564,7 +41380,7 @@
         <v>-1.4886804112127505E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>43220</v>
       </c>
@@ -41665,7 +41481,7 @@
         <v>8.7203578159722461E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>43251</v>
       </c>
@@ -41766,7 +41582,7 @@
         <v>4.5250140528385607E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>43280</v>
       </c>
@@ -41867,7 +41683,7 @@
         <v>1.9958404446804856E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>43312</v>
       </c>
@@ -41968,7 +41784,7 @@
         <v>-5.2123570092232896E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>43343</v>
       </c>
@@ -42069,7 +41885,7 @@
         <v>3.6691779737569874E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>43371</v>
       </c>
@@ -42170,7 +41986,7 @@
         <v>-3.5444212479702752E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>43404</v>
       </c>
@@ -42271,7 +42087,7 @@
         <v>-1.1360144515937254E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>43434</v>
       </c>
@@ -42372,7 +42188,7 @@
         <v>-4.045827856550388E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>43465</v>
       </c>
@@ -42473,7 +42289,7 @@
         <v>-9.6314947068899537E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43496</v>
       </c>
@@ -42574,7 +42390,7 @@
         <v>1.2248601239981838E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>43524</v>
       </c>
@@ -42675,7 +42491,7 @@
         <v>-9.8035554227660082E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>43553</v>
       </c>
@@ -42776,7 +42592,7 @@
         <v>-5.5888372788530649E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>43585</v>
       </c>
@@ -42877,7 +42693,7 @@
         <v>2.8477175966390433E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>43616</v>
       </c>
@@ -42978,7 +42794,7 @@
         <v>4.9670115459576891E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>43644</v>
       </c>
@@ -43079,7 +42895,7 @@
         <v>7.521755013722764E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>43677</v>
       </c>
@@ -43180,7 +42996,7 @@
         <v>2.2685013015990574E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>43707</v>
       </c>
@@ -43281,7 +43097,7 @@
         <v>4.3783162034805034E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>43738</v>
       </c>
@@ -43382,7 +43198,7 @@
         <v>4.0729247478665798E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>43769</v>
       </c>
@@ -43483,7 +43299,7 @@
         <v>4.654285898249455E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>43798</v>
       </c>
@@ -43584,7 +43400,7 @@
         <v>4.6235682960549251E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>43830</v>
       </c>
@@ -43685,7 +43501,7 @@
         <v>6.3702974628172537E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>43861</v>
       </c>
@@ -43786,7 +43602,7 @@
         <v>6.3390294040344131E-5</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>43889</v>
       </c>
@@ -43887,7 +43703,7 @@
         <v>-3.0425412463551682E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>43921</v>
       </c>
@@ -43988,7 +43804,7 @@
         <v>-5.5205362495231447E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>43951</v>
       </c>
@@ -44089,7 +43905,7 @@
         <v>2.0361468948279171E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>43980</v>
       </c>
@@ -44190,7 +44006,7 @@
         <v>1.2954832388023085E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>44012</v>
       </c>
@@ -44291,7 +44107,7 @@
         <v>1.3756475961046455E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>44043</v>
       </c>
@@ -44392,7 +44208,7 @@
         <v>9.3768349970639875E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44074</v>
       </c>
@@ -44493,7 +44309,7 @@
         <v>4.3721708146235994E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44104</v>
       </c>
@@ -44594,7 +44410,7 @@
         <v>4.0544821032626466E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44134</v>
       </c>
@@ -44695,7 +44511,7 @@
         <v>7.3010464833278554E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44165</v>
       </c>
@@ -44796,7 +44612,7 @@
         <v>8.5567084594322385E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44196</v>
       </c>
@@ -44897,7 +44713,7 @@
         <v>1.3020879847107203E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44225</v>
       </c>
@@ -44998,7 +44814,7 @@
         <v>-1.6485647788982982E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>44253</v>
       </c>
@@ -45099,7 +44915,7 @@
         <v>5.4836858139433176E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>44286</v>
       </c>
@@ -45200,7 +45016,7 @@
         <v>2.6171113414013014E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>44316</v>
       </c>
@@ -45301,7 +45117,7 @@
         <v>1.36295154339372E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>44347</v>
       </c>
@@ -45402,7 +45218,7 @@
         <v>-1.4949879018320011E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44377</v>
       </c>
@@ -45503,7 +45319,7 @@
         <v>5.8331241832327851E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>44407</v>
       </c>
@@ -45604,7 +45420,7 @@
         <v>-5.196995379492475E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>44439</v>
       </c>
@@ -45705,7 +45521,7 @@
         <v>1.3665810391205735E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>44469</v>
       </c>
@@ -45806,7 +45622,7 @@
         <v>-2.4012092420643283E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>44498</v>
       </c>
@@ -45907,7 +45723,7 @@
         <v>1.7403049429856043E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>44530</v>
       </c>
@@ -46008,7 +45824,7 @@
         <v>-8.4098255803903843E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>44561</v>
       </c>
@@ -46109,7 +45925,7 @@
         <v>9.4661146219219283E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44592</v>
       </c>
@@ -46210,7 +46026,7 @@
         <v>-8.747010214919082E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>44620</v>
       </c>
@@ -46311,7 +46127,7 @@
         <v>-2.613285945747279E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>44651</v>
       </c>
@@ -46412,7 +46228,7 @@
         <v>1.0220618987871299E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f>EOMONTH(A173,1)</f>
         <v>44681</v>
@@ -46514,7 +46330,7 @@
         <v>8.1679474905340665E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ref="A175:A180" si="0">EOMONTH(A174,1)</f>
         <v>44712</v>
@@ -46616,7 +46432,7 @@
         <v>-9.3251659708439849E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" si="0"/>
         <v>44742</v>
@@ -46651,7 +46467,7 @@
       </c>
       <c r="I176" s="6">
         <f>data!I176/data!I175-1</f>
-        <v>-7.1450444013473668E-2</v>
+        <v>-7.1450444013473557E-2</v>
       </c>
       <c r="J176" s="6">
         <f>data!J176/data!J175-1</f>
@@ -46718,7 +46534,7 @@
         <v>-9.4302146841914736E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" si="0"/>
         <v>44773</v>
@@ -46820,7 +46636,7 @@
         <v>-9.0056317890955251E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" si="0"/>
         <v>44804</v>
@@ -46922,7 +46738,7 @@
         <v>5.3926614059625066E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" si="0"/>
         <v>44834</v>
@@ -47024,7 +46840,7 @@
         <v>2.5103687240781936E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" si="0"/>
         <v>44865</v>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D4A0A-2977-4886-9FE7-3C4B0D444E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E9707-9DB4-4F91-9EC0-BB3E616D6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="920" windowWidth="15670" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="615" windowWidth="19200" windowHeight="7230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -204,99 +202,147 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15391177109235035820</stp>
-        <tr r="H7" s="1"/>
+        <stp>BDH|13143508141758957083</stp>
+        <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14309177196172688359</stp>
-        <tr r="R7" s="1"/>
+        <stp>BDH|12976415469799243355</stp>
+        <tr r="T7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16841319149829204575</stp>
+        <stp>BDH|12846913110700018020</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10605591940029431696</stp>
         <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16559791485255285162</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|13864980239984823277</stp>
+        <tr r="S7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16010634124229847813</stp>
-        <tr r="U7" s="1"/>
+        <stp>BDH|12483361804497120478</stp>
+        <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16466284545796995026</stp>
-        <tr r="F7" s="1"/>
+        <stp>BDH|17110321863039016946</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15018518179361754759</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12209347536670989485</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13669283076037410617</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13794444742221657585</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15611286639032243202</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15881097696519860133</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14484735279352247394</stp>
+        <tr r="U7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C2</stp>
@@ -308,20 +354,8 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1876933372882949014</stp>
+        <stp>BDH|8505007945428267990</stp>
         <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6678966189993658993</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5914862928754717559</stp>
-        <tr r="C7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -365,56 +399,56 @@
         <stp>PX_LAST</stp>
         <tr r="X5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C16</stp>
@@ -450,90 +484,50 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9477214532556026147</stp>
-        <tr r="L7" s="1"/>
+        <stp>BDH|43685579364898016</stp>
+        <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|36292386659241103</stp>
-        <tr r="V7" s="1"/>
+        <stp>BDH|6182457108729376244</stp>
+        <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9896719964680467082</stp>
-        <tr r="P7" s="1"/>
+        <stp>BDH|9500202451907111299</stp>
+        <tr r="K7" s="1"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8623315304807624694</stp>
+        <stp>BDH|4000643446125238843</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4898401300431124594</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7399313637984075741</stp>
         <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1008198799575830707</stp>
-        <tr r="O7" s="1"/>
+        <stp>BDH|1585218511057172461</stp>
+        <tr r="P7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7035392656159871322</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9722384114934577972</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3584399528085967195</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6737116125103358117</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6311698408087231725</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6295339182207942854</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7767777114126087591</stp>
-        <tr r="T7" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|159754737960912633</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|207830744321886275</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|7717146989234872807</stp>
+        <tr r="F7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -837,15 +831,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X185"/>
+  <dimension ref="A1:X186"/>
   <sheetViews>
-    <sheetView topLeftCell="C161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185:X185"/>
+    <sheetView topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:X186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -874,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44865</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1118,98 +1112,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=179")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=180")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=179")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -14296,7 +14290,7 @@
         <v>3.2972545599999998</v>
       </c>
       <c r="T184">
-        <v>4887.8999999999996</v>
+        <v>4976.87</v>
       </c>
       <c r="U184">
         <v>1403.68</v>
@@ -14349,7 +14343,7 @@
         <v>1297.27</v>
       </c>
       <c r="M185">
-        <v>19349.467000000001</v>
+        <v>19286.981</v>
       </c>
       <c r="N185">
         <v>4128.7719999999999</v>
@@ -14370,7 +14364,7 @@
         <v>4.11230765</v>
       </c>
       <c r="T185">
-        <v>4887.8999999999996</v>
+        <v>4976.87</v>
       </c>
       <c r="U185">
         <v>1489.05</v>
@@ -14383,6 +14377,80 @@
       </c>
       <c r="X185">
         <v>350.53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B186">
+        <v>136.32</v>
+      </c>
+      <c r="C186">
+        <v>3938.05</v>
+      </c>
+      <c r="D186">
+        <v>171.22319999999999</v>
+      </c>
+      <c r="E186">
+        <v>4080.11</v>
+      </c>
+      <c r="F186">
+        <v>630.91999999999996</v>
+      </c>
+      <c r="G186">
+        <v>1886.577</v>
+      </c>
+      <c r="H186">
+        <v>1944.03</v>
+      </c>
+      <c r="I186">
+        <v>972.29</v>
+      </c>
+      <c r="J186">
+        <v>493.30450000000002</v>
+      </c>
+      <c r="K186">
+        <v>1412.32</v>
+      </c>
+      <c r="L186">
+        <v>1266.26</v>
+      </c>
+      <c r="M186">
+        <v>18959.576000000001</v>
+      </c>
+      <c r="N186">
+        <v>3879.6979999999999</v>
+      </c>
+      <c r="O186">
+        <v>1718.69</v>
+      </c>
+      <c r="P186">
+        <v>392.34</v>
+      </c>
+      <c r="Q186">
+        <v>162.4709</v>
+      </c>
+      <c r="R186">
+        <v>4.1383099999999997</v>
+      </c>
+      <c r="S186">
+        <v>4.3319210000000004</v>
+      </c>
+      <c r="T186">
+        <v>4976.87</v>
+      </c>
+      <c r="U186">
+        <v>1600.06</v>
+      </c>
+      <c r="V186">
+        <v>2358.4470000000001</v>
+      </c>
+      <c r="W186">
+        <v>135.875</v>
+      </c>
+      <c r="X186">
+        <v>371.08</v>
       </c>
     </row>
   </sheetData>
@@ -14392,10 +14460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X180"/>
+  <dimension ref="A1:X181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A181" sqref="A181:X181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27734,6 +27802,80 @@
       </c>
       <c r="X180">
         <v>350.53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B181">
+        <v>136.32</v>
+      </c>
+      <c r="C181">
+        <v>3938.05</v>
+      </c>
+      <c r="D181">
+        <v>171.22319999999999</v>
+      </c>
+      <c r="E181">
+        <v>4080.11</v>
+      </c>
+      <c r="F181">
+        <v>630.91999999999996</v>
+      </c>
+      <c r="G181">
+        <v>1886.577</v>
+      </c>
+      <c r="H181">
+        <v>1944.03</v>
+      </c>
+      <c r="I181">
+        <v>972.29</v>
+      </c>
+      <c r="J181">
+        <v>493.30450000000002</v>
+      </c>
+      <c r="K181">
+        <v>1412.32</v>
+      </c>
+      <c r="L181">
+        <v>1266.26</v>
+      </c>
+      <c r="M181">
+        <v>18959.576000000001</v>
+      </c>
+      <c r="N181">
+        <v>3879.6979999999999</v>
+      </c>
+      <c r="O181">
+        <v>1718.69</v>
+      </c>
+      <c r="P181">
+        <v>392.34</v>
+      </c>
+      <c r="Q181">
+        <v>162.4709</v>
+      </c>
+      <c r="R181">
+        <v>4.1383099999999997</v>
+      </c>
+      <c r="S181">
+        <v>4.3319210000000004</v>
+      </c>
+      <c r="T181">
+        <v>4976.87</v>
+      </c>
+      <c r="U181">
+        <v>1600.06</v>
+      </c>
+      <c r="V181">
+        <v>2358.4470000000001</v>
+      </c>
+      <c r="W181">
+        <v>135.875</v>
+      </c>
+      <c r="X181">
+        <v>371.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvg9hxp\Documents\Projects\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED80F06-161A-4856-A4D9-8C2CB0AA6AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E9707-9DB4-4F91-9EC0-BB3E616D6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="615" windowWidth="19200" windowHeight="7230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
-    <definedName name="SpreadsheetBuilder_1" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
   <si>
     <t>Start Date</t>
   </si>
@@ -125,15 +125,6 @@
   <si>
     <t>SPUSTBTR Index</t>
   </si>
-  <si>
-    <t>CQ42007</t>
-  </si>
-  <si>
-    <t>HFRXAR index</t>
-  </si>
-  <si>
-    <t>CQ42022</t>
-  </si>
 </sst>
 </file>
 
@@ -202,6 +193,345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13143508141758957083</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12976415469799243355</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12846913110700018020</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10605591940029431696</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13864980239984823277</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12483361804497120478</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17110321863039016946</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15018518179361754759</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12209347536670989485</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13669283076037410617</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13794444742221657585</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15611286639032243202</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15881097696519860133</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14484735279352247394</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C9</stp>
+        <stp>PX_LAST</stp>
+        <tr r="I5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C8</stp>
+        <stp>PX_LAST</stp>
+        <tr r="H5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C7</stp>
+        <stp>PX_LAST</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C6</stp>
+        <stp>PX_LAST</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C5</stp>
+        <stp>PX_LAST</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C4</stp>
+        <stp>PX_LAST</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C3</stp>
+        <stp>PX_LAST</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C2</stp>
+        <stp>PX_LAST</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8505007945428267990</stp>
+        <tr r="W7" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C20</stp>
+        <stp>PX_LAST</stp>
+        <tr r="T5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C21</stp>
+        <stp>PX_LAST</stp>
+        <tr r="U5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C22</stp>
+        <stp>PX_LAST</stp>
+        <tr r="V5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C23</stp>
+        <stp>PX_LAST</stp>
+        <tr r="W5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C24</stp>
+        <stp>PX_LAST</stp>
+        <tr r="X5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C10</stp>
+        <stp>PX_LAST</stp>
+        <tr r="J5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C11</stp>
+        <stp>PX_LAST</stp>
+        <tr r="K5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C12</stp>
+        <stp>PX_LAST</stp>
+        <tr r="L5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C13</stp>
+        <stp>PX_LAST</stp>
+        <tr r="M5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C14</stp>
+        <stp>PX_LAST</stp>
+        <tr r="N5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C15</stp>
+        <stp>PX_LAST</stp>
+        <tr r="O5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C16</stp>
+        <stp>PX_LAST</stp>
+        <tr r="P5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C17</stp>
+        <stp>PX_LAST</stp>
+        <tr r="Q5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C18</stp>
+        <stp>PX_LAST</stp>
+        <tr r="R5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C19</stp>
+        <stp>PX_LAST</stp>
+        <tr r="S5" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|43685579364898016</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6182457108729376244</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9500202451907111299</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4000643446125238843</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4898401300431124594</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7399313637984075741</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1585218511057172461</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7717146989234872807</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,47 +831,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y187"/>
+  <dimension ref="A1:X186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:X186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -611,109 +941,102 @@
       <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" t="e">
-        <f ca="1">_xll.BFieldInfo(B$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" t="e">
-        <f ca="1">_xll.BFieldInfo(C$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" t="e">
-        <f ca="1">_xll.BFieldInfo(D$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" t="e">
-        <f ca="1">_xll.BFieldInfo(E$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" t="e">
-        <f ca="1">_xll.BFieldInfo(F$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" t="e">
-        <f ca="1">_xll.BFieldInfo(G$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" t="e">
-        <f ca="1">_xll.BFieldInfo(H$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" t="e">
-        <f ca="1">_xll.BFieldInfo(I$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" t="e">
-        <f ca="1">_xll.BFieldInfo(J$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" t="e">
-        <f ca="1">_xll.BFieldInfo(K$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L5" t="e">
-        <f ca="1">_xll.BFieldInfo(L$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M5" t="e">
-        <f ca="1">_xll.BFieldInfo(M$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" t="e">
-        <f ca="1">_xll.BFieldInfo(N$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" t="e">
-        <f ca="1">_xll.BFieldInfo(O$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P5" t="e">
-        <f ca="1">_xll.BFieldInfo(P$6)</f>
-        <v>#NAME?</v>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>_xll.BFieldInfo(B$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xll.BFieldInfo(C$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xll.BFieldInfo(D$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xll.BFieldInfo(E$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xll.BFieldInfo(F$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.BFieldInfo(G$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xll.BFieldInfo(H$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xll.BFieldInfo(I$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xll.BFieldInfo(J$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="K5" t="str">
+        <f>_xll.BFieldInfo(K$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="L5" t="str">
+        <f>_xll.BFieldInfo(L$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="M5" t="str">
+        <f>_xll.BFieldInfo(M$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="N5" t="str">
+        <f>_xll.BFieldInfo(N$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="O5" t="str">
+        <f>_xll.BFieldInfo(O$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xll.BFieldInfo(P$6)</f>
+        <v>Last Price</v>
       </c>
       <c r="Q5" t="e">
-        <f ca="1">_xll.BFieldInfo(Q$6)</f>
-        <v>#NAME?</v>
+        <f>_xll.BFieldInfo(Q$6)</f>
+        <v>#N/A</v>
       </c>
       <c r="R5" t="e">
-        <f ca="1">_xll.BFieldInfo(R$6)</f>
-        <v>#NAME?</v>
+        <f>_xll.BFieldInfo(R$6)</f>
+        <v>#N/A</v>
       </c>
       <c r="S5" t="e">
-        <f ca="1">_xll.BFieldInfo(S$6)</f>
-        <v>#NAME?</v>
+        <f>_xll.BFieldInfo(S$6)</f>
+        <v>#N/A</v>
       </c>
       <c r="T5" t="e">
-        <f ca="1">_xll.BFieldInfo(T$6)</f>
-        <v>#NAME?</v>
+        <f>_xll.BFieldInfo(T$6)</f>
+        <v>#N/A</v>
       </c>
       <c r="U5" t="e">
-        <f ca="1">_xll.BFieldInfo(U$6)</f>
-        <v>#NAME?</v>
+        <f>_xll.BFieldInfo(U$6)</f>
+        <v>#N/A</v>
       </c>
       <c r="V5" t="e">
-        <f ca="1">_xll.BFieldInfo(V$6)</f>
-        <v>#NAME?</v>
+        <f>_xll.BFieldInfo(V$6)</f>
+        <v>#N/A</v>
       </c>
       <c r="W5" t="e">
-        <f ca="1">_xll.BFieldInfo(W$6)</f>
-        <v>#NAME?</v>
+        <f>_xll.BFieldInfo(W$6)</f>
+        <v>#N/A</v>
       </c>
       <c r="X5" t="e">
-        <f ca="1">_xll.BFieldInfo(X$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y5" t="e">
-        <f ca="1">_xll.BFieldInfo(Y$6)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <f>_xll.BFieldInfo(X$6)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -786,112 +1109,105 @@
       <c r="X6" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="e">
-        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=181")</f>
-        <v>#NAME?</v>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=180")</f>
+        <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="e">
-        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" t="e">
-        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" t="e">
-        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" t="e">
-        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" t="e">
-        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" t="e">
-        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" t="e">
-        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" t="e">
-        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L7" t="e">
-        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M7" t="e">
-        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" t="e">
-        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" t="e">
-        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P7" t="e">
-        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q7" t="e">
-        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R7" t="e">
-        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S7" t="e">
-        <f ca="1">_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T7" t="e">
-        <f ca="1">_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U7" t="e">
-        <f ca="1">_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V7" t="e">
-        <f ca="1">_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W7" t="e">
-        <f ca="1">_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X7" t="e">
-        <f ca="1">_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y7" t="e">
-        <f ca="1">_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1902.17</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="E7">
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1468.36</v>
+      </c>
+      <c r="F7">
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>403.25</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>766.03700000000003</v>
+      </c>
+      <c r="H7">
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>2253.36</v>
+      </c>
+      <c r="I7">
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1245.5899999999999</v>
+      </c>
+      <c r="J7">
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>270.02620000000002</v>
+      </c>
+      <c r="K7">
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>590.78</v>
+      </c>
+      <c r="L7">
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1294.82</v>
+      </c>
+      <c r="M7">
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>12335.221</v>
+      </c>
+      <c r="N7">
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1915.1320000000001</v>
+      </c>
+      <c r="O7">
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1389.21</v>
+      </c>
+      <c r="P7">
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>255.67</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>141.76349999999999</v>
+      </c>
+      <c r="R7">
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>3.1589900000000002</v>
+      </c>
+      <c r="S7">
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>3.33792826</v>
+      </c>
+      <c r="T7">
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1412.28</v>
+      </c>
+      <c r="U7">
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>996.96</v>
+      </c>
+      <c r="V7">
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>849.221</v>
+      </c>
+      <c r="W7" t="str">
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="X7">
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>221.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39478</v>
       </c>
@@ -964,11 +1280,8 @@
       <c r="X8">
         <v>227.77</v>
       </c>
-      <c r="Y8">
-        <v>1175.0899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39507</v>
       </c>
@@ -1041,11 +1354,8 @@
       <c r="X9">
         <v>228.89</v>
       </c>
-      <c r="Y9">
-        <v>1169.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39538</v>
       </c>
@@ -1118,11 +1428,8 @@
       <c r="X10">
         <v>229.84</v>
       </c>
-      <c r="Y10">
-        <v>1141.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39568</v>
       </c>
@@ -1195,11 +1502,8 @@
       <c r="X11">
         <v>226.4</v>
       </c>
-      <c r="Y11">
-        <v>1146.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39598</v>
       </c>
@@ -1272,11 +1576,8 @@
       <c r="X12">
         <v>222.03</v>
       </c>
-      <c r="Y12">
-        <v>1160.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39629</v>
       </c>
@@ -1290,7 +1591,7 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="F13">
         <v>355.4</v>
@@ -1349,11 +1650,8 @@
       <c r="X13">
         <v>225.95</v>
       </c>
-      <c r="Y13">
-        <v>1160.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39660</v>
       </c>
@@ -1426,11 +1724,8 @@
       <c r="X14">
         <v>226.1</v>
       </c>
-      <c r="Y14">
-        <v>1147.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39689</v>
       </c>
@@ -1503,11 +1798,8 @@
       <c r="X15">
         <v>231.7</v>
       </c>
-      <c r="Y15">
-        <v>1156.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39721</v>
       </c>
@@ -1580,11 +1872,8 @@
       <c r="X16">
         <v>231.67</v>
       </c>
-      <c r="Y16">
-        <v>1113.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39752</v>
       </c>
@@ -1657,11 +1946,8 @@
       <c r="X17">
         <v>223.83</v>
       </c>
-      <c r="Y17">
-        <v>1064.58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39780</v>
       </c>
@@ -1734,11 +2020,8 @@
       <c r="X18">
         <v>254.45</v>
       </c>
-      <c r="Y18">
-        <v>1045.5999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39813</v>
       </c>
@@ -1811,11 +2094,8 @@
       <c r="X19">
         <v>275.52</v>
       </c>
-      <c r="Y19">
-        <v>1020.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39843</v>
       </c>
@@ -1888,11 +2168,8 @@
       <c r="X20">
         <v>252.9</v>
       </c>
-      <c r="Y20">
-        <v>1023.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39871</v>
       </c>
@@ -1965,11 +2242,8 @@
       <c r="X21">
         <v>248.78</v>
       </c>
-      <c r="Y21">
-        <v>1021.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39903</v>
       </c>
@@ -2042,11 +2316,8 @@
       <c r="X22">
         <v>261.64</v>
       </c>
-      <c r="Y22">
-        <v>1015.49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39933</v>
       </c>
@@ -2119,11 +2390,8 @@
       <c r="X23">
         <v>247.27</v>
       </c>
-      <c r="Y23">
-        <v>1010.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39962</v>
       </c>
@@ -2196,11 +2464,8 @@
       <c r="X24">
         <v>240.3</v>
       </c>
-      <c r="Y24">
-        <v>1006.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39994</v>
       </c>
@@ -2273,11 +2538,8 @@
       <c r="X25">
         <v>241.93</v>
       </c>
-      <c r="Y25">
-        <v>994.61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40025</v>
       </c>
@@ -2350,11 +2612,8 @@
       <c r="X26">
         <v>243.28</v>
       </c>
-      <c r="Y26">
-        <v>988.83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40056</v>
       </c>
@@ -2427,11 +2686,8 @@
       <c r="X27">
         <v>247.28</v>
       </c>
-      <c r="Y27">
-        <v>983.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40086</v>
       </c>
@@ -2504,11 +2760,8 @@
       <c r="X28">
         <v>251.11</v>
       </c>
-      <c r="Y28">
-        <v>982.21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40116</v>
       </c>
@@ -2581,11 +2834,8 @@
       <c r="X29">
         <v>248.6</v>
       </c>
-      <c r="Y29">
-        <v>976.26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40147</v>
       </c>
@@ -2658,11 +2908,8 @@
       <c r="X30">
         <v>255.21</v>
       </c>
-      <c r="Y30">
-        <v>982.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40178</v>
       </c>
@@ -2735,11 +2982,8 @@
       <c r="X31">
         <v>240.89</v>
       </c>
-      <c r="Y31">
-        <v>984.28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40207</v>
       </c>
@@ -2812,11 +3056,8 @@
       <c r="X32">
         <v>248.08</v>
       </c>
-      <c r="Y32">
-        <v>985.57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40235</v>
       </c>
@@ -2889,11 +3130,8 @@
       <c r="X33">
         <v>248.88</v>
       </c>
-      <c r="Y33">
-        <v>987.78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40268</v>
       </c>
@@ -2966,11 +3204,8 @@
       <c r="X34">
         <v>245.69</v>
       </c>
-      <c r="Y34">
-        <v>971.42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40298</v>
       </c>
@@ -3043,11 +3278,8 @@
       <c r="X35">
         <v>251.94</v>
       </c>
-      <c r="Y35">
-        <v>977.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40329</v>
       </c>
@@ -3120,11 +3352,8 @@
       <c r="X36">
         <v>260.77</v>
       </c>
-      <c r="Y36">
-        <v>970.98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40359</v>
       </c>
@@ -3197,11 +3426,8 @@
       <c r="X37">
         <v>271.02</v>
       </c>
-      <c r="Y37">
-        <v>964.77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40389</v>
       </c>
@@ -3274,11 +3500,8 @@
       <c r="X38">
         <v>273.64999999999998</v>
       </c>
-      <c r="Y38">
-        <v>971.39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40421</v>
       </c>
@@ -3351,11 +3574,8 @@
       <c r="X39">
         <v>290.10000000000002</v>
       </c>
-      <c r="Y39">
-        <v>963.26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40451</v>
       </c>
@@ -3428,11 +3648,8 @@
       <c r="X40">
         <v>287.45999999999998</v>
       </c>
-      <c r="Y40">
-        <v>976.53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40480</v>
       </c>
@@ -3505,11 +3722,8 @@
       <c r="X41">
         <v>281.51</v>
       </c>
-      <c r="Y41">
-        <v>982.52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40512</v>
       </c>
@@ -3582,11 +3796,8 @@
       <c r="X42">
         <v>276.77</v>
       </c>
-      <c r="Y42">
-        <v>978.64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40543</v>
       </c>
@@ -3659,11 +3870,8 @@
       <c r="X43">
         <v>265.92</v>
       </c>
-      <c r="Y43">
-        <v>983.07</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40574</v>
       </c>
@@ -3736,11 +3944,8 @@
       <c r="X44">
         <v>262.69</v>
       </c>
-      <c r="Y44">
-        <v>986.17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40602</v>
       </c>
@@ -3813,11 +4018,8 @@
       <c r="X45">
         <v>265.58</v>
       </c>
-      <c r="Y45">
-        <v>987.89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40633</v>
       </c>
@@ -3890,11 +4092,8 @@
       <c r="X46">
         <v>265.16000000000003</v>
       </c>
-      <c r="Y46">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40662</v>
       </c>
@@ -3967,11 +4166,8 @@
       <c r="X47">
         <v>270</v>
       </c>
-      <c r="Y47">
-        <v>988.91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40694</v>
       </c>
@@ -4044,11 +4240,8 @@
       <c r="X48">
         <v>278.36</v>
       </c>
-      <c r="Y48">
-        <v>981.82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40724</v>
       </c>
@@ -4121,11 +4314,8 @@
       <c r="X49">
         <v>274.33</v>
       </c>
-      <c r="Y49">
-        <v>968.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40753</v>
       </c>
@@ -4198,11 +4388,8 @@
       <c r="X50">
         <v>285.69</v>
       </c>
-      <c r="Y50">
-        <v>962.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40786</v>
       </c>
@@ -4275,11 +4462,8 @@
       <c r="X51">
         <v>306.13</v>
       </c>
-      <c r="Y51">
-        <v>953.87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40816</v>
       </c>
@@ -4352,11 +4536,8 @@
       <c r="X52">
         <v>320.97000000000003</v>
       </c>
-      <c r="Y52">
-        <v>945.45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40847</v>
       </c>
@@ -4429,11 +4610,8 @@
       <c r="X53">
         <v>312.89</v>
       </c>
-      <c r="Y53">
-        <v>953.56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40877</v>
       </c>
@@ -4506,11 +4684,8 @@
       <c r="X54">
         <v>318.52</v>
       </c>
-      <c r="Y54">
-        <v>947.78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40907</v>
       </c>
@@ -4583,11 +4758,8 @@
       <c r="X55">
         <v>326.26</v>
       </c>
-      <c r="Y55">
-        <v>946.55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40939</v>
       </c>
@@ -4660,11 +4832,8 @@
       <c r="X56">
         <v>327.68</v>
       </c>
-      <c r="Y56">
-        <v>951.83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40968</v>
       </c>
@@ -4737,11 +4906,8 @@
       <c r="X57">
         <v>322.39999999999998</v>
       </c>
-      <c r="Y57">
-        <v>956.32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40998</v>
       </c>
@@ -4814,11 +4980,8 @@
       <c r="X58">
         <v>313.52999999999997</v>
       </c>
-      <c r="Y58">
-        <v>952.02</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41029</v>
       </c>
@@ -4891,11 +5054,8 @@
       <c r="X59">
         <v>325.22000000000003</v>
       </c>
-      <c r="Y59">
-        <v>949.37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41060</v>
       </c>
@@ -4968,11 +5128,8 @@
       <c r="X60">
         <v>342.13</v>
       </c>
-      <c r="Y60">
-        <v>947.08</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41089</v>
       </c>
@@ -5045,11 +5202,8 @@
       <c r="X61">
         <v>338.15</v>
       </c>
-      <c r="Y61">
-        <v>947.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41121</v>
       </c>
@@ -5122,11 +5276,8 @@
       <c r="X62">
         <v>345.18</v>
       </c>
-      <c r="Y62">
-        <v>945.54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41152</v>
       </c>
@@ -5199,11 +5350,8 @@
       <c r="X63">
         <v>344.19</v>
       </c>
-      <c r="Y63">
-        <v>948.05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41180</v>
       </c>
@@ -5276,11 +5424,8 @@
       <c r="X64">
         <v>339.6</v>
       </c>
-      <c r="Y64">
-        <v>946.65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41213</v>
       </c>
@@ -5353,11 +5498,8 @@
       <c r="X65">
         <v>339.49</v>
       </c>
-      <c r="Y65">
-        <v>944.09</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41243</v>
       </c>
@@ -5430,11 +5572,8 @@
       <c r="X66">
         <v>344.21</v>
       </c>
-      <c r="Y66">
-        <v>949.92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41274</v>
       </c>
@@ -5507,11 +5646,8 @@
       <c r="X67">
         <v>338.35</v>
       </c>
-      <c r="Y67">
-        <v>954.86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41305</v>
       </c>
@@ -5584,11 +5720,8 @@
       <c r="X68">
         <v>329.13</v>
       </c>
-      <c r="Y68">
-        <v>957.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41333</v>
       </c>
@@ -5661,11 +5794,8 @@
       <c r="X69">
         <v>333.3</v>
       </c>
-      <c r="Y69">
-        <v>960.14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41362</v>
       </c>
@@ -5738,11 +5868,8 @@
       <c r="X70">
         <v>334.92</v>
       </c>
-      <c r="Y70">
-        <v>961.61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41394</v>
       </c>
@@ -5815,11 +5942,8 @@
       <c r="X71">
         <v>344</v>
       </c>
-      <c r="Y71">
-        <v>962.97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41425</v>
       </c>
@@ -5892,11 +6016,8 @@
       <c r="X72">
         <v>326.89999999999998</v>
       </c>
-      <c r="Y72">
-        <v>971.45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41453</v>
       </c>
@@ -5969,11 +6090,8 @@
       <c r="X73">
         <v>317.14</v>
       </c>
-      <c r="Y73">
-        <v>971.23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41486</v>
       </c>
@@ -6046,11 +6164,8 @@
       <c r="X74">
         <v>312.99</v>
       </c>
-      <c r="Y74">
-        <v>977.25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41516</v>
       </c>
@@ -6123,11 +6238,8 @@
       <c r="X75">
         <v>311.27</v>
       </c>
-      <c r="Y75">
-        <v>970.23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41547</v>
       </c>
@@ -6200,11 +6312,8 @@
       <c r="X76">
         <v>314.74</v>
       </c>
-      <c r="Y76">
-        <v>972.33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41578</v>
       </c>
@@ -6277,11 +6386,8 @@
       <c r="X77">
         <v>318.14999999999998</v>
       </c>
-      <c r="Y77">
-        <v>981.77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41607</v>
       </c>
@@ -6354,11 +6460,8 @@
       <c r="X78">
         <v>312.02999999999997</v>
       </c>
-      <c r="Y78">
-        <v>986.18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41639</v>
       </c>
@@ -6431,11 +6534,8 @@
       <c r="X79">
         <v>306.23</v>
       </c>
-      <c r="Y79">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41670</v>
       </c>
@@ -6508,11 +6608,8 @@
       <c r="X80">
         <v>318.85000000000002</v>
       </c>
-      <c r="Y80">
-        <v>995.73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41698</v>
       </c>
@@ -6585,11 +6682,8 @@
       <c r="X81">
         <v>321.19</v>
       </c>
-      <c r="Y81">
-        <v>1001.92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41729</v>
       </c>
@@ -6662,11 +6756,8 @@
       <c r="X82">
         <v>321.58</v>
       </c>
-      <c r="Y82">
-        <v>1001.99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41759</v>
       </c>
@@ -6739,11 +6830,8 @@
       <c r="X83">
         <v>325.74</v>
       </c>
-      <c r="Y83">
-        <v>999.33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41789</v>
       </c>
@@ -6816,11 +6904,8 @@
       <c r="X84">
         <v>333.66</v>
       </c>
-      <c r="Y84">
-        <v>1000.28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41820</v>
       </c>
@@ -6893,11 +6978,8 @@
       <c r="X85">
         <v>332.99</v>
       </c>
-      <c r="Y85">
-        <v>1007.02</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41851</v>
       </c>
@@ -6970,11 +7052,8 @@
       <c r="X86">
         <v>333.53</v>
       </c>
-      <c r="Y86">
-        <v>1001.15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41880</v>
       </c>
@@ -7047,11 +7126,8 @@
       <c r="X87">
         <v>343.56</v>
       </c>
-      <c r="Y87">
-        <v>1008.67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41912</v>
       </c>
@@ -7124,11 +7200,8 @@
       <c r="X88">
         <v>338.2</v>
       </c>
-      <c r="Y88">
-        <v>1006.78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41943</v>
       </c>
@@ -7201,11 +7274,8 @@
       <c r="X89">
         <v>346.02</v>
       </c>
-      <c r="Y89">
-        <v>1003.23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41971</v>
       </c>
@@ -7278,11 +7348,8 @@
       <c r="X90">
         <v>353.34</v>
       </c>
-      <c r="Y90">
-        <v>1003.29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42004</v>
       </c>
@@ -7355,11 +7422,8 @@
       <c r="X91">
         <v>358.15</v>
       </c>
-      <c r="Y91">
-        <v>996.78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -7432,11 +7496,8 @@
       <c r="X92">
         <v>374.8</v>
       </c>
-      <c r="Y92">
-        <v>1002.84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42062</v>
       </c>
@@ -7509,11 +7570,8 @@
       <c r="X93">
         <v>362.28</v>
       </c>
-      <c r="Y93">
-        <v>1009.67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42094</v>
       </c>
@@ -7586,11 +7644,8 @@
       <c r="X94">
         <v>366.83</v>
       </c>
-      <c r="Y94">
-        <v>1013.49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42124</v>
       </c>
@@ -7663,11 +7718,8 @@
       <c r="X95">
         <v>357.26</v>
       </c>
-      <c r="Y95">
-        <v>1014.72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42153</v>
       </c>
@@ -7740,11 +7792,8 @@
       <c r="X96">
         <v>351.82</v>
       </c>
-      <c r="Y96">
-        <v>1020.72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42185</v>
       </c>
@@ -7817,11 +7866,8 @@
       <c r="X97">
         <v>341.01</v>
       </c>
-      <c r="Y97">
-        <v>1016.84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42216</v>
       </c>
@@ -7894,11 +7940,8 @@
       <c r="X98">
         <v>352.54</v>
       </c>
-      <c r="Y98">
-        <v>1019.27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42247</v>
       </c>
@@ -7971,11 +8014,8 @@
       <c r="X99">
         <v>352.97</v>
       </c>
-      <c r="Y99">
-        <v>1020.55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42277</v>
       </c>
@@ -8048,11 +8088,8 @@
       <c r="X100">
         <v>359.19</v>
       </c>
-      <c r="Y100">
-        <v>1023.04</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42307</v>
       </c>
@@ -8125,11 +8162,8 @@
       <c r="X101">
         <v>357.13</v>
       </c>
-      <c r="Y101">
-        <v>1034.8399999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42338</v>
       </c>
@@ -8202,11 +8236,8 @@
       <c r="X102">
         <v>354.81</v>
       </c>
-      <c r="Y102">
-        <v>1029.6099999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42369</v>
       </c>
@@ -8279,11 +8310,8 @@
       <c r="X103">
         <v>354.31</v>
       </c>
-      <c r="Y103">
-        <v>1025.31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42398</v>
       </c>
@@ -8356,11 +8384,8 @@
       <c r="X104">
         <v>371.17</v>
       </c>
-      <c r="Y104">
-        <v>1025.8699999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42429</v>
       </c>
@@ -8433,11 +8458,8 @@
       <c r="X105">
         <v>382.41</v>
       </c>
-      <c r="Y105">
-        <v>1022.32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42460</v>
       </c>
@@ -8510,11 +8532,8 @@
       <c r="X106">
         <v>382.3</v>
       </c>
-      <c r="Y106">
-        <v>1019.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42489</v>
       </c>
@@ -8587,11 +8606,8 @@
       <c r="X107">
         <v>379.75</v>
       </c>
-      <c r="Y107">
-        <v>1020.07</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42521</v>
       </c>
@@ -8664,11 +8680,8 @@
       <c r="X108">
         <v>383.05</v>
       </c>
-      <c r="Y108">
-        <v>1024.72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42551</v>
       </c>
@@ -8741,11 +8754,8 @@
       <c r="X109">
         <v>404.33</v>
       </c>
-      <c r="Y109">
-        <v>1022.94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42580</v>
       </c>
@@ -8818,11 +8828,8 @@
       <c r="X110">
         <v>409.33</v>
       </c>
-      <c r="Y110">
-        <v>1029.23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42613</v>
       </c>
@@ -8895,11 +8902,8 @@
       <c r="X111">
         <v>403.28</v>
       </c>
-      <c r="Y111">
-        <v>1028.6300000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42643</v>
       </c>
@@ -8972,11 +8976,8 @@
       <c r="X112">
         <v>398.14</v>
       </c>
-      <c r="Y112">
-        <v>1032.06</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42674</v>
       </c>
@@ -9049,11 +9050,8 @@
       <c r="X113">
         <v>385.37</v>
       </c>
-      <c r="Y113">
-        <v>1028.01</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42704</v>
       </c>
@@ -9126,11 +9124,8 @@
       <c r="X114">
         <v>361.58</v>
       </c>
-      <c r="Y114">
-        <v>1026.3800000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42734</v>
       </c>
@@ -9203,11 +9198,8 @@
       <c r="X115">
         <v>360.24</v>
       </c>
-      <c r="Y115">
-        <v>1028.46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42766</v>
       </c>
@@ -9280,11 +9272,8 @@
       <c r="X116">
         <v>360.86</v>
       </c>
-      <c r="Y116">
-        <v>1031.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42794</v>
       </c>
@@ -9357,11 +9346,8 @@
       <c r="X117">
         <v>365.93</v>
       </c>
-      <c r="Y117">
-        <v>1032.6099999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42825</v>
       </c>
@@ -9434,11 +9420,8 @@
       <c r="X118">
         <v>364.2</v>
       </c>
-      <c r="Y118">
-        <v>1035.1500000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -9511,11 +9494,8 @@
       <c r="X119">
         <v>369.56</v>
       </c>
-      <c r="Y119">
-        <v>1038.31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42886</v>
       </c>
@@ -9588,11 +9568,8 @@
       <c r="X120">
         <v>374.95</v>
       </c>
-      <c r="Y120">
-        <v>1041.6099999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42916</v>
       </c>
@@ -9665,11 +9642,8 @@
       <c r="X121">
         <v>374.95</v>
       </c>
-      <c r="Y121">
-        <v>1042.6300000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42947</v>
       </c>
@@ -9742,11 +9716,8 @@
       <c r="X122">
         <v>373.55</v>
       </c>
-      <c r="Y122">
-        <v>1047.6300000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42978</v>
       </c>
@@ -9819,11 +9790,8 @@
       <c r="X123">
         <v>384.51</v>
       </c>
-      <c r="Y123">
-        <v>1054.49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43007</v>
       </c>
@@ -9896,11 +9864,8 @@
       <c r="X124">
         <v>376.74</v>
       </c>
-      <c r="Y124">
-        <v>1061.95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43039</v>
       </c>
@@ -9973,11 +9938,8 @@
       <c r="X125">
         <v>376.25</v>
       </c>
-      <c r="Y125">
-        <v>1066.3800000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43069</v>
       </c>
@@ -10050,11 +10012,8 @@
       <c r="X126">
         <v>377.46</v>
       </c>
-      <c r="Y126">
-        <v>1060.29</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43098</v>
       </c>
@@ -10127,11 +10086,8 @@
       <c r="X127">
         <v>381.05</v>
       </c>
-      <c r="Y127">
-        <v>1063.28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43131</v>
       </c>
@@ -10204,11 +10160,8 @@
       <c r="X128">
         <v>368.62</v>
       </c>
-      <c r="Y128">
-        <v>1071.8599999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43159</v>
       </c>
@@ -10281,11 +10234,8 @@
       <c r="X129">
         <v>360.64</v>
       </c>
-      <c r="Y129">
-        <v>1068.06</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43189</v>
       </c>
@@ -10358,11 +10308,8 @@
       <c r="X130">
         <v>369.16</v>
       </c>
-      <c r="Y130">
-        <v>1066.47</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43220</v>
       </c>
@@ -10435,11 +10382,8 @@
       <c r="X131">
         <v>362.73</v>
       </c>
-      <c r="Y131">
-        <v>1067.4000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43251</v>
       </c>
@@ -10512,11 +10456,8 @@
       <c r="X132">
         <v>368.71</v>
       </c>
-      <c r="Y132">
-        <v>1072.23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43280</v>
       </c>
@@ -10589,11 +10530,8 @@
       <c r="X133">
         <v>368.96</v>
       </c>
-      <c r="Y133">
-        <v>1074.3699999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43312</v>
       </c>
@@ -10666,11 +10604,8 @@
       <c r="X134">
         <v>364.43</v>
       </c>
-      <c r="Y134">
-        <v>1073.81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43343</v>
       </c>
@@ -10743,11 +10678,8 @@
       <c r="X135">
         <v>370.18</v>
       </c>
-      <c r="Y135">
-        <v>1077.75</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43371</v>
       </c>
@@ -10820,11 +10752,8 @@
       <c r="X136">
         <v>361.23</v>
       </c>
-      <c r="Y136">
-        <v>1073.93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43404</v>
       </c>
@@ -10897,11 +10826,8 @@
       <c r="X137">
         <v>355.86</v>
       </c>
-      <c r="Y137">
-        <v>1072.71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43434</v>
       </c>
@@ -10974,11 +10900,8 @@
       <c r="X138">
         <v>362.77</v>
       </c>
-      <c r="Y138">
-        <v>1068.3699999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43465</v>
       </c>
@@ -11051,11 +10974,8 @@
       <c r="X139">
         <v>379.35</v>
       </c>
-      <c r="Y139">
-        <v>1058.08</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43496</v>
       </c>
@@ -11128,11 +11048,8 @@
       <c r="X140">
         <v>381.93</v>
       </c>
-      <c r="Y140">
-        <v>1071.04</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43524</v>
       </c>
@@ -11205,11 +11122,8 @@
       <c r="X141">
         <v>378.48</v>
       </c>
-      <c r="Y141">
-        <v>1069.99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43553</v>
       </c>
@@ -11282,11 +11196,8 @@
       <c r="X142">
         <v>392.83</v>
       </c>
-      <c r="Y142">
-        <v>1064.01</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43585</v>
       </c>
@@ -11359,11 +11270,8 @@
       <c r="X143">
         <v>387.91</v>
       </c>
-      <c r="Y143">
-        <v>1067.04</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43616</v>
       </c>
@@ -11436,11 +11344,8 @@
       <c r="X144">
         <v>406.85</v>
       </c>
-      <c r="Y144">
-        <v>1067.57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43644</v>
       </c>
@@ -11513,11 +11418,8 @@
       <c r="X145">
         <v>412.53</v>
       </c>
-      <c r="Y145">
-        <v>1075.5999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43677</v>
       </c>
@@ -11590,11 +11492,8 @@
       <c r="X146">
         <v>413.33</v>
       </c>
-      <c r="Y146">
-        <v>1078.04</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43707</v>
       </c>
@@ -11667,11 +11566,8 @@
       <c r="X147">
         <v>441.78</v>
       </c>
-      <c r="Y147">
-        <v>1082.76</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43738</v>
       </c>
@@ -11744,11 +11640,8 @@
       <c r="X148">
         <v>434.65</v>
       </c>
-      <c r="Y148">
-        <v>1087.17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43769</v>
       </c>
@@ -11821,11 +11714,8 @@
       <c r="X149">
         <v>432.77</v>
       </c>
-      <c r="Y149">
-        <v>1092.23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43798</v>
       </c>
@@ -11898,11 +11788,8 @@
       <c r="X150">
         <v>428.94</v>
       </c>
-      <c r="Y150">
-        <v>1097.28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43830</v>
       </c>
@@ -11975,11 +11862,8 @@
       <c r="X151">
         <v>421.26</v>
       </c>
-      <c r="Y151">
-        <v>1104.27</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43861</v>
       </c>
@@ -12052,11 +11936,8 @@
       <c r="X152">
         <v>442.44</v>
       </c>
-      <c r="Y152">
-        <v>1104.3399999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43889</v>
       </c>
@@ -12129,11 +12010,8 @@
       <c r="X153">
         <v>463.94</v>
       </c>
-      <c r="Y153">
-        <v>1100.98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43921</v>
       </c>
@@ -12206,11 +12084,8 @@
       <c r="X154">
         <v>488.19</v>
       </c>
-      <c r="Y154">
-        <v>1040.2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43951</v>
       </c>
@@ -12283,11 +12158,8 @@
       <c r="X155">
         <v>493.62</v>
       </c>
-      <c r="Y155">
-        <v>1061.3800000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43980</v>
       </c>
@@ -12360,11 +12232,8 @@
       <c r="X156">
         <v>490.71</v>
       </c>
-      <c r="Y156">
-        <v>1075.1300000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44012</v>
       </c>
@@ -12437,11 +12306,8 @@
       <c r="X157">
         <v>491.3</v>
       </c>
-      <c r="Y157">
-        <v>1089.92</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44043</v>
       </c>
@@ -12514,11 +12380,8 @@
       <c r="X158">
         <v>501.59</v>
       </c>
-      <c r="Y158">
-        <v>1100.1400000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44074</v>
       </c>
@@ -12591,11 +12454,8 @@
       <c r="X159">
         <v>488.11</v>
       </c>
-      <c r="Y159">
-        <v>1104.95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44104</v>
       </c>
@@ -12668,11 +12528,8 @@
       <c r="X160">
         <v>489.71</v>
       </c>
-      <c r="Y160">
-        <v>1109.43</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44134</v>
       </c>
@@ -12745,11 +12602,8 @@
       <c r="X161">
         <v>479.16</v>
       </c>
-      <c r="Y161">
-        <v>1110.24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44165</v>
       </c>
@@ -12822,11 +12676,8 @@
       <c r="X162">
         <v>482.66</v>
       </c>
-      <c r="Y162">
-        <v>1119.74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44196</v>
       </c>
@@ -12899,11 +12750,8 @@
       <c r="X163">
         <v>477.95</v>
       </c>
-      <c r="Y163">
-        <v>1134.32</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44225</v>
       </c>
@@ -12976,11 +12824,8 @@
       <c r="X164">
         <v>465.65</v>
       </c>
-      <c r="Y164">
-        <v>1132.45</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44253</v>
       </c>
@@ -13053,11 +12898,8 @@
       <c r="X165">
         <v>443.72</v>
       </c>
-      <c r="Y165">
-        <v>1138.6600000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44286</v>
       </c>
@@ -13130,11 +12972,8 @@
       <c r="X166">
         <v>430.85</v>
       </c>
-      <c r="Y166">
-        <v>1141.6400000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44316</v>
       </c>
@@ -13207,11 +13046,8 @@
       <c r="X167">
         <v>438.26</v>
       </c>
-      <c r="Y167">
-        <v>1157.2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44347</v>
       </c>
@@ -13284,11 +13120,8 @@
       <c r="X168">
         <v>440.6</v>
       </c>
-      <c r="Y168">
-        <v>1155.47</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44377</v>
       </c>
@@ -13361,11 +13194,8 @@
       <c r="X169">
         <v>452.49</v>
       </c>
-      <c r="Y169">
-        <v>1162.21</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44407</v>
       </c>
@@ -13438,11 +13268,8 @@
       <c r="X170">
         <v>463.68</v>
       </c>
-      <c r="Y170">
-        <v>1156.17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44439</v>
       </c>
@@ -13515,11 +13342,8 @@
       <c r="X171">
         <v>463.19</v>
       </c>
-      <c r="Y171">
-        <v>1157.75</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44469</v>
       </c>
@@ -13592,11 +13416,8 @@
       <c r="X172">
         <v>452.54</v>
       </c>
-      <c r="Y172">
-        <v>1154.97</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44498</v>
       </c>
@@ -13669,11 +13490,8 @@
       <c r="X173">
         <v>457.18</v>
       </c>
-      <c r="Y173">
-        <v>1156.98</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44530</v>
       </c>
@@ -13746,11 +13564,8 @@
       <c r="X174">
         <v>465.39</v>
       </c>
-      <c r="Y174">
-        <v>1147.25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44561</v>
       </c>
@@ -13823,11 +13638,8 @@
       <c r="X175">
         <v>460.57</v>
       </c>
-      <c r="Y175">
-        <v>1158.1099999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44592</v>
       </c>
@@ -13900,11 +13712,8 @@
       <c r="X176">
         <v>446.8</v>
       </c>
-      <c r="Y176">
-        <v>1147.98</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44620</v>
       </c>
@@ -13977,11 +13786,8 @@
       <c r="X177">
         <v>445.14</v>
       </c>
-      <c r="Y177">
-        <v>1147.68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44651</v>
       </c>
@@ -14054,11 +13860,8 @@
       <c r="X178">
         <v>426.48</v>
       </c>
-      <c r="Y178">
-        <v>1159.4100000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44680</v>
       </c>
@@ -14131,11 +13934,8 @@
       <c r="X179">
         <v>400.08</v>
       </c>
-      <c r="Y179">
-        <v>1168.8800000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44712</v>
       </c>
@@ -14208,11 +14008,8 @@
       <c r="X180">
         <v>399.6</v>
       </c>
-      <c r="Y180">
-        <v>1157.98</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44742</v>
       </c>
@@ -14285,11 +14082,8 @@
       <c r="X181">
         <v>397.76</v>
       </c>
-      <c r="Y181">
-        <v>1147.06</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44771</v>
       </c>
@@ -14362,11 +14156,8 @@
       <c r="X182">
         <v>413.89</v>
       </c>
-      <c r="Y182">
-        <v>1136.73</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44804</v>
       </c>
@@ -14439,11 +14230,8 @@
       <c r="X183">
         <v>392.91</v>
       </c>
-      <c r="Y183">
-        <v>1142.8599999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44834</v>
       </c>
@@ -14502,7 +14290,7 @@
         <v>3.2972545599999998</v>
       </c>
       <c r="T184">
-        <v>4887.8999999999996</v>
+        <v>4976.87</v>
       </c>
       <c r="U184">
         <v>1403.68</v>
@@ -14516,11 +14304,8 @@
       <c r="X184">
         <v>366.56</v>
       </c>
-      <c r="Y184">
-        <v>1171.55</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44865</v>
       </c>
@@ -14558,7 +14343,7 @@
         <v>1297.27</v>
       </c>
       <c r="M185">
-        <v>19323.833999999999</v>
+        <v>19286.981</v>
       </c>
       <c r="N185">
         <v>4128.7719999999999</v>
@@ -14579,7 +14364,7 @@
         <v>4.11230765</v>
       </c>
       <c r="T185">
-        <v>4887.8999999999996</v>
+        <v>4976.87</v>
       </c>
       <c r="U185">
         <v>1489.05</v>
@@ -14593,162 +14378,79 @@
       <c r="X185">
         <v>350.53</v>
       </c>
-      <c r="Y185">
-        <v>1172.21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44895</v>
       </c>
       <c r="B186">
-        <v>134.41</v>
+        <v>136.32</v>
       </c>
       <c r="C186">
-        <v>3897.6</v>
+        <v>3938.05</v>
       </c>
       <c r="D186">
-        <v>170.62350000000001</v>
+        <v>171.22319999999999</v>
       </c>
       <c r="E186">
-        <v>4002.16</v>
+        <v>4080.11</v>
       </c>
       <c r="F186">
-        <v>618.36</v>
+        <v>630.91999999999996</v>
       </c>
       <c r="G186">
-        <v>1852.5709999999999</v>
+        <v>1886.577</v>
       </c>
       <c r="H186">
-        <v>1919.94</v>
+        <v>1944.03</v>
       </c>
       <c r="I186">
-        <v>927.41</v>
+        <v>972.29</v>
       </c>
       <c r="J186">
-        <v>493.05410000000001</v>
+        <v>493.30450000000002</v>
       </c>
       <c r="K186">
-        <v>1404.49</v>
+        <v>1412.32</v>
       </c>
       <c r="L186">
-        <v>1268.46</v>
+        <v>1266.26</v>
       </c>
       <c r="M186">
-        <v>19323.833999999999</v>
+        <v>18959.576000000001</v>
       </c>
       <c r="N186">
-        <v>3920.5450000000001</v>
+        <v>3879.6979999999999</v>
       </c>
       <c r="O186">
         <v>1718.69</v>
       </c>
       <c r="P186">
-        <v>383.23</v>
+        <v>392.34</v>
       </c>
       <c r="Q186">
         <v>162.4709</v>
       </c>
       <c r="R186">
-        <v>4.1616299999999997</v>
+        <v>4.1383099999999997</v>
       </c>
       <c r="S186">
-        <v>4.2649957000000001</v>
+        <v>4.3319210000000004</v>
       </c>
       <c r="T186">
-        <v>4887.8999999999996</v>
+        <v>4976.87</v>
       </c>
       <c r="U186">
-        <v>1569.21</v>
+        <v>1600.06</v>
       </c>
       <c r="V186">
-        <v>2312.7049999999999</v>
+        <v>2358.4470000000001</v>
       </c>
       <c r="W186">
-        <v>136.875</v>
+        <v>135.875</v>
       </c>
       <c r="X186">
-        <v>369.28</v>
-      </c>
-      <c r="Y186">
-        <v>1158.76</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>44925</v>
-      </c>
-      <c r="B187">
-        <v>134.41</v>
-      </c>
-      <c r="C187">
-        <v>3897.6</v>
-      </c>
-      <c r="D187">
-        <v>170.62350000000001</v>
-      </c>
-      <c r="E187">
-        <v>4002.16</v>
-      </c>
-      <c r="F187">
-        <v>618.36</v>
-      </c>
-      <c r="G187">
-        <v>1852.5709999999999</v>
-      </c>
-      <c r="H187">
-        <v>1919.94</v>
-      </c>
-      <c r="I187">
-        <v>927.41</v>
-      </c>
-      <c r="J187">
-        <v>493.05410000000001</v>
-      </c>
-      <c r="K187">
-        <v>1404.49</v>
-      </c>
-      <c r="L187">
-        <v>1268.46</v>
-      </c>
-      <c r="M187">
-        <v>19323.833999999999</v>
-      </c>
-      <c r="N187">
-        <v>3920.5450000000001</v>
-      </c>
-      <c r="O187">
-        <v>1718.69</v>
-      </c>
-      <c r="P187">
-        <v>383.23</v>
-      </c>
-      <c r="Q187">
-        <v>162.4709</v>
-      </c>
-      <c r="R187">
-        <v>4.1616299999999997</v>
-      </c>
-      <c r="S187">
-        <v>4.2649957000000001</v>
-      </c>
-      <c r="T187">
-        <v>4887.8999999999996</v>
-      </c>
-      <c r="U187">
-        <v>1569.21</v>
-      </c>
-      <c r="V187">
-        <v>2312.7049999999999</v>
-      </c>
-      <c r="W187">
-        <v>136.875</v>
-      </c>
-      <c r="X187">
-        <v>369.28</v>
-      </c>
-      <c r="Y187">
-        <v>1158.76</v>
+        <v>371.08</v>
       </c>
     </row>
   </sheetData>
@@ -14758,31 +14460,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y180"/>
+  <dimension ref="A1:X181"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:X181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -14855,11 +14557,8 @@
       <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39447</v>
       </c>
@@ -14932,13 +14631,9 @@
       <c r="X2">
         <v>221.59</v>
       </c>
-      <c r="Y2">
-        <v>1174.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>EOMONTH(A2,1)</f>
         <v>39478</v>
       </c>
       <c r="B3" t="s">
@@ -15010,13 +14705,9 @@
       <c r="X3">
         <v>227.77</v>
       </c>
-      <c r="Y3">
-        <v>1175.0899999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">EOMONTH(A3,1)</f>
         <v>39507</v>
       </c>
       <c r="B4" t="s">
@@ -15088,13 +14779,9 @@
       <c r="X4">
         <v>228.89</v>
       </c>
-      <c r="Y4">
-        <v>1169.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
         <v>39538</v>
       </c>
       <c r="B5" t="s">
@@ -15166,13 +14853,9 @@
       <c r="X5">
         <v>229.84</v>
       </c>
-      <c r="Y5">
-        <v>1141.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>39568</v>
       </c>
       <c r="B6" t="s">
@@ -15244,14 +14927,10 @@
       <c r="X6">
         <v>226.4</v>
       </c>
-      <c r="Y6">
-        <v>1146.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>39599</v>
+        <v>39598</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -15322,13 +15001,9 @@
       <c r="X7">
         <v>222.03</v>
       </c>
-      <c r="Y7">
-        <v>1160.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
         <v>39629</v>
       </c>
       <c r="B8" t="s">
@@ -15400,13 +15075,9 @@
       <c r="X8">
         <v>225.95</v>
       </c>
-      <c r="Y8">
-        <v>1160.32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
         <v>39660</v>
       </c>
       <c r="B9" t="s">
@@ -15478,14 +15149,10 @@
       <c r="X9">
         <v>226.1</v>
       </c>
-      <c r="Y9">
-        <v>1147.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>39691</v>
+        <v>39689</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -15556,13 +15223,9 @@
       <c r="X10">
         <v>231.7</v>
       </c>
-      <c r="Y10">
-        <v>1156.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
         <v>39721</v>
       </c>
       <c r="B11" t="s">
@@ -15634,13 +15297,9 @@
       <c r="X11">
         <v>231.67</v>
       </c>
-      <c r="Y11">
-        <v>1113.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
         <v>39752</v>
       </c>
       <c r="B12" t="s">
@@ -15712,14 +15371,10 @@
       <c r="X12">
         <v>223.83</v>
       </c>
-      <c r="Y12">
-        <v>1064.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>39782</v>
+        <v>39780</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -15790,13 +15445,9 @@
       <c r="X13">
         <v>254.45</v>
       </c>
-      <c r="Y13">
-        <v>1045.5999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
         <v>39813</v>
       </c>
       <c r="B14" t="s">
@@ -15868,14 +15519,10 @@
       <c r="X14">
         <v>275.52</v>
       </c>
-      <c r="Y14">
-        <v>1020.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>39844</v>
+        <v>39843</v>
       </c>
       <c r="B15">
         <v>82.74</v>
@@ -15946,14 +15593,10 @@
       <c r="X15">
         <v>252.9</v>
       </c>
-      <c r="Y15">
-        <v>1023.76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>39872</v>
+        <v>39871</v>
       </c>
       <c r="B16">
         <v>80.760000000000005</v>
@@ -16024,13 +15667,9 @@
       <c r="X16">
         <v>248.78</v>
       </c>
-      <c r="Y16">
-        <v>1021.84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
         <v>39903</v>
       </c>
       <c r="B17">
@@ -16102,13 +15741,9 @@
       <c r="X17">
         <v>261.64</v>
       </c>
-      <c r="Y17">
-        <v>1015.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
         <v>39933</v>
       </c>
       <c r="B18">
@@ -16180,14 +15815,10 @@
       <c r="X18">
         <v>247.27</v>
       </c>
-      <c r="Y18">
-        <v>1010.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>39964</v>
+        <v>39962</v>
       </c>
       <c r="B19">
         <v>73.77</v>
@@ -16258,13 +15889,9 @@
       <c r="X19">
         <v>240.3</v>
       </c>
-      <c r="Y19">
-        <v>1006.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
         <v>39994</v>
       </c>
       <c r="B20">
@@ -16336,13 +15963,9 @@
       <c r="X20">
         <v>241.93</v>
       </c>
-      <c r="Y20">
-        <v>994.61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
         <v>40025</v>
       </c>
       <c r="B21">
@@ -16414,13 +16037,9 @@
       <c r="X21">
         <v>243.28</v>
       </c>
-      <c r="Y21">
-        <v>988.83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
         <v>40056</v>
       </c>
       <c r="B22">
@@ -16492,13 +16111,9 @@
       <c r="X22">
         <v>247.28</v>
       </c>
-      <c r="Y22">
-        <v>983.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
         <v>40086</v>
       </c>
       <c r="B23">
@@ -16570,14 +16185,10 @@
       <c r="X23">
         <v>251.11</v>
       </c>
-      <c r="Y23">
-        <v>982.21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>40117</v>
+        <v>40116</v>
       </c>
       <c r="B24">
         <v>76.849999999999994</v>
@@ -16648,13 +16259,9 @@
       <c r="X24">
         <v>248.6</v>
       </c>
-      <c r="Y24">
-        <v>976.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
         <v>40147</v>
       </c>
       <c r="B25">
@@ -16726,13 +16333,9 @@
       <c r="X25">
         <v>255.21</v>
       </c>
-      <c r="Y25">
-        <v>982.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
         <v>40178</v>
       </c>
       <c r="B26">
@@ -16804,14 +16407,10 @@
       <c r="X26">
         <v>240.89</v>
       </c>
-      <c r="Y26">
-        <v>984.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>40209</v>
+        <v>40207</v>
       </c>
       <c r="B27">
         <v>73.89</v>
@@ -16882,14 +16481,10 @@
       <c r="X27">
         <v>248.08</v>
       </c>
-      <c r="Y27">
-        <v>985.57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>40237</v>
+        <v>40235</v>
       </c>
       <c r="B28">
         <v>73.849999999999994</v>
@@ -16960,13 +16555,9 @@
       <c r="X28">
         <v>248.88</v>
       </c>
-      <c r="Y28">
-        <v>987.78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
         <v>40268</v>
       </c>
       <c r="B29">
@@ -17038,13 +16629,9 @@
       <c r="X29">
         <v>245.69</v>
       </c>
-      <c r="Y29">
-        <v>971.42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
         <v>40298</v>
       </c>
       <c r="B30">
@@ -17116,13 +16703,9 @@
       <c r="X30">
         <v>251.94</v>
       </c>
-      <c r="Y30">
-        <v>977.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
         <v>40329</v>
       </c>
       <c r="B31">
@@ -17194,13 +16777,9 @@
       <c r="X31">
         <v>260.77</v>
       </c>
-      <c r="Y31">
-        <v>970.98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
         <v>40359</v>
       </c>
       <c r="B32">
@@ -17272,14 +16851,10 @@
       <c r="X32">
         <v>271.02</v>
       </c>
-      <c r="Y32">
-        <v>964.77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>40390</v>
+        <v>40389</v>
       </c>
       <c r="B33">
         <v>85.56</v>
@@ -17350,13 +16925,9 @@
       <c r="X33">
         <v>273.64999999999998</v>
       </c>
-      <c r="Y33">
-        <v>971.39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
         <v>40421</v>
       </c>
       <c r="B34">
@@ -17428,13 +16999,9 @@
       <c r="X34">
         <v>290.10000000000002</v>
       </c>
-      <c r="Y34">
-        <v>963.26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
         <v>40451</v>
       </c>
       <c r="B35">
@@ -17506,14 +17073,10 @@
       <c r="X35">
         <v>287.45999999999998</v>
       </c>
-      <c r="Y35">
-        <v>976.53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>40482</v>
+        <v>40480</v>
       </c>
       <c r="B36">
         <v>85.47</v>
@@ -17584,13 +17147,9 @@
       <c r="X36">
         <v>281.51</v>
       </c>
-      <c r="Y36">
-        <v>982.52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
         <v>40512</v>
       </c>
       <c r="B37">
@@ -17662,13 +17221,9 @@
       <c r="X37">
         <v>276.77</v>
       </c>
-      <c r="Y37">
-        <v>978.64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
         <v>40543</v>
       </c>
       <c r="B38">
@@ -17740,13 +17295,9 @@
       <c r="X38">
         <v>265.92</v>
       </c>
-      <c r="Y38">
-        <v>983.07</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
         <v>40574</v>
       </c>
       <c r="B39">
@@ -17818,13 +17369,9 @@
       <c r="X39">
         <v>262.69</v>
       </c>
-      <c r="Y39">
-        <v>986.17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
         <v>40602</v>
       </c>
       <c r="B40">
@@ -17896,13 +17443,9 @@
       <c r="X40">
         <v>265.58</v>
       </c>
-      <c r="Y40">
-        <v>987.89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
         <v>40633</v>
       </c>
       <c r="B41">
@@ -17974,14 +17517,10 @@
       <c r="X41">
         <v>265.16000000000003</v>
       </c>
-      <c r="Y41">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>40663</v>
+        <v>40662</v>
       </c>
       <c r="B42">
         <v>79.92</v>
@@ -18052,13 +17591,9 @@
       <c r="X42">
         <v>270</v>
       </c>
-      <c r="Y42">
-        <v>988.91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
         <v>40694</v>
       </c>
       <c r="B43">
@@ -18130,13 +17665,9 @@
       <c r="X43">
         <v>278.36</v>
       </c>
-      <c r="Y43">
-        <v>981.82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
         <v>40724</v>
       </c>
       <c r="B44">
@@ -18208,14 +17739,10 @@
       <c r="X44">
         <v>274.33</v>
       </c>
-      <c r="Y44">
-        <v>968.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>40755</v>
+        <v>40753</v>
       </c>
       <c r="B45">
         <v>86.19</v>
@@ -18286,13 +17813,9 @@
       <c r="X45">
         <v>285.69</v>
       </c>
-      <c r="Y45">
-        <v>962.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
         <v>40786</v>
       </c>
       <c r="B46">
@@ -18364,13 +17887,9 @@
       <c r="X46">
         <v>306.13</v>
       </c>
-      <c r="Y46">
-        <v>953.87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
         <v>40816</v>
       </c>
       <c r="B47">
@@ -18442,13 +17961,9 @@
       <c r="X47">
         <v>320.97000000000003</v>
       </c>
-      <c r="Y47">
-        <v>945.45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
         <v>40847</v>
       </c>
       <c r="B48">
@@ -18520,13 +18035,9 @@
       <c r="X48">
         <v>312.89</v>
       </c>
-      <c r="Y48">
-        <v>953.56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
         <v>40877</v>
       </c>
       <c r="B49">
@@ -18598,14 +18109,10 @@
       <c r="X49">
         <v>318.52</v>
       </c>
-      <c r="Y49">
-        <v>947.78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>40908</v>
+        <v>40907</v>
       </c>
       <c r="B50">
         <v>120.88</v>
@@ -18676,13 +18183,9 @@
       <c r="X50">
         <v>326.26</v>
       </c>
-      <c r="Y50">
-        <v>946.55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
         <v>40939</v>
       </c>
       <c r="B51">
@@ -18754,13 +18257,9 @@
       <c r="X51">
         <v>327.68</v>
       </c>
-      <c r="Y51">
-        <v>951.83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
         <v>40968</v>
       </c>
       <c r="B52">
@@ -18832,14 +18331,10 @@
       <c r="X52">
         <v>322.39999999999998</v>
       </c>
-      <c r="Y52">
-        <v>956.32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B53">
         <v>108.75</v>
@@ -18910,13 +18405,9 @@
       <c r="X53">
         <v>313.52999999999997</v>
       </c>
-      <c r="Y53">
-        <v>952.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
         <v>41029</v>
       </c>
       <c r="B54">
@@ -18988,13 +18479,9 @@
       <c r="X54">
         <v>325.22000000000003</v>
       </c>
-      <c r="Y54">
-        <v>949.37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
         <v>41060</v>
       </c>
       <c r="B55">
@@ -19066,14 +18553,10 @@
       <c r="X55">
         <v>342.13</v>
       </c>
-      <c r="Y55">
-        <v>947.08</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>41090</v>
+        <v>41089</v>
       </c>
       <c r="B56">
         <v>127.39</v>
@@ -19144,13 +18627,9 @@
       <c r="X56">
         <v>338.15</v>
       </c>
-      <c r="Y56">
-        <v>947.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f t="shared" si="0"/>
         <v>41121</v>
       </c>
       <c r="B57">
@@ -19222,13 +18701,9 @@
       <c r="X57">
         <v>345.18</v>
       </c>
-      <c r="Y57">
-        <v>945.54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f t="shared" si="0"/>
         <v>41152</v>
       </c>
       <c r="B58">
@@ -19300,14 +18775,10 @@
       <c r="X58">
         <v>344.19</v>
       </c>
-      <c r="Y58">
-        <v>948.05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>41182</v>
+        <v>41180</v>
       </c>
       <c r="B59">
         <v>126.87</v>
@@ -19378,13 +18849,9 @@
       <c r="X59">
         <v>339.6</v>
       </c>
-      <c r="Y59">
-        <v>946.65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f t="shared" si="0"/>
         <v>41213</v>
       </c>
       <c r="B60">
@@ -19456,13 +18923,9 @@
       <c r="X60">
         <v>339.49</v>
       </c>
-      <c r="Y60">
-        <v>944.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
         <v>41243</v>
       </c>
       <c r="B61">
@@ -19534,13 +18997,9 @@
       <c r="X61">
         <v>344.21</v>
       </c>
-      <c r="Y61">
-        <v>949.92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f t="shared" si="0"/>
         <v>41274</v>
       </c>
       <c r="B62">
@@ -19612,13 +19071,9 @@
       <c r="X62">
         <v>338.35</v>
       </c>
-      <c r="Y62">
-        <v>954.86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f t="shared" si="0"/>
         <v>41305</v>
       </c>
       <c r="B63">
@@ -19690,13 +19145,9 @@
       <c r="X63">
         <v>329.13</v>
       </c>
-      <c r="Y63">
-        <v>957.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f t="shared" si="0"/>
         <v>41333</v>
       </c>
       <c r="B64">
@@ -19768,14 +19219,10 @@
       <c r="X64">
         <v>333.3</v>
       </c>
-      <c r="Y64">
-        <v>960.14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>41364</v>
+        <v>41362</v>
       </c>
       <c r="B65">
         <v>119.18</v>
@@ -19846,13 +19293,9 @@
       <c r="X65">
         <v>334.92</v>
       </c>
-      <c r="Y65">
-        <v>961.61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <f t="shared" si="0"/>
         <v>41394</v>
       </c>
       <c r="B66">
@@ -19924,13 +19367,9 @@
       <c r="X66">
         <v>344</v>
       </c>
-      <c r="Y66">
-        <v>962.97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f t="shared" si="0"/>
         <v>41425</v>
       </c>
       <c r="B67">
@@ -20002,14 +19441,10 @@
       <c r="X67">
         <v>326.89999999999998</v>
       </c>
-      <c r="Y67">
-        <v>971.45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f t="shared" ref="A68:A131" si="1">EOMONTH(A67,1)</f>
-        <v>41455</v>
+        <v>41453</v>
       </c>
       <c r="B68">
         <v>110.27</v>
@@ -20080,13 +19515,9 @@
       <c r="X68">
         <v>317.14</v>
       </c>
-      <c r="Y68">
-        <v>971.23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f t="shared" si="1"/>
         <v>41486</v>
       </c>
       <c r="B69">
@@ -20158,14 +19589,10 @@
       <c r="X69">
         <v>312.99</v>
       </c>
-      <c r="Y69">
-        <v>977.25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>41517</v>
+        <v>41516</v>
       </c>
       <c r="B70">
         <v>105.79</v>
@@ -20236,13 +19663,9 @@
       <c r="X70">
         <v>311.27</v>
       </c>
-      <c r="Y70">
-        <v>970.23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <f t="shared" si="1"/>
         <v>41547</v>
       </c>
       <c r="B71">
@@ -20314,13 +19737,9 @@
       <c r="X71">
         <v>314.74</v>
       </c>
-      <c r="Y71">
-        <v>972.33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f t="shared" si="1"/>
         <v>41578</v>
       </c>
       <c r="B72">
@@ -20392,14 +19811,10 @@
       <c r="X72">
         <v>318.14999999999998</v>
       </c>
-      <c r="Y72">
-        <v>981.77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>41608</v>
+        <v>41607</v>
       </c>
       <c r="B73">
         <v>103.01</v>
@@ -20470,13 +19885,9 @@
       <c r="X73">
         <v>312.02999999999997</v>
       </c>
-      <c r="Y73">
-        <v>986.18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f t="shared" si="1"/>
         <v>41639</v>
       </c>
       <c r="B74">
@@ -20548,13 +19959,9 @@
       <c r="X74">
         <v>306.23</v>
       </c>
-      <c r="Y74">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f t="shared" si="1"/>
         <v>41670</v>
       </c>
       <c r="B75">
@@ -20626,13 +20033,9 @@
       <c r="X75">
         <v>318.85000000000002</v>
       </c>
-      <c r="Y75">
-        <v>995.73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f t="shared" si="1"/>
         <v>41698</v>
       </c>
       <c r="B76">
@@ -20704,13 +20107,9 @@
       <c r="X76">
         <v>321.19</v>
       </c>
-      <c r="Y76">
-        <v>1001.92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f t="shared" si="1"/>
         <v>41729</v>
       </c>
       <c r="B77">
@@ -20782,13 +20181,9 @@
       <c r="X77">
         <v>321.58</v>
       </c>
-      <c r="Y77">
-        <v>1001.99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f t="shared" si="1"/>
         <v>41759</v>
       </c>
       <c r="B78">
@@ -20860,14 +20255,10 @@
       <c r="X78">
         <v>325.74</v>
       </c>
-      <c r="Y78">
-        <v>999.33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>41790</v>
+        <v>41789</v>
       </c>
       <c r="B79">
         <v>120.76</v>
@@ -20938,13 +20329,9 @@
       <c r="X79">
         <v>333.66</v>
       </c>
-      <c r="Y79">
-        <v>1000.28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <f t="shared" si="1"/>
         <v>41820</v>
       </c>
       <c r="B80">
@@ -21016,13 +20403,9 @@
       <c r="X80">
         <v>332.99</v>
       </c>
-      <c r="Y80">
-        <v>1007.02</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f t="shared" si="1"/>
         <v>41851</v>
       </c>
       <c r="B81">
@@ -21094,14 +20477,10 @@
       <c r="X81">
         <v>333.53</v>
       </c>
-      <c r="Y81">
-        <v>1001.15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>41882</v>
+        <v>41880</v>
       </c>
       <c r="B82">
         <v>130.26</v>
@@ -21172,13 +20551,9 @@
       <c r="X82">
         <v>343.56</v>
       </c>
-      <c r="Y82">
-        <v>1008.67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <f t="shared" si="1"/>
         <v>41912</v>
       </c>
       <c r="B83">
@@ -21250,13 +20625,9 @@
       <c r="X83">
         <v>338.2</v>
       </c>
-      <c r="Y83">
-        <v>1006.78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <f t="shared" si="1"/>
         <v>41943</v>
       </c>
       <c r="B84">
@@ -21328,14 +20699,10 @@
       <c r="X84">
         <v>346.02</v>
       </c>
-      <c r="Y84">
-        <v>1003.23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>41973</v>
+        <v>41971</v>
       </c>
       <c r="B85">
         <v>136.76</v>
@@ -21406,13 +20773,9 @@
       <c r="X85">
         <v>353.34</v>
       </c>
-      <c r="Y85">
-        <v>1003.29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <f t="shared" si="1"/>
         <v>42004</v>
       </c>
       <c r="B86">
@@ -21484,14 +20847,10 @@
       <c r="X86">
         <v>358.15</v>
       </c>
-      <c r="Y86">
-        <v>996.78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>42035</v>
+        <v>42034</v>
       </c>
       <c r="B87">
         <v>161.68</v>
@@ -21562,14 +20921,10 @@
       <c r="X87">
         <v>374.8</v>
       </c>
-      <c r="Y87">
-        <v>1002.84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>42063</v>
+        <v>42062</v>
       </c>
       <c r="B88">
         <v>148.97999999999999</v>
@@ -21640,13 +20995,9 @@
       <c r="X88">
         <v>362.28</v>
       </c>
-      <c r="Y88">
-        <v>1009.67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <f t="shared" si="1"/>
         <v>42094</v>
       </c>
       <c r="B89">
@@ -21718,13 +21069,9 @@
       <c r="X89">
         <v>366.83</v>
       </c>
-      <c r="Y89">
-        <v>1013.49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <f t="shared" si="1"/>
         <v>42124</v>
       </c>
       <c r="B90">
@@ -21796,14 +21143,10 @@
       <c r="X90">
         <v>357.26</v>
       </c>
-      <c r="Y90">
-        <v>1014.72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>42155</v>
+        <v>42153</v>
       </c>
       <c r="B91">
         <v>139.33000000000001</v>
@@ -21874,13 +21217,9 @@
       <c r="X91">
         <v>351.82</v>
       </c>
-      <c r="Y91">
-        <v>1020.72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <f t="shared" si="1"/>
         <v>42185</v>
       </c>
       <c r="B92">
@@ -21952,13 +21291,9 @@
       <c r="X92">
         <v>341.01</v>
       </c>
-      <c r="Y92">
-        <v>1016.84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <f t="shared" si="1"/>
         <v>42216</v>
       </c>
       <c r="B93">
@@ -22030,13 +21365,9 @@
       <c r="X93">
         <v>352.54</v>
       </c>
-      <c r="Y93">
-        <v>1019.27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <f t="shared" si="1"/>
         <v>42247</v>
       </c>
       <c r="B94">
@@ -22108,13 +21439,9 @@
       <c r="X94">
         <v>352.97</v>
       </c>
-      <c r="Y94">
-        <v>1020.55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <f t="shared" si="1"/>
         <v>42277</v>
       </c>
       <c r="B95">
@@ -22186,14 +21513,10 @@
       <c r="X95">
         <v>359.19</v>
       </c>
-      <c r="Y95">
-        <v>1023.04</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>42308</v>
+        <v>42307</v>
       </c>
       <c r="B96">
         <v>140.13999999999999</v>
@@ -22264,13 +21587,9 @@
       <c r="X96">
         <v>357.13</v>
       </c>
-      <c r="Y96">
-        <v>1034.8399999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <f t="shared" si="1"/>
         <v>42338</v>
       </c>
       <c r="B97">
@@ -22342,13 +21661,9 @@
       <c r="X97">
         <v>354.81</v>
       </c>
-      <c r="Y97">
-        <v>1029.6099999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f t="shared" si="1"/>
         <v>42369</v>
       </c>
       <c r="B98">
@@ -22420,14 +21735,10 @@
       <c r="X98">
         <v>354.31</v>
       </c>
-      <c r="Y98">
-        <v>1025.31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f t="shared" si="1"/>
-        <v>42400</v>
+        <v>42398</v>
       </c>
       <c r="B99">
         <v>148.25</v>
@@ -22498,13 +21809,9 @@
       <c r="X99">
         <v>371.17</v>
       </c>
-      <c r="Y99">
-        <v>1025.8699999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f t="shared" si="1"/>
         <v>42429</v>
       </c>
       <c r="B100">
@@ -22576,13 +21883,9 @@
       <c r="X100">
         <v>382.41</v>
       </c>
-      <c r="Y100">
-        <v>1022.32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f t="shared" si="1"/>
         <v>42460</v>
       </c>
       <c r="B101">
@@ -22654,14 +21957,10 @@
       <c r="X101">
         <v>382.3</v>
       </c>
-      <c r="Y101">
-        <v>1019.4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f t="shared" si="1"/>
-        <v>42490</v>
+        <v>42489</v>
       </c>
       <c r="B102">
         <v>153.12</v>
@@ -22732,13 +22031,9 @@
       <c r="X102">
         <v>379.75</v>
       </c>
-      <c r="Y102">
-        <v>1020.07</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f t="shared" si="1"/>
         <v>42521</v>
       </c>
       <c r="B103">
@@ -22810,13 +22105,9 @@
       <c r="X103">
         <v>383.05</v>
       </c>
-      <c r="Y103">
-        <v>1024.72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f t="shared" si="1"/>
         <v>42551</v>
       </c>
       <c r="B104">
@@ -22888,14 +22179,10 @@
       <c r="X104">
         <v>404.33</v>
       </c>
-      <c r="Y104">
-        <v>1022.94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <f t="shared" si="1"/>
-        <v>42582</v>
+        <v>42580</v>
       </c>
       <c r="B105">
         <v>174.37</v>
@@ -22966,13 +22253,9 @@
       <c r="X105">
         <v>409.33</v>
       </c>
-      <c r="Y105">
-        <v>1029.23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f t="shared" si="1"/>
         <v>42613</v>
       </c>
       <c r="B106">
@@ -23044,13 +22327,9 @@
       <c r="X106">
         <v>403.28</v>
       </c>
-      <c r="Y106">
-        <v>1028.6300000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f t="shared" si="1"/>
         <v>42643</v>
       </c>
       <c r="B107">
@@ -23122,13 +22401,9 @@
       <c r="X107">
         <v>398.14</v>
       </c>
-      <c r="Y107">
-        <v>1032.06</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f t="shared" si="1"/>
         <v>42674</v>
       </c>
       <c r="B108">
@@ -23200,13 +22475,9 @@
       <c r="X108">
         <v>385.37</v>
       </c>
-      <c r="Y108">
-        <v>1028.01</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <f t="shared" si="1"/>
         <v>42704</v>
       </c>
       <c r="B109">
@@ -23278,14 +22549,10 @@
       <c r="X109">
         <v>361.58</v>
       </c>
-      <c r="Y109">
-        <v>1026.3800000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <f t="shared" si="1"/>
-        <v>42735</v>
+        <v>42734</v>
       </c>
       <c r="B110">
         <v>141.04</v>
@@ -23356,13 +22623,9 @@
       <c r="X110">
         <v>360.24</v>
       </c>
-      <c r="Y110">
-        <v>1028.46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <f t="shared" si="1"/>
         <v>42766</v>
       </c>
       <c r="B111">
@@ -23434,13 +22697,9 @@
       <c r="X111">
         <v>360.86</v>
       </c>
-      <c r="Y111">
-        <v>1031.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <f t="shared" si="1"/>
         <v>42794</v>
       </c>
       <c r="B112">
@@ -23512,13 +22771,9 @@
       <c r="X112">
         <v>365.93</v>
       </c>
-      <c r="Y112">
-        <v>1032.6099999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <f t="shared" si="1"/>
         <v>42825</v>
       </c>
       <c r="B113">
@@ -23590,14 +22845,10 @@
       <c r="X113">
         <v>364.2</v>
       </c>
-      <c r="Y113">
-        <v>1035.1500000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <f t="shared" si="1"/>
-        <v>42855</v>
+        <v>42853</v>
       </c>
       <c r="B114">
         <v>146.21</v>
@@ -23668,13 +22919,9 @@
       <c r="X114">
         <v>369.56</v>
       </c>
-      <c r="Y114">
-        <v>1038.31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <f t="shared" si="1"/>
         <v>42886</v>
       </c>
       <c r="B115">
@@ -23746,13 +22993,9 @@
       <c r="X115">
         <v>374.95</v>
       </c>
-      <c r="Y115">
-        <v>1041.6099999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f t="shared" si="1"/>
         <v>42916</v>
       </c>
       <c r="B116">
@@ -23824,13 +23067,9 @@
       <c r="X116">
         <v>374.95</v>
       </c>
-      <c r="Y116">
-        <v>1042.6300000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f t="shared" si="1"/>
         <v>42947</v>
       </c>
       <c r="B117">
@@ -23902,13 +23141,9 @@
       <c r="X117">
         <v>373.55</v>
       </c>
-      <c r="Y117">
-        <v>1047.6300000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f t="shared" si="1"/>
         <v>42978</v>
       </c>
       <c r="B118">
@@ -23980,14 +23215,10 @@
       <c r="X118">
         <v>384.51</v>
       </c>
-      <c r="Y118">
-        <v>1054.49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f t="shared" si="1"/>
-        <v>43008</v>
+        <v>43007</v>
       </c>
       <c r="B119">
         <v>152.82</v>
@@ -24058,13 +23289,9 @@
       <c r="X119">
         <v>376.74</v>
       </c>
-      <c r="Y119">
-        <v>1061.95</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <f t="shared" si="1"/>
         <v>43039</v>
       </c>
       <c r="B120">
@@ -24136,13 +23363,9 @@
       <c r="X120">
         <v>376.25</v>
       </c>
-      <c r="Y120">
-        <v>1066.3800000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f t="shared" si="1"/>
         <v>43069</v>
       </c>
       <c r="B121">
@@ -24214,14 +23437,10 @@
       <c r="X121">
         <v>377.46</v>
       </c>
-      <c r="Y121">
-        <v>1060.29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <f t="shared" si="1"/>
-        <v>43100</v>
+        <v>43098</v>
       </c>
       <c r="B122">
         <v>158.96</v>
@@ -24292,13 +23511,9 @@
       <c r="X122">
         <v>381.05</v>
       </c>
-      <c r="Y122">
-        <v>1063.28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f t="shared" si="1"/>
         <v>43131</v>
       </c>
       <c r="B123">
@@ -24370,13 +23585,9 @@
       <c r="X123">
         <v>368.62</v>
       </c>
-      <c r="Y123">
-        <v>1071.8599999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f t="shared" si="1"/>
         <v>43159</v>
       </c>
       <c r="B124">
@@ -24448,14 +23659,10 @@
       <c r="X124">
         <v>360.64</v>
       </c>
-      <c r="Y124">
-        <v>1068.06</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <f t="shared" si="1"/>
-        <v>43190</v>
+        <v>43189</v>
       </c>
       <c r="B125">
         <v>151.97</v>
@@ -24526,13 +23733,9 @@
       <c r="X125">
         <v>369.16</v>
       </c>
-      <c r="Y125">
-        <v>1066.47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <f t="shared" si="1"/>
         <v>43220</v>
       </c>
       <c r="B126">
@@ -24604,13 +23807,9 @@
       <c r="X126">
         <v>362.73</v>
       </c>
-      <c r="Y126">
-        <v>1067.4000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <f t="shared" si="1"/>
         <v>43251</v>
       </c>
       <c r="B127">
@@ -24682,14 +23881,10 @@
       <c r="X127">
         <v>368.71</v>
       </c>
-      <c r="Y127">
-        <v>1072.23</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <f t="shared" si="1"/>
-        <v>43281</v>
+        <v>43280</v>
       </c>
       <c r="B128">
         <v>153.04</v>
@@ -24760,13 +23955,9 @@
       <c r="X128">
         <v>368.96</v>
       </c>
-      <c r="Y128">
-        <v>1074.3699999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <f t="shared" si="1"/>
         <v>43312</v>
       </c>
       <c r="B129">
@@ -24838,13 +24029,9 @@
       <c r="X129">
         <v>364.43</v>
       </c>
-      <c r="Y129">
-        <v>1073.81</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <f t="shared" si="1"/>
         <v>43343</v>
       </c>
       <c r="B130">
@@ -24916,14 +24103,10 @@
       <c r="X130">
         <v>370.18</v>
       </c>
-      <c r="Y130">
-        <v>1077.75</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f t="shared" si="1"/>
-        <v>43373</v>
+        <v>43371</v>
       </c>
       <c r="B131">
         <v>146.29</v>
@@ -24994,13 +24177,9 @@
       <c r="X131">
         <v>361.23</v>
       </c>
-      <c r="Y131">
-        <v>1073.93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f t="shared" ref="A132:A180" si="2">EOMONTH(A131,1)</f>
         <v>43404</v>
       </c>
       <c r="B132">
@@ -25072,13 +24251,9 @@
       <c r="X132">
         <v>355.86</v>
       </c>
-      <c r="Y132">
-        <v>1072.71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f t="shared" si="2"/>
         <v>43434</v>
       </c>
       <c r="B133">
@@ -25150,13 +24325,9 @@
       <c r="X133">
         <v>362.77</v>
       </c>
-      <c r="Y133">
-        <v>1068.3699999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f t="shared" si="2"/>
         <v>43465</v>
       </c>
       <c r="B134">
@@ -25228,13 +24399,9 @@
       <c r="X134">
         <v>379.35</v>
       </c>
-      <c r="Y134">
-        <v>1058.08</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f t="shared" si="2"/>
         <v>43496</v>
       </c>
       <c r="B135">
@@ -25306,13 +24473,9 @@
       <c r="X135">
         <v>381.93</v>
       </c>
-      <c r="Y135">
-        <v>1071.04</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f t="shared" si="2"/>
         <v>43524</v>
       </c>
       <c r="B136">
@@ -25384,14 +24547,10 @@
       <c r="X136">
         <v>378.48</v>
       </c>
-      <c r="Y136">
-        <v>1069.99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f t="shared" si="2"/>
-        <v>43555</v>
+        <v>43553</v>
       </c>
       <c r="B137">
         <v>162.38999999999999</v>
@@ -25462,13 +24621,9 @@
       <c r="X137">
         <v>392.83</v>
       </c>
-      <c r="Y137">
-        <v>1064.01</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <f t="shared" si="2"/>
         <v>43585</v>
       </c>
       <c r="B138">
@@ -25540,13 +24695,9 @@
       <c r="X138">
         <v>387.91</v>
       </c>
-      <c r="Y138">
-        <v>1067.04</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <f t="shared" si="2"/>
         <v>43616</v>
       </c>
       <c r="B139">
@@ -25618,14 +24769,10 @@
       <c r="X139">
         <v>406.85</v>
       </c>
-      <c r="Y139">
-        <v>1067.57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <f t="shared" si="2"/>
-        <v>43646</v>
+        <v>43644</v>
       </c>
       <c r="B140">
         <v>174.84</v>
@@ -25696,13 +24843,9 @@
       <c r="X140">
         <v>412.53</v>
       </c>
-      <c r="Y140">
-        <v>1075.5999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <f t="shared" si="2"/>
         <v>43677</v>
       </c>
       <c r="B141">
@@ -25774,14 +24917,10 @@
       <c r="X141">
         <v>413.33</v>
       </c>
-      <c r="Y141">
-        <v>1078.04</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <f t="shared" si="2"/>
-        <v>43708</v>
+        <v>43707</v>
       </c>
       <c r="B142">
         <v>201.15</v>
@@ -25852,13 +24991,9 @@
       <c r="X142">
         <v>441.78</v>
       </c>
-      <c r="Y142">
-        <v>1082.76</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f t="shared" si="2"/>
         <v>43738</v>
       </c>
       <c r="B143">
@@ -25930,13 +25065,9 @@
       <c r="X143">
         <v>434.65</v>
       </c>
-      <c r="Y143">
-        <v>1087.17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f t="shared" si="2"/>
         <v>43769</v>
       </c>
       <c r="B144">
@@ -26008,14 +25139,10 @@
       <c r="X144">
         <v>432.77</v>
       </c>
-      <c r="Y144">
-        <v>1092.23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" si="2"/>
-        <v>43799</v>
+        <v>43798</v>
       </c>
       <c r="B145">
         <v>190.96</v>
@@ -26086,13 +25213,9 @@
       <c r="X145">
         <v>428.94</v>
       </c>
-      <c r="Y145">
-        <v>1097.28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f t="shared" si="2"/>
         <v>43830</v>
       </c>
       <c r="B146">
@@ -26164,13 +25287,9 @@
       <c r="X146">
         <v>421.26</v>
       </c>
-      <c r="Y146">
-        <v>1104.27</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f t="shared" si="2"/>
         <v>43861</v>
       </c>
       <c r="B147">
@@ -26242,14 +25361,10 @@
       <c r="X147">
         <v>442.44</v>
       </c>
-      <c r="Y147">
-        <v>1104.3399999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="2"/>
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="B148">
         <v>217.92</v>
@@ -26320,13 +25435,9 @@
       <c r="X148">
         <v>463.94</v>
       </c>
-      <c r="Y148">
-        <v>1100.98</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="2"/>
         <v>43921</v>
       </c>
       <c r="B149">
@@ -26398,13 +25509,9 @@
       <c r="X149">
         <v>488.19</v>
       </c>
-      <c r="Y149">
-        <v>1040.2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="2"/>
         <v>43951</v>
       </c>
       <c r="B150">
@@ -26476,14 +25583,10 @@
       <c r="X150">
         <v>493.62</v>
       </c>
-      <c r="Y150">
-        <v>1061.3800000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" si="2"/>
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B151">
         <v>233.89</v>
@@ -26554,13 +25657,9 @@
       <c r="X151">
         <v>490.71</v>
       </c>
-      <c r="Y151">
-        <v>1075.1300000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f t="shared" si="2"/>
         <v>44012</v>
       </c>
       <c r="B152">
@@ -26632,13 +25731,9 @@
       <c r="X152">
         <v>491.3</v>
       </c>
-      <c r="Y152">
-        <v>1089.92</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <f t="shared" si="2"/>
         <v>44043</v>
       </c>
       <c r="B153">
@@ -26710,13 +25805,9 @@
       <c r="X153">
         <v>501.59</v>
       </c>
-      <c r="Y153">
-        <v>1100.1400000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <f t="shared" si="2"/>
         <v>44074</v>
       </c>
       <c r="B154">
@@ -26788,13 +25879,9 @@
       <c r="X154">
         <v>488.11</v>
       </c>
-      <c r="Y154">
-        <v>1104.95</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <f t="shared" si="2"/>
         <v>44104</v>
       </c>
       <c r="B155">
@@ -26866,14 +25953,10 @@
       <c r="X155">
         <v>489.71</v>
       </c>
-      <c r="Y155">
-        <v>1109.43</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <f t="shared" si="2"/>
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B156">
         <v>225.53</v>
@@ -26944,13 +26027,9 @@
       <c r="X156">
         <v>479.16</v>
       </c>
-      <c r="Y156">
-        <v>1110.24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f t="shared" si="2"/>
         <v>44165</v>
       </c>
       <c r="B157">
@@ -27022,13 +26101,9 @@
       <c r="X157">
         <v>482.66</v>
       </c>
-      <c r="Y157">
-        <v>1119.74</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" si="2"/>
         <v>44196</v>
       </c>
       <c r="B158">
@@ -27100,14 +26175,10 @@
       <c r="X158">
         <v>477.95</v>
       </c>
-      <c r="Y158">
-        <v>1134.32</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="2"/>
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="B159">
         <v>214.57</v>
@@ -27178,14 +26249,10 @@
       <c r="X159">
         <v>465.65</v>
       </c>
-      <c r="Y159">
-        <v>1132.45</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="2"/>
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="B160">
         <v>199.02</v>
@@ -27256,13 +26323,9 @@
       <c r="X160">
         <v>443.72</v>
       </c>
-      <c r="Y160">
-        <v>1138.6600000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="2"/>
         <v>44286</v>
       </c>
       <c r="B161">
@@ -27334,13 +26397,9 @@
       <c r="X161">
         <v>430.85</v>
       </c>
-      <c r="Y161">
-        <v>1141.6400000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="2"/>
         <v>44316</v>
       </c>
       <c r="B162">
@@ -27412,13 +26471,9 @@
       <c r="X162">
         <v>438.26</v>
       </c>
-      <c r="Y162">
-        <v>1157.2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="2"/>
         <v>44347</v>
       </c>
       <c r="B163">
@@ -27490,13 +26545,9 @@
       <c r="X163">
         <v>440.6</v>
       </c>
-      <c r="Y163">
-        <v>1155.47</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <f t="shared" si="2"/>
         <v>44377</v>
       </c>
       <c r="B164">
@@ -27568,14 +26619,10 @@
       <c r="X164">
         <v>452.49</v>
       </c>
-      <c r="Y164">
-        <v>1162.21</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <f t="shared" si="2"/>
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B165">
         <v>212.22</v>
@@ -27646,13 +26693,9 @@
       <c r="X165">
         <v>463.68</v>
       </c>
-      <c r="Y165">
-        <v>1156.17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <f t="shared" si="2"/>
         <v>44439</v>
       </c>
       <c r="B166">
@@ -27724,13 +26767,9 @@
       <c r="X166">
         <v>463.19</v>
       </c>
-      <c r="Y166">
-        <v>1157.75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <f t="shared" si="2"/>
         <v>44469</v>
       </c>
       <c r="B167">
@@ -27802,14 +26841,10 @@
       <c r="X167">
         <v>452.54</v>
       </c>
-      <c r="Y167">
-        <v>1154.97</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <f t="shared" si="2"/>
-        <v>44500</v>
+        <v>44498</v>
       </c>
       <c r="B168">
         <v>211</v>
@@ -27880,13 +26915,9 @@
       <c r="X168">
         <v>457.18</v>
       </c>
-      <c r="Y168">
-        <v>1156.98</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f t="shared" si="2"/>
         <v>44530</v>
       </c>
       <c r="B169">
@@ -27958,13 +26989,9 @@
       <c r="X169">
         <v>465.39</v>
       </c>
-      <c r="Y169">
-        <v>1147.25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f t="shared" si="2"/>
         <v>44561</v>
       </c>
       <c r="B170">
@@ -28036,13 +27063,9 @@
       <c r="X170">
         <v>460.57</v>
       </c>
-      <c r="Y170">
-        <v>1158.1099999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" si="2"/>
         <v>44592</v>
       </c>
       <c r="B171">
@@ -28114,13 +27137,9 @@
       <c r="X171">
         <v>446.8</v>
       </c>
-      <c r="Y171">
-        <v>1147.98</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="2"/>
         <v>44620</v>
       </c>
       <c r="B172">
@@ -28192,13 +27211,9 @@
       <c r="X172">
         <v>445.14</v>
       </c>
-      <c r="Y172">
-        <v>1147.68</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="2"/>
         <v>44651</v>
       </c>
       <c r="B173">
@@ -28270,14 +27285,10 @@
       <c r="X173">
         <v>426.48</v>
       </c>
-      <c r="Y173">
-        <v>1159.4100000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="2"/>
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B174">
         <v>163.63</v>
@@ -28316,7 +27327,7 @@
         <v>19027.263999999999</v>
       </c>
       <c r="N174">
-        <v>3829.3389999999999</v>
+        <v>3829.3380000000002</v>
       </c>
       <c r="O174">
         <v>1718.69</v>
@@ -28348,13 +27359,9 @@
       <c r="X174">
         <v>400.08</v>
       </c>
-      <c r="Y174">
-        <v>1168.8800000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="2"/>
         <v>44712</v>
       </c>
       <c r="B175">
@@ -28426,13 +27433,9 @@
       <c r="X175">
         <v>399.6</v>
       </c>
-      <c r="Y175">
-        <v>1157.98</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f t="shared" si="2"/>
         <v>44742</v>
       </c>
       <c r="B176">
@@ -28469,10 +27472,10 @@
         <v>1261.07</v>
       </c>
       <c r="M176">
-        <v>18830.867999999999</v>
+        <v>18910.812000000002</v>
       </c>
       <c r="N176">
-        <v>3919.7809999999999</v>
+        <v>3919.7820000000002</v>
       </c>
       <c r="O176">
         <v>1718.69</v>
@@ -28490,7 +27493,7 @@
         <v>1.7577757199999999</v>
       </c>
       <c r="T176">
-        <v>4887.8999999999996</v>
+        <v>4862.16</v>
       </c>
       <c r="U176">
         <v>1510.77</v>
@@ -28504,14 +27507,10 @@
       <c r="X176">
         <v>397.76</v>
       </c>
-      <c r="Y176">
-        <v>1147.06</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f t="shared" si="2"/>
-        <v>44773</v>
+        <v>44771</v>
       </c>
       <c r="B177">
         <v>159.32</v>
@@ -28547,10 +27546,10 @@
         <v>1242.3499999999999</v>
       </c>
       <c r="M177">
-        <v>18679.645</v>
+        <v>18830.867999999999</v>
       </c>
       <c r="N177">
-        <v>3747.0160000000001</v>
+        <v>3747.0189999999998</v>
       </c>
       <c r="O177">
         <v>1718.69</v>
@@ -28568,7 +27567,7 @@
         <v>2.5361553099999998</v>
       </c>
       <c r="T177">
-        <v>4887.8999999999996</v>
+        <v>4862.16</v>
       </c>
       <c r="U177">
         <v>1616.84</v>
@@ -28582,13 +27581,9 @@
       <c r="X177">
         <v>413.89</v>
       </c>
-      <c r="Y177">
-        <v>1136.73</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f t="shared" si="2"/>
         <v>44804</v>
       </c>
       <c r="B178">
@@ -28625,10 +27620,10 @@
         <v>1257.82</v>
       </c>
       <c r="M178">
-        <v>18922.542000000001</v>
+        <v>18679.645</v>
       </c>
       <c r="N178">
-        <v>3896.473</v>
+        <v>3896.5830000000001</v>
       </c>
       <c r="O178">
         <v>1718.69</v>
@@ -28660,13 +27655,9 @@
       <c r="X178">
         <v>392.91</v>
       </c>
-      <c r="Y178">
-        <v>1142.8599999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f t="shared" si="2"/>
         <v>44834</v>
       </c>
       <c r="B179">
@@ -28703,7 +27694,7 @@
         <v>1295.3699999999999</v>
       </c>
       <c r="M179">
-        <v>19166.885999999999</v>
+        <v>19245.985000000001</v>
       </c>
       <c r="N179">
         <v>4120.9750000000004</v>
@@ -28738,13 +27729,9 @@
       <c r="X179">
         <v>366.56</v>
       </c>
-      <c r="Y179">
-        <v>1171.55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <f t="shared" si="2"/>
         <v>44865</v>
       </c>
       <c r="B180">
@@ -28781,7 +27768,7 @@
         <v>1297.27</v>
       </c>
       <c r="M180">
-        <v>19323.833999999999</v>
+        <v>19349.467000000001</v>
       </c>
       <c r="N180">
         <v>4128.7719999999999</v>
@@ -28816,8 +27803,79 @@
       <c r="X180">
         <v>350.53</v>
       </c>
-      <c r="Y180">
-        <v>1172.21</v>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B181">
+        <v>136.32</v>
+      </c>
+      <c r="C181">
+        <v>3938.05</v>
+      </c>
+      <c r="D181">
+        <v>171.22319999999999</v>
+      </c>
+      <c r="E181">
+        <v>4080.11</v>
+      </c>
+      <c r="F181">
+        <v>630.91999999999996</v>
+      </c>
+      <c r="G181">
+        <v>1886.577</v>
+      </c>
+      <c r="H181">
+        <v>1944.03</v>
+      </c>
+      <c r="I181">
+        <v>972.29</v>
+      </c>
+      <c r="J181">
+        <v>493.30450000000002</v>
+      </c>
+      <c r="K181">
+        <v>1412.32</v>
+      </c>
+      <c r="L181">
+        <v>1266.26</v>
+      </c>
+      <c r="M181">
+        <v>18959.576000000001</v>
+      </c>
+      <c r="N181">
+        <v>3879.6979999999999</v>
+      </c>
+      <c r="O181">
+        <v>1718.69</v>
+      </c>
+      <c r="P181">
+        <v>392.34</v>
+      </c>
+      <c r="Q181">
+        <v>162.4709</v>
+      </c>
+      <c r="R181">
+        <v>4.1383099999999997</v>
+      </c>
+      <c r="S181">
+        <v>4.3319210000000004</v>
+      </c>
+      <c r="T181">
+        <v>4976.87</v>
+      </c>
+      <c r="U181">
+        <v>1600.06</v>
+      </c>
+      <c r="V181">
+        <v>2358.4470000000001</v>
+      </c>
+      <c r="W181">
+        <v>135.875</v>
+      </c>
+      <c r="X181">
+        <v>371.08</v>
       </c>
     </row>
   </sheetData>
@@ -28827,32 +27885,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y180"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173:Y180"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B3:B179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -28925,11 +27983,8 @@
       <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>39447</v>
       </c>
@@ -28957,7 +28012,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39478</v>
       </c>
@@ -29053,12 +28108,8 @@
         <f>data!X3/data!X2-1</f>
         <v>2.7889345187057213E-2</v>
       </c>
-      <c r="Y3" s="6">
-        <f>data!Y3/data!Y2-1</f>
-        <v>4.8530463508500432E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39507</v>
       </c>
@@ -29154,12 +28205,8 @@
         <f>data!X4/data!X3-1</f>
         <v>4.917241076524359E-3</v>
       </c>
-      <c r="Y4" s="6">
-        <f>data!Y4/data!Y3-1</f>
-        <v>-4.7911223821153204E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>39538</v>
       </c>
@@ -29255,12 +28302,8 @@
         <f>data!X5/data!X4-1</f>
         <v>4.1504652890034244E-3</v>
       </c>
-      <c r="Y5" s="6">
-        <f>data!Y5/data!Y4-1</f>
-        <v>-2.3677594787337775E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39568</v>
       </c>
@@ -29356,12 +28399,8 @@
         <f>data!X6/data!X5-1</f>
         <v>-1.4966933518969716E-2</v>
       </c>
-      <c r="Y6" s="6">
-        <f>data!Y6/data!Y5-1</f>
-        <v>4.1514490659240177E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39598</v>
       </c>
@@ -29457,12 +28496,8 @@
         <f>data!X7/data!X6-1</f>
         <v>-1.9302120141342805E-2</v>
       </c>
-      <c r="Y7" s="6">
-        <f>data!Y7/data!Y6-1</f>
-        <v>1.2603466171250188E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>39629</v>
       </c>
@@ -29558,12 +28593,8 @@
         <f>data!X8/data!X7-1</f>
         <v>1.7655271810115725E-2</v>
       </c>
-      <c r="Y8" s="6">
-        <f>data!Y8/data!Y7-1</f>
-        <v>-5.5126791620740967E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39660</v>
       </c>
@@ -29659,12 +28690,8 @@
         <f>data!X9/data!X8-1</f>
         <v>6.6386368665627415E-4</v>
       </c>
-      <c r="Y9" s="6">
-        <f>data!Y9/data!Y8-1</f>
-        <v>-1.0660852178709268E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39689</v>
       </c>
@@ -29760,12 +28787,8 @@
         <f>data!X10/data!X9-1</f>
         <v>2.4767801857585203E-2</v>
       </c>
-      <c r="Y10" s="6">
-        <f>data!Y10/data!Y9-1</f>
-        <v>7.2389912452632821E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>39721</v>
       </c>
@@ -29861,12 +28884,8 @@
         <f>data!X11/data!X10-1</f>
         <v>-1.2947777298233376E-4</v>
       </c>
-      <c r="Y11" s="6">
-        <f>data!Y11/data!Y10-1</f>
-        <v>-3.6989950357186108E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>39752</v>
       </c>
@@ -29962,12 +28981,8 @@
         <f>data!X12/data!X11-1</f>
         <v>-3.3841239694392788E-2</v>
       </c>
-      <c r="Y12" s="6">
-        <f>data!Y12/data!Y11-1</f>
-        <v>-4.3924956667774406E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>39780</v>
       </c>
@@ -30063,12 +29078,8 @@
         <f>data!X13/data!X12-1</f>
         <v>0.13680025018987618</v>
       </c>
-      <c r="Y13" s="6">
-        <f>data!Y13/data!Y12-1</f>
-        <v>-1.7828627252061913E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>39813</v>
       </c>
@@ -30164,12 +29175,8 @@
         <f>data!X14/data!X13-1</f>
         <v>8.2806052269601027E-2</v>
       </c>
-      <c r="Y14" s="6">
-        <f>data!Y14/data!Y13-1</f>
-        <v>-2.3718439173680106E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>39843</v>
       </c>
@@ -30265,12 +29272,8 @@
         <f>data!X15/data!X14-1</f>
         <v>-8.2099303135888424E-2</v>
       </c>
-      <c r="Y15" s="6">
-        <f>data!Y15/data!Y14-1</f>
-        <v>2.89968652037631E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>39871</v>
       </c>
@@ -30366,12 +29369,8 @@
         <f>data!X16/data!X15-1</f>
         <v>-1.6291024120205666E-2</v>
       </c>
-      <c r="Y16" s="6">
-        <f>data!Y16/data!Y15-1</f>
-        <v>-1.8754395561458859E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>39903</v>
       </c>
@@ -30467,12 +29466,8 @@
         <f>data!X17/data!X16-1</f>
         <v>5.1692258220114029E-2</v>
       </c>
-      <c r="Y17" s="6">
-        <f>data!Y17/data!Y16-1</f>
-        <v>-6.2142801221326538E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39933</v>
       </c>
@@ -30568,12 +29563,8 @@
         <f>data!X18/data!X17-1</f>
         <v>-5.4922794679712506E-2</v>
       </c>
-      <c r="Y18" s="6">
-        <f>data!Y18/data!Y17-1</f>
-        <v>-5.0123585658155001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39962</v>
       </c>
@@ -30669,12 +29660,8 @@
         <f>data!X19/data!X18-1</f>
         <v>-2.8187810894973131E-2</v>
       </c>
-      <c r="Y19" s="6">
-        <f>data!Y19/data!Y18-1</f>
-        <v>-3.7608867775138499E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39994</v>
       </c>
@@ -30770,12 +29757,8 @@
         <f>data!X20/data!X19-1</f>
         <v>6.7831876820640957E-3</v>
       </c>
-      <c r="Y20" s="6">
-        <f>data!Y20/data!Y19-1</f>
-        <v>-1.191138485992449E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>40025</v>
       </c>
@@ -30871,12 +29854,8 @@
         <f>data!X21/data!X20-1</f>
         <v>5.5801264828669872E-3</v>
       </c>
-      <c r="Y21" s="6">
-        <f>data!Y21/data!Y20-1</f>
-        <v>-5.8113230311378494E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40056</v>
       </c>
@@ -30972,12 +29951,8 @@
         <f>data!X22/data!X21-1</f>
         <v>1.6441959881617896E-2</v>
       </c>
-      <c r="Y22" s="6">
-        <f>data!Y22/data!Y21-1</f>
-        <v>-5.7138234074614047E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>40086</v>
       </c>
@@ -31073,12 +30048,8 @@
         <f>data!X23/data!X22-1</f>
         <v>1.5488515043675211E-2</v>
       </c>
-      <c r="Y23" s="6">
-        <f>data!Y23/data!Y22-1</f>
-        <v>-9.8659451982330282E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>40116</v>
       </c>
@@ -31174,12 +30145,8 @@
         <f>data!X24/data!X23-1</f>
         <v>-9.9956194496436668E-3</v>
       </c>
-      <c r="Y24" s="6">
-        <f>data!Y24/data!Y23-1</f>
-        <v>-6.0577676871544917E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>40147</v>
       </c>
@@ -31275,12 +30242,8 @@
         <f>data!X25/data!X24-1</f>
         <v>2.6588897827835911E-2</v>
       </c>
-      <c r="Y25" s="6">
-        <f>data!Y25/data!Y24-1</f>
-        <v>6.6478192284842308E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40178</v>
       </c>
@@ -31376,12 +30339,8 @@
         <f>data!X26/data!X25-1</f>
         <v>-5.6110653971239488E-2</v>
       </c>
-      <c r="Y26" s="6">
-        <f>data!Y26/data!Y25-1</f>
-        <v>1.5568557618925727E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40207</v>
       </c>
@@ -31477,12 +30436,8 @@
         <f>data!X27/data!X26-1</f>
         <v>2.9847648304205388E-2</v>
       </c>
-      <c r="Y27" s="6">
-        <f>data!Y27/data!Y26-1</f>
-        <v>1.3106026740359322E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40235</v>
       </c>
@@ -31578,12 +30533,8 @@
         <f>data!X28/data!X27-1</f>
         <v>3.2247662044500025E-3</v>
       </c>
-      <c r="Y28" s="6">
-        <f>data!Y28/data!Y27-1</f>
-        <v>2.2423572146066384E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40268</v>
       </c>
@@ -31679,12 +30630,8 @@
         <f>data!X29/data!X28-1</f>
         <v>-1.2817422050787508E-2</v>
       </c>
-      <c r="Y29" s="6">
-        <f>data!Y29/data!Y28-1</f>
-        <v>-1.6562392435562567E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40298</v>
       </c>
@@ -31780,12 +30727,8 @@
         <f>data!X30/data!X29-1</f>
         <v>2.5438560787984787E-2</v>
       </c>
-      <c r="Y30" s="6">
-        <f>data!Y30/data!Y29-1</f>
-        <v>5.7956393732885303E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>40329</v>
       </c>
@@ -31881,12 +30824,8 @@
         <f>data!X31/data!X30-1</f>
         <v>3.5048027308089091E-2</v>
       </c>
-      <c r="Y31" s="6">
-        <f>data!Y31/data!Y30-1</f>
-        <v>-6.212578680722558E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>40359</v>
       </c>
@@ -31982,12 +30921,8 @@
         <f>data!X32/data!X31-1</f>
         <v>3.9306668711891701E-2</v>
       </c>
-      <c r="Y32" s="6">
-        <f>data!Y32/data!Y31-1</f>
-        <v>-6.3956003213249124E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>40389</v>
       </c>
@@ -32083,12 +31018,8 @@
         <f>data!X33/data!X32-1</f>
         <v>9.7040808796398093E-3</v>
       </c>
-      <c r="Y33" s="6">
-        <f>data!Y33/data!Y32-1</f>
-        <v>6.8617390673424428E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>40421</v>
       </c>
@@ -32184,12 +31115,8 @@
         <f>data!X34/data!X33-1</f>
         <v>6.0113283391193262E-2</v>
       </c>
-      <c r="Y34" s="6">
-        <f>data!Y34/data!Y33-1</f>
-        <v>-8.3694499634544561E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>40451</v>
       </c>
@@ -32285,12 +31212,8 @@
         <f>data!X35/data!X34-1</f>
         <v>-9.1003102378491851E-3</v>
       </c>
-      <c r="Y35" s="6">
-        <f>data!Y35/data!Y34-1</f>
-        <v>1.377613520752452E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>40480</v>
       </c>
@@ -32386,12 +31309,8 @@
         <f>data!X36/data!X35-1</f>
         <v>-2.0698531969665313E-2</v>
       </c>
-      <c r="Y36" s="6">
-        <f>data!Y36/data!Y35-1</f>
-        <v>6.1339641383264532E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>40512</v>
       </c>
@@ -32487,12 +31406,8 @@
         <f>data!X37/data!X36-1</f>
         <v>-1.6837767752477695E-2</v>
       </c>
-      <c r="Y37" s="6">
-        <f>data!Y37/data!Y36-1</f>
-        <v>-3.9490290273989093E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>40543</v>
       </c>
@@ -32588,12 +31503,8 @@
         <f>data!X38/data!X37-1</f>
         <v>-3.9202225674747848E-2</v>
       </c>
-      <c r="Y38" s="6">
-        <f>data!Y38/data!Y37-1</f>
-        <v>4.5266901005478477E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>40574</v>
       </c>
@@ -32689,12 +31600,8 @@
         <f>data!X39/data!X38-1</f>
         <v>-1.2146510228640217E-2</v>
       </c>
-      <c r="Y39" s="6">
-        <f>data!Y39/data!Y38-1</f>
-        <v>3.153386839187311E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>40602</v>
       </c>
@@ -32790,12 +31697,8 @@
         <f>data!X40/data!X39-1</f>
         <v>1.1001560775057984E-2</v>
       </c>
-      <c r="Y40" s="6">
-        <f>data!Y40/data!Y39-1</f>
-        <v>1.744121196142645E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40633</v>
       </c>
@@ -32891,12 +31794,8 @@
         <f>data!X41/data!X40-1</f>
         <v>-1.581444385872266E-3</v>
       </c>
-      <c r="Y41" s="6">
-        <f>data!Y41/data!Y40-1</f>
-        <v>1.1134842948101742E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40662</v>
       </c>
@@ -32992,12 +31891,8 @@
         <f>data!X42/data!X41-1</f>
         <v>1.8253130185548194E-2</v>
       </c>
-      <c r="Y42" s="6">
-        <f>data!Y42/data!Y41-1</f>
-        <v>9.2105263157882256E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40694</v>
       </c>
@@ -33093,12 +31988,8 @@
         <f>data!X43/data!X42-1</f>
         <v>3.0962962962963081E-2</v>
       </c>
-      <c r="Y43" s="6">
-        <f>data!Y43/data!Y42-1</f>
-        <v>-7.1695098643960176E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40724</v>
       </c>
@@ -33194,12 +32085,8 @@
         <f>data!X44/data!X43-1</f>
         <v>-1.4477654835464926E-2</v>
       </c>
-      <c r="Y44" s="6">
-        <f>data!Y44/data!Y43-1</f>
-        <v>-1.3566641543256486E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40753</v>
       </c>
@@ -33295,12 +32182,8 @@
         <f>data!X45/data!X44-1</f>
         <v>4.1409980680202629E-2</v>
       </c>
-      <c r="Y45" s="6">
-        <f>data!Y45/data!Y44-1</f>
-        <v>-5.7821373257614939E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>40786</v>
       </c>
@@ -33396,12 +32279,8 @@
         <f>data!X46/data!X45-1</f>
         <v>7.1546081416920426E-2</v>
       </c>
-      <c r="Y46" s="6">
-        <f>data!Y46/data!Y45-1</f>
-        <v>-9.3779208640564216E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>40816</v>
       </c>
@@ -33497,12 +32376,8 @@
         <f>data!X47/data!X46-1</f>
         <v>4.847613758860625E-2</v>
       </c>
-      <c r="Y47" s="6">
-        <f>data!Y47/data!Y46-1</f>
-        <v>-8.8271986748718057E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40847</v>
       </c>
@@ -33598,12 +32473,8 @@
         <f>data!X48/data!X47-1</f>
         <v>-2.5173692245381352E-2</v>
       </c>
-      <c r="Y48" s="6">
-        <f>data!Y48/data!Y47-1</f>
-        <v>8.5779258554126159E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40877</v>
       </c>
@@ -33699,12 +32570,8 @@
         <f>data!X49/data!X48-1</f>
         <v>1.7993544057016919E-2</v>
       </c>
-      <c r="Y49" s="6">
-        <f>data!Y49/data!Y48-1</f>
-        <v>-6.0614958681152187E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40907</v>
       </c>
@@ -33800,12 +32667,8 @@
         <f>data!X50/data!X49-1</f>
         <v>2.4299886977269924E-2</v>
       </c>
-      <c r="Y50" s="6">
-        <f>data!Y50/data!Y49-1</f>
-        <v>-1.2977695245732779E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>40939</v>
       </c>
@@ -33901,12 +32764,8 @@
         <f>data!X51/data!X50-1</f>
         <v>4.3523570158769953E-3</v>
       </c>
-      <c r="Y51" s="6">
-        <f>data!Y51/data!Y50-1</f>
-        <v>5.5781522370714764E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>40968</v>
       </c>
@@ -34002,12 +32861,8 @@
         <f>data!X52/data!X51-1</f>
         <v>-1.6113281250000111E-2</v>
       </c>
-      <c r="Y52" s="6">
-        <f>data!Y52/data!Y51-1</f>
-        <v>4.7172289169283843E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>40998</v>
       </c>
@@ -34103,12 +32958,8 @@
         <f>data!X53/data!X52-1</f>
         <v>-2.7512406947890811E-2</v>
       </c>
-      <c r="Y53" s="6">
-        <f>data!Y53/data!Y52-1</f>
-        <v>-4.4964028776979248E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>41029</v>
       </c>
@@ -34204,12 +33055,8 @@
         <f>data!X54/data!X53-1</f>
         <v>3.7285108283099166E-2</v>
       </c>
-      <c r="Y54" s="6">
-        <f>data!Y54/data!Y53-1</f>
-        <v>-2.7835549673326243E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>41060</v>
       </c>
@@ -34305,12 +33152,8 @@
         <f>data!X55/data!X54-1</f>
         <v>5.1995572228030085E-2</v>
       </c>
-      <c r="Y55" s="6">
-        <f>data!Y55/data!Y54-1</f>
-        <v>-2.412125936147036E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41089</v>
       </c>
@@ -34406,12 +33249,8 @@
         <f>data!X56/data!X55-1</f>
         <v>-1.163300499810016E-2</v>
       </c>
-      <c r="Y56" s="6">
-        <f>data!Y56/data!Y55-1</f>
-        <v>7.0743759766855874E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>41121</v>
       </c>
@@ -34507,12 +33346,8 @@
         <f>data!X57/data!X56-1</f>
         <v>2.0789590418453407E-2</v>
       </c>
-      <c r="Y57" s="6">
-        <f>data!Y57/data!Y56-1</f>
-        <v>-2.3318385650225038E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>41152</v>
       </c>
@@ -34608,12 +33443,8 @@
         <f>data!X58/data!X57-1</f>
         <v>-2.8680688336519822E-3</v>
       </c>
-      <c r="Y58" s="6">
-        <f>data!Y58/data!Y57-1</f>
-        <v>2.65456776022166E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41180</v>
       </c>
@@ -34709,12 +33540,8 @@
         <f>data!X59/data!X58-1</f>
         <v>-1.3335657630959563E-2</v>
       </c>
-      <c r="Y59" s="6">
-        <f>data!Y59/data!Y58-1</f>
-        <v>-1.4767153631137786E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41213</v>
       </c>
@@ -34810,12 +33637,8 @@
         <f>data!X60/data!X59-1</f>
         <v>-3.2391048292113034E-4</v>
       </c>
-      <c r="Y60" s="6">
-        <f>data!Y60/data!Y59-1</f>
-        <v>-2.7042729625520456E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41243</v>
       </c>
@@ -34911,12 +33734,8 @@
         <f>data!X61/data!X60-1</f>
         <v>1.3903207752805624E-2</v>
       </c>
-      <c r="Y61" s="6">
-        <f>data!Y61/data!Y60-1</f>
-        <v>6.1752587147410054E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41274</v>
       </c>
@@ -35012,12 +33831,8 @@
         <f>data!X62/data!X61-1</f>
         <v>-1.7024490863135733E-2</v>
       </c>
-      <c r="Y62" s="6">
-        <f>data!Y62/data!Y61-1</f>
-        <v>5.2004379316152871E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41305</v>
       </c>
@@ -35113,12 +33928,8 @@
         <f>data!X63/data!X62-1</f>
         <v>-2.7249889168021402E-2</v>
       </c>
-      <c r="Y63" s="6">
-        <f>data!Y63/data!Y62-1</f>
-        <v>2.6600758226336119E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41333</v>
       </c>
@@ -35214,12 +34025,8 @@
         <f>data!X64/data!X63-1</f>
         <v>1.2669765746057937E-2</v>
       </c>
-      <c r="Y64" s="6">
-        <f>data!Y64/data!Y63-1</f>
-        <v>2.8619176937538793E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41362</v>
       </c>
@@ -35315,12 +34122,8 @@
         <f>data!X65/data!X64-1</f>
         <v>4.8604860486047841E-3</v>
       </c>
-      <c r="Y65" s="6">
-        <f>data!Y65/data!Y64-1</f>
-        <v>1.53102672526928E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41394</v>
       </c>
@@ -35416,12 +34219,8 @@
         <f>data!X66/data!X65-1</f>
         <v>2.7110951869103062E-2</v>
       </c>
-      <c r="Y66" s="6">
-        <f>data!Y66/data!Y65-1</f>
-        <v>1.4142947764685943E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41425</v>
       </c>
@@ -35517,12 +34316,8 @@
         <f>data!X67/data!X66-1</f>
         <v>-4.9709302325581461E-2</v>
       </c>
-      <c r="Y67" s="6">
-        <f>data!Y67/data!Y66-1</f>
-        <v>8.8060894939614442E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41453</v>
       </c>
@@ -35618,12 +34413,8 @@
         <f>data!X68/data!X67-1</f>
         <v>-2.9856225145304394E-2</v>
       </c>
-      <c r="Y68" s="6">
-        <f>data!Y68/data!Y67-1</f>
-        <v>-2.2646559267081035E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>41486</v>
       </c>
@@ -35719,12 +34510,8 @@
         <f>data!X69/data!X68-1</f>
         <v>-1.3085703474805976E-2</v>
       </c>
-      <c r="Y69" s="6">
-        <f>data!Y69/data!Y68-1</f>
-        <v>6.1983258342512837E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>41516</v>
       </c>
@@ -35820,12 +34607,8 @@
         <f>data!X70/data!X69-1</f>
         <v>-5.4953832390811641E-3</v>
       </c>
-      <c r="Y70" s="6">
-        <f>data!Y70/data!Y69-1</f>
-        <v>-7.183422870299272E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>41547</v>
       </c>
@@ -35921,12 +34704,8 @@
         <f>data!X71/data!X70-1</f>
         <v>1.1147878047996995E-2</v>
       </c>
-      <c r="Y71" s="6">
-        <f>data!Y71/data!Y70-1</f>
-        <v>2.1644352370056019E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>41578</v>
       </c>
@@ -36022,12 +34801,8 @@
         <f>data!X72/data!X71-1</f>
         <v>1.0834339454788067E-2</v>
       </c>
-      <c r="Y72" s="6">
-        <f>data!Y72/data!Y71-1</f>
-        <v>9.7086380138429185E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>41607</v>
       </c>
@@ -36123,12 +34898,8 @@
         <f>data!X73/data!X72-1</f>
         <v>-1.9236209335219301E-2</v>
       </c>
-      <c r="Y73" s="6">
-        <f>data!Y73/data!Y72-1</f>
-        <v>4.4918871018670981E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>41639</v>
       </c>
@@ -36224,12 +34995,8 @@
         <f>data!X74/data!X73-1</f>
         <v>-1.8587956286254426E-2</v>
       </c>
-      <c r="Y74" s="6">
-        <f>data!Y74/data!Y73-1</f>
-        <v>2.8595185463100581E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>41670</v>
       </c>
@@ -36325,12 +35092,8 @@
         <f>data!X75/data!X74-1</f>
         <v>4.1210854586422041E-2</v>
       </c>
-      <c r="Y75" s="6">
-        <f>data!Y75/data!Y74-1</f>
-        <v>6.8048533872597794E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>41698</v>
       </c>
@@ -36426,12 +35189,8 @@
         <f>data!X76/data!X75-1</f>
         <v>7.3388740787203588E-3</v>
       </c>
-      <c r="Y76" s="6">
-        <f>data!Y76/data!Y75-1</f>
-        <v>6.2165446456368123E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>41729</v>
       </c>
@@ -36527,12 +35286,8 @@
         <f>data!X77/data!X76-1</f>
         <v>1.2142345652106368E-3</v>
       </c>
-      <c r="Y77" s="6">
-        <f>data!Y77/data!Y76-1</f>
-        <v>6.9865857553530475E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>41759</v>
       </c>
@@ -36628,12 +35383,8 @@
         <f>data!X78/data!X77-1</f>
         <v>1.2936127868648617E-2</v>
       </c>
-      <c r="Y78" s="6">
-        <f>data!Y78/data!Y77-1</f>
-        <v>-2.6547171129451819E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>41789</v>
       </c>
@@ -36729,12 +35480,8 @@
         <f>data!X79/data!X78-1</f>
         <v>2.431386995763507E-2</v>
       </c>
-      <c r="Y79" s="6">
-        <f>data!Y79/data!Y78-1</f>
-        <v>9.5063692674091094E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>41820</v>
       </c>
@@ -36830,12 +35577,8 @@
         <f>data!X80/data!X79-1</f>
         <v>-2.0080321285140812E-3</v>
       </c>
-      <c r="Y80" s="6">
-        <f>data!Y80/data!Y79-1</f>
-        <v>6.7381133282680139E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>41851</v>
       </c>
@@ -36931,12 +35674,8 @@
         <f>data!X81/data!X80-1</f>
         <v>1.6216703204299243E-3</v>
       </c>
-      <c r="Y81" s="6">
-        <f>data!Y81/data!Y80-1</f>
-        <v>-5.8290798593870763E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>41880</v>
       </c>
@@ -37032,12 +35771,8 @@
         <f>data!X82/data!X81-1</f>
         <v>3.0072257368152888E-2</v>
       </c>
-      <c r="Y82" s="6">
-        <f>data!Y82/data!Y81-1</f>
-        <v>7.5113619337761062E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>41912</v>
       </c>
@@ -37133,12 +35868,8 @@
         <f>data!X83/data!X82-1</f>
         <v>-1.560135056467582E-2</v>
       </c>
-      <c r="Y83" s="6">
-        <f>data!Y83/data!Y82-1</f>
-        <v>-1.8737545480682627E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>41943</v>
       </c>
@@ -37234,12 +35965,8 @@
         <f>data!X84/data!X83-1</f>
         <v>2.3122412773506795E-2</v>
       </c>
-      <c r="Y84" s="6">
-        <f>data!Y84/data!Y83-1</f>
-        <v>-3.5260930888575404E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>41971</v>
       </c>
@@ -37335,12 +36062,8 @@
         <f>data!X85/data!X84-1</f>
         <v>2.1154846540662353E-2</v>
       </c>
-      <c r="Y85" s="6">
-        <f>data!Y85/data!Y84-1</f>
-        <v>5.9806823958563626E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42004</v>
       </c>
@@ -37436,12 +36159,8 @@
         <f>data!X86/data!X85-1</f>
         <v>1.3612950699043447E-2</v>
       </c>
-      <c r="Y86" s="6">
-        <f>data!Y86/data!Y85-1</f>
-        <v>-6.4886523338216762E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42034</v>
       </c>
@@ -37537,12 +36256,8 @@
         <f>data!X87/data!X86-1</f>
         <v>4.6488901298338714E-2</v>
       </c>
-      <c r="Y87" s="6">
-        <f>data!Y87/data!Y86-1</f>
-        <v>6.07957623547839E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42062</v>
       </c>
@@ -37638,12 +36353,8 @@
         <f>data!X88/data!X87-1</f>
         <v>-3.3404482390608448E-2</v>
       </c>
-      <c r="Y88" s="6">
-        <f>data!Y88/data!Y87-1</f>
-        <v>6.8106577320410366E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42094</v>
       </c>
@@ -37739,12 +36450,8 @@
         <f>data!X89/data!X88-1</f>
         <v>1.2559346361930013E-2</v>
       </c>
-      <c r="Y89" s="6">
-        <f>data!Y89/data!Y88-1</f>
-        <v>3.7834143829171829E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42124</v>
       </c>
@@ -37840,12 +36547,8 @@
         <f>data!X90/data!X89-1</f>
         <v>-2.6088378813074131E-2</v>
       </c>
-      <c r="Y90" s="6">
-        <f>data!Y90/data!Y89-1</f>
-        <v>1.2136281561732076E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42153</v>
       </c>
@@ -37941,12 +36644,8 @@
         <f>data!X91/data!X90-1</f>
         <v>-1.5227005542182148E-2</v>
       </c>
-      <c r="Y91" s="6">
-        <f>data!Y91/data!Y90-1</f>
-        <v>5.91296121097451E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42185</v>
       </c>
@@ -38042,12 +36741,8 @@
         <f>data!X92/data!X91-1</f>
         <v>-3.0725939400830016E-2</v>
       </c>
-      <c r="Y92" s="6">
-        <f>data!Y92/data!Y91-1</f>
-        <v>-3.8012383415627626E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42216</v>
       </c>
@@ -38143,12 +36838,8 @@
         <f>data!X93/data!X92-1</f>
         <v>3.3811325181079877E-2</v>
       </c>
-      <c r="Y93" s="6">
-        <f>data!Y93/data!Y92-1</f>
-        <v>2.3897565005310817E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42247</v>
       </c>
@@ -38244,12 +36935,8 @@
         <f>data!X94/data!X93-1</f>
         <v>1.2197197481136346E-3</v>
       </c>
-      <c r="Y94" s="6">
-        <f>data!Y94/data!Y93-1</f>
-        <v>1.2558007201231014E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42277</v>
       </c>
@@ -38345,12 +37032,8 @@
         <f>data!X95/data!X94-1</f>
         <v>1.7621894211972577E-2</v>
       </c>
-      <c r="Y95" s="6">
-        <f>data!Y95/data!Y94-1</f>
-        <v>2.4398608593405591E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42307</v>
       </c>
@@ -38446,12 +37129,8 @@
         <f>data!X96/data!X95-1</f>
         <v>-5.7351262562989058E-3</v>
       </c>
-      <c r="Y96" s="6">
-        <f>data!Y96/data!Y95-1</f>
-        <v>1.153425086018145E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42338</v>
       </c>
@@ -38547,12 +37226,8 @@
         <f>data!X97/data!X96-1</f>
         <v>-6.4962338644191098E-3</v>
       </c>
-      <c r="Y97" s="6">
-        <f>data!Y97/data!Y96-1</f>
-        <v>-5.0539213791503945E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42369</v>
       </c>
@@ -38648,12 +37323,8 @@
         <f>data!X98/data!X97-1</f>
         <v>-1.4092049265804762E-3</v>
       </c>
-      <c r="Y98" s="6">
-        <f>data!Y98/data!Y97-1</f>
-        <v>-4.1763386136497438E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42398</v>
       </c>
@@ -38749,12 +37420,8 @@
         <f>data!X99/data!X98-1</f>
         <v>4.7585447771725464E-2</v>
       </c>
-      <c r="Y99" s="6">
-        <f>data!Y99/data!Y98-1</f>
-        <v>5.4617627839381733E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42429</v>
       </c>
@@ -38850,12 +37517,8 @@
         <f>data!X100/data!X99-1</f>
         <v>3.0282619823800427E-2</v>
       </c>
-      <c r="Y100" s="6">
-        <f>data!Y100/data!Y99-1</f>
-        <v>-3.4604774484094936E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42460</v>
       </c>
@@ -38951,12 +37614,8 @@
         <f>data!X101/data!X100-1</f>
         <v>-2.8764938155390052E-4</v>
       </c>
-      <c r="Y101" s="6">
-        <f>data!Y101/data!Y100-1</f>
-        <v>-2.8562485327491283E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42489</v>
       </c>
@@ -39052,12 +37711,8 @@
         <f>data!X102/data!X101-1</f>
         <v>-6.6701543290609289E-3</v>
       </c>
-      <c r="Y102" s="6">
-        <f>data!Y102/data!Y101-1</f>
-        <v>6.5724936236999376E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42521</v>
       </c>
@@ -39153,12 +37808,8 @@
         <f>data!X103/data!X102-1</f>
         <v>8.6899275839369405E-3</v>
       </c>
-      <c r="Y103" s="6">
-        <f>data!Y103/data!Y102-1</f>
-        <v>4.5585106904428851E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42551</v>
       </c>
@@ -39254,12 +37905,8 @@
         <f>data!X104/data!X103-1</f>
         <v>5.5554105208197369E-2</v>
       </c>
-      <c r="Y104" s="6">
-        <f>data!Y104/data!Y103-1</f>
-        <v>-1.7370598797720183E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42580</v>
       </c>
@@ -39355,12 +38002,8 @@
         <f>data!X105/data!X104-1</f>
         <v>1.2366136571612341E-2</v>
       </c>
-      <c r="Y105" s="6">
-        <f>data!Y105/data!Y104-1</f>
-        <v>6.14894324202786E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42613</v>
       </c>
@@ -39456,12 +38099,8 @@
         <f>data!X106/data!X105-1</f>
         <v>-1.4780250653506966E-2</v>
       </c>
-      <c r="Y106" s="6">
-        <f>data!Y106/data!Y105-1</f>
-        <v>-5.829600769506893E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42643</v>
       </c>
@@ -39557,12 +38196,8 @@
         <f>data!X107/data!X106-1</f>
         <v>-1.2745487006546319E-2</v>
       </c>
-      <c r="Y107" s="6">
-        <f>data!Y107/data!Y106-1</f>
-        <v>3.3345323391305026E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42674</v>
       </c>
@@ -39658,12 +38293,8 @@
         <f>data!X108/data!X107-1</f>
         <v>-3.2074144773195368E-2</v>
       </c>
-      <c r="Y108" s="6">
-        <f>data!Y108/data!Y107-1</f>
-        <v>-3.9241904540433525E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42704</v>
       </c>
@@ -39759,12 +38390,8 @@
         <f>data!X109/data!X108-1</f>
         <v>-6.1732880089264919E-2</v>
       </c>
-      <c r="Y109" s="6">
-        <f>data!Y109/data!Y108-1</f>
-        <v>-1.5855876888355436E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42734</v>
       </c>
@@ -39860,12 +38487,8 @@
         <f>data!X110/data!X109-1</f>
         <v>-3.7059571878974573E-3</v>
       </c>
-      <c r="Y110" s="6">
-        <f>data!Y110/data!Y109-1</f>
-        <v>2.026539878017708E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42766</v>
       </c>
@@ -39961,12 +38584,8 @@
         <f>data!X111/data!X110-1</f>
         <v>1.721074838996195E-3</v>
       </c>
-      <c r="Y111" s="6">
-        <f>data!Y111/data!Y110-1</f>
-        <v>2.9558757754311049E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42794</v>
       </c>
@@ -40062,12 +38681,8 @@
         <f>data!X112/data!X111-1</f>
         <v>1.4049769993903505E-2</v>
       </c>
-      <c r="Y112" s="6">
-        <f>data!Y112/data!Y111-1</f>
-        <v>1.0761027629664355E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42825</v>
       </c>
@@ -40163,12 +38778,8 @@
         <f>data!X113/data!X112-1</f>
         <v>-4.7276801574072103E-3</v>
       </c>
-      <c r="Y113" s="6">
-        <f>data!Y113/data!Y112-1</f>
-        <v>2.4597863665858366E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42853</v>
       </c>
@@ -40264,12 +38875,8 @@
         <f>data!X114/data!X113-1</f>
         <v>1.471718835804503E-2</v>
       </c>
-      <c r="Y114" s="6">
-        <f>data!Y114/data!Y113-1</f>
-        <v>3.0526976766651615E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42886</v>
       </c>
@@ -40365,12 +38972,8 @@
         <f>data!X115/data!X114-1</f>
         <v>1.458491178698984E-2</v>
       </c>
-      <c r="Y115" s="6">
-        <f>data!Y115/data!Y114-1</f>
-        <v>3.178241565620965E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42916</v>
       </c>
@@ -40466,12 +39069,8 @@
         <f>data!X116/data!X115-1</f>
         <v>0</v>
       </c>
-      <c r="Y116" s="6">
-        <f>data!Y116/data!Y115-1</f>
-        <v>9.7925327137815543E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42947</v>
       </c>
@@ -40567,12 +39166,8 @@
         <f>data!X117/data!X116-1</f>
         <v>-3.7338311774902655E-3</v>
       </c>
-      <c r="Y117" s="6">
-        <f>data!Y117/data!Y116-1</f>
-        <v>4.7955650614310841E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42978</v>
       </c>
@@ -40668,12 +39263,8 @@
         <f>data!X118/data!X117-1</f>
         <v>2.9340115111765375E-2</v>
       </c>
-      <c r="Y118" s="6">
-        <f>data!Y118/data!Y117-1</f>
-        <v>6.548113360632879E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43007</v>
       </c>
@@ -40769,12 +39360,8 @@
         <f>data!X119/data!X118-1</f>
         <v>-2.0207536865101017E-2</v>
       </c>
-      <c r="Y119" s="6">
-        <f>data!Y119/data!Y118-1</f>
-        <v>7.0745099526785538E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43039</v>
       </c>
@@ -40870,12 +39457,8 @@
         <f>data!X120/data!X119-1</f>
         <v>-1.3006317354143926E-3</v>
       </c>
-      <c r="Y120" s="6">
-        <f>data!Y120/data!Y119-1</f>
-        <v>4.171571166250887E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43069</v>
       </c>
@@ -40971,12 +39554,8 @@
         <f>data!X121/data!X120-1</f>
         <v>3.2159468438537342E-3</v>
       </c>
-      <c r="Y121" s="6">
-        <f>data!Y121/data!Y120-1</f>
-        <v>-5.7109098070107223E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43098</v>
       </c>
@@ -41072,12 +39651,8 @@
         <f>data!X122/data!X121-1</f>
         <v>9.5109415567213862E-3</v>
       </c>
-      <c r="Y122" s="6">
-        <f>data!Y122/data!Y121-1</f>
-        <v>2.8199832121400537E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43131</v>
       </c>
@@ -41173,12 +39748,8 @@
         <f>data!X123/data!X122-1</f>
         <v>-3.2620391024799966E-2</v>
       </c>
-      <c r="Y123" s="6">
-        <f>data!Y123/data!Y122-1</f>
-        <v>8.0693702505454379E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43159</v>
       </c>
@@ -41274,12 +39845,8 @@
         <f>data!X124/data!X123-1</f>
         <v>-2.1648309912647212E-2</v>
       </c>
-      <c r="Y124" s="6">
-        <f>data!Y124/data!Y123-1</f>
-        <v>-3.5452391170488484E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43189</v>
       </c>
@@ -41375,12 +39942,8 @@
         <f>data!X125/data!X124-1</f>
         <v>2.3624667258207666E-2</v>
       </c>
-      <c r="Y125" s="6">
-        <f>data!Y125/data!Y124-1</f>
-        <v>-1.4886804112127505E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43220</v>
       </c>
@@ -41476,12 +40039,8 @@
         <f>data!X126/data!X125-1</f>
         <v>-1.7417921768338895E-2</v>
       </c>
-      <c r="Y126" s="6">
-        <f>data!Y126/data!Y125-1</f>
-        <v>8.7203578159722461E-4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43251</v>
       </c>
@@ -41577,12 +40136,8 @@
         <f>data!X127/data!X126-1</f>
         <v>1.648609158327119E-2</v>
       </c>
-      <c r="Y127" s="6">
-        <f>data!Y127/data!Y126-1</f>
-        <v>4.5250140528385607E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43280</v>
       </c>
@@ -41678,12 +40233,8 @@
         <f>data!X128/data!X127-1</f>
         <v>6.7803965175894376E-4</v>
       </c>
-      <c r="Y128" s="6">
-        <f>data!Y128/data!Y127-1</f>
-        <v>1.9958404446804856E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43312</v>
       </c>
@@ -41779,12 +40330,8 @@
         <f>data!X129/data!X128-1</f>
         <v>-1.2277753686036341E-2</v>
       </c>
-      <c r="Y129" s="6">
-        <f>data!Y129/data!Y128-1</f>
-        <v>-5.2123570092232896E-4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43343</v>
       </c>
@@ -41880,12 +40427,8 @@
         <f>data!X130/data!X129-1</f>
         <v>1.5778064374502687E-2</v>
       </c>
-      <c r="Y130" s="6">
-        <f>data!Y130/data!Y129-1</f>
-        <v>3.6691779737569874E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43371</v>
       </c>
@@ -41981,12 +40524,8 @@
         <f>data!X131/data!X130-1</f>
         <v>-2.4177427197579537E-2</v>
       </c>
-      <c r="Y131" s="6">
-        <f>data!Y131/data!Y130-1</f>
-        <v>-3.5444212479702752E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43404</v>
       </c>
@@ -42082,12 +40621,8 @@
         <f>data!X132/data!X131-1</f>
         <v>-1.4865874927331602E-2</v>
       </c>
-      <c r="Y132" s="6">
-        <f>data!Y132/data!Y131-1</f>
-        <v>-1.1360144515937254E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43434</v>
       </c>
@@ -42183,12 +40718,8 @@
         <f>data!X133/data!X132-1</f>
         <v>1.9417748552801539E-2</v>
       </c>
-      <c r="Y133" s="6">
-        <f>data!Y133/data!Y132-1</f>
-        <v>-4.045827856550388E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43465</v>
       </c>
@@ -42284,12 +40815,8 @@
         <f>data!X134/data!X133-1</f>
         <v>4.5703889516773843E-2</v>
       </c>
-      <c r="Y134" s="6">
-        <f>data!Y134/data!Y133-1</f>
-        <v>-9.6314947068899537E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43496</v>
       </c>
@@ -42385,12 +40912,8 @@
         <f>data!X135/data!X134-1</f>
         <v>6.8011071569789028E-3</v>
       </c>
-      <c r="Y135" s="6">
-        <f>data!Y135/data!Y134-1</f>
-        <v>1.2248601239981838E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43524</v>
       </c>
@@ -42486,12 +41009,8 @@
         <f>data!X136/data!X135-1</f>
         <v>-9.0330688869687537E-3</v>
       </c>
-      <c r="Y136" s="6">
-        <f>data!Y136/data!Y135-1</f>
-        <v>-9.8035554227660082E-4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43553</v>
       </c>
@@ -42587,12 +41106,8 @@
         <f>data!X137/data!X136-1</f>
         <v>3.7914817163390291E-2</v>
       </c>
-      <c r="Y137" s="6">
-        <f>data!Y137/data!Y136-1</f>
-        <v>-5.5888372788530649E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43585</v>
       </c>
@@ -42688,12 +41203,8 @@
         <f>data!X138/data!X137-1</f>
         <v>-1.2524501692844137E-2</v>
       </c>
-      <c r="Y138" s="6">
-        <f>data!Y138/data!Y137-1</f>
-        <v>2.8477175966390433E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43616</v>
       </c>
@@ -42789,12 +41300,8 @@
         <f>data!X139/data!X138-1</f>
         <v>4.8825758552241583E-2</v>
       </c>
-      <c r="Y139" s="6">
-        <f>data!Y139/data!Y138-1</f>
-        <v>4.9670115459576891E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43644</v>
       </c>
@@ -42890,12 +41397,8 @@
         <f>data!X140/data!X139-1</f>
         <v>1.3960919257711479E-2</v>
       </c>
-      <c r="Y140" s="6">
-        <f>data!Y140/data!Y139-1</f>
-        <v>7.521755013722764E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43677</v>
       </c>
@@ -42991,12 +41494,8 @@
         <f>data!X141/data!X140-1</f>
         <v>1.9392529028192662E-3</v>
       </c>
-      <c r="Y141" s="6">
-        <f>data!Y141/data!Y140-1</f>
-        <v>2.2685013015990574E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43707</v>
       </c>
@@ -43092,12 +41591,8 @@
         <f>data!X142/data!X141-1</f>
         <v>6.8831200251614932E-2</v>
       </c>
-      <c r="Y142" s="6">
-        <f>data!Y142/data!Y141-1</f>
-        <v>4.3783162034805034E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43738</v>
       </c>
@@ -43193,12 +41688,8 @@
         <f>data!X143/data!X142-1</f>
         <v>-1.6139254832722161E-2</v>
       </c>
-      <c r="Y143" s="6">
-        <f>data!Y143/data!Y142-1</f>
-        <v>4.0729247478665798E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43769</v>
       </c>
@@ -43294,12 +41785,8 @@
         <f>data!X144/data!X143-1</f>
         <v>-4.325319222362789E-3</v>
       </c>
-      <c r="Y144" s="6">
-        <f>data!Y144/data!Y143-1</f>
-        <v>4.654285898249455E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43798</v>
       </c>
@@ -43395,12 +41882,8 @@
         <f>data!X145/data!X144-1</f>
         <v>-8.8499664949048817E-3</v>
       </c>
-      <c r="Y145" s="6">
-        <f>data!Y145/data!Y144-1</f>
-        <v>4.6235682960549251E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43830</v>
       </c>
@@ -43496,12 +41979,8 @@
         <f>data!X146/data!X145-1</f>
         <v>-1.7904602042243645E-2</v>
       </c>
-      <c r="Y146" s="6">
-        <f>data!Y146/data!Y145-1</f>
-        <v>6.3702974628172537E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43861</v>
       </c>
@@ -43597,12 +42076,8 @@
         <f>data!X147/data!X146-1</f>
         <v>5.0277738213929668E-2</v>
       </c>
-      <c r="Y147" s="6">
-        <f>data!Y147/data!Y146-1</f>
-        <v>6.3390294040344131E-5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43889</v>
       </c>
@@ -43698,12 +42173,8 @@
         <f>data!X148/data!X147-1</f>
         <v>4.8594159660066971E-2</v>
       </c>
-      <c r="Y148" s="6">
-        <f>data!Y148/data!Y147-1</f>
-        <v>-3.0425412463551682E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43921</v>
       </c>
@@ -43799,12 +42270,8 @@
         <f>data!X149/data!X148-1</f>
         <v>5.2269690046126582E-2</v>
       </c>
-      <c r="Y149" s="6">
-        <f>data!Y149/data!Y148-1</f>
-        <v>-5.5205362495231447E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43951</v>
       </c>
@@ -43900,12 +42367,8 @@
         <f>data!X150/data!X149-1</f>
         <v>1.1122718613654436E-2</v>
       </c>
-      <c r="Y150" s="6">
-        <f>data!Y150/data!Y149-1</f>
-        <v>2.0361468948279171E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43980</v>
       </c>
@@ -44001,12 +42464,8 @@
         <f>data!X151/data!X150-1</f>
         <v>-5.8952230460678212E-3</v>
       </c>
-      <c r="Y151" s="6">
-        <f>data!Y151/data!Y150-1</f>
-        <v>1.2954832388023085E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44012</v>
       </c>
@@ -44102,12 +42561,8 @@
         <f>data!X152/data!X151-1</f>
         <v>1.2023394673026377E-3</v>
       </c>
-      <c r="Y152" s="6">
-        <f>data!Y152/data!Y151-1</f>
-        <v>1.3756475961046455E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44043</v>
       </c>
@@ -44203,12 +42658,8 @@
         <f>data!X153/data!X152-1</f>
         <v>2.0944433136576457E-2</v>
       </c>
-      <c r="Y153" s="6">
-        <f>data!Y153/data!Y152-1</f>
-        <v>9.3768349970639875E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44074</v>
       </c>
@@ -44304,12 +42755,8 @@
         <f>data!X154/data!X153-1</f>
         <v>-2.6874538966087713E-2</v>
       </c>
-      <c r="Y154" s="6">
-        <f>data!Y154/data!Y153-1</f>
-        <v>4.3721708146235994E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44104</v>
       </c>
@@ -44405,12 +42852,8 @@
         <f>data!X155/data!X154-1</f>
         <v>3.2779496424986121E-3</v>
       </c>
-      <c r="Y155" s="6">
-        <f>data!Y155/data!Y154-1</f>
-        <v>4.0544821032626466E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>44134</v>
       </c>
@@ -44506,12 +42949,8 @@
         <f>data!X156/data!X155-1</f>
         <v>-2.1543362398153909E-2</v>
       </c>
-      <c r="Y156" s="6">
-        <f>data!Y156/data!Y155-1</f>
-        <v>7.3010464833278554E-4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44165</v>
       </c>
@@ -44607,12 +43046,8 @@
         <f>data!X157/data!X156-1</f>
         <v>7.3044494532097382E-3</v>
       </c>
-      <c r="Y157" s="6">
-        <f>data!Y157/data!Y156-1</f>
-        <v>8.5567084594322385E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44196</v>
       </c>
@@ -44708,12 +43143,8 @@
         <f>data!X158/data!X157-1</f>
         <v>-9.758422077653095E-3</v>
       </c>
-      <c r="Y158" s="6">
-        <f>data!Y158/data!Y157-1</f>
-        <v>1.3020879847107203E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44225</v>
       </c>
@@ -44809,12 +43240,8 @@
         <f>data!X159/data!X158-1</f>
         <v>-2.5734909509362969E-2</v>
       </c>
-      <c r="Y159" s="6">
-        <f>data!Y159/data!Y158-1</f>
-        <v>-1.6485647788982982E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44253</v>
       </c>
@@ -44910,12 +43337,8 @@
         <f>data!X160/data!X159-1</f>
         <v>-4.7095457961988552E-2</v>
       </c>
-      <c r="Y160" s="6">
-        <f>data!Y160/data!Y159-1</f>
-        <v>5.4836858139433176E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44286</v>
       </c>
@@ -45011,12 +43434,8 @@
         <f>data!X161/data!X160-1</f>
         <v>-2.9004777787794089E-2</v>
       </c>
-      <c r="Y161" s="6">
-        <f>data!Y161/data!Y160-1</f>
-        <v>2.6171113414013014E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44316</v>
       </c>
@@ -45112,12 +43531,8 @@
         <f>data!X162/data!X161-1</f>
         <v>1.7198560984101219E-2</v>
       </c>
-      <c r="Y162" s="6">
-        <f>data!Y162/data!Y161-1</f>
-        <v>1.36295154339372E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>44347</v>
       </c>
@@ -45213,12 +43628,8 @@
         <f>data!X163/data!X162-1</f>
         <v>5.3392963081275724E-3</v>
       </c>
-      <c r="Y163" s="6">
-        <f>data!Y163/data!Y162-1</f>
-        <v>-1.4949879018320011E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44377</v>
       </c>
@@ -45314,12 +43725,8 @@
         <f>data!X164/data!X163-1</f>
         <v>2.6985928279618765E-2</v>
       </c>
-      <c r="Y164" s="6">
-        <f>data!Y164/data!Y163-1</f>
-        <v>5.8331241832327851E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44407</v>
       </c>
@@ -45415,12 +43822,8 @@
         <f>data!X165/data!X164-1</f>
         <v>2.4729828283498012E-2</v>
       </c>
-      <c r="Y165" s="6">
-        <f>data!Y165/data!Y164-1</f>
-        <v>-5.196995379492475E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44439</v>
       </c>
@@ -45516,12 +43919,8 @@
         <f>data!X166/data!X165-1</f>
         <v>-1.0567632850241315E-3</v>
       </c>
-      <c r="Y166" s="6">
-        <f>data!Y166/data!Y165-1</f>
-        <v>1.3665810391205735E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44469</v>
       </c>
@@ -45617,12 +44016,8 @@
         <f>data!X167/data!X166-1</f>
         <v>-2.2992724367969952E-2</v>
       </c>
-      <c r="Y167" s="6">
-        <f>data!Y167/data!Y166-1</f>
-        <v>-2.4012092420643283E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44498</v>
       </c>
@@ -45718,12 +44113,8 @@
         <f>data!X168/data!X167-1</f>
         <v>1.0253237282892069E-2</v>
       </c>
-      <c r="Y168" s="6">
-        <f>data!Y168/data!Y167-1</f>
-        <v>1.7403049429856043E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44530</v>
       </c>
@@ -45819,12 +44210,8 @@
         <f>data!X169/data!X168-1</f>
         <v>1.7957915919331491E-2</v>
       </c>
-      <c r="Y169" s="6">
-        <f>data!Y169/data!Y168-1</f>
-        <v>-8.4098255803903843E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>44561</v>
       </c>
@@ -45920,12 +44307,8 @@
         <f>data!X170/data!X169-1</f>
         <v>-1.0356904961430158E-2</v>
       </c>
-      <c r="Y170" s="6">
-        <f>data!Y170/data!Y169-1</f>
-        <v>9.4661146219219283E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>44592</v>
       </c>
@@ -46021,12 +44404,8 @@
         <f>data!X171/data!X170-1</f>
         <v>-2.9897735414811999E-2</v>
       </c>
-      <c r="Y171" s="6">
-        <f>data!Y171/data!Y170-1</f>
-        <v>-8.747010214919082E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>44620</v>
       </c>
@@ -46122,12 +44501,8 @@
         <f>data!X172/data!X171-1</f>
         <v>-3.7153088630260678E-3</v>
       </c>
-      <c r="Y172" s="6">
-        <f>data!Y172/data!Y171-1</f>
-        <v>-2.613285945747279E-4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44651</v>
       </c>
@@ -46223,15 +44598,10 @@
         <f>data!X173/data!X172-1</f>
         <v>-4.1919396145032928E-2</v>
       </c>
-      <c r="Y173" s="6">
-        <f>data!Y173/data!Y172-1</f>
-        <v>1.0220618987871299E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <f>EOMONTH(A173,1)</f>
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B174" s="6">
         <f>data!B174/data!B173-1</f>
@@ -46283,7 +44653,7 @@
       </c>
       <c r="N174" s="6">
         <f>data!N174/data!N173-1</f>
-        <v>7.0585275094251498E-2</v>
+        <v>7.0584995519819893E-2</v>
       </c>
       <c r="O174" s="6">
         <f>data!O174/data!O173-1</f>
@@ -46325,14 +44695,9 @@
         <f>data!X174/data!X173-1</f>
         <v>-6.1902082160945504E-2</v>
       </c>
-      <c r="Y174" s="6">
-        <f>data!Y174/data!Y173-1</f>
-        <v>8.1679474905340665E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <f t="shared" ref="A175:A180" si="0">EOMONTH(A174,1)</f>
         <v>44712</v>
       </c>
       <c r="B175" s="6">
@@ -46385,7 +44750,7 @@
       </c>
       <c r="N175" s="6">
         <f>data!N175/data!N174-1</f>
-        <v>-2.0123577463369013E-3</v>
+        <v>-2.0120971301045287E-3</v>
       </c>
       <c r="O175" s="6">
         <f>data!O175/data!O174-1</f>
@@ -46427,14 +44792,9 @@
         <f>data!X175/data!X174-1</f>
         <v>-1.1997600479902726E-3</v>
       </c>
-      <c r="Y175" s="6">
-        <f>data!Y175/data!Y174-1</f>
-        <v>-9.3251659708439849E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <f t="shared" si="0"/>
         <v>44742</v>
       </c>
       <c r="B176" s="6">
@@ -46483,11 +44843,11 @@
       </c>
       <c r="M176" s="6">
         <f>data!M176/data!M175-1</f>
-        <v>-8.4436373581628921E-3</v>
+        <v>-4.2341138324794025E-3</v>
       </c>
       <c r="N176" s="6">
         <f>data!N176/data!N175-1</f>
-        <v>2.5682214906559642E-2</v>
+        <v>2.5682476574804713E-2</v>
       </c>
       <c r="O176" s="6">
         <f>data!O176/data!O175-1</f>
@@ -46511,7 +44871,7 @@
       </c>
       <c r="T176" s="6">
         <f>data!T176/data!T175-1</f>
-        <v>5.2939434325485202E-3</v>
+        <v>0</v>
       </c>
       <c r="U176" s="6">
         <f>data!U176/data!U175-1</f>
@@ -46529,15 +44889,10 @@
         <f>data!X176/data!X175-1</f>
         <v>-4.6046046046046563E-3</v>
       </c>
-      <c r="Y176" s="6">
-        <f>data!Y176/data!Y175-1</f>
-        <v>-9.4302146841914736E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <f t="shared" si="0"/>
-        <v>44773</v>
+        <v>44771</v>
       </c>
       <c r="B177" s="6">
         <f>data!B177/data!B176-1</f>
@@ -46585,11 +44940,11 @@
       </c>
       <c r="M177" s="6">
         <f>data!M177/data!M176-1</f>
-        <v>-8.0305910486971888E-3</v>
+        <v>-4.2274229155259135E-3</v>
       </c>
       <c r="N177" s="6">
         <f>data!N177/data!N176-1</f>
-        <v>-4.4075166444247693E-2</v>
+        <v>-4.4074644967500798E-2</v>
       </c>
       <c r="O177" s="6">
         <f>data!O177/data!O176-1</f>
@@ -46631,14 +44986,9 @@
         <f>data!X177/data!X176-1</f>
         <v>4.0552091713596194E-2</v>
       </c>
-      <c r="Y177" s="6">
-        <f>data!Y177/data!Y176-1</f>
-        <v>-9.0056317890955251E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <f t="shared" si="0"/>
         <v>44804</v>
       </c>
       <c r="B178" s="6">
@@ -46687,11 +45037,11 @@
       </c>
       <c r="M178" s="6">
         <f>data!M178/data!M177-1</f>
-        <v>1.3003298510223305E-2</v>
+        <v>-8.0305910486971888E-3</v>
       </c>
       <c r="N178" s="6">
         <f>data!N178/data!N177-1</f>
-        <v>3.988693936721921E-2</v>
+        <v>3.9915463465757695E-2</v>
       </c>
       <c r="O178" s="6">
         <f>data!O178/data!O177-1</f>
@@ -46715,7 +45065,7 @@
       </c>
       <c r="T178" s="6">
         <f>data!T178/data!T177-1</f>
-        <v>0</v>
+        <v>5.2939434325485202E-3</v>
       </c>
       <c r="U178" s="6">
         <f>data!U178/data!U177-1</f>
@@ -46733,14 +45083,9 @@
         <f>data!X178/data!X177-1</f>
         <v>-5.0689796805914566E-2</v>
       </c>
-      <c r="Y178" s="6">
-        <f>data!Y178/data!Y177-1</f>
-        <v>5.3926614059625066E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <f t="shared" si="0"/>
         <v>44834</v>
       </c>
       <c r="B179" s="6">
@@ -46789,11 +45134,11 @@
       </c>
       <c r="M179" s="6">
         <f>data!M179/data!M178-1</f>
-        <v>1.2912852829181087E-2</v>
+        <v>3.0318563334581494E-2</v>
       </c>
       <c r="N179" s="6">
         <f>data!N179/data!N178-1</f>
-        <v>5.7616721583853003E-2</v>
+        <v>5.7586865209851901E-2</v>
       </c>
       <c r="O179" s="6">
         <f>data!O179/data!O178-1</f>
@@ -46834,112 +45179,6 @@
       <c r="X179" s="6">
         <f>data!X179/data!X178-1</f>
         <v>-6.7063704156168136E-2</v>
-      </c>
-      <c r="Y179" s="6">
-        <f>data!Y179/data!Y178-1</f>
-        <v>2.5103687240781936E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
-        <f t="shared" si="0"/>
-        <v>44865</v>
-      </c>
-      <c r="B180" s="6">
-        <f>data!B180/data!B179-1</f>
-        <v>-8.5186275953467727E-2</v>
-      </c>
-      <c r="C180" s="6">
-        <f>data!C180/data!C179-1</f>
-        <v>-2.247835963750866E-2</v>
-      </c>
-      <c r="D180" s="6">
-        <f>data!D180/data!D179-1</f>
-        <v>-6.8202384754604495E-2</v>
-      </c>
-      <c r="E180" s="6">
-        <f>data!E180/data!E179-1</f>
-        <v>7.9863454576893256E-2</v>
-      </c>
-      <c r="F180" s="6">
-        <f>data!F180/data!F179-1</f>
-        <v>5.9634602526338565E-2</v>
-      </c>
-      <c r="G180" s="6">
-        <f>data!G180/data!G179-1</f>
-        <v>0.10941626079163069</v>
-      </c>
-      <c r="H180" s="6">
-        <f>data!H180/data!H179-1</f>
-        <v>5.3277800515203255E-2</v>
-      </c>
-      <c r="I180" s="6">
-        <f>data!I180/data!I179-1</f>
-        <v>-3.1548658925084738E-2</v>
-      </c>
-      <c r="J180" s="6">
-        <f>data!J180/data!J179-1</f>
-        <v>8.4970651876437042E-3</v>
-      </c>
-      <c r="K180" s="6">
-        <f>data!K180/data!K179-1</f>
-        <v>2.8464391691394475E-2</v>
-      </c>
-      <c r="L180" s="6">
-        <f>data!L180/data!L179-1</f>
-        <v>1.4667623922124395E-3</v>
-      </c>
-      <c r="M180" s="6">
-        <f>data!M180/data!M179-1</f>
-        <v>8.1884975994535036E-3</v>
-      </c>
-      <c r="N180" s="6">
-        <f>data!N180/data!N179-1</f>
-        <v>1.8920279788154915E-3</v>
-      </c>
-      <c r="O180" s="6">
-        <f>data!O180/data!O179-1</f>
-        <v>0</v>
-      </c>
-      <c r="P180" s="6">
-        <f>data!P180/data!P179-1</f>
-        <v>3.284580025073125E-2</v>
-      </c>
-      <c r="Q180" s="6">
-        <f>data!Q180/data!Q179-1</f>
-        <v>0</v>
-      </c>
-      <c r="R180" s="6">
-        <f>data!R180/data!R179-1</f>
-        <v>0.23927421623480138</v>
-      </c>
-      <c r="S180" s="6">
-        <f>data!S180/data!S179-1</f>
-        <v>0.24719143613831274</v>
-      </c>
-      <c r="T180" s="6">
-        <f>data!T180/data!T179-1</f>
-        <v>0</v>
-      </c>
-      <c r="U180" s="6">
-        <f>data!U180/data!U179-1</f>
-        <v>6.0818705117975602E-2</v>
-      </c>
-      <c r="V180" s="6">
-        <f>data!V180/data!V179-1</f>
-        <v>8.09579276187542E-2</v>
-      </c>
-      <c r="W180" s="6">
-        <f>data!W180/data!W179-1</f>
-        <v>-6.8202554744525523E-2</v>
-      </c>
-      <c r="X180" s="6">
-        <f>data!X180/data!X179-1</f>
-        <v>-4.3730903535574073E-2</v>
-      </c>
-      <c r="Y180" s="6">
-        <f>data!Y180/data!Y179-1</f>
-        <v>5.6335623746317509E-4</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E9707-9DB4-4F91-9EC0-BB3E616D6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC03C74-7C6D-4B85-AF93-D5E3F9253D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="615" windowWidth="19200" windowHeight="7230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
-    <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_11" hidden="1">bbg!$A$1:$Y$7</definedName>
+    <definedName name="SpreadsheetBuilder_9" hidden="1">bbg!$A$1:$Q$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="29">
   <si>
     <t>Start Date</t>
   </si>
@@ -124,6 +125,9 @@
   </si>
   <si>
     <t>SPUSTBTR Index</t>
+  </si>
+  <si>
+    <t>HFRXAR Index</t>
   </si>
 </sst>
 </file>
@@ -256,6 +260,12 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDH|17082754331996760226</stp>
+        <tr r="Y7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
         <stp>BDH|13669283076037410617</stp>
         <tr r="I7" s="1"/>
       </tp>
@@ -285,64 +295,64 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C2</stp>
@@ -359,120 +369,128 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C20</stp>
         <stp>PX_LAST</stp>
         <tr r="T5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C21</stp>
         <stp>PX_LAST</stp>
         <tr r="U5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C22</stp>
         <stp>PX_LAST</stp>
         <tr r="V5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C23</stp>
         <stp>PX_LAST</stp>
         <tr r="W5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C24</stp>
         <stp>PX_LAST</stp>
         <tr r="X5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[index_data.xlsx]bbg!R5C25</stp>
+        <stp>PX_LAST</stp>
+        <tr r="Y5" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C19</stp>
@@ -831,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X186"/>
+  <dimension ref="A1:Y186"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:X186"/>
+    <sheetView topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186:Y186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +873,7 @@
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +881,7 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -871,7 +889,7 @@
         <v>44895</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -941,8 +959,11 @@
       <c r="X4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>_xll.BFieldInfo(B$6)</f>
         <v>Last Price</v>
@@ -1003,40 +1024,44 @@
         <f>_xll.BFieldInfo(P$6)</f>
         <v>Last Price</v>
       </c>
-      <c r="Q5" t="e">
+      <c r="Q5" t="str">
         <f>_xll.BFieldInfo(Q$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="R5" t="str">
         <f>_xll.BFieldInfo(R$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="S5" t="str">
         <f>_xll.BFieldInfo(S$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="T5" t="str">
         <f>_xll.BFieldInfo(T$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="U5" t="str">
         <f>_xll.BFieldInfo(U$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="V5" t="str">
         <f>_xll.BFieldInfo(V$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="W5" t="str">
         <f>_xll.BFieldInfo(W$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="X5" t="str">
         <f>_xll.BFieldInfo(X$6)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>Last Price</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>_xll.BFieldInfo(Y$6)</f>
+        <v>Last Price</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1109,8 +1134,11 @@
       <c r="X6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=180")</f>
         <v>39447</v>
@@ -1206,8 +1234,12 @@
         <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
         <v>221.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <v>1174.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39478</v>
       </c>
@@ -1280,8 +1312,11 @@
       <c r="X8">
         <v>227.77</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>1175.0899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39507</v>
       </c>
@@ -1354,8 +1389,11 @@
       <c r="X9">
         <v>228.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>1169.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39538</v>
       </c>
@@ -1428,8 +1466,11 @@
       <c r="X10">
         <v>229.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>1141.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39568</v>
       </c>
@@ -1502,8 +1543,11 @@
       <c r="X11">
         <v>226.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>1146.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39598</v>
       </c>
@@ -1576,8 +1620,11 @@
       <c r="X12">
         <v>222.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>1160.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39629</v>
       </c>
@@ -1650,8 +1697,11 @@
       <c r="X13">
         <v>225.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>1160.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39660</v>
       </c>
@@ -1724,8 +1774,11 @@
       <c r="X14">
         <v>226.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>1147.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39689</v>
       </c>
@@ -1798,8 +1851,11 @@
       <c r="X15">
         <v>231.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>1156.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39721</v>
       </c>
@@ -1872,8 +1928,11 @@
       <c r="X16">
         <v>231.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>1113.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39752</v>
       </c>
@@ -1946,8 +2005,11 @@
       <c r="X17">
         <v>223.83</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>1064.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39780</v>
       </c>
@@ -2020,8 +2082,11 @@
       <c r="X18">
         <v>254.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>1045.5999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39813</v>
       </c>
@@ -2094,8 +2159,11 @@
       <c r="X19">
         <v>275.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>1020.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39843</v>
       </c>
@@ -2168,8 +2236,11 @@
       <c r="X20">
         <v>252.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>1023.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39871</v>
       </c>
@@ -2242,8 +2313,11 @@
       <c r="X21">
         <v>248.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>1021.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39903</v>
       </c>
@@ -2316,8 +2390,11 @@
       <c r="X22">
         <v>261.64</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>1015.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39933</v>
       </c>
@@ -2390,8 +2467,11 @@
       <c r="X23">
         <v>247.27</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>1010.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39962</v>
       </c>
@@ -2464,8 +2544,11 @@
       <c r="X24">
         <v>240.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>1006.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39994</v>
       </c>
@@ -2538,8 +2621,11 @@
       <c r="X25">
         <v>241.93</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>994.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40025</v>
       </c>
@@ -2612,8 +2698,11 @@
       <c r="X26">
         <v>243.28</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>988.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40056</v>
       </c>
@@ -2686,8 +2775,11 @@
       <c r="X27">
         <v>247.28</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>983.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40086</v>
       </c>
@@ -2760,8 +2852,11 @@
       <c r="X28">
         <v>251.11</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>982.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40116</v>
       </c>
@@ -2834,8 +2929,11 @@
       <c r="X29">
         <v>248.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>976.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40147</v>
       </c>
@@ -2908,8 +3006,11 @@
       <c r="X30">
         <v>255.21</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>982.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40178</v>
       </c>
@@ -2982,8 +3083,11 @@
       <c r="X31">
         <v>240.89</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>984.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40207</v>
       </c>
@@ -3056,8 +3160,11 @@
       <c r="X32">
         <v>248.08</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>985.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40235</v>
       </c>
@@ -3130,8 +3237,11 @@
       <c r="X33">
         <v>248.88</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>987.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40268</v>
       </c>
@@ -3204,8 +3314,11 @@
       <c r="X34">
         <v>245.69</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>971.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40298</v>
       </c>
@@ -3278,8 +3391,11 @@
       <c r="X35">
         <v>251.94</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>977.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40329</v>
       </c>
@@ -3352,8 +3468,11 @@
       <c r="X36">
         <v>260.77</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>970.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40359</v>
       </c>
@@ -3426,8 +3545,11 @@
       <c r="X37">
         <v>271.02</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>964.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40389</v>
       </c>
@@ -3500,8 +3622,11 @@
       <c r="X38">
         <v>273.64999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <v>971.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40421</v>
       </c>
@@ -3574,8 +3699,11 @@
       <c r="X39">
         <v>290.10000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <v>963.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40451</v>
       </c>
@@ -3648,8 +3776,11 @@
       <c r="X40">
         <v>287.45999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <v>976.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40480</v>
       </c>
@@ -3722,8 +3853,11 @@
       <c r="X41">
         <v>281.51</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>982.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40512</v>
       </c>
@@ -3796,8 +3930,11 @@
       <c r="X42">
         <v>276.77</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>978.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40543</v>
       </c>
@@ -3870,8 +4007,11 @@
       <c r="X43">
         <v>265.92</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <v>983.07</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40574</v>
       </c>
@@ -3944,8 +4084,11 @@
       <c r="X44">
         <v>262.69</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <v>986.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40602</v>
       </c>
@@ -4018,8 +4161,11 @@
       <c r="X45">
         <v>265.58</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <v>987.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40633</v>
       </c>
@@ -4092,8 +4238,11 @@
       <c r="X46">
         <v>265.16000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40662</v>
       </c>
@@ -4166,8 +4315,11 @@
       <c r="X47">
         <v>270</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>988.91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40694</v>
       </c>
@@ -4240,8 +4392,11 @@
       <c r="X48">
         <v>278.36</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>981.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40724</v>
       </c>
@@ -4314,8 +4469,11 @@
       <c r="X49">
         <v>274.33</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <v>968.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40753</v>
       </c>
@@ -4388,8 +4546,11 @@
       <c r="X50">
         <v>285.69</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <v>962.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40786</v>
       </c>
@@ -4462,8 +4623,11 @@
       <c r="X51">
         <v>306.13</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>953.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40816</v>
       </c>
@@ -4536,8 +4700,11 @@
       <c r="X52">
         <v>320.97000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <v>945.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40847</v>
       </c>
@@ -4610,8 +4777,11 @@
       <c r="X53">
         <v>312.89</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <v>953.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40877</v>
       </c>
@@ -4684,8 +4854,11 @@
       <c r="X54">
         <v>318.52</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <v>947.78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40907</v>
       </c>
@@ -4758,8 +4931,11 @@
       <c r="X55">
         <v>326.26</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <v>946.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40939</v>
       </c>
@@ -4832,8 +5008,11 @@
       <c r="X56">
         <v>327.68</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>951.83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40968</v>
       </c>
@@ -4906,8 +5085,11 @@
       <c r="X57">
         <v>322.39999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <v>956.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40998</v>
       </c>
@@ -4980,8 +5162,11 @@
       <c r="X58">
         <v>313.52999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <v>952.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41029</v>
       </c>
@@ -5054,8 +5239,11 @@
       <c r="X59">
         <v>325.22000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>949.37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41060</v>
       </c>
@@ -5128,8 +5316,11 @@
       <c r="X60">
         <v>342.13</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <v>947.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41089</v>
       </c>
@@ -5202,8 +5393,11 @@
       <c r="X61">
         <v>338.15</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>947.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41121</v>
       </c>
@@ -5276,8 +5470,11 @@
       <c r="X62">
         <v>345.18</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <v>945.54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41152</v>
       </c>
@@ -5350,8 +5547,11 @@
       <c r="X63">
         <v>344.19</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <v>948.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41180</v>
       </c>
@@ -5424,8 +5624,11 @@
       <c r="X64">
         <v>339.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <v>946.65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41213</v>
       </c>
@@ -5498,8 +5701,11 @@
       <c r="X65">
         <v>339.49</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>944.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41243</v>
       </c>
@@ -5572,8 +5778,11 @@
       <c r="X66">
         <v>344.21</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <v>949.92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41274</v>
       </c>
@@ -5646,8 +5855,11 @@
       <c r="X67">
         <v>338.35</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>954.86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41305</v>
       </c>
@@ -5720,8 +5932,11 @@
       <c r="X68">
         <v>329.13</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <v>957.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41333</v>
       </c>
@@ -5794,8 +6009,11 @@
       <c r="X69">
         <v>333.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <v>960.14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41362</v>
       </c>
@@ -5868,8 +6086,11 @@
       <c r="X70">
         <v>334.92</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <v>961.61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41394</v>
       </c>
@@ -5942,8 +6163,11 @@
       <c r="X71">
         <v>344</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <v>962.97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41425</v>
       </c>
@@ -6016,8 +6240,11 @@
       <c r="X72">
         <v>326.89999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <v>971.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41453</v>
       </c>
@@ -6090,8 +6317,11 @@
       <c r="X73">
         <v>317.14</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <v>971.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41486</v>
       </c>
@@ -6164,8 +6394,11 @@
       <c r="X74">
         <v>312.99</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <v>977.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41516</v>
       </c>
@@ -6238,8 +6471,11 @@
       <c r="X75">
         <v>311.27</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <v>970.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41547</v>
       </c>
@@ -6312,8 +6548,11 @@
       <c r="X76">
         <v>314.74</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76">
+        <v>972.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41578</v>
       </c>
@@ -6386,8 +6625,11 @@
       <c r="X77">
         <v>318.14999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77">
+        <v>981.77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41607</v>
       </c>
@@ -6460,8 +6702,11 @@
       <c r="X78">
         <v>312.02999999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78">
+        <v>986.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41639</v>
       </c>
@@ -6534,8 +6779,11 @@
       <c r="X79">
         <v>306.23</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41670</v>
       </c>
@@ -6608,8 +6856,11 @@
       <c r="X80">
         <v>318.85000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <v>995.73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41698</v>
       </c>
@@ -6682,8 +6933,11 @@
       <c r="X81">
         <v>321.19</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <v>1001.92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41729</v>
       </c>
@@ -6756,8 +7010,11 @@
       <c r="X82">
         <v>321.58</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <v>1001.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41759</v>
       </c>
@@ -6830,8 +7087,11 @@
       <c r="X83">
         <v>325.74</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83">
+        <v>999.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41789</v>
       </c>
@@ -6904,8 +7164,11 @@
       <c r="X84">
         <v>333.66</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <v>1000.28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41820</v>
       </c>
@@ -6978,8 +7241,11 @@
       <c r="X85">
         <v>332.99</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85">
+        <v>1007.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41851</v>
       </c>
@@ -7052,8 +7318,11 @@
       <c r="X86">
         <v>333.53</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86">
+        <v>1001.15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41880</v>
       </c>
@@ -7126,8 +7395,11 @@
       <c r="X87">
         <v>343.56</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87">
+        <v>1008.67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41912</v>
       </c>
@@ -7200,8 +7472,11 @@
       <c r="X88">
         <v>338.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88">
+        <v>1006.78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41943</v>
       </c>
@@ -7274,8 +7549,11 @@
       <c r="X89">
         <v>346.02</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>1003.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41971</v>
       </c>
@@ -7348,8 +7626,11 @@
       <c r="X90">
         <v>353.34</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <v>1003.29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42004</v>
       </c>
@@ -7422,8 +7703,11 @@
       <c r="X91">
         <v>358.15</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <v>996.78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -7496,8 +7780,11 @@
       <c r="X92">
         <v>374.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <v>1002.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42062</v>
       </c>
@@ -7570,8 +7857,11 @@
       <c r="X93">
         <v>362.28</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93">
+        <v>1009.67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42094</v>
       </c>
@@ -7644,8 +7934,11 @@
       <c r="X94">
         <v>366.83</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <v>1013.49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42124</v>
       </c>
@@ -7718,8 +8011,11 @@
       <c r="X95">
         <v>357.26</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <v>1014.72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42153</v>
       </c>
@@ -7792,8 +8088,11 @@
       <c r="X96">
         <v>351.82</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>1020.72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42185</v>
       </c>
@@ -7866,8 +8165,11 @@
       <c r="X97">
         <v>341.01</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <v>1016.84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42216</v>
       </c>
@@ -7940,8 +8242,11 @@
       <c r="X98">
         <v>352.54</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <v>1019.27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42247</v>
       </c>
@@ -8014,8 +8319,11 @@
       <c r="X99">
         <v>352.97</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>1020.55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42277</v>
       </c>
@@ -8088,8 +8396,11 @@
       <c r="X100">
         <v>359.19</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>1023.04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42307</v>
       </c>
@@ -8162,8 +8473,11 @@
       <c r="X101">
         <v>357.13</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <v>1034.8399999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42338</v>
       </c>
@@ -8236,8 +8550,11 @@
       <c r="X102">
         <v>354.81</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <v>1029.6099999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42369</v>
       </c>
@@ -8310,8 +8627,11 @@
       <c r="X103">
         <v>354.31</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <v>1025.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42398</v>
       </c>
@@ -8384,8 +8704,11 @@
       <c r="X104">
         <v>371.17</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y104">
+        <v>1025.8699999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42429</v>
       </c>
@@ -8458,8 +8781,11 @@
       <c r="X105">
         <v>382.41</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y105">
+        <v>1022.32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42460</v>
       </c>
@@ -8532,8 +8858,11 @@
       <c r="X106">
         <v>382.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y106">
+        <v>1019.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42489</v>
       </c>
@@ -8606,8 +8935,11 @@
       <c r="X107">
         <v>379.75</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <v>1020.07</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42521</v>
       </c>
@@ -8680,8 +9012,11 @@
       <c r="X108">
         <v>383.05</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <v>1024.72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42551</v>
       </c>
@@ -8754,8 +9089,11 @@
       <c r="X109">
         <v>404.33</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y109">
+        <v>1022.94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42580</v>
       </c>
@@ -8828,8 +9166,11 @@
       <c r="X110">
         <v>409.33</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y110">
+        <v>1029.23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42613</v>
       </c>
@@ -8902,8 +9243,11 @@
       <c r="X111">
         <v>403.28</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y111">
+        <v>1028.6300000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42643</v>
       </c>
@@ -8976,8 +9320,11 @@
       <c r="X112">
         <v>398.14</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y112">
+        <v>1032.06</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42674</v>
       </c>
@@ -9050,8 +9397,11 @@
       <c r="X113">
         <v>385.37</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y113">
+        <v>1028.01</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42704</v>
       </c>
@@ -9124,8 +9474,11 @@
       <c r="X114">
         <v>361.58</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y114">
+        <v>1026.3800000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42734</v>
       </c>
@@ -9198,8 +9551,11 @@
       <c r="X115">
         <v>360.24</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y115">
+        <v>1028.46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42766</v>
       </c>
@@ -9272,8 +9628,11 @@
       <c r="X116">
         <v>360.86</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y116">
+        <v>1031.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42794</v>
       </c>
@@ -9346,8 +9705,11 @@
       <c r="X117">
         <v>365.93</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y117">
+        <v>1032.6099999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42825</v>
       </c>
@@ -9420,8 +9782,11 @@
       <c r="X118">
         <v>364.2</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y118">
+        <v>1035.1500000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -9494,8 +9859,11 @@
       <c r="X119">
         <v>369.56</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y119">
+        <v>1038.31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42886</v>
       </c>
@@ -9568,8 +9936,11 @@
       <c r="X120">
         <v>374.95</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y120">
+        <v>1041.6099999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42916</v>
       </c>
@@ -9642,8 +10013,11 @@
       <c r="X121">
         <v>374.95</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y121">
+        <v>1042.6300000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42947</v>
       </c>
@@ -9716,8 +10090,11 @@
       <c r="X122">
         <v>373.55</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y122">
+        <v>1047.6300000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42978</v>
       </c>
@@ -9790,8 +10167,11 @@
       <c r="X123">
         <v>384.51</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y123">
+        <v>1054.49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43007</v>
       </c>
@@ -9864,8 +10244,11 @@
       <c r="X124">
         <v>376.74</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y124">
+        <v>1061.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43039</v>
       </c>
@@ -9938,8 +10321,11 @@
       <c r="X125">
         <v>376.25</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y125">
+        <v>1066.3800000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43069</v>
       </c>
@@ -10012,8 +10398,11 @@
       <c r="X126">
         <v>377.46</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y126">
+        <v>1060.29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43098</v>
       </c>
@@ -10086,8 +10475,11 @@
       <c r="X127">
         <v>381.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y127">
+        <v>1063.28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43131</v>
       </c>
@@ -10160,8 +10552,11 @@
       <c r="X128">
         <v>368.62</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128">
+        <v>1071.8599999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43159</v>
       </c>
@@ -10234,8 +10629,11 @@
       <c r="X129">
         <v>360.64</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129">
+        <v>1068.06</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43189</v>
       </c>
@@ -10308,8 +10706,11 @@
       <c r="X130">
         <v>369.16</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y130">
+        <v>1066.47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43220</v>
       </c>
@@ -10382,8 +10783,11 @@
       <c r="X131">
         <v>362.73</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y131">
+        <v>1067.4000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43251</v>
       </c>
@@ -10456,8 +10860,11 @@
       <c r="X132">
         <v>368.71</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y132">
+        <v>1072.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43280</v>
       </c>
@@ -10530,8 +10937,11 @@
       <c r="X133">
         <v>368.96</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y133">
+        <v>1074.3699999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43312</v>
       </c>
@@ -10604,8 +11014,11 @@
       <c r="X134">
         <v>364.43</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y134">
+        <v>1073.81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43343</v>
       </c>
@@ -10678,8 +11091,11 @@
       <c r="X135">
         <v>370.18</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y135">
+        <v>1077.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43371</v>
       </c>
@@ -10752,8 +11168,11 @@
       <c r="X136">
         <v>361.23</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y136">
+        <v>1073.93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43404</v>
       </c>
@@ -10826,8 +11245,11 @@
       <c r="X137">
         <v>355.86</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y137">
+        <v>1072.71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43434</v>
       </c>
@@ -10900,8 +11322,11 @@
       <c r="X138">
         <v>362.77</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y138">
+        <v>1068.3699999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43465</v>
       </c>
@@ -10974,8 +11399,11 @@
       <c r="X139">
         <v>379.35</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y139">
+        <v>1058.08</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43496</v>
       </c>
@@ -11048,8 +11476,11 @@
       <c r="X140">
         <v>381.93</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y140">
+        <v>1071.04</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43524</v>
       </c>
@@ -11122,8 +11553,11 @@
       <c r="X141">
         <v>378.48</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y141">
+        <v>1069.99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43553</v>
       </c>
@@ -11196,8 +11630,11 @@
       <c r="X142">
         <v>392.83</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y142">
+        <v>1064.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43585</v>
       </c>
@@ -11270,8 +11707,11 @@
       <c r="X143">
         <v>387.91</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y143">
+        <v>1067.04</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43616</v>
       </c>
@@ -11344,8 +11784,11 @@
       <c r="X144">
         <v>406.85</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y144">
+        <v>1067.57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43644</v>
       </c>
@@ -11418,8 +11861,11 @@
       <c r="X145">
         <v>412.53</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y145">
+        <v>1075.5999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43677</v>
       </c>
@@ -11492,8 +11938,11 @@
       <c r="X146">
         <v>413.33</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y146">
+        <v>1078.04</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43707</v>
       </c>
@@ -11566,8 +12015,11 @@
       <c r="X147">
         <v>441.78</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y147">
+        <v>1082.76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43738</v>
       </c>
@@ -11640,8 +12092,11 @@
       <c r="X148">
         <v>434.65</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y148">
+        <v>1087.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43769</v>
       </c>
@@ -11714,8 +12169,11 @@
       <c r="X149">
         <v>432.77</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y149">
+        <v>1092.23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43798</v>
       </c>
@@ -11788,8 +12246,11 @@
       <c r="X150">
         <v>428.94</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y150">
+        <v>1097.28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43830</v>
       </c>
@@ -11862,8 +12323,11 @@
       <c r="X151">
         <v>421.26</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y151">
+        <v>1104.27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43861</v>
       </c>
@@ -11936,8 +12400,11 @@
       <c r="X152">
         <v>442.44</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y152">
+        <v>1104.3399999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43889</v>
       </c>
@@ -12010,8 +12477,11 @@
       <c r="X153">
         <v>463.94</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y153">
+        <v>1100.98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43921</v>
       </c>
@@ -12084,8 +12554,11 @@
       <c r="X154">
         <v>488.19</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y154">
+        <v>1040.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43951</v>
       </c>
@@ -12158,8 +12631,11 @@
       <c r="X155">
         <v>493.62</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y155">
+        <v>1061.3800000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43980</v>
       </c>
@@ -12232,8 +12708,11 @@
       <c r="X156">
         <v>490.71</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y156">
+        <v>1075.1300000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44012</v>
       </c>
@@ -12306,8 +12785,11 @@
       <c r="X157">
         <v>491.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y157">
+        <v>1089.92</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44043</v>
       </c>
@@ -12380,8 +12862,11 @@
       <c r="X158">
         <v>501.59</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y158">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44074</v>
       </c>
@@ -12454,8 +12939,11 @@
       <c r="X159">
         <v>488.11</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y159">
+        <v>1104.95</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44104</v>
       </c>
@@ -12528,8 +13016,11 @@
       <c r="X160">
         <v>489.71</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y160">
+        <v>1109.43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44134</v>
       </c>
@@ -12602,8 +13093,11 @@
       <c r="X161">
         <v>479.16</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y161">
+        <v>1110.24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44165</v>
       </c>
@@ -12676,8 +13170,11 @@
       <c r="X162">
         <v>482.66</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y162">
+        <v>1119.74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44196</v>
       </c>
@@ -12750,8 +13247,11 @@
       <c r="X163">
         <v>477.95</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y163">
+        <v>1134.32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44225</v>
       </c>
@@ -12824,8 +13324,11 @@
       <c r="X164">
         <v>465.65</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y164">
+        <v>1132.45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44253</v>
       </c>
@@ -12898,8 +13401,11 @@
       <c r="X165">
         <v>443.72</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y165">
+        <v>1138.6600000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44286</v>
       </c>
@@ -12972,8 +13478,11 @@
       <c r="X166">
         <v>430.85</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y166">
+        <v>1141.6400000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44316</v>
       </c>
@@ -13046,8 +13555,11 @@
       <c r="X167">
         <v>438.26</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y167">
+        <v>1157.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44347</v>
       </c>
@@ -13120,8 +13632,11 @@
       <c r="X168">
         <v>440.6</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y168">
+        <v>1155.47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44377</v>
       </c>
@@ -13194,8 +13709,11 @@
       <c r="X169">
         <v>452.49</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y169">
+        <v>1162.21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44407</v>
       </c>
@@ -13268,8 +13786,11 @@
       <c r="X170">
         <v>463.68</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y170">
+        <v>1156.17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44439</v>
       </c>
@@ -13342,8 +13863,11 @@
       <c r="X171">
         <v>463.19</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y171">
+        <v>1157.75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44469</v>
       </c>
@@ -13416,8 +13940,11 @@
       <c r="X172">
         <v>452.54</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y172">
+        <v>1154.97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44498</v>
       </c>
@@ -13490,8 +14017,11 @@
       <c r="X173">
         <v>457.18</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y173">
+        <v>1156.98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44530</v>
       </c>
@@ -13564,8 +14094,11 @@
       <c r="X174">
         <v>465.39</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y174">
+        <v>1147.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44561</v>
       </c>
@@ -13638,8 +14171,11 @@
       <c r="X175">
         <v>460.57</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y175">
+        <v>1158.1099999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44592</v>
       </c>
@@ -13712,8 +14248,11 @@
       <c r="X176">
         <v>446.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y176">
+        <v>1147.98</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44620</v>
       </c>
@@ -13786,8 +14325,11 @@
       <c r="X177">
         <v>445.14</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y177">
+        <v>1147.68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44651</v>
       </c>
@@ -13860,8 +14402,11 @@
       <c r="X178">
         <v>426.48</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y178">
+        <v>1159.4100000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44680</v>
       </c>
@@ -13934,8 +14479,11 @@
       <c r="X179">
         <v>400.08</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y179">
+        <v>1168.8800000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44712</v>
       </c>
@@ -14008,8 +14556,11 @@
       <c r="X180">
         <v>399.6</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y180">
+        <v>1157.98</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44742</v>
       </c>
@@ -14082,8 +14633,11 @@
       <c r="X181">
         <v>397.76</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y181">
+        <v>1147.06</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44771</v>
       </c>
@@ -14156,8 +14710,11 @@
       <c r="X182">
         <v>413.89</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y182">
+        <v>1136.73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44804</v>
       </c>
@@ -14230,8 +14787,11 @@
       <c r="X183">
         <v>392.91</v>
       </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y183">
+        <v>1142.8599999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44834</v>
       </c>
@@ -14304,8 +14864,11 @@
       <c r="X184">
         <v>366.56</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y184">
+        <v>1171.55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44865</v>
       </c>
@@ -14378,8 +14941,11 @@
       <c r="X185">
         <v>350.53</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y185">
+        <v>1172.21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44895</v>
       </c>
@@ -14451,6 +15017,9 @@
       </c>
       <c r="X186">
         <v>371.08</v>
+      </c>
+      <c r="Y186">
+        <v>1162.29</v>
       </c>
     </row>
   </sheetData>
@@ -14460,10 +15029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X181"/>
+  <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181:X181"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14484,7 +15053,7 @@
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -14557,8 +15126,11 @@
       <c r="X1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39447</v>
       </c>
@@ -14631,8 +15203,11 @@
       <c r="X2">
         <v>221.59</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>1174.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39478</v>
       </c>
@@ -14705,8 +15280,11 @@
       <c r="X3">
         <v>227.77</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>1175.0899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39507</v>
       </c>
@@ -14779,8 +15357,11 @@
       <c r="X4">
         <v>228.89</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>1169.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39538</v>
       </c>
@@ -14853,8 +15434,11 @@
       <c r="X5">
         <v>229.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>1141.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39568</v>
       </c>
@@ -14927,8 +15511,11 @@
       <c r="X6">
         <v>226.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>1146.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39598</v>
       </c>
@@ -15001,8 +15588,11 @@
       <c r="X7">
         <v>222.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>1160.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39629</v>
       </c>
@@ -15075,8 +15665,11 @@
       <c r="X8">
         <v>225.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>1160.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39660</v>
       </c>
@@ -15149,8 +15742,11 @@
       <c r="X9">
         <v>226.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>1147.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39689</v>
       </c>
@@ -15223,8 +15819,11 @@
       <c r="X10">
         <v>231.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>1156.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39721</v>
       </c>
@@ -15297,8 +15896,11 @@
       <c r="X11">
         <v>231.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>1113.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39752</v>
       </c>
@@ -15371,8 +15973,11 @@
       <c r="X12">
         <v>223.83</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>1064.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39780</v>
       </c>
@@ -15445,8 +16050,11 @@
       <c r="X13">
         <v>254.45</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>1045.5999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39813</v>
       </c>
@@ -15519,8 +16127,11 @@
       <c r="X14">
         <v>275.52</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>1020.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39843</v>
       </c>
@@ -15593,8 +16204,11 @@
       <c r="X15">
         <v>252.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>1023.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39871</v>
       </c>
@@ -15667,8 +16281,11 @@
       <c r="X16">
         <v>248.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>1021.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39903</v>
       </c>
@@ -15741,8 +16358,11 @@
       <c r="X17">
         <v>261.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>1015.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39933</v>
       </c>
@@ -15815,8 +16435,11 @@
       <c r="X18">
         <v>247.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>1010.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39962</v>
       </c>
@@ -15889,8 +16512,11 @@
       <c r="X19">
         <v>240.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>1006.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39994</v>
       </c>
@@ -15963,8 +16589,11 @@
       <c r="X20">
         <v>241.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>994.61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40025</v>
       </c>
@@ -16037,8 +16666,11 @@
       <c r="X21">
         <v>243.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>988.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40056</v>
       </c>
@@ -16111,8 +16743,11 @@
       <c r="X22">
         <v>247.28</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>983.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40086</v>
       </c>
@@ -16185,8 +16820,11 @@
       <c r="X23">
         <v>251.11</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>982.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40116</v>
       </c>
@@ -16259,8 +16897,11 @@
       <c r="X24">
         <v>248.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>976.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40147</v>
       </c>
@@ -16333,8 +16974,11 @@
       <c r="X25">
         <v>255.21</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>982.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40178</v>
       </c>
@@ -16407,8 +17051,11 @@
       <c r="X26">
         <v>240.89</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>984.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40207</v>
       </c>
@@ -16481,8 +17128,11 @@
       <c r="X27">
         <v>248.08</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>985.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40235</v>
       </c>
@@ -16555,8 +17205,11 @@
       <c r="X28">
         <v>248.88</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>987.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40268</v>
       </c>
@@ -16629,8 +17282,11 @@
       <c r="X29">
         <v>245.69</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>971.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40298</v>
       </c>
@@ -16703,8 +17359,11 @@
       <c r="X30">
         <v>251.94</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>977.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40329</v>
       </c>
@@ -16777,8 +17436,11 @@
       <c r="X31">
         <v>260.77</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>970.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40359</v>
       </c>
@@ -16851,8 +17513,11 @@
       <c r="X32">
         <v>271.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>964.77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40389</v>
       </c>
@@ -16925,8 +17590,11 @@
       <c r="X33">
         <v>273.64999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>971.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40421</v>
       </c>
@@ -16999,8 +17667,11 @@
       <c r="X34">
         <v>290.10000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>963.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40451</v>
       </c>
@@ -17073,8 +17744,11 @@
       <c r="X35">
         <v>287.45999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>976.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40480</v>
       </c>
@@ -17147,8 +17821,11 @@
       <c r="X36">
         <v>281.51</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>982.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40512</v>
       </c>
@@ -17221,8 +17898,11 @@
       <c r="X37">
         <v>276.77</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>978.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40543</v>
       </c>
@@ -17295,8 +17975,11 @@
       <c r="X38">
         <v>265.92</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <v>983.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40574</v>
       </c>
@@ -17369,8 +18052,11 @@
       <c r="X39">
         <v>262.69</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <v>986.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40602</v>
       </c>
@@ -17443,8 +18129,11 @@
       <c r="X40">
         <v>265.58</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <v>987.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40633</v>
       </c>
@@ -17517,8 +18206,11 @@
       <c r="X41">
         <v>265.16000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40662</v>
       </c>
@@ -17591,8 +18283,11 @@
       <c r="X42">
         <v>270</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>988.91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40694</v>
       </c>
@@ -17665,8 +18360,11 @@
       <c r="X43">
         <v>278.36</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <v>981.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40724</v>
       </c>
@@ -17739,8 +18437,11 @@
       <c r="X44">
         <v>274.33</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <v>968.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40753</v>
       </c>
@@ -17813,8 +18514,11 @@
       <c r="X45">
         <v>285.69</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <v>962.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40786</v>
       </c>
@@ -17887,8 +18591,11 @@
       <c r="X46">
         <v>306.13</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>953.87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40816</v>
       </c>
@@ -17961,8 +18668,11 @@
       <c r="X47">
         <v>320.97000000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>945.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40847</v>
       </c>
@@ -18035,8 +18745,11 @@
       <c r="X48">
         <v>312.89</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>953.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40877</v>
       </c>
@@ -18109,8 +18822,11 @@
       <c r="X49">
         <v>318.52</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <v>947.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40907</v>
       </c>
@@ -18183,8 +18899,11 @@
       <c r="X50">
         <v>326.26</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <v>946.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40939</v>
       </c>
@@ -18257,8 +18976,11 @@
       <c r="X51">
         <v>327.68</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>951.83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40968</v>
       </c>
@@ -18331,8 +19053,11 @@
       <c r="X52">
         <v>322.39999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <v>956.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40998</v>
       </c>
@@ -18405,8 +19130,11 @@
       <c r="X53">
         <v>313.52999999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <v>952.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41029</v>
       </c>
@@ -18479,8 +19207,11 @@
       <c r="X54">
         <v>325.22000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <v>949.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41060</v>
       </c>
@@ -18553,8 +19284,11 @@
       <c r="X55">
         <v>342.13</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <v>947.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41089</v>
       </c>
@@ -18627,8 +19361,11 @@
       <c r="X56">
         <v>338.15</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>947.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41121</v>
       </c>
@@ -18701,8 +19438,11 @@
       <c r="X57">
         <v>345.18</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <v>945.54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41152</v>
       </c>
@@ -18775,8 +19515,11 @@
       <c r="X58">
         <v>344.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <v>948.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41180</v>
       </c>
@@ -18849,8 +19592,11 @@
       <c r="X59">
         <v>339.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>946.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41213</v>
       </c>
@@ -18923,8 +19669,11 @@
       <c r="X60">
         <v>339.49</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <v>944.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41243</v>
       </c>
@@ -18997,8 +19746,11 @@
       <c r="X61">
         <v>344.21</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>949.92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41274</v>
       </c>
@@ -19071,8 +19823,11 @@
       <c r="X62">
         <v>338.35</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <v>954.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41305</v>
       </c>
@@ -19145,8 +19900,11 @@
       <c r="X63">
         <v>329.13</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <v>957.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41333</v>
       </c>
@@ -19219,8 +19977,11 @@
       <c r="X64">
         <v>333.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <v>960.14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41362</v>
       </c>
@@ -19293,8 +20054,11 @@
       <c r="X65">
         <v>334.92</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>961.61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41394</v>
       </c>
@@ -19367,8 +20131,11 @@
       <c r="X66">
         <v>344</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <v>962.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41425</v>
       </c>
@@ -19441,8 +20208,11 @@
       <c r="X67">
         <v>326.89999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>971.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41453</v>
       </c>
@@ -19515,8 +20285,11 @@
       <c r="X68">
         <v>317.14</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <v>971.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41486</v>
       </c>
@@ -19589,8 +20362,11 @@
       <c r="X69">
         <v>312.99</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <v>977.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41516</v>
       </c>
@@ -19663,8 +20439,11 @@
       <c r="X70">
         <v>311.27</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <v>970.23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41547</v>
       </c>
@@ -19737,8 +20516,11 @@
       <c r="X71">
         <v>314.74</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <v>972.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41578</v>
       </c>
@@ -19811,8 +20593,11 @@
       <c r="X72">
         <v>318.14999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <v>981.77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41607</v>
       </c>
@@ -19885,8 +20670,11 @@
       <c r="X73">
         <v>312.02999999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <v>986.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41639</v>
       </c>
@@ -19959,8 +20747,11 @@
       <c r="X74">
         <v>306.23</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41670</v>
       </c>
@@ -20033,8 +20824,11 @@
       <c r="X75">
         <v>318.85000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <v>995.73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41698</v>
       </c>
@@ -20107,8 +20901,11 @@
       <c r="X76">
         <v>321.19</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76">
+        <v>1001.92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41729</v>
       </c>
@@ -20181,8 +20978,11 @@
       <c r="X77">
         <v>321.58</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77">
+        <v>1001.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41759</v>
       </c>
@@ -20255,8 +21055,11 @@
       <c r="X78">
         <v>325.74</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78">
+        <v>999.33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41789</v>
       </c>
@@ -20329,8 +21132,11 @@
       <c r="X79">
         <v>333.66</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <v>1000.28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41820</v>
       </c>
@@ -20403,8 +21209,11 @@
       <c r="X80">
         <v>332.99</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <v>1007.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41851</v>
       </c>
@@ -20477,8 +21286,11 @@
       <c r="X81">
         <v>333.53</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <v>1001.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41880</v>
       </c>
@@ -20551,8 +21363,11 @@
       <c r="X82">
         <v>343.56</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <v>1008.67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41912</v>
       </c>
@@ -20625,8 +21440,11 @@
       <c r="X83">
         <v>338.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83">
+        <v>1006.78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41943</v>
       </c>
@@ -20699,8 +21517,11 @@
       <c r="X84">
         <v>346.02</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <v>1003.23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41971</v>
       </c>
@@ -20773,8 +21594,11 @@
       <c r="X85">
         <v>353.34</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85">
+        <v>1003.29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42004</v>
       </c>
@@ -20847,8 +21671,11 @@
       <c r="X86">
         <v>358.15</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86">
+        <v>996.78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42034</v>
       </c>
@@ -20921,8 +21748,11 @@
       <c r="X87">
         <v>374.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87">
+        <v>1002.84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42062</v>
       </c>
@@ -20995,8 +21825,11 @@
       <c r="X88">
         <v>362.28</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88">
+        <v>1009.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42094</v>
       </c>
@@ -21069,8 +21902,11 @@
       <c r="X89">
         <v>366.83</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>1013.49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42124</v>
       </c>
@@ -21143,8 +21979,11 @@
       <c r="X90">
         <v>357.26</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <v>1014.72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42153</v>
       </c>
@@ -21217,8 +22056,11 @@
       <c r="X91">
         <v>351.82</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <v>1020.72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42185</v>
       </c>
@@ -21291,8 +22133,11 @@
       <c r="X92">
         <v>341.01</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <v>1016.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42216</v>
       </c>
@@ -21365,8 +22210,11 @@
       <c r="X93">
         <v>352.54</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93">
+        <v>1019.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42247</v>
       </c>
@@ -21439,8 +22287,11 @@
       <c r="X94">
         <v>352.97</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <v>1020.55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42277</v>
       </c>
@@ -21513,8 +22364,11 @@
       <c r="X95">
         <v>359.19</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <v>1023.04</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42307</v>
       </c>
@@ -21587,8 +22441,11 @@
       <c r="X96">
         <v>357.13</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>1034.8399999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42338</v>
       </c>
@@ -21661,8 +22518,11 @@
       <c r="X97">
         <v>354.81</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <v>1029.6099999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42369</v>
       </c>
@@ -21735,8 +22595,11 @@
       <c r="X98">
         <v>354.31</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <v>1025.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42398</v>
       </c>
@@ -21809,8 +22672,11 @@
       <c r="X99">
         <v>371.17</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>1025.8699999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42429</v>
       </c>
@@ -21883,8 +22749,11 @@
       <c r="X100">
         <v>382.41</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>1022.32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42460</v>
       </c>
@@ -21957,8 +22826,11 @@
       <c r="X101">
         <v>382.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <v>1019.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42489</v>
       </c>
@@ -22031,8 +22903,11 @@
       <c r="X102">
         <v>379.75</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <v>1020.07</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42521</v>
       </c>
@@ -22105,8 +22980,11 @@
       <c r="X103">
         <v>383.05</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <v>1024.72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42551</v>
       </c>
@@ -22179,8 +23057,11 @@
       <c r="X104">
         <v>404.33</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y104">
+        <v>1022.94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42580</v>
       </c>
@@ -22253,8 +23134,11 @@
       <c r="X105">
         <v>409.33</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y105">
+        <v>1029.23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42613</v>
       </c>
@@ -22327,8 +23211,11 @@
       <c r="X106">
         <v>403.28</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y106">
+        <v>1028.6300000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42643</v>
       </c>
@@ -22401,8 +23288,11 @@
       <c r="X107">
         <v>398.14</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <v>1032.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42674</v>
       </c>
@@ -22475,8 +23365,11 @@
       <c r="X108">
         <v>385.37</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <v>1028.01</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42704</v>
       </c>
@@ -22549,8 +23442,11 @@
       <c r="X109">
         <v>361.58</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y109">
+        <v>1026.3800000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42734</v>
       </c>
@@ -22623,8 +23519,11 @@
       <c r="X110">
         <v>360.24</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y110">
+        <v>1028.46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42766</v>
       </c>
@@ -22697,8 +23596,11 @@
       <c r="X111">
         <v>360.86</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y111">
+        <v>1031.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42794</v>
       </c>
@@ -22771,8 +23673,11 @@
       <c r="X112">
         <v>365.93</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y112">
+        <v>1032.6099999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42825</v>
       </c>
@@ -22845,8 +23750,11 @@
       <c r="X113">
         <v>364.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y113">
+        <v>1035.1500000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42853</v>
       </c>
@@ -22919,8 +23827,11 @@
       <c r="X114">
         <v>369.56</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y114">
+        <v>1038.31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42886</v>
       </c>
@@ -22993,8 +23904,11 @@
       <c r="X115">
         <v>374.95</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y115">
+        <v>1041.6099999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42916</v>
       </c>
@@ -23067,8 +23981,11 @@
       <c r="X116">
         <v>374.95</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y116">
+        <v>1042.6300000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42947</v>
       </c>
@@ -23141,8 +24058,11 @@
       <c r="X117">
         <v>373.55</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y117">
+        <v>1047.6300000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42978</v>
       </c>
@@ -23215,8 +24135,11 @@
       <c r="X118">
         <v>384.51</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y118">
+        <v>1054.49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43007</v>
       </c>
@@ -23289,8 +24212,11 @@
       <c r="X119">
         <v>376.74</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y119">
+        <v>1061.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43039</v>
       </c>
@@ -23363,8 +24289,11 @@
       <c r="X120">
         <v>376.25</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y120">
+        <v>1066.3800000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43069</v>
       </c>
@@ -23437,8 +24366,11 @@
       <c r="X121">
         <v>377.46</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y121">
+        <v>1060.29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43098</v>
       </c>
@@ -23511,8 +24443,11 @@
       <c r="X122">
         <v>381.05</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y122">
+        <v>1063.28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43131</v>
       </c>
@@ -23585,8 +24520,11 @@
       <c r="X123">
         <v>368.62</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y123">
+        <v>1071.8599999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43159</v>
       </c>
@@ -23659,8 +24597,11 @@
       <c r="X124">
         <v>360.64</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y124">
+        <v>1068.06</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43189</v>
       </c>
@@ -23733,8 +24674,11 @@
       <c r="X125">
         <v>369.16</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y125">
+        <v>1066.47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43220</v>
       </c>
@@ -23807,8 +24751,11 @@
       <c r="X126">
         <v>362.73</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y126">
+        <v>1067.4000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43251</v>
       </c>
@@ -23881,8 +24828,11 @@
       <c r="X127">
         <v>368.71</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y127">
+        <v>1072.23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43280</v>
       </c>
@@ -23955,8 +24905,11 @@
       <c r="X128">
         <v>368.96</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128">
+        <v>1074.3699999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43312</v>
       </c>
@@ -24029,8 +24982,11 @@
       <c r="X129">
         <v>364.43</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129">
+        <v>1073.81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43343</v>
       </c>
@@ -24103,8 +25059,11 @@
       <c r="X130">
         <v>370.18</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y130">
+        <v>1077.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43371</v>
       </c>
@@ -24177,8 +25136,11 @@
       <c r="X131">
         <v>361.23</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y131">
+        <v>1073.93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43404</v>
       </c>
@@ -24251,8 +25213,11 @@
       <c r="X132">
         <v>355.86</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y132">
+        <v>1072.71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43434</v>
       </c>
@@ -24325,8 +25290,11 @@
       <c r="X133">
         <v>362.77</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y133">
+        <v>1068.3699999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43465</v>
       </c>
@@ -24399,8 +25367,11 @@
       <c r="X134">
         <v>379.35</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y134">
+        <v>1058.08</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43496</v>
       </c>
@@ -24473,8 +25444,11 @@
       <c r="X135">
         <v>381.93</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y135">
+        <v>1071.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43524</v>
       </c>
@@ -24547,8 +25521,11 @@
       <c r="X136">
         <v>378.48</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y136">
+        <v>1069.99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43553</v>
       </c>
@@ -24621,8 +25598,11 @@
       <c r="X137">
         <v>392.83</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y137">
+        <v>1064.01</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43585</v>
       </c>
@@ -24695,8 +25675,11 @@
       <c r="X138">
         <v>387.91</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y138">
+        <v>1067.04</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43616</v>
       </c>
@@ -24769,8 +25752,11 @@
       <c r="X139">
         <v>406.85</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y139">
+        <v>1067.57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43644</v>
       </c>
@@ -24843,8 +25829,11 @@
       <c r="X140">
         <v>412.53</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y140">
+        <v>1075.5999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43677</v>
       </c>
@@ -24917,8 +25906,11 @@
       <c r="X141">
         <v>413.33</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y141">
+        <v>1078.04</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43707</v>
       </c>
@@ -24991,8 +25983,11 @@
       <c r="X142">
         <v>441.78</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y142">
+        <v>1082.76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43738</v>
       </c>
@@ -25065,8 +26060,11 @@
       <c r="X143">
         <v>434.65</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y143">
+        <v>1087.17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43769</v>
       </c>
@@ -25139,8 +26137,11 @@
       <c r="X144">
         <v>432.77</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y144">
+        <v>1092.23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43798</v>
       </c>
@@ -25213,8 +26214,11 @@
       <c r="X145">
         <v>428.94</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y145">
+        <v>1097.28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43830</v>
       </c>
@@ -25287,8 +26291,11 @@
       <c r="X146">
         <v>421.26</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y146">
+        <v>1104.27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43861</v>
       </c>
@@ -25361,8 +26368,11 @@
       <c r="X147">
         <v>442.44</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y147">
+        <v>1104.3399999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43889</v>
       </c>
@@ -25435,8 +26445,11 @@
       <c r="X148">
         <v>463.94</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y148">
+        <v>1100.98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43921</v>
       </c>
@@ -25509,8 +26522,11 @@
       <c r="X149">
         <v>488.19</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y149">
+        <v>1040.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43951</v>
       </c>
@@ -25583,8 +26599,11 @@
       <c r="X150">
         <v>493.62</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y150">
+        <v>1061.3800000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43980</v>
       </c>
@@ -25657,8 +26676,11 @@
       <c r="X151">
         <v>490.71</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y151">
+        <v>1075.1300000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44012</v>
       </c>
@@ -25731,8 +26753,11 @@
       <c r="X152">
         <v>491.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y152">
+        <v>1089.92</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44043</v>
       </c>
@@ -25805,8 +26830,11 @@
       <c r="X153">
         <v>501.59</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y153">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44074</v>
       </c>
@@ -25879,8 +26907,11 @@
       <c r="X154">
         <v>488.11</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y154">
+        <v>1104.95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44104</v>
       </c>
@@ -25953,8 +26984,11 @@
       <c r="X155">
         <v>489.71</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y155">
+        <v>1109.43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44134</v>
       </c>
@@ -26027,8 +27061,11 @@
       <c r="X156">
         <v>479.16</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y156">
+        <v>1110.24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44165</v>
       </c>
@@ -26101,8 +27138,11 @@
       <c r="X157">
         <v>482.66</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y157">
+        <v>1119.74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44196</v>
       </c>
@@ -26175,8 +27215,11 @@
       <c r="X158">
         <v>477.95</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y158">
+        <v>1134.32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44225</v>
       </c>
@@ -26249,8 +27292,11 @@
       <c r="X159">
         <v>465.65</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y159">
+        <v>1132.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44253</v>
       </c>
@@ -26323,8 +27369,11 @@
       <c r="X160">
         <v>443.72</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y160">
+        <v>1138.6600000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44286</v>
       </c>
@@ -26397,8 +27446,11 @@
       <c r="X161">
         <v>430.85</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y161">
+        <v>1141.6400000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44316</v>
       </c>
@@ -26471,8 +27523,11 @@
       <c r="X162">
         <v>438.26</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y162">
+        <v>1157.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44347</v>
       </c>
@@ -26545,8 +27600,11 @@
       <c r="X163">
         <v>440.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y163">
+        <v>1155.47</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44377</v>
       </c>
@@ -26619,8 +27677,11 @@
       <c r="X164">
         <v>452.49</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y164">
+        <v>1162.21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44407</v>
       </c>
@@ -26693,8 +27754,11 @@
       <c r="X165">
         <v>463.68</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y165">
+        <v>1156.17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44439</v>
       </c>
@@ -26767,8 +27831,11 @@
       <c r="X166">
         <v>463.19</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y166">
+        <v>1157.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44469</v>
       </c>
@@ -26841,8 +27908,11 @@
       <c r="X167">
         <v>452.54</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y167">
+        <v>1154.97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44498</v>
       </c>
@@ -26915,8 +27985,11 @@
       <c r="X168">
         <v>457.18</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y168">
+        <v>1156.98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44530</v>
       </c>
@@ -26989,8 +28062,11 @@
       <c r="X169">
         <v>465.39</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y169">
+        <v>1147.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44561</v>
       </c>
@@ -27063,8 +28139,11 @@
       <c r="X170">
         <v>460.57</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y170">
+        <v>1158.1099999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44592</v>
       </c>
@@ -27137,8 +28216,11 @@
       <c r="X171">
         <v>446.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y171">
+        <v>1147.98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44620</v>
       </c>
@@ -27211,8 +28293,11 @@
       <c r="X172">
         <v>445.14</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y172">
+        <v>1147.68</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44651</v>
       </c>
@@ -27285,8 +28370,11 @@
       <c r="X173">
         <v>426.48</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y173">
+        <v>1159.4100000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44680</v>
       </c>
@@ -27359,8 +28447,11 @@
       <c r="X174">
         <v>400.08</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y174">
+        <v>1168.8800000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44712</v>
       </c>
@@ -27433,8 +28524,11 @@
       <c r="X175">
         <v>399.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y175">
+        <v>1157.98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44742</v>
       </c>
@@ -27507,8 +28601,11 @@
       <c r="X176">
         <v>397.76</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y176">
+        <v>1147.06</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44771</v>
       </c>
@@ -27581,8 +28678,11 @@
       <c r="X177">
         <v>413.89</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y177">
+        <v>1136.73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44804</v>
       </c>
@@ -27655,8 +28755,11 @@
       <c r="X178">
         <v>392.91</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y178">
+        <v>1142.8599999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44834</v>
       </c>
@@ -27729,8 +28832,11 @@
       <c r="X179">
         <v>366.56</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y179">
+        <v>1171.55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44865</v>
       </c>
@@ -27803,8 +28909,11 @@
       <c r="X180">
         <v>350.53</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y180">
+        <v>1172.21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44895</v>
       </c>
@@ -27876,6 +28985,9 @@
       </c>
       <c r="X181">
         <v>371.08</v>
+      </c>
+      <c r="Y181">
+        <v>1162.29</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E9707-9DB4-4F91-9EC0-BB3E616D6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="615" windowWidth="19200" windowHeight="7230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="615" windowWidth="19200" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
     <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="29">
   <si>
     <t>Start Date</t>
   </si>
@@ -125,11 +124,15 @@
   <si>
     <t>SPUSTBTR Index</t>
   </si>
+  <si>
+    <t>12/31
+/2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -170,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -178,6 +181,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,86 +208,74 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13143508141758957083</stp>
+        <stp>BDH|16260322941572045888</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15186403787347702677</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17715390876150307109</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14406751109895676413</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17616552325801162125</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10209224655710149712</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17591541156537809071</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14289313393759269664</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10354867160237036826</stp>
         <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12976415469799243355</stp>
-        <tr r="T7" s="1"/>
+        <stp>BDH|17339952999957269647</stp>
+        <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12846913110700018020</stp>
-        <tr r="N7" s="1"/>
+        <stp>BDH|12836079640644446547</stp>
+        <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10605591940029431696</stp>
-        <tr r="A7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13864980239984823277</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12483361804497120478</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17110321863039016946</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15018518179361754759</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12209347536670989485</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13669283076037410617</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13794444742221657585</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15611286639032243202</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15881097696519860133</stp>
+        <stp>BDH|13340564228128127892</stp>
         <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14484735279352247394</stp>
-        <tr r="U7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -354,8 +348,8 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8505007945428267990</stp>
-        <tr r="W7" s="1"/>
+        <stp>BDH|2583946357844558468</stp>
+        <tr r="F7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -484,50 +478,62 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|43685579364898016</stp>
+        <stp>BDH|8715571147982884261</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5337857811456651135</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1937304033633197694</stp>
         <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6182457108729376244</stp>
+        <stp>BDH|5148256585428118167</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1536785358873787645</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2449917877528190397</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1570140149985888625</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3329653219596187212</stp>
         <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9500202451907111299</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4000643446125238843</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4898401300431124594</stp>
+        <stp>BDH|9930674116049078781</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7399313637984075741</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1585218511057172461</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7717146989234872807</stp>
-        <tr r="F7" s="1"/>
+        <stp>BDH|2079352188799857328</stp>
+        <tr r="K7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -830,17 +836,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X187"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:X186"/>
+    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:X187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -863,12 +869,12 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44895</v>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1112,98 +1118,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=180")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=181")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -14417,7 +14423,7 @@
         <v>1266.26</v>
       </c>
       <c r="M186">
-        <v>18959.576000000001</v>
+        <v>18880.728999999999</v>
       </c>
       <c r="N186">
         <v>3879.6979999999999</v>
@@ -14451,6 +14457,80 @@
       </c>
       <c r="X186">
         <v>371.08</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B187">
+        <v>133.24</v>
+      </c>
+      <c r="C187">
+        <v>3892.91</v>
+      </c>
+      <c r="D187">
+        <v>168.74969999999999</v>
+      </c>
+      <c r="E187">
+        <v>3839.5</v>
+      </c>
+      <c r="F187">
+        <v>605.38</v>
+      </c>
+      <c r="G187">
+        <v>1761.2460000000001</v>
+      </c>
+      <c r="H187">
+        <v>1943.93</v>
+      </c>
+      <c r="I187">
+        <v>956.38</v>
+      </c>
+      <c r="J187">
+        <v>495.06270000000001</v>
+      </c>
+      <c r="K187">
+        <v>1401.68</v>
+      </c>
+      <c r="L187">
+        <v>1266.8900000000001</v>
+      </c>
+      <c r="M187">
+        <v>18968.453000000001</v>
+      </c>
+      <c r="N187">
+        <v>3870.6570000000002</v>
+      </c>
+      <c r="O187">
+        <v>1718.69</v>
+      </c>
+      <c r="P187">
+        <v>370.27</v>
+      </c>
+      <c r="Q187">
+        <v>162.4709</v>
+      </c>
+      <c r="R187">
+        <v>4.3072400000000002</v>
+      </c>
+      <c r="S187">
+        <v>4.3983636739999996</v>
+      </c>
+      <c r="T187">
+        <v>4976.87</v>
+      </c>
+      <c r="U187">
+        <v>1536.73</v>
+      </c>
+      <c r="V187">
+        <v>2217.145</v>
+      </c>
+      <c r="W187">
+        <v>134.3125</v>
+      </c>
+      <c r="X187">
+        <v>367.56</v>
       </c>
     </row>
   </sheetData>
@@ -14459,11 +14539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181:X181"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27878,13 +27958,87 @@
         <v>371.08</v>
       </c>
     </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B182">
+        <v>133.24</v>
+      </c>
+      <c r="C182">
+        <v>3892.91</v>
+      </c>
+      <c r="D182">
+        <v>168.74969999999999</v>
+      </c>
+      <c r="E182">
+        <v>3839.5</v>
+      </c>
+      <c r="F182">
+        <v>605.38</v>
+      </c>
+      <c r="G182">
+        <v>1761.2460000000001</v>
+      </c>
+      <c r="H182">
+        <v>1943.93</v>
+      </c>
+      <c r="I182">
+        <v>956.38</v>
+      </c>
+      <c r="J182">
+        <v>495.06270000000001</v>
+      </c>
+      <c r="K182">
+        <v>1401.68</v>
+      </c>
+      <c r="L182">
+        <v>1266.8900000000001</v>
+      </c>
+      <c r="M182">
+        <v>18968.453000000001</v>
+      </c>
+      <c r="N182">
+        <v>3870.6570000000002</v>
+      </c>
+      <c r="O182">
+        <v>1718.69</v>
+      </c>
+      <c r="P182">
+        <v>370.27</v>
+      </c>
+      <c r="Q182">
+        <v>162.4709</v>
+      </c>
+      <c r="R182">
+        <v>4.3072400000000002</v>
+      </c>
+      <c r="S182">
+        <v>4.3983636739999996</v>
+      </c>
+      <c r="T182">
+        <v>4976.87</v>
+      </c>
+      <c r="U182">
+        <v>1536.73</v>
+      </c>
+      <c r="V182">
+        <v>2217.145</v>
+      </c>
+      <c r="W182">
+        <v>134.3125</v>
+      </c>
+      <c r="X182">
+        <v>367.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC03C74-7C6D-4B85-AF93-D5E3F9253D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="SpreadsheetBuilder_11" hidden="1">bbg!$A$1:$Y$7</definedName>
     <definedName name="SpreadsheetBuilder_9" hidden="1">bbg!$A$1:$Q$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -206,153 +205,141 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13143508141758957083</stp>
-        <tr r="V7" s="1"/>
+        <stp>BDH|15704611409131547986</stp>
+        <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12976415469799243355</stp>
+        <stp>BDH|12578794970191210854</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16751372766569035577</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10019762198386025471</stp>
         <tr r="T7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12846913110700018020</stp>
-        <tr r="N7" s="1"/>
+        <stp>BDH|16802085578070638315</stp>
+        <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10605591940029431696</stp>
-        <tr r="A7" s="1"/>
+        <stp>BDH|13803598231190848635</stp>
+        <tr r="G7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13864980239984823277</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|14119084901273067715</stp>
+        <tr r="P7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12483361804497120478</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17110321863039016946</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15018518179361754759</stp>
+        <stp>BDH|14575500529786634551</stp>
         <tr r="L7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12209347536670989485</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17082754331996760226</stp>
+        <stp>BDH|10401488906425032711</stp>
         <tr r="Y7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13669283076037410617</stp>
+        <stp>BDH|17207570018174916070</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11199792137282520392</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10996652712136526520</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13794444742221657585</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15611286639032243202</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15881097696519860133</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14484735279352247394</stp>
-        <tr r="U7" s="1"/>
+        <stp>BDH|14353583720632358535</stp>
+        <tr r="F7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C2</stp>
@@ -364,133 +351,133 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8505007945428267990</stp>
-        <tr r="W7" s="1"/>
+        <stp>BDH|7660588928386380857</stp>
+        <tr r="S7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C20</stp>
         <stp>PX_LAST</stp>
         <tr r="T5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C21</stp>
         <stp>PX_LAST</stp>
         <tr r="U5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C22</stp>
         <stp>PX_LAST</stp>
         <tr r="V5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C23</stp>
         <stp>PX_LAST</stp>
         <tr r="W5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C24</stp>
         <stp>PX_LAST</stp>
         <tr r="X5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C25</stp>
         <stp>PX_LAST</stp>
         <tr r="Y5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C19</stp>
@@ -502,50 +489,62 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|43685579364898016</stp>
+        <stp>BDH|3066111060899481677</stp>
         <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6182457108729376244</stp>
+        <stp>BDH|8623347243285480159</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5978705900445174175</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9115383278289275591</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8088141795562237353</stp>
         <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9500202451907111299</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|7873303195008770764</stp>
+        <tr r="U7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4000643446125238843</stp>
-        <tr r="R7" s="1"/>
+        <stp>BDH|6127367128415885171</stp>
+        <tr r="C7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4898401300431124594</stp>
-        <tr r="J7" s="1"/>
+        <stp>BDH|6413629914772277044</stp>
+        <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7399313637984075741</stp>
-        <tr r="Q7" s="1"/>
+        <stp>BDH|425472714690785074</stp>
+        <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1585218511057172461</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7717146989234872807</stp>
-        <tr r="F7" s="1"/>
+        <stp>BDH|613858023814496423</stp>
+        <tr r="V7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -848,11 +847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186:Y186"/>
+    <sheetView topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:Y188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44895</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1140,102 +1139,102 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=180")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=182")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>221.59</v>
       </c>
       <c r="Y7">
-        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=180")</f>
+        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
         <v>1174.52</v>
       </c>
     </row>
@@ -14983,7 +14982,7 @@
         <v>1266.26</v>
       </c>
       <c r="M186">
-        <v>18959.576000000001</v>
+        <v>18880.728999999999</v>
       </c>
       <c r="N186">
         <v>3879.6979999999999</v>
@@ -15020,6 +15019,160 @@
       </c>
       <c r="Y186">
         <v>1162.29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B187">
+        <v>133.24</v>
+      </c>
+      <c r="C187">
+        <v>3892.91</v>
+      </c>
+      <c r="D187">
+        <v>168.74969999999999</v>
+      </c>
+      <c r="E187">
+        <v>3839.5</v>
+      </c>
+      <c r="F187">
+        <v>605.38</v>
+      </c>
+      <c r="G187">
+        <v>1761.2460000000001</v>
+      </c>
+      <c r="H187">
+        <v>1943.93</v>
+      </c>
+      <c r="I187">
+        <v>956.38</v>
+      </c>
+      <c r="J187">
+        <v>495.06270000000001</v>
+      </c>
+      <c r="K187">
+        <v>1401.68</v>
+      </c>
+      <c r="L187">
+        <v>1266.8900000000001</v>
+      </c>
+      <c r="M187">
+        <v>18910.451000000001</v>
+      </c>
+      <c r="N187">
+        <v>3870.6570000000002</v>
+      </c>
+      <c r="O187">
+        <v>1718.69</v>
+      </c>
+      <c r="P187">
+        <v>370.27</v>
+      </c>
+      <c r="Q187">
+        <v>162.4709</v>
+      </c>
+      <c r="R187">
+        <v>4.3072400000000002</v>
+      </c>
+      <c r="S187">
+        <v>4.3983636739999996</v>
+      </c>
+      <c r="T187">
+        <v>4976.87</v>
+      </c>
+      <c r="U187">
+        <v>1536.73</v>
+      </c>
+      <c r="V187">
+        <v>2217.145</v>
+      </c>
+      <c r="W187">
+        <v>134.3125</v>
+      </c>
+      <c r="X187">
+        <v>367.56</v>
+      </c>
+      <c r="Y187">
+        <v>1167.92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B188">
+        <v>145.46</v>
+      </c>
+      <c r="C188">
+        <v>4161.7</v>
+      </c>
+      <c r="D188">
+        <v>178.0941</v>
+      </c>
+      <c r="E188">
+        <v>4076.6</v>
+      </c>
+      <c r="F188">
+        <v>648.37</v>
+      </c>
+      <c r="G188">
+        <v>1931.9449999999999</v>
+      </c>
+      <c r="H188">
+        <v>2100.44</v>
+      </c>
+      <c r="I188">
+        <v>1031.5</v>
+      </c>
+      <c r="J188">
+        <v>507.7645</v>
+      </c>
+      <c r="K188">
+        <v>1456.48</v>
+      </c>
+      <c r="L188">
+        <v>1267.28</v>
+      </c>
+      <c r="M188">
+        <v>18959.123</v>
+      </c>
+      <c r="N188">
+        <v>3817.4569999999999</v>
+      </c>
+      <c r="O188">
+        <v>1718.69</v>
+      </c>
+      <c r="P188">
+        <v>407.11</v>
+      </c>
+      <c r="Q188">
+        <v>162.4709</v>
+      </c>
+      <c r="R188">
+        <v>4.5090300000000001</v>
+      </c>
+      <c r="S188">
+        <v>4.6489987660000001</v>
+      </c>
+      <c r="T188">
+        <v>4976.87</v>
+      </c>
+      <c r="U188">
+        <v>1648.91</v>
+      </c>
+      <c r="V188">
+        <v>2367.614</v>
+      </c>
+      <c r="W188">
+        <v>141.75</v>
+      </c>
+      <c r="X188">
+        <v>382.39</v>
+      </c>
+      <c r="Y188">
+        <v>1168.94</v>
       </c>
     </row>
   </sheetData>
@@ -15028,11 +15181,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28951,7 +29104,7 @@
         <v>1266.26</v>
       </c>
       <c r="M181">
-        <v>18959.576000000001</v>
+        <v>18880.728999999999</v>
       </c>
       <c r="N181">
         <v>3879.6979999999999</v>
@@ -28988,6 +29141,160 @@
       </c>
       <c r="Y181">
         <v>1162.29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B182">
+        <v>133.24</v>
+      </c>
+      <c r="C182">
+        <v>3892.91</v>
+      </c>
+      <c r="D182">
+        <v>168.74969999999999</v>
+      </c>
+      <c r="E182">
+        <v>3839.5</v>
+      </c>
+      <c r="F182">
+        <v>605.38</v>
+      </c>
+      <c r="G182">
+        <v>1761.2460000000001</v>
+      </c>
+      <c r="H182">
+        <v>1943.93</v>
+      </c>
+      <c r="I182">
+        <v>956.38</v>
+      </c>
+      <c r="J182">
+        <v>495.06270000000001</v>
+      </c>
+      <c r="K182">
+        <v>1401.68</v>
+      </c>
+      <c r="L182">
+        <v>1266.8900000000001</v>
+      </c>
+      <c r="M182">
+        <v>18910.451000000001</v>
+      </c>
+      <c r="N182">
+        <v>3870.6570000000002</v>
+      </c>
+      <c r="O182">
+        <v>1718.69</v>
+      </c>
+      <c r="P182">
+        <v>370.27</v>
+      </c>
+      <c r="Q182">
+        <v>162.4709</v>
+      </c>
+      <c r="R182">
+        <v>4.3072400000000002</v>
+      </c>
+      <c r="S182">
+        <v>4.3983636739999996</v>
+      </c>
+      <c r="T182">
+        <v>4976.87</v>
+      </c>
+      <c r="U182">
+        <v>1536.73</v>
+      </c>
+      <c r="V182">
+        <v>2217.145</v>
+      </c>
+      <c r="W182">
+        <v>134.3125</v>
+      </c>
+      <c r="X182">
+        <v>367.56</v>
+      </c>
+      <c r="Y182">
+        <v>1167.92</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B183">
+        <v>145.46</v>
+      </c>
+      <c r="C183">
+        <v>4161.7</v>
+      </c>
+      <c r="D183">
+        <v>178.0941</v>
+      </c>
+      <c r="E183">
+        <v>4076.6</v>
+      </c>
+      <c r="F183">
+        <v>648.37</v>
+      </c>
+      <c r="G183">
+        <v>1931.9449999999999</v>
+      </c>
+      <c r="H183">
+        <v>2100.44</v>
+      </c>
+      <c r="I183">
+        <v>1031.5</v>
+      </c>
+      <c r="J183">
+        <v>507.7645</v>
+      </c>
+      <c r="K183">
+        <v>1456.48</v>
+      </c>
+      <c r="L183">
+        <v>1267.28</v>
+      </c>
+      <c r="M183">
+        <v>18959.123</v>
+      </c>
+      <c r="N183">
+        <v>3817.4569999999999</v>
+      </c>
+      <c r="O183">
+        <v>1718.69</v>
+      </c>
+      <c r="P183">
+        <v>407.11</v>
+      </c>
+      <c r="Q183">
+        <v>162.4709</v>
+      </c>
+      <c r="R183">
+        <v>4.5090300000000001</v>
+      </c>
+      <c r="S183">
+        <v>4.6489987660000001</v>
+      </c>
+      <c r="T183">
+        <v>4976.87</v>
+      </c>
+      <c r="U183">
+        <v>1648.91</v>
+      </c>
+      <c r="V183">
+        <v>2367.614</v>
+      </c>
+      <c r="W183">
+        <v>141.75</v>
+      </c>
+      <c r="X183">
+        <v>382.39</v>
+      </c>
+      <c r="Y183">
+        <v>1168.94</v>
       </c>
     </row>
   </sheetData>
@@ -28996,7 +29303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4291288E-3FAE-450C-9D1A-4E136433DE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="615" windowWidth="19200" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="450" yWindow="1800" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
     <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
   <si>
     <t>Start Date</t>
   </si>
@@ -124,15 +127,11 @@
   <si>
     <t>SPUSTBTR Index</t>
   </si>
-  <si>
-    <t>12/31
-/2022</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -208,74 +207,50 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16260322941572045888</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|18237526495139166654</stp>
+        <tr r="N7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15186403787347702677</stp>
+        <stp>BDH|11716787340289124001</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17984493393030080389</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14269559167394485133</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13254190218125375505</stp>
         <tr r="D7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17715390876150307109</stp>
+        <stp>BDH|10613056508164008773</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12542054832835615290</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14406751109895676413</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17616552325801162125</stp>
-        <tr r="T7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10209224655710149712</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17591541156537809071</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14289313393759269664</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10354867160237036826</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17339952999957269647</stp>
-        <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12836079640644446547</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13340564228128127892</stp>
-        <tr r="C7" s="1"/>
+        <stp>BDH|17289885426543044979</stp>
+        <tr r="X7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -348,8 +323,8 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2583946357844558468</stp>
-        <tr r="F7" s="1"/>
+        <stp>BDH|4423416296506656375</stp>
+        <tr r="Q7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -478,62 +453,86 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8715571147982884261</stp>
-        <tr r="A7" s="1"/>
+        <stp>BDH|3732344933689158519</stp>
+        <tr r="K7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5337857811456651135</stp>
+        <stp>BDH|4628544335325102838</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4883981393634241990</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3207824271537345139</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8319283653537681335</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1645143108382074725</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5355938979259842728</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1471632021310053023</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7951969993591120147</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2079819245496186834</stp>
+        <tr r="W7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6680358376653754164</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3634296683179203156</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5923488071320113518</stp>
         <tr r="M7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1937304033633197694</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5148256585428118167</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1536785358873787645</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2449917877528190397</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1570140149985888625</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3329653219596187212</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9930674116049078781</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2079352188799857328</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|590095370470294085</stp>
+        <tr r="U7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,11 +835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X189"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:X187"/>
+    <sheetView topLeftCell="A140" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A189" sqref="A187:X189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,12 +868,12 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+      <c r="B2" s="7">
+        <v>44985</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -949,65 +948,65 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
+      <c r="B5" t="e">
         <f>_xll.BFieldInfo(B$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="C5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
         <f>_xll.BFieldInfo(C$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="D5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
         <f>_xll.BFieldInfo(D$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="E5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="e">
         <f>_xll.BFieldInfo(E$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="F5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="e">
         <f>_xll.BFieldInfo(F$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="G5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
         <f>_xll.BFieldInfo(G$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="H5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
         <f>_xll.BFieldInfo(H$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="I5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
         <f>_xll.BFieldInfo(I$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="J5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
         <f>_xll.BFieldInfo(J$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="K5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
         <f>_xll.BFieldInfo(K$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="L5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
         <f>_xll.BFieldInfo(L$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="M5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
         <f>_xll.BFieldInfo(M$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
         <f>_xll.BFieldInfo(N$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="O5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
         <f>_xll.BFieldInfo(O$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="P5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="e">
         <f>_xll.BFieldInfo(P$6)</f>
-        <v>Last Price</v>
+        <v>#N/A</v>
       </c>
       <c r="Q5" t="e">
         <f>_xll.BFieldInfo(Q$6)</f>
@@ -1118,98 +1117,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=181")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=183")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -14497,7 +14496,7 @@
         <v>1266.8900000000001</v>
       </c>
       <c r="M187">
-        <v>18968.453000000001</v>
+        <v>18910.451000000001</v>
       </c>
       <c r="N187">
         <v>3870.6570000000002</v>
@@ -14531,6 +14530,154 @@
       </c>
       <c r="X187">
         <v>367.56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B188">
+        <v>145.46</v>
+      </c>
+      <c r="C188">
+        <v>4161.7</v>
+      </c>
+      <c r="D188">
+        <v>178.0941</v>
+      </c>
+      <c r="E188">
+        <v>4076.6</v>
+      </c>
+      <c r="F188">
+        <v>648.37</v>
+      </c>
+      <c r="G188">
+        <v>1931.9449999999999</v>
+      </c>
+      <c r="H188">
+        <v>2100.44</v>
+      </c>
+      <c r="I188">
+        <v>1031.5</v>
+      </c>
+      <c r="J188">
+        <v>507.7645</v>
+      </c>
+      <c r="K188">
+        <v>1456.48</v>
+      </c>
+      <c r="L188">
+        <v>1267.28</v>
+      </c>
+      <c r="M188">
+        <v>18975.955000000002</v>
+      </c>
+      <c r="N188">
+        <v>3817.4569999999999</v>
+      </c>
+      <c r="O188">
+        <v>1718.69</v>
+      </c>
+      <c r="P188">
+        <v>407.11</v>
+      </c>
+      <c r="Q188">
+        <v>162.4709</v>
+      </c>
+      <c r="R188">
+        <v>4.5090300000000001</v>
+      </c>
+      <c r="S188">
+        <v>4.6489987660000001</v>
+      </c>
+      <c r="T188">
+        <v>4976.87</v>
+      </c>
+      <c r="U188">
+        <v>1648.91</v>
+      </c>
+      <c r="V188">
+        <v>2367.614</v>
+      </c>
+      <c r="W188">
+        <v>141.75</v>
+      </c>
+      <c r="X188">
+        <v>382.39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B189">
+        <v>136.36000000000001</v>
+      </c>
+      <c r="C189">
+        <v>3934.93</v>
+      </c>
+      <c r="D189">
+        <v>168.9444</v>
+      </c>
+      <c r="E189">
+        <v>3970.15</v>
+      </c>
+      <c r="F189">
+        <v>629.02</v>
+      </c>
+      <c r="G189">
+        <v>1896.991</v>
+      </c>
+      <c r="H189">
+        <v>2053.69</v>
+      </c>
+      <c r="I189">
+        <v>964.01</v>
+      </c>
+      <c r="J189">
+        <v>510.96210000000002</v>
+      </c>
+      <c r="K189">
+        <v>1437.64</v>
+      </c>
+      <c r="L189">
+        <v>1273.56</v>
+      </c>
+      <c r="M189">
+        <v>18991.472000000002</v>
+      </c>
+      <c r="N189">
+        <v>3888.33</v>
+      </c>
+      <c r="O189">
+        <v>1718.69</v>
+      </c>
+      <c r="P189">
+        <v>382.53</v>
+      </c>
+      <c r="Q189">
+        <v>162.4709</v>
+      </c>
+      <c r="R189">
+        <v>4.67272</v>
+      </c>
+      <c r="S189">
+        <v>4.8077261</v>
+      </c>
+      <c r="T189">
+        <v>4976.87</v>
+      </c>
+      <c r="U189">
+        <v>1601.19</v>
+      </c>
+      <c r="V189">
+        <v>2308.3960000000002</v>
+      </c>
+      <c r="W189">
+        <v>134.5625</v>
+      </c>
+      <c r="X189">
+        <v>366.54</v>
       </c>
     </row>
   </sheetData>
@@ -14539,11 +14686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27996,7 +28143,7 @@
         <v>1266.8900000000001</v>
       </c>
       <c r="M182">
-        <v>18968.453000000001</v>
+        <v>18910.451000000001</v>
       </c>
       <c r="N182">
         <v>3870.6570000000002</v>
@@ -28030,6 +28177,154 @@
       </c>
       <c r="X182">
         <v>367.56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B183">
+        <v>145.46</v>
+      </c>
+      <c r="C183">
+        <v>4161.7</v>
+      </c>
+      <c r="D183">
+        <v>178.0941</v>
+      </c>
+      <c r="E183">
+        <v>4076.6</v>
+      </c>
+      <c r="F183">
+        <v>648.37</v>
+      </c>
+      <c r="G183">
+        <v>1931.9449999999999</v>
+      </c>
+      <c r="H183">
+        <v>2100.44</v>
+      </c>
+      <c r="I183">
+        <v>1031.5</v>
+      </c>
+      <c r="J183">
+        <v>507.7645</v>
+      </c>
+      <c r="K183">
+        <v>1456.48</v>
+      </c>
+      <c r="L183">
+        <v>1267.28</v>
+      </c>
+      <c r="M183">
+        <v>18975.955000000002</v>
+      </c>
+      <c r="N183">
+        <v>3817.4569999999999</v>
+      </c>
+      <c r="O183">
+        <v>1718.69</v>
+      </c>
+      <c r="P183">
+        <v>407.11</v>
+      </c>
+      <c r="Q183">
+        <v>162.4709</v>
+      </c>
+      <c r="R183">
+        <v>4.5090300000000001</v>
+      </c>
+      <c r="S183">
+        <v>4.6489987660000001</v>
+      </c>
+      <c r="T183">
+        <v>4976.87</v>
+      </c>
+      <c r="U183">
+        <v>1648.91</v>
+      </c>
+      <c r="V183">
+        <v>2367.614</v>
+      </c>
+      <c r="W183">
+        <v>141.75</v>
+      </c>
+      <c r="X183">
+        <v>382.39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B184">
+        <v>136.36000000000001</v>
+      </c>
+      <c r="C184">
+        <v>3934.93</v>
+      </c>
+      <c r="D184">
+        <v>168.9444</v>
+      </c>
+      <c r="E184">
+        <v>3970.15</v>
+      </c>
+      <c r="F184">
+        <v>629.02</v>
+      </c>
+      <c r="G184">
+        <v>1896.991</v>
+      </c>
+      <c r="H184">
+        <v>2053.69</v>
+      </c>
+      <c r="I184">
+        <v>964.01</v>
+      </c>
+      <c r="J184">
+        <v>510.96210000000002</v>
+      </c>
+      <c r="K184">
+        <v>1437.64</v>
+      </c>
+      <c r="L184">
+        <v>1273.56</v>
+      </c>
+      <c r="M184">
+        <v>18991.472000000002</v>
+      </c>
+      <c r="N184">
+        <v>3888.33</v>
+      </c>
+      <c r="O184">
+        <v>1718.69</v>
+      </c>
+      <c r="P184">
+        <v>382.53</v>
+      </c>
+      <c r="Q184">
+        <v>162.4709</v>
+      </c>
+      <c r="R184">
+        <v>4.67272</v>
+      </c>
+      <c r="S184">
+        <v>4.8077261</v>
+      </c>
+      <c r="T184">
+        <v>4976.87</v>
+      </c>
+      <c r="U184">
+        <v>1601.19</v>
+      </c>
+      <c r="V184">
+        <v>2308.3960000000002</v>
+      </c>
+      <c r="W184">
+        <v>134.5625</v>
+      </c>
+      <c r="X184">
+        <v>366.54</v>
       </c>
     </row>
   </sheetData>
@@ -28038,7 +28333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4291288E-3FAE-450C-9D1A-4E136433DE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1800" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="1800" windowWidth="21600" windowHeight="11325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
     <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -207,50 +206,86 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|18237526495139166654</stp>
-        <tr r="N7" s="1"/>
+        <stp>BDH|17994530590059944802</stp>
+        <tr r="L7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11716787340289124001</stp>
+        <stp>BDH|14614064144859221328</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10066041057338964529</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13360348291630870662</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17379281609409995372</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11973208686543130484</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17939252844589858576</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11476140918418459444</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15714601384368367308</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13721467209285278229</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13196198711444073682</stp>
+        <tr r="W7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18101862802616111717</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16316854339659422288</stp>
         <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17984493393030080389</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14269559167394485133</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13254190218125375505</stp>
+        <stp>BDH|14749983102850481914</stp>
         <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10613056508164008773</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12542054832835615290</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17289885426543044979</stp>
-        <tr r="X7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -323,8 +358,20 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4423416296506656375</stp>
-        <tr r="Q7" s="1"/>
+        <stp>BDH|4417616153489887246</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6701200194435068502</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6305991446764064282</stp>
+        <tr r="R7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -453,86 +500,38 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3732344933689158519</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|1371833314462199579</stp>
+        <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4628544335325102838</stp>
-        <tr r="V7" s="1"/>
+        <stp>BDH|7124408260957279820</stp>
+        <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4883981393634241990</stp>
-        <tr r="L7" s="1"/>
+        <stp>BDH|1894109681251107234</stp>
+        <tr r="G7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3207824271537345139</stp>
+        <stp>BDH|3187446125722133222</stp>
         <tr r="C7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8319283653537681335</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1645143108382074725</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5355938979259842728</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1471632021310053023</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7951969993591120147</stp>
+        <stp>BDH|7865134027932032142</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2079819245496186834</stp>
-        <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6680358376653754164</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3634296683179203156</stp>
-        <tr r="T7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5923488071320113518</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|590095370470294085</stp>
-        <tr r="U7" s="1"/>
+        <stp>BDH|4084044015421773736</stp>
+        <tr r="E7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -835,11 +834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X190"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A189" sqref="A187:X189"/>
+    <sheetView topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A190" sqref="A189:X190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>44985</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1117,98 +1116,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=183")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=184")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=183")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -14517,7 +14516,7 @@
         <v>4.3983636739999996</v>
       </c>
       <c r="T187">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U187">
         <v>1536.73</v>
@@ -14591,7 +14590,7 @@
         <v>4.6489987660000001</v>
       </c>
       <c r="T188">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U188">
         <v>1648.91</v>
@@ -14644,7 +14643,7 @@
         <v>1273.56</v>
       </c>
       <c r="M189">
-        <v>18991.472000000002</v>
+        <v>18958.985000000001</v>
       </c>
       <c r="N189">
         <v>3888.33</v>
@@ -14665,7 +14664,7 @@
         <v>4.8077261</v>
       </c>
       <c r="T189">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U189">
         <v>1601.19</v>
@@ -14678,6 +14677,80 @@
       </c>
       <c r="X189">
         <v>366.54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B190">
+        <v>143.85</v>
+      </c>
+      <c r="C190">
+        <v>4104.91</v>
+      </c>
+      <c r="D190">
+        <v>176.52780000000001</v>
+      </c>
+      <c r="E190">
+        <v>4109.3100000000004</v>
+      </c>
+      <c r="F190">
+        <v>646.76</v>
+      </c>
+      <c r="G190">
+        <v>1802.4839999999999</v>
+      </c>
+      <c r="H190">
+        <v>2092.6</v>
+      </c>
+      <c r="I190">
+        <v>990.28</v>
+      </c>
+      <c r="J190">
+        <v>510.464</v>
+      </c>
+      <c r="K190">
+        <v>1453.82</v>
+      </c>
+      <c r="L190">
+        <v>1235.1600000000001</v>
+      </c>
+      <c r="M190">
+        <v>18958.985000000001</v>
+      </c>
+      <c r="N190">
+        <v>3589.37</v>
+      </c>
+      <c r="O190">
+        <v>1718.69</v>
+      </c>
+      <c r="P190">
+        <v>373.22</v>
+      </c>
+      <c r="Q190">
+        <v>162.4709</v>
+      </c>
+      <c r="R190">
+        <v>4.6408199999999997</v>
+      </c>
+      <c r="S190">
+        <v>4.7309068339999998</v>
+      </c>
+      <c r="T190">
+        <v>5079.05</v>
+      </c>
+      <c r="U190">
+        <v>1636.36</v>
+      </c>
+      <c r="V190">
+        <v>2366.27</v>
+      </c>
+      <c r="W190">
+        <v>141.125</v>
+      </c>
+      <c r="X190">
+        <v>385.5</v>
       </c>
     </row>
   </sheetData>
@@ -14686,11 +14759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28291,7 +28364,7 @@
         <v>1273.56</v>
       </c>
       <c r="M184">
-        <v>18991.472000000002</v>
+        <v>18958.985000000001</v>
       </c>
       <c r="N184">
         <v>3888.33</v>
@@ -28312,7 +28385,7 @@
         <v>4.8077261</v>
       </c>
       <c r="T184">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U184">
         <v>1601.19</v>
@@ -28325,6 +28398,80 @@
       </c>
       <c r="X184">
         <v>366.54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B185">
+        <v>143.85</v>
+      </c>
+      <c r="C185">
+        <v>4104.91</v>
+      </c>
+      <c r="D185">
+        <v>176.52780000000001</v>
+      </c>
+      <c r="E185">
+        <v>4109.3100000000004</v>
+      </c>
+      <c r="F185">
+        <v>646.76</v>
+      </c>
+      <c r="G185">
+        <v>1802.4839999999999</v>
+      </c>
+      <c r="H185">
+        <v>2092.6</v>
+      </c>
+      <c r="I185">
+        <v>990.28</v>
+      </c>
+      <c r="J185">
+        <v>510.464</v>
+      </c>
+      <c r="K185">
+        <v>1453.82</v>
+      </c>
+      <c r="L185">
+        <v>1235.1600000000001</v>
+      </c>
+      <c r="M185">
+        <v>18958.985000000001</v>
+      </c>
+      <c r="N185">
+        <v>3589.37</v>
+      </c>
+      <c r="O185">
+        <v>1718.69</v>
+      </c>
+      <c r="P185">
+        <v>373.22</v>
+      </c>
+      <c r="Q185">
+        <v>162.4709</v>
+      </c>
+      <c r="R185">
+        <v>4.6408199999999997</v>
+      </c>
+      <c r="S185">
+        <v>4.7309068339999998</v>
+      </c>
+      <c r="T185">
+        <v>5079.05</v>
+      </c>
+      <c r="U185">
+        <v>1636.36</v>
+      </c>
+      <c r="V185">
+        <v>2366.27</v>
+      </c>
+      <c r="W185">
+        <v>141.125</v>
+      </c>
+      <c r="X185">
+        <v>385.5</v>
       </c>
     </row>
   </sheetData>
@@ -28333,7 +28480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4EC154-48E7-417A-B564-5952ECB12D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1800" windowWidth="21600" windowHeight="11325" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
     <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -206,86 +207,86 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17994530590059944802</stp>
-        <tr r="L7" s="1"/>
+        <stp>BDH|13727351894702339174</stp>
+        <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14614064144859221328</stp>
+        <stp>BDH|10121238907492368855</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17140936333694403179</stp>
         <tr r="M7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10066041057338964529</stp>
-        <tr r="P7" s="1"/>
+        <stp>BDH|11777845908865837310</stp>
+        <tr r="D7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13360348291630870662</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|17276559389612136761</stp>
+        <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17379281609409995372</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11973208686543130484</stp>
+        <stp>BDH|13899667212693690552</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17939252844589858576</stp>
+        <stp>BDH|11648818266409579556</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14016619191881159982</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15303560127187862610</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11129154731973954678</stp>
         <tr r="U7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11476140918418459444</stp>
-        <tr r="T7" s="1"/>
+        <stp>BDH|12359536080348628074</stp>
+        <tr r="R7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15714601384368367308</stp>
+        <stp>BDH|12882990364660313904</stp>
         <tr r="S7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13721467209285278229</stp>
-        <tr r="I7" s="1"/>
+        <stp>BDH|11767314335726753399</stp>
+        <tr r="N7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13196198711444073682</stp>
+        <stp>BDH|13864278905197533350</stp>
         <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|18101862802616111717</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16316854339659422288</stp>
-        <tr r="A7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14749983102850481914</stp>
-        <tr r="D7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -358,20 +359,8 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4417616153489887246</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6701200194435068502</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6305991446764064282</stp>
-        <tr r="R7" s="1"/>
+        <stp>BDH|7958228893293662231</stp>
+        <tr r="H7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -500,38 +489,50 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1371833314462199579</stp>
+        <stp>BDH|7662151718901569905</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6662047317099763747</stp>
         <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7124408260957279820</stp>
-        <tr r="H7" s="1"/>
+        <stp>BDH|8361308011598399860</stp>
+        <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1894109681251107234</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3187446125722133222</stp>
+        <stp>BDH|7521430084496789868</stp>
         <tr r="C7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7865134027932032142</stp>
-        <tr r="F7" s="1"/>
+        <stp>BDH|8951160686240180724</stp>
+        <tr r="K7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4084044015421773736</stp>
+        <stp>BDH|4833178509005433625</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7988858112111148991</stp>
         <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2668554163579404858</stp>
+        <tr r="P7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,32 +835,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X191"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A190" sqref="A189:X190"/>
+    <sheetView topLeftCell="C170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:X191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,15 +868,15 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>45016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -946,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" t="e">
         <f>_xll.BFieldInfo(B$6)</f>
         <v>#N/A</v>
@@ -1040,7 +1041,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1114,104 +1115,104 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=184")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=185")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=184")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
         <v>221.59</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39478</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>227.77</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39507</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>228.89</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39538</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>229.84</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39568</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>226.4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39598</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39629</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>225.95</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39660</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>226.1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39689</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>231.7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39721</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>231.67</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39752</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>223.83</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39780</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>254.45</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39813</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>275.52</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39843</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>252.9</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>39871</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>248.78</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>39903</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>261.64</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>39933</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>247.27</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>39962</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>39994</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>241.93</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40025</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>243.28</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40056</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>247.28</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>40086</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>251.11</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>40116</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>248.6</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>40147</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>255.21</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40178</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>240.89</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>40207</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>248.08</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40235</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>248.88</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40268</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>245.69</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40298</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>251.94</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40329</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>260.77</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40359</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>271.02</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40389</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>273.64999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40421</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>290.10000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40451</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>287.45999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40480</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>281.51</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40512</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>276.77</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40543</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>265.92</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40574</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>262.69</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40602</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>265.58</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40633</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>265.16000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40662</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40694</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>278.36</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40724</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>274.33</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40753</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>285.69</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40786</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>306.13</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40816</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>320.97000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40847</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>312.89</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40877</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>318.52</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40907</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>326.26</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>40939</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>327.68</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>40968</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>322.39999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>40998</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>313.52999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>41029</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>325.22000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>41060</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>342.13</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>41089</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>338.15</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>41121</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>345.18</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41152</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>344.19</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41180</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>339.6</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41213</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>339.49</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41243</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>344.21</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41274</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>338.35</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41305</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>329.13</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41333</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>333.3</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41362</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>334.92</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41394</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41425</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>326.89999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41453</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>317.14</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41486</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>312.99</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41516</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>311.27</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41547</v>
       </c>
@@ -6317,7 +6318,7 @@
         <v>314.74</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41578</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>318.14999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41607</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>312.02999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41639</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>306.23</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41670</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>318.85000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41698</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>321.19</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41729</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>321.58</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41759</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>325.74</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41789</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41820</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>332.99</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>41851</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>333.53</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>41880</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>343.56</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>41912</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>338.2</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>41943</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>346.02</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>41971</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>353.34</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42004</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>358.15</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>374.8</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42062</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>362.28</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42094</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>366.83</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42124</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>357.26</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42153</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>351.82</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42185</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>341.01</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42216</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>352.54</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42247</v>
       </c>
@@ -8019,7 +8020,7 @@
         <v>352.97</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42277</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>359.19</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42307</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>357.13</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42338</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>354.81</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42369</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>354.31</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42398</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>371.17</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42429</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>382.41</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42460</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42489</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>379.75</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42521</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>383.05</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42551</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>404.33</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42580</v>
       </c>
@@ -8833,7 +8834,7 @@
         <v>409.33</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42613</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>403.28</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42643</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>398.14</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42674</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>385.37</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42704</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>361.58</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42734</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>360.24</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42766</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>360.86</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42794</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>365.93</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42825</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>364.2</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>369.56</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42886</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42916</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42947</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>373.55</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42978</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>384.51</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43007</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>376.74</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43039</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43069</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>377.46</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43098</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>381.05</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43131</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>368.62</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43159</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>360.64</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43189</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>369.16</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43220</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>362.73</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43251</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>368.71</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43280</v>
       </c>
@@ -10535,7 +10536,7 @@
         <v>368.96</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43312</v>
       </c>
@@ -10609,7 +10610,7 @@
         <v>364.43</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43343</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v>370.18</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43371</v>
       </c>
@@ -10757,7 +10758,7 @@
         <v>361.23</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43404</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>355.86</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43434</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>362.77</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43465</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>379.35</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43496</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>381.93</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43524</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>378.48</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43553</v>
       </c>
@@ -11201,7 +11202,7 @@
         <v>392.83</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43585</v>
       </c>
@@ -11275,7 +11276,7 @@
         <v>387.91</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43616</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>406.85</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43644</v>
       </c>
@@ -11423,7 +11424,7 @@
         <v>412.53</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43677</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>413.33</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43707</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>441.78</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43738</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>434.65</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43769</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>432.77</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43798</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>428.94</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43830</v>
       </c>
@@ -11867,7 +11868,7 @@
         <v>421.26</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>43861</v>
       </c>
@@ -11941,7 +11942,7 @@
         <v>442.44</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>43889</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>463.94</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>43921</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>488.19</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>43951</v>
       </c>
@@ -12163,7 +12164,7 @@
         <v>493.62</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>43980</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>490.71</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44012</v>
       </c>
@@ -12311,7 +12312,7 @@
         <v>491.3</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44043</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v>501.59</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44074</v>
       </c>
@@ -12459,7 +12460,7 @@
         <v>488.11</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44104</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>489.71</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44134</v>
       </c>
@@ -12607,7 +12608,7 @@
         <v>479.16</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44165</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>482.66</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44196</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>477.95</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44225</v>
       </c>
@@ -12829,7 +12830,7 @@
         <v>465.65</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44253</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>443.72</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44286</v>
       </c>
@@ -12977,7 +12978,7 @@
         <v>430.85</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44316</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>438.26</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44347</v>
       </c>
@@ -13125,7 +13126,7 @@
         <v>440.6</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44377</v>
       </c>
@@ -13199,7 +13200,7 @@
         <v>452.49</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44407</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>463.68</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44439</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>463.19</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44469</v>
       </c>
@@ -13421,7 +13422,7 @@
         <v>452.54</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44498</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>457.18</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44530</v>
       </c>
@@ -13569,7 +13570,7 @@
         <v>465.39</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44561</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>460.57</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44592</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>446.8</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44620</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>445.14</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44651</v>
       </c>
@@ -13865,7 +13866,7 @@
         <v>426.48</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44680</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>400.08</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44712</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>399.6</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44742</v>
       </c>
@@ -14087,7 +14088,7 @@
         <v>397.76</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44771</v>
       </c>
@@ -14161,7 +14162,7 @@
         <v>413.89</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44804</v>
       </c>
@@ -14235,7 +14236,7 @@
         <v>392.91</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44834</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>366.56</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44865</v>
       </c>
@@ -14383,7 +14384,7 @@
         <v>350.53</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44895</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>371.08</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44925</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>367.56</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44957</v>
       </c>
@@ -14605,7 +14606,7 @@
         <v>382.39</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44985</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>366.54</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>45016</v>
       </c>
@@ -14717,10 +14718,10 @@
         <v>1235.1600000000001</v>
       </c>
       <c r="M190">
-        <v>18958.985000000001</v>
+        <v>18448.667000000001</v>
       </c>
       <c r="N190">
-        <v>3589.37</v>
+        <v>3587.8829999999998</v>
       </c>
       <c r="O190">
         <v>1718.69</v>
@@ -14751,6 +14752,80 @@
       </c>
       <c r="X190">
         <v>385.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B191">
+        <v>144.24</v>
+      </c>
+      <c r="C191">
+        <v>4135.75</v>
+      </c>
+      <c r="D191">
+        <v>176.87960000000001</v>
+      </c>
+      <c r="E191">
+        <v>4169.4799999999996</v>
+      </c>
+      <c r="F191">
+        <v>655</v>
+      </c>
+      <c r="G191">
+        <v>1768.9870000000001</v>
+      </c>
+      <c r="H191">
+        <v>2143.85</v>
+      </c>
+      <c r="I191">
+        <v>977.05</v>
+      </c>
+      <c r="J191">
+        <v>515.30060000000003</v>
+      </c>
+      <c r="K191">
+        <v>1467.85</v>
+      </c>
+      <c r="L191">
+        <v>1252.01</v>
+      </c>
+      <c r="M191">
+        <v>18573.203000000001</v>
+      </c>
+      <c r="N191">
+        <v>3691.1089999999999</v>
+      </c>
+      <c r="O191">
+        <v>1718.69</v>
+      </c>
+      <c r="P191">
+        <v>373.66</v>
+      </c>
+      <c r="Q191">
+        <v>162.4709</v>
+      </c>
+      <c r="R191">
+        <v>4.9508999999999999</v>
+      </c>
+      <c r="S191">
+        <v>5.1306892120000001</v>
+      </c>
+      <c r="T191">
+        <v>5079.05</v>
+      </c>
+      <c r="U191">
+        <v>1654.5</v>
+      </c>
+      <c r="V191">
+        <v>2389.3040000000001</v>
+      </c>
+      <c r="W191">
+        <v>141.40625</v>
+      </c>
+      <c r="X191">
+        <v>388.47</v>
       </c>
     </row>
   </sheetData>
@@ -14759,32 +14834,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:X186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -14858,7 +14933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>39447</v>
       </c>
@@ -14932,7 +15007,7 @@
         <v>221.59</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>39478</v>
       </c>
@@ -15006,7 +15081,7 @@
         <v>227.77</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>39507</v>
       </c>
@@ -15080,7 +15155,7 @@
         <v>228.89</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39538</v>
       </c>
@@ -15154,7 +15229,7 @@
         <v>229.84</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39568</v>
       </c>
@@ -15228,7 +15303,7 @@
         <v>226.4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39598</v>
       </c>
@@ -15302,7 +15377,7 @@
         <v>222.03</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39629</v>
       </c>
@@ -15376,7 +15451,7 @@
         <v>225.95</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39660</v>
       </c>
@@ -15450,7 +15525,7 @@
         <v>226.1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39689</v>
       </c>
@@ -15524,7 +15599,7 @@
         <v>231.7</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39721</v>
       </c>
@@ -15598,7 +15673,7 @@
         <v>231.67</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39752</v>
       </c>
@@ -15672,7 +15747,7 @@
         <v>223.83</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39780</v>
       </c>
@@ -15746,7 +15821,7 @@
         <v>254.45</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39813</v>
       </c>
@@ -15820,7 +15895,7 @@
         <v>275.52</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39843</v>
       </c>
@@ -15894,7 +15969,7 @@
         <v>252.9</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39871</v>
       </c>
@@ -15968,7 +16043,7 @@
         <v>248.78</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39903</v>
       </c>
@@ -16042,7 +16117,7 @@
         <v>261.64</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39933</v>
       </c>
@@ -16116,7 +16191,7 @@
         <v>247.27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39962</v>
       </c>
@@ -16190,7 +16265,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39994</v>
       </c>
@@ -16264,7 +16339,7 @@
         <v>241.93</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>40025</v>
       </c>
@@ -16338,7 +16413,7 @@
         <v>243.28</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>40056</v>
       </c>
@@ -16412,7 +16487,7 @@
         <v>247.28</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>40086</v>
       </c>
@@ -16486,7 +16561,7 @@
         <v>251.11</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>40116</v>
       </c>
@@ -16560,7 +16635,7 @@
         <v>248.6</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>40147</v>
       </c>
@@ -16634,7 +16709,7 @@
         <v>255.21</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40178</v>
       </c>
@@ -16708,7 +16783,7 @@
         <v>240.89</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40207</v>
       </c>
@@ -16782,7 +16857,7 @@
         <v>248.08</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>40235</v>
       </c>
@@ -16856,7 +16931,7 @@
         <v>248.88</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>40268</v>
       </c>
@@ -16930,7 +17005,7 @@
         <v>245.69</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>40298</v>
       </c>
@@ -17004,7 +17079,7 @@
         <v>251.94</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40329</v>
       </c>
@@ -17078,7 +17153,7 @@
         <v>260.77</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>40359</v>
       </c>
@@ -17152,7 +17227,7 @@
         <v>271.02</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40389</v>
       </c>
@@ -17226,7 +17301,7 @@
         <v>273.64999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40421</v>
       </c>
@@ -17300,7 +17375,7 @@
         <v>290.10000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40451</v>
       </c>
@@ -17374,7 +17449,7 @@
         <v>287.45999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40480</v>
       </c>
@@ -17448,7 +17523,7 @@
         <v>281.51</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40512</v>
       </c>
@@ -17522,7 +17597,7 @@
         <v>276.77</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40543</v>
       </c>
@@ -17596,7 +17671,7 @@
         <v>265.92</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40574</v>
       </c>
@@ -17670,7 +17745,7 @@
         <v>262.69</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40602</v>
       </c>
@@ -17744,7 +17819,7 @@
         <v>265.58</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40633</v>
       </c>
@@ -17818,7 +17893,7 @@
         <v>265.16000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40662</v>
       </c>
@@ -17892,7 +17967,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40694</v>
       </c>
@@ -17966,7 +18041,7 @@
         <v>278.36</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40724</v>
       </c>
@@ -18040,7 +18115,7 @@
         <v>274.33</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40753</v>
       </c>
@@ -18114,7 +18189,7 @@
         <v>285.69</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40786</v>
       </c>
@@ -18188,7 +18263,7 @@
         <v>306.13</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40816</v>
       </c>
@@ -18262,7 +18337,7 @@
         <v>320.97000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40847</v>
       </c>
@@ -18336,7 +18411,7 @@
         <v>312.89</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40877</v>
       </c>
@@ -18410,7 +18485,7 @@
         <v>318.52</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40907</v>
       </c>
@@ -18484,7 +18559,7 @@
         <v>326.26</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40939</v>
       </c>
@@ -18558,7 +18633,7 @@
         <v>327.68</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40968</v>
       </c>
@@ -18632,7 +18707,7 @@
         <v>322.39999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40998</v>
       </c>
@@ -18706,7 +18781,7 @@
         <v>313.52999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>41029</v>
       </c>
@@ -18780,7 +18855,7 @@
         <v>325.22000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>41060</v>
       </c>
@@ -18854,7 +18929,7 @@
         <v>342.13</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41089</v>
       </c>
@@ -18928,7 +19003,7 @@
         <v>338.15</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41121</v>
       </c>
@@ -19002,7 +19077,7 @@
         <v>345.18</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>41152</v>
       </c>
@@ -19076,7 +19151,7 @@
         <v>344.19</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>41180</v>
       </c>
@@ -19150,7 +19225,7 @@
         <v>339.6</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>41213</v>
       </c>
@@ -19224,7 +19299,7 @@
         <v>339.49</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>41243</v>
       </c>
@@ -19298,7 +19373,7 @@
         <v>344.21</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>41274</v>
       </c>
@@ -19372,7 +19447,7 @@
         <v>338.35</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41305</v>
       </c>
@@ -19446,7 +19521,7 @@
         <v>329.13</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41333</v>
       </c>
@@ -19520,7 +19595,7 @@
         <v>333.3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41362</v>
       </c>
@@ -19594,7 +19669,7 @@
         <v>334.92</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41394</v>
       </c>
@@ -19668,7 +19743,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41425</v>
       </c>
@@ -19742,7 +19817,7 @@
         <v>326.89999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41453</v>
       </c>
@@ -19816,7 +19891,7 @@
         <v>317.14</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41486</v>
       </c>
@@ -19890,7 +19965,7 @@
         <v>312.99</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41516</v>
       </c>
@@ -19964,7 +20039,7 @@
         <v>311.27</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41547</v>
       </c>
@@ -20038,7 +20113,7 @@
         <v>314.74</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41578</v>
       </c>
@@ -20112,7 +20187,7 @@
         <v>318.14999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41607</v>
       </c>
@@ -20186,7 +20261,7 @@
         <v>312.02999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41639</v>
       </c>
@@ -20260,7 +20335,7 @@
         <v>306.23</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41670</v>
       </c>
@@ -20334,7 +20409,7 @@
         <v>318.85000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41698</v>
       </c>
@@ -20408,7 +20483,7 @@
         <v>321.19</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41729</v>
       </c>
@@ -20482,7 +20557,7 @@
         <v>321.58</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41759</v>
       </c>
@@ -20556,7 +20631,7 @@
         <v>325.74</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41789</v>
       </c>
@@ -20630,7 +20705,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41820</v>
       </c>
@@ -20704,7 +20779,7 @@
         <v>332.99</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41851</v>
       </c>
@@ -20778,7 +20853,7 @@
         <v>333.53</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41880</v>
       </c>
@@ -20852,7 +20927,7 @@
         <v>343.56</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41912</v>
       </c>
@@ -20926,7 +21001,7 @@
         <v>338.2</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41943</v>
       </c>
@@ -21000,7 +21075,7 @@
         <v>346.02</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41971</v>
       </c>
@@ -21074,7 +21149,7 @@
         <v>353.34</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42004</v>
       </c>
@@ -21148,7 +21223,7 @@
         <v>358.15</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42034</v>
       </c>
@@ -21222,7 +21297,7 @@
         <v>374.8</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42062</v>
       </c>
@@ -21296,7 +21371,7 @@
         <v>362.28</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42094</v>
       </c>
@@ -21370,7 +21445,7 @@
         <v>366.83</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42124</v>
       </c>
@@ -21444,7 +21519,7 @@
         <v>357.26</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42153</v>
       </c>
@@ -21518,7 +21593,7 @@
         <v>351.82</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42185</v>
       </c>
@@ -21592,7 +21667,7 @@
         <v>341.01</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42216</v>
       </c>
@@ -21666,7 +21741,7 @@
         <v>352.54</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42247</v>
       </c>
@@ -21740,7 +21815,7 @@
         <v>352.97</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42277</v>
       </c>
@@ -21814,7 +21889,7 @@
         <v>359.19</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42307</v>
       </c>
@@ -21888,7 +21963,7 @@
         <v>357.13</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42338</v>
       </c>
@@ -21962,7 +22037,7 @@
         <v>354.81</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42369</v>
       </c>
@@ -22036,7 +22111,7 @@
         <v>354.31</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42398</v>
       </c>
@@ -22110,7 +22185,7 @@
         <v>371.17</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42429</v>
       </c>
@@ -22184,7 +22259,7 @@
         <v>382.41</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42460</v>
       </c>
@@ -22258,7 +22333,7 @@
         <v>382.3</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42489</v>
       </c>
@@ -22332,7 +22407,7 @@
         <v>379.75</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42521</v>
       </c>
@@ -22406,7 +22481,7 @@
         <v>383.05</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42551</v>
       </c>
@@ -22480,7 +22555,7 @@
         <v>404.33</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42580</v>
       </c>
@@ -22554,7 +22629,7 @@
         <v>409.33</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42613</v>
       </c>
@@ -22628,7 +22703,7 @@
         <v>403.28</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42643</v>
       </c>
@@ -22702,7 +22777,7 @@
         <v>398.14</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42674</v>
       </c>
@@ -22776,7 +22851,7 @@
         <v>385.37</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42704</v>
       </c>
@@ -22850,7 +22925,7 @@
         <v>361.58</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42734</v>
       </c>
@@ -22924,7 +22999,7 @@
         <v>360.24</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42766</v>
       </c>
@@ -22998,7 +23073,7 @@
         <v>360.86</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42794</v>
       </c>
@@ -23072,7 +23147,7 @@
         <v>365.93</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42825</v>
       </c>
@@ -23146,7 +23221,7 @@
         <v>364.2</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42853</v>
       </c>
@@ -23220,7 +23295,7 @@
         <v>369.56</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42886</v>
       </c>
@@ -23294,7 +23369,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42916</v>
       </c>
@@ -23368,7 +23443,7 @@
         <v>374.95</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42947</v>
       </c>
@@ -23442,7 +23517,7 @@
         <v>373.55</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42978</v>
       </c>
@@ -23516,7 +23591,7 @@
         <v>384.51</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>43007</v>
       </c>
@@ -23590,7 +23665,7 @@
         <v>376.74</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43039</v>
       </c>
@@ -23664,7 +23739,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43069</v>
       </c>
@@ -23738,7 +23813,7 @@
         <v>377.46</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>43098</v>
       </c>
@@ -23812,7 +23887,7 @@
         <v>381.05</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>43131</v>
       </c>
@@ -23886,7 +23961,7 @@
         <v>368.62</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43159</v>
       </c>
@@ -23960,7 +24035,7 @@
         <v>360.64</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43189</v>
       </c>
@@ -24034,7 +24109,7 @@
         <v>369.16</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43220</v>
       </c>
@@ -24108,7 +24183,7 @@
         <v>362.73</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43251</v>
       </c>
@@ -24182,7 +24257,7 @@
         <v>368.71</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43280</v>
       </c>
@@ -24256,7 +24331,7 @@
         <v>368.96</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43312</v>
       </c>
@@ -24330,7 +24405,7 @@
         <v>364.43</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43343</v>
       </c>
@@ -24404,7 +24479,7 @@
         <v>370.18</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43371</v>
       </c>
@@ -24478,7 +24553,7 @@
         <v>361.23</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43404</v>
       </c>
@@ -24552,7 +24627,7 @@
         <v>355.86</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43434</v>
       </c>
@@ -24626,7 +24701,7 @@
         <v>362.77</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43465</v>
       </c>
@@ -24700,7 +24775,7 @@
         <v>379.35</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43496</v>
       </c>
@@ -24774,7 +24849,7 @@
         <v>381.93</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43524</v>
       </c>
@@ -24848,7 +24923,7 @@
         <v>378.48</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43553</v>
       </c>
@@ -24922,7 +24997,7 @@
         <v>392.83</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43585</v>
       </c>
@@ -24996,7 +25071,7 @@
         <v>387.91</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43616</v>
       </c>
@@ -25070,7 +25145,7 @@
         <v>406.85</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43644</v>
       </c>
@@ -25144,7 +25219,7 @@
         <v>412.53</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43677</v>
       </c>
@@ -25218,7 +25293,7 @@
         <v>413.33</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43707</v>
       </c>
@@ -25292,7 +25367,7 @@
         <v>441.78</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43738</v>
       </c>
@@ -25366,7 +25441,7 @@
         <v>434.65</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43769</v>
       </c>
@@ -25440,7 +25515,7 @@
         <v>432.77</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43798</v>
       </c>
@@ -25514,7 +25589,7 @@
         <v>428.94</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43830</v>
       </c>
@@ -25588,7 +25663,7 @@
         <v>421.26</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43861</v>
       </c>
@@ -25662,7 +25737,7 @@
         <v>442.44</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43889</v>
       </c>
@@ -25736,7 +25811,7 @@
         <v>463.94</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43921</v>
       </c>
@@ -25810,7 +25885,7 @@
         <v>488.19</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43951</v>
       </c>
@@ -25884,7 +25959,7 @@
         <v>493.62</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43980</v>
       </c>
@@ -25958,7 +26033,7 @@
         <v>490.71</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44012</v>
       </c>
@@ -26032,7 +26107,7 @@
         <v>491.3</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44043</v>
       </c>
@@ -26106,7 +26181,7 @@
         <v>501.59</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44074</v>
       </c>
@@ -26180,7 +26255,7 @@
         <v>488.11</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44104</v>
       </c>
@@ -26254,7 +26329,7 @@
         <v>489.71</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44134</v>
       </c>
@@ -26328,7 +26403,7 @@
         <v>479.16</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44165</v>
       </c>
@@ -26402,7 +26477,7 @@
         <v>482.66</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44196</v>
       </c>
@@ -26476,7 +26551,7 @@
         <v>477.95</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44225</v>
       </c>
@@ -26550,7 +26625,7 @@
         <v>465.65</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44253</v>
       </c>
@@ -26624,7 +26699,7 @@
         <v>443.72</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44286</v>
       </c>
@@ -26698,7 +26773,7 @@
         <v>430.85</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44316</v>
       </c>
@@ -26772,7 +26847,7 @@
         <v>438.26</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44347</v>
       </c>
@@ -26846,7 +26921,7 @@
         <v>440.6</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44377</v>
       </c>
@@ -26920,7 +26995,7 @@
         <v>452.49</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44407</v>
       </c>
@@ -26994,7 +27069,7 @@
         <v>463.68</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44439</v>
       </c>
@@ -27068,7 +27143,7 @@
         <v>463.19</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44469</v>
       </c>
@@ -27142,7 +27217,7 @@
         <v>452.54</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44498</v>
       </c>
@@ -27216,7 +27291,7 @@
         <v>457.18</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44530</v>
       </c>
@@ -27290,7 +27365,7 @@
         <v>465.39</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44561</v>
       </c>
@@ -27364,7 +27439,7 @@
         <v>460.57</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44592</v>
       </c>
@@ -27438,7 +27513,7 @@
         <v>446.8</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44620</v>
       </c>
@@ -27512,7 +27587,7 @@
         <v>445.14</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44651</v>
       </c>
@@ -27586,7 +27661,7 @@
         <v>426.48</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44680</v>
       </c>
@@ -27660,7 +27735,7 @@
         <v>400.08</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44712</v>
       </c>
@@ -27734,7 +27809,7 @@
         <v>399.6</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44742</v>
       </c>
@@ -27808,7 +27883,7 @@
         <v>397.76</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44771</v>
       </c>
@@ -27882,7 +27957,7 @@
         <v>413.89</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44804</v>
       </c>
@@ -27956,7 +28031,7 @@
         <v>392.91</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44834</v>
       </c>
@@ -28030,7 +28105,7 @@
         <v>366.56</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44865</v>
       </c>
@@ -28104,7 +28179,7 @@
         <v>350.53</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44895</v>
       </c>
@@ -28178,7 +28253,7 @@
         <v>371.08</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44925</v>
       </c>
@@ -28252,7 +28327,7 @@
         <v>367.56</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44957</v>
       </c>
@@ -28326,7 +28401,7 @@
         <v>382.39</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44985</v>
       </c>
@@ -28400,7 +28475,7 @@
         <v>366.54</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>45016</v>
       </c>
@@ -28472,6 +28547,80 @@
       </c>
       <c r="X185">
         <v>385.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B186">
+        <v>144.24</v>
+      </c>
+      <c r="C186">
+        <v>4135.75</v>
+      </c>
+      <c r="D186">
+        <v>176.87960000000001</v>
+      </c>
+      <c r="E186">
+        <v>4169.4799999999996</v>
+      </c>
+      <c r="F186">
+        <v>655</v>
+      </c>
+      <c r="G186">
+        <v>1768.9870000000001</v>
+      </c>
+      <c r="H186">
+        <v>2143.85</v>
+      </c>
+      <c r="I186">
+        <v>977.05</v>
+      </c>
+      <c r="J186">
+        <v>515.30060000000003</v>
+      </c>
+      <c r="K186">
+        <v>1467.85</v>
+      </c>
+      <c r="L186">
+        <v>1252.01</v>
+      </c>
+      <c r="M186">
+        <v>18573.203000000001</v>
+      </c>
+      <c r="N186">
+        <v>3691.1089999999999</v>
+      </c>
+      <c r="O186">
+        <v>1718.69</v>
+      </c>
+      <c r="P186">
+        <v>373.66</v>
+      </c>
+      <c r="Q186">
+        <v>162.4709</v>
+      </c>
+      <c r="R186">
+        <v>4.9508999999999999</v>
+      </c>
+      <c r="S186">
+        <v>5.1306892120000001</v>
+      </c>
+      <c r="T186">
+        <v>5079.05</v>
+      </c>
+      <c r="U186">
+        <v>1654.5</v>
+      </c>
+      <c r="V186">
+        <v>2389.3040000000001</v>
+      </c>
+      <c r="W186">
+        <v>141.40625</v>
+      </c>
+      <c r="X186">
+        <v>388.47</v>
       </c>
     </row>
   </sheetData>
@@ -28480,33 +28629,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B3:B179"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -28580,7 +28729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>39447</v>
       </c>
@@ -28608,7 +28757,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>39478</v>
       </c>
@@ -28705,7 +28854,7 @@
         <v>2.7889345187057213E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>39507</v>
       </c>
@@ -28802,7 +28951,7 @@
         <v>4.917241076524359E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>39538</v>
       </c>
@@ -28899,7 +29048,7 @@
         <v>4.1504652890034244E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>39568</v>
       </c>
@@ -28996,7 +29145,7 @@
         <v>-1.4966933518969716E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>39598</v>
       </c>
@@ -29093,7 +29242,7 @@
         <v>-1.9302120141342805E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>39629</v>
       </c>
@@ -29190,7 +29339,7 @@
         <v>1.7655271810115725E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>39660</v>
       </c>
@@ -29287,7 +29436,7 @@
         <v>6.6386368665627415E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>39689</v>
       </c>
@@ -29384,7 +29533,7 @@
         <v>2.4767801857585203E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>39721</v>
       </c>
@@ -29481,7 +29630,7 @@
         <v>-1.2947777298233376E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>39752</v>
       </c>
@@ -29578,7 +29727,7 @@
         <v>-3.3841239694392788E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>39780</v>
       </c>
@@ -29675,7 +29824,7 @@
         <v>0.13680025018987618</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>39813</v>
       </c>
@@ -29772,7 +29921,7 @@
         <v>8.2806052269601027E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>39843</v>
       </c>
@@ -29869,7 +30018,7 @@
         <v>-8.2099303135888424E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>39871</v>
       </c>
@@ -29966,7 +30115,7 @@
         <v>-1.6291024120205666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>39903</v>
       </c>
@@ -30063,7 +30212,7 @@
         <v>5.1692258220114029E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>39933</v>
       </c>
@@ -30160,7 +30309,7 @@
         <v>-5.4922794679712506E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>39962</v>
       </c>
@@ -30257,7 +30406,7 @@
         <v>-2.8187810894973131E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>39994</v>
       </c>
@@ -30354,7 +30503,7 @@
         <v>6.7831876820640957E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40025</v>
       </c>
@@ -30451,7 +30600,7 @@
         <v>5.5801264828669872E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40056</v>
       </c>
@@ -30548,7 +30697,7 @@
         <v>1.6441959881617896E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40086</v>
       </c>
@@ -30645,7 +30794,7 @@
         <v>1.5488515043675211E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40116</v>
       </c>
@@ -30742,7 +30891,7 @@
         <v>-9.9956194496436668E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40147</v>
       </c>
@@ -30839,7 +30988,7 @@
         <v>2.6588897827835911E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40178</v>
       </c>
@@ -30936,7 +31085,7 @@
         <v>-5.6110653971239488E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40207</v>
       </c>
@@ -31033,7 +31182,7 @@
         <v>2.9847648304205388E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40235</v>
       </c>
@@ -31130,7 +31279,7 @@
         <v>3.2247662044500025E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40268</v>
       </c>
@@ -31227,7 +31376,7 @@
         <v>-1.2817422050787508E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>40298</v>
       </c>
@@ -31324,7 +31473,7 @@
         <v>2.5438560787984787E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>40329</v>
       </c>
@@ -31421,7 +31570,7 @@
         <v>3.5048027308089091E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>40359</v>
       </c>
@@ -31518,7 +31667,7 @@
         <v>3.9306668711891701E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>40389</v>
       </c>
@@ -31615,7 +31764,7 @@
         <v>9.7040808796398093E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>40421</v>
       </c>
@@ -31712,7 +31861,7 @@
         <v>6.0113283391193262E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>40451</v>
       </c>
@@ -31809,7 +31958,7 @@
         <v>-9.1003102378491851E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>40480</v>
       </c>
@@ -31906,7 +32055,7 @@
         <v>-2.0698531969665313E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>40512</v>
       </c>
@@ -32003,7 +32152,7 @@
         <v>-1.6837767752477695E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>40543</v>
       </c>
@@ -32100,7 +32249,7 @@
         <v>-3.9202225674747848E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>40574</v>
       </c>
@@ -32197,7 +32346,7 @@
         <v>-1.2146510228640217E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>40602</v>
       </c>
@@ -32294,7 +32443,7 @@
         <v>1.1001560775057984E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40633</v>
       </c>
@@ -32391,7 +32540,7 @@
         <v>-1.581444385872266E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40662</v>
       </c>
@@ -32488,7 +32637,7 @@
         <v>1.8253130185548194E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40694</v>
       </c>
@@ -32585,7 +32734,7 @@
         <v>3.0962962962963081E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40724</v>
       </c>
@@ -32682,7 +32831,7 @@
         <v>-1.4477654835464926E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40753</v>
       </c>
@@ -32779,7 +32928,7 @@
         <v>4.1409980680202629E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40786</v>
       </c>
@@ -32876,7 +33025,7 @@
         <v>7.1546081416920426E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40816</v>
       </c>
@@ -32973,7 +33122,7 @@
         <v>4.847613758860625E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40847</v>
       </c>
@@ -33070,7 +33219,7 @@
         <v>-2.5173692245381352E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40877</v>
       </c>
@@ -33167,7 +33316,7 @@
         <v>1.7993544057016919E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40907</v>
       </c>
@@ -33264,7 +33413,7 @@
         <v>2.4299886977269924E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>40939</v>
       </c>
@@ -33361,7 +33510,7 @@
         <v>4.3523570158769953E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>40968</v>
       </c>
@@ -33458,7 +33607,7 @@
         <v>-1.6113281250000111E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>40998</v>
       </c>
@@ -33555,7 +33704,7 @@
         <v>-2.7512406947890811E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41029</v>
       </c>
@@ -33652,7 +33801,7 @@
         <v>3.7285108283099166E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41060</v>
       </c>
@@ -33749,7 +33898,7 @@
         <v>5.1995572228030085E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41089</v>
       </c>
@@ -33846,7 +33995,7 @@
         <v>-1.163300499810016E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41121</v>
       </c>
@@ -33943,7 +34092,7 @@
         <v>2.0789590418453407E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41152</v>
       </c>
@@ -34040,7 +34189,7 @@
         <v>-2.8680688336519822E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41180</v>
       </c>
@@ -34137,7 +34286,7 @@
         <v>-1.3335657630959563E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41213</v>
       </c>
@@ -34234,7 +34383,7 @@
         <v>-3.2391048292113034E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41243</v>
       </c>
@@ -34331,7 +34480,7 @@
         <v>1.3903207752805624E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>41274</v>
       </c>
@@ -34428,7 +34577,7 @@
         <v>-1.7024490863135733E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>41305</v>
       </c>
@@ -34525,7 +34674,7 @@
         <v>-2.7249889168021402E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>41333</v>
       </c>
@@ -34622,7 +34771,7 @@
         <v>1.2669765746057937E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>41362</v>
       </c>
@@ -34719,7 +34868,7 @@
         <v>4.8604860486047841E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>41394</v>
       </c>
@@ -34816,7 +34965,7 @@
         <v>2.7110951869103062E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>41425</v>
       </c>
@@ -34913,7 +35062,7 @@
         <v>-4.9709302325581461E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>41453</v>
       </c>
@@ -35010,7 +35159,7 @@
         <v>-2.9856225145304394E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>41486</v>
       </c>
@@ -35107,7 +35256,7 @@
         <v>-1.3085703474805976E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>41516</v>
       </c>
@@ -35204,7 +35353,7 @@
         <v>-5.4953832390811641E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>41547</v>
       </c>
@@ -35301,7 +35450,7 @@
         <v>1.1147878047996995E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>41578</v>
       </c>
@@ -35398,7 +35547,7 @@
         <v>1.0834339454788067E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>41607</v>
       </c>
@@ -35495,7 +35644,7 @@
         <v>-1.9236209335219301E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>41639</v>
       </c>
@@ -35592,7 +35741,7 @@
         <v>-1.8587956286254426E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>41670</v>
       </c>
@@ -35689,7 +35838,7 @@
         <v>4.1210854586422041E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>41698</v>
       </c>
@@ -35786,7 +35935,7 @@
         <v>7.3388740787203588E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>41729</v>
       </c>
@@ -35883,7 +36032,7 @@
         <v>1.2142345652106368E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>41759</v>
       </c>
@@ -35980,7 +36129,7 @@
         <v>1.2936127868648617E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>41789</v>
       </c>
@@ -36077,7 +36226,7 @@
         <v>2.431386995763507E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>41820</v>
       </c>
@@ -36174,7 +36323,7 @@
         <v>-2.0080321285140812E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>41851</v>
       </c>
@@ -36271,7 +36420,7 @@
         <v>1.6216703204299243E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>41880</v>
       </c>
@@ -36368,7 +36517,7 @@
         <v>3.0072257368152888E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>41912</v>
       </c>
@@ -36465,7 +36614,7 @@
         <v>-1.560135056467582E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>41943</v>
       </c>
@@ -36562,7 +36711,7 @@
         <v>2.3122412773506795E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>41971</v>
       </c>
@@ -36659,7 +36808,7 @@
         <v>2.1154846540662353E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42004</v>
       </c>
@@ -36756,7 +36905,7 @@
         <v>1.3612950699043447E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42034</v>
       </c>
@@ -36853,7 +37002,7 @@
         <v>4.6488901298338714E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42062</v>
       </c>
@@ -36950,7 +37099,7 @@
         <v>-3.3404482390608448E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42094</v>
       </c>
@@ -37047,7 +37196,7 @@
         <v>1.2559346361930013E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42124</v>
       </c>
@@ -37144,7 +37293,7 @@
         <v>-2.6088378813074131E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42153</v>
       </c>
@@ -37241,7 +37390,7 @@
         <v>-1.5227005542182148E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42185</v>
       </c>
@@ -37338,7 +37487,7 @@
         <v>-3.0725939400830016E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42216</v>
       </c>
@@ -37435,7 +37584,7 @@
         <v>3.3811325181079877E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42247</v>
       </c>
@@ -37532,7 +37681,7 @@
         <v>1.2197197481136346E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>42277</v>
       </c>
@@ -37629,7 +37778,7 @@
         <v>1.7621894211972577E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>42307</v>
       </c>
@@ -37726,7 +37875,7 @@
         <v>-5.7351262562989058E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>42338</v>
       </c>
@@ -37823,7 +37972,7 @@
         <v>-6.4962338644191098E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>42369</v>
       </c>
@@ -37920,7 +38069,7 @@
         <v>-1.4092049265804762E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>42398</v>
       </c>
@@ -38017,7 +38166,7 @@
         <v>4.7585447771725464E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>42429</v>
       </c>
@@ -38114,7 +38263,7 @@
         <v>3.0282619823800427E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>42460</v>
       </c>
@@ -38211,7 +38360,7 @@
         <v>-2.8764938155390052E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>42489</v>
       </c>
@@ -38308,7 +38457,7 @@
         <v>-6.6701543290609289E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>42521</v>
       </c>
@@ -38405,7 +38554,7 @@
         <v>8.6899275839369405E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>42551</v>
       </c>
@@ -38502,7 +38651,7 @@
         <v>5.5554105208197369E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>42580</v>
       </c>
@@ -38599,7 +38748,7 @@
         <v>1.2366136571612341E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>42613</v>
       </c>
@@ -38696,7 +38845,7 @@
         <v>-1.4780250653506966E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>42643</v>
       </c>
@@ -38793,7 +38942,7 @@
         <v>-1.2745487006546319E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>42674</v>
       </c>
@@ -38890,7 +39039,7 @@
         <v>-3.2074144773195368E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>42704</v>
       </c>
@@ -38987,7 +39136,7 @@
         <v>-6.1732880089264919E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>42734</v>
       </c>
@@ -39084,7 +39233,7 @@
         <v>-3.7059571878974573E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>42766</v>
       </c>
@@ -39181,7 +39330,7 @@
         <v>1.721074838996195E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>42794</v>
       </c>
@@ -39278,7 +39427,7 @@
         <v>1.4049769993903505E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>42825</v>
       </c>
@@ -39375,7 +39524,7 @@
         <v>-4.7276801574072103E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>42853</v>
       </c>
@@ -39472,7 +39621,7 @@
         <v>1.471718835804503E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>42886</v>
       </c>
@@ -39569,7 +39718,7 @@
         <v>1.458491178698984E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>42916</v>
       </c>
@@ -39666,7 +39815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>42947</v>
       </c>
@@ -39763,7 +39912,7 @@
         <v>-3.7338311774902655E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>42978</v>
       </c>
@@ -39860,7 +40009,7 @@
         <v>2.9340115111765375E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43007</v>
       </c>
@@ -39957,7 +40106,7 @@
         <v>-2.0207536865101017E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43039</v>
       </c>
@@ -40054,7 +40203,7 @@
         <v>-1.3006317354143926E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43069</v>
       </c>
@@ -40151,7 +40300,7 @@
         <v>3.2159468438537342E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43098</v>
       </c>
@@ -40248,7 +40397,7 @@
         <v>9.5109415567213862E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43131</v>
       </c>
@@ -40345,7 +40494,7 @@
         <v>-3.2620391024799966E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43159</v>
       </c>
@@ -40442,7 +40591,7 @@
         <v>-2.1648309912647212E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43189</v>
       </c>
@@ -40539,7 +40688,7 @@
         <v>2.3624667258207666E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43220</v>
       </c>
@@ -40636,7 +40785,7 @@
         <v>-1.7417921768338895E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43251</v>
       </c>
@@ -40733,7 +40882,7 @@
         <v>1.648609158327119E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>43280</v>
       </c>
@@ -40830,7 +40979,7 @@
         <v>6.7803965175894376E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>43312</v>
       </c>
@@ -40927,7 +41076,7 @@
         <v>-1.2277753686036341E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>43343</v>
       </c>
@@ -41024,7 +41173,7 @@
         <v>1.5778064374502687E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>43371</v>
       </c>
@@ -41121,7 +41270,7 @@
         <v>-2.4177427197579537E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>43404</v>
       </c>
@@ -41218,7 +41367,7 @@
         <v>-1.4865874927331602E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>43434</v>
       </c>
@@ -41315,7 +41464,7 @@
         <v>1.9417748552801539E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>43465</v>
       </c>
@@ -41412,7 +41561,7 @@
         <v>4.5703889516773843E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>43496</v>
       </c>
@@ -41509,7 +41658,7 @@
         <v>6.8011071569789028E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>43524</v>
       </c>
@@ -41606,7 +41755,7 @@
         <v>-9.0330688869687537E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>43553</v>
       </c>
@@ -41703,7 +41852,7 @@
         <v>3.7914817163390291E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>43585</v>
       </c>
@@ -41800,7 +41949,7 @@
         <v>-1.2524501692844137E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>43616</v>
       </c>
@@ -41897,7 +42046,7 @@
         <v>4.8825758552241583E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>43644</v>
       </c>
@@ -41994,7 +42143,7 @@
         <v>1.3960919257711479E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>43677</v>
       </c>
@@ -42091,7 +42240,7 @@
         <v>1.9392529028192662E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>43707</v>
       </c>
@@ -42188,7 +42337,7 @@
         <v>6.8831200251614932E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>43738</v>
       </c>
@@ -42285,7 +42434,7 @@
         <v>-1.6139254832722161E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>43769</v>
       </c>
@@ -42382,7 +42531,7 @@
         <v>-4.325319222362789E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>43798</v>
       </c>
@@ -42479,7 +42628,7 @@
         <v>-8.8499664949048817E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>43830</v>
       </c>
@@ -42576,7 +42725,7 @@
         <v>-1.7904602042243645E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>43861</v>
       </c>
@@ -42673,7 +42822,7 @@
         <v>5.0277738213929668E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>43889</v>
       </c>
@@ -42770,7 +42919,7 @@
         <v>4.8594159660066971E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>43921</v>
       </c>
@@ -42867,7 +43016,7 @@
         <v>5.2269690046126582E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>43951</v>
       </c>
@@ -42964,7 +43113,7 @@
         <v>1.1122718613654436E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>43980</v>
       </c>
@@ -43061,7 +43210,7 @@
         <v>-5.8952230460678212E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44012</v>
       </c>
@@ -43158,7 +43307,7 @@
         <v>1.2023394673026377E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44043</v>
       </c>
@@ -43255,7 +43404,7 @@
         <v>2.0944433136576457E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44074</v>
       </c>
@@ -43352,7 +43501,7 @@
         <v>-2.6874538966087713E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44104</v>
       </c>
@@ -43449,7 +43598,7 @@
         <v>3.2779496424986121E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44134</v>
       </c>
@@ -43546,7 +43695,7 @@
         <v>-2.1543362398153909E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44165</v>
       </c>
@@ -43643,7 +43792,7 @@
         <v>7.3044494532097382E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44196</v>
       </c>
@@ -43740,7 +43889,7 @@
         <v>-9.758422077653095E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44225</v>
       </c>
@@ -43837,7 +43986,7 @@
         <v>-2.5734909509362969E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44253</v>
       </c>
@@ -43934,7 +44083,7 @@
         <v>-4.7095457961988552E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44286</v>
       </c>
@@ -44031,7 +44180,7 @@
         <v>-2.9004777787794089E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44316</v>
       </c>
@@ -44128,7 +44277,7 @@
         <v>1.7198560984101219E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44347</v>
       </c>
@@ -44225,7 +44374,7 @@
         <v>5.3392963081275724E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44377</v>
       </c>
@@ -44322,7 +44471,7 @@
         <v>2.6985928279618765E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44407</v>
       </c>
@@ -44419,7 +44568,7 @@
         <v>2.4729828283498012E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44439</v>
       </c>
@@ -44516,7 +44665,7 @@
         <v>-1.0567632850241315E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44469</v>
       </c>
@@ -44613,7 +44762,7 @@
         <v>-2.2992724367969952E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44498</v>
       </c>
@@ -44710,7 +44859,7 @@
         <v>1.0253237282892069E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44530</v>
       </c>
@@ -44807,7 +44956,7 @@
         <v>1.7957915919331491E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44561</v>
       </c>
@@ -44904,7 +45053,7 @@
         <v>-1.0356904961430158E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>44592</v>
       </c>
@@ -45001,7 +45150,7 @@
         <v>-2.9897735414811999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>44620</v>
       </c>
@@ -45098,7 +45247,7 @@
         <v>-3.7153088630260678E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44651</v>
       </c>
@@ -45195,7 +45344,7 @@
         <v>-4.1919396145032928E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>44680</v>
       </c>
@@ -45292,7 +45441,7 @@
         <v>-6.1902082160945504E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>44712</v>
       </c>
@@ -45389,7 +45538,7 @@
         <v>-1.1997600479902726E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44742</v>
       </c>
@@ -45486,7 +45635,7 @@
         <v>-4.6046046046046563E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>44771</v>
       </c>
@@ -45583,7 +45732,7 @@
         <v>4.0552091713596194E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>44804</v>
       </c>
@@ -45680,7 +45829,7 @@
         <v>-5.0689796805914566E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>44834</v>
       </c>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4EC154-48E7-417A-B564-5952ECB12D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271A7AE-15EA-4827-8CF5-FA9312CF18EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,86 +207,62 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13727351894702339174</stp>
-        <tr r="A7" s="1"/>
+        <stp>BDH|16292177803839189059</stp>
+        <tr r="N7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10121238907492368855</stp>
-        <tr r="G7" s="1"/>
+        <stp>BDH|17988952705723847269</stp>
+        <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17140936333694403179</stp>
-        <tr r="M7" s="1"/>
+        <stp>BDH|12067926999587948708</stp>
+        <tr r="K7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11777845908865837310</stp>
+        <stp>BDH|14540102340774316643</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11570793133451546734</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12460200030597930777</stp>
         <tr r="D7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17276559389612136761</stp>
-        <tr r="O7" s="1"/>
+        <stp>BDH|15996052102095826030</stp>
+        <tr r="S7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13899667212693690552</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11648818266409579556</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14016619191881159982</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15303560127187862610</stp>
+        <stp>BDH|18105468774372977826</stp>
         <tr r="T7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11129154731973954678</stp>
-        <tr r="U7" s="1"/>
+        <stp>BDH|10066179351251429322</stp>
+        <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12359536080348628074</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12882990364660313904</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11767314335726753399</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13864278905197533350</stp>
-        <tr r="W7" s="1"/>
+        <stp>BDH|11139072104960448668</stp>
+        <tr r="O7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -359,8 +335,32 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7958228893293662231</stp>
-        <tr r="H7" s="1"/>
+        <stp>BDH|2787984733547940391</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9456689022549277953</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4490232062748490543</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|40761258190329259</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|97018755010856558</stp>
+        <tr r="R7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -489,50 +489,50 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7662151718901569905</stp>
-        <tr r="L7" s="1"/>
+        <stp>BDH|8673555013017436415</stp>
+        <tr r="M7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6662047317099763747</stp>
-        <tr r="X7" s="1"/>
+        <stp>BDH|3177733186871178420</stp>
+        <tr r="J7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8361308011598399860</stp>
-        <tr r="Q7" s="1"/>
+        <stp>BDH|8847738042261444031</stp>
+        <tr r="U7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7521430084496789868</stp>
-        <tr r="C7" s="1"/>
+        <stp>BDH|2444586119726993522</stp>
+        <tr r="P7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8951160686240180724</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|1706159518261063577</stp>
+        <tr r="G7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4833178509005433625</stp>
-        <tr r="I7" s="1"/>
+        <stp>BDH|4521756224046205239</stp>
+        <tr r="F7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7988858112111148991</stp>
-        <tr r="E7" s="1"/>
+        <stp>BDH|6319051472520387107</stp>
+        <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2668554163579404858</stp>
-        <tr r="P7" s="1"/>
+        <stp>BDH|1956056447826009014</stp>
+        <tr r="A7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X191"/>
+  <dimension ref="A1:X192"/>
   <sheetViews>
-    <sheetView topLeftCell="C170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191:X191"/>
+    <sheetView topLeftCell="C171" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192:X192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>45046</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -1117,98 +1117,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=185")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=186")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=185")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
         <v>4.7309068339999998</v>
       </c>
       <c r="T190">
-        <v>5079.05</v>
+        <v>5215.8100000000004</v>
       </c>
       <c r="U190">
         <v>1636.36</v>
@@ -14792,7 +14792,7 @@
         <v>1252.01</v>
       </c>
       <c r="M191">
-        <v>18573.203000000001</v>
+        <v>18601.562999999998</v>
       </c>
       <c r="N191">
         <v>3691.1089999999999</v>
@@ -14813,7 +14813,7 @@
         <v>5.1306892120000001</v>
       </c>
       <c r="T191">
-        <v>5079.05</v>
+        <v>5215.8100000000004</v>
       </c>
       <c r="U191">
         <v>1654.5</v>
@@ -14826,6 +14826,80 @@
       </c>
       <c r="X191">
         <v>388.47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B192">
+        <v>138.65</v>
+      </c>
+      <c r="C192">
+        <v>4020.88</v>
+      </c>
+      <c r="D192">
+        <v>170.57380000000001</v>
+      </c>
+      <c r="E192">
+        <v>4179.83</v>
+      </c>
+      <c r="F192">
+        <v>646.37</v>
+      </c>
+      <c r="G192">
+        <v>1749.65</v>
+      </c>
+      <c r="H192">
+        <v>2041.81</v>
+      </c>
+      <c r="I192">
+        <v>958.53</v>
+      </c>
+      <c r="J192">
+        <v>514.86080000000004</v>
+      </c>
+      <c r="K192">
+        <v>1453.91</v>
+      </c>
+      <c r="L192">
+        <v>1263.18</v>
+      </c>
+      <c r="M192">
+        <v>18571.196</v>
+      </c>
+      <c r="N192">
+        <v>3801.7919999999999</v>
+      </c>
+      <c r="O192">
+        <v>1718.69</v>
+      </c>
+      <c r="P192">
+        <v>357.38</v>
+      </c>
+      <c r="Q192">
+        <v>162.4709</v>
+      </c>
+      <c r="R192">
+        <v>5.1535799999999998</v>
+      </c>
+      <c r="S192">
+        <v>5.3719694689999997</v>
+      </c>
+      <c r="T192">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U192">
+        <v>1630.51</v>
+      </c>
+      <c r="V192">
+        <v>2394.2890000000002</v>
+      </c>
+      <c r="W192">
+        <v>136.375</v>
+      </c>
+      <c r="X192">
+        <v>379.55</v>
       </c>
     </row>
   </sheetData>
@@ -14835,10 +14909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X186"/>
+  <dimension ref="A1:X187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:X186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28621,6 +28695,80 @@
       </c>
       <c r="X186">
         <v>388.47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B187">
+        <v>138.65</v>
+      </c>
+      <c r="C187">
+        <v>4020.88</v>
+      </c>
+      <c r="D187">
+        <v>170.57380000000001</v>
+      </c>
+      <c r="E187">
+        <v>4179.83</v>
+      </c>
+      <c r="F187">
+        <v>646.37</v>
+      </c>
+      <c r="G187">
+        <v>1749.65</v>
+      </c>
+      <c r="H187">
+        <v>2041.81</v>
+      </c>
+      <c r="I187">
+        <v>958.53</v>
+      </c>
+      <c r="J187">
+        <v>514.86080000000004</v>
+      </c>
+      <c r="K187">
+        <v>1453.91</v>
+      </c>
+      <c r="L187">
+        <v>1263.18</v>
+      </c>
+      <c r="M187">
+        <v>18571.196</v>
+      </c>
+      <c r="N187">
+        <v>3801.7919999999999</v>
+      </c>
+      <c r="O187">
+        <v>1718.69</v>
+      </c>
+      <c r="P187">
+        <v>357.38</v>
+      </c>
+      <c r="Q187">
+        <v>162.4709</v>
+      </c>
+      <c r="R187">
+        <v>5.1535799999999998</v>
+      </c>
+      <c r="S187">
+        <v>5.3719694689999997</v>
+      </c>
+      <c r="T187">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U187">
+        <v>1630.51</v>
+      </c>
+      <c r="V187">
+        <v>2394.2890000000002</v>
+      </c>
+      <c r="W187">
+        <v>136.375</v>
+      </c>
+      <c r="X187">
+        <v>379.55</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271A7AE-15EA-4827-8CF5-FA9312CF18EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A279FF94-4A3D-49D6-AE26-7DD8E22FF5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-50" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -207,62 +207,68 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16292177803839189059</stp>
-        <tr r="N7" s="1"/>
+        <stp>BDH|14430508253105431889</stp>
+        <tr r="J7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17988952705723847269</stp>
+        <stp>BDH|13300111439778905093</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17054979179049051922</stp>
         <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12067926999587948708</stp>
+        <stp>BDH|14573662733917990494</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15264966013319547236</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14138442034706631236</stp>
+        <tr r="W7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16750789879671825027</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17684609975043374173</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17232476322746686222</stp>
         <tr r="K7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14540102340774316643</stp>
-        <tr r="V7" s="1"/>
+        <stp>BDH|18424911560534582667</stp>
+        <tr r="U7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11570793133451546734</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12460200030597930777</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15996052102095826030</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|18105468774372977826</stp>
+        <stp>BDH|14798026118925185568</stp>
         <tr r="T7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10066179351251429322</stp>
-        <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11139072104960448668</stp>
-        <tr r="O7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -335,32 +341,20 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2787984733547940391</stp>
-        <tr r="L7" s="1"/>
+        <stp>BDH|9475382885488797639</stp>
+        <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9456689022549277953</stp>
-        <tr r="C7" s="1"/>
+        <stp>BDH|1759676734358192016</stp>
+        <tr r="N7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4490232062748490543</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|40761258190329259</stp>
+        <stp>BDH|2680171383107945154</stp>
         <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|97018755010856558</stp>
-        <tr r="R7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -489,50 +483,56 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8673555013017436415</stp>
-        <tr r="M7" s="1"/>
+        <stp>BDH|9091616480626840958</stp>
+        <tr r="S7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3177733186871178420</stp>
-        <tr r="J7" s="1"/>
+        <stp>BDH|6648897089413683196</stp>
+        <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8847738042261444031</stp>
-        <tr r="U7" s="1"/>
+        <stp>BDH|4671485203977821397</stp>
+        <tr r="L7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2444586119726993522</stp>
+        <stp>BDH|7774624745716708612</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2509090463804255763</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2414594225336140364</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4665116362116927401</stp>
         <tr r="P7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1706159518261063577</stp>
-        <tr r="G7" s="1"/>
+        <stp>BDH|2589533274723677268</stp>
+        <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4521756224046205239</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6319051472520387107</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1956056447826009014</stp>
-        <tr r="A7" s="1"/>
+        <stp>BDH|327312568533046778</stp>
+        <tr r="M7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X192"/>
+  <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView topLeftCell="C171" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192:X192"/>
+    <sheetView topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:X193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -1117,98 +1117,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=186")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=187")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>1294.82</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=186")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=187")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -14866,10 +14866,10 @@
         <v>1263.18</v>
       </c>
       <c r="M192">
-        <v>18571.196</v>
+        <v>18548.652999999998</v>
       </c>
       <c r="N192">
-        <v>3801.7919999999999</v>
+        <v>3798.5059999999999</v>
       </c>
       <c r="O192">
         <v>1718.69</v>
@@ -14900,6 +14900,80 @@
       </c>
       <c r="X192">
         <v>379.55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B193">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="C193">
+        <v>4082.76</v>
+      </c>
+      <c r="D193">
+        <v>169.756</v>
+      </c>
+      <c r="E193">
+        <v>4450.38</v>
+      </c>
+      <c r="F193">
+        <v>682.84</v>
+      </c>
+      <c r="G193">
+        <v>1888.7339999999999</v>
+      </c>
+      <c r="H193">
+        <v>2131.7199999999998</v>
+      </c>
+      <c r="I193">
+        <v>989.48</v>
+      </c>
+      <c r="J193">
+        <v>526.38220000000001</v>
+      </c>
+      <c r="K193">
+        <v>1477.58</v>
+      </c>
+      <c r="L193">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="M193">
+        <v>18821.123</v>
+      </c>
+      <c r="N193">
+        <v>3875.848</v>
+      </c>
+      <c r="O193">
+        <v>1718.69</v>
+      </c>
+      <c r="P193">
+        <v>373.51</v>
+      </c>
+      <c r="Q193">
+        <v>162.4709</v>
+      </c>
+      <c r="R193">
+        <v>5.2157900000000001</v>
+      </c>
+      <c r="S193">
+        <v>5.2487262379999997</v>
+      </c>
+      <c r="T193">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U193">
+        <v>1722.87</v>
+      </c>
+      <c r="V193">
+        <v>2554.4879999999998</v>
+      </c>
+      <c r="W193">
+        <v>136.21875</v>
+      </c>
+      <c r="X193">
+        <v>376.94</v>
       </c>
     </row>
   </sheetData>
@@ -14909,10 +14983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X187"/>
+  <dimension ref="A1:X188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28771,6 +28845,80 @@
         <v>379.55</v>
       </c>
     </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B188">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="C188">
+        <v>4082.76</v>
+      </c>
+      <c r="D188">
+        <v>169.756</v>
+      </c>
+      <c r="E188">
+        <v>4450.38</v>
+      </c>
+      <c r="F188">
+        <v>682.84</v>
+      </c>
+      <c r="G188">
+        <v>1888.7339999999999</v>
+      </c>
+      <c r="H188">
+        <v>2131.7199999999998</v>
+      </c>
+      <c r="I188">
+        <v>989.48</v>
+      </c>
+      <c r="J188">
+        <v>526.38220000000001</v>
+      </c>
+      <c r="K188">
+        <v>1477.58</v>
+      </c>
+      <c r="L188">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="M188">
+        <v>18821.123</v>
+      </c>
+      <c r="N188">
+        <v>3875.848</v>
+      </c>
+      <c r="O188">
+        <v>1718.69</v>
+      </c>
+      <c r="P188">
+        <v>373.51</v>
+      </c>
+      <c r="Q188">
+        <v>162.4709</v>
+      </c>
+      <c r="R188">
+        <v>5.2157900000000001</v>
+      </c>
+      <c r="S188">
+        <v>5.2487262379999997</v>
+      </c>
+      <c r="T188">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U188">
+        <v>1722.87</v>
+      </c>
+      <c r="V188">
+        <v>2554.4879999999998</v>
+      </c>
+      <c r="W188">
+        <v>136.21875</v>
+      </c>
+      <c r="X188">
+        <v>376.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28781,8 +28929,8 @@
   <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A179"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A176:R179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -205,80 +205,68 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15704611409131547986</stp>
+        <stp>BDH|17236690565707920910</stp>
+        <tr r="R7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13297851655590193145</stp>
         <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12578794970191210854</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|12926881264240898362</stp>
+        <tr r="Y7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16751372766569035577</stp>
+        <stp>BDH|14913224394640073269</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14837846873736313046</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11971190572452601512</stp>
         <tr r="M7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10019762198386025471</stp>
-        <tr r="T7" s="1"/>
+        <stp>BDH|12055499512048169900</stp>
+        <tr r="F7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16802085578070638315</stp>
-        <tr r="Q7" s="1"/>
+        <stp>BDH|17448202811811406212</stp>
+        <tr r="P7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13803598231190848635</stp>
+        <stp>BDH|18075417015289167059</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14119084901273067715</stp>
-        <tr r="P7" s="1"/>
+        <stp>BDH|15548123227067243483</stp>
+        <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14575500529786634551</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10401488906425032711</stp>
-        <tr r="Y7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17207570018174916070</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11199792137282520392</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10996652712136526520</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14353583720632358535</stp>
-        <tr r="F7" s="1"/>
+        <stp>BDH|12058450981862031989</stp>
+        <tr r="S7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -351,8 +339,32 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7660588928386380857</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|6547989470101314558</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7925042130241954952</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7802926848347401096</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3942950741802448155</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4823383110640400848</stp>
+        <tr r="C7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -489,62 +501,50 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3066111060899481677</stp>
+        <stp>BDH|8933502120889095924</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2503271317151895933</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2997792379889335131</stp>
         <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8623347243285480159</stp>
-        <tr r="R7" s="1"/>
+        <stp>BDH|5345391822715725709</stp>
+        <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5978705900445174175</stp>
-        <tr r="J7" s="1"/>
+        <stp>BDH|5902682273164826096</stp>
+        <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9115383278289275591</stp>
-        <tr r="N7" s="1"/>
+        <stp>BDH|5406525454397911320</stp>
+        <tr r="K7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8088141795562237353</stp>
+        <stp>BDH|3235266235923597252</stp>
         <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7873303195008770764</stp>
+        <stp>BDH|539207429269322929</stp>
         <tr r="U7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6127367128415885171</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6413629914772277044</stp>
-        <tr r="A7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|425472714690785074</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|613858023814496423</stp>
-        <tr r="V7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -848,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y188"/>
+  <dimension ref="A1:Y195"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:Y188"/>
+    <sheetView topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:Y195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44957</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1139,102 +1139,102 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=182")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=189")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
-        <v>1294.82</v>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <v>1294.818</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>221.59</v>
       </c>
       <c r="Y7">
-        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=182")</f>
+        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
         <v>1174.52</v>
       </c>
     </row>
@@ -1270,13 +1270,13 @@
         <v>261.66860000000003</v>
       </c>
       <c r="K8">
-        <v>582.75</v>
+        <v>582.75300000000004</v>
       </c>
       <c r="L8">
-        <v>1344.27</v>
+        <v>1344.268</v>
       </c>
       <c r="M8">
-        <v>12468.7682</v>
+        <v>12468.768</v>
       </c>
       <c r="N8">
         <v>1965.15</v>
@@ -1347,13 +1347,13 @@
         <v>255.42519999999999</v>
       </c>
       <c r="K9">
-        <v>575.83000000000004</v>
+        <v>575.83399999999995</v>
       </c>
       <c r="L9">
-        <v>1459.01</v>
+        <v>1459.009</v>
       </c>
       <c r="M9">
-        <v>12994.856299999999</v>
+        <v>12994.856</v>
       </c>
       <c r="N9">
         <v>2106.0329999999999</v>
@@ -1424,13 +1424,13 @@
         <v>254.5256</v>
       </c>
       <c r="K10">
-        <v>572.84</v>
+        <v>572.84400000000005</v>
       </c>
       <c r="L10">
-        <v>1415.2</v>
+        <v>1415.204</v>
       </c>
       <c r="M10">
-        <v>12836.166800000001</v>
+        <v>12836.166999999999</v>
       </c>
       <c r="N10">
         <v>2077.0700000000002</v>
@@ -1501,13 +1501,13 @@
         <v>262.93880000000001</v>
       </c>
       <c r="K11">
-        <v>596.71</v>
+        <v>596.70699999999999</v>
       </c>
       <c r="L11">
         <v>1405.95</v>
       </c>
       <c r="M11">
-        <v>12831.954900000001</v>
+        <v>12831.955</v>
       </c>
       <c r="N11">
         <v>2041.4290000000001</v>
@@ -1578,13 +1578,13 @@
         <v>264.8886</v>
       </c>
       <c r="K12">
-        <v>599.26</v>
+        <v>599.26300000000003</v>
       </c>
       <c r="L12">
-        <v>1430.86</v>
+        <v>1430.864</v>
       </c>
       <c r="M12">
-        <v>12986.5229</v>
+        <v>12986.522999999999</v>
       </c>
       <c r="N12">
         <v>2094.21</v>
@@ -1655,13 +1655,13 @@
         <v>265.29180000000002</v>
       </c>
       <c r="K13">
-        <v>583.21</v>
+        <v>583.20600000000002</v>
       </c>
       <c r="L13">
-        <v>1477.36</v>
+        <v>1477.3610000000001</v>
       </c>
       <c r="M13">
-        <v>13141.3627</v>
+        <v>13141.362999999999</v>
       </c>
       <c r="N13">
         <v>2207.183</v>
@@ -1732,13 +1732,13 @@
         <v>262.70940000000002</v>
       </c>
       <c r="K14">
-        <v>573.86</v>
+        <v>573.85900000000004</v>
       </c>
       <c r="L14">
         <v>1394.77</v>
       </c>
       <c r="M14">
-        <v>12796.566800000001</v>
+        <v>12796.566999999999</v>
       </c>
       <c r="N14">
         <v>2095.7800000000002</v>
@@ -1809,13 +1809,13 @@
         <v>262.5575</v>
       </c>
       <c r="K15">
-        <v>575.71</v>
+        <v>575.71100000000001</v>
       </c>
       <c r="L15">
-        <v>1339.78</v>
+        <v>1339.7809999999999</v>
       </c>
       <c r="M15">
-        <v>12645.730799999999</v>
+        <v>12645.731</v>
       </c>
       <c r="N15">
         <v>2035.0039999999999</v>
@@ -1886,13 +1886,13 @@
         <v>249.61969999999999</v>
       </c>
       <c r="K16">
-        <v>527.94000000000005</v>
+        <v>527.94200000000001</v>
       </c>
       <c r="L16">
-        <v>1328.39</v>
+        <v>1328.394</v>
       </c>
       <c r="M16">
-        <v>12492.1569</v>
+        <v>12492.156999999999</v>
       </c>
       <c r="N16">
         <v>2054.8670000000002</v>
@@ -1963,13 +1963,13 @@
         <v>217.0848</v>
       </c>
       <c r="K17">
-        <v>441.9</v>
+        <v>441.89600000000002</v>
       </c>
       <c r="L17">
-        <v>1304.98</v>
+        <v>1304.9829999999999</v>
       </c>
       <c r="M17">
-        <v>12695.992899999999</v>
+        <v>12695.993</v>
       </c>
       <c r="N17">
         <v>2205.1550000000002</v>
@@ -2040,13 +2040,13 @@
         <v>199.9513</v>
       </c>
       <c r="K18">
-        <v>404.63</v>
+        <v>404.63400000000001</v>
       </c>
       <c r="L18">
-        <v>1324.36</v>
+        <v>1324.355</v>
       </c>
       <c r="M18">
-        <v>12789.034900000001</v>
+        <v>12789.035</v>
       </c>
       <c r="N18">
         <v>2267.3110000000001</v>
@@ -2117,13 +2117,13 @@
         <v>192.38509999999999</v>
       </c>
       <c r="K19">
-        <v>434.88</v>
+        <v>434.87799999999999</v>
       </c>
       <c r="L19">
-        <v>1367.51</v>
+        <v>1367.5050000000001</v>
       </c>
       <c r="M19">
-        <v>12931.3459</v>
+        <v>12931.346</v>
       </c>
       <c r="N19">
         <v>2315.06</v>
@@ -2194,13 +2194,13 @@
         <v>203.49539999999999</v>
       </c>
       <c r="K20">
-        <v>457.96</v>
+        <v>457.96100000000001</v>
       </c>
       <c r="L20">
         <v>1387.26</v>
       </c>
       <c r="M20">
-        <v>12918.482099999999</v>
+        <v>12918.482</v>
       </c>
       <c r="N20">
         <v>2307.8919999999998</v>
@@ -2271,13 +2271,13 @@
         <v>204.20050000000001</v>
       </c>
       <c r="K21">
-        <v>442.09</v>
+        <v>442.08499999999998</v>
       </c>
       <c r="L21">
-        <v>1386.56</v>
+        <v>1386.559</v>
       </c>
       <c r="M21">
-        <v>12902.6587</v>
+        <v>12902.659</v>
       </c>
       <c r="N21">
         <v>2320.3330000000001</v>
@@ -2425,13 +2425,13 @@
         <v>222.69049999999999</v>
       </c>
       <c r="K23">
-        <v>509.05</v>
+        <v>509.05399999999997</v>
       </c>
       <c r="L23">
-        <v>1344.19</v>
+        <v>1344.194</v>
       </c>
       <c r="M23">
-        <v>12811.928599999999</v>
+        <v>12811.929</v>
       </c>
       <c r="N23">
         <v>2196.0830000000001</v>
@@ -2502,13 +2502,13 @@
         <v>235.3854</v>
       </c>
       <c r="K24">
-        <v>545.26</v>
+        <v>545.26300000000003</v>
       </c>
       <c r="L24">
-        <v>1330.23</v>
+        <v>1330.2260000000001</v>
       </c>
       <c r="M24">
-        <v>13264.861699999999</v>
+        <v>13264.861999999999</v>
       </c>
       <c r="N24">
         <v>2206.9</v>
@@ -2579,10 +2579,10 @@
         <v>244.51750000000001</v>
       </c>
       <c r="K25">
-        <v>562.6</v>
+        <v>562.601</v>
       </c>
       <c r="L25">
-        <v>1285.96</v>
+        <v>1285.9549999999999</v>
       </c>
       <c r="M25">
         <v>13109.794</v>
@@ -2656,13 +2656,13 @@
         <v>254.65369999999999</v>
       </c>
       <c r="K26">
-        <v>597.39</v>
+        <v>597.38699999999994</v>
       </c>
       <c r="L26">
-        <v>1286.8900000000001</v>
+        <v>1286.894</v>
       </c>
       <c r="M26">
-        <v>13174.286400000001</v>
+        <v>13174.286</v>
       </c>
       <c r="N26">
         <v>2141.98</v>
@@ -2733,13 +2733,13 @@
         <v>260.33589999999998</v>
       </c>
       <c r="K27">
-        <v>609.54</v>
+        <v>609.53700000000003</v>
       </c>
       <c r="L27">
-        <v>1276.6099999999999</v>
+        <v>1276.6079999999999</v>
       </c>
       <c r="M27">
-        <v>13223.647800000001</v>
+        <v>13223.647999999999</v>
       </c>
       <c r="N27">
         <v>2175.6089999999999</v>
@@ -2810,13 +2810,13 @@
         <v>268.88839999999999</v>
       </c>
       <c r="K28">
-        <v>645.96</v>
+        <v>645.96299999999997</v>
       </c>
       <c r="L28">
-        <v>1267.52</v>
+        <v>1267.5150000000001</v>
       </c>
       <c r="M28">
-        <v>13449.626700000001</v>
+        <v>13449.627</v>
       </c>
       <c r="N28">
         <v>2227.857</v>
@@ -2887,13 +2887,13 @@
         <v>270.64179999999999</v>
       </c>
       <c r="K29">
-        <v>657.5</v>
+        <v>657.50199999999995</v>
       </c>
       <c r="L29">
-        <v>1250.6199999999999</v>
+        <v>1250.6179999999999</v>
       </c>
       <c r="M29">
-        <v>13380.286099999999</v>
+        <v>13380.286</v>
       </c>
       <c r="N29">
         <v>2162.4050000000002</v>
@@ -2964,13 +2964,13 @@
         <v>271.42450000000002</v>
       </c>
       <c r="K30">
-        <v>664.16</v>
+        <v>664.16399999999999</v>
       </c>
       <c r="L30">
-        <v>1281.04</v>
+        <v>1281.0419999999999</v>
       </c>
       <c r="M30">
-        <v>13670.636699999999</v>
+        <v>13670.637000000001</v>
       </c>
       <c r="N30">
         <v>2274.2429999999999</v>
@@ -3041,10 +3041,10 @@
         <v>278.7047</v>
       </c>
       <c r="K31">
-        <v>684.98</v>
+        <v>684.98299999999995</v>
       </c>
       <c r="L31">
-        <v>1247.43</v>
+        <v>1247.434</v>
       </c>
       <c r="M31">
         <v>13492.601000000001</v>
@@ -3118,13 +3118,13 @@
         <v>283.74540000000002</v>
       </c>
       <c r="K32">
-        <v>695.36</v>
+        <v>695.36400000000003</v>
       </c>
       <c r="L32">
-        <v>1224.45</v>
+        <v>1224.4449999999999</v>
       </c>
       <c r="M32">
-        <v>13229.0828</v>
+        <v>13229.083000000001</v>
       </c>
       <c r="N32">
         <v>2119.4940000000001</v>
@@ -3195,13 +3195,13 @@
         <v>284.66649999999998</v>
       </c>
       <c r="K33">
-        <v>696.44</v>
+        <v>696.44100000000003</v>
       </c>
       <c r="L33">
-        <v>1241.75</v>
+        <v>1241.7539999999999</v>
       </c>
       <c r="M33">
-        <v>13250.2135</v>
+        <v>13250.214</v>
       </c>
       <c r="N33">
         <v>2161.3310000000001</v>
@@ -3272,13 +3272,13 @@
         <v>290.81540000000001</v>
       </c>
       <c r="K34">
-        <v>718</v>
+        <v>718.00099999999998</v>
       </c>
       <c r="L34">
-        <v>1255.06</v>
+        <v>1255.059</v>
       </c>
       <c r="M34">
-        <v>13460.915499999999</v>
+        <v>13460.915999999999</v>
       </c>
       <c r="N34">
         <v>2267.1979999999999</v>
@@ -3349,13 +3349,13 @@
         <v>294.53320000000002</v>
       </c>
       <c r="K35">
-        <v>734.08</v>
+        <v>734.077</v>
       </c>
       <c r="L35">
         <v>1246.22</v>
       </c>
       <c r="M35">
-        <v>13570.9728</v>
+        <v>13570.973</v>
       </c>
       <c r="N35">
         <v>2313.11</v>
@@ -3426,13 +3426,13 @@
         <v>288.47559999999999</v>
       </c>
       <c r="K36">
-        <v>708.23</v>
+        <v>708.23299999999995</v>
       </c>
       <c r="L36">
         <v>1234.72</v>
       </c>
       <c r="M36">
-        <v>13356.1283</v>
+        <v>13356.128000000001</v>
       </c>
       <c r="N36">
         <v>2208.9389999999999</v>
@@ -3503,13 +3503,13 @@
         <v>287.77719999999999</v>
       </c>
       <c r="K37">
-        <v>717.47</v>
+        <v>717.46699999999998</v>
       </c>
       <c r="L37">
-        <v>1218.45</v>
+        <v>1218.453</v>
       </c>
       <c r="M37">
-        <v>13340.6435</v>
+        <v>13340.644</v>
       </c>
       <c r="N37">
         <v>2196.9259999999999</v>
@@ -3580,10 +3580,10 @@
         <v>291.88330000000002</v>
       </c>
       <c r="K38">
-        <v>742.33</v>
+        <v>742.32799999999997</v>
       </c>
       <c r="L38">
-        <v>1210.82</v>
+        <v>1210.8219999999999</v>
       </c>
       <c r="M38">
         <v>13332.331</v>
@@ -3657,10 +3657,10 @@
         <v>292.94799999999998</v>
       </c>
       <c r="K39">
-        <v>743.49</v>
+        <v>743.48900000000003</v>
       </c>
       <c r="L39">
-        <v>1228.3499999999999</v>
+        <v>1228.3489999999999</v>
       </c>
       <c r="M39">
         <v>13557.523999999999</v>
@@ -3734,13 +3734,13 @@
         <v>296.69979999999998</v>
       </c>
       <c r="K40">
-        <v>765.56</v>
+        <v>765.56299999999999</v>
       </c>
       <c r="L40">
-        <v>1211.3499999999999</v>
+        <v>1211.347</v>
       </c>
       <c r="M40">
-        <v>13928.3614</v>
+        <v>13928.361000000001</v>
       </c>
       <c r="N40">
         <v>2339.1849999999999</v>
@@ -3814,10 +3814,10 @@
         <v>784.13</v>
       </c>
       <c r="L41">
-        <v>1223.1099999999999</v>
+        <v>1223.1110000000001</v>
       </c>
       <c r="M41">
-        <v>14239.0774</v>
+        <v>14239.076999999999</v>
       </c>
       <c r="N41">
         <v>2454.8679999999999</v>
@@ -3888,13 +3888,13 @@
         <v>302.4778</v>
       </c>
       <c r="K42">
-        <v>775.38</v>
+        <v>775.38199999999995</v>
       </c>
       <c r="L42">
-        <v>1209.6600000000001</v>
+        <v>1209.6569999999999</v>
       </c>
       <c r="M42">
-        <v>14108.606900000001</v>
+        <v>14108.607</v>
       </c>
       <c r="N42">
         <v>2359.6460000000002</v>
@@ -3965,13 +3965,13 @@
         <v>306.50450000000001</v>
       </c>
       <c r="K43">
-        <v>789.04</v>
+        <v>789.03499999999997</v>
       </c>
       <c r="L43">
-        <v>1225.8800000000001</v>
+        <v>1225.884</v>
       </c>
       <c r="M43">
-        <v>14579.778399999999</v>
+        <v>14579.778</v>
       </c>
       <c r="N43">
         <v>2493.3910000000001</v>
@@ -4042,10 +4042,10 @@
         <v>312.52589999999998</v>
       </c>
       <c r="K44">
-        <v>805.62</v>
+        <v>805.62400000000002</v>
       </c>
       <c r="L44">
-        <v>1227.69</v>
+        <v>1227.6890000000001</v>
       </c>
       <c r="M44">
         <v>14474.621999999999</v>
@@ -4119,13 +4119,13 @@
         <v>314.1893</v>
       </c>
       <c r="K45">
-        <v>816.4</v>
+        <v>816.39499999999998</v>
       </c>
       <c r="L45">
-        <v>1239.1600000000001</v>
+        <v>1239.1569999999999</v>
       </c>
       <c r="M45">
-        <v>14659.216200000001</v>
+        <v>14659.216</v>
       </c>
       <c r="N45">
         <v>2510.5619999999999</v>
@@ -4196,13 +4196,13 @@
         <v>314.62810000000002</v>
       </c>
       <c r="K46">
-        <v>819.83</v>
+        <v>819.82500000000005</v>
       </c>
       <c r="L46">
         <v>1243.9100000000001</v>
       </c>
       <c r="M46">
-        <v>14499.349700000001</v>
+        <v>14499.35</v>
       </c>
       <c r="N46">
         <v>2408.201</v>
@@ -4273,13 +4273,13 @@
         <v>316.52589999999998</v>
       </c>
       <c r="K47">
-        <v>832.29</v>
+        <v>832.28599999999994</v>
       </c>
       <c r="L47">
-        <v>1254.98</v>
+        <v>1254.981</v>
       </c>
       <c r="M47">
-        <v>14843.1054</v>
+        <v>14843.105</v>
       </c>
       <c r="N47">
         <v>2522.3739999999998</v>
@@ -4350,13 +4350,13 @@
         <v>316.71600000000001</v>
       </c>
       <c r="K48">
-        <v>836.36</v>
+        <v>836.35599999999999</v>
       </c>
       <c r="L48">
-        <v>1228.49</v>
+        <v>1228.4880000000001</v>
       </c>
       <c r="M48">
-        <v>14501.493200000001</v>
+        <v>14501.493</v>
       </c>
       <c r="N48">
         <v>2396.038</v>
@@ -4427,10 +4427,10 @@
         <v>315.6814</v>
       </c>
       <c r="K49">
-        <v>827.96</v>
+        <v>827.95500000000004</v>
       </c>
       <c r="L49">
-        <v>1199.6099999999999</v>
+        <v>1199.6089999999999</v>
       </c>
       <c r="M49">
         <v>14249.044</v>
@@ -4504,13 +4504,13 @@
         <v>316.2002</v>
       </c>
       <c r="K50">
-        <v>838.18</v>
+        <v>838.18399999999997</v>
       </c>
       <c r="L50">
-        <v>1214.8</v>
+        <v>1214.798</v>
       </c>
       <c r="M50">
-        <v>14484.9593</v>
+        <v>14484.959000000001</v>
       </c>
       <c r="N50">
         <v>2426.16</v>
@@ -4581,13 +4581,13 @@
         <v>303.04410000000001</v>
       </c>
       <c r="K51">
-        <v>804.6</v>
+        <v>804.59699999999998</v>
       </c>
       <c r="L51">
-        <v>1213.76</v>
+        <v>1213.7570000000001</v>
       </c>
       <c r="M51">
-        <v>14410.909799999999</v>
+        <v>14410.91</v>
       </c>
       <c r="N51">
         <v>2397.636</v>
@@ -4658,13 +4658,13 @@
         <v>303.81540000000001</v>
       </c>
       <c r="K52">
-        <v>775.67</v>
+        <v>775.67399999999998</v>
       </c>
       <c r="L52">
-        <v>1189.42</v>
+        <v>1189.424</v>
       </c>
       <c r="M52">
-        <v>14231.7312</v>
+        <v>14231.731</v>
       </c>
       <c r="N52">
         <v>2371.6529999999998</v>
@@ -4735,10 +4735,10 @@
         <v>311.6925</v>
       </c>
       <c r="K53">
-        <v>821.87</v>
+        <v>821.87099999999998</v>
       </c>
       <c r="L53">
-        <v>1165.81</v>
+        <v>1165.807</v>
       </c>
       <c r="M53">
         <v>14100.214</v>
@@ -4812,13 +4812,13 @@
         <v>310.50479999999999</v>
       </c>
       <c r="K54">
-        <v>803.7</v>
+        <v>803.69500000000005</v>
       </c>
       <c r="L54">
-        <v>1169.33</v>
+        <v>1169.3309999999999</v>
       </c>
       <c r="M54">
-        <v>14008.1811</v>
+        <v>14008.181</v>
       </c>
       <c r="N54">
         <v>2258.2049999999999</v>
@@ -4889,13 +4889,13 @@
         <v>312.07580000000002</v>
       </c>
       <c r="K55">
-        <v>823.62</v>
+        <v>823.61599999999999</v>
       </c>
       <c r="L55">
-        <v>1166.06</v>
+        <v>1166.059</v>
       </c>
       <c r="M55">
-        <v>13973.4763</v>
+        <v>13973.476000000001</v>
       </c>
       <c r="N55">
         <v>2295.5889999999999</v>
@@ -4966,13 +4966,13 @@
         <v>318.30500000000001</v>
       </c>
       <c r="K56">
-        <v>847.53</v>
+        <v>847.52499999999998</v>
       </c>
       <c r="L56">
-        <v>1167.1199999999999</v>
+        <v>1167.1220000000001</v>
       </c>
       <c r="M56">
-        <v>14150.578100000001</v>
+        <v>14150.578</v>
       </c>
       <c r="N56">
         <v>2319.9760000000001</v>
@@ -5043,13 +5043,13 @@
         <v>320.66320000000002</v>
       </c>
       <c r="K57">
-        <v>866.84</v>
+        <v>866.83600000000001</v>
       </c>
       <c r="L57">
-        <v>1169.6400000000001</v>
+        <v>1169.6369999999999</v>
       </c>
       <c r="M57">
-        <v>14262.293900000001</v>
+        <v>14262.294</v>
       </c>
       <c r="N57">
         <v>2355.634</v>
@@ -5120,13 +5120,13 @@
         <v>322.92290000000003</v>
       </c>
       <c r="K58">
-        <v>866.03</v>
+        <v>866.02499999999998</v>
       </c>
       <c r="L58">
-        <v>1150.97</v>
+        <v>1150.973</v>
       </c>
       <c r="M58">
-        <v>14074.2376</v>
+        <v>14074.237999999999</v>
       </c>
       <c r="N58">
         <v>2302.6779999999999</v>
@@ -5197,13 +5197,13 @@
         <v>325.4556</v>
       </c>
       <c r="K59">
-        <v>874.88</v>
+        <v>874.87800000000004</v>
       </c>
       <c r="L59">
-        <v>1155.8900000000001</v>
+        <v>1155.893</v>
       </c>
       <c r="M59">
-        <v>13992.7004</v>
+        <v>13992.7</v>
       </c>
       <c r="N59">
         <v>2319.3290000000002</v>
@@ -5274,13 +5274,13 @@
         <v>323.7833</v>
       </c>
       <c r="K60">
-        <v>864.32</v>
+        <v>864.31600000000003</v>
       </c>
       <c r="L60">
-        <v>1160.04</v>
+        <v>1160.0440000000001</v>
       </c>
       <c r="M60">
-        <v>14049.182500000001</v>
+        <v>14049.183000000001</v>
       </c>
       <c r="N60">
         <v>2387.8009999999999</v>
@@ -5351,13 +5351,13 @@
         <v>326.18639999999999</v>
       </c>
       <c r="K61">
-        <v>881.89</v>
+        <v>881.89400000000001</v>
       </c>
       <c r="L61">
-        <v>1144.99</v>
+        <v>1144.9949999999999</v>
       </c>
       <c r="M61">
-        <v>13849.6605</v>
+        <v>13849.661</v>
       </c>
       <c r="N61">
         <v>2274.5349999999999</v>
@@ -5428,13 +5428,13 @@
         <v>329.36090000000002</v>
       </c>
       <c r="K62">
-        <v>898.79</v>
+        <v>898.79399999999998</v>
       </c>
       <c r="L62">
-        <v>1161.99</v>
+        <v>1161.9860000000001</v>
       </c>
       <c r="M62">
-        <v>14127.8858</v>
+        <v>14127.886</v>
       </c>
       <c r="N62">
         <v>2392.2849999999999</v>
@@ -5505,13 +5505,13 @@
         <v>332.83499999999998</v>
       </c>
       <c r="K63">
-        <v>909.63</v>
+        <v>909.63199999999995</v>
       </c>
       <c r="L63">
-        <v>1161.73</v>
+        <v>1161.7260000000001</v>
       </c>
       <c r="M63">
-        <v>14095.6423</v>
+        <v>14095.642</v>
       </c>
       <c r="N63">
         <v>2344.402</v>
@@ -5582,13 +5582,13 @@
         <v>336.41629999999998</v>
       </c>
       <c r="K64">
-        <v>922.59</v>
+        <v>922.58799999999997</v>
       </c>
       <c r="L64">
-        <v>1155.73</v>
+        <v>1155.731</v>
       </c>
       <c r="M64">
-        <v>14091.388800000001</v>
+        <v>14091.388999999999</v>
       </c>
       <c r="N64">
         <v>2295.8310000000001</v>
@@ -5659,13 +5659,13 @@
         <v>337.67520000000002</v>
       </c>
       <c r="K65">
-        <v>930.2</v>
+        <v>930.197</v>
       </c>
       <c r="L65">
         <v>1143.44</v>
       </c>
       <c r="M65">
-        <v>13832.4846</v>
+        <v>13832.485000000001</v>
       </c>
       <c r="N65">
         <v>2184.299</v>
@@ -5736,13 +5736,13 @@
         <v>339.029</v>
       </c>
       <c r="K66">
-        <v>937.1</v>
+        <v>937.10199999999998</v>
       </c>
       <c r="L66">
-        <v>1146.95</v>
+        <v>1146.953</v>
       </c>
       <c r="M66">
-        <v>13823.5672</v>
+        <v>13823.566999999999</v>
       </c>
       <c r="N66">
         <v>2186.8069999999998</v>
@@ -5813,13 +5813,13 @@
         <v>341.51690000000002</v>
       </c>
       <c r="K67">
-        <v>951.96</v>
+        <v>951.96299999999997</v>
       </c>
       <c r="L67">
-        <v>1154.3599999999999</v>
+        <v>1154.355</v>
       </c>
       <c r="M67">
-        <v>13964.716700000001</v>
+        <v>13964.717000000001</v>
       </c>
       <c r="N67">
         <v>2214.6790000000001</v>
@@ -5967,10 +5967,10 @@
         <v>346.68119999999999</v>
       </c>
       <c r="K69">
-        <v>969.53</v>
+        <v>969.52599999999995</v>
       </c>
       <c r="L69">
-        <v>1154.5</v>
+        <v>1154.5029999999999</v>
       </c>
       <c r="M69">
         <v>14081.665999999999</v>
@@ -6044,13 +6044,13 @@
         <v>349.62169999999998</v>
       </c>
       <c r="K70">
-        <v>979.52</v>
+        <v>979.51800000000003</v>
       </c>
       <c r="L70">
-        <v>1154.83</v>
+        <v>1154.826</v>
       </c>
       <c r="M70">
-        <v>14139.034299999999</v>
+        <v>14139.034</v>
       </c>
       <c r="N70">
         <v>2296.1260000000002</v>
@@ -6121,13 +6121,13 @@
         <v>352.2414</v>
       </c>
       <c r="K71">
-        <v>997.71</v>
+        <v>997.70799999999997</v>
       </c>
       <c r="L71">
-        <v>1160.57</v>
+        <v>1160.5719999999999</v>
       </c>
       <c r="M71">
-        <v>14231.3532</v>
+        <v>14231.352999999999</v>
       </c>
       <c r="N71">
         <v>2384.665</v>
@@ -6198,13 +6198,13 @@
         <v>353.04329999999999</v>
       </c>
       <c r="K72">
-        <v>992.41</v>
+        <v>992.41099999999994</v>
       </c>
       <c r="L72">
-        <v>1149.57</v>
+        <v>1149.5719999999999</v>
       </c>
       <c r="M72">
-        <v>14053.3143</v>
+        <v>14053.314</v>
       </c>
       <c r="N72">
         <v>2297.422</v>
@@ -6275,13 +6275,13 @@
         <v>351.11869999999999</v>
       </c>
       <c r="K73">
-        <v>966.25</v>
+        <v>966.25099999999998</v>
       </c>
       <c r="L73">
-        <v>1141.97</v>
+        <v>1141.9670000000001</v>
       </c>
       <c r="M73">
-        <v>13832.831399999999</v>
+        <v>13832.831</v>
       </c>
       <c r="N73">
         <v>2231.511</v>
@@ -6352,13 +6352,13 @@
         <v>354.86489999999998</v>
       </c>
       <c r="K74">
-        <v>984.42</v>
+        <v>984.42200000000003</v>
       </c>
       <c r="L74">
-        <v>1135.83</v>
+        <v>1135.8340000000001</v>
       </c>
       <c r="M74">
-        <v>13825.0689</v>
+        <v>13825.069</v>
       </c>
       <c r="N74">
         <v>2213.9580000000001</v>
@@ -6429,10 +6429,10 @@
         <v>354.99880000000002</v>
       </c>
       <c r="K75">
-        <v>978.32</v>
+        <v>978.31799999999998</v>
       </c>
       <c r="L75">
-        <v>1126.32</v>
+        <v>1126.316</v>
       </c>
       <c r="M75">
         <v>13675.416999999999</v>
@@ -6506,13 +6506,13 @@
         <v>356.03160000000003</v>
       </c>
       <c r="K76">
-        <v>988.02</v>
+        <v>988.01700000000005</v>
       </c>
       <c r="L76">
-        <v>1123.3499999999999</v>
+        <v>1123.3520000000001</v>
       </c>
       <c r="M76">
-        <v>13652.6752</v>
+        <v>13652.674999999999</v>
       </c>
       <c r="N76">
         <v>2145.154</v>
@@ -6583,13 +6583,13 @@
         <v>358.88979999999998</v>
       </c>
       <c r="K77">
-        <v>1012.31</v>
+        <v>1012.3049999999999</v>
       </c>
       <c r="L77">
-        <v>1130.57</v>
+        <v>1130.566</v>
       </c>
       <c r="M77">
-        <v>13765.9161</v>
+        <v>13765.915999999999</v>
       </c>
       <c r="N77">
         <v>2199.8159999999998</v>
@@ -6660,13 +6660,13 @@
         <v>360.60160000000002</v>
       </c>
       <c r="K78">
-        <v>1017.01</v>
+        <v>1017.013</v>
       </c>
       <c r="L78">
-        <v>1134.19</v>
+        <v>1134.1869999999999</v>
       </c>
       <c r="M78">
-        <v>13838.021500000001</v>
+        <v>13838.022000000001</v>
       </c>
       <c r="N78">
         <v>2259.2640000000001</v>
@@ -6737,13 +6737,13 @@
         <v>362.5283</v>
       </c>
       <c r="K79">
-        <v>1022.59</v>
+        <v>1022.586</v>
       </c>
       <c r="L79">
-        <v>1133.6600000000001</v>
+        <v>1133.6610000000001</v>
       </c>
       <c r="M79">
-        <v>13903.1242</v>
+        <v>13903.124</v>
       </c>
       <c r="N79">
         <v>2273.8609999999999</v>
@@ -6814,13 +6814,13 @@
         <v>365.08629999999999</v>
       </c>
       <c r="K80">
-        <v>1030.1500000000001</v>
+        <v>1030.1510000000001</v>
       </c>
       <c r="L80">
         <v>1132.8900000000001</v>
       </c>
       <c r="M80">
-        <v>13784.743899999999</v>
+        <v>13784.744000000001</v>
       </c>
       <c r="N80">
         <v>2171.3519999999999</v>
@@ -6891,13 +6891,13 @@
         <v>365.90249999999997</v>
       </c>
       <c r="K81">
-        <v>1050.8</v>
+        <v>1050.797</v>
       </c>
       <c r="L81">
         <v>1124.3699999999999</v>
       </c>
       <c r="M81">
-        <v>13983.1011</v>
+        <v>13983.101000000001</v>
       </c>
       <c r="N81">
         <v>2185.3049999999998</v>
@@ -6968,13 +6968,13 @@
         <v>367.24169999999998</v>
       </c>
       <c r="K82">
-        <v>1053.23</v>
+        <v>1053.229</v>
       </c>
       <c r="L82">
         <v>1121.8599999999999</v>
       </c>
       <c r="M82">
-        <v>13857.130499999999</v>
+        <v>13857.130999999999</v>
       </c>
       <c r="N82">
         <v>2139.87</v>
@@ -7045,13 +7045,13 @@
         <v>368.08049999999997</v>
       </c>
       <c r="K83">
-        <v>1060.53</v>
+        <v>1060.5250000000001</v>
       </c>
       <c r="L83">
         <v>1115.6099999999999</v>
       </c>
       <c r="M83">
-        <v>13865.789500000001</v>
+        <v>13865.79</v>
       </c>
       <c r="N83">
         <v>2162.9859999999999</v>
@@ -7122,13 +7122,13 @@
         <v>370.34370000000001</v>
       </c>
       <c r="K84">
-        <v>1071.2</v>
+        <v>1071.203</v>
       </c>
       <c r="L84">
         <v>1124.43</v>
       </c>
       <c r="M84">
-        <v>13944.688599999999</v>
+        <v>13944.689</v>
       </c>
       <c r="N84">
         <v>2227.085</v>
@@ -7199,13 +7199,13 @@
         <v>372.57870000000003</v>
       </c>
       <c r="K85">
-        <v>1080.26</v>
+        <v>1080.2560000000001</v>
       </c>
       <c r="L85">
         <v>1125.3599999999999</v>
       </c>
       <c r="M85">
-        <v>14041.676299999999</v>
+        <v>14041.675999999999</v>
       </c>
       <c r="N85">
         <v>2258.1</v>
@@ -7276,13 +7276,13 @@
         <v>372.416</v>
       </c>
       <c r="K86">
-        <v>1065.97</v>
+        <v>1065.971</v>
       </c>
       <c r="L86">
         <v>1131.24</v>
       </c>
       <c r="M86">
-        <v>13986.182199999999</v>
+        <v>13986.182000000001</v>
       </c>
       <c r="N86">
         <v>2234.0169999999998</v>
@@ -7353,13 +7353,13 @@
         <v>373.2801</v>
       </c>
       <c r="K87">
-        <v>1082.17</v>
+        <v>1082.174</v>
       </c>
       <c r="L87">
         <v>1144.9000000000001</v>
       </c>
       <c r="M87">
-        <v>14195.9997</v>
+        <v>14196</v>
       </c>
       <c r="N87">
         <v>2357.018</v>
@@ -7430,13 +7430,13 @@
         <v>371.35480000000001</v>
       </c>
       <c r="K88">
-        <v>1059.47</v>
+        <v>1059.4670000000001</v>
       </c>
       <c r="L88">
         <v>1162.53</v>
       </c>
       <c r="M88">
-        <v>14349.293299999999</v>
+        <v>14349.293</v>
       </c>
       <c r="N88">
         <v>2435.6019999999999</v>
@@ -7507,13 +7507,13 @@
         <v>372.41359999999997</v>
       </c>
       <c r="K89">
-        <v>1071.53</v>
+        <v>1071.528</v>
       </c>
       <c r="L89">
         <v>1169.58</v>
       </c>
       <c r="M89">
-        <v>14320.528399999999</v>
+        <v>14320.528</v>
       </c>
       <c r="N89">
         <v>2478.6019999999999</v>
@@ -7584,13 +7584,13 @@
         <v>374.10939999999999</v>
       </c>
       <c r="K90">
-        <v>1063.8699999999999</v>
+        <v>1063.8689999999999</v>
       </c>
       <c r="L90">
         <v>1189.05</v>
       </c>
       <c r="M90">
-        <v>14642.9534</v>
+        <v>14642.953</v>
       </c>
       <c r="N90">
         <v>2659.299</v>
@@ -7661,13 +7661,13 @@
         <v>369.9796</v>
       </c>
       <c r="K91">
-        <v>1048.18</v>
+        <v>1048.184</v>
       </c>
       <c r="L91">
         <v>1193.05</v>
       </c>
       <c r="M91">
-        <v>14678.342500000001</v>
+        <v>14678.343000000001</v>
       </c>
       <c r="N91">
         <v>2721.7869999999998</v>
@@ -7738,13 +7738,13 @@
         <v>370.92840000000001</v>
       </c>
       <c r="K92">
-        <v>1055.4100000000001</v>
+        <v>1055.413</v>
       </c>
       <c r="L92">
         <v>1216.8399999999999</v>
       </c>
       <c r="M92">
-        <v>15047.019700000001</v>
+        <v>15047.02</v>
       </c>
       <c r="N92">
         <v>2861.0079999999998</v>
@@ -7815,13 +7815,13 @@
         <v>376.14550000000003</v>
       </c>
       <c r="K93">
-        <v>1080.5899999999999</v>
+        <v>1080.5930000000001</v>
       </c>
       <c r="L93">
         <v>1224.99</v>
       </c>
       <c r="M93">
-        <v>15076.506100000001</v>
+        <v>15076.505999999999</v>
       </c>
       <c r="N93">
         <v>2855.143</v>
@@ -7892,13 +7892,13 @@
         <v>377.6302</v>
       </c>
       <c r="K94">
-        <v>1074.8499999999999</v>
+        <v>1074.8530000000001</v>
       </c>
       <c r="L94">
         <v>1233.6400000000001</v>
       </c>
       <c r="M94">
-        <v>15161.163200000001</v>
+        <v>15161.163</v>
       </c>
       <c r="N94">
         <v>2929.2930000000001</v>
@@ -8046,13 +8046,13 @@
         <v>381.7903</v>
       </c>
       <c r="K96">
-        <v>1090.96</v>
+        <v>1090.962</v>
       </c>
       <c r="L96">
         <v>1209.01</v>
       </c>
       <c r="M96">
-        <v>14972.890299999999</v>
+        <v>14972.89</v>
       </c>
       <c r="N96">
         <v>2789.703</v>
@@ -8123,13 +8123,13 @@
         <v>380.59679999999997</v>
       </c>
       <c r="K97">
-        <v>1074.32</v>
+        <v>1074.3209999999999</v>
       </c>
       <c r="L97">
         <v>1176.9000000000001</v>
       </c>
       <c r="M97">
-        <v>14626.769899999999</v>
+        <v>14626.77</v>
       </c>
       <c r="N97">
         <v>2654.02</v>
@@ -8200,13 +8200,13 @@
         <v>380.9366</v>
       </c>
       <c r="K98">
-        <v>1067.71</v>
+        <v>1067.7070000000001</v>
       </c>
       <c r="L98">
         <v>1204.1199999999999</v>
       </c>
       <c r="M98">
-        <v>14757.0355</v>
+        <v>14757.036</v>
       </c>
       <c r="N98">
         <v>2760.348</v>
@@ -8277,13 +8277,13 @@
         <v>378.45819999999998</v>
       </c>
       <c r="K99">
-        <v>1048.9000000000001</v>
+        <v>1048.903</v>
       </c>
       <c r="L99">
         <v>1181.02</v>
       </c>
       <c r="M99">
-        <v>14520.1258</v>
+        <v>14520.126</v>
       </c>
       <c r="N99">
         <v>2701.4830000000002</v>
@@ -8354,13 +8354,13 @@
         <v>375.935</v>
       </c>
       <c r="K100">
-        <v>1021.69</v>
+        <v>1021.693</v>
       </c>
       <c r="L100">
         <v>1174.48</v>
       </c>
       <c r="M100">
-        <v>14513.8194</v>
+        <v>14513.819</v>
       </c>
       <c r="N100">
         <v>2763.31</v>
@@ -8431,13 +8431,13 @@
         <v>375.42520000000002</v>
       </c>
       <c r="K101">
-        <v>1049.54</v>
+        <v>1049.5440000000001</v>
       </c>
       <c r="L101">
         <v>1163.3900000000001</v>
       </c>
       <c r="M101">
-        <v>14501.5378</v>
+        <v>14501.538</v>
       </c>
       <c r="N101">
         <v>2691.3589999999999</v>
@@ -8508,7 +8508,7 @@
         <v>372.08960000000002</v>
       </c>
       <c r="K102">
-        <v>1025.98</v>
+        <v>1025.982</v>
       </c>
       <c r="L102">
         <v>1186.28</v>
@@ -8585,7 +8585,7 @@
         <v>368.55599999999998</v>
       </c>
       <c r="K103">
-        <v>999.52</v>
+        <v>999.51700000000005</v>
       </c>
       <c r="L103">
         <v>1169.6199999999999</v>
@@ -8662,7 +8662,7 @@
         <v>365.88080000000002</v>
       </c>
       <c r="K104">
-        <v>983.71</v>
+        <v>983.70799999999997</v>
       </c>
       <c r="L104">
         <v>1180.24</v>
@@ -8739,7 +8739,7 @@
         <v>363.84429999999998</v>
       </c>
       <c r="K105">
-        <v>988.28</v>
+        <v>988.28300000000002</v>
       </c>
       <c r="L105">
         <v>1183.75</v>
@@ -8816,7 +8816,7 @@
         <v>373.45389999999998</v>
       </c>
       <c r="K106">
-        <v>1031.97</v>
+        <v>1031.9690000000001</v>
       </c>
       <c r="L106">
         <v>1170.55</v>
@@ -8893,7 +8893,7 @@
         <v>380.5421</v>
       </c>
       <c r="K107">
-        <v>1073.2</v>
+        <v>1073.204</v>
       </c>
       <c r="L107">
         <v>1174.4100000000001</v>
@@ -8970,7 +8970,7 @@
         <v>384.01139999999998</v>
       </c>
       <c r="K108">
-        <v>1080.95</v>
+        <v>1080.9480000000001</v>
       </c>
       <c r="L108">
         <v>1154.26</v>
@@ -9047,7 +9047,7 @@
         <v>384.13850000000002</v>
       </c>
       <c r="K109">
-        <v>1092.6600000000001</v>
+        <v>1092.664</v>
       </c>
       <c r="L109">
         <v>1165.76</v>
@@ -9124,7 +9124,7 @@
         <v>389.53660000000002</v>
       </c>
       <c r="K110">
-        <v>1120.26</v>
+        <v>1120.2619999999999</v>
       </c>
       <c r="L110">
         <v>1169.28</v>
@@ -9201,7 +9201,7 @@
         <v>392.6105</v>
       </c>
       <c r="K111">
-        <v>1145.21</v>
+        <v>1145.2149999999999</v>
       </c>
       <c r="L111">
         <v>1157.81</v>
@@ -9278,7 +9278,7 @@
         <v>396.03949999999998</v>
       </c>
       <c r="K112">
-        <v>1152.6199999999999</v>
+        <v>1152.624</v>
       </c>
       <c r="L112">
         <v>1156.1199999999999</v>
@@ -9355,7 +9355,7 @@
         <v>399.08030000000002</v>
       </c>
       <c r="K113">
-        <v>1156.23</v>
+        <v>1156.2260000000001</v>
       </c>
       <c r="L113">
         <v>1137.8</v>
@@ -9432,7 +9432,7 @@
         <v>400.37619999999998</v>
       </c>
       <c r="K114">
-        <v>1151.67</v>
+        <v>1151.6659999999999</v>
       </c>
       <c r="L114">
         <v>1129.95</v>
@@ -9509,7 +9509,7 @@
         <v>404.9606</v>
       </c>
       <c r="K115">
-        <v>1174.32</v>
+        <v>1174.319</v>
       </c>
       <c r="L115">
         <v>1135.3599999999999</v>
@@ -9586,7 +9586,7 @@
         <v>407.12240000000003</v>
       </c>
       <c r="K116">
-        <v>1190.0899999999999</v>
+        <v>1190.088</v>
       </c>
       <c r="L116">
         <v>1124.55</v>
@@ -9663,7 +9663,7 @@
         <v>409.50909999999999</v>
       </c>
       <c r="K117">
-        <v>1208.6600000000001</v>
+        <v>1208.6590000000001</v>
       </c>
       <c r="L117">
         <v>1137.81</v>
@@ -9740,7 +9740,7 @@
         <v>409.8263</v>
       </c>
       <c r="K118">
-        <v>1206.1199999999999</v>
+        <v>1206.123</v>
       </c>
       <c r="L118">
         <v>1126.77</v>
@@ -9817,7 +9817,7 @@
         <v>411.61130000000003</v>
       </c>
       <c r="K119">
-        <v>1219.79</v>
+        <v>1219.789</v>
       </c>
       <c r="L119">
         <v>1126.01</v>
@@ -9894,7 +9894,7 @@
         <v>413.17660000000001</v>
       </c>
       <c r="K120">
-        <v>1230.68</v>
+        <v>1230.684</v>
       </c>
       <c r="L120">
         <v>1131.48</v>
@@ -9971,7 +9971,7 @@
         <v>412.91320000000002</v>
       </c>
       <c r="K121">
-        <v>1231.98</v>
+        <v>1231.9829999999999</v>
       </c>
       <c r="L121">
         <v>1126.83</v>
@@ -10048,7 +10048,7 @@
         <v>416.14530000000002</v>
       </c>
       <c r="K122">
-        <v>1246.19</v>
+        <v>1246.193</v>
       </c>
       <c r="L122">
         <v>1137.44</v>
@@ -10202,7 +10202,7 @@
         <v>417.27420000000001</v>
       </c>
       <c r="K124">
-        <v>1257.06</v>
+        <v>1257.0630000000001</v>
       </c>
       <c r="L124">
         <v>1134.28</v>
@@ -10279,7 +10279,7 @@
         <v>420.03120000000001</v>
       </c>
       <c r="K125">
-        <v>1261.9100000000001</v>
+        <v>1261.914</v>
       </c>
       <c r="L125">
         <v>1156.0899999999999</v>
@@ -10356,7 +10356,7 @@
         <v>420.53440000000001</v>
       </c>
       <c r="K126">
-        <v>1258.53</v>
+        <v>1258.528</v>
       </c>
       <c r="L126">
         <v>1154.3499999999999</v>
@@ -10433,7 +10433,7 @@
         <v>422.16019999999997</v>
       </c>
       <c r="K127">
-        <v>1262.2</v>
+        <v>1262.1959999999999</v>
       </c>
       <c r="L127">
         <v>1163.8699999999999</v>
@@ -10510,7 +10510,7 @@
         <v>426.71300000000002</v>
       </c>
       <c r="K128">
-        <v>1270.29</v>
+        <v>1270.289</v>
       </c>
       <c r="L128">
         <v>1208.0999999999999</v>
@@ -10587,7 +10587,7 @@
         <v>427.47710000000001</v>
       </c>
       <c r="K129">
-        <v>1258.45</v>
+        <v>1258.4459999999999</v>
       </c>
       <c r="L129">
         <v>1149.3900000000001</v>
@@ -10664,7 +10664,7 @@
         <v>428.83859999999999</v>
       </c>
       <c r="K130">
-        <v>1250.68</v>
+        <v>1250.6769999999999</v>
       </c>
       <c r="L130">
         <v>1140.28</v>
@@ -10741,7 +10741,7 @@
         <v>430.92849999999999</v>
       </c>
       <c r="K131">
-        <v>1259</v>
+        <v>1258.9960000000001</v>
       </c>
       <c r="L131">
         <v>1145.54</v>
@@ -10818,7 +10818,7 @@
         <v>431.76209999999998</v>
       </c>
       <c r="K132">
-        <v>1258.81</v>
+        <v>1258.806</v>
       </c>
       <c r="L132">
         <v>1141.3699999999999</v>
@@ -10895,7 +10895,7 @@
         <v>432.1986</v>
       </c>
       <c r="K133">
-        <v>1263.1500000000001</v>
+        <v>1263.153</v>
       </c>
       <c r="L133">
         <v>1142.77</v>
@@ -10972,7 +10972,7 @@
         <v>435.77850000000001</v>
       </c>
       <c r="K134">
-        <v>1277.27</v>
+        <v>1277.268</v>
       </c>
       <c r="L134">
         <v>1130.1600000000001</v>
@@ -11049,7 +11049,7 @@
         <v>437.56849999999997</v>
       </c>
       <c r="K135">
-        <v>1286.52</v>
+        <v>1286.518</v>
       </c>
       <c r="L135">
         <v>1157.3699999999999</v>
@@ -11126,7 +11126,7 @@
         <v>440.55239999999998</v>
       </c>
       <c r="K136">
-        <v>1293.99</v>
+        <v>1293.9939999999999</v>
       </c>
       <c r="L136">
         <v>1150.1099999999999</v>
@@ -11203,7 +11203,7 @@
         <v>440.57920000000001</v>
       </c>
       <c r="K137">
-        <v>1272.8</v>
+        <v>1272.8030000000001</v>
       </c>
       <c r="L137">
         <v>1119.6300000000001</v>
@@ -11280,7 +11280,7 @@
         <v>436.98590000000002</v>
       </c>
       <c r="K138">
-        <v>1261.25</v>
+        <v>1261.2529999999999</v>
       </c>
       <c r="L138">
         <v>1117.54</v>
@@ -11357,7 +11357,7 @@
         <v>426.97919999999999</v>
       </c>
       <c r="K139">
-        <v>1233.6099999999999</v>
+        <v>1233.6079999999999</v>
       </c>
       <c r="L139">
         <v>1126.0899999999999</v>
@@ -11434,7 +11434,7 @@
         <v>436.80489999999998</v>
       </c>
       <c r="K140">
-        <v>1290.27</v>
+        <v>1290.2670000000001</v>
       </c>
       <c r="L140">
         <v>1104.58</v>
@@ -11511,7 +11511,7 @@
         <v>443.65249999999997</v>
       </c>
       <c r="K141">
-        <v>1312.05</v>
+        <v>1312.0530000000001</v>
       </c>
       <c r="L141">
         <v>1112.99</v>
@@ -11588,10 +11588,10 @@
         <v>443.11380000000003</v>
       </c>
       <c r="K142">
-        <v>1324.91</v>
+        <v>1324.9090000000001</v>
       </c>
       <c r="L142">
-        <v>1116.33</v>
+        <v>1116.328</v>
       </c>
       <c r="M142">
         <v>14681.66</v>
@@ -11630,7 +11630,7 @@
         <v>392.83</v>
       </c>
       <c r="Y142">
-        <v>1064.01</v>
+        <v>1064.0050000000001</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
@@ -11665,10 +11665,10 @@
         <v>450.14179999999999</v>
       </c>
       <c r="K143">
-        <v>1343.45</v>
+        <v>1343.4449999999999</v>
       </c>
       <c r="L143">
-        <v>1129.1300000000001</v>
+        <v>1129.1289999999999</v>
       </c>
       <c r="M143">
         <v>14836.621999999999</v>
@@ -11707,7 +11707,7 @@
         <v>387.91</v>
       </c>
       <c r="Y143">
-        <v>1067.04</v>
+        <v>1067.0419999999999</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
@@ -11742,10 +11742,10 @@
         <v>449.12759999999997</v>
       </c>
       <c r="K144">
-        <v>1326.37</v>
+        <v>1326.3689999999999</v>
       </c>
       <c r="L144">
-        <v>1126.0899999999999</v>
+        <v>1126.0940000000001</v>
       </c>
       <c r="M144">
         <v>14707.329</v>
@@ -11784,7 +11784,7 @@
         <v>406.85</v>
       </c>
       <c r="Y144">
-        <v>1067.57</v>
+        <v>1067.566</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
@@ -11819,7 +11819,7 @@
         <v>450.11630000000002</v>
       </c>
       <c r="K145">
-        <v>1358.89</v>
+        <v>1358.893</v>
       </c>
       <c r="L145">
         <v>1155.1099999999999</v>
@@ -11896,7 +11896,7 @@
         <v>453.63990000000001</v>
       </c>
       <c r="K146">
-        <v>1365.85</v>
+        <v>1365.8510000000001</v>
       </c>
       <c r="L146">
         <v>1176.26</v>
@@ -11973,7 +11973,7 @@
         <v>452.3603</v>
       </c>
       <c r="K147">
-        <v>1371.18</v>
+        <v>1371.181</v>
       </c>
       <c r="L147">
         <v>1195.94</v>
@@ -12050,7 +12050,7 @@
         <v>454.2679</v>
       </c>
       <c r="K148">
-        <v>1375.53</v>
+        <v>1375.528</v>
       </c>
       <c r="L148">
         <v>1183.01</v>
@@ -12127,7 +12127,7 @@
         <v>452.06330000000003</v>
       </c>
       <c r="K149">
-        <v>1378.72</v>
+        <v>1378.722</v>
       </c>
       <c r="L149">
         <v>1166.43</v>
@@ -12204,7 +12204,7 @@
         <v>454.55160000000001</v>
       </c>
       <c r="K150">
-        <v>1382.49</v>
+        <v>1382.4870000000001</v>
       </c>
       <c r="L150">
         <v>1177.05</v>
@@ -12281,7 +12281,7 @@
         <v>461.8843</v>
       </c>
       <c r="K151">
-        <v>1411.39</v>
+        <v>1411.3869999999999</v>
       </c>
       <c r="L151">
         <v>1180.6199999999999</v>
@@ -12358,7 +12358,7 @@
         <v>464.33879999999999</v>
       </c>
       <c r="K152">
-        <v>1411.45</v>
+        <v>1411.4469999999999</v>
       </c>
       <c r="L152">
         <v>1190.33</v>
@@ -12435,7 +12435,7 @@
         <v>458.06479999999999</v>
       </c>
       <c r="K153">
-        <v>1389.57</v>
+        <v>1389.5709999999999</v>
       </c>
       <c r="L153">
         <v>1176.22</v>
@@ -12512,7 +12512,7 @@
         <v>400.9701</v>
       </c>
       <c r="K154">
-        <v>1226.17</v>
+        <v>1226.174</v>
       </c>
       <c r="L154">
         <v>1166.67</v>
@@ -12589,7 +12589,7 @@
         <v>418.16950000000003</v>
       </c>
       <c r="K155">
-        <v>1272.77</v>
+        <v>1272.7729999999999</v>
       </c>
       <c r="L155">
         <v>1172.4100000000001</v>
@@ -12666,7 +12666,7 @@
         <v>434.06650000000002</v>
       </c>
       <c r="K156">
-        <v>1330.99</v>
+        <v>1330.9849999999999</v>
       </c>
       <c r="L156">
         <v>1175.5</v>
@@ -12743,7 +12743,7 @@
         <v>439.91300000000001</v>
       </c>
       <c r="K157">
-        <v>1343.96</v>
+        <v>1343.9580000000001</v>
       </c>
       <c r="L157">
         <v>1172.0999999999999</v>
@@ -12820,7 +12820,7 @@
         <v>448.18779999999998</v>
       </c>
       <c r="K158">
-        <v>1408.17</v>
+        <v>1408.173</v>
       </c>
       <c r="L158">
         <v>1192.95</v>
@@ -12974,7 +12974,7 @@
         <v>458.06110000000001</v>
       </c>
       <c r="K160">
-        <v>1407.21</v>
+        <v>1407.2059999999999</v>
       </c>
       <c r="L160">
         <v>1181.9000000000001</v>
@@ -13051,7 +13051,7 @@
         <v>458.85820000000001</v>
       </c>
       <c r="K161">
-        <v>1413.79</v>
+        <v>1413.7860000000001</v>
       </c>
       <c r="L161">
         <v>1175.82</v>
@@ -13128,7 +13128,7 @@
         <v>468.62920000000003</v>
       </c>
       <c r="K162">
-        <v>1470.38</v>
+        <v>1470.376</v>
       </c>
       <c r="L162">
         <v>1195.79</v>
@@ -13205,7 +13205,7 @@
         <v>474.71800000000002</v>
       </c>
       <c r="K163">
-        <v>1498.42</v>
+        <v>1498.421</v>
       </c>
       <c r="L163">
         <v>1231.32</v>
@@ -13282,7 +13282,7 @@
         <v>480.7278</v>
       </c>
       <c r="K164">
-        <v>1504.16</v>
+        <v>1504.1559999999999</v>
       </c>
       <c r="L164">
         <v>1224.18</v>
@@ -13359,7 +13359,7 @@
         <v>483.96280000000002</v>
       </c>
       <c r="K165">
-        <v>1509.4</v>
+        <v>1509.3969999999999</v>
       </c>
       <c r="L165">
         <v>1240.02</v>
@@ -13436,7 +13436,7 @@
         <v>484.25209999999998</v>
       </c>
       <c r="K166">
-        <v>1511.97</v>
+        <v>1511.9670000000001</v>
       </c>
       <c r="L166">
         <v>1237.72</v>
@@ -13513,7 +13513,7 @@
         <v>486.71570000000003</v>
       </c>
       <c r="K167">
-        <v>1528.55</v>
+        <v>1528.5519999999999</v>
       </c>
       <c r="L167">
         <v>1251.33</v>
@@ -13590,7 +13590,7 @@
         <v>489.24040000000002</v>
       </c>
       <c r="K168">
-        <v>1532.96</v>
+        <v>1532.9639999999999</v>
       </c>
       <c r="L168">
         <v>1258.02</v>
@@ -13667,7 +13667,7 @@
         <v>491.24099999999999</v>
       </c>
       <c r="K169">
-        <v>1553.91</v>
+        <v>1553.9090000000001</v>
       </c>
       <c r="L169">
         <v>1250.5</v>
@@ -13821,7 +13821,7 @@
         <v>493.61149999999998</v>
       </c>
       <c r="K171">
-        <v>1567.95</v>
+        <v>1567.9449999999999</v>
       </c>
       <c r="L171">
         <v>1247.31</v>
@@ -13898,7 +13898,7 @@
         <v>496.8091</v>
       </c>
       <c r="K172">
-        <v>1568.47</v>
+        <v>1568.471</v>
       </c>
       <c r="L172">
         <v>1231.8599999999999</v>
@@ -13975,7 +13975,7 @@
         <v>497.9812</v>
       </c>
       <c r="K173">
-        <v>1565.68</v>
+        <v>1565.681</v>
       </c>
       <c r="L173">
         <v>1244.81</v>
@@ -14052,7 +14052,7 @@
         <v>497.22050000000002</v>
       </c>
       <c r="K174">
-        <v>1549.64</v>
+        <v>1549.636</v>
       </c>
       <c r="L174">
         <v>1210.92</v>
@@ -14283,7 +14283,7 @@
         <v>499.65269999999998</v>
       </c>
       <c r="K177">
-        <v>1521.6</v>
+        <v>1521.604</v>
       </c>
       <c r="L177">
         <v>1194.8599999999999</v>
@@ -14360,7 +14360,7 @@
         <v>499.84949999999998</v>
       </c>
       <c r="K178">
-        <v>1507.53</v>
+        <v>1507.5250000000001</v>
       </c>
       <c r="L178">
         <v>1231.8699999999999</v>
@@ -14437,7 +14437,7 @@
         <v>500.70659999999998</v>
       </c>
       <c r="K179">
-        <v>1452.69</v>
+        <v>1452.6869999999999</v>
       </c>
       <c r="L179">
         <v>1255.32</v>
@@ -14514,7 +14514,7 @@
         <v>488.13490000000002</v>
       </c>
       <c r="K180">
-        <v>1456.32</v>
+        <v>1456.3240000000001</v>
       </c>
       <c r="L180">
         <v>1243.99</v>
@@ -14591,7 +14591,7 @@
         <v>478.0942</v>
       </c>
       <c r="K181">
-        <v>1357.2</v>
+        <v>1357.1969999999999</v>
       </c>
       <c r="L181">
         <v>1261.07</v>
@@ -14745,7 +14745,7 @@
         <v>494.48860000000002</v>
       </c>
       <c r="K183">
-        <v>1404.48</v>
+        <v>1404.481</v>
       </c>
       <c r="L183">
         <v>1257.82</v>
@@ -14822,7 +14822,7 @@
         <v>483.77879999999999</v>
       </c>
       <c r="K184">
-        <v>1348</v>
+        <v>1347.9949999999999</v>
       </c>
       <c r="L184">
         <v>1295.3699999999999</v>
@@ -14899,7 +14899,7 @@
         <v>487.8895</v>
       </c>
       <c r="K185">
-        <v>1386.37</v>
+        <v>1386.3679999999999</v>
       </c>
       <c r="L185">
         <v>1297.27</v>
@@ -15053,7 +15053,7 @@
         <v>495.06270000000001</v>
       </c>
       <c r="K187">
-        <v>1401.68</v>
+        <v>1401.683</v>
       </c>
       <c r="L187">
         <v>1266.8900000000001</v>
@@ -15080,7 +15080,7 @@
         <v>4.3983636739999996</v>
       </c>
       <c r="T187">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U187">
         <v>1536.73</v>
@@ -15130,13 +15130,13 @@
         <v>507.7645</v>
       </c>
       <c r="K188">
-        <v>1456.48</v>
+        <v>1456.4829999999999</v>
       </c>
       <c r="L188">
         <v>1267.28</v>
       </c>
       <c r="M188">
-        <v>18959.123</v>
+        <v>18975.955000000002</v>
       </c>
       <c r="N188">
         <v>3817.4569999999999</v>
@@ -15157,7 +15157,7 @@
         <v>4.6489987660000001</v>
       </c>
       <c r="T188">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U188">
         <v>1648.91</v>
@@ -15173,6 +15173,545 @@
       </c>
       <c r="Y188">
         <v>1168.94</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B189">
+        <v>136.36000000000001</v>
+      </c>
+      <c r="C189">
+        <v>3934.93</v>
+      </c>
+      <c r="D189">
+        <v>168.9444</v>
+      </c>
+      <c r="E189">
+        <v>3970.15</v>
+      </c>
+      <c r="F189">
+        <v>629.02</v>
+      </c>
+      <c r="G189">
+        <v>1896.991</v>
+      </c>
+      <c r="H189">
+        <v>2053.69</v>
+      </c>
+      <c r="I189">
+        <v>964.01</v>
+      </c>
+      <c r="J189">
+        <v>510.96210000000002</v>
+      </c>
+      <c r="K189">
+        <v>1437.635</v>
+      </c>
+      <c r="L189">
+        <v>1273.56</v>
+      </c>
+      <c r="M189">
+        <v>18958.985000000001</v>
+      </c>
+      <c r="N189">
+        <v>3888.33</v>
+      </c>
+      <c r="O189">
+        <v>1718.69</v>
+      </c>
+      <c r="P189">
+        <v>382.53</v>
+      </c>
+      <c r="Q189">
+        <v>162.4709</v>
+      </c>
+      <c r="R189">
+        <v>4.67272</v>
+      </c>
+      <c r="S189">
+        <v>4.8077261</v>
+      </c>
+      <c r="T189">
+        <v>5079.05</v>
+      </c>
+      <c r="U189">
+        <v>1601.19</v>
+      </c>
+      <c r="V189">
+        <v>2308.3960000000002</v>
+      </c>
+      <c r="W189">
+        <v>134.5625</v>
+      </c>
+      <c r="X189">
+        <v>366.54</v>
+      </c>
+      <c r="Y189">
+        <v>1166.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B190">
+        <v>143.85</v>
+      </c>
+      <c r="C190">
+        <v>4104.91</v>
+      </c>
+      <c r="D190">
+        <v>176.52780000000001</v>
+      </c>
+      <c r="E190">
+        <v>4109.3100000000004</v>
+      </c>
+      <c r="F190">
+        <v>646.76</v>
+      </c>
+      <c r="G190">
+        <v>1802.4839999999999</v>
+      </c>
+      <c r="H190">
+        <v>2092.6</v>
+      </c>
+      <c r="I190">
+        <v>990.28</v>
+      </c>
+      <c r="J190">
+        <v>510.464</v>
+      </c>
+      <c r="K190">
+        <v>1453.818</v>
+      </c>
+      <c r="L190">
+        <v>1235.1600000000001</v>
+      </c>
+      <c r="M190">
+        <v>18448.667000000001</v>
+      </c>
+      <c r="N190">
+        <v>3587.8829999999998</v>
+      </c>
+      <c r="O190">
+        <v>1718.69</v>
+      </c>
+      <c r="P190">
+        <v>373.22</v>
+      </c>
+      <c r="Q190">
+        <v>162.4709</v>
+      </c>
+      <c r="R190">
+        <v>4.6408199999999997</v>
+      </c>
+      <c r="S190">
+        <v>4.7309068339999998</v>
+      </c>
+      <c r="T190">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U190">
+        <v>1636.36</v>
+      </c>
+      <c r="V190">
+        <v>2366.27</v>
+      </c>
+      <c r="W190">
+        <v>141.125</v>
+      </c>
+      <c r="X190">
+        <v>385.5</v>
+      </c>
+      <c r="Y190">
+        <v>1165.6300000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B191">
+        <v>144.24</v>
+      </c>
+      <c r="C191">
+        <v>4135.75</v>
+      </c>
+      <c r="D191">
+        <v>176.87960000000001</v>
+      </c>
+      <c r="E191">
+        <v>4169.4799999999996</v>
+      </c>
+      <c r="F191">
+        <v>655</v>
+      </c>
+      <c r="G191">
+        <v>1768.9870000000001</v>
+      </c>
+      <c r="H191">
+        <v>2143.85</v>
+      </c>
+      <c r="I191">
+        <v>977.05</v>
+      </c>
+      <c r="J191">
+        <v>515.30060000000003</v>
+      </c>
+      <c r="K191">
+        <v>1467.85</v>
+      </c>
+      <c r="L191">
+        <v>1252.01</v>
+      </c>
+      <c r="M191">
+        <v>18601.562999999998</v>
+      </c>
+      <c r="N191">
+        <v>3691.1089999999999</v>
+      </c>
+      <c r="O191">
+        <v>1718.69</v>
+      </c>
+      <c r="P191">
+        <v>373.66</v>
+      </c>
+      <c r="Q191">
+        <v>162.4709</v>
+      </c>
+      <c r="R191">
+        <v>4.9508999999999999</v>
+      </c>
+      <c r="S191">
+        <v>5.1306892120000001</v>
+      </c>
+      <c r="T191">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U191">
+        <v>1654.5</v>
+      </c>
+      <c r="V191">
+        <v>2389.3040000000001</v>
+      </c>
+      <c r="W191">
+        <v>141.40625</v>
+      </c>
+      <c r="X191">
+        <v>388.47</v>
+      </c>
+      <c r="Y191">
+        <v>1168.26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B192">
+        <v>138.65</v>
+      </c>
+      <c r="C192">
+        <v>4020.88</v>
+      </c>
+      <c r="D192">
+        <v>170.57380000000001</v>
+      </c>
+      <c r="E192">
+        <v>4179.83</v>
+      </c>
+      <c r="F192">
+        <v>646.37</v>
+      </c>
+      <c r="G192">
+        <v>1749.65</v>
+      </c>
+      <c r="H192">
+        <v>2041.81</v>
+      </c>
+      <c r="I192">
+        <v>958.53</v>
+      </c>
+      <c r="J192">
+        <v>514.86080000000004</v>
+      </c>
+      <c r="K192">
+        <v>1453.913</v>
+      </c>
+      <c r="L192">
+        <v>1263.18</v>
+      </c>
+      <c r="M192">
+        <v>18548.652999999998</v>
+      </c>
+      <c r="N192">
+        <v>3798.5059999999999</v>
+      </c>
+      <c r="O192">
+        <v>1718.69</v>
+      </c>
+      <c r="P192">
+        <v>357.38</v>
+      </c>
+      <c r="Q192">
+        <v>162.4709</v>
+      </c>
+      <c r="R192">
+        <v>5.1535799999999998</v>
+      </c>
+      <c r="S192">
+        <v>5.3719694689999997</v>
+      </c>
+      <c r="T192">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U192">
+        <v>1630.51</v>
+      </c>
+      <c r="V192">
+        <v>2394.2890000000002</v>
+      </c>
+      <c r="W192">
+        <v>136.375</v>
+      </c>
+      <c r="X192">
+        <v>379.55</v>
+      </c>
+      <c r="Y192">
+        <v>1161.44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B193">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="C193">
+        <v>4082.76</v>
+      </c>
+      <c r="D193">
+        <v>169.756</v>
+      </c>
+      <c r="E193">
+        <v>4450.38</v>
+      </c>
+      <c r="F193">
+        <v>682.84</v>
+      </c>
+      <c r="G193">
+        <v>1888.7339999999999</v>
+      </c>
+      <c r="H193">
+        <v>2131.7199999999998</v>
+      </c>
+      <c r="I193">
+        <v>989.48</v>
+      </c>
+      <c r="J193">
+        <v>526.38220000000001</v>
+      </c>
+      <c r="K193">
+        <v>1477.579</v>
+      </c>
+      <c r="L193">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="M193">
+        <v>18754.213</v>
+      </c>
+      <c r="N193">
+        <v>3875.848</v>
+      </c>
+      <c r="O193">
+        <v>1718.69</v>
+      </c>
+      <c r="P193">
+        <v>373.51</v>
+      </c>
+      <c r="Q193">
+        <v>162.4709</v>
+      </c>
+      <c r="R193">
+        <v>5.2157900000000001</v>
+      </c>
+      <c r="S193">
+        <v>5.2487262379999997</v>
+      </c>
+      <c r="T193">
+        <v>5362.12</v>
+      </c>
+      <c r="U193">
+        <v>1722.87</v>
+      </c>
+      <c r="V193">
+        <v>2554.4879999999998</v>
+      </c>
+      <c r="W193">
+        <v>136.21875</v>
+      </c>
+      <c r="X193">
+        <v>376.94</v>
+      </c>
+      <c r="Y193">
+        <v>1170.99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B194">
+        <v>134.74</v>
+      </c>
+      <c r="C194">
+        <v>4077.42</v>
+      </c>
+      <c r="D194">
+        <v>164.77119999999999</v>
+      </c>
+      <c r="E194">
+        <v>4588.96</v>
+      </c>
+      <c r="F194">
+        <v>707.11</v>
+      </c>
+      <c r="G194">
+        <v>2003.1769999999999</v>
+      </c>
+      <c r="H194">
+        <v>2199.36</v>
+      </c>
+      <c r="I194">
+        <v>1046.9100000000001</v>
+      </c>
+      <c r="J194">
+        <v>533.23329999999999</v>
+      </c>
+      <c r="K194">
+        <v>1498.62</v>
+      </c>
+      <c r="L194">
+        <v>1256.76</v>
+      </c>
+      <c r="M194">
+        <v>18878.060000000001</v>
+      </c>
+      <c r="N194">
+        <v>3815.0520000000001</v>
+      </c>
+      <c r="O194">
+        <v>1718.69</v>
+      </c>
+      <c r="P194">
+        <v>380.33</v>
+      </c>
+      <c r="Q194">
+        <v>162.4709</v>
+      </c>
+      <c r="R194">
+        <v>5.2787199999999999</v>
+      </c>
+      <c r="S194">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T194">
+        <v>5362.12</v>
+      </c>
+      <c r="U194">
+        <v>1786.91</v>
+      </c>
+      <c r="V194">
+        <v>2643.6860000000001</v>
+      </c>
+      <c r="W194">
+        <v>132.21875</v>
+      </c>
+      <c r="X194">
+        <v>371.29</v>
+      </c>
+      <c r="Y194">
+        <v>1168.9000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B195">
+        <v>128.56</v>
+      </c>
+      <c r="C195">
+        <v>3997.94</v>
+      </c>
+      <c r="D195">
+        <v>159.50399999999999</v>
+      </c>
+      <c r="E195">
+        <v>4507.66</v>
+      </c>
+      <c r="F195">
+        <v>686.15</v>
+      </c>
+      <c r="G195">
+        <v>1899.6759999999999</v>
+      </c>
+      <c r="H195">
+        <v>2109.16</v>
+      </c>
+      <c r="I195">
+        <v>980.33</v>
+      </c>
+      <c r="J195">
+        <v>539.38930000000005</v>
+      </c>
+      <c r="K195">
+        <v>1502.896</v>
+      </c>
+      <c r="L195">
+        <v>1256.23</v>
+      </c>
+      <c r="M195">
+        <v>18785.47</v>
+      </c>
+      <c r="N195">
+        <v>3778.9369999999999</v>
+      </c>
+      <c r="O195">
+        <v>1718.69</v>
+      </c>
+      <c r="P195">
+        <v>366.99</v>
+      </c>
+      <c r="Q195">
+        <v>162.4709</v>
+      </c>
+      <c r="R195">
+        <v>5.3294600000000001</v>
+      </c>
+      <c r="S195">
+        <v>5.413067388</v>
+      </c>
+      <c r="T195">
+        <v>5362.12</v>
+      </c>
+      <c r="U195">
+        <v>1732.63</v>
+      </c>
+      <c r="V195">
+        <v>2588.1060000000002</v>
+      </c>
+      <c r="W195">
+        <v>127.96875</v>
+      </c>
+      <c r="X195">
+        <v>364.19</v>
+      </c>
+      <c r="Y195">
+        <v>1177.27</v>
       </c>
     </row>
   </sheetData>
@@ -15182,10 +15721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y183"/>
+  <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29252,13 +29791,13 @@
         <v>507.7645</v>
       </c>
       <c r="K183">
-        <v>1456.48</v>
+        <v>1456.4829999999999</v>
       </c>
       <c r="L183">
         <v>1267.28</v>
       </c>
       <c r="M183">
-        <v>18959.123</v>
+        <v>18975.955000000002</v>
       </c>
       <c r="N183">
         <v>3817.4569999999999</v>
@@ -29279,7 +29818,7 @@
         <v>4.6489987660000001</v>
       </c>
       <c r="T183">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U183">
         <v>1648.91</v>
@@ -29295,6 +29834,545 @@
       </c>
       <c r="Y183">
         <v>1168.94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B184">
+        <v>136.36000000000001</v>
+      </c>
+      <c r="C184">
+        <v>3934.93</v>
+      </c>
+      <c r="D184">
+        <v>168.9444</v>
+      </c>
+      <c r="E184">
+        <v>3970.15</v>
+      </c>
+      <c r="F184">
+        <v>629.02</v>
+      </c>
+      <c r="G184">
+        <v>1896.991</v>
+      </c>
+      <c r="H184">
+        <v>2053.69</v>
+      </c>
+      <c r="I184">
+        <v>964.01</v>
+      </c>
+      <c r="J184">
+        <v>510.96210000000002</v>
+      </c>
+      <c r="K184">
+        <v>1437.635</v>
+      </c>
+      <c r="L184">
+        <v>1273.56</v>
+      </c>
+      <c r="M184">
+        <v>18958.985000000001</v>
+      </c>
+      <c r="N184">
+        <v>3888.33</v>
+      </c>
+      <c r="O184">
+        <v>1718.69</v>
+      </c>
+      <c r="P184">
+        <v>382.53</v>
+      </c>
+      <c r="Q184">
+        <v>162.4709</v>
+      </c>
+      <c r="R184">
+        <v>4.67272</v>
+      </c>
+      <c r="S184">
+        <v>4.8077261</v>
+      </c>
+      <c r="T184">
+        <v>5079.05</v>
+      </c>
+      <c r="U184">
+        <v>1601.19</v>
+      </c>
+      <c r="V184">
+        <v>2308.3960000000002</v>
+      </c>
+      <c r="W184">
+        <v>134.5625</v>
+      </c>
+      <c r="X184">
+        <v>366.54</v>
+      </c>
+      <c r="Y184">
+        <v>1166.95</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B185">
+        <v>143.85</v>
+      </c>
+      <c r="C185">
+        <v>4104.91</v>
+      </c>
+      <c r="D185">
+        <v>176.52780000000001</v>
+      </c>
+      <c r="E185">
+        <v>4109.3100000000004</v>
+      </c>
+      <c r="F185">
+        <v>646.76</v>
+      </c>
+      <c r="G185">
+        <v>1802.4839999999999</v>
+      </c>
+      <c r="H185">
+        <v>2092.6</v>
+      </c>
+      <c r="I185">
+        <v>990.28</v>
+      </c>
+      <c r="J185">
+        <v>510.464</v>
+      </c>
+      <c r="K185">
+        <v>1453.818</v>
+      </c>
+      <c r="L185">
+        <v>1235.1600000000001</v>
+      </c>
+      <c r="M185">
+        <v>18448.667000000001</v>
+      </c>
+      <c r="N185">
+        <v>3587.8829999999998</v>
+      </c>
+      <c r="O185">
+        <v>1718.69</v>
+      </c>
+      <c r="P185">
+        <v>373.22</v>
+      </c>
+      <c r="Q185">
+        <v>162.4709</v>
+      </c>
+      <c r="R185">
+        <v>4.6408199999999997</v>
+      </c>
+      <c r="S185">
+        <v>4.7309068339999998</v>
+      </c>
+      <c r="T185">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U185">
+        <v>1636.36</v>
+      </c>
+      <c r="V185">
+        <v>2366.27</v>
+      </c>
+      <c r="W185">
+        <v>141.125</v>
+      </c>
+      <c r="X185">
+        <v>385.5</v>
+      </c>
+      <c r="Y185">
+        <v>1165.6300000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B186">
+        <v>144.24</v>
+      </c>
+      <c r="C186">
+        <v>4135.75</v>
+      </c>
+      <c r="D186">
+        <v>176.87960000000001</v>
+      </c>
+      <c r="E186">
+        <v>4169.4799999999996</v>
+      </c>
+      <c r="F186">
+        <v>655</v>
+      </c>
+      <c r="G186">
+        <v>1768.9870000000001</v>
+      </c>
+      <c r="H186">
+        <v>2143.85</v>
+      </c>
+      <c r="I186">
+        <v>977.05</v>
+      </c>
+      <c r="J186">
+        <v>515.30060000000003</v>
+      </c>
+      <c r="K186">
+        <v>1467.85</v>
+      </c>
+      <c r="L186">
+        <v>1252.01</v>
+      </c>
+      <c r="M186">
+        <v>18601.562999999998</v>
+      </c>
+      <c r="N186">
+        <v>3691.1089999999999</v>
+      </c>
+      <c r="O186">
+        <v>1718.69</v>
+      </c>
+      <c r="P186">
+        <v>373.66</v>
+      </c>
+      <c r="Q186">
+        <v>162.4709</v>
+      </c>
+      <c r="R186">
+        <v>4.9508999999999999</v>
+      </c>
+      <c r="S186">
+        <v>5.1306892120000001</v>
+      </c>
+      <c r="T186">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U186">
+        <v>1654.5</v>
+      </c>
+      <c r="V186">
+        <v>2389.3040000000001</v>
+      </c>
+      <c r="W186">
+        <v>141.40625</v>
+      </c>
+      <c r="X186">
+        <v>388.47</v>
+      </c>
+      <c r="Y186">
+        <v>1168.26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B187">
+        <v>138.65</v>
+      </c>
+      <c r="C187">
+        <v>4020.88</v>
+      </c>
+      <c r="D187">
+        <v>170.57380000000001</v>
+      </c>
+      <c r="E187">
+        <v>4179.83</v>
+      </c>
+      <c r="F187">
+        <v>646.37</v>
+      </c>
+      <c r="G187">
+        <v>1749.65</v>
+      </c>
+      <c r="H187">
+        <v>2041.81</v>
+      </c>
+      <c r="I187">
+        <v>958.53</v>
+      </c>
+      <c r="J187">
+        <v>514.86080000000004</v>
+      </c>
+      <c r="K187">
+        <v>1453.913</v>
+      </c>
+      <c r="L187">
+        <v>1263.18</v>
+      </c>
+      <c r="M187">
+        <v>18548.652999999998</v>
+      </c>
+      <c r="N187">
+        <v>3798.5059999999999</v>
+      </c>
+      <c r="O187">
+        <v>1718.69</v>
+      </c>
+      <c r="P187">
+        <v>357.38</v>
+      </c>
+      <c r="Q187">
+        <v>162.4709</v>
+      </c>
+      <c r="R187">
+        <v>5.1535799999999998</v>
+      </c>
+      <c r="S187">
+        <v>5.3719694689999997</v>
+      </c>
+      <c r="T187">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U187">
+        <v>1630.51</v>
+      </c>
+      <c r="V187">
+        <v>2394.2890000000002</v>
+      </c>
+      <c r="W187">
+        <v>136.375</v>
+      </c>
+      <c r="X187">
+        <v>379.55</v>
+      </c>
+      <c r="Y187">
+        <v>1161.44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B188">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="C188">
+        <v>4082.76</v>
+      </c>
+      <c r="D188">
+        <v>169.756</v>
+      </c>
+      <c r="E188">
+        <v>4450.38</v>
+      </c>
+      <c r="F188">
+        <v>682.84</v>
+      </c>
+      <c r="G188">
+        <v>1888.7339999999999</v>
+      </c>
+      <c r="H188">
+        <v>2131.7199999999998</v>
+      </c>
+      <c r="I188">
+        <v>989.48</v>
+      </c>
+      <c r="J188">
+        <v>526.38220000000001</v>
+      </c>
+      <c r="K188">
+        <v>1477.579</v>
+      </c>
+      <c r="L188">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="M188">
+        <v>18754.213</v>
+      </c>
+      <c r="N188">
+        <v>3875.848</v>
+      </c>
+      <c r="O188">
+        <v>1718.69</v>
+      </c>
+      <c r="P188">
+        <v>373.51</v>
+      </c>
+      <c r="Q188">
+        <v>162.4709</v>
+      </c>
+      <c r="R188">
+        <v>5.2157900000000001</v>
+      </c>
+      <c r="S188">
+        <v>5.2487262379999997</v>
+      </c>
+      <c r="T188">
+        <v>5362.12</v>
+      </c>
+      <c r="U188">
+        <v>1722.87</v>
+      </c>
+      <c r="V188">
+        <v>2554.4879999999998</v>
+      </c>
+      <c r="W188">
+        <v>136.21875</v>
+      </c>
+      <c r="X188">
+        <v>376.94</v>
+      </c>
+      <c r="Y188">
+        <v>1170.99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B189">
+        <v>134.74</v>
+      </c>
+      <c r="C189">
+        <v>4077.42</v>
+      </c>
+      <c r="D189">
+        <v>164.77119999999999</v>
+      </c>
+      <c r="E189">
+        <v>4588.96</v>
+      </c>
+      <c r="F189">
+        <v>707.11</v>
+      </c>
+      <c r="G189">
+        <v>2003.1769999999999</v>
+      </c>
+      <c r="H189">
+        <v>2199.36</v>
+      </c>
+      <c r="I189">
+        <v>1046.9100000000001</v>
+      </c>
+      <c r="J189">
+        <v>533.23329999999999</v>
+      </c>
+      <c r="K189">
+        <v>1498.62</v>
+      </c>
+      <c r="L189">
+        <v>1256.76</v>
+      </c>
+      <c r="M189">
+        <v>18878.060000000001</v>
+      </c>
+      <c r="N189">
+        <v>3815.0520000000001</v>
+      </c>
+      <c r="O189">
+        <v>1718.69</v>
+      </c>
+      <c r="P189">
+        <v>380.33</v>
+      </c>
+      <c r="Q189">
+        <v>162.4709</v>
+      </c>
+      <c r="R189">
+        <v>5.2787199999999999</v>
+      </c>
+      <c r="S189">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T189">
+        <v>5362.12</v>
+      </c>
+      <c r="U189">
+        <v>1786.91</v>
+      </c>
+      <c r="V189">
+        <v>2643.6860000000001</v>
+      </c>
+      <c r="W189">
+        <v>132.21875</v>
+      </c>
+      <c r="X189">
+        <v>371.29</v>
+      </c>
+      <c r="Y189">
+        <v>1168.9000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B190">
+        <v>128.56</v>
+      </c>
+      <c r="C190">
+        <v>3997.94</v>
+      </c>
+      <c r="D190">
+        <v>159.50399999999999</v>
+      </c>
+      <c r="E190">
+        <v>4507.66</v>
+      </c>
+      <c r="F190">
+        <v>686.15</v>
+      </c>
+      <c r="G190">
+        <v>1899.6759999999999</v>
+      </c>
+      <c r="H190">
+        <v>2109.16</v>
+      </c>
+      <c r="I190">
+        <v>980.33</v>
+      </c>
+      <c r="J190">
+        <v>539.38930000000005</v>
+      </c>
+      <c r="K190">
+        <v>1502.896</v>
+      </c>
+      <c r="L190">
+        <v>1256.23</v>
+      </c>
+      <c r="M190">
+        <v>18785.47</v>
+      </c>
+      <c r="N190">
+        <v>3778.9369999999999</v>
+      </c>
+      <c r="O190">
+        <v>1718.69</v>
+      </c>
+      <c r="P190">
+        <v>366.99</v>
+      </c>
+      <c r="Q190">
+        <v>162.4709</v>
+      </c>
+      <c r="R190">
+        <v>5.3294600000000001</v>
+      </c>
+      <c r="S190">
+        <v>5.413067388</v>
+      </c>
+      <c r="T190">
+        <v>5362.12</v>
+      </c>
+      <c r="U190">
+        <v>1732.63</v>
+      </c>
+      <c r="V190">
+        <v>2588.1060000000002</v>
+      </c>
+      <c r="W190">
+        <v>127.96875</v>
+      </c>
+      <c r="X190">
+        <v>364.19</v>
+      </c>
+      <c r="Y190">
+        <v>1177.27</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -205,68 +205,74 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17236690565707920910</stp>
-        <tr r="R7" s="1"/>
+        <stp>BDH|14239405715702634827</stp>
+        <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13297851655590193145</stp>
-        <tr r="W7" s="1"/>
+        <stp>BDH|15713870260686331594</stp>
+        <tr r="I7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12926881264240898362</stp>
+        <stp>BDH|17670421933205154778</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10710265517285909419</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15542553067670227509</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18108943401462012024</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15914180686459264550</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15373689525143928315</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15932429452760545300</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15643442224313940480</stp>
         <tr r="Y7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14913224394640073269</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14837846873736313046</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11971190572452601512</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12055499512048169900</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17448202811811406212</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|18075417015289167059</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15548123227067243483</stp>
+        <stp>BDH|10034579813362579280</stp>
         <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12058450981862031989</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|14769446823290940791</stp>
+        <tr r="J7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -339,32 +345,20 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6547989470101314558</stp>
-        <tr r="J7" s="1"/>
+        <stp>BDH|8103439873437049195</stp>
+        <tr r="E7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7925042130241954952</stp>
-        <tr r="T7" s="1"/>
+        <stp>BDH|8833401065130185461</stp>
+        <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7802926848347401096</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3942950741802448155</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4823383110640400848</stp>
-        <tr r="C7" s="1"/>
+        <stp>BDH|4429347897290383008</stp>
+        <tr r="R7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -501,50 +495,60 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8933502120889095924</stp>
-        <tr r="Q7" s="1"/>
+        <stp>BDH|5890271329454997919</stp>
+        <tr r="S7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2503271317151895933</stp>
-        <tr r="E7" s="1"/>
+        <stp>BDH|1766055187475851419</stp>
+        <tr r="C7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2997792379889335131</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5345391822715725709</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5902682273164826096</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5406525454397911320</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3235266235923597252</stp>
+        <stp>BDH|3312687433899004624</stp>
         <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|539207429269322929</stp>
-        <tr r="U7" s="1"/>
+        <stp>BDH|2551655332079459768</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7828891415652795557</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7679696584781459182</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5984765217930654167</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4934865236398869548</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|233624217984836198</stp>
+        <tr r="W7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -848,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y195"/>
+  <dimension ref="A1:Y197"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:Y195"/>
+    <sheetView topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195:Y197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45169</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1139,102 +1143,102 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=189")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=191")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1294.818</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>221.59</v>
       </c>
       <c r="Y7">
-        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
+        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
         <v>1174.52</v>
       </c>
     </row>
@@ -14215,7 +14219,7 @@
         <v>17491.125</v>
       </c>
       <c r="N176">
-        <v>3145.7220000000002</v>
+        <v>3145.6610000000001</v>
       </c>
       <c r="O176">
         <v>1759.42</v>
@@ -14292,7 +14296,7 @@
         <v>17708.370999999999</v>
       </c>
       <c r="N177">
-        <v>3261.5569999999998</v>
+        <v>3261.4670000000001</v>
       </c>
       <c r="O177">
         <v>1779.61</v>
@@ -14369,7 +14373,7 @@
         <v>18513.787</v>
       </c>
       <c r="N178">
-        <v>3576.8649999999998</v>
+        <v>3576.799</v>
       </c>
       <c r="O178">
         <v>1708.65</v>
@@ -14446,7 +14450,7 @@
         <v>19027.263999999999</v>
       </c>
       <c r="N179">
-        <v>3829.3389999999999</v>
+        <v>3829.2640000000001</v>
       </c>
       <c r="O179">
         <v>1718.69</v>
@@ -14523,7 +14527,7 @@
         <v>18991.223000000002</v>
       </c>
       <c r="N180">
-        <v>3821.6329999999998</v>
+        <v>3821.616</v>
       </c>
       <c r="O180">
         <v>1718.69</v>
@@ -14600,7 +14604,7 @@
         <v>18830.867999999999</v>
       </c>
       <c r="N181">
-        <v>3919.7809999999999</v>
+        <v>3919.8330000000001</v>
       </c>
       <c r="O181">
         <v>1718.69</v>
@@ -14677,7 +14681,7 @@
         <v>18679.645</v>
       </c>
       <c r="N182">
-        <v>3747.0160000000001</v>
+        <v>3747.049</v>
       </c>
       <c r="O182">
         <v>1718.69</v>
@@ -14754,7 +14758,7 @@
         <v>18922.542000000001</v>
       </c>
       <c r="N183">
-        <v>3896.473</v>
+        <v>3896.4749999999999</v>
       </c>
       <c r="O183">
         <v>1718.69</v>
@@ -14831,7 +14835,7 @@
         <v>19166.885999999999</v>
       </c>
       <c r="N184">
-        <v>4120.9750000000004</v>
+        <v>4121.0169999999998</v>
       </c>
       <c r="O184">
         <v>1718.69</v>
@@ -14908,7 +14912,7 @@
         <v>19286.981</v>
       </c>
       <c r="N185">
-        <v>4128.7719999999999</v>
+        <v>4128.8620000000001</v>
       </c>
       <c r="O185">
         <v>1718.69</v>
@@ -14985,7 +14989,7 @@
         <v>18880.728999999999</v>
       </c>
       <c r="N186">
-        <v>3879.6979999999999</v>
+        <v>3879.7849999999999</v>
       </c>
       <c r="O186">
         <v>1718.69</v>
@@ -15062,7 +15066,7 @@
         <v>18910.451000000001</v>
       </c>
       <c r="N187">
-        <v>3870.6570000000002</v>
+        <v>3870.7959999999998</v>
       </c>
       <c r="O187">
         <v>1718.69</v>
@@ -15139,7 +15143,7 @@
         <v>18975.955000000002</v>
       </c>
       <c r="N188">
-        <v>3817.4569999999999</v>
+        <v>3817.5940000000001</v>
       </c>
       <c r="O188">
         <v>1718.69</v>
@@ -15216,7 +15220,7 @@
         <v>18958.985000000001</v>
       </c>
       <c r="N189">
-        <v>3888.33</v>
+        <v>3888.4690000000001</v>
       </c>
       <c r="O189">
         <v>1718.69</v>
@@ -15293,7 +15297,7 @@
         <v>18448.667000000001</v>
       </c>
       <c r="N190">
-        <v>3587.8829999999998</v>
+        <v>3588.0120000000002</v>
       </c>
       <c r="O190">
         <v>1718.69</v>
@@ -15370,7 +15374,7 @@
         <v>18601.562999999998</v>
       </c>
       <c r="N191">
-        <v>3691.1089999999999</v>
+        <v>3691.2420000000002</v>
       </c>
       <c r="O191">
         <v>1718.69</v>
@@ -15447,7 +15451,7 @@
         <v>18548.652999999998</v>
       </c>
       <c r="N192">
-        <v>3798.5059999999999</v>
+        <v>3798.643</v>
       </c>
       <c r="O192">
         <v>1718.69</v>
@@ -15524,7 +15528,7 @@
         <v>18754.213</v>
       </c>
       <c r="N193">
-        <v>3875.848</v>
+        <v>3875.9879999999998</v>
       </c>
       <c r="O193">
         <v>1718.69</v>
@@ -15601,7 +15605,7 @@
         <v>18878.060000000001</v>
       </c>
       <c r="N194">
-        <v>3815.0520000000001</v>
+        <v>3815.19</v>
       </c>
       <c r="O194">
         <v>1718.69</v>
@@ -15675,10 +15679,10 @@
         <v>1256.23</v>
       </c>
       <c r="M195">
-        <v>18785.47</v>
+        <v>18774.57</v>
       </c>
       <c r="N195">
-        <v>3778.9369999999999</v>
+        <v>3779.0740000000001</v>
       </c>
       <c r="O195">
         <v>1718.69</v>
@@ -15712,6 +15716,160 @@
       </c>
       <c r="Y195">
         <v>1177.27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B196">
+        <v>114.43</v>
+      </c>
+      <c r="C196">
+        <v>3787.56</v>
+      </c>
+      <c r="D196">
+        <v>146.2216</v>
+      </c>
+      <c r="E196">
+        <v>4288.05</v>
+      </c>
+      <c r="F196">
+        <v>656.82</v>
+      </c>
+      <c r="G196">
+        <v>1785.1020000000001</v>
+      </c>
+      <c r="H196">
+        <v>2031.26</v>
+      </c>
+      <c r="I196">
+        <v>952.78</v>
+      </c>
+      <c r="J196">
+        <v>544.12260000000003</v>
+      </c>
+      <c r="K196">
+        <v>1485.4169999999999</v>
+      </c>
+      <c r="L196">
+        <v>1264.0029999999999</v>
+      </c>
+      <c r="M196">
+        <v>19002.797999999999</v>
+      </c>
+      <c r="N196">
+        <v>3907.5</v>
+      </c>
+      <c r="O196">
+        <v>1718.69</v>
+      </c>
+      <c r="P196">
+        <v>360.28</v>
+      </c>
+      <c r="Q196">
+        <v>162.4709</v>
+      </c>
+      <c r="R196">
+        <v>5.3626800000000001</v>
+      </c>
+      <c r="S196">
+        <v>5.4027921179999998</v>
+      </c>
+      <c r="T196">
+        <v>5362.12</v>
+      </c>
+      <c r="U196">
+        <v>1657.17</v>
+      </c>
+      <c r="V196">
+        <v>2462.06</v>
+      </c>
+      <c r="W196">
+        <v>118.6875</v>
+      </c>
+      <c r="X196">
+        <v>342</v>
+      </c>
+      <c r="Y196">
+        <v>1186.586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B197">
+        <v>105.26</v>
+      </c>
+      <c r="C197">
+        <v>3628.5</v>
+      </c>
+      <c r="D197">
+        <v>138.67570000000001</v>
+      </c>
+      <c r="E197">
+        <v>4193.8</v>
+      </c>
+      <c r="F197">
+        <v>636.65</v>
+      </c>
+      <c r="G197">
+        <v>1662.2819999999999</v>
+      </c>
+      <c r="H197">
+        <v>1947.91</v>
+      </c>
+      <c r="I197">
+        <v>915.2</v>
+      </c>
+      <c r="J197">
+        <v>544.2876</v>
+      </c>
+      <c r="K197">
+        <v>1467.0319999999999</v>
+      </c>
+      <c r="L197">
+        <v>1267.6389999999999</v>
+      </c>
+      <c r="M197">
+        <v>18850.456999999999</v>
+      </c>
+      <c r="N197">
+        <v>3912.0859999999998</v>
+      </c>
+      <c r="O197">
+        <v>1718.69</v>
+      </c>
+      <c r="P197">
+        <v>360.28</v>
+      </c>
+      <c r="Q197">
+        <v>162.4709</v>
+      </c>
+      <c r="R197">
+        <v>5.3648400000000001</v>
+      </c>
+      <c r="S197">
+        <v>5.3976546809999997</v>
+      </c>
+      <c r="T197">
+        <v>5362.12</v>
+      </c>
+      <c r="U197">
+        <v>1600.93</v>
+      </c>
+      <c r="V197">
+        <v>2394.585</v>
+      </c>
+      <c r="W197">
+        <v>112.5625</v>
+      </c>
+      <c r="X197">
+        <v>330.52</v>
+      </c>
+      <c r="Y197">
+        <v>1182.403</v>
       </c>
     </row>
   </sheetData>
@@ -15721,10 +15879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y190"/>
+  <dimension ref="A1:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView topLeftCell="A155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30336,10 +30494,10 @@
         <v>1256.23</v>
       </c>
       <c r="M190">
-        <v>18785.47</v>
+        <v>18774.57</v>
       </c>
       <c r="N190">
-        <v>3778.9369999999999</v>
+        <v>3779.0740000000001</v>
       </c>
       <c r="O190">
         <v>1718.69</v>
@@ -30373,6 +30531,160 @@
       </c>
       <c r="Y190">
         <v>1177.27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B191">
+        <v>114.43</v>
+      </c>
+      <c r="C191">
+        <v>3787.56</v>
+      </c>
+      <c r="D191">
+        <v>146.2216</v>
+      </c>
+      <c r="E191">
+        <v>4288.05</v>
+      </c>
+      <c r="F191">
+        <v>656.82</v>
+      </c>
+      <c r="G191">
+        <v>1785.1020000000001</v>
+      </c>
+      <c r="H191">
+        <v>2031.26</v>
+      </c>
+      <c r="I191">
+        <v>952.78</v>
+      </c>
+      <c r="J191">
+        <v>544.12260000000003</v>
+      </c>
+      <c r="K191">
+        <v>1485.4169999999999</v>
+      </c>
+      <c r="L191">
+        <v>1264.0029999999999</v>
+      </c>
+      <c r="M191">
+        <v>19002.797999999999</v>
+      </c>
+      <c r="N191">
+        <v>3907.5</v>
+      </c>
+      <c r="O191">
+        <v>1718.69</v>
+      </c>
+      <c r="P191">
+        <v>360.28</v>
+      </c>
+      <c r="Q191">
+        <v>162.4709</v>
+      </c>
+      <c r="R191">
+        <v>5.3626800000000001</v>
+      </c>
+      <c r="S191">
+        <v>5.4027921179999998</v>
+      </c>
+      <c r="T191">
+        <v>5362.12</v>
+      </c>
+      <c r="U191">
+        <v>1657.17</v>
+      </c>
+      <c r="V191">
+        <v>2462.06</v>
+      </c>
+      <c r="W191">
+        <v>118.6875</v>
+      </c>
+      <c r="X191">
+        <v>342</v>
+      </c>
+      <c r="Y191">
+        <v>1186.586</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B192">
+        <v>105.26</v>
+      </c>
+      <c r="C192">
+        <v>3628.5</v>
+      </c>
+      <c r="D192">
+        <v>138.67570000000001</v>
+      </c>
+      <c r="E192">
+        <v>4193.8</v>
+      </c>
+      <c r="F192">
+        <v>636.65</v>
+      </c>
+      <c r="G192">
+        <v>1662.2819999999999</v>
+      </c>
+      <c r="H192">
+        <v>1947.91</v>
+      </c>
+      <c r="I192">
+        <v>915.2</v>
+      </c>
+      <c r="J192">
+        <v>544.2876</v>
+      </c>
+      <c r="K192">
+        <v>1467.0319999999999</v>
+      </c>
+      <c r="L192">
+        <v>1267.6389999999999</v>
+      </c>
+      <c r="M192">
+        <v>18850.456999999999</v>
+      </c>
+      <c r="N192">
+        <v>3912.0859999999998</v>
+      </c>
+      <c r="O192">
+        <v>1718.69</v>
+      </c>
+      <c r="P192">
+        <v>360.28</v>
+      </c>
+      <c r="Q192">
+        <v>162.4709</v>
+      </c>
+      <c r="R192">
+        <v>5.3648400000000001</v>
+      </c>
+      <c r="S192">
+        <v>5.3976546809999997</v>
+      </c>
+      <c r="T192">
+        <v>5362.12</v>
+      </c>
+      <c r="U192">
+        <v>1600.93</v>
+      </c>
+      <c r="V192">
+        <v>2394.585</v>
+      </c>
+      <c r="W192">
+        <v>112.5625</v>
+      </c>
+      <c r="X192">
+        <v>330.52</v>
+      </c>
+      <c r="Y192">
+        <v>1182.403</v>
       </c>
     </row>
   </sheetData>
@@ -30382,11 +30694,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X179"/>
+  <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B3:B179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47678,6 +47990,103 @@
         <v>-6.7063704156168136E-2</v>
       </c>
     </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B180" s="6">
+        <f>data!B180/data!B179-1</f>
+        <v>-8.5186275953467727E-2</v>
+      </c>
+      <c r="C180" s="6">
+        <f>data!C180/data!C179-1</f>
+        <v>-2.247835963750866E-2</v>
+      </c>
+      <c r="D180" s="6">
+        <f>data!D180/data!D179-1</f>
+        <v>-6.8202384754604495E-2</v>
+      </c>
+      <c r="E180" s="6">
+        <f>data!E180/data!E179-1</f>
+        <v>7.9863454576893256E-2</v>
+      </c>
+      <c r="F180" s="6">
+        <f>data!F180/data!F179-1</f>
+        <v>5.9634602526338565E-2</v>
+      </c>
+      <c r="G180" s="6">
+        <f>data!G180/data!G179-1</f>
+        <v>0.10941626079163069</v>
+      </c>
+      <c r="H180" s="6">
+        <f>data!H180/data!H179-1</f>
+        <v>5.3277800515203255E-2</v>
+      </c>
+      <c r="I180" s="6">
+        <f>data!I180/data!I179-1</f>
+        <v>-3.1548658925084738E-2</v>
+      </c>
+      <c r="J180" s="6">
+        <f>data!J180/data!J179-1</f>
+        <v>8.4970651876437042E-3</v>
+      </c>
+      <c r="K180" s="6">
+        <f>data!K180/data!K179-1</f>
+        <v>2.8464391691394475E-2</v>
+      </c>
+      <c r="L180" s="6">
+        <f>data!L180/data!L179-1</f>
+        <v>1.4667623922124395E-3</v>
+      </c>
+      <c r="M180" s="6">
+        <f>data!M180/data!M179-1</f>
+        <v>5.3768097605813026E-3</v>
+      </c>
+      <c r="N180" s="6">
+        <f>data!N180/data!N179-1</f>
+        <v>1.8920279788154915E-3</v>
+      </c>
+      <c r="O180" s="6">
+        <f>data!O180/data!O179-1</f>
+        <v>0</v>
+      </c>
+      <c r="P180" s="6">
+        <f>data!P180/data!P179-1</f>
+        <v>3.284580025073125E-2</v>
+      </c>
+      <c r="Q180" s="6">
+        <f>data!Q180/data!Q179-1</f>
+        <v>0</v>
+      </c>
+      <c r="R180" s="6">
+        <f>data!R180/data!R179-1</f>
+        <v>0.23927421623480138</v>
+      </c>
+      <c r="S180" s="6">
+        <f>data!S180/data!S179-1</f>
+        <v>0.24719143613831274</v>
+      </c>
+      <c r="T180" s="6">
+        <f>data!T180/data!T179-1</f>
+        <v>0</v>
+      </c>
+      <c r="U180" s="6">
+        <f>data!U180/data!U179-1</f>
+        <v>6.0818705117975602E-2</v>
+      </c>
+      <c r="V180" s="6">
+        <f>data!V180/data!V179-1</f>
+        <v>8.09579276187542E-2</v>
+      </c>
+      <c r="W180" s="6">
+        <f>data!W180/data!W179-1</f>
+        <v>-6.8202554744525523E-2</v>
+      </c>
+      <c r="X180" s="6">
+        <f>data!X180/data!X179-1</f>
+        <v>-4.3730903535574073E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED211E2-3849-4F71-9579-72B31877227D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="4680" yWindow="920" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="SpreadsheetBuilder_11" hidden="1">bbg!$A$1:$Y$7</definedName>
     <definedName name="SpreadsheetBuilder_9" hidden="1">bbg!$A$1:$Q$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -132,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -205,74 +208,68 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14239405715702634827</stp>
-        <tr r="Q7" s="1"/>
+        <stp>BDH|18353857057369631726</stp>
+        <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15713870260686331594</stp>
+        <stp>BDH|12375187216603128887</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15637698320093187126</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10544755452679912856</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17008031545871345295</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15931896757506772916</stp>
+        <tr r="Y7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18051710263079419431</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17670421933205154778</stp>
-        <tr r="P7" s="1"/>
+        <stp>BDH|17906278738741851393</stp>
+        <tr r="R7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10710265517285909419</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15542553067670227509</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|18108943401462012024</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15914180686459264550</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15373689525143928315</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15932429452760545300</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15643442224313940480</stp>
-        <tr r="Y7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10034579813362579280</stp>
+        <stp>BDH|15076265050800807667</stp>
         <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14769446823290940791</stp>
-        <tr r="J7" s="1"/>
+        <stp>BDH|14532257514907526562</stp>
+        <tr r="V7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11680503742052798740</stp>
+        <tr r="T7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -339,26 +336,6 @@
         <stp>[index_data.xlsx]bbg!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8103439873437049195</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8833401065130185461</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4429347897290383008</stp>
-        <tr r="R7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -495,60 +472,80 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5890271329454997919</stp>
+        <stp>BDH|4698709259818338682</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3156902016925940470</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9021653845256816778</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9878140236898161867</stp>
         <tr r="S7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1766055187475851419</stp>
-        <tr r="C7" s="1"/>
+        <stp>BDH|3127725000869849948</stp>
+        <tr r="P7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3312687433899004624</stp>
+        <stp>BDH|7880740441696071762</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8987355549103844967</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7253797949649611807</stp>
+        <tr r="H7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7662456251601122105</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2208639251642318485</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1246031807909967823</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3873689679061216397</stp>
         <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2551655332079459768</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7828891415652795557</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7679696584781459182</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5984765217930654167</stp>
-        <tr r="T7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4934865236398869548</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|233624217984836198</stp>
-        <tr r="W7" s="1"/>
+        <stp>BDH|7736316424220650774</stp>
+        <tr r="C7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -851,32 +848,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195:Y197"/>
+    <sheetView topLeftCell="D182" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198:Y198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,15 +881,15 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -966,105 +963,105 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B5" t="e">
         <f>_xll.BFieldInfo(B$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="C5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
         <f>_xll.BFieldInfo(C$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="D5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
         <f>_xll.BFieldInfo(D$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="E5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="e">
         <f>_xll.BFieldInfo(E$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="F5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="e">
         <f>_xll.BFieldInfo(F$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="G5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
         <f>_xll.BFieldInfo(G$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="H5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
         <f>_xll.BFieldInfo(H$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="I5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
         <f>_xll.BFieldInfo(I$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="J5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
         <f>_xll.BFieldInfo(J$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="K5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
         <f>_xll.BFieldInfo(K$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="L5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
         <f>_xll.BFieldInfo(L$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="M5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
         <f>_xll.BFieldInfo(M$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
         <f>_xll.BFieldInfo(N$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="O5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
         <f>_xll.BFieldInfo(O$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="P5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="e">
         <f>_xll.BFieldInfo(P$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="Q5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" t="e">
         <f>_xll.BFieldInfo(Q$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="R5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R5" t="e">
         <f>_xll.BFieldInfo(R$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="S5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" t="e">
         <f>_xll.BFieldInfo(S$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="T5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" t="e">
         <f>_xll.BFieldInfo(T$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="U5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" t="e">
         <f>_xll.BFieldInfo(U$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="V5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="e">
         <f>_xll.BFieldInfo(V$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="W5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W5" t="e">
         <f>_xll.BFieldInfo(W$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="X5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X5" t="e">
         <f>_xll.BFieldInfo(X$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="Y5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" t="e">
         <f>_xll.BFieldInfo(Y$6)</f>
-        <v>Last Price</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1141,108 +1138,108 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=191")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=192")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1294.818</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>221.59</v>
       </c>
       <c r="Y7">
-        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1174.52</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39478</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>1175.0899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39507</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>1169.46</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39538</v>
       </c>
@@ -1473,7 +1470,7 @@
         <v>1141.77</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39568</v>
       </c>
@@ -1550,7 +1547,7 @@
         <v>1146.51</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39598</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>1160.96</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39629</v>
       </c>
@@ -1704,7 +1701,7 @@
         <v>1160.32</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39660</v>
       </c>
@@ -1781,7 +1778,7 @@
         <v>1147.95</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39689</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>1156.26</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39721</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>1113.49</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39752</v>
       </c>
@@ -2012,7 +2009,7 @@
         <v>1064.58</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39780</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>1045.5999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39813</v>
       </c>
@@ -2166,7 +2163,7 @@
         <v>1020.8</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39843</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>1023.76</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>39871</v>
       </c>
@@ -2320,7 +2317,7 @@
         <v>1021.84</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>39903</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>1015.49</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>39933</v>
       </c>
@@ -2474,7 +2471,7 @@
         <v>1010.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>39962</v>
       </c>
@@ -2551,7 +2548,7 @@
         <v>1006.6</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>39994</v>
       </c>
@@ -2628,7 +2625,7 @@
         <v>994.61</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40025</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>988.83</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40056</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>983.18</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>40086</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>982.21</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>40116</v>
       </c>
@@ -2936,7 +2933,7 @@
         <v>976.26</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>40147</v>
       </c>
@@ -3013,7 +3010,7 @@
         <v>982.75</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40178</v>
       </c>
@@ -3090,7 +3087,7 @@
         <v>984.28</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>40207</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>985.57</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40235</v>
       </c>
@@ -3244,7 +3241,7 @@
         <v>987.78</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40268</v>
       </c>
@@ -3321,7 +3318,7 @@
         <v>971.42</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40298</v>
       </c>
@@ -3398,7 +3395,7 @@
         <v>977.05</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40329</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>970.98</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40359</v>
       </c>
@@ -3552,7 +3549,7 @@
         <v>964.77</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40389</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>971.39</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40421</v>
       </c>
@@ -3706,7 +3703,7 @@
         <v>963.26</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40451</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>976.53</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40480</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>982.52</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40512</v>
       </c>
@@ -3937,7 +3934,7 @@
         <v>978.64</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40543</v>
       </c>
@@ -4014,7 +4011,7 @@
         <v>983.07</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40574</v>
       </c>
@@ -4091,7 +4088,7 @@
         <v>986.17</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40602</v>
       </c>
@@ -4168,7 +4165,7 @@
         <v>987.89</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40633</v>
       </c>
@@ -4245,7 +4242,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40662</v>
       </c>
@@ -4322,7 +4319,7 @@
         <v>988.91</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40694</v>
       </c>
@@ -4399,7 +4396,7 @@
         <v>981.82</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40724</v>
       </c>
@@ -4476,7 +4473,7 @@
         <v>968.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40753</v>
       </c>
@@ -4553,7 +4550,7 @@
         <v>962.9</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40786</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>953.87</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40816</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>945.45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40847</v>
       </c>
@@ -4784,7 +4781,7 @@
         <v>953.56</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40877</v>
       </c>
@@ -4861,7 +4858,7 @@
         <v>947.78</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40907</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>946.55</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>40939</v>
       </c>
@@ -5015,7 +5012,7 @@
         <v>951.83</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>40968</v>
       </c>
@@ -5092,7 +5089,7 @@
         <v>956.32</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>40998</v>
       </c>
@@ -5169,7 +5166,7 @@
         <v>952.02</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>41029</v>
       </c>
@@ -5246,7 +5243,7 @@
         <v>949.37</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>41060</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>947.08</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>41089</v>
       </c>
@@ -5400,7 +5397,7 @@
         <v>947.75</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>41121</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>945.54</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41152</v>
       </c>
@@ -5554,7 +5551,7 @@
         <v>948.05</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41180</v>
       </c>
@@ -5631,7 +5628,7 @@
         <v>946.65</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41213</v>
       </c>
@@ -5708,7 +5705,7 @@
         <v>944.09</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41243</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>949.92</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41274</v>
       </c>
@@ -5862,7 +5859,7 @@
         <v>954.86</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41305</v>
       </c>
@@ -5939,7 +5936,7 @@
         <v>957.4</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41333</v>
       </c>
@@ -6016,7 +6013,7 @@
         <v>960.14</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41362</v>
       </c>
@@ -6093,7 +6090,7 @@
         <v>961.61</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41394</v>
       </c>
@@ -6170,7 +6167,7 @@
         <v>962.97</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41425</v>
       </c>
@@ -6247,7 +6244,7 @@
         <v>971.45</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41453</v>
       </c>
@@ -6324,7 +6321,7 @@
         <v>971.23</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41486</v>
       </c>
@@ -6401,7 +6398,7 @@
         <v>977.25</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41516</v>
       </c>
@@ -6478,7 +6475,7 @@
         <v>970.23</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41547</v>
       </c>
@@ -6555,7 +6552,7 @@
         <v>972.33</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41578</v>
       </c>
@@ -6632,7 +6629,7 @@
         <v>981.77</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41607</v>
       </c>
@@ -6709,7 +6706,7 @@
         <v>986.18</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41639</v>
       </c>
@@ -6786,7 +6783,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41670</v>
       </c>
@@ -6863,7 +6860,7 @@
         <v>995.73</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41698</v>
       </c>
@@ -6940,7 +6937,7 @@
         <v>1001.92</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41729</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>1001.99</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41759</v>
       </c>
@@ -7094,7 +7091,7 @@
         <v>999.33</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41789</v>
       </c>
@@ -7171,7 +7168,7 @@
         <v>1000.28</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41820</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>1007.02</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>41851</v>
       </c>
@@ -7325,7 +7322,7 @@
         <v>1001.15</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>41880</v>
       </c>
@@ -7402,7 +7399,7 @@
         <v>1008.67</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>41912</v>
       </c>
@@ -7479,7 +7476,7 @@
         <v>1006.78</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>41943</v>
       </c>
@@ -7556,7 +7553,7 @@
         <v>1003.23</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>41971</v>
       </c>
@@ -7633,7 +7630,7 @@
         <v>1003.29</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42004</v>
       </c>
@@ -7710,7 +7707,7 @@
         <v>996.78</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -7787,7 +7784,7 @@
         <v>1002.84</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42062</v>
       </c>
@@ -7864,7 +7861,7 @@
         <v>1009.67</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42094</v>
       </c>
@@ -7941,7 +7938,7 @@
         <v>1013.49</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42124</v>
       </c>
@@ -8018,7 +8015,7 @@
         <v>1014.72</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42153</v>
       </c>
@@ -8095,7 +8092,7 @@
         <v>1020.72</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42185</v>
       </c>
@@ -8172,7 +8169,7 @@
         <v>1016.84</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42216</v>
       </c>
@@ -8249,7 +8246,7 @@
         <v>1019.27</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42247</v>
       </c>
@@ -8326,7 +8323,7 @@
         <v>1020.55</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42277</v>
       </c>
@@ -8403,7 +8400,7 @@
         <v>1023.04</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42307</v>
       </c>
@@ -8480,7 +8477,7 @@
         <v>1034.8399999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42338</v>
       </c>
@@ -8557,7 +8554,7 @@
         <v>1029.6099999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42369</v>
       </c>
@@ -8634,7 +8631,7 @@
         <v>1025.31</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42398</v>
       </c>
@@ -8711,7 +8708,7 @@
         <v>1025.8699999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42429</v>
       </c>
@@ -8788,7 +8785,7 @@
         <v>1022.32</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42460</v>
       </c>
@@ -8865,7 +8862,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42489</v>
       </c>
@@ -8942,7 +8939,7 @@
         <v>1020.07</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42521</v>
       </c>
@@ -9019,7 +9016,7 @@
         <v>1024.72</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42551</v>
       </c>
@@ -9096,7 +9093,7 @@
         <v>1022.94</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42580</v>
       </c>
@@ -9173,7 +9170,7 @@
         <v>1029.23</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42613</v>
       </c>
@@ -9250,7 +9247,7 @@
         <v>1028.6300000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42643</v>
       </c>
@@ -9327,7 +9324,7 @@
         <v>1032.06</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42674</v>
       </c>
@@ -9404,7 +9401,7 @@
         <v>1028.01</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42704</v>
       </c>
@@ -9481,7 +9478,7 @@
         <v>1026.3800000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42734</v>
       </c>
@@ -9558,7 +9555,7 @@
         <v>1028.46</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42766</v>
       </c>
@@ -9635,7 +9632,7 @@
         <v>1031.5</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42794</v>
       </c>
@@ -9712,7 +9709,7 @@
         <v>1032.6099999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42825</v>
       </c>
@@ -9789,7 +9786,7 @@
         <v>1035.1500000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -9866,7 +9863,7 @@
         <v>1038.31</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42886</v>
       </c>
@@ -9943,7 +9940,7 @@
         <v>1041.6099999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42916</v>
       </c>
@@ -10020,7 +10017,7 @@
         <v>1042.6300000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42947</v>
       </c>
@@ -10097,7 +10094,7 @@
         <v>1047.6300000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42978</v>
       </c>
@@ -10174,7 +10171,7 @@
         <v>1054.49</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43007</v>
       </c>
@@ -10251,7 +10248,7 @@
         <v>1061.95</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43039</v>
       </c>
@@ -10328,7 +10325,7 @@
         <v>1066.3800000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43069</v>
       </c>
@@ -10405,7 +10402,7 @@
         <v>1060.29</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43098</v>
       </c>
@@ -10482,7 +10479,7 @@
         <v>1063.28</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43131</v>
       </c>
@@ -10559,7 +10556,7 @@
         <v>1071.8599999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43159</v>
       </c>
@@ -10636,7 +10633,7 @@
         <v>1068.06</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43189</v>
       </c>
@@ -10713,7 +10710,7 @@
         <v>1066.47</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43220</v>
       </c>
@@ -10790,7 +10787,7 @@
         <v>1067.4000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43251</v>
       </c>
@@ -10867,7 +10864,7 @@
         <v>1072.23</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43280</v>
       </c>
@@ -10944,7 +10941,7 @@
         <v>1074.3699999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43312</v>
       </c>
@@ -11021,7 +11018,7 @@
         <v>1073.81</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43343</v>
       </c>
@@ -11098,7 +11095,7 @@
         <v>1077.75</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43371</v>
       </c>
@@ -11175,7 +11172,7 @@
         <v>1073.93</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43404</v>
       </c>
@@ -11252,7 +11249,7 @@
         <v>1072.71</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43434</v>
       </c>
@@ -11329,7 +11326,7 @@
         <v>1068.3699999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43465</v>
       </c>
@@ -11406,7 +11403,7 @@
         <v>1058.08</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43496</v>
       </c>
@@ -11483,7 +11480,7 @@
         <v>1071.04</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43524</v>
       </c>
@@ -11560,7 +11557,7 @@
         <v>1069.99</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43553</v>
       </c>
@@ -11637,7 +11634,7 @@
         <v>1064.0050000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43585</v>
       </c>
@@ -11714,7 +11711,7 @@
         <v>1067.0419999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43616</v>
       </c>
@@ -11791,7 +11788,7 @@
         <v>1067.566</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43644</v>
       </c>
@@ -11868,7 +11865,7 @@
         <v>1075.5999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43677</v>
       </c>
@@ -11945,7 +11942,7 @@
         <v>1078.04</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43707</v>
       </c>
@@ -12022,7 +12019,7 @@
         <v>1082.76</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43738</v>
       </c>
@@ -12099,7 +12096,7 @@
         <v>1087.17</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43769</v>
       </c>
@@ -12176,7 +12173,7 @@
         <v>1092.23</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43798</v>
       </c>
@@ -12253,7 +12250,7 @@
         <v>1097.28</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43830</v>
       </c>
@@ -12330,7 +12327,7 @@
         <v>1104.27</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>43861</v>
       </c>
@@ -12407,7 +12404,7 @@
         <v>1104.3399999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>43889</v>
       </c>
@@ -12484,7 +12481,7 @@
         <v>1100.98</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>43921</v>
       </c>
@@ -12561,7 +12558,7 @@
         <v>1040.2</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>43951</v>
       </c>
@@ -12638,7 +12635,7 @@
         <v>1061.3800000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>43980</v>
       </c>
@@ -12715,7 +12712,7 @@
         <v>1075.1300000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44012</v>
       </c>
@@ -12792,7 +12789,7 @@
         <v>1089.92</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44043</v>
       </c>
@@ -12869,7 +12866,7 @@
         <v>1100.1400000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44074</v>
       </c>
@@ -12946,7 +12943,7 @@
         <v>1104.95</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44104</v>
       </c>
@@ -13023,7 +13020,7 @@
         <v>1109.43</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44134</v>
       </c>
@@ -13100,7 +13097,7 @@
         <v>1110.24</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44165</v>
       </c>
@@ -13177,7 +13174,7 @@
         <v>1119.74</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44196</v>
       </c>
@@ -13254,7 +13251,7 @@
         <v>1134.32</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44225</v>
       </c>
@@ -13331,7 +13328,7 @@
         <v>1132.45</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44253</v>
       </c>
@@ -13408,7 +13405,7 @@
         <v>1138.6600000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44286</v>
       </c>
@@ -13485,7 +13482,7 @@
         <v>1141.6400000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44316</v>
       </c>
@@ -13562,7 +13559,7 @@
         <v>1157.2</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44347</v>
       </c>
@@ -13639,7 +13636,7 @@
         <v>1155.47</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44377</v>
       </c>
@@ -13716,7 +13713,7 @@
         <v>1162.21</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44407</v>
       </c>
@@ -13793,7 +13790,7 @@
         <v>1156.17</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44439</v>
       </c>
@@ -13870,7 +13867,7 @@
         <v>1157.75</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44469</v>
       </c>
@@ -13947,7 +13944,7 @@
         <v>1154.97</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44498</v>
       </c>
@@ -14024,7 +14021,7 @@
         <v>1156.98</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44530</v>
       </c>
@@ -14101,7 +14098,7 @@
         <v>1147.25</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44561</v>
       </c>
@@ -14178,7 +14175,7 @@
         <v>1158.1099999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44592</v>
       </c>
@@ -14255,7 +14252,7 @@
         <v>1147.98</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44620</v>
       </c>
@@ -14332,7 +14329,7 @@
         <v>1147.68</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44651</v>
       </c>
@@ -14409,7 +14406,7 @@
         <v>1159.4100000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44680</v>
       </c>
@@ -14486,7 +14483,7 @@
         <v>1168.8800000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44712</v>
       </c>
@@ -14563,7 +14560,7 @@
         <v>1157.98</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44742</v>
       </c>
@@ -14640,7 +14637,7 @@
         <v>1147.06</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44771</v>
       </c>
@@ -14717,7 +14714,7 @@
         <v>1136.73</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44804</v>
       </c>
@@ -14794,7 +14791,7 @@
         <v>1142.8599999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44834</v>
       </c>
@@ -14871,7 +14868,7 @@
         <v>1171.55</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44865</v>
       </c>
@@ -14948,7 +14945,7 @@
         <v>1172.21</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44895</v>
       </c>
@@ -15025,7 +15022,7 @@
         <v>1162.29</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44925</v>
       </c>
@@ -15102,7 +15099,7 @@
         <v>1167.92</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44957</v>
       </c>
@@ -15143,7 +15140,7 @@
         <v>18975.955000000002</v>
       </c>
       <c r="N188">
-        <v>3817.5940000000001</v>
+        <v>3817.5610000000001</v>
       </c>
       <c r="O188">
         <v>1718.69</v>
@@ -15179,7 +15176,7 @@
         <v>1168.94</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44985</v>
       </c>
@@ -15220,7 +15217,7 @@
         <v>18958.985000000001</v>
       </c>
       <c r="N189">
-        <v>3888.4690000000001</v>
+        <v>3888.4479999999999</v>
       </c>
       <c r="O189">
         <v>1718.69</v>
@@ -15256,7 +15253,7 @@
         <v>1166.95</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>45016</v>
       </c>
@@ -15297,7 +15294,7 @@
         <v>18448.667000000001</v>
       </c>
       <c r="N190">
-        <v>3588.0120000000002</v>
+        <v>3588.0039999999999</v>
       </c>
       <c r="O190">
         <v>1718.69</v>
@@ -15333,7 +15330,7 @@
         <v>1165.6300000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>45044</v>
       </c>
@@ -15374,7 +15371,7 @@
         <v>18601.562999999998</v>
       </c>
       <c r="N191">
-        <v>3691.2420000000002</v>
+        <v>3691.3</v>
       </c>
       <c r="O191">
         <v>1718.69</v>
@@ -15410,7 +15407,7 @@
         <v>1168.26</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>45077</v>
       </c>
@@ -15451,7 +15448,7 @@
         <v>18548.652999999998</v>
       </c>
       <c r="N192">
-        <v>3798.643</v>
+        <v>3798.7719999999999</v>
       </c>
       <c r="O192">
         <v>1718.69</v>
@@ -15487,7 +15484,7 @@
         <v>1161.44</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>45107</v>
       </c>
@@ -15528,7 +15525,7 @@
         <v>18754.213</v>
       </c>
       <c r="N193">
-        <v>3875.9879999999998</v>
+        <v>3876.107</v>
       </c>
       <c r="O193">
         <v>1718.69</v>
@@ -15564,7 +15561,7 @@
         <v>1170.99</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>45138</v>
       </c>
@@ -15605,7 +15602,7 @@
         <v>18878.060000000001</v>
       </c>
       <c r="N194">
-        <v>3815.19</v>
+        <v>3815.27</v>
       </c>
       <c r="O194">
         <v>1718.69</v>
@@ -15641,7 +15638,7 @@
         <v>1168.9000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>45169</v>
       </c>
@@ -15682,7 +15679,7 @@
         <v>18774.57</v>
       </c>
       <c r="N195">
-        <v>3779.0740000000001</v>
+        <v>3779.1060000000002</v>
       </c>
       <c r="O195">
         <v>1718.69</v>
@@ -15718,7 +15715,7 @@
         <v>1177.27</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>45198</v>
       </c>
@@ -15759,7 +15756,7 @@
         <v>19002.797999999999</v>
       </c>
       <c r="N196">
-        <v>3907.5</v>
+        <v>3907.5459999999998</v>
       </c>
       <c r="O196">
         <v>1718.69</v>
@@ -15795,7 +15792,7 @@
         <v>1186.586</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>45230</v>
       </c>
@@ -15833,10 +15830,10 @@
         <v>1267.6389999999999</v>
       </c>
       <c r="M197">
-        <v>18850.456999999999</v>
+        <v>18864.810000000001</v>
       </c>
       <c r="N197">
-        <v>3912.0859999999998</v>
+        <v>3912.1610000000001</v>
       </c>
       <c r="O197">
         <v>1718.69</v>
@@ -15870,6 +15867,83 @@
       </c>
       <c r="Y197">
         <v>1182.403</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B198">
+        <v>120.27</v>
+      </c>
+      <c r="C198">
+        <v>4022.31</v>
+      </c>
+      <c r="D198">
+        <v>150.5694</v>
+      </c>
+      <c r="E198">
+        <v>4567.8</v>
+      </c>
+      <c r="F198">
+        <v>694.38</v>
+      </c>
+      <c r="G198">
+        <v>1809.02</v>
+      </c>
+      <c r="H198">
+        <v>2124.91</v>
+      </c>
+      <c r="I198">
+        <v>987.1</v>
+      </c>
+      <c r="J198">
+        <v>550.78459999999995</v>
+      </c>
+      <c r="K198">
+        <v>1533.7560000000001</v>
+      </c>
+      <c r="L198">
+        <v>1245.184</v>
+      </c>
+      <c r="M198">
+        <v>18864.810000000001</v>
+      </c>
+      <c r="N198">
+        <v>3729.3879999999999</v>
+      </c>
+      <c r="O198">
+        <v>1718.69</v>
+      </c>
+      <c r="P198">
+        <v>360.28</v>
+      </c>
+      <c r="Q198">
+        <v>162.4709</v>
+      </c>
+      <c r="R198">
+        <v>5.2951499999999996</v>
+      </c>
+      <c r="S198">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T198">
+        <v>5362.12</v>
+      </c>
+      <c r="U198">
+        <v>1746.35</v>
+      </c>
+      <c r="V198">
+        <v>2612.866</v>
+      </c>
+      <c r="W198">
+        <v>122.3125</v>
+      </c>
+      <c r="X198">
+        <v>353.03</v>
+      </c>
+      <c r="Y198">
+        <v>1192.8979999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15878,32 +15952,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y193"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:Y193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -15980,7 +16054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>39447</v>
       </c>
@@ -16057,7 +16131,7 @@
         <v>1174.52</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>39478</v>
       </c>
@@ -16134,7 +16208,7 @@
         <v>1175.0899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>39507</v>
       </c>
@@ -16211,7 +16285,7 @@
         <v>1169.46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39538</v>
       </c>
@@ -16288,7 +16362,7 @@
         <v>1141.77</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39568</v>
       </c>
@@ -16365,7 +16439,7 @@
         <v>1146.51</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39598</v>
       </c>
@@ -16442,7 +16516,7 @@
         <v>1160.96</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39629</v>
       </c>
@@ -16519,7 +16593,7 @@
         <v>1160.32</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39660</v>
       </c>
@@ -16596,7 +16670,7 @@
         <v>1147.95</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39689</v>
       </c>
@@ -16673,7 +16747,7 @@
         <v>1156.26</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39721</v>
       </c>
@@ -16750,7 +16824,7 @@
         <v>1113.49</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39752</v>
       </c>
@@ -16827,7 +16901,7 @@
         <v>1064.58</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39780</v>
       </c>
@@ -16904,7 +16978,7 @@
         <v>1045.5999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39813</v>
       </c>
@@ -16981,7 +17055,7 @@
         <v>1020.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39843</v>
       </c>
@@ -17058,7 +17132,7 @@
         <v>1023.76</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39871</v>
       </c>
@@ -17135,7 +17209,7 @@
         <v>1021.84</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39903</v>
       </c>
@@ -17212,7 +17286,7 @@
         <v>1015.49</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39933</v>
       </c>
@@ -17289,7 +17363,7 @@
         <v>1010.4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39962</v>
       </c>
@@ -17366,7 +17440,7 @@
         <v>1006.6</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39994</v>
       </c>
@@ -17443,7 +17517,7 @@
         <v>994.61</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>40025</v>
       </c>
@@ -17520,7 +17594,7 @@
         <v>988.83</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>40056</v>
       </c>
@@ -17597,7 +17671,7 @@
         <v>983.18</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>40086</v>
       </c>
@@ -17674,7 +17748,7 @@
         <v>982.21</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>40116</v>
       </c>
@@ -17751,7 +17825,7 @@
         <v>976.26</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>40147</v>
       </c>
@@ -17828,7 +17902,7 @@
         <v>982.75</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40178</v>
       </c>
@@ -17905,7 +17979,7 @@
         <v>984.28</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40207</v>
       </c>
@@ -17982,7 +18056,7 @@
         <v>985.57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>40235</v>
       </c>
@@ -18059,7 +18133,7 @@
         <v>987.78</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>40268</v>
       </c>
@@ -18136,7 +18210,7 @@
         <v>971.42</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>40298</v>
       </c>
@@ -18213,7 +18287,7 @@
         <v>977.05</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40329</v>
       </c>
@@ -18290,7 +18364,7 @@
         <v>970.98</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>40359</v>
       </c>
@@ -18367,7 +18441,7 @@
         <v>964.77</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40389</v>
       </c>
@@ -18444,7 +18518,7 @@
         <v>971.39</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40421</v>
       </c>
@@ -18521,7 +18595,7 @@
         <v>963.26</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40451</v>
       </c>
@@ -18598,7 +18672,7 @@
         <v>976.53</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40480</v>
       </c>
@@ -18675,7 +18749,7 @@
         <v>982.52</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40512</v>
       </c>
@@ -18752,7 +18826,7 @@
         <v>978.64</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40543</v>
       </c>
@@ -18829,7 +18903,7 @@
         <v>983.07</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40574</v>
       </c>
@@ -18906,7 +18980,7 @@
         <v>986.17</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40602</v>
       </c>
@@ -18983,7 +19057,7 @@
         <v>987.89</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40633</v>
       </c>
@@ -19060,7 +19134,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40662</v>
       </c>
@@ -19137,7 +19211,7 @@
         <v>988.91</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40694</v>
       </c>
@@ -19214,7 +19288,7 @@
         <v>981.82</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40724</v>
       </c>
@@ -19291,7 +19365,7 @@
         <v>968.5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40753</v>
       </c>
@@ -19368,7 +19442,7 @@
         <v>962.9</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40786</v>
       </c>
@@ -19445,7 +19519,7 @@
         <v>953.87</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40816</v>
       </c>
@@ -19522,7 +19596,7 @@
         <v>945.45</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40847</v>
       </c>
@@ -19599,7 +19673,7 @@
         <v>953.56</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40877</v>
       </c>
@@ -19676,7 +19750,7 @@
         <v>947.78</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40907</v>
       </c>
@@ -19753,7 +19827,7 @@
         <v>946.55</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40939</v>
       </c>
@@ -19830,7 +19904,7 @@
         <v>951.83</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40968</v>
       </c>
@@ -19907,7 +19981,7 @@
         <v>956.32</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40998</v>
       </c>
@@ -19984,7 +20058,7 @@
         <v>952.02</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>41029</v>
       </c>
@@ -20061,7 +20135,7 @@
         <v>949.37</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>41060</v>
       </c>
@@ -20138,7 +20212,7 @@
         <v>947.08</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41089</v>
       </c>
@@ -20215,7 +20289,7 @@
         <v>947.75</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41121</v>
       </c>
@@ -20292,7 +20366,7 @@
         <v>945.54</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>41152</v>
       </c>
@@ -20369,7 +20443,7 @@
         <v>948.05</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>41180</v>
       </c>
@@ -20446,7 +20520,7 @@
         <v>946.65</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>41213</v>
       </c>
@@ -20523,7 +20597,7 @@
         <v>944.09</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>41243</v>
       </c>
@@ -20600,7 +20674,7 @@
         <v>949.92</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>41274</v>
       </c>
@@ -20677,7 +20751,7 @@
         <v>954.86</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41305</v>
       </c>
@@ -20754,7 +20828,7 @@
         <v>957.4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41333</v>
       </c>
@@ -20831,7 +20905,7 @@
         <v>960.14</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41362</v>
       </c>
@@ -20908,7 +20982,7 @@
         <v>961.61</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41394</v>
       </c>
@@ -20985,7 +21059,7 @@
         <v>962.97</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41425</v>
       </c>
@@ -21062,7 +21136,7 @@
         <v>971.45</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41453</v>
       </c>
@@ -21139,7 +21213,7 @@
         <v>971.23</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41486</v>
       </c>
@@ -21216,7 +21290,7 @@
         <v>977.25</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41516</v>
       </c>
@@ -21293,7 +21367,7 @@
         <v>970.23</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41547</v>
       </c>
@@ -21370,7 +21444,7 @@
         <v>972.33</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41578</v>
       </c>
@@ -21447,7 +21521,7 @@
         <v>981.77</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41607</v>
       </c>
@@ -21524,7 +21598,7 @@
         <v>986.18</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41639</v>
       </c>
@@ -21601,7 +21675,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41670</v>
       </c>
@@ -21678,7 +21752,7 @@
         <v>995.73</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41698</v>
       </c>
@@ -21755,7 +21829,7 @@
         <v>1001.92</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41729</v>
       </c>
@@ -21832,7 +21906,7 @@
         <v>1001.99</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41759</v>
       </c>
@@ -21909,7 +21983,7 @@
         <v>999.33</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41789</v>
       </c>
@@ -21986,7 +22060,7 @@
         <v>1000.28</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41820</v>
       </c>
@@ -22063,7 +22137,7 @@
         <v>1007.02</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41851</v>
       </c>
@@ -22140,7 +22214,7 @@
         <v>1001.15</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41880</v>
       </c>
@@ -22217,7 +22291,7 @@
         <v>1008.67</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41912</v>
       </c>
@@ -22294,7 +22368,7 @@
         <v>1006.78</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41943</v>
       </c>
@@ -22371,7 +22445,7 @@
         <v>1003.23</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41971</v>
       </c>
@@ -22448,7 +22522,7 @@
         <v>1003.29</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42004</v>
       </c>
@@ -22525,7 +22599,7 @@
         <v>996.78</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42034</v>
       </c>
@@ -22602,7 +22676,7 @@
         <v>1002.84</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42062</v>
       </c>
@@ -22679,7 +22753,7 @@
         <v>1009.67</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42094</v>
       </c>
@@ -22756,7 +22830,7 @@
         <v>1013.49</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42124</v>
       </c>
@@ -22833,7 +22907,7 @@
         <v>1014.72</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42153</v>
       </c>
@@ -22910,7 +22984,7 @@
         <v>1020.72</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42185</v>
       </c>
@@ -22987,7 +23061,7 @@
         <v>1016.84</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42216</v>
       </c>
@@ -23064,7 +23138,7 @@
         <v>1019.27</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42247</v>
       </c>
@@ -23141,7 +23215,7 @@
         <v>1020.55</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42277</v>
       </c>
@@ -23218,7 +23292,7 @@
         <v>1023.04</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42307</v>
       </c>
@@ -23295,7 +23369,7 @@
         <v>1034.8399999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42338</v>
       </c>
@@ -23372,7 +23446,7 @@
         <v>1029.6099999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42369</v>
       </c>
@@ -23449,7 +23523,7 @@
         <v>1025.31</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42398</v>
       </c>
@@ -23526,7 +23600,7 @@
         <v>1025.8699999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42429</v>
       </c>
@@ -23603,7 +23677,7 @@
         <v>1022.32</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42460</v>
       </c>
@@ -23680,7 +23754,7 @@
         <v>1019.4</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42489</v>
       </c>
@@ -23757,7 +23831,7 @@
         <v>1020.07</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42521</v>
       </c>
@@ -23834,7 +23908,7 @@
         <v>1024.72</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42551</v>
       </c>
@@ -23911,7 +23985,7 @@
         <v>1022.94</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42580</v>
       </c>
@@ -23988,7 +24062,7 @@
         <v>1029.23</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42613</v>
       </c>
@@ -24065,7 +24139,7 @@
         <v>1028.6300000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42643</v>
       </c>
@@ -24142,7 +24216,7 @@
         <v>1032.06</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42674</v>
       </c>
@@ -24219,7 +24293,7 @@
         <v>1028.01</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42704</v>
       </c>
@@ -24296,7 +24370,7 @@
         <v>1026.3800000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42734</v>
       </c>
@@ -24373,7 +24447,7 @@
         <v>1028.46</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42766</v>
       </c>
@@ -24450,7 +24524,7 @@
         <v>1031.5</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42794</v>
       </c>
@@ -24527,7 +24601,7 @@
         <v>1032.6099999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42825</v>
       </c>
@@ -24604,7 +24678,7 @@
         <v>1035.1500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42853</v>
       </c>
@@ -24681,7 +24755,7 @@
         <v>1038.31</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42886</v>
       </c>
@@ -24758,7 +24832,7 @@
         <v>1041.6099999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42916</v>
       </c>
@@ -24835,7 +24909,7 @@
         <v>1042.6300000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42947</v>
       </c>
@@ -24912,7 +24986,7 @@
         <v>1047.6300000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42978</v>
       </c>
@@ -24989,7 +25063,7 @@
         <v>1054.49</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>43007</v>
       </c>
@@ -25066,7 +25140,7 @@
         <v>1061.95</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43039</v>
       </c>
@@ -25143,7 +25217,7 @@
         <v>1066.3800000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43069</v>
       </c>
@@ -25220,7 +25294,7 @@
         <v>1060.29</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>43098</v>
       </c>
@@ -25297,7 +25371,7 @@
         <v>1063.28</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>43131</v>
       </c>
@@ -25374,7 +25448,7 @@
         <v>1071.8599999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43159</v>
       </c>
@@ -25451,7 +25525,7 @@
         <v>1068.06</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43189</v>
       </c>
@@ -25528,7 +25602,7 @@
         <v>1066.47</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43220</v>
       </c>
@@ -25605,7 +25679,7 @@
         <v>1067.4000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43251</v>
       </c>
@@ -25682,7 +25756,7 @@
         <v>1072.23</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43280</v>
       </c>
@@ -25759,7 +25833,7 @@
         <v>1074.3699999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43312</v>
       </c>
@@ -25836,7 +25910,7 @@
         <v>1073.81</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43343</v>
       </c>
@@ -25913,7 +25987,7 @@
         <v>1077.75</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43371</v>
       </c>
@@ -25990,7 +26064,7 @@
         <v>1073.93</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43404</v>
       </c>
@@ -26067,7 +26141,7 @@
         <v>1072.71</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43434</v>
       </c>
@@ -26144,7 +26218,7 @@
         <v>1068.3699999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43465</v>
       </c>
@@ -26221,7 +26295,7 @@
         <v>1058.08</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43496</v>
       </c>
@@ -26298,7 +26372,7 @@
         <v>1071.04</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43524</v>
       </c>
@@ -26375,7 +26449,7 @@
         <v>1069.99</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43553</v>
       </c>
@@ -26452,7 +26526,7 @@
         <v>1064.01</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43585</v>
       </c>
@@ -26529,7 +26603,7 @@
         <v>1067.04</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43616</v>
       </c>
@@ -26606,7 +26680,7 @@
         <v>1067.57</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43644</v>
       </c>
@@ -26683,7 +26757,7 @@
         <v>1075.5999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43677</v>
       </c>
@@ -26760,7 +26834,7 @@
         <v>1078.04</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43707</v>
       </c>
@@ -26837,7 +26911,7 @@
         <v>1082.76</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43738</v>
       </c>
@@ -26914,7 +26988,7 @@
         <v>1087.17</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43769</v>
       </c>
@@ -26991,7 +27065,7 @@
         <v>1092.23</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43798</v>
       </c>
@@ -27068,7 +27142,7 @@
         <v>1097.28</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43830</v>
       </c>
@@ -27145,7 +27219,7 @@
         <v>1104.27</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43861</v>
       </c>
@@ -27222,7 +27296,7 @@
         <v>1104.3399999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43889</v>
       </c>
@@ -27299,7 +27373,7 @@
         <v>1100.98</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43921</v>
       </c>
@@ -27376,7 +27450,7 @@
         <v>1040.2</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43951</v>
       </c>
@@ -27453,7 +27527,7 @@
         <v>1061.3800000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43980</v>
       </c>
@@ -27530,7 +27604,7 @@
         <v>1075.1300000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44012</v>
       </c>
@@ -27607,7 +27681,7 @@
         <v>1089.92</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44043</v>
       </c>
@@ -27684,7 +27758,7 @@
         <v>1100.1400000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44074</v>
       </c>
@@ -27761,7 +27835,7 @@
         <v>1104.95</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44104</v>
       </c>
@@ -27838,7 +27912,7 @@
         <v>1109.43</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44134</v>
       </c>
@@ -27915,7 +27989,7 @@
         <v>1110.24</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44165</v>
       </c>
@@ -27992,7 +28066,7 @@
         <v>1119.74</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44196</v>
       </c>
@@ -28069,7 +28143,7 @@
         <v>1134.32</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44225</v>
       </c>
@@ -28146,7 +28220,7 @@
         <v>1132.45</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44253</v>
       </c>
@@ -28223,7 +28297,7 @@
         <v>1138.6600000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44286</v>
       </c>
@@ -28300,7 +28374,7 @@
         <v>1141.6400000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44316</v>
       </c>
@@ -28377,7 +28451,7 @@
         <v>1157.2</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44347</v>
       </c>
@@ -28454,7 +28528,7 @@
         <v>1155.47</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44377</v>
       </c>
@@ -28531,7 +28605,7 @@
         <v>1162.21</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44407</v>
       </c>
@@ -28608,7 +28682,7 @@
         <v>1156.17</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44439</v>
       </c>
@@ -28685,7 +28759,7 @@
         <v>1157.75</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44469</v>
       </c>
@@ -28762,7 +28836,7 @@
         <v>1154.97</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44498</v>
       </c>
@@ -28839,7 +28913,7 @@
         <v>1156.98</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44530</v>
       </c>
@@ -28916,7 +28990,7 @@
         <v>1147.25</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44561</v>
       </c>
@@ -28993,7 +29067,7 @@
         <v>1158.1099999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44592</v>
       </c>
@@ -29070,7 +29144,7 @@
         <v>1147.98</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44620</v>
       </c>
@@ -29147,7 +29221,7 @@
         <v>1147.68</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44651</v>
       </c>
@@ -29224,7 +29298,7 @@
         <v>1159.4100000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44680</v>
       </c>
@@ -29301,7 +29375,7 @@
         <v>1168.8800000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44712</v>
       </c>
@@ -29378,7 +29452,7 @@
         <v>1157.98</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44742</v>
       </c>
@@ -29455,7 +29529,7 @@
         <v>1147.06</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44771</v>
       </c>
@@ -29532,7 +29606,7 @@
         <v>1136.73</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44804</v>
       </c>
@@ -29609,7 +29683,7 @@
         <v>1142.8599999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44834</v>
       </c>
@@ -29686,7 +29760,7 @@
         <v>1171.55</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44865</v>
       </c>
@@ -29763,7 +29837,7 @@
         <v>1172.21</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44895</v>
       </c>
@@ -29840,7 +29914,7 @@
         <v>1162.29</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44925</v>
       </c>
@@ -29917,7 +29991,7 @@
         <v>1167.92</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44957</v>
       </c>
@@ -29994,7 +30068,7 @@
         <v>1168.94</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44985</v>
       </c>
@@ -30071,7 +30145,7 @@
         <v>1166.95</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>45016</v>
       </c>
@@ -30148,7 +30222,7 @@
         <v>1165.6300000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>45044</v>
       </c>
@@ -30225,7 +30299,7 @@
         <v>1168.26</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>45077</v>
       </c>
@@ -30302,7 +30376,7 @@
         <v>1161.44</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>45107</v>
       </c>
@@ -30379,7 +30453,7 @@
         <v>1170.99</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>45138</v>
       </c>
@@ -30456,7 +30530,7 @@
         <v>1168.9000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>45169</v>
       </c>
@@ -30533,7 +30607,7 @@
         <v>1177.27</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>45198</v>
       </c>
@@ -30610,7 +30684,7 @@
         <v>1186.586</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>45230</v>
       </c>
@@ -30685,6 +30759,83 @@
       </c>
       <c r="Y192">
         <v>1182.403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B193">
+        <v>120.27</v>
+      </c>
+      <c r="C193">
+        <v>4022.31</v>
+      </c>
+      <c r="D193">
+        <v>150.5694</v>
+      </c>
+      <c r="E193">
+        <v>4567.8</v>
+      </c>
+      <c r="F193">
+        <v>694.38</v>
+      </c>
+      <c r="G193">
+        <v>1809.02</v>
+      </c>
+      <c r="H193">
+        <v>2124.91</v>
+      </c>
+      <c r="I193">
+        <v>987.1</v>
+      </c>
+      <c r="J193">
+        <v>550.78459999999995</v>
+      </c>
+      <c r="K193">
+        <v>1533.7560000000001</v>
+      </c>
+      <c r="L193">
+        <v>1245.184</v>
+      </c>
+      <c r="M193">
+        <v>18864.810000000001</v>
+      </c>
+      <c r="N193">
+        <v>3729.3879999999999</v>
+      </c>
+      <c r="O193">
+        <v>1718.69</v>
+      </c>
+      <c r="P193">
+        <v>360.28</v>
+      </c>
+      <c r="Q193">
+        <v>162.4709</v>
+      </c>
+      <c r="R193">
+        <v>5.2951499999999996</v>
+      </c>
+      <c r="S193">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T193">
+        <v>5362.12</v>
+      </c>
+      <c r="U193">
+        <v>1746.35</v>
+      </c>
+      <c r="V193">
+        <v>2612.866</v>
+      </c>
+      <c r="W193">
+        <v>122.3125</v>
+      </c>
+      <c r="X193">
+        <v>353.03</v>
+      </c>
+      <c r="Y193">
+        <v>1192.8979999999999</v>
       </c>
     </row>
   </sheetData>
@@ -30693,33 +30844,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N185" sqref="A185:N185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -30793,7 +30944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>39447</v>
       </c>
@@ -30821,7 +30972,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>39478</v>
       </c>
@@ -30918,7 +31069,7 @@
         <v>2.7889345187057213E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>39507</v>
       </c>
@@ -31015,7 +31166,7 @@
         <v>4.917241076524359E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>39538</v>
       </c>
@@ -31112,7 +31263,7 @@
         <v>4.1504652890034244E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>39568</v>
       </c>
@@ -31209,7 +31360,7 @@
         <v>-1.4966933518969716E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>39598</v>
       </c>
@@ -31306,7 +31457,7 @@
         <v>-1.9302120141342805E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>39629</v>
       </c>
@@ -31403,7 +31554,7 @@
         <v>1.7655271810115725E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>39660</v>
       </c>
@@ -31500,7 +31651,7 @@
         <v>6.6386368665627415E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>39689</v>
       </c>
@@ -31597,7 +31748,7 @@
         <v>2.4767801857585203E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>39721</v>
       </c>
@@ -31694,7 +31845,7 @@
         <v>-1.2947777298233376E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>39752</v>
       </c>
@@ -31791,7 +31942,7 @@
         <v>-3.3841239694392788E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>39780</v>
       </c>
@@ -31888,7 +32039,7 @@
         <v>0.13680025018987618</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>39813</v>
       </c>
@@ -31985,7 +32136,7 @@
         <v>8.2806052269601027E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>39843</v>
       </c>
@@ -32082,7 +32233,7 @@
         <v>-8.2099303135888424E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>39871</v>
       </c>
@@ -32179,7 +32330,7 @@
         <v>-1.6291024120205666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>39903</v>
       </c>
@@ -32276,7 +32427,7 @@
         <v>5.1692258220114029E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>39933</v>
       </c>
@@ -32373,7 +32524,7 @@
         <v>-5.4922794679712506E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>39962</v>
       </c>
@@ -32470,7 +32621,7 @@
         <v>-2.8187810894973131E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>39994</v>
       </c>
@@ -32567,7 +32718,7 @@
         <v>6.7831876820640957E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40025</v>
       </c>
@@ -32664,7 +32815,7 @@
         <v>5.5801264828669872E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40056</v>
       </c>
@@ -32761,7 +32912,7 @@
         <v>1.6441959881617896E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40086</v>
       </c>
@@ -32858,7 +33009,7 @@
         <v>1.5488515043675211E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40116</v>
       </c>
@@ -32955,7 +33106,7 @@
         <v>-9.9956194496436668E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40147</v>
       </c>
@@ -33052,7 +33203,7 @@
         <v>2.6588897827835911E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40178</v>
       </c>
@@ -33149,7 +33300,7 @@
         <v>-5.6110653971239488E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40207</v>
       </c>
@@ -33246,7 +33397,7 @@
         <v>2.9847648304205388E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40235</v>
       </c>
@@ -33343,7 +33494,7 @@
         <v>3.2247662044500025E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40268</v>
       </c>
@@ -33440,7 +33591,7 @@
         <v>-1.2817422050787508E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>40298</v>
       </c>
@@ -33537,7 +33688,7 @@
         <v>2.5438560787984787E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>40329</v>
       </c>
@@ -33634,7 +33785,7 @@
         <v>3.5048027308089091E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>40359</v>
       </c>
@@ -33731,7 +33882,7 @@
         <v>3.9306668711891701E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>40389</v>
       </c>
@@ -33828,7 +33979,7 @@
         <v>9.7040808796398093E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>40421</v>
       </c>
@@ -33925,7 +34076,7 @@
         <v>6.0113283391193262E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>40451</v>
       </c>
@@ -34022,7 +34173,7 @@
         <v>-9.1003102378491851E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>40480</v>
       </c>
@@ -34119,7 +34270,7 @@
         <v>-2.0698531969665313E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>40512</v>
       </c>
@@ -34216,7 +34367,7 @@
         <v>-1.6837767752477695E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>40543</v>
       </c>
@@ -34313,7 +34464,7 @@
         <v>-3.9202225674747848E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>40574</v>
       </c>
@@ -34410,7 +34561,7 @@
         <v>-1.2146510228640217E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>40602</v>
       </c>
@@ -34507,7 +34658,7 @@
         <v>1.1001560775057984E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40633</v>
       </c>
@@ -34604,7 +34755,7 @@
         <v>-1.581444385872266E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40662</v>
       </c>
@@ -34701,7 +34852,7 @@
         <v>1.8253130185548194E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40694</v>
       </c>
@@ -34798,7 +34949,7 @@
         <v>3.0962962962963081E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40724</v>
       </c>
@@ -34895,7 +35046,7 @@
         <v>-1.4477654835464926E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40753</v>
       </c>
@@ -34992,7 +35143,7 @@
         <v>4.1409980680202629E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40786</v>
       </c>
@@ -35089,7 +35240,7 @@
         <v>7.1546081416920426E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40816</v>
       </c>
@@ -35186,7 +35337,7 @@
         <v>4.847613758860625E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40847</v>
       </c>
@@ -35283,7 +35434,7 @@
         <v>-2.5173692245381352E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40877</v>
       </c>
@@ -35380,7 +35531,7 @@
         <v>1.7993544057016919E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40907</v>
       </c>
@@ -35477,7 +35628,7 @@
         <v>2.4299886977269924E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>40939</v>
       </c>
@@ -35574,7 +35725,7 @@
         <v>4.3523570158769953E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>40968</v>
       </c>
@@ -35671,7 +35822,7 @@
         <v>-1.6113281250000111E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>40998</v>
       </c>
@@ -35768,7 +35919,7 @@
         <v>-2.7512406947890811E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41029</v>
       </c>
@@ -35865,7 +36016,7 @@
         <v>3.7285108283099166E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41060</v>
       </c>
@@ -35962,7 +36113,7 @@
         <v>5.1995572228030085E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41089</v>
       </c>
@@ -36059,7 +36210,7 @@
         <v>-1.163300499810016E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41121</v>
       </c>
@@ -36156,7 +36307,7 @@
         <v>2.0789590418453407E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41152</v>
       </c>
@@ -36253,7 +36404,7 @@
         <v>-2.8680688336519822E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41180</v>
       </c>
@@ -36350,7 +36501,7 @@
         <v>-1.3335657630959563E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41213</v>
       </c>
@@ -36447,7 +36598,7 @@
         <v>-3.2391048292113034E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41243</v>
       </c>
@@ -36544,7 +36695,7 @@
         <v>1.3903207752805624E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>41274</v>
       </c>
@@ -36641,7 +36792,7 @@
         <v>-1.7024490863135733E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>41305</v>
       </c>
@@ -36738,7 +36889,7 @@
         <v>-2.7249889168021402E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>41333</v>
       </c>
@@ -36835,7 +36986,7 @@
         <v>1.2669765746057937E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>41362</v>
       </c>
@@ -36932,7 +37083,7 @@
         <v>4.8604860486047841E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>41394</v>
       </c>
@@ -37029,7 +37180,7 @@
         <v>2.7110951869103062E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>41425</v>
       </c>
@@ -37126,7 +37277,7 @@
         <v>-4.9709302325581461E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>41453</v>
       </c>
@@ -37223,7 +37374,7 @@
         <v>-2.9856225145304394E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>41486</v>
       </c>
@@ -37320,7 +37471,7 @@
         <v>-1.3085703474805976E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>41516</v>
       </c>
@@ -37417,7 +37568,7 @@
         <v>-5.4953832390811641E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>41547</v>
       </c>
@@ -37514,7 +37665,7 @@
         <v>1.1147878047996995E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>41578</v>
       </c>
@@ -37611,7 +37762,7 @@
         <v>1.0834339454788067E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>41607</v>
       </c>
@@ -37708,7 +37859,7 @@
         <v>-1.9236209335219301E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>41639</v>
       </c>
@@ -37805,7 +37956,7 @@
         <v>-1.8587956286254426E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>41670</v>
       </c>
@@ -37902,7 +38053,7 @@
         <v>4.1210854586422041E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>41698</v>
       </c>
@@ -37999,7 +38150,7 @@
         <v>7.3388740787203588E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>41729</v>
       </c>
@@ -38096,7 +38247,7 @@
         <v>1.2142345652106368E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>41759</v>
       </c>
@@ -38193,7 +38344,7 @@
         <v>1.2936127868648617E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>41789</v>
       </c>
@@ -38290,7 +38441,7 @@
         <v>2.431386995763507E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>41820</v>
       </c>
@@ -38387,7 +38538,7 @@
         <v>-2.0080321285140812E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>41851</v>
       </c>
@@ -38484,7 +38635,7 @@
         <v>1.6216703204299243E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>41880</v>
       </c>
@@ -38581,7 +38732,7 @@
         <v>3.0072257368152888E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>41912</v>
       </c>
@@ -38678,7 +38829,7 @@
         <v>-1.560135056467582E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>41943</v>
       </c>
@@ -38775,7 +38926,7 @@
         <v>2.3122412773506795E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>41971</v>
       </c>
@@ -38872,7 +39023,7 @@
         <v>2.1154846540662353E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42004</v>
       </c>
@@ -38969,7 +39120,7 @@
         <v>1.3612950699043447E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42034</v>
       </c>
@@ -39066,7 +39217,7 @@
         <v>4.6488901298338714E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42062</v>
       </c>
@@ -39163,7 +39314,7 @@
         <v>-3.3404482390608448E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42094</v>
       </c>
@@ -39260,7 +39411,7 @@
         <v>1.2559346361930013E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42124</v>
       </c>
@@ -39357,7 +39508,7 @@
         <v>-2.6088378813074131E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42153</v>
       </c>
@@ -39454,7 +39605,7 @@
         <v>-1.5227005542182148E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42185</v>
       </c>
@@ -39551,7 +39702,7 @@
         <v>-3.0725939400830016E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42216</v>
       </c>
@@ -39648,7 +39799,7 @@
         <v>3.3811325181079877E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42247</v>
       </c>
@@ -39745,7 +39896,7 @@
         <v>1.2197197481136346E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>42277</v>
       </c>
@@ -39842,7 +39993,7 @@
         <v>1.7621894211972577E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>42307</v>
       </c>
@@ -39939,7 +40090,7 @@
         <v>-5.7351262562989058E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>42338</v>
       </c>
@@ -40036,7 +40187,7 @@
         <v>-6.4962338644191098E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>42369</v>
       </c>
@@ -40133,7 +40284,7 @@
         <v>-1.4092049265804762E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>42398</v>
       </c>
@@ -40230,7 +40381,7 @@
         <v>4.7585447771725464E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>42429</v>
       </c>
@@ -40327,7 +40478,7 @@
         <v>3.0282619823800427E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>42460</v>
       </c>
@@ -40424,7 +40575,7 @@
         <v>-2.8764938155390052E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>42489</v>
       </c>
@@ -40521,7 +40672,7 @@
         <v>-6.6701543290609289E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>42521</v>
       </c>
@@ -40618,7 +40769,7 @@
         <v>8.6899275839369405E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>42551</v>
       </c>
@@ -40715,7 +40866,7 @@
         <v>5.5554105208197369E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>42580</v>
       </c>
@@ -40812,7 +40963,7 @@
         <v>1.2366136571612341E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>42613</v>
       </c>
@@ -40909,7 +41060,7 @@
         <v>-1.4780250653506966E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>42643</v>
       </c>
@@ -41006,7 +41157,7 @@
         <v>-1.2745487006546319E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>42674</v>
       </c>
@@ -41103,7 +41254,7 @@
         <v>-3.2074144773195368E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>42704</v>
       </c>
@@ -41200,7 +41351,7 @@
         <v>-6.1732880089264919E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>42734</v>
       </c>
@@ -41297,7 +41448,7 @@
         <v>-3.7059571878974573E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>42766</v>
       </c>
@@ -41394,7 +41545,7 @@
         <v>1.721074838996195E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>42794</v>
       </c>
@@ -41491,7 +41642,7 @@
         <v>1.4049769993903505E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>42825</v>
       </c>
@@ -41588,7 +41739,7 @@
         <v>-4.7276801574072103E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>42853</v>
       </c>
@@ -41685,7 +41836,7 @@
         <v>1.471718835804503E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>42886</v>
       </c>
@@ -41782,7 +41933,7 @@
         <v>1.458491178698984E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>42916</v>
       </c>
@@ -41879,7 +42030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>42947</v>
       </c>
@@ -41976,7 +42127,7 @@
         <v>-3.7338311774902655E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>42978</v>
       </c>
@@ -42073,7 +42224,7 @@
         <v>2.9340115111765375E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43007</v>
       </c>
@@ -42170,7 +42321,7 @@
         <v>-2.0207536865101017E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43039</v>
       </c>
@@ -42267,7 +42418,7 @@
         <v>-1.3006317354143926E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43069</v>
       </c>
@@ -42364,7 +42515,7 @@
         <v>3.2159468438537342E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43098</v>
       </c>
@@ -42461,7 +42612,7 @@
         <v>9.5109415567213862E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43131</v>
       </c>
@@ -42558,7 +42709,7 @@
         <v>-3.2620391024799966E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43159</v>
       </c>
@@ -42655,7 +42806,7 @@
         <v>-2.1648309912647212E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43189</v>
       </c>
@@ -42752,7 +42903,7 @@
         <v>2.3624667258207666E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43220</v>
       </c>
@@ -42849,7 +43000,7 @@
         <v>-1.7417921768338895E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43251</v>
       </c>
@@ -42946,7 +43097,7 @@
         <v>1.648609158327119E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>43280</v>
       </c>
@@ -43043,7 +43194,7 @@
         <v>6.7803965175894376E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>43312</v>
       </c>
@@ -43140,7 +43291,7 @@
         <v>-1.2277753686036341E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>43343</v>
       </c>
@@ -43237,7 +43388,7 @@
         <v>1.5778064374502687E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>43371</v>
       </c>
@@ -43334,7 +43485,7 @@
         <v>-2.4177427197579537E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>43404</v>
       </c>
@@ -43431,7 +43582,7 @@
         <v>-1.4865874927331602E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>43434</v>
       </c>
@@ -43528,7 +43679,7 @@
         <v>1.9417748552801539E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>43465</v>
       </c>
@@ -43625,7 +43776,7 @@
         <v>4.5703889516773843E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>43496</v>
       </c>
@@ -43722,7 +43873,7 @@
         <v>6.8011071569789028E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>43524</v>
       </c>
@@ -43819,7 +43970,7 @@
         <v>-9.0330688869687537E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>43553</v>
       </c>
@@ -43916,7 +44067,7 @@
         <v>3.7914817163390291E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>43585</v>
       </c>
@@ -44013,7 +44164,7 @@
         <v>-1.2524501692844137E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>43616</v>
       </c>
@@ -44110,7 +44261,7 @@
         <v>4.8825758552241583E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>43644</v>
       </c>
@@ -44207,7 +44358,7 @@
         <v>1.3960919257711479E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>43677</v>
       </c>
@@ -44304,7 +44455,7 @@
         <v>1.9392529028192662E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>43707</v>
       </c>
@@ -44401,7 +44552,7 @@
         <v>6.8831200251614932E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>43738</v>
       </c>
@@ -44498,7 +44649,7 @@
         <v>-1.6139254832722161E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>43769</v>
       </c>
@@ -44595,7 +44746,7 @@
         <v>-4.325319222362789E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>43798</v>
       </c>
@@ -44692,7 +44843,7 @@
         <v>-8.8499664949048817E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>43830</v>
       </c>
@@ -44789,7 +44940,7 @@
         <v>-1.7904602042243645E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>43861</v>
       </c>
@@ -44886,7 +45037,7 @@
         <v>5.0277738213929668E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>43889</v>
       </c>
@@ -44983,7 +45134,7 @@
         <v>4.8594159660066971E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>43921</v>
       </c>
@@ -45080,7 +45231,7 @@
         <v>5.2269690046126582E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>43951</v>
       </c>
@@ -45177,7 +45328,7 @@
         <v>1.1122718613654436E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>43980</v>
       </c>
@@ -45274,7 +45425,7 @@
         <v>-5.8952230460678212E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44012</v>
       </c>
@@ -45371,7 +45522,7 @@
         <v>1.2023394673026377E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44043</v>
       </c>
@@ -45468,7 +45619,7 @@
         <v>2.0944433136576457E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44074</v>
       </c>
@@ -45565,7 +45716,7 @@
         <v>-2.6874538966087713E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44104</v>
       </c>
@@ -45662,7 +45813,7 @@
         <v>3.2779496424986121E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44134</v>
       </c>
@@ -45759,7 +45910,7 @@
         <v>-2.1543362398153909E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44165</v>
       </c>
@@ -45856,7 +46007,7 @@
         <v>7.3044494532097382E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44196</v>
       </c>
@@ -45953,7 +46104,7 @@
         <v>-9.758422077653095E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44225</v>
       </c>
@@ -46050,7 +46201,7 @@
         <v>-2.5734909509362969E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44253</v>
       </c>
@@ -46147,7 +46298,7 @@
         <v>-4.7095457961988552E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44286</v>
       </c>
@@ -46244,7 +46395,7 @@
         <v>-2.9004777787794089E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44316</v>
       </c>
@@ -46341,7 +46492,7 @@
         <v>1.7198560984101219E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44347</v>
       </c>
@@ -46438,7 +46589,7 @@
         <v>5.3392963081275724E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44377</v>
       </c>
@@ -46535,7 +46686,7 @@
         <v>2.6985928279618765E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44407</v>
       </c>
@@ -46632,7 +46783,7 @@
         <v>2.4729828283498012E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44439</v>
       </c>
@@ -46729,7 +46880,7 @@
         <v>-1.0567632850241315E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44469</v>
       </c>
@@ -46826,7 +46977,7 @@
         <v>-2.2992724367969952E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44498</v>
       </c>
@@ -46923,7 +47074,7 @@
         <v>1.0253237282892069E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44530</v>
       </c>
@@ -47020,7 +47171,7 @@
         <v>1.7957915919331491E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44561</v>
       </c>
@@ -47117,7 +47268,7 @@
         <v>-1.0356904961430158E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>44592</v>
       </c>
@@ -47214,7 +47365,7 @@
         <v>-2.9897735414811999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>44620</v>
       </c>
@@ -47311,7 +47462,7 @@
         <v>-3.7153088630260678E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44651</v>
       </c>
@@ -47408,7 +47559,7 @@
         <v>-4.1919396145032928E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>44680</v>
       </c>
@@ -47505,7 +47656,7 @@
         <v>-6.1902082160945504E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>44712</v>
       </c>
@@ -47602,7 +47753,7 @@
         <v>-1.1997600479902726E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44742</v>
       </c>
@@ -47699,7 +47850,7 @@
         <v>-4.6046046046046563E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>44771</v>
       </c>
@@ -47796,7 +47947,7 @@
         <v>4.0552091713596194E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>44804</v>
       </c>
@@ -47893,7 +48044,7 @@
         <v>-5.0689796805914566E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>44834</v>
       </c>
@@ -47990,7 +48141,7 @@
         <v>-6.7063704156168136E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>45230</v>
       </c>
@@ -48085,6 +48236,103 @@
       <c r="X180" s="6">
         <f>data!X180/data!X179-1</f>
         <v>-4.3730903535574073E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B181" s="6">
+        <f>data!B181/data!B180-1</f>
+        <v>9.7142857142857197E-2</v>
+      </c>
+      <c r="C181" s="6">
+        <f>data!C181/data!C180-1</f>
+        <v>9.0778908182399976E-2</v>
+      </c>
+      <c r="D181" s="6">
+        <f>data!D181/data!D180-1</f>
+        <v>6.3209551196352187E-2</v>
+      </c>
+      <c r="E181" s="6">
+        <f>data!E181/data!E180-1</f>
+        <v>5.3752860293699856E-2</v>
+      </c>
+      <c r="F181" s="6">
+        <f>data!F181/data!F180-1</f>
+        <v>7.5975919641182221E-2</v>
+      </c>
+      <c r="G181" s="6">
+        <f>data!G181/data!G180-1</f>
+        <v>2.1503489971914425E-2</v>
+      </c>
+      <c r="H181" s="6">
+        <f>data!H181/data!H180-1</f>
+        <v>0.1108742857142857</v>
+      </c>
+      <c r="I181" s="6">
+        <f>data!I181/data!I180-1</f>
+        <v>0.14635210337672144</v>
+      </c>
+      <c r="J181" s="6">
+        <f>data!J181/data!J180-1</f>
+        <v>1.1098824631397219E-2</v>
+      </c>
+      <c r="K181" s="6">
+        <f>data!K181/data!K180-1</f>
+        <v>1.8717946868440638E-2</v>
+      </c>
+      <c r="L181" s="6">
+        <f>data!L181/data!L180-1</f>
+        <v>-2.3904044647606093E-2</v>
+      </c>
+      <c r="M181" s="6">
+        <f>data!M181/data!M180-1</f>
+        <v>-2.4224853325417239E-2</v>
+      </c>
+      <c r="N181" s="6">
+        <f>data!N181/data!N180-1</f>
+        <v>-6.0326411824145332E-2</v>
+      </c>
+      <c r="O181" s="6">
+        <f>data!O181/data!O180-1</f>
+        <v>0</v>
+      </c>
+      <c r="P181" s="6">
+        <f>data!P181/data!P180-1</f>
+        <v>5.8261854669040103E-2</v>
+      </c>
+      <c r="Q181" s="6">
+        <f>data!Q181/data!Q180-1</f>
+        <v>0</v>
+      </c>
+      <c r="R181" s="6">
+        <f>data!R181/data!R180-1</f>
+        <v>4.3759978410062406E-2</v>
+      </c>
+      <c r="S181" s="6">
+        <f>data!S181/data!S180-1</f>
+        <v>5.3403920302509622E-2</v>
+      </c>
+      <c r="T181" s="6">
+        <f>data!T181/data!T180-1</f>
+        <v>1.8202090877472932E-2</v>
+      </c>
+      <c r="U181" s="6">
+        <f>data!U181/data!U180-1</f>
+        <v>7.4550888150162864E-2</v>
+      </c>
+      <c r="V181" s="6">
+        <f>data!V181/data!V180-1</f>
+        <v>5.0154754923504186E-2</v>
+      </c>
+      <c r="W181" s="6">
+        <f>data!W181/data!W180-1</f>
+        <v>6.4381884944920476E-2</v>
+      </c>
+      <c r="X181" s="6">
+        <f>data!X181/data!X180-1</f>
+        <v>5.8625509942087817E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvg9hxp\Documents\Projects\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FA7638-9CA6-4543-80A6-3FD984D7E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="1515" yWindow="1350" windowWidth="19155" windowHeight="12150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bbg" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="SpreadsheetBuilder_11" hidden="1">bbg!$A$1:$Y$7</definedName>
     <definedName name="SpreadsheetBuilder_9" hidden="1">bbg!$A$1:$Q$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -132,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
@@ -196,359 +199,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17236690565707920910</stp>
-        <tr r="R7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13297851655590193145</stp>
-        <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12926881264240898362</stp>
-        <tr r="Y7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14913224394640073269</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14837846873736313046</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11971190572452601512</stp>
-        <tr r="M7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12055499512048169900</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17448202811811406212</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|18075417015289167059</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15548123227067243483</stp>
-        <tr r="A7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12058450981862031989</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C9</stp>
-        <stp>PX_LAST</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C8</stp>
-        <stp>PX_LAST</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C7</stp>
-        <stp>PX_LAST</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C6</stp>
-        <stp>PX_LAST</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C5</stp>
-        <stp>PX_LAST</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C4</stp>
-        <stp>PX_LAST</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C3</stp>
-        <stp>PX_LAST</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C2</stp>
-        <stp>PX_LAST</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6547989470101314558</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7925042130241954952</stp>
-        <tr r="T7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7802926848347401096</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3942950741802448155</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4823383110640400848</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C20</stp>
-        <stp>PX_LAST</stp>
-        <tr r="T5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C21</stp>
-        <stp>PX_LAST</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C22</stp>
-        <stp>PX_LAST</stp>
-        <tr r="V5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C23</stp>
-        <stp>PX_LAST</stp>
-        <tr r="W5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C24</stp>
-        <stp>PX_LAST</stp>
-        <tr r="X5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C25</stp>
-        <stp>PX_LAST</stp>
-        <tr r="Y5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C10</stp>
-        <stp>PX_LAST</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C11</stp>
-        <stp>PX_LAST</stp>
-        <tr r="K5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C12</stp>
-        <stp>PX_LAST</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C13</stp>
-        <stp>PX_LAST</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C14</stp>
-        <stp>PX_LAST</stp>
-        <tr r="N5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C15</stp>
-        <stp>PX_LAST</stp>
-        <tr r="O5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C16</stp>
-        <stp>PX_LAST</stp>
-        <tr r="P5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C17</stp>
-        <stp>PX_LAST</stp>
-        <tr r="Q5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C18</stp>
-        <stp>PX_LAST</stp>
-        <tr r="R5" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[index_data.xlsx]bbg!R5C19</stp>
-        <stp>PX_LAST</stp>
-        <tr r="S5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8933502120889095924</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2503271317151895933</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2997792379889335131</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5345391822715725709</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5902682273164826096</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5406525454397911320</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3235266235923597252</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|539207429269322929</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y197"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:Y195"/>
+    <sheetView topLeftCell="J172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:Y197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45169</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -963,101 +613,101 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f>_xll.BFieldInfo(B$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="C5" t="str">
-        <f>_xll.BFieldInfo(C$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="D5" t="str">
-        <f>_xll.BFieldInfo(D$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="E5" t="str">
-        <f>_xll.BFieldInfo(E$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="F5" t="str">
-        <f>_xll.BFieldInfo(F$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xll.BFieldInfo(G$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="H5" t="str">
-        <f>_xll.BFieldInfo(H$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="I5" t="str">
-        <f>_xll.BFieldInfo(I$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="J5" t="str">
-        <f>_xll.BFieldInfo(J$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="K5" t="str">
-        <f>_xll.BFieldInfo(K$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="L5" t="str">
-        <f>_xll.BFieldInfo(L$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="M5" t="str">
-        <f>_xll.BFieldInfo(M$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="N5" t="str">
-        <f>_xll.BFieldInfo(N$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="O5" t="str">
-        <f>_xll.BFieldInfo(O$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="P5" t="str">
-        <f>_xll.BFieldInfo(P$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="Q5" t="str">
-        <f>_xll.BFieldInfo(Q$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="R5" t="str">
-        <f>_xll.BFieldInfo(R$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="S5" t="str">
-        <f>_xll.BFieldInfo(S$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="T5" t="str">
-        <f>_xll.BFieldInfo(T$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="U5" t="str">
-        <f>_xll.BFieldInfo(U$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="V5" t="str">
-        <f>_xll.BFieldInfo(V$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="W5" t="str">
-        <f>_xll.BFieldInfo(W$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="X5" t="str">
-        <f>_xll.BFieldInfo(X$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="Y5" t="str">
-        <f>_xll.BFieldInfo(Y$6)</f>
-        <v>Last Price</v>
+      <c r="B5" t="e">
+        <f ca="1">_xll.BFieldInfo(B$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" t="e">
+        <f ca="1">_xll.BFieldInfo(C$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" t="e">
+        <f ca="1">_xll.BFieldInfo(D$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e">
+        <f ca="1">_xll.BFieldInfo(E$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <f ca="1">_xll.BFieldInfo(F$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">_xll.BFieldInfo(G$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" t="e">
+        <f ca="1">_xll.BFieldInfo(H$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" t="e">
+        <f ca="1">_xll.BFieldInfo(I$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" t="e">
+        <f ca="1">_xll.BFieldInfo(J$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" t="e">
+        <f ca="1">_xll.BFieldInfo(K$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L5" t="e">
+        <f ca="1">_xll.BFieldInfo(L$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M5" t="e">
+        <f ca="1">_xll.BFieldInfo(M$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" t="e">
+        <f ca="1">_xll.BFieldInfo(N$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" t="e">
+        <f ca="1">_xll.BFieldInfo(O$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P5" t="e">
+        <f ca="1">_xll.BFieldInfo(P$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q5" t="e">
+        <f ca="1">_xll.BFieldInfo(Q$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R5" t="e">
+        <f ca="1">_xll.BFieldInfo(R$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S5" t="e">
+        <f ca="1">_xll.BFieldInfo(S$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T5" t="e">
+        <f ca="1">_xll.BFieldInfo(T$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U5" t="e">
+        <f ca="1">_xll.BFieldInfo(U$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V5" t="e">
+        <f ca="1">_xll.BFieldInfo(V$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W5" t="e">
+        <f ca="1">_xll.BFieldInfo(W$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X5" t="e">
+        <f ca="1">_xll.BFieldInfo(X$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y5" t="e">
+        <f ca="1">_xll.BFieldInfo(Y$6)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1138,104 +788,104 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=189")</f>
-        <v>39447</v>
+      <c r="A7" s="1" t="e">
+        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=191")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1902.17</v>
-      </c>
-      <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>#N/A N/A</v>
-      </c>
-      <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1468.36</v>
-      </c>
-      <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>403.25</v>
-      </c>
-      <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>766.03700000000003</v>
-      </c>
-      <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>2253.36</v>
-      </c>
-      <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1245.5899999999999</v>
-      </c>
-      <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>270.02620000000002</v>
-      </c>
-      <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>590.78</v>
-      </c>
-      <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1294.818</v>
-      </c>
-      <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>12335.221</v>
-      </c>
-      <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1915.1320000000001</v>
-      </c>
-      <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1389.21</v>
-      </c>
-      <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>255.67</v>
-      </c>
-      <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>141.76349999999999</v>
-      </c>
-      <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>3.1589900000000002</v>
-      </c>
-      <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>3.33792826</v>
-      </c>
-      <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1412.28</v>
-      </c>
-      <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>996.96</v>
-      </c>
-      <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>849.221</v>
-      </c>
-      <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>#N/A N/A</v>
-      </c>
-      <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>221.59</v>
-      </c>
-      <c r="Y7">
-        <f>_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=189")</f>
-        <v>1174.52</v>
+      <c r="C7" t="e">
+        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" t="e">
+        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" t="e">
+        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" t="e">
+        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" t="e">
+        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" t="e">
+        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" t="e">
+        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" t="e">
+        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" t="e">
+        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" t="e">
+        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P7" t="e">
+        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q7" t="e">
+        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R7" t="e">
+        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S7" t="e">
+        <f ca="1">_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T7" t="e">
+        <f ca="1">_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U7" t="e">
+        <f ca="1">_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V7" t="e">
+        <f ca="1">_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W7" t="e">
+        <f ca="1">_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X7" t="e">
+        <f ca="1">_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y7" t="e">
+        <f ca="1">_xll.BDH(Y$4,Y$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=191")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -14215,7 +13865,7 @@
         <v>17491.125</v>
       </c>
       <c r="N176">
-        <v>3145.7220000000002</v>
+        <v>3145.6610000000001</v>
       </c>
       <c r="O176">
         <v>1759.42</v>
@@ -14292,7 +13942,7 @@
         <v>17708.370999999999</v>
       </c>
       <c r="N177">
-        <v>3261.5569999999998</v>
+        <v>3261.4670000000001</v>
       </c>
       <c r="O177">
         <v>1779.61</v>
@@ -14369,7 +14019,7 @@
         <v>18513.787</v>
       </c>
       <c r="N178">
-        <v>3576.8649999999998</v>
+        <v>3576.799</v>
       </c>
       <c r="O178">
         <v>1708.65</v>
@@ -14446,7 +14096,7 @@
         <v>19027.263999999999</v>
       </c>
       <c r="N179">
-        <v>3829.3389999999999</v>
+        <v>3829.2640000000001</v>
       </c>
       <c r="O179">
         <v>1718.69</v>
@@ -14523,7 +14173,7 @@
         <v>18991.223000000002</v>
       </c>
       <c r="N180">
-        <v>3821.6329999999998</v>
+        <v>3821.616</v>
       </c>
       <c r="O180">
         <v>1718.69</v>
@@ -14600,7 +14250,7 @@
         <v>18830.867999999999</v>
       </c>
       <c r="N181">
-        <v>3919.7809999999999</v>
+        <v>3919.8330000000001</v>
       </c>
       <c r="O181">
         <v>1718.69</v>
@@ -14677,7 +14327,7 @@
         <v>18679.645</v>
       </c>
       <c r="N182">
-        <v>3747.0160000000001</v>
+        <v>3747.049</v>
       </c>
       <c r="O182">
         <v>1718.69</v>
@@ -14754,7 +14404,7 @@
         <v>18922.542000000001</v>
       </c>
       <c r="N183">
-        <v>3896.473</v>
+        <v>3896.4749999999999</v>
       </c>
       <c r="O183">
         <v>1718.69</v>
@@ -14831,7 +14481,7 @@
         <v>19166.885999999999</v>
       </c>
       <c r="N184">
-        <v>4120.9750000000004</v>
+        <v>4121.0169999999998</v>
       </c>
       <c r="O184">
         <v>1718.69</v>
@@ -14908,7 +14558,7 @@
         <v>19286.981</v>
       </c>
       <c r="N185">
-        <v>4128.7719999999999</v>
+        <v>4128.8620000000001</v>
       </c>
       <c r="O185">
         <v>1718.69</v>
@@ -14985,7 +14635,7 @@
         <v>18880.728999999999</v>
       </c>
       <c r="N186">
-        <v>3879.6979999999999</v>
+        <v>3879.7849999999999</v>
       </c>
       <c r="O186">
         <v>1718.69</v>
@@ -15062,7 +14712,7 @@
         <v>18910.451000000001</v>
       </c>
       <c r="N187">
-        <v>3870.6570000000002</v>
+        <v>3870.7959999999998</v>
       </c>
       <c r="O187">
         <v>1718.69</v>
@@ -15139,7 +14789,7 @@
         <v>18975.955000000002</v>
       </c>
       <c r="N188">
-        <v>3817.4569999999999</v>
+        <v>3817.56</v>
       </c>
       <c r="O188">
         <v>1718.69</v>
@@ -15216,7 +14866,7 @@
         <v>18958.985000000001</v>
       </c>
       <c r="N189">
-        <v>3888.33</v>
+        <v>3888.4470000000001</v>
       </c>
       <c r="O189">
         <v>1718.69</v>
@@ -15293,7 +14943,7 @@
         <v>18448.667000000001</v>
       </c>
       <c r="N190">
-        <v>3587.8829999999998</v>
+        <v>3588.002</v>
       </c>
       <c r="O190">
         <v>1718.69</v>
@@ -15370,7 +15020,7 @@
         <v>18601.562999999998</v>
       </c>
       <c r="N191">
-        <v>3691.1089999999999</v>
+        <v>3691.299</v>
       </c>
       <c r="O191">
         <v>1718.69</v>
@@ -15447,7 +15097,7 @@
         <v>18548.652999999998</v>
       </c>
       <c r="N192">
-        <v>3798.5059999999999</v>
+        <v>3798.7710000000002</v>
       </c>
       <c r="O192">
         <v>1718.69</v>
@@ -15524,7 +15174,7 @@
         <v>18754.213</v>
       </c>
       <c r="N193">
-        <v>3875.848</v>
+        <v>3876.1060000000002</v>
       </c>
       <c r="O193">
         <v>1718.69</v>
@@ -15601,7 +15251,7 @@
         <v>18878.060000000001</v>
       </c>
       <c r="N194">
-        <v>3815.0520000000001</v>
+        <v>3815.2689999999998</v>
       </c>
       <c r="O194">
         <v>1718.69</v>
@@ -15675,10 +15325,10 @@
         <v>1256.23</v>
       </c>
       <c r="M195">
-        <v>18785.47</v>
+        <v>18774.57</v>
       </c>
       <c r="N195">
-        <v>3778.9369999999999</v>
+        <v>3779.105</v>
       </c>
       <c r="O195">
         <v>1718.69</v>
@@ -15712,6 +15362,160 @@
       </c>
       <c r="Y195">
         <v>1177.27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B196">
+        <v>114.43</v>
+      </c>
+      <c r="C196">
+        <v>3787.56</v>
+      </c>
+      <c r="D196">
+        <v>146.2216</v>
+      </c>
+      <c r="E196">
+        <v>4288.05</v>
+      </c>
+      <c r="F196">
+        <v>656.82</v>
+      </c>
+      <c r="G196">
+        <v>1785.1020000000001</v>
+      </c>
+      <c r="H196">
+        <v>2031.26</v>
+      </c>
+      <c r="I196">
+        <v>952.78</v>
+      </c>
+      <c r="J196">
+        <v>544.12260000000003</v>
+      </c>
+      <c r="K196">
+        <v>1485.4169999999999</v>
+      </c>
+      <c r="L196">
+        <v>1264.0029999999999</v>
+      </c>
+      <c r="M196">
+        <v>19002.797999999999</v>
+      </c>
+      <c r="N196">
+        <v>3907.5450000000001</v>
+      </c>
+      <c r="O196">
+        <v>1718.69</v>
+      </c>
+      <c r="P196">
+        <v>360.28</v>
+      </c>
+      <c r="Q196">
+        <v>162.4709</v>
+      </c>
+      <c r="R196">
+        <v>5.3626800000000001</v>
+      </c>
+      <c r="S196">
+        <v>5.4027921179999998</v>
+      </c>
+      <c r="T196">
+        <v>5362.12</v>
+      </c>
+      <c r="U196">
+        <v>1657.17</v>
+      </c>
+      <c r="V196">
+        <v>2462.06</v>
+      </c>
+      <c r="W196">
+        <v>118.6875</v>
+      </c>
+      <c r="X196">
+        <v>342</v>
+      </c>
+      <c r="Y196">
+        <v>1186.586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B197">
+        <v>105.26</v>
+      </c>
+      <c r="C197">
+        <v>3628.5</v>
+      </c>
+      <c r="D197">
+        <v>138.67570000000001</v>
+      </c>
+      <c r="E197">
+        <v>4193.8</v>
+      </c>
+      <c r="F197">
+        <v>636.65</v>
+      </c>
+      <c r="G197">
+        <v>1662.2819999999999</v>
+      </c>
+      <c r="H197">
+        <v>1947.91</v>
+      </c>
+      <c r="I197">
+        <v>915.2</v>
+      </c>
+      <c r="J197">
+        <v>544.2876</v>
+      </c>
+      <c r="K197">
+        <v>1467.0319999999999</v>
+      </c>
+      <c r="L197">
+        <v>1267.6389999999999</v>
+      </c>
+      <c r="M197">
+        <v>18850.456999999999</v>
+      </c>
+      <c r="N197">
+        <v>3912.16</v>
+      </c>
+      <c r="O197">
+        <v>1718.69</v>
+      </c>
+      <c r="P197">
+        <v>360.28</v>
+      </c>
+      <c r="Q197">
+        <v>162.4709</v>
+      </c>
+      <c r="R197">
+        <v>5.3648400000000001</v>
+      </c>
+      <c r="S197">
+        <v>5.3976546809999997</v>
+      </c>
+      <c r="T197">
+        <v>5362.12</v>
+      </c>
+      <c r="U197">
+        <v>1600.93</v>
+      </c>
+      <c r="V197">
+        <v>2394.585</v>
+      </c>
+      <c r="W197">
+        <v>112.5625</v>
+      </c>
+      <c r="X197">
+        <v>330.52</v>
+      </c>
+      <c r="Y197">
+        <v>1182.403</v>
       </c>
     </row>
   </sheetData>
@@ -15720,11 +15524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30375,13 +30179,167 @@
         <v>1177.27</v>
       </c>
     </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B191">
+        <v>114.43</v>
+      </c>
+      <c r="C191">
+        <v>3787.56</v>
+      </c>
+      <c r="D191">
+        <v>146.2216</v>
+      </c>
+      <c r="E191">
+        <v>4288.05</v>
+      </c>
+      <c r="F191">
+        <v>656.82</v>
+      </c>
+      <c r="G191">
+        <v>1785.1020000000001</v>
+      </c>
+      <c r="H191">
+        <v>2031.26</v>
+      </c>
+      <c r="I191">
+        <v>952.78</v>
+      </c>
+      <c r="J191">
+        <v>544.12260000000003</v>
+      </c>
+      <c r="K191">
+        <v>1485.4169999999999</v>
+      </c>
+      <c r="L191">
+        <v>1264.0029999999999</v>
+      </c>
+      <c r="M191">
+        <v>19002.797999999999</v>
+      </c>
+      <c r="N191">
+        <v>3907.5450000000001</v>
+      </c>
+      <c r="O191">
+        <v>1718.69</v>
+      </c>
+      <c r="P191">
+        <v>360.28</v>
+      </c>
+      <c r="Q191">
+        <v>162.4709</v>
+      </c>
+      <c r="R191">
+        <v>5.3626800000000001</v>
+      </c>
+      <c r="S191">
+        <v>5.4027921179999998</v>
+      </c>
+      <c r="T191">
+        <v>5362.12</v>
+      </c>
+      <c r="U191">
+        <v>1657.17</v>
+      </c>
+      <c r="V191">
+        <v>2462.06</v>
+      </c>
+      <c r="W191">
+        <v>118.6875</v>
+      </c>
+      <c r="X191">
+        <v>342</v>
+      </c>
+      <c r="Y191">
+        <v>1186.586</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B192">
+        <v>105.26</v>
+      </c>
+      <c r="C192">
+        <v>3628.5</v>
+      </c>
+      <c r="D192">
+        <v>138.67570000000001</v>
+      </c>
+      <c r="E192">
+        <v>4193.8</v>
+      </c>
+      <c r="F192">
+        <v>636.65</v>
+      </c>
+      <c r="G192">
+        <v>1662.2819999999999</v>
+      </c>
+      <c r="H192">
+        <v>1947.91</v>
+      </c>
+      <c r="I192">
+        <v>915.2</v>
+      </c>
+      <c r="J192">
+        <v>544.2876</v>
+      </c>
+      <c r="K192">
+        <v>1467.0319999999999</v>
+      </c>
+      <c r="L192">
+        <v>1267.6389999999999</v>
+      </c>
+      <c r="M192">
+        <v>18850.456999999999</v>
+      </c>
+      <c r="N192">
+        <v>3912.16</v>
+      </c>
+      <c r="O192">
+        <v>1718.69</v>
+      </c>
+      <c r="P192">
+        <v>360.28</v>
+      </c>
+      <c r="Q192">
+        <v>162.4709</v>
+      </c>
+      <c r="R192">
+        <v>5.3648400000000001</v>
+      </c>
+      <c r="S192">
+        <v>5.3976546809999997</v>
+      </c>
+      <c r="T192">
+        <v>5362.12</v>
+      </c>
+      <c r="U192">
+        <v>1600.93</v>
+      </c>
+      <c r="V192">
+        <v>2394.585</v>
+      </c>
+      <c r="W192">
+        <v>112.5625</v>
+      </c>
+      <c r="X192">
+        <v>330.52</v>
+      </c>
+      <c r="Y192">
+        <v>1182.403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X179"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
   <si>
     <t>Start Date</t>
   </si>
@@ -124,10 +124,6 @@
   <si>
     <t>SPUSTBTR Index</t>
   </si>
-  <si>
-    <t>12/31
-/2022</t>
-  </si>
 </sst>
 </file>
 
@@ -208,74 +204,62 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16260322941572045888</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|18353857057369631726</stp>
+        <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15186403787347702677</stp>
+        <stp>BDH|12375187216603128887</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15637698320093187126</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10544755452679912856</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17008031545871345295</stp>
         <tr r="D7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17715390876150307109</stp>
-        <tr r="G7" s="1"/>
+        <stp>BDH|18051710263079419431</stp>
+        <tr r="I7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14406751109895676413</stp>
+        <stp>BDH|17906278738741851393</stp>
         <tr r="R7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17616552325801162125</stp>
-        <tr r="T7" s="1"/>
+        <stp>BDH|15076265050800807667</stp>
+        <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10209224655710149712</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17591541156537809071</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14289313393759269664</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10354867160237036826</stp>
+        <stp>BDH|14532257514907526562</stp>
         <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17339952999957269647</stp>
-        <tr r="W7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12836079640644446547</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13340564228128127892</stp>
-        <tr r="C7" s="1"/>
+        <stp>BDH|11680503742052798740</stp>
+        <tr r="T7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -342,14 +326,6 @@
         <stp>[index_data.xlsx]bbg!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2583946357844558468</stp>
-        <tr r="F7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -478,62 +454,80 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8715571147982884261</stp>
-        <tr r="A7" s="1"/>
+        <stp>BDH|4698709259818338682</stp>
+        <tr r="L7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5337857811456651135</stp>
+        <stp>BDH|3156902016925940470</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9021653845256816778</stp>
         <tr r="M7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1937304033633197694</stp>
+        <stp>BDH|9878140236898161867</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3127725000869849948</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7880740441696071762</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8987355549103844967</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7253797949649611807</stp>
         <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5148256585428118167</stp>
-        <tr r="L7" s="1"/>
+        <stp>BDH|7662456251601122105</stp>
+        <tr r="F7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1536785358873787645</stp>
-        <tr r="N7" s="1"/>
+        <stp>BDH|2208639251642318485</stp>
+        <tr r="U7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2449917877528190397</stp>
-        <tr r="X7" s="1"/>
+        <stp>BDH|1246031807909967823</stp>
+        <tr r="Q7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1570140149985888625</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3329653219596187212</stp>
+        <stp>BDH|3873689679061216397</stp>
         <tr r="O7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9930674116049078781</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2079352188799857328</stp>
-        <tr r="K7" s="1"/>
+        <stp>BDH|7736316424220650774</stp>
+        <tr r="C7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -837,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X187"/>
+  <dimension ref="A1:X198"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:X187"/>
+    <sheetView topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A198" sqref="A160:X198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,12 +863,12 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+      <c r="B2" s="7">
+        <v>45260</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1118,98 +1112,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=181")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=192")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
-        <v>1294.82</v>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <v>1294.818</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=181")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -1245,13 +1239,13 @@
         <v>261.66860000000003</v>
       </c>
       <c r="K8">
-        <v>582.75</v>
+        <v>582.75300000000004</v>
       </c>
       <c r="L8">
-        <v>1344.27</v>
+        <v>1344.268</v>
       </c>
       <c r="M8">
-        <v>12468.7682</v>
+        <v>12468.768</v>
       </c>
       <c r="N8">
         <v>1965.15</v>
@@ -1319,13 +1313,13 @@
         <v>255.42519999999999</v>
       </c>
       <c r="K9">
-        <v>575.83000000000004</v>
+        <v>575.83399999999995</v>
       </c>
       <c r="L9">
-        <v>1459.01</v>
+        <v>1459.009</v>
       </c>
       <c r="M9">
-        <v>12994.856299999999</v>
+        <v>12994.856</v>
       </c>
       <c r="N9">
         <v>2106.0329999999999</v>
@@ -1393,13 +1387,13 @@
         <v>254.5256</v>
       </c>
       <c r="K10">
-        <v>572.84</v>
+        <v>572.84400000000005</v>
       </c>
       <c r="L10">
-        <v>1415.2</v>
+        <v>1415.204</v>
       </c>
       <c r="M10">
-        <v>12836.166800000001</v>
+        <v>12836.166999999999</v>
       </c>
       <c r="N10">
         <v>2077.0700000000002</v>
@@ -1467,13 +1461,13 @@
         <v>262.93880000000001</v>
       </c>
       <c r="K11">
-        <v>596.71</v>
+        <v>596.70699999999999</v>
       </c>
       <c r="L11">
         <v>1405.95</v>
       </c>
       <c r="M11">
-        <v>12831.954900000001</v>
+        <v>12831.955</v>
       </c>
       <c r="N11">
         <v>2041.4290000000001</v>
@@ -1541,13 +1535,13 @@
         <v>264.8886</v>
       </c>
       <c r="K12">
-        <v>599.26</v>
+        <v>599.26300000000003</v>
       </c>
       <c r="L12">
-        <v>1430.86</v>
+        <v>1430.864</v>
       </c>
       <c r="M12">
-        <v>12986.5229</v>
+        <v>12986.522999999999</v>
       </c>
       <c r="N12">
         <v>2094.21</v>
@@ -1615,13 +1609,13 @@
         <v>265.29180000000002</v>
       </c>
       <c r="K13">
-        <v>583.21</v>
+        <v>583.20600000000002</v>
       </c>
       <c r="L13">
-        <v>1477.36</v>
+        <v>1477.3610000000001</v>
       </c>
       <c r="M13">
-        <v>13141.3627</v>
+        <v>13141.362999999999</v>
       </c>
       <c r="N13">
         <v>2207.183</v>
@@ -1689,13 +1683,13 @@
         <v>262.70940000000002</v>
       </c>
       <c r="K14">
-        <v>573.86</v>
+        <v>573.85900000000004</v>
       </c>
       <c r="L14">
         <v>1394.77</v>
       </c>
       <c r="M14">
-        <v>12796.566800000001</v>
+        <v>12796.566999999999</v>
       </c>
       <c r="N14">
         <v>2095.7800000000002</v>
@@ -1763,13 +1757,13 @@
         <v>262.5575</v>
       </c>
       <c r="K15">
-        <v>575.71</v>
+        <v>575.71100000000001</v>
       </c>
       <c r="L15">
-        <v>1339.78</v>
+        <v>1339.7809999999999</v>
       </c>
       <c r="M15">
-        <v>12645.730799999999</v>
+        <v>12645.731</v>
       </c>
       <c r="N15">
         <v>2035.0039999999999</v>
@@ -1837,13 +1831,13 @@
         <v>249.61969999999999</v>
       </c>
       <c r="K16">
-        <v>527.94000000000005</v>
+        <v>527.94200000000001</v>
       </c>
       <c r="L16">
-        <v>1328.39</v>
+        <v>1328.394</v>
       </c>
       <c r="M16">
-        <v>12492.1569</v>
+        <v>12492.156999999999</v>
       </c>
       <c r="N16">
         <v>2054.8670000000002</v>
@@ -1911,13 +1905,13 @@
         <v>217.0848</v>
       </c>
       <c r="K17">
-        <v>441.9</v>
+        <v>441.89600000000002</v>
       </c>
       <c r="L17">
-        <v>1304.98</v>
+        <v>1304.9829999999999</v>
       </c>
       <c r="M17">
-        <v>12695.992899999999</v>
+        <v>12695.993</v>
       </c>
       <c r="N17">
         <v>2205.1550000000002</v>
@@ -1985,13 +1979,13 @@
         <v>199.9513</v>
       </c>
       <c r="K18">
-        <v>404.63</v>
+        <v>404.63400000000001</v>
       </c>
       <c r="L18">
-        <v>1324.36</v>
+        <v>1324.355</v>
       </c>
       <c r="M18">
-        <v>12789.034900000001</v>
+        <v>12789.035</v>
       </c>
       <c r="N18">
         <v>2267.3110000000001</v>
@@ -2059,13 +2053,13 @@
         <v>192.38509999999999</v>
       </c>
       <c r="K19">
-        <v>434.88</v>
+        <v>434.87799999999999</v>
       </c>
       <c r="L19">
-        <v>1367.51</v>
+        <v>1367.5050000000001</v>
       </c>
       <c r="M19">
-        <v>12931.3459</v>
+        <v>12931.346</v>
       </c>
       <c r="N19">
         <v>2315.06</v>
@@ -2133,13 +2127,13 @@
         <v>203.49539999999999</v>
       </c>
       <c r="K20">
-        <v>457.96</v>
+        <v>457.96100000000001</v>
       </c>
       <c r="L20">
         <v>1387.26</v>
       </c>
       <c r="M20">
-        <v>12918.482099999999</v>
+        <v>12918.482</v>
       </c>
       <c r="N20">
         <v>2307.8919999999998</v>
@@ -2207,13 +2201,13 @@
         <v>204.20050000000001</v>
       </c>
       <c r="K21">
-        <v>442.09</v>
+        <v>442.08499999999998</v>
       </c>
       <c r="L21">
-        <v>1386.56</v>
+        <v>1386.559</v>
       </c>
       <c r="M21">
-        <v>12902.6587</v>
+        <v>12902.659</v>
       </c>
       <c r="N21">
         <v>2320.3330000000001</v>
@@ -2355,13 +2349,13 @@
         <v>222.69049999999999</v>
       </c>
       <c r="K23">
-        <v>509.05</v>
+        <v>509.05399999999997</v>
       </c>
       <c r="L23">
-        <v>1344.19</v>
+        <v>1344.194</v>
       </c>
       <c r="M23">
-        <v>12811.928599999999</v>
+        <v>12811.929</v>
       </c>
       <c r="N23">
         <v>2196.0830000000001</v>
@@ -2429,13 +2423,13 @@
         <v>235.3854</v>
       </c>
       <c r="K24">
-        <v>545.26</v>
+        <v>545.26300000000003</v>
       </c>
       <c r="L24">
-        <v>1330.23</v>
+        <v>1330.2260000000001</v>
       </c>
       <c r="M24">
-        <v>13264.861699999999</v>
+        <v>13264.861999999999</v>
       </c>
       <c r="N24">
         <v>2206.9</v>
@@ -2503,10 +2497,10 @@
         <v>244.51750000000001</v>
       </c>
       <c r="K25">
-        <v>562.6</v>
+        <v>562.601</v>
       </c>
       <c r="L25">
-        <v>1285.96</v>
+        <v>1285.9549999999999</v>
       </c>
       <c r="M25">
         <v>13109.794</v>
@@ -2577,13 +2571,13 @@
         <v>254.65369999999999</v>
       </c>
       <c r="K26">
-        <v>597.39</v>
+        <v>597.38699999999994</v>
       </c>
       <c r="L26">
-        <v>1286.8900000000001</v>
+        <v>1286.894</v>
       </c>
       <c r="M26">
-        <v>13174.286400000001</v>
+        <v>13174.286</v>
       </c>
       <c r="N26">
         <v>2141.98</v>
@@ -2651,13 +2645,13 @@
         <v>260.33589999999998</v>
       </c>
       <c r="K27">
-        <v>609.54</v>
+        <v>609.53700000000003</v>
       </c>
       <c r="L27">
-        <v>1276.6099999999999</v>
+        <v>1276.6079999999999</v>
       </c>
       <c r="M27">
-        <v>13223.647800000001</v>
+        <v>13223.647999999999</v>
       </c>
       <c r="N27">
         <v>2175.6089999999999</v>
@@ -2725,13 +2719,13 @@
         <v>268.88839999999999</v>
       </c>
       <c r="K28">
-        <v>645.96</v>
+        <v>645.96299999999997</v>
       </c>
       <c r="L28">
-        <v>1267.52</v>
+        <v>1267.5150000000001</v>
       </c>
       <c r="M28">
-        <v>13449.626700000001</v>
+        <v>13449.627</v>
       </c>
       <c r="N28">
         <v>2227.857</v>
@@ -2799,13 +2793,13 @@
         <v>270.64179999999999</v>
       </c>
       <c r="K29">
-        <v>657.5</v>
+        <v>657.50199999999995</v>
       </c>
       <c r="L29">
-        <v>1250.6199999999999</v>
+        <v>1250.6179999999999</v>
       </c>
       <c r="M29">
-        <v>13380.286099999999</v>
+        <v>13380.286</v>
       </c>
       <c r="N29">
         <v>2162.4050000000002</v>
@@ -2873,13 +2867,13 @@
         <v>271.42450000000002</v>
       </c>
       <c r="K30">
-        <v>664.16</v>
+        <v>664.16399999999999</v>
       </c>
       <c r="L30">
-        <v>1281.04</v>
+        <v>1281.0419999999999</v>
       </c>
       <c r="M30">
-        <v>13670.636699999999</v>
+        <v>13670.637000000001</v>
       </c>
       <c r="N30">
         <v>2274.2429999999999</v>
@@ -2947,10 +2941,10 @@
         <v>278.7047</v>
       </c>
       <c r="K31">
-        <v>684.98</v>
+        <v>684.98299999999995</v>
       </c>
       <c r="L31">
-        <v>1247.43</v>
+        <v>1247.434</v>
       </c>
       <c r="M31">
         <v>13492.601000000001</v>
@@ -3021,13 +3015,13 @@
         <v>283.74540000000002</v>
       </c>
       <c r="K32">
-        <v>695.36</v>
+        <v>695.36400000000003</v>
       </c>
       <c r="L32">
-        <v>1224.45</v>
+        <v>1224.4449999999999</v>
       </c>
       <c r="M32">
-        <v>13229.0828</v>
+        <v>13229.083000000001</v>
       </c>
       <c r="N32">
         <v>2119.4940000000001</v>
@@ -3095,13 +3089,13 @@
         <v>284.66649999999998</v>
       </c>
       <c r="K33">
-        <v>696.44</v>
+        <v>696.44100000000003</v>
       </c>
       <c r="L33">
-        <v>1241.75</v>
+        <v>1241.7539999999999</v>
       </c>
       <c r="M33">
-        <v>13250.2135</v>
+        <v>13250.214</v>
       </c>
       <c r="N33">
         <v>2161.3310000000001</v>
@@ -3169,13 +3163,13 @@
         <v>290.81540000000001</v>
       </c>
       <c r="K34">
-        <v>718</v>
+        <v>718.00099999999998</v>
       </c>
       <c r="L34">
-        <v>1255.06</v>
+        <v>1255.059</v>
       </c>
       <c r="M34">
-        <v>13460.915499999999</v>
+        <v>13460.915999999999</v>
       </c>
       <c r="N34">
         <v>2267.1979999999999</v>
@@ -3243,13 +3237,13 @@
         <v>294.53320000000002</v>
       </c>
       <c r="K35">
-        <v>734.08</v>
+        <v>734.077</v>
       </c>
       <c r="L35">
         <v>1246.22</v>
       </c>
       <c r="M35">
-        <v>13570.9728</v>
+        <v>13570.973</v>
       </c>
       <c r="N35">
         <v>2313.11</v>
@@ -3317,13 +3311,13 @@
         <v>288.47559999999999</v>
       </c>
       <c r="K36">
-        <v>708.23</v>
+        <v>708.23299999999995</v>
       </c>
       <c r="L36">
         <v>1234.72</v>
       </c>
       <c r="M36">
-        <v>13356.1283</v>
+        <v>13356.128000000001</v>
       </c>
       <c r="N36">
         <v>2208.9389999999999</v>
@@ -3391,13 +3385,13 @@
         <v>287.77719999999999</v>
       </c>
       <c r="K37">
-        <v>717.47</v>
+        <v>717.46699999999998</v>
       </c>
       <c r="L37">
-        <v>1218.45</v>
+        <v>1218.453</v>
       </c>
       <c r="M37">
-        <v>13340.6435</v>
+        <v>13340.644</v>
       </c>
       <c r="N37">
         <v>2196.9259999999999</v>
@@ -3465,10 +3459,10 @@
         <v>291.88330000000002</v>
       </c>
       <c r="K38">
-        <v>742.33</v>
+        <v>742.32799999999997</v>
       </c>
       <c r="L38">
-        <v>1210.82</v>
+        <v>1210.8219999999999</v>
       </c>
       <c r="M38">
         <v>13332.331</v>
@@ -3539,10 +3533,10 @@
         <v>292.94799999999998</v>
       </c>
       <c r="K39">
-        <v>743.49</v>
+        <v>743.48900000000003</v>
       </c>
       <c r="L39">
-        <v>1228.3499999999999</v>
+        <v>1228.3489999999999</v>
       </c>
       <c r="M39">
         <v>13557.523999999999</v>
@@ -3613,13 +3607,13 @@
         <v>296.69979999999998</v>
       </c>
       <c r="K40">
-        <v>765.56</v>
+        <v>765.56299999999999</v>
       </c>
       <c r="L40">
-        <v>1211.3499999999999</v>
+        <v>1211.347</v>
       </c>
       <c r="M40">
-        <v>13928.3614</v>
+        <v>13928.361000000001</v>
       </c>
       <c r="N40">
         <v>2339.1849999999999</v>
@@ -3690,10 +3684,10 @@
         <v>784.13</v>
       </c>
       <c r="L41">
-        <v>1223.1099999999999</v>
+        <v>1223.1110000000001</v>
       </c>
       <c r="M41">
-        <v>14239.0774</v>
+        <v>14239.076999999999</v>
       </c>
       <c r="N41">
         <v>2454.8679999999999</v>
@@ -3761,13 +3755,13 @@
         <v>302.4778</v>
       </c>
       <c r="K42">
-        <v>775.38</v>
+        <v>775.38199999999995</v>
       </c>
       <c r="L42">
-        <v>1209.6600000000001</v>
+        <v>1209.6569999999999</v>
       </c>
       <c r="M42">
-        <v>14108.606900000001</v>
+        <v>14108.607</v>
       </c>
       <c r="N42">
         <v>2359.6460000000002</v>
@@ -3835,13 +3829,13 @@
         <v>306.50450000000001</v>
       </c>
       <c r="K43">
-        <v>789.04</v>
+        <v>789.03499999999997</v>
       </c>
       <c r="L43">
-        <v>1225.8800000000001</v>
+        <v>1225.884</v>
       </c>
       <c r="M43">
-        <v>14579.778399999999</v>
+        <v>14579.778</v>
       </c>
       <c r="N43">
         <v>2493.3910000000001</v>
@@ -3909,10 +3903,10 @@
         <v>312.52589999999998</v>
       </c>
       <c r="K44">
-        <v>805.62</v>
+        <v>805.62400000000002</v>
       </c>
       <c r="L44">
-        <v>1227.69</v>
+        <v>1227.6890000000001</v>
       </c>
       <c r="M44">
         <v>14474.621999999999</v>
@@ -3983,13 +3977,13 @@
         <v>314.1893</v>
       </c>
       <c r="K45">
-        <v>816.4</v>
+        <v>816.39499999999998</v>
       </c>
       <c r="L45">
-        <v>1239.1600000000001</v>
+        <v>1239.1569999999999</v>
       </c>
       <c r="M45">
-        <v>14659.216200000001</v>
+        <v>14659.216</v>
       </c>
       <c r="N45">
         <v>2510.5619999999999</v>
@@ -4057,13 +4051,13 @@
         <v>314.62810000000002</v>
       </c>
       <c r="K46">
-        <v>819.83</v>
+        <v>819.82500000000005</v>
       </c>
       <c r="L46">
         <v>1243.9100000000001</v>
       </c>
       <c r="M46">
-        <v>14499.349700000001</v>
+        <v>14499.35</v>
       </c>
       <c r="N46">
         <v>2408.201</v>
@@ -4131,13 +4125,13 @@
         <v>316.52589999999998</v>
       </c>
       <c r="K47">
-        <v>832.29</v>
+        <v>832.28599999999994</v>
       </c>
       <c r="L47">
-        <v>1254.98</v>
+        <v>1254.981</v>
       </c>
       <c r="M47">
-        <v>14843.1054</v>
+        <v>14843.105</v>
       </c>
       <c r="N47">
         <v>2522.3739999999998</v>
@@ -4205,13 +4199,13 @@
         <v>316.71600000000001</v>
       </c>
       <c r="K48">
-        <v>836.36</v>
+        <v>836.35599999999999</v>
       </c>
       <c r="L48">
-        <v>1228.49</v>
+        <v>1228.4880000000001</v>
       </c>
       <c r="M48">
-        <v>14501.493200000001</v>
+        <v>14501.493</v>
       </c>
       <c r="N48">
         <v>2396.038</v>
@@ -4279,10 +4273,10 @@
         <v>315.6814</v>
       </c>
       <c r="K49">
-        <v>827.96</v>
+        <v>827.95500000000004</v>
       </c>
       <c r="L49">
-        <v>1199.6099999999999</v>
+        <v>1199.6089999999999</v>
       </c>
       <c r="M49">
         <v>14249.044</v>
@@ -4353,13 +4347,13 @@
         <v>316.2002</v>
       </c>
       <c r="K50">
-        <v>838.18</v>
+        <v>838.18399999999997</v>
       </c>
       <c r="L50">
-        <v>1214.8</v>
+        <v>1214.798</v>
       </c>
       <c r="M50">
-        <v>14484.9593</v>
+        <v>14484.959000000001</v>
       </c>
       <c r="N50">
         <v>2426.16</v>
@@ -4427,13 +4421,13 @@
         <v>303.04410000000001</v>
       </c>
       <c r="K51">
-        <v>804.6</v>
+        <v>804.59699999999998</v>
       </c>
       <c r="L51">
-        <v>1213.76</v>
+        <v>1213.7570000000001</v>
       </c>
       <c r="M51">
-        <v>14410.909799999999</v>
+        <v>14410.91</v>
       </c>
       <c r="N51">
         <v>2397.636</v>
@@ -4501,13 +4495,13 @@
         <v>303.81540000000001</v>
       </c>
       <c r="K52">
-        <v>775.67</v>
+        <v>775.67399999999998</v>
       </c>
       <c r="L52">
-        <v>1189.42</v>
+        <v>1189.424</v>
       </c>
       <c r="M52">
-        <v>14231.7312</v>
+        <v>14231.731</v>
       </c>
       <c r="N52">
         <v>2371.6529999999998</v>
@@ -4575,10 +4569,10 @@
         <v>311.6925</v>
       </c>
       <c r="K53">
-        <v>821.87</v>
+        <v>821.87099999999998</v>
       </c>
       <c r="L53">
-        <v>1165.81</v>
+        <v>1165.807</v>
       </c>
       <c r="M53">
         <v>14100.214</v>
@@ -4649,13 +4643,13 @@
         <v>310.50479999999999</v>
       </c>
       <c r="K54">
-        <v>803.7</v>
+        <v>803.69500000000005</v>
       </c>
       <c r="L54">
-        <v>1169.33</v>
+        <v>1169.3309999999999</v>
       </c>
       <c r="M54">
-        <v>14008.1811</v>
+        <v>14008.181</v>
       </c>
       <c r="N54">
         <v>2258.2049999999999</v>
@@ -4723,13 +4717,13 @@
         <v>312.07580000000002</v>
       </c>
       <c r="K55">
-        <v>823.62</v>
+        <v>823.61599999999999</v>
       </c>
       <c r="L55">
-        <v>1166.06</v>
+        <v>1166.059</v>
       </c>
       <c r="M55">
-        <v>13973.4763</v>
+        <v>13973.476000000001</v>
       </c>
       <c r="N55">
         <v>2295.5889999999999</v>
@@ -4797,13 +4791,13 @@
         <v>318.30500000000001</v>
       </c>
       <c r="K56">
-        <v>847.53</v>
+        <v>847.52499999999998</v>
       </c>
       <c r="L56">
-        <v>1167.1199999999999</v>
+        <v>1167.1220000000001</v>
       </c>
       <c r="M56">
-        <v>14150.578100000001</v>
+        <v>14150.578</v>
       </c>
       <c r="N56">
         <v>2319.9760000000001</v>
@@ -4871,13 +4865,13 @@
         <v>320.66320000000002</v>
       </c>
       <c r="K57">
-        <v>866.84</v>
+        <v>866.83600000000001</v>
       </c>
       <c r="L57">
-        <v>1169.6400000000001</v>
+        <v>1169.6369999999999</v>
       </c>
       <c r="M57">
-        <v>14262.293900000001</v>
+        <v>14262.294</v>
       </c>
       <c r="N57">
         <v>2355.634</v>
@@ -4945,13 +4939,13 @@
         <v>322.92290000000003</v>
       </c>
       <c r="K58">
-        <v>866.03</v>
+        <v>866.02499999999998</v>
       </c>
       <c r="L58">
-        <v>1150.97</v>
+        <v>1150.973</v>
       </c>
       <c r="M58">
-        <v>14074.2376</v>
+        <v>14074.237999999999</v>
       </c>
       <c r="N58">
         <v>2302.6779999999999</v>
@@ -5019,13 +5013,13 @@
         <v>325.4556</v>
       </c>
       <c r="K59">
-        <v>874.88</v>
+        <v>874.87800000000004</v>
       </c>
       <c r="L59">
-        <v>1155.8900000000001</v>
+        <v>1155.893</v>
       </c>
       <c r="M59">
-        <v>13992.7004</v>
+        <v>13992.7</v>
       </c>
       <c r="N59">
         <v>2319.3290000000002</v>
@@ -5093,13 +5087,13 @@
         <v>323.7833</v>
       </c>
       <c r="K60">
-        <v>864.32</v>
+        <v>864.31600000000003</v>
       </c>
       <c r="L60">
-        <v>1160.04</v>
+        <v>1160.0440000000001</v>
       </c>
       <c r="M60">
-        <v>14049.182500000001</v>
+        <v>14049.183000000001</v>
       </c>
       <c r="N60">
         <v>2387.8009999999999</v>
@@ -5167,13 +5161,13 @@
         <v>326.18639999999999</v>
       </c>
       <c r="K61">
-        <v>881.89</v>
+        <v>881.89400000000001</v>
       </c>
       <c r="L61">
-        <v>1144.99</v>
+        <v>1144.9949999999999</v>
       </c>
       <c r="M61">
-        <v>13849.6605</v>
+        <v>13849.661</v>
       </c>
       <c r="N61">
         <v>2274.5349999999999</v>
@@ -5241,13 +5235,13 @@
         <v>329.36090000000002</v>
       </c>
       <c r="K62">
-        <v>898.79</v>
+        <v>898.79399999999998</v>
       </c>
       <c r="L62">
-        <v>1161.99</v>
+        <v>1161.9860000000001</v>
       </c>
       <c r="M62">
-        <v>14127.8858</v>
+        <v>14127.886</v>
       </c>
       <c r="N62">
         <v>2392.2849999999999</v>
@@ -5315,13 +5309,13 @@
         <v>332.83499999999998</v>
       </c>
       <c r="K63">
-        <v>909.63</v>
+        <v>909.63199999999995</v>
       </c>
       <c r="L63">
-        <v>1161.73</v>
+        <v>1161.7260000000001</v>
       </c>
       <c r="M63">
-        <v>14095.6423</v>
+        <v>14095.642</v>
       </c>
       <c r="N63">
         <v>2344.402</v>
@@ -5389,13 +5383,13 @@
         <v>336.41629999999998</v>
       </c>
       <c r="K64">
-        <v>922.59</v>
+        <v>922.58799999999997</v>
       </c>
       <c r="L64">
-        <v>1155.73</v>
+        <v>1155.731</v>
       </c>
       <c r="M64">
-        <v>14091.388800000001</v>
+        <v>14091.388999999999</v>
       </c>
       <c r="N64">
         <v>2295.8310000000001</v>
@@ -5463,13 +5457,13 @@
         <v>337.67520000000002</v>
       </c>
       <c r="K65">
-        <v>930.2</v>
+        <v>930.197</v>
       </c>
       <c r="L65">
         <v>1143.44</v>
       </c>
       <c r="M65">
-        <v>13832.4846</v>
+        <v>13832.485000000001</v>
       </c>
       <c r="N65">
         <v>2184.299</v>
@@ -5537,13 +5531,13 @@
         <v>339.029</v>
       </c>
       <c r="K66">
-        <v>937.1</v>
+        <v>937.10199999999998</v>
       </c>
       <c r="L66">
-        <v>1146.95</v>
+        <v>1146.953</v>
       </c>
       <c r="M66">
-        <v>13823.5672</v>
+        <v>13823.566999999999</v>
       </c>
       <c r="N66">
         <v>2186.8069999999998</v>
@@ -5611,13 +5605,13 @@
         <v>341.51690000000002</v>
       </c>
       <c r="K67">
-        <v>951.96</v>
+        <v>951.96299999999997</v>
       </c>
       <c r="L67">
-        <v>1154.3599999999999</v>
+        <v>1154.355</v>
       </c>
       <c r="M67">
-        <v>13964.716700000001</v>
+        <v>13964.717000000001</v>
       </c>
       <c r="N67">
         <v>2214.6790000000001</v>
@@ -5759,10 +5753,10 @@
         <v>346.68119999999999</v>
       </c>
       <c r="K69">
-        <v>969.53</v>
+        <v>969.52599999999995</v>
       </c>
       <c r="L69">
-        <v>1154.5</v>
+        <v>1154.5029999999999</v>
       </c>
       <c r="M69">
         <v>14081.665999999999</v>
@@ -5833,13 +5827,13 @@
         <v>349.62169999999998</v>
       </c>
       <c r="K70">
-        <v>979.52</v>
+        <v>979.51800000000003</v>
       </c>
       <c r="L70">
-        <v>1154.83</v>
+        <v>1154.826</v>
       </c>
       <c r="M70">
-        <v>14139.034299999999</v>
+        <v>14139.034</v>
       </c>
       <c r="N70">
         <v>2296.1260000000002</v>
@@ -5907,13 +5901,13 @@
         <v>352.2414</v>
       </c>
       <c r="K71">
-        <v>997.71</v>
+        <v>997.70799999999997</v>
       </c>
       <c r="L71">
-        <v>1160.57</v>
+        <v>1160.5719999999999</v>
       </c>
       <c r="M71">
-        <v>14231.3532</v>
+        <v>14231.352999999999</v>
       </c>
       <c r="N71">
         <v>2384.665</v>
@@ -5981,13 +5975,13 @@
         <v>353.04329999999999</v>
       </c>
       <c r="K72">
-        <v>992.41</v>
+        <v>992.41099999999994</v>
       </c>
       <c r="L72">
-        <v>1149.57</v>
+        <v>1149.5719999999999</v>
       </c>
       <c r="M72">
-        <v>14053.3143</v>
+        <v>14053.314</v>
       </c>
       <c r="N72">
         <v>2297.422</v>
@@ -6055,13 +6049,13 @@
         <v>351.11869999999999</v>
       </c>
       <c r="K73">
-        <v>966.25</v>
+        <v>966.25099999999998</v>
       </c>
       <c r="L73">
-        <v>1141.97</v>
+        <v>1141.9670000000001</v>
       </c>
       <c r="M73">
-        <v>13832.831399999999</v>
+        <v>13832.831</v>
       </c>
       <c r="N73">
         <v>2231.511</v>
@@ -6129,13 +6123,13 @@
         <v>354.86489999999998</v>
       </c>
       <c r="K74">
-        <v>984.42</v>
+        <v>984.42200000000003</v>
       </c>
       <c r="L74">
-        <v>1135.83</v>
+        <v>1135.8340000000001</v>
       </c>
       <c r="M74">
-        <v>13825.0689</v>
+        <v>13825.069</v>
       </c>
       <c r="N74">
         <v>2213.9580000000001</v>
@@ -6203,10 +6197,10 @@
         <v>354.99880000000002</v>
       </c>
       <c r="K75">
-        <v>978.32</v>
+        <v>978.31799999999998</v>
       </c>
       <c r="L75">
-        <v>1126.32</v>
+        <v>1126.316</v>
       </c>
       <c r="M75">
         <v>13675.416999999999</v>
@@ -6277,13 +6271,13 @@
         <v>356.03160000000003</v>
       </c>
       <c r="K76">
-        <v>988.02</v>
+        <v>988.01700000000005</v>
       </c>
       <c r="L76">
-        <v>1123.3499999999999</v>
+        <v>1123.3520000000001</v>
       </c>
       <c r="M76">
-        <v>13652.6752</v>
+        <v>13652.674999999999</v>
       </c>
       <c r="N76">
         <v>2145.154</v>
@@ -6351,13 +6345,13 @@
         <v>358.88979999999998</v>
       </c>
       <c r="K77">
-        <v>1012.31</v>
+        <v>1012.3049999999999</v>
       </c>
       <c r="L77">
-        <v>1130.57</v>
+        <v>1130.566</v>
       </c>
       <c r="M77">
-        <v>13765.9161</v>
+        <v>13765.915999999999</v>
       </c>
       <c r="N77">
         <v>2199.8159999999998</v>
@@ -6425,13 +6419,13 @@
         <v>360.60160000000002</v>
       </c>
       <c r="K78">
-        <v>1017.01</v>
+        <v>1017.013</v>
       </c>
       <c r="L78">
-        <v>1134.19</v>
+        <v>1134.1869999999999</v>
       </c>
       <c r="M78">
-        <v>13838.021500000001</v>
+        <v>13838.022000000001</v>
       </c>
       <c r="N78">
         <v>2259.2640000000001</v>
@@ -6499,13 +6493,13 @@
         <v>362.5283</v>
       </c>
       <c r="K79">
-        <v>1022.59</v>
+        <v>1022.586</v>
       </c>
       <c r="L79">
-        <v>1133.6600000000001</v>
+        <v>1133.6610000000001</v>
       </c>
       <c r="M79">
-        <v>13903.1242</v>
+        <v>13903.124</v>
       </c>
       <c r="N79">
         <v>2273.8609999999999</v>
@@ -6573,13 +6567,13 @@
         <v>365.08629999999999</v>
       </c>
       <c r="K80">
-        <v>1030.1500000000001</v>
+        <v>1030.1510000000001</v>
       </c>
       <c r="L80">
         <v>1132.8900000000001</v>
       </c>
       <c r="M80">
-        <v>13784.743899999999</v>
+        <v>13784.744000000001</v>
       </c>
       <c r="N80">
         <v>2171.3519999999999</v>
@@ -6647,13 +6641,13 @@
         <v>365.90249999999997</v>
       </c>
       <c r="K81">
-        <v>1050.8</v>
+        <v>1050.797</v>
       </c>
       <c r="L81">
         <v>1124.3699999999999</v>
       </c>
       <c r="M81">
-        <v>13983.1011</v>
+        <v>13983.101000000001</v>
       </c>
       <c r="N81">
         <v>2185.3049999999998</v>
@@ -6721,13 +6715,13 @@
         <v>367.24169999999998</v>
       </c>
       <c r="K82">
-        <v>1053.23</v>
+        <v>1053.229</v>
       </c>
       <c r="L82">
         <v>1121.8599999999999</v>
       </c>
       <c r="M82">
-        <v>13857.130499999999</v>
+        <v>13857.130999999999</v>
       </c>
       <c r="N82">
         <v>2139.87</v>
@@ -6795,13 +6789,13 @@
         <v>368.08049999999997</v>
       </c>
       <c r="K83">
-        <v>1060.53</v>
+        <v>1060.5250000000001</v>
       </c>
       <c r="L83">
         <v>1115.6099999999999</v>
       </c>
       <c r="M83">
-        <v>13865.789500000001</v>
+        <v>13865.79</v>
       </c>
       <c r="N83">
         <v>2162.9859999999999</v>
@@ -6869,13 +6863,13 @@
         <v>370.34370000000001</v>
       </c>
       <c r="K84">
-        <v>1071.2</v>
+        <v>1071.203</v>
       </c>
       <c r="L84">
         <v>1124.43</v>
       </c>
       <c r="M84">
-        <v>13944.688599999999</v>
+        <v>13944.689</v>
       </c>
       <c r="N84">
         <v>2227.085</v>
@@ -6943,13 +6937,13 @@
         <v>372.57870000000003</v>
       </c>
       <c r="K85">
-        <v>1080.26</v>
+        <v>1080.2560000000001</v>
       </c>
       <c r="L85">
         <v>1125.3599999999999</v>
       </c>
       <c r="M85">
-        <v>14041.676299999999</v>
+        <v>14041.675999999999</v>
       </c>
       <c r="N85">
         <v>2258.1</v>
@@ -7017,13 +7011,13 @@
         <v>372.416</v>
       </c>
       <c r="K86">
-        <v>1065.97</v>
+        <v>1065.971</v>
       </c>
       <c r="L86">
         <v>1131.24</v>
       </c>
       <c r="M86">
-        <v>13986.182199999999</v>
+        <v>13986.182000000001</v>
       </c>
       <c r="N86">
         <v>2234.0169999999998</v>
@@ -7091,13 +7085,13 @@
         <v>373.2801</v>
       </c>
       <c r="K87">
-        <v>1082.17</v>
+        <v>1082.174</v>
       </c>
       <c r="L87">
         <v>1144.9000000000001</v>
       </c>
       <c r="M87">
-        <v>14195.9997</v>
+        <v>14196</v>
       </c>
       <c r="N87">
         <v>2357.018</v>
@@ -7165,13 +7159,13 @@
         <v>371.35480000000001</v>
       </c>
       <c r="K88">
-        <v>1059.47</v>
+        <v>1059.4670000000001</v>
       </c>
       <c r="L88">
         <v>1162.53</v>
       </c>
       <c r="M88">
-        <v>14349.293299999999</v>
+        <v>14349.293</v>
       </c>
       <c r="N88">
         <v>2435.6019999999999</v>
@@ -7239,13 +7233,13 @@
         <v>372.41359999999997</v>
       </c>
       <c r="K89">
-        <v>1071.53</v>
+        <v>1071.528</v>
       </c>
       <c r="L89">
         <v>1169.58</v>
       </c>
       <c r="M89">
-        <v>14320.528399999999</v>
+        <v>14320.528</v>
       </c>
       <c r="N89">
         <v>2478.6019999999999</v>
@@ -7313,13 +7307,13 @@
         <v>374.10939999999999</v>
       </c>
       <c r="K90">
-        <v>1063.8699999999999</v>
+        <v>1063.8689999999999</v>
       </c>
       <c r="L90">
         <v>1189.05</v>
       </c>
       <c r="M90">
-        <v>14642.9534</v>
+        <v>14642.953</v>
       </c>
       <c r="N90">
         <v>2659.299</v>
@@ -7387,13 +7381,13 @@
         <v>369.9796</v>
       </c>
       <c r="K91">
-        <v>1048.18</v>
+        <v>1048.184</v>
       </c>
       <c r="L91">
         <v>1193.05</v>
       </c>
       <c r="M91">
-        <v>14678.342500000001</v>
+        <v>14678.343000000001</v>
       </c>
       <c r="N91">
         <v>2721.7869999999998</v>
@@ -7461,13 +7455,13 @@
         <v>370.92840000000001</v>
       </c>
       <c r="K92">
-        <v>1055.4100000000001</v>
+        <v>1055.413</v>
       </c>
       <c r="L92">
         <v>1216.8399999999999</v>
       </c>
       <c r="M92">
-        <v>15047.019700000001</v>
+        <v>15047.02</v>
       </c>
       <c r="N92">
         <v>2861.0079999999998</v>
@@ -7535,13 +7529,13 @@
         <v>376.14550000000003</v>
       </c>
       <c r="K93">
-        <v>1080.5899999999999</v>
+        <v>1080.5930000000001</v>
       </c>
       <c r="L93">
         <v>1224.99</v>
       </c>
       <c r="M93">
-        <v>15076.506100000001</v>
+        <v>15076.505999999999</v>
       </c>
       <c r="N93">
         <v>2855.143</v>
@@ -7609,13 +7603,13 @@
         <v>377.6302</v>
       </c>
       <c r="K94">
-        <v>1074.8499999999999</v>
+        <v>1074.8530000000001</v>
       </c>
       <c r="L94">
         <v>1233.6400000000001</v>
       </c>
       <c r="M94">
-        <v>15161.163200000001</v>
+        <v>15161.163</v>
       </c>
       <c r="N94">
         <v>2929.2930000000001</v>
@@ -7757,13 +7751,13 @@
         <v>381.7903</v>
       </c>
       <c r="K96">
-        <v>1090.96</v>
+        <v>1090.962</v>
       </c>
       <c r="L96">
         <v>1209.01</v>
       </c>
       <c r="M96">
-        <v>14972.890299999999</v>
+        <v>14972.89</v>
       </c>
       <c r="N96">
         <v>2789.703</v>
@@ -7831,13 +7825,13 @@
         <v>380.59679999999997</v>
       </c>
       <c r="K97">
-        <v>1074.32</v>
+        <v>1074.3209999999999</v>
       </c>
       <c r="L97">
         <v>1176.9000000000001</v>
       </c>
       <c r="M97">
-        <v>14626.769899999999</v>
+        <v>14626.77</v>
       </c>
       <c r="N97">
         <v>2654.02</v>
@@ -7905,13 +7899,13 @@
         <v>380.9366</v>
       </c>
       <c r="K98">
-        <v>1067.71</v>
+        <v>1067.7070000000001</v>
       </c>
       <c r="L98">
         <v>1204.1199999999999</v>
       </c>
       <c r="M98">
-        <v>14757.0355</v>
+        <v>14757.036</v>
       </c>
       <c r="N98">
         <v>2760.348</v>
@@ -7979,13 +7973,13 @@
         <v>378.45819999999998</v>
       </c>
       <c r="K99">
-        <v>1048.9000000000001</v>
+        <v>1048.903</v>
       </c>
       <c r="L99">
         <v>1181.02</v>
       </c>
       <c r="M99">
-        <v>14520.1258</v>
+        <v>14520.126</v>
       </c>
       <c r="N99">
         <v>2701.4830000000002</v>
@@ -8053,13 +8047,13 @@
         <v>375.935</v>
       </c>
       <c r="K100">
-        <v>1021.69</v>
+        <v>1021.693</v>
       </c>
       <c r="L100">
         <v>1174.48</v>
       </c>
       <c r="M100">
-        <v>14513.8194</v>
+        <v>14513.819</v>
       </c>
       <c r="N100">
         <v>2763.31</v>
@@ -8127,13 +8121,13 @@
         <v>375.42520000000002</v>
       </c>
       <c r="K101">
-        <v>1049.54</v>
+        <v>1049.5440000000001</v>
       </c>
       <c r="L101">
         <v>1163.3900000000001</v>
       </c>
       <c r="M101">
-        <v>14501.5378</v>
+        <v>14501.538</v>
       </c>
       <c r="N101">
         <v>2691.3589999999999</v>
@@ -8201,7 +8195,7 @@
         <v>372.08960000000002</v>
       </c>
       <c r="K102">
-        <v>1025.98</v>
+        <v>1025.982</v>
       </c>
       <c r="L102">
         <v>1186.28</v>
@@ -8275,7 +8269,7 @@
         <v>368.55599999999998</v>
       </c>
       <c r="K103">
-        <v>999.52</v>
+        <v>999.51700000000005</v>
       </c>
       <c r="L103">
         <v>1169.6199999999999</v>
@@ -8349,7 +8343,7 @@
         <v>365.88080000000002</v>
       </c>
       <c r="K104">
-        <v>983.71</v>
+        <v>983.70799999999997</v>
       </c>
       <c r="L104">
         <v>1180.24</v>
@@ -8423,7 +8417,7 @@
         <v>363.84429999999998</v>
       </c>
       <c r="K105">
-        <v>988.28</v>
+        <v>988.28300000000002</v>
       </c>
       <c r="L105">
         <v>1183.75</v>
@@ -8497,7 +8491,7 @@
         <v>373.45389999999998</v>
       </c>
       <c r="K106">
-        <v>1031.97</v>
+        <v>1031.9690000000001</v>
       </c>
       <c r="L106">
         <v>1170.55</v>
@@ -8571,7 +8565,7 @@
         <v>380.5421</v>
       </c>
       <c r="K107">
-        <v>1073.2</v>
+        <v>1073.204</v>
       </c>
       <c r="L107">
         <v>1174.4100000000001</v>
@@ -8645,7 +8639,7 @@
         <v>384.01139999999998</v>
       </c>
       <c r="K108">
-        <v>1080.95</v>
+        <v>1080.9480000000001</v>
       </c>
       <c r="L108">
         <v>1154.26</v>
@@ -8719,7 +8713,7 @@
         <v>384.13850000000002</v>
       </c>
       <c r="K109">
-        <v>1092.6600000000001</v>
+        <v>1092.664</v>
       </c>
       <c r="L109">
         <v>1165.76</v>
@@ -8793,7 +8787,7 @@
         <v>389.53660000000002</v>
       </c>
       <c r="K110">
-        <v>1120.26</v>
+        <v>1120.2619999999999</v>
       </c>
       <c r="L110">
         <v>1169.28</v>
@@ -8867,7 +8861,7 @@
         <v>392.6105</v>
       </c>
       <c r="K111">
-        <v>1145.21</v>
+        <v>1145.2149999999999</v>
       </c>
       <c r="L111">
         <v>1157.81</v>
@@ -8941,7 +8935,7 @@
         <v>396.03949999999998</v>
       </c>
       <c r="K112">
-        <v>1152.6199999999999</v>
+        <v>1152.624</v>
       </c>
       <c r="L112">
         <v>1156.1199999999999</v>
@@ -9015,7 +9009,7 @@
         <v>399.08030000000002</v>
       </c>
       <c r="K113">
-        <v>1156.23</v>
+        <v>1156.2260000000001</v>
       </c>
       <c r="L113">
         <v>1137.8</v>
@@ -9089,7 +9083,7 @@
         <v>400.37619999999998</v>
       </c>
       <c r="K114">
-        <v>1151.67</v>
+        <v>1151.6659999999999</v>
       </c>
       <c r="L114">
         <v>1129.95</v>
@@ -9163,7 +9157,7 @@
         <v>404.9606</v>
       </c>
       <c r="K115">
-        <v>1174.32</v>
+        <v>1174.319</v>
       </c>
       <c r="L115">
         <v>1135.3599999999999</v>
@@ -9237,7 +9231,7 @@
         <v>407.12240000000003</v>
       </c>
       <c r="K116">
-        <v>1190.0899999999999</v>
+        <v>1190.088</v>
       </c>
       <c r="L116">
         <v>1124.55</v>
@@ -9311,7 +9305,7 @@
         <v>409.50909999999999</v>
       </c>
       <c r="K117">
-        <v>1208.6600000000001</v>
+        <v>1208.6590000000001</v>
       </c>
       <c r="L117">
         <v>1137.81</v>
@@ -9385,7 +9379,7 @@
         <v>409.8263</v>
       </c>
       <c r="K118">
-        <v>1206.1199999999999</v>
+        <v>1206.123</v>
       </c>
       <c r="L118">
         <v>1126.77</v>
@@ -9459,7 +9453,7 @@
         <v>411.61130000000003</v>
       </c>
       <c r="K119">
-        <v>1219.79</v>
+        <v>1219.789</v>
       </c>
       <c r="L119">
         <v>1126.01</v>
@@ -9533,7 +9527,7 @@
         <v>413.17660000000001</v>
       </c>
       <c r="K120">
-        <v>1230.68</v>
+        <v>1230.684</v>
       </c>
       <c r="L120">
         <v>1131.48</v>
@@ -9607,7 +9601,7 @@
         <v>412.91320000000002</v>
       </c>
       <c r="K121">
-        <v>1231.98</v>
+        <v>1231.9829999999999</v>
       </c>
       <c r="L121">
         <v>1126.83</v>
@@ -9681,7 +9675,7 @@
         <v>416.14530000000002</v>
       </c>
       <c r="K122">
-        <v>1246.19</v>
+        <v>1246.193</v>
       </c>
       <c r="L122">
         <v>1137.44</v>
@@ -9829,7 +9823,7 @@
         <v>417.27420000000001</v>
       </c>
       <c r="K124">
-        <v>1257.06</v>
+        <v>1257.0630000000001</v>
       </c>
       <c r="L124">
         <v>1134.28</v>
@@ -9903,7 +9897,7 @@
         <v>420.03120000000001</v>
       </c>
       <c r="K125">
-        <v>1261.9100000000001</v>
+        <v>1261.914</v>
       </c>
       <c r="L125">
         <v>1156.0899999999999</v>
@@ -9977,7 +9971,7 @@
         <v>420.53440000000001</v>
       </c>
       <c r="K126">
-        <v>1258.53</v>
+        <v>1258.528</v>
       </c>
       <c r="L126">
         <v>1154.3499999999999</v>
@@ -10051,7 +10045,7 @@
         <v>422.16019999999997</v>
       </c>
       <c r="K127">
-        <v>1262.2</v>
+        <v>1262.1959999999999</v>
       </c>
       <c r="L127">
         <v>1163.8699999999999</v>
@@ -10125,7 +10119,7 @@
         <v>426.71300000000002</v>
       </c>
       <c r="K128">
-        <v>1270.29</v>
+        <v>1270.289</v>
       </c>
       <c r="L128">
         <v>1208.0999999999999</v>
@@ -10199,7 +10193,7 @@
         <v>427.47710000000001</v>
       </c>
       <c r="K129">
-        <v>1258.45</v>
+        <v>1258.4459999999999</v>
       </c>
       <c r="L129">
         <v>1149.3900000000001</v>
@@ -10273,7 +10267,7 @@
         <v>428.83859999999999</v>
       </c>
       <c r="K130">
-        <v>1250.68</v>
+        <v>1250.6769999999999</v>
       </c>
       <c r="L130">
         <v>1140.28</v>
@@ -10347,7 +10341,7 @@
         <v>430.92849999999999</v>
       </c>
       <c r="K131">
-        <v>1259</v>
+        <v>1258.9960000000001</v>
       </c>
       <c r="L131">
         <v>1145.54</v>
@@ -10421,7 +10415,7 @@
         <v>431.76209999999998</v>
       </c>
       <c r="K132">
-        <v>1258.81</v>
+        <v>1258.806</v>
       </c>
       <c r="L132">
         <v>1141.3699999999999</v>
@@ -10495,7 +10489,7 @@
         <v>432.1986</v>
       </c>
       <c r="K133">
-        <v>1263.1500000000001</v>
+        <v>1263.153</v>
       </c>
       <c r="L133">
         <v>1142.77</v>
@@ -10569,7 +10563,7 @@
         <v>435.77850000000001</v>
       </c>
       <c r="K134">
-        <v>1277.27</v>
+        <v>1277.268</v>
       </c>
       <c r="L134">
         <v>1130.1600000000001</v>
@@ -10643,7 +10637,7 @@
         <v>437.56849999999997</v>
       </c>
       <c r="K135">
-        <v>1286.52</v>
+        <v>1286.518</v>
       </c>
       <c r="L135">
         <v>1157.3699999999999</v>
@@ -10717,7 +10711,7 @@
         <v>440.55239999999998</v>
       </c>
       <c r="K136">
-        <v>1293.99</v>
+        <v>1293.9939999999999</v>
       </c>
       <c r="L136">
         <v>1150.1099999999999</v>
@@ -10791,7 +10785,7 @@
         <v>440.57920000000001</v>
       </c>
       <c r="K137">
-        <v>1272.8</v>
+        <v>1272.8030000000001</v>
       </c>
       <c r="L137">
         <v>1119.6300000000001</v>
@@ -10865,7 +10859,7 @@
         <v>436.98590000000002</v>
       </c>
       <c r="K138">
-        <v>1261.25</v>
+        <v>1261.2529999999999</v>
       </c>
       <c r="L138">
         <v>1117.54</v>
@@ -10939,7 +10933,7 @@
         <v>426.97919999999999</v>
       </c>
       <c r="K139">
-        <v>1233.6099999999999</v>
+        <v>1233.6079999999999</v>
       </c>
       <c r="L139">
         <v>1126.0899999999999</v>
@@ -11013,7 +11007,7 @@
         <v>436.80489999999998</v>
       </c>
       <c r="K140">
-        <v>1290.27</v>
+        <v>1290.2670000000001</v>
       </c>
       <c r="L140">
         <v>1104.58</v>
@@ -11087,7 +11081,7 @@
         <v>443.65249999999997</v>
       </c>
       <c r="K141">
-        <v>1312.05</v>
+        <v>1312.0530000000001</v>
       </c>
       <c r="L141">
         <v>1112.99</v>
@@ -11161,10 +11155,10 @@
         <v>443.11380000000003</v>
       </c>
       <c r="K142">
-        <v>1324.91</v>
+        <v>1324.9090000000001</v>
       </c>
       <c r="L142">
-        <v>1116.33</v>
+        <v>1116.328</v>
       </c>
       <c r="M142">
         <v>14681.66</v>
@@ -11235,10 +11229,10 @@
         <v>450.14179999999999</v>
       </c>
       <c r="K143">
-        <v>1343.45</v>
+        <v>1343.4449999999999</v>
       </c>
       <c r="L143">
-        <v>1129.1300000000001</v>
+        <v>1129.1289999999999</v>
       </c>
       <c r="M143">
         <v>14836.621999999999</v>
@@ -11309,10 +11303,10 @@
         <v>449.12759999999997</v>
       </c>
       <c r="K144">
-        <v>1326.37</v>
+        <v>1326.3689999999999</v>
       </c>
       <c r="L144">
-        <v>1126.0899999999999</v>
+        <v>1126.0940000000001</v>
       </c>
       <c r="M144">
         <v>14707.329</v>
@@ -11383,7 +11377,7 @@
         <v>450.11630000000002</v>
       </c>
       <c r="K145">
-        <v>1358.89</v>
+        <v>1358.893</v>
       </c>
       <c r="L145">
         <v>1155.1099999999999</v>
@@ -11457,7 +11451,7 @@
         <v>453.63990000000001</v>
       </c>
       <c r="K146">
-        <v>1365.85</v>
+        <v>1365.8510000000001</v>
       </c>
       <c r="L146">
         <v>1176.26</v>
@@ -11531,7 +11525,7 @@
         <v>452.3603</v>
       </c>
       <c r="K147">
-        <v>1371.18</v>
+        <v>1371.181</v>
       </c>
       <c r="L147">
         <v>1195.94</v>
@@ -11605,7 +11599,7 @@
         <v>454.2679</v>
       </c>
       <c r="K148">
-        <v>1375.53</v>
+        <v>1375.528</v>
       </c>
       <c r="L148">
         <v>1183.01</v>
@@ -11679,7 +11673,7 @@
         <v>452.06330000000003</v>
       </c>
       <c r="K149">
-        <v>1378.72</v>
+        <v>1378.722</v>
       </c>
       <c r="L149">
         <v>1166.43</v>
@@ -11753,7 +11747,7 @@
         <v>454.55160000000001</v>
       </c>
       <c r="K150">
-        <v>1382.49</v>
+        <v>1382.4870000000001</v>
       </c>
       <c r="L150">
         <v>1177.05</v>
@@ -11827,7 +11821,7 @@
         <v>461.8843</v>
       </c>
       <c r="K151">
-        <v>1411.39</v>
+        <v>1411.3869999999999</v>
       </c>
       <c r="L151">
         <v>1180.6199999999999</v>
@@ -11901,7 +11895,7 @@
         <v>464.33879999999999</v>
       </c>
       <c r="K152">
-        <v>1411.45</v>
+        <v>1411.4469999999999</v>
       </c>
       <c r="L152">
         <v>1190.33</v>
@@ -11975,7 +11969,7 @@
         <v>458.06479999999999</v>
       </c>
       <c r="K153">
-        <v>1389.57</v>
+        <v>1389.5709999999999</v>
       </c>
       <c r="L153">
         <v>1176.22</v>
@@ -12049,7 +12043,7 @@
         <v>400.9701</v>
       </c>
       <c r="K154">
-        <v>1226.17</v>
+        <v>1226.174</v>
       </c>
       <c r="L154">
         <v>1166.67</v>
@@ -12123,7 +12117,7 @@
         <v>418.16950000000003</v>
       </c>
       <c r="K155">
-        <v>1272.77</v>
+        <v>1272.7729999999999</v>
       </c>
       <c r="L155">
         <v>1172.4100000000001</v>
@@ -12197,7 +12191,7 @@
         <v>434.06650000000002</v>
       </c>
       <c r="K156">
-        <v>1330.99</v>
+        <v>1330.9849999999999</v>
       </c>
       <c r="L156">
         <v>1175.5</v>
@@ -12271,7 +12265,7 @@
         <v>439.91300000000001</v>
       </c>
       <c r="K157">
-        <v>1343.96</v>
+        <v>1343.9580000000001</v>
       </c>
       <c r="L157">
         <v>1172.0999999999999</v>
@@ -12345,7 +12339,7 @@
         <v>448.18779999999998</v>
       </c>
       <c r="K158">
-        <v>1408.17</v>
+        <v>1408.173</v>
       </c>
       <c r="L158">
         <v>1192.95</v>
@@ -12493,7 +12487,7 @@
         <v>458.06110000000001</v>
       </c>
       <c r="K160">
-        <v>1407.21</v>
+        <v>1407.2059999999999</v>
       </c>
       <c r="L160">
         <v>1181.9000000000001</v>
@@ -12567,7 +12561,7 @@
         <v>458.85820000000001</v>
       </c>
       <c r="K161">
-        <v>1413.79</v>
+        <v>1413.7860000000001</v>
       </c>
       <c r="L161">
         <v>1175.82</v>
@@ -12641,7 +12635,7 @@
         <v>468.62920000000003</v>
       </c>
       <c r="K162">
-        <v>1470.38</v>
+        <v>1470.376</v>
       </c>
       <c r="L162">
         <v>1195.79</v>
@@ -12715,7 +12709,7 @@
         <v>474.71800000000002</v>
       </c>
       <c r="K163">
-        <v>1498.42</v>
+        <v>1498.421</v>
       </c>
       <c r="L163">
         <v>1231.32</v>
@@ -12789,7 +12783,7 @@
         <v>480.7278</v>
       </c>
       <c r="K164">
-        <v>1504.16</v>
+        <v>1504.1559999999999</v>
       </c>
       <c r="L164">
         <v>1224.18</v>
@@ -12863,7 +12857,7 @@
         <v>483.96280000000002</v>
       </c>
       <c r="K165">
-        <v>1509.4</v>
+        <v>1509.3969999999999</v>
       </c>
       <c r="L165">
         <v>1240.02</v>
@@ -12937,7 +12931,7 @@
         <v>484.25209999999998</v>
       </c>
       <c r="K166">
-        <v>1511.97</v>
+        <v>1511.9670000000001</v>
       </c>
       <c r="L166">
         <v>1237.72</v>
@@ -13011,7 +13005,7 @@
         <v>486.71570000000003</v>
       </c>
       <c r="K167">
-        <v>1528.55</v>
+        <v>1528.5519999999999</v>
       </c>
       <c r="L167">
         <v>1251.33</v>
@@ -13085,7 +13079,7 @@
         <v>489.24040000000002</v>
       </c>
       <c r="K168">
-        <v>1532.96</v>
+        <v>1532.9639999999999</v>
       </c>
       <c r="L168">
         <v>1258.02</v>
@@ -13159,7 +13153,7 @@
         <v>491.24099999999999</v>
       </c>
       <c r="K169">
-        <v>1553.91</v>
+        <v>1553.9090000000001</v>
       </c>
       <c r="L169">
         <v>1250.5</v>
@@ -13307,7 +13301,7 @@
         <v>493.61149999999998</v>
       </c>
       <c r="K171">
-        <v>1567.95</v>
+        <v>1567.9449999999999</v>
       </c>
       <c r="L171">
         <v>1247.31</v>
@@ -13381,7 +13375,7 @@
         <v>496.8091</v>
       </c>
       <c r="K172">
-        <v>1568.47</v>
+        <v>1568.471</v>
       </c>
       <c r="L172">
         <v>1231.8599999999999</v>
@@ -13455,7 +13449,7 @@
         <v>497.9812</v>
       </c>
       <c r="K173">
-        <v>1565.68</v>
+        <v>1565.681</v>
       </c>
       <c r="L173">
         <v>1244.81</v>
@@ -13529,7 +13523,7 @@
         <v>497.22050000000002</v>
       </c>
       <c r="K174">
-        <v>1549.64</v>
+        <v>1549.636</v>
       </c>
       <c r="L174">
         <v>1210.92</v>
@@ -13686,7 +13680,7 @@
         <v>17491.125</v>
       </c>
       <c r="N176">
-        <v>3145.7220000000002</v>
+        <v>3145.6610000000001</v>
       </c>
       <c r="O176">
         <v>1759.42</v>
@@ -13751,7 +13745,7 @@
         <v>499.65269999999998</v>
       </c>
       <c r="K177">
-        <v>1521.6</v>
+        <v>1521.604</v>
       </c>
       <c r="L177">
         <v>1194.8599999999999</v>
@@ -13760,7 +13754,7 @@
         <v>17708.370999999999</v>
       </c>
       <c r="N177">
-        <v>3261.5569999999998</v>
+        <v>3261.4670000000001</v>
       </c>
       <c r="O177">
         <v>1779.61</v>
@@ -13825,7 +13819,7 @@
         <v>499.84949999999998</v>
       </c>
       <c r="K178">
-        <v>1507.53</v>
+        <v>1507.5250000000001</v>
       </c>
       <c r="L178">
         <v>1231.8699999999999</v>
@@ -13834,7 +13828,7 @@
         <v>18513.787</v>
       </c>
       <c r="N178">
-        <v>3576.8649999999998</v>
+        <v>3576.799</v>
       </c>
       <c r="O178">
         <v>1708.65</v>
@@ -13899,7 +13893,7 @@
         <v>500.70659999999998</v>
       </c>
       <c r="K179">
-        <v>1452.69</v>
+        <v>1452.6869999999999</v>
       </c>
       <c r="L179">
         <v>1255.32</v>
@@ -13908,7 +13902,7 @@
         <v>19027.263999999999</v>
       </c>
       <c r="N179">
-        <v>3829.3389999999999</v>
+        <v>3829.2640000000001</v>
       </c>
       <c r="O179">
         <v>1718.69</v>
@@ -13973,7 +13967,7 @@
         <v>488.13490000000002</v>
       </c>
       <c r="K180">
-        <v>1456.32</v>
+        <v>1456.3240000000001</v>
       </c>
       <c r="L180">
         <v>1243.99</v>
@@ -13982,7 +13976,7 @@
         <v>18991.223000000002</v>
       </c>
       <c r="N180">
-        <v>3821.6329999999998</v>
+        <v>3821.616</v>
       </c>
       <c r="O180">
         <v>1718.69</v>
@@ -14047,7 +14041,7 @@
         <v>478.0942</v>
       </c>
       <c r="K181">
-        <v>1357.2</v>
+        <v>1357.1969999999999</v>
       </c>
       <c r="L181">
         <v>1261.07</v>
@@ -14056,7 +14050,7 @@
         <v>18830.867999999999</v>
       </c>
       <c r="N181">
-        <v>3919.7809999999999</v>
+        <v>3919.8330000000001</v>
       </c>
       <c r="O181">
         <v>1718.69</v>
@@ -14130,7 +14124,7 @@
         <v>18679.645</v>
       </c>
       <c r="N182">
-        <v>3747.0160000000001</v>
+        <v>3747.049</v>
       </c>
       <c r="O182">
         <v>1718.69</v>
@@ -14195,7 +14189,7 @@
         <v>494.48860000000002</v>
       </c>
       <c r="K183">
-        <v>1404.48</v>
+        <v>1404.481</v>
       </c>
       <c r="L183">
         <v>1257.82</v>
@@ -14204,7 +14198,7 @@
         <v>18922.542000000001</v>
       </c>
       <c r="N183">
-        <v>3896.473</v>
+        <v>3896.4749999999999</v>
       </c>
       <c r="O183">
         <v>1718.69</v>
@@ -14269,7 +14263,7 @@
         <v>483.77879999999999</v>
       </c>
       <c r="K184">
-        <v>1348</v>
+        <v>1347.9949999999999</v>
       </c>
       <c r="L184">
         <v>1295.3699999999999</v>
@@ -14278,7 +14272,7 @@
         <v>19166.885999999999</v>
       </c>
       <c r="N184">
-        <v>4120.9750000000004</v>
+        <v>4121.0169999999998</v>
       </c>
       <c r="O184">
         <v>1718.69</v>
@@ -14343,7 +14337,7 @@
         <v>487.8895</v>
       </c>
       <c r="K185">
-        <v>1386.37</v>
+        <v>1386.3679999999999</v>
       </c>
       <c r="L185">
         <v>1297.27</v>
@@ -14352,7 +14346,7 @@
         <v>19286.981</v>
       </c>
       <c r="N185">
-        <v>4128.7719999999999</v>
+        <v>4128.8620000000001</v>
       </c>
       <c r="O185">
         <v>1718.69</v>
@@ -14426,7 +14420,7 @@
         <v>18880.728999999999</v>
       </c>
       <c r="N186">
-        <v>3879.6979999999999</v>
+        <v>3879.7849999999999</v>
       </c>
       <c r="O186">
         <v>1718.69</v>
@@ -14491,16 +14485,16 @@
         <v>495.06270000000001</v>
       </c>
       <c r="K187">
-        <v>1401.68</v>
+        <v>1401.683</v>
       </c>
       <c r="L187">
         <v>1266.8900000000001</v>
       </c>
       <c r="M187">
-        <v>18968.453000000001</v>
+        <v>18910.451000000001</v>
       </c>
       <c r="N187">
-        <v>3870.6570000000002</v>
+        <v>3870.7959999999998</v>
       </c>
       <c r="O187">
         <v>1718.69</v>
@@ -14518,7 +14512,7 @@
         <v>4.3983636739999996</v>
       </c>
       <c r="T187">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U187">
         <v>1536.73</v>
@@ -14531,6 +14525,820 @@
       </c>
       <c r="X187">
         <v>367.56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B188">
+        <v>145.46</v>
+      </c>
+      <c r="C188">
+        <v>4161.7</v>
+      </c>
+      <c r="D188">
+        <v>178.0941</v>
+      </c>
+      <c r="E188">
+        <v>4076.6</v>
+      </c>
+      <c r="F188">
+        <v>648.37</v>
+      </c>
+      <c r="G188">
+        <v>1931.9449999999999</v>
+      </c>
+      <c r="H188">
+        <v>2100.44</v>
+      </c>
+      <c r="I188">
+        <v>1031.5</v>
+      </c>
+      <c r="J188">
+        <v>507.7645</v>
+      </c>
+      <c r="K188">
+        <v>1456.4829999999999</v>
+      </c>
+      <c r="L188">
+        <v>1267.28</v>
+      </c>
+      <c r="M188">
+        <v>18975.955000000002</v>
+      </c>
+      <c r="N188">
+        <v>3817.5610000000001</v>
+      </c>
+      <c r="O188">
+        <v>1718.69</v>
+      </c>
+      <c r="P188">
+        <v>407.11</v>
+      </c>
+      <c r="Q188">
+        <v>162.4709</v>
+      </c>
+      <c r="R188">
+        <v>4.5090300000000001</v>
+      </c>
+      <c r="S188">
+        <v>4.6489987660000001</v>
+      </c>
+      <c r="T188">
+        <v>5079.05</v>
+      </c>
+      <c r="U188">
+        <v>1648.91</v>
+      </c>
+      <c r="V188">
+        <v>2367.614</v>
+      </c>
+      <c r="W188">
+        <v>141.75</v>
+      </c>
+      <c r="X188">
+        <v>382.39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B189">
+        <v>136.36000000000001</v>
+      </c>
+      <c r="C189">
+        <v>3934.93</v>
+      </c>
+      <c r="D189">
+        <v>168.9444</v>
+      </c>
+      <c r="E189">
+        <v>3970.15</v>
+      </c>
+      <c r="F189">
+        <v>629.02</v>
+      </c>
+      <c r="G189">
+        <v>1896.991</v>
+      </c>
+      <c r="H189">
+        <v>2053.69</v>
+      </c>
+      <c r="I189">
+        <v>964.01</v>
+      </c>
+      <c r="J189">
+        <v>510.96210000000002</v>
+      </c>
+      <c r="K189">
+        <v>1437.635</v>
+      </c>
+      <c r="L189">
+        <v>1273.56</v>
+      </c>
+      <c r="M189">
+        <v>18958.985000000001</v>
+      </c>
+      <c r="N189">
+        <v>3888.4479999999999</v>
+      </c>
+      <c r="O189">
+        <v>1718.69</v>
+      </c>
+      <c r="P189">
+        <v>382.53</v>
+      </c>
+      <c r="Q189">
+        <v>162.4709</v>
+      </c>
+      <c r="R189">
+        <v>4.67272</v>
+      </c>
+      <c r="S189">
+        <v>4.8077261</v>
+      </c>
+      <c r="T189">
+        <v>5079.05</v>
+      </c>
+      <c r="U189">
+        <v>1601.19</v>
+      </c>
+      <c r="V189">
+        <v>2308.3960000000002</v>
+      </c>
+      <c r="W189">
+        <v>134.5625</v>
+      </c>
+      <c r="X189">
+        <v>366.54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B190">
+        <v>143.85</v>
+      </c>
+      <c r="C190">
+        <v>4104.91</v>
+      </c>
+      <c r="D190">
+        <v>176.52780000000001</v>
+      </c>
+      <c r="E190">
+        <v>4109.3100000000004</v>
+      </c>
+      <c r="F190">
+        <v>646.76</v>
+      </c>
+      <c r="G190">
+        <v>1802.4839999999999</v>
+      </c>
+      <c r="H190">
+        <v>2092.6</v>
+      </c>
+      <c r="I190">
+        <v>990.28</v>
+      </c>
+      <c r="J190">
+        <v>510.464</v>
+      </c>
+      <c r="K190">
+        <v>1453.818</v>
+      </c>
+      <c r="L190">
+        <v>1235.1600000000001</v>
+      </c>
+      <c r="M190">
+        <v>18448.667000000001</v>
+      </c>
+      <c r="N190">
+        <v>3588.0039999999999</v>
+      </c>
+      <c r="O190">
+        <v>1718.69</v>
+      </c>
+      <c r="P190">
+        <v>373.22</v>
+      </c>
+      <c r="Q190">
+        <v>162.4709</v>
+      </c>
+      <c r="R190">
+        <v>4.6408199999999997</v>
+      </c>
+      <c r="S190">
+        <v>4.7309068339999998</v>
+      </c>
+      <c r="T190">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U190">
+        <v>1636.36</v>
+      </c>
+      <c r="V190">
+        <v>2366.27</v>
+      </c>
+      <c r="W190">
+        <v>141.125</v>
+      </c>
+      <c r="X190">
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B191">
+        <v>144.24</v>
+      </c>
+      <c r="C191">
+        <v>4135.75</v>
+      </c>
+      <c r="D191">
+        <v>176.87960000000001</v>
+      </c>
+      <c r="E191">
+        <v>4169.4799999999996</v>
+      </c>
+      <c r="F191">
+        <v>655</v>
+      </c>
+      <c r="G191">
+        <v>1768.9870000000001</v>
+      </c>
+      <c r="H191">
+        <v>2143.85</v>
+      </c>
+      <c r="I191">
+        <v>977.05</v>
+      </c>
+      <c r="J191">
+        <v>515.30060000000003</v>
+      </c>
+      <c r="K191">
+        <v>1467.85</v>
+      </c>
+      <c r="L191">
+        <v>1252.01</v>
+      </c>
+      <c r="M191">
+        <v>18601.562999999998</v>
+      </c>
+      <c r="N191">
+        <v>3691.3</v>
+      </c>
+      <c r="O191">
+        <v>1718.69</v>
+      </c>
+      <c r="P191">
+        <v>373.66</v>
+      </c>
+      <c r="Q191">
+        <v>162.4709</v>
+      </c>
+      <c r="R191">
+        <v>4.9508999999999999</v>
+      </c>
+      <c r="S191">
+        <v>5.1306892120000001</v>
+      </c>
+      <c r="T191">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U191">
+        <v>1654.5</v>
+      </c>
+      <c r="V191">
+        <v>2389.3040000000001</v>
+      </c>
+      <c r="W191">
+        <v>141.40625</v>
+      </c>
+      <c r="X191">
+        <v>388.47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B192">
+        <v>138.65</v>
+      </c>
+      <c r="C192">
+        <v>4020.88</v>
+      </c>
+      <c r="D192">
+        <v>170.57380000000001</v>
+      </c>
+      <c r="E192">
+        <v>4179.83</v>
+      </c>
+      <c r="F192">
+        <v>646.37</v>
+      </c>
+      <c r="G192">
+        <v>1749.65</v>
+      </c>
+      <c r="H192">
+        <v>2041.81</v>
+      </c>
+      <c r="I192">
+        <v>958.53</v>
+      </c>
+      <c r="J192">
+        <v>514.86080000000004</v>
+      </c>
+      <c r="K192">
+        <v>1453.913</v>
+      </c>
+      <c r="L192">
+        <v>1263.18</v>
+      </c>
+      <c r="M192">
+        <v>18548.652999999998</v>
+      </c>
+      <c r="N192">
+        <v>3798.7719999999999</v>
+      </c>
+      <c r="O192">
+        <v>1718.69</v>
+      </c>
+      <c r="P192">
+        <v>357.38</v>
+      </c>
+      <c r="Q192">
+        <v>162.4709</v>
+      </c>
+      <c r="R192">
+        <v>5.1535799999999998</v>
+      </c>
+      <c r="S192">
+        <v>5.3719694689999997</v>
+      </c>
+      <c r="T192">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U192">
+        <v>1630.51</v>
+      </c>
+      <c r="V192">
+        <v>2394.2890000000002</v>
+      </c>
+      <c r="W192">
+        <v>136.375</v>
+      </c>
+      <c r="X192">
+        <v>379.55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B193">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="C193">
+        <v>4082.76</v>
+      </c>
+      <c r="D193">
+        <v>169.756</v>
+      </c>
+      <c r="E193">
+        <v>4450.38</v>
+      </c>
+      <c r="F193">
+        <v>682.84</v>
+      </c>
+      <c r="G193">
+        <v>1888.7339999999999</v>
+      </c>
+      <c r="H193">
+        <v>2131.7199999999998</v>
+      </c>
+      <c r="I193">
+        <v>989.48</v>
+      </c>
+      <c r="J193">
+        <v>526.38220000000001</v>
+      </c>
+      <c r="K193">
+        <v>1477.579</v>
+      </c>
+      <c r="L193">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="M193">
+        <v>18754.213</v>
+      </c>
+      <c r="N193">
+        <v>3876.107</v>
+      </c>
+      <c r="O193">
+        <v>1718.69</v>
+      </c>
+      <c r="P193">
+        <v>373.51</v>
+      </c>
+      <c r="Q193">
+        <v>162.4709</v>
+      </c>
+      <c r="R193">
+        <v>5.2157900000000001</v>
+      </c>
+      <c r="S193">
+        <v>5.2487262379999997</v>
+      </c>
+      <c r="T193">
+        <v>5362.12</v>
+      </c>
+      <c r="U193">
+        <v>1722.87</v>
+      </c>
+      <c r="V193">
+        <v>2554.4879999999998</v>
+      </c>
+      <c r="W193">
+        <v>136.21875</v>
+      </c>
+      <c r="X193">
+        <v>376.94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B194">
+        <v>134.74</v>
+      </c>
+      <c r="C194">
+        <v>4077.42</v>
+      </c>
+      <c r="D194">
+        <v>164.77119999999999</v>
+      </c>
+      <c r="E194">
+        <v>4588.96</v>
+      </c>
+      <c r="F194">
+        <v>707.11</v>
+      </c>
+      <c r="G194">
+        <v>2003.1769999999999</v>
+      </c>
+      <c r="H194">
+        <v>2199.36</v>
+      </c>
+      <c r="I194">
+        <v>1046.9100000000001</v>
+      </c>
+      <c r="J194">
+        <v>533.23329999999999</v>
+      </c>
+      <c r="K194">
+        <v>1498.62</v>
+      </c>
+      <c r="L194">
+        <v>1256.76</v>
+      </c>
+      <c r="M194">
+        <v>18878.060000000001</v>
+      </c>
+      <c r="N194">
+        <v>3815.27</v>
+      </c>
+      <c r="O194">
+        <v>1718.69</v>
+      </c>
+      <c r="P194">
+        <v>380.33</v>
+      </c>
+      <c r="Q194">
+        <v>162.4709</v>
+      </c>
+      <c r="R194">
+        <v>5.2787199999999999</v>
+      </c>
+      <c r="S194">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T194">
+        <v>5362.12</v>
+      </c>
+      <c r="U194">
+        <v>1786.91</v>
+      </c>
+      <c r="V194">
+        <v>2643.6860000000001</v>
+      </c>
+      <c r="W194">
+        <v>132.21875</v>
+      </c>
+      <c r="X194">
+        <v>371.29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B195">
+        <v>128.56</v>
+      </c>
+      <c r="C195">
+        <v>3997.94</v>
+      </c>
+      <c r="D195">
+        <v>159.50399999999999</v>
+      </c>
+      <c r="E195">
+        <v>4507.66</v>
+      </c>
+      <c r="F195">
+        <v>686.15</v>
+      </c>
+      <c r="G195">
+        <v>1899.6759999999999</v>
+      </c>
+      <c r="H195">
+        <v>2109.16</v>
+      </c>
+      <c r="I195">
+        <v>980.33</v>
+      </c>
+      <c r="J195">
+        <v>539.38930000000005</v>
+      </c>
+      <c r="K195">
+        <v>1502.896</v>
+      </c>
+      <c r="L195">
+        <v>1256.23</v>
+      </c>
+      <c r="M195">
+        <v>18774.57</v>
+      </c>
+      <c r="N195">
+        <v>3779.1060000000002</v>
+      </c>
+      <c r="O195">
+        <v>1718.69</v>
+      </c>
+      <c r="P195">
+        <v>366.99</v>
+      </c>
+      <c r="Q195">
+        <v>162.4709</v>
+      </c>
+      <c r="R195">
+        <v>5.3294600000000001</v>
+      </c>
+      <c r="S195">
+        <v>5.413067388</v>
+      </c>
+      <c r="T195">
+        <v>5362.12</v>
+      </c>
+      <c r="U195">
+        <v>1732.63</v>
+      </c>
+      <c r="V195">
+        <v>2588.1060000000002</v>
+      </c>
+      <c r="W195">
+        <v>127.96875</v>
+      </c>
+      <c r="X195">
+        <v>364.19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B196">
+        <v>114.43</v>
+      </c>
+      <c r="C196">
+        <v>3787.56</v>
+      </c>
+      <c r="D196">
+        <v>146.2216</v>
+      </c>
+      <c r="E196">
+        <v>4288.05</v>
+      </c>
+      <c r="F196">
+        <v>656.82</v>
+      </c>
+      <c r="G196">
+        <v>1785.1020000000001</v>
+      </c>
+      <c r="H196">
+        <v>2031.26</v>
+      </c>
+      <c r="I196">
+        <v>952.78</v>
+      </c>
+      <c r="J196">
+        <v>544.12260000000003</v>
+      </c>
+      <c r="K196">
+        <v>1485.4169999999999</v>
+      </c>
+      <c r="L196">
+        <v>1264.0029999999999</v>
+      </c>
+      <c r="M196">
+        <v>19002.797999999999</v>
+      </c>
+      <c r="N196">
+        <v>3907.5459999999998</v>
+      </c>
+      <c r="O196">
+        <v>1718.69</v>
+      </c>
+      <c r="P196">
+        <v>360.28</v>
+      </c>
+      <c r="Q196">
+        <v>162.4709</v>
+      </c>
+      <c r="R196">
+        <v>5.3626800000000001</v>
+      </c>
+      <c r="S196">
+        <v>5.4027921179999998</v>
+      </c>
+      <c r="T196">
+        <v>5362.12</v>
+      </c>
+      <c r="U196">
+        <v>1657.17</v>
+      </c>
+      <c r="V196">
+        <v>2462.06</v>
+      </c>
+      <c r="W196">
+        <v>118.6875</v>
+      </c>
+      <c r="X196">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B197">
+        <v>105.26</v>
+      </c>
+      <c r="C197">
+        <v>3628.5</v>
+      </c>
+      <c r="D197">
+        <v>138.67570000000001</v>
+      </c>
+      <c r="E197">
+        <v>4193.8</v>
+      </c>
+      <c r="F197">
+        <v>636.65</v>
+      </c>
+      <c r="G197">
+        <v>1662.2819999999999</v>
+      </c>
+      <c r="H197">
+        <v>1947.91</v>
+      </c>
+      <c r="I197">
+        <v>915.2</v>
+      </c>
+      <c r="J197">
+        <v>544.2876</v>
+      </c>
+      <c r="K197">
+        <v>1467.0319999999999</v>
+      </c>
+      <c r="L197">
+        <v>1267.6389999999999</v>
+      </c>
+      <c r="M197">
+        <v>18864.809000000001</v>
+      </c>
+      <c r="N197">
+        <v>3912.1610000000001</v>
+      </c>
+      <c r="O197">
+        <v>1718.69</v>
+      </c>
+      <c r="P197">
+        <v>360.28</v>
+      </c>
+      <c r="Q197">
+        <v>162.4709</v>
+      </c>
+      <c r="R197">
+        <v>5.3648400000000001</v>
+      </c>
+      <c r="S197">
+        <v>5.3976546809999997</v>
+      </c>
+      <c r="T197">
+        <v>5362.12</v>
+      </c>
+      <c r="U197">
+        <v>1600.93</v>
+      </c>
+      <c r="V197">
+        <v>2394.585</v>
+      </c>
+      <c r="W197">
+        <v>112.5625</v>
+      </c>
+      <c r="X197">
+        <v>330.52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B198">
+        <v>120.27</v>
+      </c>
+      <c r="C198">
+        <v>4022.31</v>
+      </c>
+      <c r="D198">
+        <v>150.5694</v>
+      </c>
+      <c r="E198">
+        <v>4567.8</v>
+      </c>
+      <c r="F198">
+        <v>694.38</v>
+      </c>
+      <c r="G198">
+        <v>1809.02</v>
+      </c>
+      <c r="H198">
+        <v>2124.91</v>
+      </c>
+      <c r="I198">
+        <v>987.1</v>
+      </c>
+      <c r="J198">
+        <v>550.78459999999995</v>
+      </c>
+      <c r="K198">
+        <v>1533.7560000000001</v>
+      </c>
+      <c r="L198">
+        <v>1245.559</v>
+      </c>
+      <c r="M198">
+        <v>18864.809000000001</v>
+      </c>
+      <c r="N198">
+        <v>3721.7759999999998</v>
+      </c>
+      <c r="O198">
+        <v>1718.69</v>
+      </c>
+      <c r="P198">
+        <v>360.28</v>
+      </c>
+      <c r="Q198">
+        <v>162.4709</v>
+      </c>
+      <c r="R198">
+        <v>5.2951499999999996</v>
+      </c>
+      <c r="S198">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T198">
+        <v>5362.12</v>
+      </c>
+      <c r="U198">
+        <v>1746.35</v>
+      </c>
+      <c r="V198">
+        <v>2612.866</v>
+      </c>
+      <c r="W198">
+        <v>122.3125</v>
+      </c>
+      <c r="X198">
+        <v>353.03</v>
       </c>
     </row>
   </sheetData>
@@ -14540,15 +15348,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X182"/>
+  <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -26880,7 +27688,7 @@
         <v>496.8091</v>
       </c>
       <c r="K167">
-        <v>1568.47</v>
+        <v>1568.471</v>
       </c>
       <c r="L167">
         <v>1231.8599999999999</v>
@@ -26954,7 +27762,7 @@
         <v>497.9812</v>
       </c>
       <c r="K168">
-        <v>1565.68</v>
+        <v>1565.681</v>
       </c>
       <c r="L168">
         <v>1244.81</v>
@@ -27028,7 +27836,7 @@
         <v>497.22050000000002</v>
       </c>
       <c r="K169">
-        <v>1549.64</v>
+        <v>1549.636</v>
       </c>
       <c r="L169">
         <v>1210.92</v>
@@ -27185,7 +27993,7 @@
         <v>17491.125</v>
       </c>
       <c r="N171">
-        <v>3145.723</v>
+        <v>3145.6610000000001</v>
       </c>
       <c r="O171">
         <v>1759.42</v>
@@ -27250,7 +28058,7 @@
         <v>499.65269999999998</v>
       </c>
       <c r="K172">
-        <v>1521.6</v>
+        <v>1521.604</v>
       </c>
       <c r="L172">
         <v>1194.8599999999999</v>
@@ -27259,7 +28067,7 @@
         <v>17708.370999999999</v>
       </c>
       <c r="N172">
-        <v>3261.558</v>
+        <v>3261.4670000000001</v>
       </c>
       <c r="O172">
         <v>1779.61</v>
@@ -27324,7 +28132,7 @@
         <v>499.84949999999998</v>
       </c>
       <c r="K173">
-        <v>1507.53</v>
+        <v>1507.5250000000001</v>
       </c>
       <c r="L173">
         <v>1231.8699999999999</v>
@@ -27333,7 +28141,7 @@
         <v>18513.787</v>
       </c>
       <c r="N173">
-        <v>3576.8649999999998</v>
+        <v>3576.799</v>
       </c>
       <c r="O173">
         <v>1708.65</v>
@@ -27351,7 +28159,7 @@
         <v>0.60592664699999998</v>
       </c>
       <c r="T173">
-        <v>4778.1000000000004</v>
+        <v>4862.16</v>
       </c>
       <c r="U173">
         <v>1805.11</v>
@@ -27398,7 +28206,7 @@
         <v>500.70659999999998</v>
       </c>
       <c r="K174">
-        <v>1452.69</v>
+        <v>1452.6869999999999</v>
       </c>
       <c r="L174">
         <v>1255.32</v>
@@ -27407,7 +28215,7 @@
         <v>19027.263999999999</v>
       </c>
       <c r="N174">
-        <v>3829.3380000000002</v>
+        <v>3829.2640000000001</v>
       </c>
       <c r="O174">
         <v>1718.69</v>
@@ -27472,7 +28280,7 @@
         <v>488.13490000000002</v>
       </c>
       <c r="K175">
-        <v>1456.32</v>
+        <v>1456.3240000000001</v>
       </c>
       <c r="L175">
         <v>1243.99</v>
@@ -27481,7 +28289,7 @@
         <v>18991.223000000002</v>
       </c>
       <c r="N175">
-        <v>3821.6329999999998</v>
+        <v>3821.616</v>
       </c>
       <c r="O175">
         <v>1718.69</v>
@@ -27546,16 +28354,16 @@
         <v>478.0942</v>
       </c>
       <c r="K176">
-        <v>1357.2</v>
+        <v>1357.1969999999999</v>
       </c>
       <c r="L176">
         <v>1261.07</v>
       </c>
       <c r="M176">
-        <v>18910.812000000002</v>
+        <v>18830.867999999999</v>
       </c>
       <c r="N176">
-        <v>3919.7820000000002</v>
+        <v>3919.8330000000001</v>
       </c>
       <c r="O176">
         <v>1718.69</v>
@@ -27573,7 +28381,7 @@
         <v>1.7577757199999999</v>
       </c>
       <c r="T176">
-        <v>4862.16</v>
+        <v>4887.8999999999996</v>
       </c>
       <c r="U176">
         <v>1510.77</v>
@@ -27626,10 +28434,10 @@
         <v>1242.3499999999999</v>
       </c>
       <c r="M177">
-        <v>18830.867999999999</v>
+        <v>18679.645</v>
       </c>
       <c r="N177">
-        <v>3747.0189999999998</v>
+        <v>3747.049</v>
       </c>
       <c r="O177">
         <v>1718.69</v>
@@ -27647,7 +28455,7 @@
         <v>2.5361553099999998</v>
       </c>
       <c r="T177">
-        <v>4862.16</v>
+        <v>4887.8999999999996</v>
       </c>
       <c r="U177">
         <v>1616.84</v>
@@ -27694,16 +28502,16 @@
         <v>494.48860000000002</v>
       </c>
       <c r="K178">
-        <v>1404.48</v>
+        <v>1404.481</v>
       </c>
       <c r="L178">
         <v>1257.82</v>
       </c>
       <c r="M178">
-        <v>18679.645</v>
+        <v>18922.542000000001</v>
       </c>
       <c r="N178">
-        <v>3896.5830000000001</v>
+        <v>3896.4749999999999</v>
       </c>
       <c r="O178">
         <v>1718.69</v>
@@ -27768,16 +28576,16 @@
         <v>483.77879999999999</v>
       </c>
       <c r="K179">
-        <v>1348</v>
+        <v>1347.9949999999999</v>
       </c>
       <c r="L179">
         <v>1295.3699999999999</v>
       </c>
       <c r="M179">
-        <v>19245.985000000001</v>
+        <v>19166.885999999999</v>
       </c>
       <c r="N179">
-        <v>4120.9750000000004</v>
+        <v>4121.0169999999998</v>
       </c>
       <c r="O179">
         <v>1718.69</v>
@@ -27795,7 +28603,7 @@
         <v>3.2972545599999998</v>
       </c>
       <c r="T179">
-        <v>4887.8999999999996</v>
+        <v>4976.87</v>
       </c>
       <c r="U179">
         <v>1403.68</v>
@@ -27842,16 +28650,16 @@
         <v>487.8895</v>
       </c>
       <c r="K180">
-        <v>1386.37</v>
+        <v>1386.3679999999999</v>
       </c>
       <c r="L180">
         <v>1297.27</v>
       </c>
       <c r="M180">
-        <v>19349.467000000001</v>
+        <v>19286.981</v>
       </c>
       <c r="N180">
-        <v>4128.7719999999999</v>
+        <v>4128.8620000000001</v>
       </c>
       <c r="O180">
         <v>1718.69</v>
@@ -27869,7 +28677,7 @@
         <v>4.11230765</v>
       </c>
       <c r="T180">
-        <v>4887.8999999999996</v>
+        <v>4976.87</v>
       </c>
       <c r="U180">
         <v>1489.05</v>
@@ -27922,10 +28730,10 @@
         <v>1266.26</v>
       </c>
       <c r="M181">
-        <v>18959.576000000001</v>
+        <v>18880.728999999999</v>
       </c>
       <c r="N181">
-        <v>3879.6979999999999</v>
+        <v>3879.7849999999999</v>
       </c>
       <c r="O181">
         <v>1718.69</v>
@@ -27990,16 +28798,16 @@
         <v>495.06270000000001</v>
       </c>
       <c r="K182">
-        <v>1401.68</v>
+        <v>1401.683</v>
       </c>
       <c r="L182">
         <v>1266.8900000000001</v>
       </c>
       <c r="M182">
-        <v>18968.453000000001</v>
+        <v>18910.451000000001</v>
       </c>
       <c r="N182">
-        <v>3870.6570000000002</v>
+        <v>3870.7959999999998</v>
       </c>
       <c r="O182">
         <v>1718.69</v>
@@ -28017,7 +28825,7 @@
         <v>4.3983636739999996</v>
       </c>
       <c r="T182">
-        <v>4976.87</v>
+        <v>5079.05</v>
       </c>
       <c r="U182">
         <v>1536.73</v>
@@ -28030,6 +28838,820 @@
       </c>
       <c r="X182">
         <v>367.56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B183">
+        <v>145.46</v>
+      </c>
+      <c r="C183">
+        <v>4161.7</v>
+      </c>
+      <c r="D183">
+        <v>178.0941</v>
+      </c>
+      <c r="E183">
+        <v>4076.6</v>
+      </c>
+      <c r="F183">
+        <v>648.37</v>
+      </c>
+      <c r="G183">
+        <v>1931.9449999999999</v>
+      </c>
+      <c r="H183">
+        <v>2100.44</v>
+      </c>
+      <c r="I183">
+        <v>1031.5</v>
+      </c>
+      <c r="J183">
+        <v>507.7645</v>
+      </c>
+      <c r="K183">
+        <v>1456.4829999999999</v>
+      </c>
+      <c r="L183">
+        <v>1267.28</v>
+      </c>
+      <c r="M183">
+        <v>18975.955000000002</v>
+      </c>
+      <c r="N183">
+        <v>3817.5610000000001</v>
+      </c>
+      <c r="O183">
+        <v>1718.69</v>
+      </c>
+      <c r="P183">
+        <v>407.11</v>
+      </c>
+      <c r="Q183">
+        <v>162.4709</v>
+      </c>
+      <c r="R183">
+        <v>4.5090300000000001</v>
+      </c>
+      <c r="S183">
+        <v>4.6489987660000001</v>
+      </c>
+      <c r="T183">
+        <v>5079.05</v>
+      </c>
+      <c r="U183">
+        <v>1648.91</v>
+      </c>
+      <c r="V183">
+        <v>2367.614</v>
+      </c>
+      <c r="W183">
+        <v>141.75</v>
+      </c>
+      <c r="X183">
+        <v>382.39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B184">
+        <v>136.36000000000001</v>
+      </c>
+      <c r="C184">
+        <v>3934.93</v>
+      </c>
+      <c r="D184">
+        <v>168.9444</v>
+      </c>
+      <c r="E184">
+        <v>3970.15</v>
+      </c>
+      <c r="F184">
+        <v>629.02</v>
+      </c>
+      <c r="G184">
+        <v>1896.991</v>
+      </c>
+      <c r="H184">
+        <v>2053.69</v>
+      </c>
+      <c r="I184">
+        <v>964.01</v>
+      </c>
+      <c r="J184">
+        <v>510.96210000000002</v>
+      </c>
+      <c r="K184">
+        <v>1437.635</v>
+      </c>
+      <c r="L184">
+        <v>1273.56</v>
+      </c>
+      <c r="M184">
+        <v>18958.985000000001</v>
+      </c>
+      <c r="N184">
+        <v>3888.4479999999999</v>
+      </c>
+      <c r="O184">
+        <v>1718.69</v>
+      </c>
+      <c r="P184">
+        <v>382.53</v>
+      </c>
+      <c r="Q184">
+        <v>162.4709</v>
+      </c>
+      <c r="R184">
+        <v>4.67272</v>
+      </c>
+      <c r="S184">
+        <v>4.8077261</v>
+      </c>
+      <c r="T184">
+        <v>5079.05</v>
+      </c>
+      <c r="U184">
+        <v>1601.19</v>
+      </c>
+      <c r="V184">
+        <v>2308.3960000000002</v>
+      </c>
+      <c r="W184">
+        <v>134.5625</v>
+      </c>
+      <c r="X184">
+        <v>366.54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B185">
+        <v>143.85</v>
+      </c>
+      <c r="C185">
+        <v>4104.91</v>
+      </c>
+      <c r="D185">
+        <v>176.52780000000001</v>
+      </c>
+      <c r="E185">
+        <v>4109.3100000000004</v>
+      </c>
+      <c r="F185">
+        <v>646.76</v>
+      </c>
+      <c r="G185">
+        <v>1802.4839999999999</v>
+      </c>
+      <c r="H185">
+        <v>2092.6</v>
+      </c>
+      <c r="I185">
+        <v>990.28</v>
+      </c>
+      <c r="J185">
+        <v>510.464</v>
+      </c>
+      <c r="K185">
+        <v>1453.818</v>
+      </c>
+      <c r="L185">
+        <v>1235.1600000000001</v>
+      </c>
+      <c r="M185">
+        <v>18448.667000000001</v>
+      </c>
+      <c r="N185">
+        <v>3588.0039999999999</v>
+      </c>
+      <c r="O185">
+        <v>1718.69</v>
+      </c>
+      <c r="P185">
+        <v>373.22</v>
+      </c>
+      <c r="Q185">
+        <v>162.4709</v>
+      </c>
+      <c r="R185">
+        <v>4.6408199999999997</v>
+      </c>
+      <c r="S185">
+        <v>4.7309068339999998</v>
+      </c>
+      <c r="T185">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U185">
+        <v>1636.36</v>
+      </c>
+      <c r="V185">
+        <v>2366.27</v>
+      </c>
+      <c r="W185">
+        <v>141.125</v>
+      </c>
+      <c r="X185">
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B186">
+        <v>144.24</v>
+      </c>
+      <c r="C186">
+        <v>4135.75</v>
+      </c>
+      <c r="D186">
+        <v>176.87960000000001</v>
+      </c>
+      <c r="E186">
+        <v>4169.4799999999996</v>
+      </c>
+      <c r="F186">
+        <v>655</v>
+      </c>
+      <c r="G186">
+        <v>1768.9870000000001</v>
+      </c>
+      <c r="H186">
+        <v>2143.85</v>
+      </c>
+      <c r="I186">
+        <v>977.05</v>
+      </c>
+      <c r="J186">
+        <v>515.30060000000003</v>
+      </c>
+      <c r="K186">
+        <v>1467.85</v>
+      </c>
+      <c r="L186">
+        <v>1252.01</v>
+      </c>
+      <c r="M186">
+        <v>18601.562999999998</v>
+      </c>
+      <c r="N186">
+        <v>3691.3</v>
+      </c>
+      <c r="O186">
+        <v>1718.69</v>
+      </c>
+      <c r="P186">
+        <v>373.66</v>
+      </c>
+      <c r="Q186">
+        <v>162.4709</v>
+      </c>
+      <c r="R186">
+        <v>4.9508999999999999</v>
+      </c>
+      <c r="S186">
+        <v>5.1306892120000001</v>
+      </c>
+      <c r="T186">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U186">
+        <v>1654.5</v>
+      </c>
+      <c r="V186">
+        <v>2389.3040000000001</v>
+      </c>
+      <c r="W186">
+        <v>141.40625</v>
+      </c>
+      <c r="X186">
+        <v>388.47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B187">
+        <v>138.65</v>
+      </c>
+      <c r="C187">
+        <v>4020.88</v>
+      </c>
+      <c r="D187">
+        <v>170.57380000000001</v>
+      </c>
+      <c r="E187">
+        <v>4179.83</v>
+      </c>
+      <c r="F187">
+        <v>646.37</v>
+      </c>
+      <c r="G187">
+        <v>1749.65</v>
+      </c>
+      <c r="H187">
+        <v>2041.81</v>
+      </c>
+      <c r="I187">
+        <v>958.53</v>
+      </c>
+      <c r="J187">
+        <v>514.86080000000004</v>
+      </c>
+      <c r="K187">
+        <v>1453.913</v>
+      </c>
+      <c r="L187">
+        <v>1263.18</v>
+      </c>
+      <c r="M187">
+        <v>18548.652999999998</v>
+      </c>
+      <c r="N187">
+        <v>3798.7719999999999</v>
+      </c>
+      <c r="O187">
+        <v>1718.69</v>
+      </c>
+      <c r="P187">
+        <v>357.38</v>
+      </c>
+      <c r="Q187">
+        <v>162.4709</v>
+      </c>
+      <c r="R187">
+        <v>5.1535799999999998</v>
+      </c>
+      <c r="S187">
+        <v>5.3719694689999997</v>
+      </c>
+      <c r="T187">
+        <v>5215.8100000000004</v>
+      </c>
+      <c r="U187">
+        <v>1630.51</v>
+      </c>
+      <c r="V187">
+        <v>2394.2890000000002</v>
+      </c>
+      <c r="W187">
+        <v>136.375</v>
+      </c>
+      <c r="X187">
+        <v>379.55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B188">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="C188">
+        <v>4082.76</v>
+      </c>
+      <c r="D188">
+        <v>169.756</v>
+      </c>
+      <c r="E188">
+        <v>4450.38</v>
+      </c>
+      <c r="F188">
+        <v>682.84</v>
+      </c>
+      <c r="G188">
+        <v>1888.7339999999999</v>
+      </c>
+      <c r="H188">
+        <v>2131.7199999999998</v>
+      </c>
+      <c r="I188">
+        <v>989.48</v>
+      </c>
+      <c r="J188">
+        <v>526.38220000000001</v>
+      </c>
+      <c r="K188">
+        <v>1477.579</v>
+      </c>
+      <c r="L188">
+        <v>1270.1099999999999</v>
+      </c>
+      <c r="M188">
+        <v>18754.213</v>
+      </c>
+      <c r="N188">
+        <v>3876.107</v>
+      </c>
+      <c r="O188">
+        <v>1718.69</v>
+      </c>
+      <c r="P188">
+        <v>373.51</v>
+      </c>
+      <c r="Q188">
+        <v>162.4709</v>
+      </c>
+      <c r="R188">
+        <v>5.2157900000000001</v>
+      </c>
+      <c r="S188">
+        <v>5.2487262379999997</v>
+      </c>
+      <c r="T188">
+        <v>5362.12</v>
+      </c>
+      <c r="U188">
+        <v>1722.87</v>
+      </c>
+      <c r="V188">
+        <v>2554.4879999999998</v>
+      </c>
+      <c r="W188">
+        <v>136.21875</v>
+      </c>
+      <c r="X188">
+        <v>376.94</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B189">
+        <v>134.74</v>
+      </c>
+      <c r="C189">
+        <v>4077.42</v>
+      </c>
+      <c r="D189">
+        <v>164.77119999999999</v>
+      </c>
+      <c r="E189">
+        <v>4588.96</v>
+      </c>
+      <c r="F189">
+        <v>707.11</v>
+      </c>
+      <c r="G189">
+        <v>2003.1769999999999</v>
+      </c>
+      <c r="H189">
+        <v>2199.36</v>
+      </c>
+      <c r="I189">
+        <v>1046.9100000000001</v>
+      </c>
+      <c r="J189">
+        <v>533.23329999999999</v>
+      </c>
+      <c r="K189">
+        <v>1498.62</v>
+      </c>
+      <c r="L189">
+        <v>1256.76</v>
+      </c>
+      <c r="M189">
+        <v>18878.060000000001</v>
+      </c>
+      <c r="N189">
+        <v>3815.27</v>
+      </c>
+      <c r="O189">
+        <v>1718.69</v>
+      </c>
+      <c r="P189">
+        <v>380.33</v>
+      </c>
+      <c r="Q189">
+        <v>162.4709</v>
+      </c>
+      <c r="R189">
+        <v>5.2787199999999999</v>
+      </c>
+      <c r="S189">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T189">
+        <v>5362.12</v>
+      </c>
+      <c r="U189">
+        <v>1786.91</v>
+      </c>
+      <c r="V189">
+        <v>2643.6860000000001</v>
+      </c>
+      <c r="W189">
+        <v>132.21875</v>
+      </c>
+      <c r="X189">
+        <v>371.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B190">
+        <v>128.56</v>
+      </c>
+      <c r="C190">
+        <v>3997.94</v>
+      </c>
+      <c r="D190">
+        <v>159.50399999999999</v>
+      </c>
+      <c r="E190">
+        <v>4507.66</v>
+      </c>
+      <c r="F190">
+        <v>686.15</v>
+      </c>
+      <c r="G190">
+        <v>1899.6759999999999</v>
+      </c>
+      <c r="H190">
+        <v>2109.16</v>
+      </c>
+      <c r="I190">
+        <v>980.33</v>
+      </c>
+      <c r="J190">
+        <v>539.38930000000005</v>
+      </c>
+      <c r="K190">
+        <v>1502.896</v>
+      </c>
+      <c r="L190">
+        <v>1256.23</v>
+      </c>
+      <c r="M190">
+        <v>18774.57</v>
+      </c>
+      <c r="N190">
+        <v>3779.1060000000002</v>
+      </c>
+      <c r="O190">
+        <v>1718.69</v>
+      </c>
+      <c r="P190">
+        <v>366.99</v>
+      </c>
+      <c r="Q190">
+        <v>162.4709</v>
+      </c>
+      <c r="R190">
+        <v>5.3294600000000001</v>
+      </c>
+      <c r="S190">
+        <v>5.413067388</v>
+      </c>
+      <c r="T190">
+        <v>5362.12</v>
+      </c>
+      <c r="U190">
+        <v>1732.63</v>
+      </c>
+      <c r="V190">
+        <v>2588.1060000000002</v>
+      </c>
+      <c r="W190">
+        <v>127.96875</v>
+      </c>
+      <c r="X190">
+        <v>364.19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B191">
+        <v>114.43</v>
+      </c>
+      <c r="C191">
+        <v>3787.56</v>
+      </c>
+      <c r="D191">
+        <v>146.2216</v>
+      </c>
+      <c r="E191">
+        <v>4288.05</v>
+      </c>
+      <c r="F191">
+        <v>656.82</v>
+      </c>
+      <c r="G191">
+        <v>1785.1020000000001</v>
+      </c>
+      <c r="H191">
+        <v>2031.26</v>
+      </c>
+      <c r="I191">
+        <v>952.78</v>
+      </c>
+      <c r="J191">
+        <v>544.12260000000003</v>
+      </c>
+      <c r="K191">
+        <v>1485.4169999999999</v>
+      </c>
+      <c r="L191">
+        <v>1264.0029999999999</v>
+      </c>
+      <c r="M191">
+        <v>19002.797999999999</v>
+      </c>
+      <c r="N191">
+        <v>3907.5459999999998</v>
+      </c>
+      <c r="O191">
+        <v>1718.69</v>
+      </c>
+      <c r="P191">
+        <v>360.28</v>
+      </c>
+      <c r="Q191">
+        <v>162.4709</v>
+      </c>
+      <c r="R191">
+        <v>5.3626800000000001</v>
+      </c>
+      <c r="S191">
+        <v>5.4027921179999998</v>
+      </c>
+      <c r="T191">
+        <v>5362.12</v>
+      </c>
+      <c r="U191">
+        <v>1657.17</v>
+      </c>
+      <c r="V191">
+        <v>2462.06</v>
+      </c>
+      <c r="W191">
+        <v>118.6875</v>
+      </c>
+      <c r="X191">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B192">
+        <v>105.26</v>
+      </c>
+      <c r="C192">
+        <v>3628.5</v>
+      </c>
+      <c r="D192">
+        <v>138.67570000000001</v>
+      </c>
+      <c r="E192">
+        <v>4193.8</v>
+      </c>
+      <c r="F192">
+        <v>636.65</v>
+      </c>
+      <c r="G192">
+        <v>1662.2819999999999</v>
+      </c>
+      <c r="H192">
+        <v>1947.91</v>
+      </c>
+      <c r="I192">
+        <v>915.2</v>
+      </c>
+      <c r="J192">
+        <v>544.2876</v>
+      </c>
+      <c r="K192">
+        <v>1467.0319999999999</v>
+      </c>
+      <c r="L192">
+        <v>1267.6389999999999</v>
+      </c>
+      <c r="M192">
+        <v>18864.809000000001</v>
+      </c>
+      <c r="N192">
+        <v>3912.1610000000001</v>
+      </c>
+      <c r="O192">
+        <v>1718.69</v>
+      </c>
+      <c r="P192">
+        <v>360.28</v>
+      </c>
+      <c r="Q192">
+        <v>162.4709</v>
+      </c>
+      <c r="R192">
+        <v>5.3648400000000001</v>
+      </c>
+      <c r="S192">
+        <v>5.3976546809999997</v>
+      </c>
+      <c r="T192">
+        <v>5362.12</v>
+      </c>
+      <c r="U192">
+        <v>1600.93</v>
+      </c>
+      <c r="V192">
+        <v>2394.585</v>
+      </c>
+      <c r="W192">
+        <v>112.5625</v>
+      </c>
+      <c r="X192">
+        <v>330.52</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B193">
+        <v>120.27</v>
+      </c>
+      <c r="C193">
+        <v>4022.31</v>
+      </c>
+      <c r="D193">
+        <v>150.5694</v>
+      </c>
+      <c r="E193">
+        <v>4567.8</v>
+      </c>
+      <c r="F193">
+        <v>694.38</v>
+      </c>
+      <c r="G193">
+        <v>1809.02</v>
+      </c>
+      <c r="H193">
+        <v>2124.91</v>
+      </c>
+      <c r="I193">
+        <v>987.1</v>
+      </c>
+      <c r="J193">
+        <v>550.78459999999995</v>
+      </c>
+      <c r="K193">
+        <v>1533.7560000000001</v>
+      </c>
+      <c r="L193">
+        <v>1245.559</v>
+      </c>
+      <c r="M193">
+        <v>18864.809000000001</v>
+      </c>
+      <c r="N193">
+        <v>3721.7759999999998</v>
+      </c>
+      <c r="O193">
+        <v>1718.69</v>
+      </c>
+      <c r="P193">
+        <v>360.28</v>
+      </c>
+      <c r="Q193">
+        <v>162.4709</v>
+      </c>
+      <c r="R193">
+        <v>5.2951499999999996</v>
+      </c>
+      <c r="S193">
+        <v>5.3514236679999998</v>
+      </c>
+      <c r="T193">
+        <v>5362.12</v>
+      </c>
+      <c r="U193">
+        <v>1746.35</v>
+      </c>
+      <c r="V193">
+        <v>2612.866</v>
+      </c>
+      <c r="W193">
+        <v>122.3125</v>
+      </c>
+      <c r="X193">
+        <v>353.03</v>
       </c>
     </row>
   </sheetData>
@@ -44116,7 +45738,7 @@
       </c>
       <c r="K167" s="6">
         <f>data!K167/data!K166-1</f>
-        <v>3.3483317335747387E-4</v>
+        <v>3.354709508305298E-4</v>
       </c>
       <c r="L167" s="6">
         <f>data!L167/data!L166-1</f>
@@ -44213,7 +45835,7 @@
       </c>
       <c r="K168" s="6">
         <f>data!K168/data!K167-1</f>
-        <v>-1.7788035474060049E-3</v>
+        <v>-1.7788024133056357E-3</v>
       </c>
       <c r="L168" s="6">
         <f>data!L168/data!L167-1</f>
@@ -44310,7 +45932,7 @@
       </c>
       <c r="K169" s="6">
         <f>data!K169/data!K168-1</f>
-        <v>-1.0244749885033988E-2</v>
+        <v>-1.024793684026315E-2</v>
       </c>
       <c r="L169" s="6">
         <f>data!L169/data!L168-1</f>
@@ -44407,7 +46029,7 @@
       </c>
       <c r="K170" s="6">
         <f>data!K170/data!K169-1</f>
-        <v>1.8810820577682463E-2</v>
+        <v>1.8813450384477459E-2</v>
       </c>
       <c r="L170" s="6">
         <f>data!L170/data!L169-1</f>
@@ -44516,7 +46138,7 @@
       </c>
       <c r="N171" s="6">
         <f>data!N171/data!N170-1</f>
-        <v>3.4986342636308843E-2</v>
+        <v>3.4965943779434516E-2</v>
       </c>
       <c r="O171" s="6">
         <f>data!O171/data!O170-1</f>
@@ -44601,7 +46223,7 @@
       </c>
       <c r="K172" s="6">
         <f>data!K172/data!K171-1</f>
-        <v>-8.9814314278457985E-3</v>
+        <v>-8.9788262265613206E-3</v>
       </c>
       <c r="L172" s="6">
         <f>data!L172/data!L171-1</f>
@@ -44613,7 +46235,7 @@
       </c>
       <c r="N172" s="6">
         <f>data!N172/data!N171-1</f>
-        <v>3.6823013342242694E-2</v>
+        <v>3.6814520064304412E-2</v>
       </c>
       <c r="O172" s="6">
         <f>data!O172/data!O171-1</f>
@@ -44698,7 +46320,7 @@
       </c>
       <c r="K173" s="6">
         <f>data!K173/data!K172-1</f>
-        <v>-9.2468454258675115E-3</v>
+        <v>-9.2527359286647126E-3</v>
       </c>
       <c r="L173" s="6">
         <f>data!L173/data!L172-1</f>
@@ -44710,7 +46332,7 @@
       </c>
       <c r="N173" s="6">
         <f>data!N173/data!N172-1</f>
-        <v>9.6673736907330721E-2</v>
+        <v>9.6684099517180488E-2</v>
       </c>
       <c r="O173" s="6">
         <f>data!O173/data!O172-1</f>
@@ -44734,7 +46356,7 @@
       </c>
       <c r="T173" s="6">
         <f>data!T173/data!T172-1</f>
-        <v>0</v>
+        <v>1.7592766999434906E-2</v>
       </c>
       <c r="U173" s="6">
         <f>data!U173/data!U172-1</f>
@@ -44795,7 +46417,7 @@
       </c>
       <c r="K174" s="6">
         <f>data!K174/data!K173-1</f>
-        <v>-3.6377385524666073E-2</v>
+        <v>-3.6376179499510886E-2</v>
       </c>
       <c r="L174" s="6">
         <f>data!L174/data!L173-1</f>
@@ -44807,7 +46429,7 @@
       </c>
       <c r="N174" s="6">
         <f>data!N174/data!N173-1</f>
-        <v>7.0584995519819893E-2</v>
+        <v>7.058406133528905E-2</v>
       </c>
       <c r="O174" s="6">
         <f>data!O174/data!O173-1</f>
@@ -44831,7 +46453,7 @@
       </c>
       <c r="T174" s="6">
         <f>data!T174/data!T173-1</f>
-        <v>1.7592766999434906E-2</v>
+        <v>0</v>
       </c>
       <c r="U174" s="6">
         <f>data!U174/data!U173-1</f>
@@ -44892,7 +46514,7 @@
       </c>
       <c r="K175" s="6">
         <f>data!K175/data!K174-1</f>
-        <v>2.4988125477560796E-3</v>
+        <v>2.50363636488804E-3</v>
       </c>
       <c r="L175" s="6">
         <f>data!L175/data!L174-1</f>
@@ -44904,7 +46526,7 @@
       </c>
       <c r="N175" s="6">
         <f>data!N175/data!N174-1</f>
-        <v>-2.0120971301045287E-3</v>
+        <v>-1.9972506465995021E-3</v>
       </c>
       <c r="O175" s="6">
         <f>data!O175/data!O174-1</f>
@@ -44981,7 +46603,7 @@
       </c>
       <c r="I176" s="6">
         <f>data!I176/data!I175-1</f>
-        <v>-7.1450444013473557E-2</v>
+        <v>-7.1450444013473668E-2</v>
       </c>
       <c r="J176" s="6">
         <f>data!J176/data!J175-1</f>
@@ -44989,7 +46611,7 @@
       </c>
       <c r="K176" s="6">
         <f>data!K176/data!K175-1</f>
-        <v>-6.806196440342771E-2</v>
+        <v>-6.8066584084310988E-2</v>
       </c>
       <c r="L176" s="6">
         <f>data!L176/data!L175-1</f>
@@ -44997,11 +46619,11 @@
       </c>
       <c r="M176" s="6">
         <f>data!M176/data!M175-1</f>
-        <v>-4.2341138324794025E-3</v>
+        <v>-8.4436373581628921E-3</v>
       </c>
       <c r="N176" s="6">
         <f>data!N176/data!N175-1</f>
-        <v>2.5682476574804713E-2</v>
+        <v>2.570038434002786E-2</v>
       </c>
       <c r="O176" s="6">
         <f>data!O176/data!O175-1</f>
@@ -45025,7 +46647,7 @@
       </c>
       <c r="T176" s="6">
         <f>data!T176/data!T175-1</f>
-        <v>0</v>
+        <v>5.2939434325485202E-3</v>
       </c>
       <c r="U176" s="6">
         <f>data!U176/data!U175-1</f>
@@ -45086,7 +46708,7 @@
       </c>
       <c r="K177" s="6">
         <f>data!K177/data!K176-1</f>
-        <v>6.022693781314481E-2</v>
+        <v>6.0229281379195587E-2</v>
       </c>
       <c r="L177" s="6">
         <f>data!L177/data!L176-1</f>
@@ -45094,11 +46716,11 @@
       </c>
       <c r="M177" s="6">
         <f>data!M177/data!M176-1</f>
-        <v>-4.2274229155259135E-3</v>
+        <v>-8.0305910486971888E-3</v>
       </c>
       <c r="N177" s="6">
         <f>data!N177/data!N176-1</f>
-        <v>-4.4074644967500798E-2</v>
+        <v>-4.4079428894037043E-2</v>
       </c>
       <c r="O177" s="6">
         <f>data!O177/data!O176-1</f>
@@ -45183,7 +46805,7 @@
       </c>
       <c r="K178" s="6">
         <f>data!K178/data!K177-1</f>
-        <v>-2.394818407994781E-2</v>
+        <v>-2.3947489123938515E-2</v>
       </c>
       <c r="L178" s="6">
         <f>data!L178/data!L177-1</f>
@@ -45191,11 +46813,11 @@
       </c>
       <c r="M178" s="6">
         <f>data!M178/data!M177-1</f>
-        <v>-8.0305910486971888E-3</v>
+        <v>1.3003298510223305E-2</v>
       </c>
       <c r="N178" s="6">
         <f>data!N178/data!N177-1</f>
-        <v>3.9915463465757695E-2</v>
+        <v>3.9878314908612156E-2</v>
       </c>
       <c r="O178" s="6">
         <f>data!O178/data!O177-1</f>
@@ -45219,7 +46841,7 @@
       </c>
       <c r="T178" s="6">
         <f>data!T178/data!T177-1</f>
-        <v>5.2939434325485202E-3</v>
+        <v>0</v>
       </c>
       <c r="U178" s="6">
         <f>data!U178/data!U177-1</f>
@@ -45280,7 +46902,7 @@
       </c>
       <c r="K179" s="6">
         <f>data!K179/data!K178-1</f>
-        <v>-4.0214171793119147E-2</v>
+        <v>-4.0218415201060065E-2</v>
       </c>
       <c r="L179" s="6">
         <f>data!L179/data!L178-1</f>
@@ -45288,11 +46910,11 @@
       </c>
       <c r="M179" s="6">
         <f>data!M179/data!M178-1</f>
-        <v>3.0318563334581494E-2</v>
+        <v>1.2912852829181087E-2</v>
       </c>
       <c r="N179" s="6">
         <f>data!N179/data!N178-1</f>
-        <v>5.7586865209851901E-2</v>
+        <v>5.762695769894588E-2</v>
       </c>
       <c r="O179" s="6">
         <f>data!O179/data!O178-1</f>
@@ -45316,7 +46938,7 @@
       </c>
       <c r="T179" s="6">
         <f>data!T179/data!T178-1</f>
-        <v>0</v>
+        <v>1.8202090877472932E-2</v>
       </c>
       <c r="U179" s="6">
         <f>data!U179/data!U178-1</f>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
     <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
+    <definedName name="SpreadsheetBuilder_9" hidden="1">bbg!$A$1:$X$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -169,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -177,9 +178,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,123 +202,141 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|18353857057369631726</stp>
+        <stp>BDH|14015217597462143601</stp>
         <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12375187216603128887</stp>
+        <stp>BDH|14438450803569557280</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15036717230909588130</stp>
+        <tr r="K7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13151685034531477898</stp>
         <tr r="E7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15637698320093187126</stp>
-        <tr r="N7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10544755452679912856</stp>
-        <tr r="J7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17008031545871345295</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|18051710263079419431</stp>
+        <stp>BDH|10078699340125707856</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17906278738741851393</stp>
+        <stp>BDH|15334735746261321546</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11483066773271445539</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13508194407960473126</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13845873284115432692</stp>
+        <tr r="T7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14415381256664108663</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14262734843437481431</stp>
         <tr r="R7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15076265050800807667</stp>
-        <tr r="A7" s="1"/>
+        <stp>BDH|12569384212136187295</stp>
+        <tr r="S7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14532257514907526562</stp>
-        <tr r="V7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11680503742052798740</stp>
-        <tr r="T7" s="1"/>
+        <stp>BDH|15673295073752144718</stp>
+        <tr r="F7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C2</stp>
@@ -328,121 +344,141 @@
         <tr r="B5" s="1"/>
       </tp>
     </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6273828849171117770</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6101751445580951855</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2127354941729199211</stp>
+        <tr r="L7" s="1"/>
+      </tp>
+    </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C20</stp>
         <stp>PX_LAST</stp>
         <tr r="T5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C21</stp>
         <stp>PX_LAST</stp>
         <tr r="U5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C22</stp>
         <stp>PX_LAST</stp>
         <tr r="V5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C23</stp>
         <stp>PX_LAST</stp>
         <tr r="W5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C24</stp>
         <stp>PX_LAST</stp>
         <tr r="X5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C19</stp>
@@ -454,80 +490,44 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4698709259818338682</stp>
-        <tr r="L7" s="1"/>
+        <stp>BDH|4890086791510735224</stp>
+        <tr r="J7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3156902016925940470</stp>
-        <tr r="G7" s="1"/>
+        <stp>BDH|5408838876685244792</stp>
+        <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9021653845256816778</stp>
+        <stp>BDH|5796842052878474602</stp>
+        <tr r="X7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5096797111655286774</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9143392247829138436</stp>
         <tr r="M7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9878140236898161867</stp>
-        <tr r="S7" s="1"/>
+        <stp>BDH|912413065861719266</stp>
+        <tr r="D7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3127725000869849948</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7880740441696071762</stp>
-        <tr r="X7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8987355549103844967</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7253797949649611807</stp>
+        <stp>BDH|391767343935708719</stp>
         <tr r="H7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7662456251601122105</stp>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2208639251642318485</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1246031807909967823</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3873689679061216397</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7736316424220650774</stp>
-        <tr r="C7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -831,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X198"/>
+  <dimension ref="A1:X211"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A198" sqref="A160:X198"/>
+    <sheetView topLeftCell="A158" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A199" sqref="A198:XFD199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,8 +867,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>45260</v>
+      <c r="B2" s="1">
+        <v>45291</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1003,37 +1003,37 @@
         <f>_xll.BFieldInfo(P$6)</f>
         <v>Last Price</v>
       </c>
-      <c r="Q5" t="e">
+      <c r="Q5" t="str">
         <f>_xll.BFieldInfo(Q$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="R5" t="str">
         <f>_xll.BFieldInfo(R$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="S5" t="str">
         <f>_xll.BFieldInfo(S$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="T5" t="str">
         <f>_xll.BFieldInfo(T$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="U5" t="str">
         <f>_xll.BFieldInfo(U$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="V5" t="str">
         <f>_xll.BFieldInfo(V$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="W5" t="str">
         <f>_xll.BFieldInfo(W$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="X5" t="str">
         <f>_xll.BFieldInfo(X$6)</f>
-        <v>#N/A</v>
+        <v>Last Price</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1112,98 +1112,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=192")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=193")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>1294.818</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -15305,10 +15305,10 @@
         <v>1245.559</v>
       </c>
       <c r="M198">
-        <v>18864.809000000001</v>
+        <v>18685.78</v>
       </c>
       <c r="N198">
-        <v>3721.7759999999998</v>
+        <v>3721.598</v>
       </c>
       <c r="O198">
         <v>1718.69</v>
@@ -15340,6 +15340,116 @@
       <c r="X198">
         <v>353.03</v>
       </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B199">
+        <v>135.25</v>
+      </c>
+      <c r="C199">
+        <v>4318.32</v>
+      </c>
+      <c r="D199">
+        <v>163.5377</v>
+      </c>
+      <c r="E199">
+        <v>4769.83</v>
+      </c>
+      <c r="F199">
+        <v>727</v>
+      </c>
+      <c r="G199">
+        <v>2027.0740000000001</v>
+      </c>
+      <c r="H199">
+        <v>2236.16</v>
+      </c>
+      <c r="I199">
+        <v>1023.74</v>
+      </c>
+      <c r="J199">
+        <v>559.63530000000003</v>
+      </c>
+      <c r="K199">
+        <v>1590.318</v>
+      </c>
+      <c r="L199">
+        <v>1248.027</v>
+      </c>
+      <c r="M199">
+        <v>18804.79</v>
+      </c>
+      <c r="N199">
+        <v>3709.5720000000001</v>
+      </c>
+      <c r="O199">
+        <v>1718.69</v>
+      </c>
+      <c r="P199">
+        <v>360.28</v>
+      </c>
+      <c r="Q199">
+        <v>162.4709</v>
+      </c>
+      <c r="R199">
+        <v>5.2564000000000002</v>
+      </c>
+      <c r="S199">
+        <v>5.330879972</v>
+      </c>
+      <c r="T199">
+        <v>5362.12</v>
+      </c>
+      <c r="U199">
+        <v>1836.01</v>
+      </c>
+      <c r="V199">
+        <v>2748.2080000000001</v>
+      </c>
+      <c r="W199">
+        <v>133.59375</v>
+      </c>
+      <c r="X199">
+        <v>380.42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15348,10 +15458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X193"/>
+  <dimension ref="A1:X194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29618,10 +29728,10 @@
         <v>1245.559</v>
       </c>
       <c r="M193">
-        <v>18864.809000000001</v>
+        <v>18685.78</v>
       </c>
       <c r="N193">
-        <v>3721.7759999999998</v>
+        <v>3721.598</v>
       </c>
       <c r="O193">
         <v>1718.69</v>
@@ -29652,6 +29762,80 @@
       </c>
       <c r="X193">
         <v>353.03</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B194">
+        <v>135.25</v>
+      </c>
+      <c r="C194">
+        <v>4318.32</v>
+      </c>
+      <c r="D194">
+        <v>163.5377</v>
+      </c>
+      <c r="E194">
+        <v>4769.83</v>
+      </c>
+      <c r="F194">
+        <v>727</v>
+      </c>
+      <c r="G194">
+        <v>2027.0740000000001</v>
+      </c>
+      <c r="H194">
+        <v>2236.16</v>
+      </c>
+      <c r="I194">
+        <v>1023.74</v>
+      </c>
+      <c r="J194">
+        <v>559.63530000000003</v>
+      </c>
+      <c r="K194">
+        <v>1590.318</v>
+      </c>
+      <c r="L194">
+        <v>1248.027</v>
+      </c>
+      <c r="M194">
+        <v>18804.79</v>
+      </c>
+      <c r="N194">
+        <v>3709.5720000000001</v>
+      </c>
+      <c r="O194">
+        <v>1718.69</v>
+      </c>
+      <c r="P194">
+        <v>360.28</v>
+      </c>
+      <c r="Q194">
+        <v>162.4709</v>
+      </c>
+      <c r="R194">
+        <v>5.2564000000000002</v>
+      </c>
+      <c r="S194">
+        <v>5.330879972</v>
+      </c>
+      <c r="T194">
+        <v>5362.12</v>
+      </c>
+      <c r="U194">
+        <v>1836.01</v>
+      </c>
+      <c r="V194">
+        <v>2748.2080000000001</v>
+      </c>
+      <c r="W194">
+        <v>133.59375</v>
+      </c>
+      <c r="X194">
+        <v>380.42</v>
       </c>
     </row>
   </sheetData>
@@ -29663,7 +29847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B179" sqref="B3:B179"/>
     </sheetView>

--- a/data/index_data.xlsx
+++ b/data/index_data.xlsx
@@ -19,7 +19,6 @@
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" localSheetId="1" hidden="1">data!$A$1:$P$3</definedName>
     <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$P$7</definedName>
-    <definedName name="SpreadsheetBuilder_9" hidden="1">bbg!$A$1:$X$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -170,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -178,6 +177,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,141 +204,123 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14015217597462143601</stp>
+        <stp>BDH|18353857057369631726</stp>
         <tr r="W7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14438450803569557280</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15036717230909588130</stp>
-        <tr r="K7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13151685034531477898</stp>
+        <stp>BDH|12375187216603128887</stp>
         <tr r="E7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10078699340125707856</stp>
+        <stp>BDH|15637698320093187126</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10544755452679912856</stp>
+        <tr r="J7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17008031545871345295</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18051710263079419431</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15334735746261321546</stp>
-        <tr r="G7" s="1"/>
+        <stp>BDH|17906278738741851393</stp>
+        <tr r="R7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11483066773271445539</stp>
-        <tr r="Q7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13508194407960473126</stp>
-        <tr r="U7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13845873284115432692</stp>
-        <tr r="T7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14415381256664108663</stp>
+        <stp>BDH|15076265050800807667</stp>
         <tr r="A7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14262734843437481431</stp>
-        <tr r="R7" s="1"/>
+        <stp>BDH|14532257514907526562</stp>
+        <tr r="V7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12569384212136187295</stp>
-        <tr r="S7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15673295073752144718</stp>
-        <tr r="F7" s="1"/>
+        <stp>BDH|11680503742052798740</stp>
+        <tr r="T7" s="1"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C2</stp>
@@ -344,141 +328,121 @@
         <tr r="B5" s="1"/>
       </tp>
     </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6273828849171117770</stp>
-        <tr r="O7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6101751445580951855</stp>
-        <tr r="P7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2127354941729199211</stp>
-        <tr r="L7" s="1"/>
-      </tp>
-    </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C20</stp>
         <stp>PX_LAST</stp>
         <tr r="T5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C21</stp>
         <stp>PX_LAST</stp>
         <tr r="U5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C22</stp>
         <stp>PX_LAST</stp>
         <tr r="V5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C23</stp>
         <stp>PX_LAST</stp>
         <tr r="W5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C24</stp>
         <stp>PX_LAST</stp>
         <tr r="X5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[index_data.xlsx]bbg!R5C19</stp>
@@ -490,44 +454,80 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4890086791510735224</stp>
-        <tr r="J7" s="1"/>
+        <stp>BDH|4698709259818338682</stp>
+        <tr r="L7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5408838876685244792</stp>
-        <tr r="V7" s="1"/>
+        <stp>BDH|3156902016925940470</stp>
+        <tr r="G7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5796842052878474602</stp>
+        <stp>BDH|9021653845256816778</stp>
+        <tr r="M7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9878140236898161867</stp>
+        <tr r="S7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3127725000869849948</stp>
+        <tr r="P7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7880740441696071762</stp>
         <tr r="X7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5096797111655286774</stp>
-        <tr r="N7" s="1"/>
+        <stp>BDH|8987355549103844967</stp>
+        <tr r="K7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9143392247829138436</stp>
-        <tr r="M7" s="1"/>
+        <stp>BDH|7253797949649611807</stp>
+        <tr r="H7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|912413065861719266</stp>
-        <tr r="D7" s="1"/>
+        <stp>BDH|7662456251601122105</stp>
+        <tr r="F7" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|391767343935708719</stp>
-        <tr r="H7" s="1"/>
+        <stp>BDH|2208639251642318485</stp>
+        <tr r="U7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1246031807909967823</stp>
+        <tr r="Q7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3873689679061216397</stp>
+        <tr r="O7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7736316424220650774</stp>
+        <tr r="C7" s="1"/>
       </tp>
     </main>
   </volType>
@@ -831,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X211"/>
+  <dimension ref="A1:X198"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A199" sqref="A198:XFD199"/>
+    <sheetView topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A198" sqref="A160:X198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,8 +867,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>45291</v>
+      <c r="B2" s="7">
+        <v>45260</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1003,37 +1003,37 @@
         <f>_xll.BFieldInfo(P$6)</f>
         <v>Last Price</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5" t="e">
         <f>_xll.BFieldInfo(Q$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="R5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R5" t="e">
         <f>_xll.BFieldInfo(R$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="S5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" t="e">
         <f>_xll.BFieldInfo(S$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="T5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" t="e">
         <f>_xll.BFieldInfo(T$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="U5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" t="e">
         <f>_xll.BFieldInfo(U$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="V5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="e">
         <f>_xll.BFieldInfo(V$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="W5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W5" t="e">
         <f>_xll.BFieldInfo(W$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="X5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X5" t="e">
         <f>_xll.BFieldInfo(X$6)</f>
-        <v>Last Price</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1112,98 +1112,98 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=193")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=S","cols=2;rows=192")</f>
         <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1902.17</v>
       </c>
       <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1468.36</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>403.25</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>766.03700000000003</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>2253.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1245.5899999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>270.02620000000002</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>590.78</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1294.818</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>12335.221</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1915.1320000000001</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1389.21</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>255.67</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>141.76349999999999</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>3.1589900000000002</v>
       </c>
       <c r="S7">
-        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(S$4,S$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>3.33792826</v>
       </c>
       <c r="T7">
-        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(T$4,T$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>1412.28</v>
       </c>
       <c r="U7">
-        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(U$4,U$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>996.96</v>
       </c>
       <c r="V7">
-        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(V$4,V$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>849.221</v>
       </c>
       <c r="W7" t="str">
-        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(W$4,W$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>#N/A N/A</v>
       </c>
       <c r="X7">
-        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=193")</f>
+        <f>_xll.BDH(X$4,X$6,$B1,$B2,"Dir=V","Per=M","Days=A","Dts=H","cols=1;rows=192")</f>
         <v>221.59</v>
       </c>
     </row>
@@ -15305,10 +15305,10 @@
         <v>1245.559</v>
       </c>
       <c r="M198">
-        <v>18685.78</v>
+        <v>18864.809000000001</v>
       </c>
       <c r="N198">
-        <v>3721.598</v>
+        <v>3721.7759999999998</v>
       </c>
       <c r="O198">
         <v>1718.69</v>
@@ -15340,116 +15340,6 @@
       <c r="X198">
         <v>353.03</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B199">
-        <v>135.25</v>
-      </c>
-      <c r="C199">
-        <v>4318.32</v>
-      </c>
-      <c r="D199">
-        <v>163.5377</v>
-      </c>
-      <c r="E199">
-        <v>4769.83</v>
-      </c>
-      <c r="F199">
-        <v>727</v>
-      </c>
-      <c r="G199">
-        <v>2027.0740000000001</v>
-      </c>
-      <c r="H199">
-        <v>2236.16</v>
-      </c>
-      <c r="I199">
-        <v>1023.74</v>
-      </c>
-      <c r="J199">
-        <v>559.63530000000003</v>
-      </c>
-      <c r="K199">
-        <v>1590.318</v>
-      </c>
-      <c r="L199">
-        <v>1248.027</v>
-      </c>
-      <c r="M199">
-        <v>18804.79</v>
-      </c>
-      <c r="N199">
-        <v>3709.5720000000001</v>
-      </c>
-      <c r="O199">
-        <v>1718.69</v>
-      </c>
-      <c r="P199">
-        <v>360.28</v>
-      </c>
-      <c r="Q199">
-        <v>162.4709</v>
-      </c>
-      <c r="R199">
-        <v>5.2564000000000002</v>
-      </c>
-      <c r="S199">
-        <v>5.330879972</v>
-      </c>
-      <c r="T199">
-        <v>5362.12</v>
-      </c>
-      <c r="U199">
-        <v>1836.01</v>
-      </c>
-      <c r="V199">
-        <v>2748.2080000000001</v>
-      </c>
-      <c r="W199">
-        <v>133.59375</v>
-      </c>
-      <c r="X199">
-        <v>380.42</v>
-      </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15458,10 +15348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X194"/>
+  <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29728,10 +29618,10 @@
         <v>1245.559</v>
       </c>
       <c r="M193">
-        <v>18685.78</v>
+        <v>18864.809000000001</v>
       </c>
       <c r="N193">
-        <v>3721.598</v>
+        <v>3721.7759999999998</v>
       </c>
       <c r="O193">
         <v>1718.69</v>
@@ -29762,80 +29652,6 @@
       </c>
       <c r="X193">
         <v>353.03</v>
-      </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B194">
-        <v>135.25</v>
-      </c>
-      <c r="C194">
-        <v>4318.32</v>
-      </c>
-      <c r="D194">
-        <v>163.5377</v>
-      </c>
-      <c r="E194">
-        <v>4769.83</v>
-      </c>
-      <c r="F194">
-        <v>727</v>
-      </c>
-      <c r="G194">
-        <v>2027.0740000000001</v>
-      </c>
-      <c r="H194">
-        <v>2236.16</v>
-      </c>
-      <c r="I194">
-        <v>1023.74</v>
-      </c>
-      <c r="J194">
-        <v>559.63530000000003</v>
-      </c>
-      <c r="K194">
-        <v>1590.318</v>
-      </c>
-      <c r="L194">
-        <v>1248.027</v>
-      </c>
-      <c r="M194">
-        <v>18804.79</v>
-      </c>
-      <c r="N194">
-        <v>3709.5720000000001</v>
-      </c>
-      <c r="O194">
-        <v>1718.69</v>
-      </c>
-      <c r="P194">
-        <v>360.28</v>
-      </c>
-      <c r="Q194">
-        <v>162.4709</v>
-      </c>
-      <c r="R194">
-        <v>5.2564000000000002</v>
-      </c>
-      <c r="S194">
-        <v>5.330879972</v>
-      </c>
-      <c r="T194">
-        <v>5362.12</v>
-      </c>
-      <c r="U194">
-        <v>1836.01</v>
-      </c>
-      <c r="V194">
-        <v>2748.2080000000001</v>
-      </c>
-      <c r="W194">
-        <v>133.59375</v>
-      </c>
-      <c r="X194">
-        <v>380.42</v>
       </c>
     </row>
   </sheetData>
@@ -29847,7 +29663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B179" sqref="B3:B179"/>
     </sheetView>
